--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ApsimX\Prototypes\Wheat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="12" windowWidth="12120" windowHeight="6456"/>
+    <workbookView xWindow="195" yWindow="15" windowWidth="12120" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeSeries" sheetId="2" r:id="rId2"/>
+    <sheet name="LeafAppearance" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$2:$AE$226</definedName>
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="211">
   <si>
     <t>SimulationName</t>
   </si>
@@ -30,6 +27,9 @@
     <t>Clock.Today</t>
   </si>
   <si>
+    <t>Wheat.AboveGround.Wt</t>
+  </si>
+  <si>
     <t>Wheat.Grain.Wt</t>
   </si>
   <si>
@@ -69,6 +69,9 @@
     <t>APS14StubbleStrawNRate200</t>
   </si>
   <si>
+    <t>Wheat.AboveGround.WtErr</t>
+  </si>
+  <si>
     <t>Wheat.Grain.WtErr</t>
   </si>
   <si>
@@ -90,6 +93,12 @@
     <t>Wheat.Leaf.Dead.WtErr</t>
   </si>
   <si>
+    <t>Wheat.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Wheat.AboveGround.Nerr</t>
+  </si>
+  <si>
     <t>Wheat.Grain.Live.N</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t>Wheat.Grain.Live.Nconc</t>
   </si>
   <si>
+    <t>Wheat.Grain.GrainNo</t>
+  </si>
+  <si>
     <t>APS26NRate0WaterWet</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t>APS26NRate160WaterDry</t>
   </si>
   <si>
+    <t>Wheat.Grain.GrainSize</t>
+  </si>
+  <si>
     <t>Nrate</t>
   </si>
   <si>
@@ -597,29 +612,56 @@
     <t>Wheat.Zadok.Stage</t>
   </si>
   <si>
-    <t>Wheat.Summariser.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Summariser.AboveGround.Wt.WtErr</t>
-  </si>
-  <si>
-    <t>Wheat.Sumariser.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Wheat.Sumariser.AboveGround.Nerr</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
+    <t>Lincoln2014IrrigFull</t>
+  </si>
+  <si>
+    <t>Lincoln2014IrrigNil</t>
+  </si>
+  <si>
+    <t>Lincoln2014IrrigVeryEarly</t>
+  </si>
+  <si>
+    <t>Lincoln2014IrrigEarly</t>
+  </si>
+  <si>
+    <t>Lincoln2014IrrigMiddle</t>
+  </si>
+  <si>
+    <t>Lincoln2014IrrigLate</t>
+  </si>
+  <si>
+    <t>Wheat.Structure.TotalStemPopn</t>
+  </si>
+  <si>
+    <t>Wheat.Structure.Popn</t>
+  </si>
+  <si>
+    <t>Wheat.Ear.Live.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Spike.Live.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Grain.Live.Wt</t>
+  </si>
+  <si>
+    <t>Summariser.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.AppearedCohortNo</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.ExpandedCohortNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -665,20 +707,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -725,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,10 +794,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +828,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,48 +1003,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA2" workbookViewId="0">
-      <pane ySplit="588" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="585" activePane="bottomLeft"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" customWidth="1"/>
-    <col min="16" max="17" width="29.6640625" customWidth="1"/>
-    <col min="18" max="18" width="30.44140625" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" customWidth="1"/>
-    <col min="20" max="20" width="26.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.109375" customWidth="1"/>
-    <col min="23" max="23" width="23.6640625" customWidth="1"/>
-    <col min="24" max="24" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="17" width="29.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="30.44140625" customWidth="1"/>
-    <col min="27" max="27" width="28.6640625" customWidth="1"/>
-    <col min="28" max="28" width="26.88671875" customWidth="1"/>
-    <col min="29" max="29" width="27.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.44140625" customWidth="1"/>
+    <col min="26" max="26" width="30.42578125" customWidth="1"/>
+    <col min="27" max="27" width="28.7109375" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="30" max="30" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1017,103 +1052,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1145,16 +1180,16 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1186,16 +1221,16 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1227,16 +1262,16 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1268,16 +1303,16 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1309,16 +1344,16 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1350,16 +1385,16 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1391,16 +1426,16 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1432,16 +1467,16 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1473,16 +1508,16 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1514,16 +1549,16 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1555,16 +1590,16 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1596,16 +1631,16 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1637,16 +1672,16 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1678,16 +1713,16 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1719,16 +1754,16 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1760,16 +1795,16 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1801,16 +1836,16 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1842,16 +1877,16 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1883,16 +1918,16 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1924,16 +1959,16 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1965,16 +2000,16 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2006,16 +2041,16 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2047,16 +2082,16 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2088,16 +2123,16 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31">
       <c r="A26" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E26" s="1">
         <v>346.221</v>
@@ -2139,16 +2174,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E27" s="1">
         <v>734.98099999999999</v>
@@ -2190,16 +2225,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31">
       <c r="A28" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E28" s="1">
         <v>1034.248</v>
@@ -2241,16 +2276,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1">
         <v>1371.894</v>
@@ -2292,16 +2327,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31">
       <c r="A30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>90</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E30" s="1">
         <v>911.28300000000002</v>
@@ -2343,16 +2378,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31">
       <c r="A31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E31" s="1">
         <v>1196.74</v>
@@ -2394,16 +2429,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31">
       <c r="A32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1">
         <v>1273.463</v>
@@ -2445,16 +2480,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E33" s="1">
         <v>1559.067</v>
@@ -2496,16 +2531,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31">
       <c r="A34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E34" s="1">
         <v>237.78299999999999</v>
@@ -2547,16 +2582,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31">
       <c r="A35" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E35" s="1">
         <v>547.74599999999998</v>
@@ -2598,16 +2633,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E36" s="1">
         <v>966.14099999999996</v>
@@ -2649,16 +2684,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31">
       <c r="A37" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E37" s="1">
         <v>1401.587</v>
@@ -2700,9 +2735,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31">
       <c r="A38" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>34912</v>
@@ -2745,9 +2780,9 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>34942</v>
@@ -2790,9 +2825,9 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31">
       <c r="A40" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>34962</v>
@@ -2835,9 +2870,9 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31">
       <c r="A41" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>34991</v>
@@ -2846,7 +2881,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1">
         <v>320.3</v>
@@ -2890,9 +2925,9 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31">
       <c r="A42" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>34912</v>
@@ -2935,9 +2970,9 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31">
       <c r="A43" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
         <v>34942</v>
@@ -2980,9 +3015,9 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31">
       <c r="A44" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2">
         <v>34962</v>
@@ -3025,9 +3060,9 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31">
       <c r="A45" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2">
         <v>34991</v>
@@ -3036,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E45" s="1">
         <v>467.7</v>
@@ -3082,9 +3117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>34912</v>
@@ -3127,9 +3162,9 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31">
       <c r="A47" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>34942</v>
@@ -3172,9 +3207,9 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2">
         <v>34962</v>
@@ -3217,9 +3252,9 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31">
       <c r="A49" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2">
         <v>34991</v>
@@ -3228,7 +3263,7 @@
         <v>90</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E49" s="1">
         <v>1039.4000000000001</v>
@@ -3274,9 +3309,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31">
       <c r="A50" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2">
         <v>34912</v>
@@ -3319,9 +3354,9 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31">
       <c r="A51" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2">
         <v>34942</v>
@@ -3364,9 +3399,9 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31">
       <c r="A52" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2">
         <v>34962</v>
@@ -3409,9 +3444,9 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31">
       <c r="A53" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2">
         <v>34991</v>
@@ -3420,7 +3455,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E53" s="1">
         <v>1282</v>
@@ -3466,9 +3501,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31">
       <c r="A54" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B54" s="2">
         <v>34912</v>
@@ -3511,9 +3546,9 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B55" s="2">
         <v>34942</v>
@@ -3556,9 +3591,9 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2">
         <v>34962</v>
@@ -3601,9 +3636,9 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31">
       <c r="A57" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B57" s="2">
         <v>34991</v>
@@ -3612,7 +3647,7 @@
         <v>90</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1">
         <v>699.4</v>
@@ -3658,9 +3693,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31">
       <c r="A58" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2">
         <v>34912</v>
@@ -3703,9 +3738,9 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31">
       <c r="A59" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B59" s="2">
         <v>34942</v>
@@ -3748,9 +3783,9 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31">
       <c r="A60" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2">
         <v>34962</v>
@@ -3793,9 +3828,9 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31">
       <c r="A61" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
         <v>34991</v>
@@ -3804,7 +3839,7 @@
         <v>90</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E61" s="1">
         <v>928.4</v>
@@ -3850,9 +3885,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31">
       <c r="A62" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B62" s="2">
         <v>34912</v>
@@ -3895,9 +3930,9 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31">
       <c r="A63" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2">
         <v>34942</v>
@@ -3940,9 +3975,9 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31">
       <c r="A64" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B64" s="2">
         <v>34962</v>
@@ -3985,9 +4020,9 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31">
       <c r="A65" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2">
         <v>34991</v>
@@ -3996,7 +4031,7 @@
         <v>90</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E65" s="1">
         <v>912.4</v>
@@ -4042,9 +4077,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31">
       <c r="A66" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B66" s="2">
         <v>34912</v>
@@ -4087,9 +4122,9 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31">
       <c r="A67" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2">
         <v>34942</v>
@@ -4132,9 +4167,9 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31">
       <c r="A68" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2">
         <v>34962</v>
@@ -4177,9 +4212,9 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31">
       <c r="A69" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2">
         <v>34991</v>
@@ -4188,7 +4223,7 @@
         <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E69" s="1">
         <v>1106.0999999999999</v>
@@ -4234,9 +4269,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31">
       <c r="A70" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2">
         <v>33797</v>
@@ -4299,9 +4334,9 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31">
       <c r="A71" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2">
         <v>33812</v>
@@ -4364,9 +4399,9 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31">
       <c r="A72" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2">
         <v>33840</v>
@@ -4437,9 +4472,9 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31">
       <c r="A73" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2">
         <v>33856</v>
@@ -4510,9 +4545,9 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31">
       <c r="A74" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2">
         <v>33877</v>
@@ -4583,9 +4618,9 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31">
       <c r="A75" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2">
         <v>33889</v>
@@ -4660,9 +4695,9 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31">
       <c r="A76" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2">
         <v>33907</v>
@@ -4671,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E76" s="1">
         <v>198.73</v>
@@ -4719,9 +4754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31">
       <c r="A77" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2">
         <v>33797</v>
@@ -4784,9 +4819,9 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31">
       <c r="A78" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2">
         <v>33812</v>
@@ -4849,9 +4884,9 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31">
       <c r="A79" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2">
         <v>33840</v>
@@ -4922,9 +4957,9 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31">
       <c r="A80" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2">
         <v>33856</v>
@@ -4995,9 +5030,9 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31">
       <c r="A81" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2">
         <v>33877</v>
@@ -5068,9 +5103,9 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31">
       <c r="A82" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2">
         <v>33889</v>
@@ -5145,9 +5180,9 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31">
       <c r="A83" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2">
         <v>33907</v>
@@ -5156,7 +5191,7 @@
         <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E83" s="1">
         <v>1202.75</v>
@@ -5204,9 +5239,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31">
       <c r="A84" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2">
         <v>33797</v>
@@ -5269,9 +5304,9 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31">
       <c r="A85" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2">
         <v>33812</v>
@@ -5334,9 +5369,9 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31">
       <c r="A86" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2">
         <v>33840</v>
@@ -5407,9 +5442,9 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31">
       <c r="A87" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2">
         <v>33856</v>
@@ -5480,9 +5515,9 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31">
       <c r="A88" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2">
         <v>33877</v>
@@ -5553,9 +5588,9 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31">
       <c r="A89" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2">
         <v>33889</v>
@@ -5630,9 +5665,9 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31">
       <c r="A90" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
         <v>33907</v>
@@ -5641,7 +5676,7 @@
         <v>90</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1">
         <v>1720.61</v>
@@ -5689,9 +5724,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31">
       <c r="A91" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2">
         <v>33797</v>
@@ -5754,9 +5789,9 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31">
       <c r="A92" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2">
         <v>33812</v>
@@ -5819,9 +5854,9 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31">
       <c r="A93" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2">
         <v>33840</v>
@@ -5892,9 +5927,9 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31">
       <c r="A94" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2">
         <v>33856</v>
@@ -5965,9 +6000,9 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31">
       <c r="A95" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2">
         <v>33877</v>
@@ -6038,9 +6073,9 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31">
       <c r="A96" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2">
         <v>33889</v>
@@ -6115,9 +6150,9 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31">
       <c r="A97" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2">
         <v>33907</v>
@@ -6126,7 +6161,7 @@
         <v>90</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E97" s="1">
         <v>1768.45</v>
@@ -6174,9 +6209,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31">
       <c r="A98" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2">
         <v>33797</v>
@@ -6239,9 +6274,9 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31">
       <c r="A99" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2">
         <v>33812</v>
@@ -6304,9 +6339,9 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31">
       <c r="A100" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2">
         <v>33840</v>
@@ -6377,9 +6412,9 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31">
       <c r="A101" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2">
         <v>33856</v>
@@ -6450,9 +6485,9 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31">
       <c r="A102" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2">
         <v>33877</v>
@@ -6523,9 +6558,9 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31">
       <c r="A103" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
         <v>33889</v>
@@ -6588,9 +6623,9 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31">
       <c r="A104" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2">
         <v>33907</v>
@@ -6599,7 +6634,7 @@
         <v>90</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E104" s="1">
         <v>661.04</v>
@@ -6647,9 +6682,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31">
       <c r="A105" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2">
         <v>33797</v>
@@ -6712,9 +6747,9 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31">
       <c r="A106" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2">
         <v>33812</v>
@@ -6777,9 +6812,9 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31">
       <c r="A107" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>33840</v>
@@ -6850,9 +6885,9 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31">
       <c r="A108" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
         <v>33856</v>
@@ -6923,9 +6958,9 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31">
       <c r="A109" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2">
         <v>33877</v>
@@ -6996,9 +7031,9 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31">
       <c r="A110" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2">
         <v>33889</v>
@@ -7073,9 +7108,9 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31">
       <c r="A111" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>33907</v>
@@ -7084,7 +7119,7 @@
         <v>90</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E111" s="1">
         <v>1229.53</v>
@@ -7132,16 +7167,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31">
       <c r="A112" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1">
         <v>90</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -7173,16 +7208,16 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31">
       <c r="A113" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1">
         <v>90</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -7214,16 +7249,16 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31">
       <c r="A114" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1">
         <v>90</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -7255,16 +7290,16 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31">
       <c r="A115" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1">
         <v>90</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -7296,16 +7331,16 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31">
       <c r="A116" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1">
         <v>90</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -7337,16 +7372,16 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31">
       <c r="A117" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1">
         <v>90</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7378,16 +7413,16 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31">
       <c r="A118" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1">
         <v>90</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -7419,16 +7454,16 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31">
       <c r="A119" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1">
         <v>90</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -7460,16 +7495,16 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31">
       <c r="A120" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1">
         <v>90</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -7501,16 +7536,16 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31">
       <c r="A121" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1">
         <v>90</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -7542,16 +7577,16 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31">
       <c r="A122" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1">
         <v>90</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -7583,16 +7618,16 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31">
       <c r="A123" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1">
         <v>90</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -7624,16 +7659,16 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31">
       <c r="A124" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1">
         <v>90</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7665,16 +7700,16 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31">
       <c r="A125" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1">
         <v>90</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7706,16 +7741,16 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31">
       <c r="A126" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1">
         <v>90</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -7747,16 +7782,16 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31">
       <c r="A127" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1">
         <v>90</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -7788,16 +7823,16 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31">
       <c r="A128" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1">
         <v>90</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7829,16 +7864,16 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31">
       <c r="A129" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1">
         <v>90</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -7876,16 +7911,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31">
       <c r="A130" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1">
         <v>90</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -7923,16 +7958,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31">
       <c r="A131" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1">
         <v>90</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -7970,16 +8005,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31">
       <c r="A132" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1">
         <v>90</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E132" s="1">
         <v>715</v>
@@ -8019,16 +8054,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31">
       <c r="A133" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1">
         <v>90</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E133" s="1">
         <v>482</v>
@@ -8068,16 +8103,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31">
       <c r="A134" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1">
         <v>90</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E134" s="1">
         <v>502</v>
@@ -8117,16 +8152,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31">
       <c r="A135" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1">
         <v>90</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E135" s="1">
         <v>593</v>
@@ -8166,16 +8201,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31">
       <c r="A136" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1">
         <v>90</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E136" s="1">
         <v>735</v>
@@ -8215,16 +8250,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31">
       <c r="A137" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1">
         <v>90</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E137" s="1">
         <v>940.4</v>
@@ -8262,16 +8297,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31">
       <c r="A138" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1">
         <v>90</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E138" s="1">
         <v>1711.7</v>
@@ -8309,16 +8344,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31">
       <c r="A139" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1">
         <v>90</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E139" s="1">
         <v>1784.5</v>
@@ -8356,16 +8391,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31">
       <c r="A140" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1">
         <v>90</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E140" s="1">
         <v>1913.1</v>
@@ -8403,16 +8438,16 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31">
       <c r="A141" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1">
         <v>90</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E141" s="1">
         <v>734.3</v>
@@ -8450,16 +8485,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31">
       <c r="A142" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1">
         <v>90</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E142" s="1">
         <v>1285.5</v>
@@ -8497,16 +8532,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31">
       <c r="A143" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1">
         <v>90</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E143" s="1">
         <v>1714</v>
@@ -8544,16 +8579,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31">
       <c r="A144" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1">
         <v>90</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E144" s="1">
         <v>1650</v>
@@ -8591,16 +8626,16 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31">
       <c r="A145" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1">
         <v>90</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E145" s="1">
         <v>705.3</v>
@@ -8638,16 +8673,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31">
       <c r="A146" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1">
         <v>90</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E146" s="1">
         <v>1369.1</v>
@@ -8685,16 +8720,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31">
       <c r="A147" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1">
         <v>90</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E147" s="1">
         <v>1452.7</v>
@@ -8732,16 +8767,16 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31">
       <c r="A148" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1">
         <v>90</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E148" s="1">
         <v>1541.6</v>
@@ -8779,16 +8814,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31">
       <c r="A149" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1">
         <v>90</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E149" s="1">
         <v>631.20000000000005</v>
@@ -8826,16 +8861,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31">
       <c r="A150" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1">
         <v>90</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E150" s="1">
         <v>1342.2</v>
@@ -8873,16 +8908,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31">
       <c r="A151" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1">
         <v>90</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E151" s="1">
         <v>1547.5</v>
@@ -8920,16 +8955,16 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31">
       <c r="A152" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1">
         <v>90</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E152" s="1">
         <v>1597.3</v>
@@ -8967,16 +9002,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31">
       <c r="A153" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1">
         <v>90</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E153" s="1">
         <v>641.5</v>
@@ -9022,16 +9057,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31">
       <c r="A154" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1">
         <v>90</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E154" s="1">
         <v>521.70000000000005</v>
@@ -9077,16 +9112,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31">
       <c r="A155" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1">
         <v>90</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E155" s="1">
         <v>624</v>
@@ -9134,16 +9169,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31">
       <c r="A156" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1">
         <v>90</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E156" s="1">
         <v>690</v>
@@ -9191,16 +9226,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31">
       <c r="A157" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1">
         <v>90</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E157" s="1">
         <v>735</v>
@@ -9248,16 +9283,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31">
       <c r="A158" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1">
         <v>90</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -9295,16 +9330,16 @@
       </c>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31">
       <c r="A159" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1">
         <v>90</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -9342,16 +9377,16 @@
       </c>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31">
       <c r="A160" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1">
         <v>90</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -9389,16 +9424,16 @@
       </c>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31">
       <c r="A161" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1">
         <v>90</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -9436,16 +9471,16 @@
       </c>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31">
       <c r="A162" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1">
         <v>90</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -9483,16 +9518,16 @@
       </c>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31">
       <c r="A163" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1">
         <v>90</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -9530,16 +9565,16 @@
       </c>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31">
       <c r="A164" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1">
         <v>90</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E164" s="1">
         <v>602</v>
@@ -9585,16 +9620,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31">
       <c r="A165" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="1">
         <v>90</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E165" s="1">
         <v>383</v>
@@ -9640,16 +9675,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31">
       <c r="A166" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="1">
         <v>90</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E166" s="1">
         <v>624</v>
@@ -9695,16 +9730,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31">
       <c r="A167" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="1">
         <v>90</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E167" s="1">
         <v>443</v>
@@ -9750,16 +9785,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31">
       <c r="A168" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="1">
         <v>90</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E168" s="1">
         <v>623.1</v>
@@ -9805,16 +9840,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31">
       <c r="A169" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="1">
         <v>90</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E169" s="1">
         <v>391.7</v>
@@ -9860,16 +9895,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31">
       <c r="A170" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="1">
         <v>90</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E170" s="1">
         <v>757.4</v>
@@ -9915,16 +9950,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31">
       <c r="A171" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="1">
         <v>90</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E171" s="1">
         <v>345.6</v>
@@ -9970,16 +10005,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31">
       <c r="A172" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="1">
         <v>90</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E172" s="1">
         <v>488.1</v>
@@ -10025,16 +10060,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31">
       <c r="A173" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="1">
         <v>90</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E173" s="1">
         <v>741</v>
@@ -10080,16 +10115,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31">
       <c r="A174" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="1">
         <v>90</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E174" s="1">
         <v>479</v>
@@ -10135,16 +10170,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31">
       <c r="A175" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="1">
         <v>90</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E175" s="1">
         <v>697</v>
@@ -10190,16 +10225,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31">
       <c r="A176" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="1">
         <v>90</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E176" s="1">
         <v>449</v>
@@ -10245,16 +10280,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31">
       <c r="A177" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="1">
         <v>90</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E177" s="1">
         <v>700.4</v>
@@ -10300,16 +10335,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31">
       <c r="A178" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="1">
         <v>90</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E178" s="1">
         <v>440.6</v>
@@ -10355,16 +10390,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31">
       <c r="A179" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="1">
         <v>90</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E179" s="1">
         <v>709.6</v>
@@ -10410,16 +10445,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31">
       <c r="A180" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="1">
         <v>90</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E180" s="1">
         <v>466.4</v>
@@ -10465,16 +10500,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31">
       <c r="A181" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="1">
         <v>90</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E181" s="1">
         <v>830</v>
@@ -10520,16 +10555,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31">
       <c r="A182" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="1">
         <v>90</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E182" s="1">
         <v>846</v>
@@ -10575,16 +10610,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31">
       <c r="A183" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="1">
         <v>90</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E183" s="1">
         <v>782</v>
@@ -10630,16 +10665,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31">
       <c r="A184" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="1">
         <v>90</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E184" s="1">
         <v>649</v>
@@ -10685,16 +10720,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31">
       <c r="A185" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="1">
         <v>90</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E185" s="1">
         <v>796.1</v>
@@ -10740,16 +10775,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31">
       <c r="A186" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="1">
         <v>90</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E186" s="1">
         <v>704.2</v>
@@ -10795,16 +10830,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31">
       <c r="A187" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="1">
         <v>90</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E187" s="1">
         <v>786.9</v>
@@ -10850,16 +10885,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31">
       <c r="A188" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="1">
         <v>90</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E188" s="1">
         <v>480.6</v>
@@ -10905,16 +10940,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31">
       <c r="A189" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="1">
         <v>90</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E189" s="1">
         <v>681.4</v>
@@ -10960,16 +10995,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31">
       <c r="A190" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="1">
         <v>90</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E190" s="1">
         <v>1055</v>
@@ -11015,16 +11050,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31">
       <c r="A191" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="1">
         <v>90</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E191" s="1">
         <v>676</v>
@@ -11070,16 +11105,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31">
       <c r="A192" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="1">
         <v>90</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E192" s="1">
         <v>906</v>
@@ -11125,16 +11160,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31">
       <c r="A193" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="1">
         <v>90</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E193" s="1">
         <v>642</v>
@@ -11180,16 +11215,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31">
       <c r="A194" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="1">
         <v>90</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E194" s="1">
         <v>950.8</v>
@@ -11235,16 +11270,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31">
       <c r="A195" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="1">
         <v>90</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E195" s="1">
         <v>700</v>
@@ -11290,16 +11325,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31">
       <c r="A196" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="1">
         <v>90</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E196" s="1">
         <v>881.9</v>
@@ -11345,16 +11380,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31">
       <c r="A197" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="1">
         <v>90</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -11390,16 +11425,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31">
       <c r="A198" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1">
         <v>90</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E198" s="1">
         <v>2369.5</v>
@@ -11447,16 +11482,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31">
       <c r="A199" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1">
         <v>90</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E199" s="1">
         <v>2316.58</v>
@@ -11504,16 +11539,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31">
       <c r="A200" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1">
         <v>90</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E200" s="1">
         <v>1669.8</v>
@@ -11561,16 +11596,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31">
       <c r="A201" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1">
         <v>90</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E201" s="1">
         <v>2016.5</v>
@@ -11618,16 +11653,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31">
       <c r="A202" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1">
         <v>90</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E202" s="1">
         <v>2084.25</v>
@@ -11675,16 +11710,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31">
       <c r="A203" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1">
         <v>90</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E203" s="1">
         <v>2068.9</v>
@@ -11732,16 +11767,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31">
       <c r="A204" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1">
         <v>90</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E204" s="1">
         <v>1572.5</v>
@@ -11789,16 +11824,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31">
       <c r="A205" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1">
         <v>90</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -11838,16 +11873,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31">
       <c r="A206" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1">
         <v>90</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -11887,16 +11922,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31">
       <c r="A207" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1">
         <v>90</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E207" s="1">
         <v>388</v>
@@ -11944,16 +11979,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31">
       <c r="A208" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1">
         <v>90</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -11997,16 +12032,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31">
       <c r="A209" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1">
         <v>90</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E209" s="1">
         <v>773.7</v>
@@ -12044,16 +12079,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31">
       <c r="A210" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1">
         <v>90</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E210" s="1">
         <v>590</v>
@@ -12099,16 +12134,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31">
       <c r="A211" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1">
         <v>90</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E211" s="1">
         <v>580</v>
@@ -12154,16 +12189,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31">
       <c r="A212" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1">
         <v>90</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E212" s="1">
         <v>730</v>
@@ -12209,16 +12244,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31">
       <c r="A213" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1">
         <v>90</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E213" s="1">
         <v>750</v>
@@ -12264,16 +12299,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31">
       <c r="A214" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1">
         <v>90</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E214" s="1">
         <v>820</v>
@@ -12319,16 +12354,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31">
       <c r="A215" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1">
         <v>90</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E215" s="1">
         <v>240</v>
@@ -12374,16 +12409,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31">
       <c r="A216" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1">
         <v>90</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E216" s="1">
         <v>320</v>
@@ -12429,16 +12464,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31">
       <c r="A217" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1">
         <v>90</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E217" s="1">
         <v>390</v>
@@ -12484,16 +12519,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31">
       <c r="A218" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1">
         <v>90</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E218" s="1">
         <v>520</v>
@@ -12539,16 +12574,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31">
       <c r="A219" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1">
         <v>90</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E219" s="1">
         <v>600</v>
@@ -12594,16 +12629,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31">
       <c r="A220" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1">
         <v>90</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -12647,16 +12682,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31">
       <c r="A221" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1">
         <v>90</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -12700,16 +12735,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31">
       <c r="A222" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1">
         <v>90</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -12753,16 +12788,16 @@
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31">
       <c r="A223" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1">
         <v>90</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -12806,16 +12841,16 @@
         <v>325</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31">
       <c r="A224" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1">
         <v>90</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E224" s="1">
         <v>922.8</v>
@@ -12849,16 +12884,16 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31">
       <c r="A225" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1">
         <v>90</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E225" s="1">
         <v>1638.43</v>
@@ -12892,16 +12927,16 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31">
       <c r="A226" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1">
         <v>90</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E226" s="1">
         <v>1478.89</v>
@@ -12942,4 +12977,3031 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1394.5833333333335</v>
+      </c>
+      <c r="D2" s="7">
+        <v>158.33333333333334</v>
+      </c>
+      <c r="E2" s="7">
+        <v>154.8608646560233</v>
+      </c>
+      <c r="F2" s="7">
+        <v>98.299934840037764</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>259.60892857142858</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2.2555195088806368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1419.9404761904761</v>
+      </c>
+      <c r="D3" s="7">
+        <v>170.23809523809524</v>
+      </c>
+      <c r="E3" s="7">
+        <v>289.49706996121034</v>
+      </c>
+      <c r="F3" s="7">
+        <v>249.20648265765413</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>649.67857142857144</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4.9547302747623414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C4" s="7">
+        <v>805.59523809523807</v>
+      </c>
+      <c r="D4" s="7">
+        <v>161.30952380952382</v>
+      </c>
+      <c r="E4" s="7">
+        <v>473.02294387717228</v>
+      </c>
+      <c r="F4" s="7">
+        <v>728.99710777442738</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1402.8307463434955</v>
+      </c>
+      <c r="K4" s="8">
+        <v>10.04590838974924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41582</v>
+      </c>
+      <c r="C5" s="7">
+        <v>696.4880952380953</v>
+      </c>
+      <c r="D5" s="7">
+        <v>169.04761904761907</v>
+      </c>
+      <c r="E5" s="7">
+        <v>472.77607825760805</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1036.1599563000386</v>
+      </c>
+      <c r="G5" s="7">
+        <v>14.861783396806766</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14.861783396806766</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1751.3349013553025</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.9447832929959699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41596</v>
+      </c>
+      <c r="C6" s="7">
+        <v>635.89285714285711</v>
+      </c>
+      <c r="D6" s="7">
+        <v>138.69047619047618</v>
+      </c>
+      <c r="E6" s="7">
+        <v>377.65356638131391</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1066.4044347543497</v>
+      </c>
+      <c r="G6" s="7">
+        <v>273.70220284456877</v>
+      </c>
+      <c r="H6" s="7">
+        <v>273.70220284456877</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1887.00612321624</v>
+      </c>
+      <c r="K6" s="8">
+        <v>7.0054823627853544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41610</v>
+      </c>
+      <c r="C7" s="7">
+        <v>715.77380952380963</v>
+      </c>
+      <c r="D7" s="7">
+        <v>142.85714285714283</v>
+      </c>
+      <c r="E7" s="7">
+        <v>376.34067623203657</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1211.2774141829373</v>
+      </c>
+      <c r="G7" s="7">
+        <v>422.76585749227314</v>
+      </c>
+      <c r="H7" s="7">
+        <v>347.64007714398485</v>
+      </c>
+      <c r="I7" s="7">
+        <v>75.125780348288274</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2249.0845984679604</v>
+      </c>
+      <c r="K7" s="8">
+        <v>6.7423104984325981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C8" s="7">
+        <v>868.21428571428567</v>
+      </c>
+      <c r="D8" s="7">
+        <v>178.57142857142856</v>
+      </c>
+      <c r="E8" s="7">
+        <v>334.76148054374602</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1253.0901519885463</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1021.8394448665762</v>
+      </c>
+      <c r="H8" s="7">
+        <v>347.64007714398485</v>
+      </c>
+      <c r="I8" s="7">
+        <v>674.19936772259132</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2993.4587204772688</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6.173970597530718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C9" s="7">
+        <v>876.1875</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>883.74350187614766</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1233.093162143985</v>
+      </c>
+      <c r="H9" s="7">
+        <v>347.64007714398485</v>
+      </c>
+      <c r="I9" s="7">
+        <v>885.4530850000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2625.4943707521256</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1367.6190476190477</v>
+      </c>
+      <c r="D10" s="7">
+        <v>157.73809523809524</v>
+      </c>
+      <c r="E10" s="7">
+        <v>136.44411816604776</v>
+      </c>
+      <c r="F10" s="7">
+        <v>87.534178137117991</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>226.8970238095238</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.8363253397825279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1257.6785714285716</v>
+      </c>
+      <c r="D11" s="7">
+        <v>170.23809523809524</v>
+      </c>
+      <c r="E11" s="7">
+        <v>278.17048155408577</v>
+      </c>
+      <c r="F11" s="7">
+        <v>254.25321184910817</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>624.35714285714289</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.8213129503790721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C12" s="7">
+        <v>801.66666666666652</v>
+      </c>
+      <c r="D12" s="7">
+        <v>160.71428571428569</v>
+      </c>
+      <c r="E12" s="7">
+        <v>380.5872272651136</v>
+      </c>
+      <c r="F12" s="7">
+        <v>774.78903753974168</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1362.8234278234299</v>
+      </c>
+      <c r="K12" s="8">
+        <v>7.7770623965616945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41582</v>
+      </c>
+      <c r="C13" s="7">
+        <v>657.55952380952385</v>
+      </c>
+      <c r="D13" s="7">
+        <v>147.02380952380955</v>
+      </c>
+      <c r="E13" s="7">
+        <v>337.72940464559679</v>
+      </c>
+      <c r="F13" s="7">
+        <v>968.93367032483025</v>
+      </c>
+      <c r="G13" s="7">
+        <v>108.0375874962009</v>
+      </c>
+      <c r="H13" s="7">
+        <v>108.0375874962009</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1620.5776179914026</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6.2177981873402475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41596</v>
+      </c>
+      <c r="C14" s="7">
+        <v>738.39285714285711</v>
+      </c>
+      <c r="D14" s="7">
+        <v>138.6904761904762</v>
+      </c>
+      <c r="E14" s="7">
+        <v>316.34622536928225</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1078.1800507127257</v>
+      </c>
+      <c r="G14" s="7">
+        <v>271.14874703958651</v>
+      </c>
+      <c r="H14" s="7">
+        <v>257.16850702559225</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13.980240013994239</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1948.067399882359</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5.3198033883654974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41610</v>
+      </c>
+      <c r="C15" s="7">
+        <v>657.5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>149.4047619047619</v>
+      </c>
+      <c r="E15" s="7">
+        <v>269.45820045230141</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1104.230253756818</v>
+      </c>
+      <c r="G15" s="7">
+        <v>455.55314610061612</v>
+      </c>
+      <c r="H15" s="7">
+        <v>264.98374463733933</v>
+      </c>
+      <c r="I15" s="7">
+        <v>190.56940146327679</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2109.728760647753</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3.7765601968632296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C16" s="7">
+        <v>605.29761904761904</v>
+      </c>
+      <c r="D16" s="7">
+        <v>145.23809523809524</v>
+      </c>
+      <c r="E16" s="7">
+        <v>162.57468853335882</v>
+      </c>
+      <c r="F16" s="7">
+        <v>965.17603000641373</v>
+      </c>
+      <c r="G16" s="7">
+        <v>855.54094425843391</v>
+      </c>
+      <c r="H16" s="7">
+        <v>264.98374463733933</v>
+      </c>
+      <c r="I16" s="7">
+        <v>590.5571996210947</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2370.9786599317072</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.0383446717260489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C17" s="7">
+        <v>791.25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>734.85205635114357</v>
+      </c>
+      <c r="G17" s="7">
+        <v>947.29443963733934</v>
+      </c>
+      <c r="H17" s="7">
+        <v>264.98374463733933</v>
+      </c>
+      <c r="I17" s="7">
+        <v>682.3106949999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2121.6746017489827</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1391.3690476190477</v>
+      </c>
+      <c r="D18" s="7">
+        <v>172.02380952380952</v>
+      </c>
+      <c r="E18" s="7">
+        <v>149.64366068880355</v>
+      </c>
+      <c r="F18" s="7">
+        <v>96.235808744906052</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>249.91249999999994</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2.0316387491669783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1076.7261904761906</v>
+      </c>
+      <c r="D19" s="7">
+        <v>154.16666666666669</v>
+      </c>
+      <c r="E19" s="7">
+        <v>279.77525061768034</v>
+      </c>
+      <c r="F19" s="7">
+        <v>233.92020932238307</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>627.47023809523807</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4.7877182059777823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C20" s="7">
+        <v>646.30952380952385</v>
+      </c>
+      <c r="D20" s="7">
+        <v>140.47619047619048</v>
+      </c>
+      <c r="E20" s="7">
+        <v>360.01356189730029</v>
+      </c>
+      <c r="F20" s="7">
+        <v>740.75388452105949</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1264.469068519624</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7.6460656976249348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41582</v>
+      </c>
+      <c r="C21" s="7">
+        <v>768.86904761904771</v>
+      </c>
+      <c r="D21" s="7">
+        <v>152.97619047619048</v>
+      </c>
+      <c r="E21" s="7">
+        <v>368.32647508461957</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1006.024063593399</v>
+      </c>
+      <c r="G21" s="7">
+        <v>90.914567003961295</v>
+      </c>
+      <c r="H21" s="7">
+        <v>90.914567003961295</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1697.7749033869459</v>
+      </c>
+      <c r="K21" s="8">
+        <v>6.4926572651336674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41596</v>
+      </c>
+      <c r="C22" s="7">
+        <v>660.11904761904771</v>
+      </c>
+      <c r="D22" s="7">
+        <v>138.6904761904762</v>
+      </c>
+      <c r="E22" s="7">
+        <v>323.34682873755816</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1102.3813742232571</v>
+      </c>
+      <c r="G22" s="7">
+        <v>280.92967238114954</v>
+      </c>
+      <c r="H22" s="7">
+        <v>269.77599179483968</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11.153680586309871</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1996.7879625524304</v>
+      </c>
+      <c r="K22" s="8">
+        <v>5.7135892885851494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41610</v>
+      </c>
+      <c r="C23" s="7">
+        <v>752.32142857142856</v>
+      </c>
+      <c r="D23" s="7">
+        <v>134.52380952380955</v>
+      </c>
+      <c r="E23" s="7">
+        <v>282.8526338103261</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1103.5933025454069</v>
+      </c>
+      <c r="G23" s="7">
+        <v>450.87699856339242</v>
+      </c>
+      <c r="H23" s="7">
+        <v>282.08772411277721</v>
+      </c>
+      <c r="I23" s="7">
+        <v>168.78927445061521</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2130.6560161990783</v>
+      </c>
+      <c r="K23" s="8">
+        <v>4.1477986688160406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C24" s="7">
+        <v>813.92857142857133</v>
+      </c>
+      <c r="D24" s="7">
+        <v>172.61904761904762</v>
+      </c>
+      <c r="E24" s="7">
+        <v>314.36554102984036</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1131.7014462442542</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1071.1673432588584</v>
+      </c>
+      <c r="H24" s="7">
+        <v>282.08772411277721</v>
+      </c>
+      <c r="I24" s="7">
+        <v>789.0796191460812</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2922.3662748673055</v>
+      </c>
+      <c r="K24" s="8">
+        <v>4.9538923805804744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C25" s="7">
+        <v>838.6875</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>780.86968134004019</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1221.2595441127773</v>
+      </c>
+      <c r="H25" s="7">
+        <v>282.08772411277721</v>
+      </c>
+      <c r="I25" s="7">
+        <v>939.17181999999991</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2408.9480068087651</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1458.8095238095239</v>
+      </c>
+      <c r="D26" s="7">
+        <v>161.9047619047619</v>
+      </c>
+      <c r="E26" s="7">
+        <v>140.83836418604432</v>
+      </c>
+      <c r="F26" s="7">
+        <v>90.947203141502357</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>234.35535714285714</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1.9249611829066204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1138.8690476190477</v>
+      </c>
+      <c r="D27" s="7">
+        <v>158.33333333333331</v>
+      </c>
+      <c r="E27" s="7">
+        <v>281.02364980033997</v>
+      </c>
+      <c r="F27" s="7">
+        <v>231.56315159475062</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>609.67261904761904</v>
+      </c>
+      <c r="K27" s="8">
+        <v>4.7920936608582174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C28" s="7">
+        <v>687.55952380952385</v>
+      </c>
+      <c r="D28" s="7">
+        <v>145.23809523809524</v>
+      </c>
+      <c r="E28" s="7">
+        <v>389.02832991348026</v>
+      </c>
+      <c r="F28" s="7">
+        <v>663.0791152992648</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1221.1821011129721</v>
+      </c>
+      <c r="K28" s="8">
+        <v>8.5109124018762845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41582</v>
+      </c>
+      <c r="C29" s="7">
+        <v>697.67857142857156</v>
+      </c>
+      <c r="D29" s="7">
+        <v>143.45238095238096</v>
+      </c>
+      <c r="E29" s="7">
+        <v>413.13664491871441</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1050.7165636970803</v>
+      </c>
+      <c r="G29" s="7">
+        <v>56.036515752003197</v>
+      </c>
+      <c r="H29" s="7">
+        <v>56.036515752003197</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1741.3625136754131</v>
+      </c>
+      <c r="K29" s="8">
+        <v>7.4113192025728081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41596</v>
+      </c>
+      <c r="C30" s="7">
+        <v>723.39285714285711</v>
+      </c>
+      <c r="D30" s="7">
+        <v>150.59523809523807</v>
+      </c>
+      <c r="E30" s="7">
+        <v>347.49573585554725</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1189.5752537958542</v>
+      </c>
+      <c r="G30" s="7">
+        <v>307.90908063976849</v>
+      </c>
+      <c r="H30" s="7">
+        <v>288.73562798745786</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19.173452652310573</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2123.5220807464707</v>
+      </c>
+      <c r="K30" s="8">
+        <v>5.8765044445722427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6">
+        <v>41610</v>
+      </c>
+      <c r="C31" s="7">
+        <v>637.91666666666674</v>
+      </c>
+      <c r="D31" s="7">
+        <v>154.76190476190476</v>
+      </c>
+      <c r="E31" s="7">
+        <v>290.25479429423791</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1143.9531390926925</v>
+      </c>
+      <c r="G31" s="7">
+        <v>492.36172435526186</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301.56311642887891</v>
+      </c>
+      <c r="I31" s="7">
+        <v>190.79860792638289</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2263.3544949769112</v>
+      </c>
+      <c r="K31" s="8">
+        <v>4.0055999064848189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C32" s="7">
+        <v>671.96428571428578</v>
+      </c>
+      <c r="D32" s="7">
+        <v>142.85714285714286</v>
+      </c>
+      <c r="E32" s="7">
+        <v>209.05005642826387</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1050.3398931735123</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1095.0774985794792</v>
+      </c>
+      <c r="H32" s="7">
+        <v>301.56311642887891</v>
+      </c>
+      <c r="I32" s="7">
+        <v>793.51438215060045</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2799.2876533741037</v>
+      </c>
+      <c r="K32" s="8">
+        <v>3.0885626755610085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C33" s="7">
+        <v>845.8125</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>798.82365915335572</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1256.0124139288789</v>
+      </c>
+      <c r="H33" s="7">
+        <v>301.56311642887891</v>
+      </c>
+      <c r="I33" s="7">
+        <v>954.44929750000006</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2468.3094723972449</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1398.75</v>
+      </c>
+      <c r="D34" s="7">
+        <v>181.54761904761907</v>
+      </c>
+      <c r="E34" s="7">
+        <v>162.85967328652805</v>
+      </c>
+      <c r="F34" s="7">
+        <v>97.64549356277476</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>265.64404761904763</v>
+      </c>
+      <c r="K34" s="8">
+        <v>2.3523726058052192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1439.7619047619046</v>
+      </c>
+      <c r="D35" s="7">
+        <v>185.71428571428572</v>
+      </c>
+      <c r="E35" s="7">
+        <v>306.49049523166843</v>
+      </c>
+      <c r="F35" s="7">
+        <v>263.65939342966101</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>675.00595238095241</v>
+      </c>
+      <c r="K35" s="8">
+        <v>5.0451749257967373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C36" s="7">
+        <v>684.34523809523807</v>
+      </c>
+      <c r="D36" s="7">
+        <v>146.42857142857144</v>
+      </c>
+      <c r="E36" s="7">
+        <v>423.85734348139141</v>
+      </c>
+      <c r="F36" s="7">
+        <v>700.42154623567387</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1297.9274261316932</v>
+      </c>
+      <c r="K36" s="8">
+        <v>9.4994730635118927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41582</v>
+      </c>
+      <c r="C37" s="7">
+        <v>832.50000000000011</v>
+      </c>
+      <c r="D37" s="7">
+        <v>166.07142857142858</v>
+      </c>
+      <c r="E37" s="7">
+        <v>436.64115473274313</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1100.8654925005644</v>
+      </c>
+      <c r="G37" s="7">
+        <v>28.914976819361119</v>
+      </c>
+      <c r="H37" s="7">
+        <v>28.914976819361119</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1793.2180091010782</v>
+      </c>
+      <c r="K37" s="8">
+        <v>8.240867228872558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="6">
+        <v>41596</v>
+      </c>
+      <c r="C38" s="7">
+        <v>765.89285714285711</v>
+      </c>
+      <c r="D38" s="7">
+        <v>150</v>
+      </c>
+      <c r="E38" s="7">
+        <v>346.79981639566461</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1086.1996286601238</v>
+      </c>
+      <c r="G38" s="7">
+        <v>282.63814795117662</v>
+      </c>
+      <c r="H38" s="7">
+        <v>279.18286531131798</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3.4552826398587286</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2003.9743996700238</v>
+      </c>
+      <c r="K38" s="8">
+        <v>5.4969255384869973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="6">
+        <v>41610</v>
+      </c>
+      <c r="C39" s="7">
+        <v>600.47619047619048</v>
+      </c>
+      <c r="D39" s="7">
+        <v>140.47619047619048</v>
+      </c>
+      <c r="E39" s="7">
+        <v>306.12942682313746</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1141.1862868428263</v>
+      </c>
+      <c r="G39" s="7">
+        <v>445.53927694834738</v>
+      </c>
+      <c r="H39" s="7">
+        <v>297.78321952204607</v>
+      </c>
+      <c r="I39" s="7">
+        <v>147.75605742630131</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2222.9738840553596</v>
+      </c>
+      <c r="K39" s="8">
+        <v>4.1986445555564238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C40" s="7">
+        <v>786.01190476190482</v>
+      </c>
+      <c r="D40" s="7">
+        <v>174.40476190476193</v>
+      </c>
+      <c r="E40" s="7">
+        <v>183.56828223747829</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1078.1491087546483</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1048.5840519618498</v>
+      </c>
+      <c r="H40" s="7">
+        <v>297.78321952204607</v>
+      </c>
+      <c r="I40" s="7">
+        <v>750.80083243980357</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2842.3258907459699</v>
+      </c>
+      <c r="K40" s="8">
+        <v>2.1963741136056831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C41" s="7">
+        <v>815.4375</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>820.25531414114482</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1159.603134522046</v>
+      </c>
+      <c r="H41" s="7">
+        <v>297.78321952204607</v>
+      </c>
+      <c r="I41" s="7">
+        <v>861.81991500000004</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2474.0820469697851</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41459</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1436.7857142857142</v>
+      </c>
+      <c r="D42" s="7">
+        <v>154.16666666666666</v>
+      </c>
+      <c r="E42" s="7">
+        <v>148.70613552744598</v>
+      </c>
+      <c r="F42" s="7">
+        <v>93.276816757288728</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>244.48333333333335</v>
+      </c>
+      <c r="K42" s="8">
+        <v>2.1028628032490388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="6">
+        <v>41520</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1383.9285714285716</v>
+      </c>
+      <c r="D43" s="7">
+        <v>160.71428571428572</v>
+      </c>
+      <c r="E43" s="7">
+        <v>278.59102726330468</v>
+      </c>
+      <c r="F43" s="7">
+        <v>234.40687718707696</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>608.39285714285711</v>
+      </c>
+      <c r="K43" s="8">
+        <v>4.7774841453646726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44">
+        <v>41569</v>
+      </c>
+      <c r="C44">
+        <v>783.69047619047615</v>
+      </c>
+      <c r="D44">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E44">
+        <v>472.83341299415116</v>
+      </c>
+      <c r="F44">
+        <v>797.92490397196286</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1466.2124007666825</v>
+      </c>
+      <c r="K44">
+        <v>10.418043180476065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45">
+        <v>41582</v>
+      </c>
+      <c r="C45">
+        <v>762.91666666666663</v>
+      </c>
+      <c r="D45">
+        <v>163.0952380952381</v>
+      </c>
+      <c r="E45">
+        <v>475.11077022929624</v>
+      </c>
+      <c r="F45">
+        <v>1104.7312211712792</v>
+      </c>
+      <c r="G45">
+        <v>12.57285357024961</v>
+      </c>
+      <c r="H45">
+        <v>12.57285357024961</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1781.801942144639</v>
+      </c>
+      <c r="K45">
+        <v>9.0164599027567434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46">
+        <v>41596</v>
+      </c>
+      <c r="C46">
+        <v>735.59523809523807</v>
+      </c>
+      <c r="D46">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="E46">
+        <v>394.11727003114095</v>
+      </c>
+      <c r="F46">
+        <v>1157.2856793908472</v>
+      </c>
+      <c r="G46">
+        <v>310.6814355334389</v>
+      </c>
+      <c r="H46">
+        <v>310.39594166215596</v>
+      </c>
+      <c r="I46">
+        <v>0.28549387128289255</v>
+      </c>
+      <c r="J46">
+        <v>2089.064179160293</v>
+      </c>
+      <c r="K46">
+        <v>7.240046147174402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47">
+        <v>41610</v>
+      </c>
+      <c r="C47">
+        <v>876.19047619047615</v>
+      </c>
+      <c r="D47">
+        <v>149.4047619047619</v>
+      </c>
+      <c r="E47">
+        <v>339.07863713666075</v>
+      </c>
+      <c r="F47">
+        <v>1278.1416712373739</v>
+      </c>
+      <c r="G47">
+        <v>482.4832000520579</v>
+      </c>
+      <c r="H47">
+        <v>327.50767387369558</v>
+      </c>
+      <c r="I47">
+        <v>154.97552617836226</v>
+      </c>
+      <c r="J47">
+        <v>2427.434594961032</v>
+      </c>
+      <c r="K47">
+        <v>5.4386966497831182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48">
+        <v>41625</v>
+      </c>
+      <c r="C48">
+        <v>697.61904761904759</v>
+      </c>
+      <c r="D48">
+        <v>151.78571428571431</v>
+      </c>
+      <c r="E48">
+        <v>212.34972053996029</v>
+      </c>
+      <c r="F48">
+        <v>1163.2402463177998</v>
+      </c>
+      <c r="G48">
+        <v>1002.7727153791445</v>
+      </c>
+      <c r="H48">
+        <v>327.50767387369558</v>
+      </c>
+      <c r="I48">
+        <v>675.26504150544918</v>
+      </c>
+      <c r="J48">
+        <v>2932.0284623086782</v>
+      </c>
+      <c r="K48">
+        <v>2.4550837291861449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49">
+        <v>41664</v>
+      </c>
+      <c r="C49">
+        <v>897.5625</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>901.35902355859548</v>
+      </c>
+      <c r="G49">
+        <v>1231.5468913736956</v>
+      </c>
+      <c r="H49">
+        <v>327.50767387369558</v>
+      </c>
+      <c r="I49">
+        <v>904.03921750000006</v>
+      </c>
+      <c r="J49">
+        <v>2619.6985123527334</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C2">
+        <v>3.8</v>
+      </c>
+      <c r="D2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C3">
+        <v>4.95</v>
+      </c>
+      <c r="D3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C5">
+        <v>6.9</v>
+      </c>
+      <c r="D5">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C6">
+        <v>7.9</v>
+      </c>
+      <c r="D6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C7">
+        <v>8.75</v>
+      </c>
+      <c r="D7">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C8">
+        <v>8.9</v>
+      </c>
+      <c r="D8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C10">
+        <v>10.7</v>
+      </c>
+      <c r="D10">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C11">
+        <v>11.8</v>
+      </c>
+      <c r="D11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C12">
+        <v>12.05</v>
+      </c>
+      <c r="D12">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C13">
+        <v>13.2</v>
+      </c>
+      <c r="D13">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C14">
+        <v>14.05</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C15">
+        <v>14.35</v>
+      </c>
+      <c r="D15">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C16">
+        <v>14.35</v>
+      </c>
+      <c r="D16">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C17">
+        <v>3.9</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C19">
+        <v>6.35</v>
+      </c>
+      <c r="D19">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C20">
+        <v>7.2</v>
+      </c>
+      <c r="D20">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C21">
+        <v>8.15</v>
+      </c>
+      <c r="D21">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D22">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C23">
+        <v>9.15</v>
+      </c>
+      <c r="D23">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C25">
+        <v>10.75</v>
+      </c>
+      <c r="D25">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C26">
+        <v>11.75</v>
+      </c>
+      <c r="D26">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C27">
+        <v>12.15</v>
+      </c>
+      <c r="D27">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C28">
+        <v>13.25</v>
+      </c>
+      <c r="D28">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C29">
+        <v>14.35</v>
+      </c>
+      <c r="D29">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C30">
+        <v>14.4</v>
+      </c>
+      <c r="D30">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C31">
+        <v>14.4</v>
+      </c>
+      <c r="D31">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C32">
+        <v>3.9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C33">
+        <v>4.95</v>
+      </c>
+      <c r="D33">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C34">
+        <v>5.95</v>
+      </c>
+      <c r="D34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C36">
+        <v>7.95</v>
+      </c>
+      <c r="D36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C37">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D37">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C39">
+        <v>9.9</v>
+      </c>
+      <c r="D39">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C40">
+        <v>10.65</v>
+      </c>
+      <c r="D40">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C41">
+        <v>11.8</v>
+      </c>
+      <c r="D41">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C42">
+        <v>12.15</v>
+      </c>
+      <c r="D42">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C43">
+        <v>13.3</v>
+      </c>
+      <c r="D43">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C44">
+        <v>14.25</v>
+      </c>
+      <c r="D44">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C45">
+        <v>14.4</v>
+      </c>
+      <c r="D45">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C46">
+        <v>14.4</v>
+      </c>
+      <c r="D46">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C47">
+        <v>3.8</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C48">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D48">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C49">
+        <v>6.15</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C50">
+        <v>7.1</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C52">
+        <v>8.4</v>
+      </c>
+      <c r="D52">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C54">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D54">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C55">
+        <v>10.5</v>
+      </c>
+      <c r="D55">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C56">
+        <v>11.45</v>
+      </c>
+      <c r="D56">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C58">
+        <v>13.1</v>
+      </c>
+      <c r="D58">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C59">
+        <v>14.15</v>
+      </c>
+      <c r="D59">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C60">
+        <v>14.25</v>
+      </c>
+      <c r="D60">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C61">
+        <v>14.25</v>
+      </c>
+      <c r="D61">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C62">
+        <v>3.7</v>
+      </c>
+      <c r="D62">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C63">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D63">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C64">
+        <v>6.1</v>
+      </c>
+      <c r="D64">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C65">
+        <v>7.1</v>
+      </c>
+      <c r="D65">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C67">
+        <v>8.65</v>
+      </c>
+      <c r="D67">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C69">
+        <v>9.85</v>
+      </c>
+      <c r="D69">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C70">
+        <v>10.7</v>
+      </c>
+      <c r="D70">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C71">
+        <v>11.7</v>
+      </c>
+      <c r="D71">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C72">
+        <v>12.1</v>
+      </c>
+      <c r="D72">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C73">
+        <v>13.1</v>
+      </c>
+      <c r="D73">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C74">
+        <v>14.05</v>
+      </c>
+      <c r="D74">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C75">
+        <v>14.4</v>
+      </c>
+      <c r="D75">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C76">
+        <v>14.4</v>
+      </c>
+      <c r="D76">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C77">
+        <v>3.75</v>
+      </c>
+      <c r="D77">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C78">
+        <v>4.95</v>
+      </c>
+      <c r="D78">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C79">
+        <v>6.25</v>
+      </c>
+      <c r="D79">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C80">
+        <v>7.1</v>
+      </c>
+      <c r="D80">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C81">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D81">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C82">
+        <v>8.65</v>
+      </c>
+      <c r="D82">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="6">
+        <v>41465</v>
+      </c>
+      <c r="C83">
+        <v>9.1</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="6">
+        <v>41484</v>
+      </c>
+      <c r="C84">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D84">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="6">
+        <v>41500</v>
+      </c>
+      <c r="C85">
+        <v>10.8</v>
+      </c>
+      <c r="D85">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="6">
+        <v>41516</v>
+      </c>
+      <c r="C86">
+        <v>11.8</v>
+      </c>
+      <c r="D86">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="6">
+        <v>41526</v>
+      </c>
+      <c r="C87">
+        <v>12.1</v>
+      </c>
+      <c r="D87">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="6">
+        <v>41544</v>
+      </c>
+      <c r="C88">
+        <v>13.05</v>
+      </c>
+      <c r="D88">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="6">
+        <v>41558</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="6">
+        <v>41570</v>
+      </c>
+      <c r="C90">
+        <v>14.45</v>
+      </c>
+      <c r="D90">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C91">
+        <v>14.45</v>
+      </c>
+      <c r="D91">
+        <v>14.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="15" windowWidth="12120" windowHeight="6450" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="15" windowWidth="12120" windowHeight="6450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
     <sheet name="TimeSeries" sheetId="2" r:id="rId2"/>
     <sheet name="LeafAppearance" sheetId="3" r:id="rId3"/>
+    <sheet name="Zadok" sheetId="4" r:id="rId4"/>
+    <sheet name="SoilWater" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$2:$AE$226</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="221">
   <si>
     <t>SimulationName</t>
   </si>
@@ -653,6 +655,36 @@
   <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
   </si>
+  <si>
+    <t>Zadock</t>
+  </si>
+  <si>
+    <t>ProfileWater</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(1)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(2)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(3)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(4)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(5)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(6)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(7)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(8)</t>
+  </si>
 </sst>
 </file>
 
@@ -661,13 +693,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,7 +715,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -686,11 +723,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -710,6 +756,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14717,7 +14770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -16004,4 +16057,7626 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>41386</v>
+      </c>
+      <c r="C2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3">
+        <v>41396</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <v>41410</v>
+      </c>
+      <c r="C4">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>41425</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6">
+        <v>41438</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7">
+        <v>41457</v>
+      </c>
+      <c r="C7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8">
+        <v>41465</v>
+      </c>
+      <c r="C8">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9">
+        <v>41481</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10">
+        <v>41495</v>
+      </c>
+      <c r="C10">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11">
+        <v>41530</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>41558</v>
+      </c>
+      <c r="C12">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13">
+        <v>41576</v>
+      </c>
+      <c r="C13">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14">
+        <v>41582</v>
+      </c>
+      <c r="C14">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>41586</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16">
+        <v>41599</v>
+      </c>
+      <c r="C16">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17">
+        <v>41607</v>
+      </c>
+      <c r="C17">
+        <v>70.650000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18">
+        <v>41620</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19">
+        <v>41627</v>
+      </c>
+      <c r="C19">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20">
+        <v>41638</v>
+      </c>
+      <c r="C20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21">
+        <v>41645</v>
+      </c>
+      <c r="C21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>41652</v>
+      </c>
+      <c r="C22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23">
+        <v>41662</v>
+      </c>
+      <c r="C23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>41386</v>
+      </c>
+      <c r="C24">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>41396</v>
+      </c>
+      <c r="C25">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26">
+        <v>41410</v>
+      </c>
+      <c r="C26">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>41425</v>
+      </c>
+      <c r="C27">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>41438</v>
+      </c>
+      <c r="C28">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29">
+        <v>41457</v>
+      </c>
+      <c r="C29">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>41465</v>
+      </c>
+      <c r="C30">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <v>41481</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32">
+        <v>41495</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33">
+        <v>41530</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>41558</v>
+      </c>
+      <c r="C34">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>41576</v>
+      </c>
+      <c r="C35">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36">
+        <v>41582</v>
+      </c>
+      <c r="C36">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37">
+        <v>41586</v>
+      </c>
+      <c r="C37">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38">
+        <v>41599</v>
+      </c>
+      <c r="C38">
+        <v>70.424999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39">
+        <v>41607</v>
+      </c>
+      <c r="C39">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40">
+        <v>41620</v>
+      </c>
+      <c r="C40">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41">
+        <v>41627</v>
+      </c>
+      <c r="C41">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42">
+        <v>41638</v>
+      </c>
+      <c r="C42">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43">
+        <v>41645</v>
+      </c>
+      <c r="C43">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44">
+        <v>41652</v>
+      </c>
+      <c r="C44">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45">
+        <v>41662</v>
+      </c>
+      <c r="C45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46">
+        <v>41386</v>
+      </c>
+      <c r="C46">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47">
+        <v>41396</v>
+      </c>
+      <c r="C47">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48">
+        <v>41410</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49">
+        <v>41425</v>
+      </c>
+      <c r="C49">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50">
+        <v>41438</v>
+      </c>
+      <c r="C50">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51">
+        <v>41457</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52">
+        <v>41465</v>
+      </c>
+      <c r="C52">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53">
+        <v>41481</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54">
+        <v>41495</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55">
+        <v>41530</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56">
+        <v>41558</v>
+      </c>
+      <c r="C56">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57">
+        <v>41576</v>
+      </c>
+      <c r="C57">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58">
+        <v>41582</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59">
+        <v>41586</v>
+      </c>
+      <c r="C59">
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60">
+        <v>41599</v>
+      </c>
+      <c r="C60">
+        <v>70.424999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61">
+        <v>41607</v>
+      </c>
+      <c r="C61">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62">
+        <v>41620</v>
+      </c>
+      <c r="C62">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63">
+        <v>41627</v>
+      </c>
+      <c r="C63">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64">
+        <v>41638</v>
+      </c>
+      <c r="C64">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65">
+        <v>41645</v>
+      </c>
+      <c r="C65">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66">
+        <v>41652</v>
+      </c>
+      <c r="C66">
+        <v>89.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67">
+        <v>41662</v>
+      </c>
+      <c r="C67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68">
+        <v>41386</v>
+      </c>
+      <c r="C68">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69">
+        <v>41396</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70">
+        <v>41410</v>
+      </c>
+      <c r="C70">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71">
+        <v>41425</v>
+      </c>
+      <c r="C71">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72">
+        <v>41438</v>
+      </c>
+      <c r="C72">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73">
+        <v>41457</v>
+      </c>
+      <c r="C73">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74">
+        <v>41465</v>
+      </c>
+      <c r="C74">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75">
+        <v>41481</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76">
+        <v>41495</v>
+      </c>
+      <c r="C76">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77">
+        <v>41530</v>
+      </c>
+      <c r="C77">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78">
+        <v>41558</v>
+      </c>
+      <c r="C78">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79">
+        <v>41576</v>
+      </c>
+      <c r="C79">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80">
+        <v>41582</v>
+      </c>
+      <c r="C80">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81">
+        <v>41586</v>
+      </c>
+      <c r="C81">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82">
+        <v>41599</v>
+      </c>
+      <c r="C82">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83">
+        <v>41607</v>
+      </c>
+      <c r="C83">
+        <v>70.724999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84">
+        <v>41620</v>
+      </c>
+      <c r="C84">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85">
+        <v>41627</v>
+      </c>
+      <c r="C85">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86">
+        <v>41638</v>
+      </c>
+      <c r="C86">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87">
+        <v>41645</v>
+      </c>
+      <c r="C87">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88">
+        <v>41652</v>
+      </c>
+      <c r="C88">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89">
+        <v>41662</v>
+      </c>
+      <c r="C89">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90">
+        <v>41386</v>
+      </c>
+      <c r="C90">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91">
+        <v>41396</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92">
+        <v>41410</v>
+      </c>
+      <c r="C92">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93">
+        <v>41425</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94">
+        <v>41438</v>
+      </c>
+      <c r="C94">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95">
+        <v>41457</v>
+      </c>
+      <c r="C95">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96">
+        <v>41465</v>
+      </c>
+      <c r="C96">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97">
+        <v>41481</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98">
+        <v>41495</v>
+      </c>
+      <c r="C98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99">
+        <v>41530</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100">
+        <v>41558</v>
+      </c>
+      <c r="C100">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101">
+        <v>41576</v>
+      </c>
+      <c r="C101">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102">
+        <v>41582</v>
+      </c>
+      <c r="C102">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103">
+        <v>41586</v>
+      </c>
+      <c r="C103">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104">
+        <v>41599</v>
+      </c>
+      <c r="C104">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105">
+        <v>41607</v>
+      </c>
+      <c r="C105">
+        <v>70.725000000000009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106">
+        <v>41620</v>
+      </c>
+      <c r="C106">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107">
+        <v>41627</v>
+      </c>
+      <c r="C107">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108">
+        <v>41638</v>
+      </c>
+      <c r="C108">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109">
+        <v>41645</v>
+      </c>
+      <c r="C109">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110">
+        <v>41652</v>
+      </c>
+      <c r="C110">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111">
+        <v>41662</v>
+      </c>
+      <c r="C111">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112">
+        <v>41386</v>
+      </c>
+      <c r="C112">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113">
+        <v>41396</v>
+      </c>
+      <c r="C113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114">
+        <v>41410</v>
+      </c>
+      <c r="C114">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115">
+        <v>41425</v>
+      </c>
+      <c r="C115">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116">
+        <v>41438</v>
+      </c>
+      <c r="C116">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117">
+        <v>41457</v>
+      </c>
+      <c r="C117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118">
+        <v>41465</v>
+      </c>
+      <c r="C118">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119">
+        <v>41481</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120">
+        <v>41495</v>
+      </c>
+      <c r="C120">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121">
+        <v>41530</v>
+      </c>
+      <c r="C121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122">
+        <v>41558</v>
+      </c>
+      <c r="C122">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123">
+        <v>41576</v>
+      </c>
+      <c r="C123">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124">
+        <v>41582</v>
+      </c>
+      <c r="C124">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125">
+        <v>41586</v>
+      </c>
+      <c r="C125">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126">
+        <v>41599</v>
+      </c>
+      <c r="C126">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127">
+        <v>41607</v>
+      </c>
+      <c r="C127">
+        <v>70.724999999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128">
+        <v>41620</v>
+      </c>
+      <c r="C128">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129">
+        <v>41627</v>
+      </c>
+      <c r="C129">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130">
+        <v>41638</v>
+      </c>
+      <c r="C130">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131">
+        <v>41645</v>
+      </c>
+      <c r="C131">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132">
+        <v>41652</v>
+      </c>
+      <c r="C132">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133">
+        <v>41662</v>
+      </c>
+      <c r="C133">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C2">
+        <v>390.22500000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.270625</v>
+      </c>
+      <c r="E2">
+        <v>0.27825000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.25025000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.25075000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.23975000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.18925</v>
+      </c>
+      <c r="K2">
+        <v>0.19625000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C3">
+        <v>386.05</v>
+      </c>
+      <c r="D3">
+        <v>0.25225000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.27775</v>
+      </c>
+      <c r="G3">
+        <v>0.251</v>
+      </c>
+      <c r="H3">
+        <v>0.24775000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C4">
+        <v>375.97500000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.23712499999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.26325000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.24175000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.24675</v>
+      </c>
+      <c r="I4">
+        <v>0.23799999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.18625</v>
+      </c>
+      <c r="K4">
+        <v>0.19475000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C5">
+        <v>390.1</v>
+      </c>
+      <c r="D5">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.28625</v>
+      </c>
+      <c r="F5">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.2445</v>
+      </c>
+      <c r="H5">
+        <v>0.24325000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.23624999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.18575</v>
+      </c>
+      <c r="K5">
+        <v>0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C6">
+        <v>387.8</v>
+      </c>
+      <c r="D6">
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.27549999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.24050000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.24324999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.23550000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.183</v>
+      </c>
+      <c r="K6">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C7">
+        <v>417.25</v>
+      </c>
+      <c r="D7">
+        <v>0.31449999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.28575</v>
+      </c>
+      <c r="G7">
+        <v>0.27725</v>
+      </c>
+      <c r="H7">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2475</v>
+      </c>
+      <c r="J7">
+        <v>0.20324999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C8">
+        <v>412.82499999999993</v>
+      </c>
+      <c r="D8">
+        <v>0.27887500000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.28424999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.28475</v>
+      </c>
+      <c r="G8">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.26774999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.25524999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.21325000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C9">
+        <v>407.67499999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.266625</v>
+      </c>
+      <c r="E9">
+        <v>0.27374999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.26</v>
+      </c>
+      <c r="H9">
+        <v>0.26574999999999993</v>
+      </c>
+      <c r="I9">
+        <v>0.25549999999999995</v>
+      </c>
+      <c r="J9">
+        <v>0.214</v>
+      </c>
+      <c r="K9">
+        <v>0.22274999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C10">
+        <v>380.67500000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.21162500000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.24050000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.26374999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.23450000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.252</v>
+      </c>
+      <c r="I10">
+        <v>0.25849999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.22950000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C11">
+        <v>341.52499999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.16287500000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.20775000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.23175000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.19475000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2465</v>
+      </c>
+      <c r="J11">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C12">
+        <v>361.52499999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.234375</v>
+      </c>
+      <c r="E12">
+        <v>0.247</v>
+      </c>
+      <c r="F12">
+        <v>0.23549999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.19325000000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.23</v>
+      </c>
+      <c r="I12">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.20475000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.22075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C13">
+        <v>398.05</v>
+      </c>
+      <c r="D13">
+        <v>0.30524999999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.307</v>
+      </c>
+      <c r="F13">
+        <v>0.27124999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.24349999999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.20225000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.22099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C14">
+        <v>391.85</v>
+      </c>
+      <c r="D14">
+        <v>0.28525</v>
+      </c>
+      <c r="E14">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.27399999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.21674999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.23025000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.23975000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.21724999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C15">
+        <v>397.3</v>
+      </c>
+      <c r="D15">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.29924999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.22975000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.23450000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.23825000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.21675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C16">
+        <v>378.55</v>
+      </c>
+      <c r="D16">
+        <v>0.24074999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.27975</v>
+      </c>
+      <c r="F16">
+        <v>0.27124999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.22425</v>
+      </c>
+      <c r="H16">
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.23675000000000004</v>
+      </c>
+      <c r="J16">
+        <v>0.19549999999999998</v>
+      </c>
+      <c r="K16">
+        <v>0.21325000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C17">
+        <v>373.69999999999993</v>
+      </c>
+      <c r="D17">
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.27649999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.27149999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.22974999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.23575000000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C18">
+        <v>377.65</v>
+      </c>
+      <c r="D18">
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="E18">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.27224999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.22225</v>
+      </c>
+      <c r="H18">
+        <v>0.22549999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.23149999999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.191</v>
+      </c>
+      <c r="K18">
+        <v>0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C19">
+        <v>383</v>
+      </c>
+      <c r="D19">
+        <v>0.27675</v>
+      </c>
+      <c r="E19">
+        <v>0.29350000000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.27374999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.22425</v>
+      </c>
+      <c r="H19">
+        <v>0.22425</v>
+      </c>
+      <c r="I19">
+        <v>0.23</v>
+      </c>
+      <c r="J19">
+        <v>0.1855</v>
+      </c>
+      <c r="K19">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C20">
+        <v>384.95</v>
+      </c>
+      <c r="D20">
+        <v>0.27975</v>
+      </c>
+      <c r="E20">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.27975</v>
+      </c>
+      <c r="G20">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.1845</v>
+      </c>
+      <c r="K20">
+        <v>0.20224999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C21">
+        <v>387.59999999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.28375</v>
+      </c>
+      <c r="E21">
+        <v>0.29725000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.23949999999999996</v>
+      </c>
+      <c r="H21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.22649999999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.1825</v>
+      </c>
+      <c r="K21">
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C22">
+        <v>385.05</v>
+      </c>
+      <c r="D22">
+        <v>0.26674999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.29325000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.28275</v>
+      </c>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="H22">
+        <v>0.22649999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0.22875000000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.19625000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C23">
+        <v>371.04999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F23">
+        <v>0.27649999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.23924999999999996</v>
+      </c>
+      <c r="H23">
+        <v>0.22500000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.22549999999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.17900000000000002</v>
+      </c>
+      <c r="K23">
+        <v>0.19550000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C24">
+        <v>372.75</v>
+      </c>
+      <c r="D24">
+        <v>0.25250000000000006</v>
+      </c>
+      <c r="E24">
+        <v>0.28825000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.27699999999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.2205</v>
+      </c>
+      <c r="I24">
+        <v>0.22025000000000003</v>
+      </c>
+      <c r="J24">
+        <v>0.17725000000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.18899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C25">
+        <v>371</v>
+      </c>
+      <c r="D25">
+        <v>0.2515</v>
+      </c>
+      <c r="E25">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.27825</v>
+      </c>
+      <c r="G25">
+        <v>0.24325000000000002</v>
+      </c>
+      <c r="H25">
+        <v>0.22024999999999997</v>
+      </c>
+      <c r="I25">
+        <v>0.21824999999999994</v>
+      </c>
+      <c r="J25">
+        <v>0.17125000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.18424999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C26">
+        <v>351.1</v>
+      </c>
+      <c r="D26">
+        <v>0.221</v>
+      </c>
+      <c r="E26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.22450000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.21425</v>
+      </c>
+      <c r="I26">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.16774999999999998</v>
+      </c>
+      <c r="K26">
+        <v>0.18174999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C27">
+        <v>301.54999999999995</v>
+      </c>
+      <c r="D27">
+        <v>0.10125000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.2145</v>
+      </c>
+      <c r="F27">
+        <v>0.23925000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.19425000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.20924999999999996</v>
+      </c>
+      <c r="J27">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.18049999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C28">
+        <v>278.95</v>
+      </c>
+      <c r="D28">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.21625</v>
+      </c>
+      <c r="G28">
+        <v>0.17325000000000002</v>
+      </c>
+      <c r="H28">
+        <v>0.19225</v>
+      </c>
+      <c r="I28">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.16149999999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C29">
+        <v>263.05</v>
+      </c>
+      <c r="D29">
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.18625</v>
+      </c>
+      <c r="F29">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.1555</v>
+      </c>
+      <c r="H29">
+        <v>0.18325000000000002</v>
+      </c>
+      <c r="I29">
+        <v>0.19125</v>
+      </c>
+      <c r="J29">
+        <v>0.15675</v>
+      </c>
+      <c r="K29">
+        <v>0.17024999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C30">
+        <v>257.25</v>
+      </c>
+      <c r="D30">
+        <v>7.1500000000000008E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.19024999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.191</v>
+      </c>
+      <c r="G30">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1895</v>
+      </c>
+      <c r="J30">
+        <v>0.154</v>
+      </c>
+      <c r="K30">
+        <v>0.16850000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C31">
+        <v>374.32499999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.263625</v>
+      </c>
+      <c r="E31">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.26374999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.20625000000000004</v>
+      </c>
+      <c r="H31">
+        <v>0.24250000000000005</v>
+      </c>
+      <c r="I31">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.18825</v>
+      </c>
+      <c r="K31">
+        <v>0.18224999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C32">
+        <v>368.25</v>
+      </c>
+      <c r="D32">
+        <v>0.24950000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.28175</v>
+      </c>
+      <c r="F32">
+        <v>0.26299999999999996</v>
+      </c>
+      <c r="G32">
+        <v>0.20274999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.23799999999999996</v>
+      </c>
+      <c r="I32">
+        <v>0.24049999999999996</v>
+      </c>
+      <c r="J32">
+        <v>0.185</v>
+      </c>
+      <c r="K32">
+        <v>0.18074999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C33">
+        <v>359</v>
+      </c>
+      <c r="D33">
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.27424999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.25675000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.19849999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.23275000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0.183</v>
+      </c>
+      <c r="K33">
+        <v>0.18425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C34">
+        <v>349.32499999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.22612499999999996</v>
+      </c>
+      <c r="E34">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="G34">
+        <v>0.19</v>
+      </c>
+      <c r="H34">
+        <v>0.23</v>
+      </c>
+      <c r="I34">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.17850000000000002</v>
+      </c>
+      <c r="K34">
+        <v>0.17725000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C35">
+        <v>341.67499999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.21812500000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.26</v>
+      </c>
+      <c r="F35">
+        <v>0.24575000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.183</v>
+      </c>
+      <c r="H35">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C36">
+        <v>420.35</v>
+      </c>
+      <c r="D36">
+        <v>0.25924999999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.28425</v>
+      </c>
+      <c r="F36">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.25824999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.23050000000000004</v>
+      </c>
+      <c r="K36">
+        <v>0.20949999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C37">
+        <v>405.75</v>
+      </c>
+      <c r="D37">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.26775000000000004</v>
+      </c>
+      <c r="G37">
+        <v>0.23725000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="J37">
+        <v>0.22949999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C38">
+        <v>393.02499999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.236375</v>
+      </c>
+      <c r="E38">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.21924999999999997</v>
+      </c>
+      <c r="H38">
+        <v>0.26174999999999998</v>
+      </c>
+      <c r="I38">
+        <v>0.26974999999999999</v>
+      </c>
+      <c r="J38">
+        <v>0.22274999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0.22325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C39">
+        <v>360.54999999999995</v>
+      </c>
+      <c r="D39">
+        <v>0.19924999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.24799999999999997</v>
+      </c>
+      <c r="F39">
+        <v>0.24875</v>
+      </c>
+      <c r="G39">
+        <v>0.19125</v>
+      </c>
+      <c r="H39">
+        <v>0.23824999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.252</v>
+      </c>
+      <c r="J39">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="K39">
+        <v>0.21899999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C40">
+        <v>322.25</v>
+      </c>
+      <c r="D40">
+        <v>0.16949999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.21350000000000002</v>
+      </c>
+      <c r="F40">
+        <v>0.2155</v>
+      </c>
+      <c r="G40">
+        <v>0.16024999999999998</v>
+      </c>
+      <c r="H40">
+        <v>0.21675</v>
+      </c>
+      <c r="I40">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J40">
+        <v>0.192</v>
+      </c>
+      <c r="K40">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C41">
+        <v>318.42500000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.21087499999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.20799999999999996</v>
+      </c>
+      <c r="F41">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.20774999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="J41">
+        <v>0.18375</v>
+      </c>
+      <c r="K41">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C42">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="D42">
+        <v>0.17</v>
+      </c>
+      <c r="E42">
+        <v>0.20675000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.19774999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.14175000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.20299999999999996</v>
+      </c>
+      <c r="I42">
+        <v>0.223</v>
+      </c>
+      <c r="J42">
+        <v>0.183</v>
+      </c>
+      <c r="K42">
+        <v>0.20174999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C43">
+        <v>283.64999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.152</v>
+      </c>
+      <c r="E43">
+        <v>0.19024999999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.12375</v>
+      </c>
+      <c r="H43">
+        <v>0.19175</v>
+      </c>
+      <c r="I43">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.17675000000000002</v>
+      </c>
+      <c r="K43">
+        <v>0.19649999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C44">
+        <v>270.75</v>
+      </c>
+      <c r="D44">
+        <v>0.13949999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.18049999999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.16274999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.113</v>
+      </c>
+      <c r="H44">
+        <v>0.1855</v>
+      </c>
+      <c r="I44">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.17149999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.19399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C45">
+        <v>241.25</v>
+      </c>
+      <c r="D45">
+        <v>0.111</v>
+      </c>
+      <c r="E45">
+        <v>0.15975</v>
+      </c>
+      <c r="F45">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G45">
+        <v>8.925000000000001E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.19175</v>
+      </c>
+      <c r="J45">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.18875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C46">
+        <v>221</v>
+      </c>
+      <c r="D46">
+        <v>9.824999999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.12174999999999998</v>
+      </c>
+      <c r="G46">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.14524999999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.17550000000000002</v>
+      </c>
+      <c r="J46">
+        <v>0.15775</v>
+      </c>
+      <c r="K46">
+        <v>0.18124999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C47">
+        <v>205.95</v>
+      </c>
+      <c r="D47">
+        <v>8.9749999999999996E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.11525000000000001</v>
+      </c>
+      <c r="G47">
+        <v>6.9499999999999992E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.12875</v>
+      </c>
+      <c r="I47">
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="J47">
+        <v>0.14974999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.17575000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C48">
+        <v>194.85</v>
+      </c>
+      <c r="D48">
+        <v>8.3499999999999991E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.11025</v>
+      </c>
+      <c r="G48">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.11774999999999998</v>
+      </c>
+      <c r="I48">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="K48">
+        <v>0.17050000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C49">
+        <v>186.35000000000002</v>
+      </c>
+      <c r="D49">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.10775</v>
+      </c>
+      <c r="G49">
+        <v>6.3749999999999987E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.10825</v>
+      </c>
+      <c r="I49">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J49">
+        <v>0.13349999999999998</v>
+      </c>
+      <c r="K49">
+        <v>0.16150000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C50">
+        <v>180.1</v>
+      </c>
+      <c r="D50">
+        <v>8.1750000000000003E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.1065</v>
+      </c>
+      <c r="G50">
+        <v>6.1500000000000006E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.10175000000000001</v>
+      </c>
+      <c r="I50">
+        <v>0.13</v>
+      </c>
+      <c r="J50">
+        <v>0.12925</v>
+      </c>
+      <c r="K50">
+        <v>0.15874999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C51">
+        <v>171.5</v>
+      </c>
+      <c r="D51">
+        <v>8.1750000000000003E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.1275</v>
+      </c>
+      <c r="F51">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="G51">
+        <v>5.9500000000000004E-2</v>
+      </c>
+      <c r="H51">
+        <v>9.325E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.12050000000000001</v>
+      </c>
+      <c r="J51">
+        <v>0.1225</v>
+      </c>
+      <c r="K51">
+        <v>0.14949999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C52">
+        <v>159.65</v>
+      </c>
+      <c r="D52">
+        <v>7.2250000000000009E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.12175000000000001</v>
+      </c>
+      <c r="F52">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="G52">
+        <v>5.425E-2</v>
+      </c>
+      <c r="H52">
+        <v>8.1000000000000016E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.11175</v>
+      </c>
+      <c r="J52">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.14225000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C53">
+        <v>149.05000000000001</v>
+      </c>
+      <c r="D53">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.11775000000000001</v>
+      </c>
+      <c r="F53">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="G53">
+        <v>5.0250000000000003E-2</v>
+      </c>
+      <c r="H53">
+        <v>6.9749999999999993E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.10125000000000001</v>
+      </c>
+      <c r="J53">
+        <v>0.107</v>
+      </c>
+      <c r="K53">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C54">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="D54">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.11649999999999999</v>
+      </c>
+      <c r="F54">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G54">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="H54">
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="I54">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="K54">
+        <v>0.1255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C55">
+        <v>144.79999999999998</v>
+      </c>
+      <c r="D55">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.11474999999999999</v>
+      </c>
+      <c r="F55">
+        <v>9.425E-2</v>
+      </c>
+      <c r="G55">
+        <v>4.8499999999999995E-2</v>
+      </c>
+      <c r="H55">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I55">
+        <v>9.7750000000000004E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.12625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C56">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="D56">
+        <v>6.4250000000000002E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.11474999999999999</v>
+      </c>
+      <c r="F56">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G56">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H56">
+        <v>6.8250000000000005E-2</v>
+      </c>
+      <c r="I56">
+        <v>9.8999999999999991E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.12325000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C57">
+        <v>144.79999999999998</v>
+      </c>
+      <c r="D57">
+        <v>6.225E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.11425</v>
+      </c>
+      <c r="F57">
+        <v>9.4499999999999987E-2</v>
+      </c>
+      <c r="G57">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H57">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.10275000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.105</v>
+      </c>
+      <c r="K57">
+        <v>0.12375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C58">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="D58">
+        <v>6.0749999999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.11524999999999999</v>
+      </c>
+      <c r="F58">
+        <v>9.5749999999999988E-2</v>
+      </c>
+      <c r="G58">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H58">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.10524999999999998</v>
+      </c>
+      <c r="J58">
+        <v>0.107</v>
+      </c>
+      <c r="K58">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C59">
+        <v>11.85</v>
+      </c>
+      <c r="D59">
+        <v>5.9249999999999997E-2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C60">
+        <v>401.15000000000003</v>
+      </c>
+      <c r="D60">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="F60">
+        <v>0.27599999999999997</v>
+      </c>
+      <c r="G60">
+        <v>0.27449999999999997</v>
+      </c>
+      <c r="H60">
+        <v>0.29125000000000001</v>
+      </c>
+      <c r="I60">
+        <v>0.22275000000000003</v>
+      </c>
+      <c r="J60">
+        <v>0.20374999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.18174999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C61">
+        <v>395.25</v>
+      </c>
+      <c r="D61">
+        <v>0.253</v>
+      </c>
+      <c r="E61">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="F61">
+        <v>0.27374999999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.27174999999999999</v>
+      </c>
+      <c r="H61">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="I61">
+        <v>0.2195</v>
+      </c>
+      <c r="J61">
+        <v>0.20299999999999996</v>
+      </c>
+      <c r="K61">
+        <v>0.18124999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C62">
+        <v>387.22500000000002</v>
+      </c>
+      <c r="D62">
+        <v>0.24037499999999998</v>
+      </c>
+      <c r="E62">
+        <v>0.27575000000000005</v>
+      </c>
+      <c r="F62">
+        <v>0.26974999999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.26475000000000004</v>
+      </c>
+      <c r="H62">
+        <v>0.28825000000000001</v>
+      </c>
+      <c r="I62">
+        <v>0.2175</v>
+      </c>
+      <c r="J62">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="K62">
+        <v>0.17774999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C63">
+        <v>379.75</v>
+      </c>
+      <c r="D63">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F63">
+        <v>0.26299999999999996</v>
+      </c>
+      <c r="G63">
+        <v>0.25874999999999998</v>
+      </c>
+      <c r="H63">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I63">
+        <v>0.2155</v>
+      </c>
+      <c r="J63">
+        <v>0.20125000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.17874999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C64">
+        <v>370.19999999999993</v>
+      </c>
+      <c r="D64">
+        <v>0.2175</v>
+      </c>
+      <c r="E64">
+        <v>0.26225000000000004</v>
+      </c>
+      <c r="F64">
+        <v>0.25725000000000003</v>
+      </c>
+      <c r="G64">
+        <v>0.25025000000000003</v>
+      </c>
+      <c r="H64">
+        <v>0.27875</v>
+      </c>
+      <c r="I64">
+        <v>0.21100000000000002</v>
+      </c>
+      <c r="J64">
+        <v>0.19775000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.17624999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C65">
+        <v>422.07499999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.29962499999999997</v>
+      </c>
+      <c r="E65">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.27549999999999997</v>
+      </c>
+      <c r="G65">
+        <v>0.26974999999999999</v>
+      </c>
+      <c r="H65">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="I65">
+        <v>0.25675000000000003</v>
+      </c>
+      <c r="J65">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0.19475000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C66">
+        <v>417</v>
+      </c>
+      <c r="D66">
+        <v>0.25824999999999998</v>
+      </c>
+      <c r="E66">
+        <v>0.28575</v>
+      </c>
+      <c r="F66">
+        <v>0.27274999999999999</v>
+      </c>
+      <c r="G66">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H66">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="J66">
+        <v>0.23300000000000004</v>
+      </c>
+      <c r="K66">
+        <v>0.20774999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C67">
+        <v>411</v>
+      </c>
+      <c r="D67">
+        <v>0.24625</v>
+      </c>
+      <c r="E67">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F67">
+        <v>0.26724999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.26775000000000004</v>
+      </c>
+      <c r="H67">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="I67">
+        <v>0.25225000000000003</v>
+      </c>
+      <c r="J67">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.21675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C68">
+        <v>383.97499999999997</v>
+      </c>
+      <c r="D68">
+        <v>0.198125</v>
+      </c>
+      <c r="E68">
+        <v>0.2505</v>
+      </c>
+      <c r="F68">
+        <v>0.252</v>
+      </c>
+      <c r="G68">
+        <v>0.24725000000000003</v>
+      </c>
+      <c r="H68">
+        <v>0.28675</v>
+      </c>
+      <c r="I68">
+        <v>0.24049999999999996</v>
+      </c>
+      <c r="J68">
+        <v>0.22974999999999998</v>
+      </c>
+      <c r="K68">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C69">
+        <v>345.77500000000003</v>
+      </c>
+      <c r="D69">
+        <v>0.15437500000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.21175000000000005</v>
+      </c>
+      <c r="F69">
+        <v>0.21775</v>
+      </c>
+      <c r="G69">
+        <v>0.21775000000000003</v>
+      </c>
+      <c r="H69">
+        <v>0.27274999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.22649999999999998</v>
+      </c>
+      <c r="J69">
+        <v>0.21974999999999997</v>
+      </c>
+      <c r="K69">
+        <v>0.20824999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C70">
+        <v>343.52500000000003</v>
+      </c>
+      <c r="D70">
+        <v>0.19437499999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.20475000000000002</v>
+      </c>
+      <c r="F70">
+        <v>0.20774999999999999</v>
+      </c>
+      <c r="G70">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="I70">
+        <v>0.21849999999999997</v>
+      </c>
+      <c r="J70">
+        <v>0.2175</v>
+      </c>
+      <c r="K70">
+        <v>0.20675000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C71">
+        <v>326.64999999999998</v>
+      </c>
+      <c r="D71">
+        <v>0.12875</v>
+      </c>
+      <c r="E71">
+        <v>0.20350000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.20625000000000004</v>
+      </c>
+      <c r="G71">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="H71">
+        <v>0.25825000000000004</v>
+      </c>
+      <c r="I71">
+        <v>0.21425</v>
+      </c>
+      <c r="J71">
+        <v>0.21525</v>
+      </c>
+      <c r="K71">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C72">
+        <v>306.64999999999998</v>
+      </c>
+      <c r="D72">
+        <v>0.113</v>
+      </c>
+      <c r="E72">
+        <v>0.1905</v>
+      </c>
+      <c r="F72">
+        <v>0.18575000000000003</v>
+      </c>
+      <c r="G72">
+        <v>0.1845</v>
+      </c>
+      <c r="H72">
+        <v>0.24674999999999997</v>
+      </c>
+      <c r="I72">
+        <v>0.20274999999999999</v>
+      </c>
+      <c r="J72">
+        <v>0.20975000000000002</v>
+      </c>
+      <c r="K72">
+        <v>0.20024999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C73">
+        <v>294.7</v>
+      </c>
+      <c r="D73">
+        <v>0.10125000000000001</v>
+      </c>
+      <c r="E73">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="F73">
+        <v>0.17575000000000002</v>
+      </c>
+      <c r="G73">
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="H73">
+        <v>0.23824999999999999</v>
+      </c>
+      <c r="I73">
+        <v>0.19700000000000004</v>
+      </c>
+      <c r="J73">
+        <v>0.20424999999999996</v>
+      </c>
+      <c r="K73">
+        <v>0.19949999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C74">
+        <v>266.85000000000002</v>
+      </c>
+      <c r="D74">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.16449999999999998</v>
+      </c>
+      <c r="F74">
+        <v>0.1525</v>
+      </c>
+      <c r="G74">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="H74">
+        <v>0.21275000000000002</v>
+      </c>
+      <c r="I74">
+        <v>0.18375</v>
+      </c>
+      <c r="J74">
+        <v>0.19875000000000001</v>
+      </c>
+      <c r="K74">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C75">
+        <v>247.75</v>
+      </c>
+      <c r="D75">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.15375</v>
+      </c>
+      <c r="F75">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.12774999999999997</v>
+      </c>
+      <c r="H75">
+        <v>0.19025000000000003</v>
+      </c>
+      <c r="I75">
+        <v>0.16775000000000001</v>
+      </c>
+      <c r="J75">
+        <v>0.19524999999999998</v>
+      </c>
+      <c r="K75">
+        <v>0.19399999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C76">
+        <v>227.05</v>
+      </c>
+      <c r="D76">
+        <v>6.4499999999999988E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.12825</v>
+      </c>
+      <c r="G76">
+        <v>0.11150000000000002</v>
+      </c>
+      <c r="H76">
+        <v>0.16675000000000001</v>
+      </c>
+      <c r="I76">
+        <v>0.14974999999999997</v>
+      </c>
+      <c r="J76">
+        <v>0.18375</v>
+      </c>
+      <c r="K76">
+        <v>0.18625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C77">
+        <v>216.59999999999997</v>
+      </c>
+      <c r="D77">
+        <v>6.0749999999999998E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="F77">
+        <v>0.12375</v>
+      </c>
+      <c r="G77">
+        <v>0.10475</v>
+      </c>
+      <c r="H77">
+        <v>0.15475000000000003</v>
+      </c>
+      <c r="I77">
+        <v>0.13674999999999998</v>
+      </c>
+      <c r="J77">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="K77">
+        <v>0.18375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C78">
+        <v>206.39999999999998</v>
+      </c>
+      <c r="D78">
+        <v>6.0249999999999998E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.13949999999999999</v>
+      </c>
+      <c r="F78">
+        <v>0.12225</v>
+      </c>
+      <c r="G78">
+        <v>9.7250000000000017E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="I78">
+        <v>0.1255</v>
+      </c>
+      <c r="J78">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="K78">
+        <v>0.17774999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C79">
+        <v>232.65000000000003</v>
+      </c>
+      <c r="D79">
+        <v>0.12274999999999998</v>
+      </c>
+      <c r="E79">
+        <v>0.18575</v>
+      </c>
+      <c r="F79">
+        <v>0.13375000000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.10175000000000001</v>
+      </c>
+      <c r="H79">
+        <v>0.14425000000000002</v>
+      </c>
+      <c r="I79">
+        <v>0.1285</v>
+      </c>
+      <c r="J79">
+        <v>0.17</v>
+      </c>
+      <c r="K79">
+        <v>0.17649999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C80">
+        <v>248</v>
+      </c>
+      <c r="D80">
+        <v>0.14550000000000002</v>
+      </c>
+      <c r="E80">
+        <v>0.21925</v>
+      </c>
+      <c r="F80">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="G80">
+        <v>0.10675000000000001</v>
+      </c>
+      <c r="H80">
+        <v>0.14974999999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.12825</v>
+      </c>
+      <c r="J80">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="K80">
+        <v>0.17374999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C81">
+        <v>254.04999999999998</v>
+      </c>
+      <c r="D81">
+        <v>0.13099999999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="F81">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.11425</v>
+      </c>
+      <c r="H81">
+        <v>0.15275</v>
+      </c>
+      <c r="I81">
+        <v>0.13175000000000001</v>
+      </c>
+      <c r="J81">
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="K81">
+        <v>0.17149999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C82">
+        <v>278.35000000000002</v>
+      </c>
+      <c r="D82">
+        <v>0.17374999999999999</v>
+      </c>
+      <c r="E82">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="H82">
+        <v>0.15725</v>
+      </c>
+      <c r="I82">
+        <v>0.13175000000000001</v>
+      </c>
+      <c r="J82">
+        <v>0.16549999999999998</v>
+      </c>
+      <c r="K82">
+        <v>0.16675000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C83">
+        <v>300.55</v>
+      </c>
+      <c r="D83">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.28225</v>
+      </c>
+      <c r="F83">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G83">
+        <v>0.15100000000000002</v>
+      </c>
+      <c r="H83">
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="I83">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="J83">
+        <v>0.16375000000000001</v>
+      </c>
+      <c r="K83">
+        <v>0.16550000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C84">
+        <v>286.25</v>
+      </c>
+      <c r="D84">
+        <v>0.16475000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F84">
+        <v>0.22649999999999998</v>
+      </c>
+      <c r="G84">
+        <v>0.15325</v>
+      </c>
+      <c r="H84">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I84">
+        <v>0.13425000000000001</v>
+      </c>
+      <c r="J84">
+        <v>0.1605</v>
+      </c>
+      <c r="K84">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C85">
+        <v>243.8</v>
+      </c>
+      <c r="D85">
+        <v>7.5749999999999998E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.20574999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.19149999999999998</v>
+      </c>
+      <c r="G85">
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="H85">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="I85">
+        <v>0.12899999999999998</v>
+      </c>
+      <c r="J85">
+        <v>0.157</v>
+      </c>
+      <c r="K85">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C86">
+        <v>226.2</v>
+      </c>
+      <c r="D86">
+        <v>6.5750000000000003E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.18</v>
+      </c>
+      <c r="F86">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G86">
+        <v>0.12649999999999997</v>
+      </c>
+      <c r="H86">
+        <v>0.15775000000000003</v>
+      </c>
+      <c r="I86">
+        <v>0.126</v>
+      </c>
+      <c r="J86">
+        <v>0.15475</v>
+      </c>
+      <c r="K86">
+        <v>0.15525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C87">
+        <v>216.4</v>
+      </c>
+      <c r="D87">
+        <v>0.06</v>
+      </c>
+      <c r="E87">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="F87">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="G87">
+        <v>0.11950000000000001</v>
+      </c>
+      <c r="H87">
+        <v>0.154</v>
+      </c>
+      <c r="I87">
+        <v>0.12425000000000001</v>
+      </c>
+      <c r="J87">
+        <v>0.1525</v>
+      </c>
+      <c r="K87">
+        <v>0.15075000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C88">
+        <v>214.79999999999998</v>
+      </c>
+      <c r="D88">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F88">
+        <v>0.152</v>
+      </c>
+      <c r="G88">
+        <v>0.11975</v>
+      </c>
+      <c r="H88">
+        <v>0.157</v>
+      </c>
+      <c r="I88">
+        <v>0.12450000000000001</v>
+      </c>
+      <c r="J88">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="K88">
+        <v>0.14774999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C89">
+        <v>380.80000000000007</v>
+      </c>
+      <c r="D89">
+        <v>0.27399999999999997</v>
+      </c>
+      <c r="E89">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F89">
+        <v>0.26949999999999996</v>
+      </c>
+      <c r="G89">
+        <v>0.26974999999999999</v>
+      </c>
+      <c r="H89">
+        <v>0.25724999999999998</v>
+      </c>
+      <c r="I89">
+        <v>0.24424999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.15075</v>
+      </c>
+      <c r="K89">
+        <v>0.1605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C90">
+        <v>375.8</v>
+      </c>
+      <c r="D90">
+        <v>0.25724999999999998</v>
+      </c>
+      <c r="E90">
+        <v>0.27424999999999999</v>
+      </c>
+      <c r="F90">
+        <v>0.27149999999999996</v>
+      </c>
+      <c r="G90">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="H90">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="I90">
+        <v>0.24324999999999999</v>
+      </c>
+      <c r="J90">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="K90">
+        <v>0.15975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C91">
+        <v>369.85</v>
+      </c>
+      <c r="D91">
+        <v>0.24299999999999997</v>
+      </c>
+      <c r="E91">
+        <v>0.26274999999999998</v>
+      </c>
+      <c r="F91">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G91">
+        <v>0.26424999999999998</v>
+      </c>
+      <c r="H91">
+        <v>0.25575000000000003</v>
+      </c>
+      <c r="I91">
+        <v>0.24549999999999997</v>
+      </c>
+      <c r="J91">
+        <v>0.14974999999999999</v>
+      </c>
+      <c r="K91">
+        <v>0.16024999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C92">
+        <v>388.47500000000002</v>
+      </c>
+      <c r="D92">
+        <v>0.29262499999999997</v>
+      </c>
+      <c r="E92">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="F92">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="G92">
+        <v>0.26775000000000004</v>
+      </c>
+      <c r="H92">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I92">
+        <v>0.24725000000000003</v>
+      </c>
+      <c r="J92">
+        <v>0.15</v>
+      </c>
+      <c r="K92">
+        <v>0.16200000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C93">
+        <v>386.42499999999995</v>
+      </c>
+      <c r="D93">
+        <v>0.29462499999999997</v>
+      </c>
+      <c r="E93">
+        <v>0.28275</v>
+      </c>
+      <c r="F93">
+        <v>0.27399999999999997</v>
+      </c>
+      <c r="G93">
+        <v>0.26375000000000004</v>
+      </c>
+      <c r="H93">
+        <v>0.26325000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.2445</v>
+      </c>
+      <c r="J93">
+        <v>0.14874999999999999</v>
+      </c>
+      <c r="K93">
+        <v>0.1605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C94">
+        <v>453.45000000000005</v>
+      </c>
+      <c r="D94">
+        <v>0.33</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+      <c r="F94">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="G94">
+        <v>0.30675000000000002</v>
+      </c>
+      <c r="H94">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.29825000000000002</v>
+      </c>
+      <c r="J94">
+        <v>0.21525</v>
+      </c>
+      <c r="K94">
+        <v>0.1895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C95">
+        <v>441.75</v>
+      </c>
+      <c r="D95">
+        <v>0.29325000000000001</v>
+      </c>
+      <c r="E95">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F95">
+        <v>0.28950000000000004</v>
+      </c>
+      <c r="G95">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H95">
+        <v>0.3175</v>
+      </c>
+      <c r="I95">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="J95">
+        <v>0.21549999999999997</v>
+      </c>
+      <c r="K95">
+        <v>0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C96">
+        <v>428.34999999999997</v>
+      </c>
+      <c r="D96">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E96">
+        <v>0.27575</v>
+      </c>
+      <c r="F96">
+        <v>0.28099999999999997</v>
+      </c>
+      <c r="G96">
+        <v>0.28550000000000003</v>
+      </c>
+      <c r="H96">
+        <v>0.30675000000000002</v>
+      </c>
+      <c r="I96">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="J96">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K96">
+        <v>0.21325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C97">
+        <v>396.375</v>
+      </c>
+      <c r="D97">
+        <v>0.23112500000000005</v>
+      </c>
+      <c r="E97">
+        <v>0.251</v>
+      </c>
+      <c r="F97">
+        <v>0.2545</v>
+      </c>
+      <c r="G97">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="H97">
+        <v>0.27149999999999996</v>
+      </c>
+      <c r="I97">
+        <v>0.29475000000000001</v>
+      </c>
+      <c r="J97">
+        <v>0.19675000000000001</v>
+      </c>
+      <c r="K97">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C98">
+        <v>357.2</v>
+      </c>
+      <c r="D98">
+        <v>0.185</v>
+      </c>
+      <c r="E98">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.22349999999999998</v>
+      </c>
+      <c r="G98">
+        <v>0.23049999999999998</v>
+      </c>
+      <c r="H98">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="I98">
+        <v>0.28125</v>
+      </c>
+      <c r="J98">
+        <v>0.18325</v>
+      </c>
+      <c r="K98">
+        <v>0.20649999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C99">
+        <v>373.1</v>
+      </c>
+      <c r="D99">
+        <v>0.23975000000000002</v>
+      </c>
+      <c r="E99">
+        <v>0.248</v>
+      </c>
+      <c r="F99">
+        <v>0.23049999999999998</v>
+      </c>
+      <c r="G99">
+        <v>0.22949999999999998</v>
+      </c>
+      <c r="H99">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I99">
+        <v>0.27349999999999997</v>
+      </c>
+      <c r="J99">
+        <v>0.17924999999999996</v>
+      </c>
+      <c r="K99">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C100">
+        <v>374.55</v>
+      </c>
+      <c r="D100">
+        <v>0.24975000000000003</v>
+      </c>
+      <c r="E100">
+        <v>0.24675000000000005</v>
+      </c>
+      <c r="F100">
+        <v>0.23149999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.23224999999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I100">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="J100">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="K100">
+        <v>0.20550000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C101">
+        <v>349.74999999999994</v>
+      </c>
+      <c r="D101">
+        <v>0.19399999999999998</v>
+      </c>
+      <c r="E101">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="F101">
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="G101">
+        <v>0.22524999999999998</v>
+      </c>
+      <c r="H101">
+        <v>0.24950000000000003</v>
+      </c>
+      <c r="I101">
+        <v>0.26099999999999995</v>
+      </c>
+      <c r="J101">
+        <v>0.17125000000000001</v>
+      </c>
+      <c r="K101">
+        <v>0.19925000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C102">
+        <v>333.95</v>
+      </c>
+      <c r="D102">
+        <v>0.16674999999999998</v>
+      </c>
+      <c r="E102">
+        <v>0.21050000000000002</v>
+      </c>
+      <c r="F102">
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="G102">
+        <v>0.21575</v>
+      </c>
+      <c r="H102">
+        <v>0.24424999999999999</v>
+      </c>
+      <c r="I102">
+        <v>0.25474999999999998</v>
+      </c>
+      <c r="J102">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="K102">
+        <v>0.19825000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C103">
+        <v>297</v>
+      </c>
+      <c r="D103">
+        <v>0.11524999999999999</v>
+      </c>
+      <c r="E103">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0.17450000000000002</v>
+      </c>
+      <c r="G103">
+        <v>0.184</v>
+      </c>
+      <c r="H103">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="I103">
+        <v>0.24299999999999997</v>
+      </c>
+      <c r="J103">
+        <v>0.16225000000000001</v>
+      </c>
+      <c r="K103">
+        <v>0.19425000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C104">
+        <v>272.20000000000005</v>
+      </c>
+      <c r="D104">
+        <v>0.10775</v>
+      </c>
+      <c r="E104">
+        <v>0.16325000000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="G104">
+        <v>0.15825</v>
+      </c>
+      <c r="H104">
+        <v>0.20550000000000002</v>
+      </c>
+      <c r="I104">
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="J104">
+        <v>0.15675</v>
+      </c>
+      <c r="K104">
+        <v>0.19274999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C105">
+        <v>248.20000000000005</v>
+      </c>
+      <c r="D105">
+        <v>9.7750000000000004E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.1535</v>
+      </c>
+      <c r="F105">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="G105">
+        <v>0.13949999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I105">
+        <v>0.20125000000000001</v>
+      </c>
+      <c r="J105">
+        <v>0.14975000000000002</v>
+      </c>
+      <c r="K105">
+        <v>0.18825</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C106">
+        <v>230.9</v>
+      </c>
+      <c r="D106">
+        <v>9.1000000000000011E-2</v>
+      </c>
+      <c r="E106">
+        <v>0.14574999999999999</v>
+      </c>
+      <c r="F106">
+        <v>0.129</v>
+      </c>
+      <c r="G106">
+        <v>0.12575</v>
+      </c>
+      <c r="H106">
+        <v>0.15225</v>
+      </c>
+      <c r="I106">
+        <v>0.1845</v>
+      </c>
+      <c r="J106">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="K106">
+        <v>0.18375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C107">
+        <v>217.3</v>
+      </c>
+      <c r="D107">
+        <v>9.4750000000000015E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.14474999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0.12425000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="H107">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I107">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J107">
+        <v>0.13424999999999998</v>
+      </c>
+      <c r="K107">
+        <v>0.17850000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C108">
+        <v>206.25</v>
+      </c>
+      <c r="D108">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E108">
+        <v>0.14324999999999999</v>
+      </c>
+      <c r="F108">
+        <v>0.122</v>
+      </c>
+      <c r="G108">
+        <v>0.11</v>
+      </c>
+      <c r="H108">
+        <v>0.11650000000000002</v>
+      </c>
+      <c r="I108">
+        <v>0.14950000000000002</v>
+      </c>
+      <c r="J108">
+        <v>0.1275</v>
+      </c>
+      <c r="K108">
+        <v>0.17749999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C109">
+        <v>192.1</v>
+      </c>
+      <c r="D109">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.13724999999999998</v>
+      </c>
+      <c r="F109">
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="G109">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H109">
+        <v>9.9250000000000005E-2</v>
+      </c>
+      <c r="I109">
+        <v>0.12925</v>
+      </c>
+      <c r="J109">
+        <v>0.12050000000000001</v>
+      </c>
+      <c r="K109">
+        <v>0.16875000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C110">
+        <v>172.35</v>
+      </c>
+      <c r="D110">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.10925000000000001</v>
+      </c>
+      <c r="G110">
+        <v>0.09</v>
+      </c>
+      <c r="H110">
+        <v>7.9750000000000001E-2</v>
+      </c>
+      <c r="I110">
+        <v>0.10375</v>
+      </c>
+      <c r="J110">
+        <v>0.107</v>
+      </c>
+      <c r="K110">
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C111">
+        <v>201.5</v>
+      </c>
+      <c r="D111">
+        <v>0.16475000000000001</v>
+      </c>
+      <c r="E111">
+        <v>0.17925000000000002</v>
+      </c>
+      <c r="F111">
+        <v>0.121</v>
+      </c>
+      <c r="G111">
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="H111">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="I111">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="J111">
+        <v>0.10425000000000001</v>
+      </c>
+      <c r="K111">
+        <v>0.15725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C112">
+        <v>225.39999999999998</v>
+      </c>
+      <c r="D112">
+        <v>0.21050000000000002</v>
+      </c>
+      <c r="E112">
+        <v>0.22274999999999998</v>
+      </c>
+      <c r="F112">
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="G112">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H112">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I112">
+        <v>0.11</v>
+      </c>
+      <c r="J112">
+        <v>0.10350000000000001</v>
+      </c>
+      <c r="K112">
+        <v>0.15425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C113">
+        <v>267.55</v>
+      </c>
+      <c r="D113">
+        <v>0.28324999999999995</v>
+      </c>
+      <c r="E113">
+        <v>0.27725</v>
+      </c>
+      <c r="F113">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="G113">
+        <v>0.11324999999999999</v>
+      </c>
+      <c r="H113">
+        <v>8.925000000000001E-2</v>
+      </c>
+      <c r="I113">
+        <v>0.11349999999999998</v>
+      </c>
+      <c r="J113">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="K113">
+        <v>0.15075</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C114">
+        <v>253.95000000000002</v>
+      </c>
+      <c r="D114">
+        <v>0.22424999999999998</v>
+      </c>
+      <c r="E114">
+        <v>0.2515</v>
+      </c>
+      <c r="F114">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="G114">
+        <v>0.12875</v>
+      </c>
+      <c r="H114">
+        <v>9.2999999999999985E-2</v>
+      </c>
+      <c r="I114">
+        <v>0.11349999999999999</v>
+      </c>
+      <c r="J114">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="K114">
+        <v>0.14825000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C115">
+        <v>239.7</v>
+      </c>
+      <c r="D115">
+        <v>0.17825000000000002</v>
+      </c>
+      <c r="E115">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="F115">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G115">
+        <v>0.13275000000000001</v>
+      </c>
+      <c r="H115">
+        <v>9.774999999999999E-2</v>
+      </c>
+      <c r="I115">
+        <v>0.11649999999999999</v>
+      </c>
+      <c r="J115">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K115">
+        <v>0.14775000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C116">
+        <v>232.50000000000003</v>
+      </c>
+      <c r="D116">
+        <v>0.15725</v>
+      </c>
+      <c r="E116">
+        <v>0.21549999999999997</v>
+      </c>
+      <c r="F116">
+        <v>0.18725000000000003</v>
+      </c>
+      <c r="G116">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H116">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="I116">
+        <v>0.11975000000000001</v>
+      </c>
+      <c r="J116">
+        <v>0.10350000000000001</v>
+      </c>
+      <c r="K116">
+        <v>0.14275000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C117">
+        <v>232.00000000000003</v>
+      </c>
+      <c r="D117">
+        <v>0.15024999999999999</v>
+      </c>
+      <c r="E117">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="F117">
+        <v>0.182</v>
+      </c>
+      <c r="G117">
+        <v>0.13375000000000001</v>
+      </c>
+      <c r="H117">
+        <v>0.10975</v>
+      </c>
+      <c r="I117">
+        <v>0.13275000000000001</v>
+      </c>
+      <c r="J117">
+        <v>0.10475000000000001</v>
+      </c>
+      <c r="K117">
+        <v>0.14024999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C118">
+        <v>397.4</v>
+      </c>
+      <c r="D118">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E118">
+        <v>0.27875</v>
+      </c>
+      <c r="F118">
+        <v>0.27099999999999996</v>
+      </c>
+      <c r="G118">
+        <v>0.27949999999999997</v>
+      </c>
+      <c r="H118">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="I118">
+        <v>0.19050000000000003</v>
+      </c>
+      <c r="J118">
+        <v>0.23174999999999998</v>
+      </c>
+      <c r="K118">
+        <v>0.23850000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C119">
+        <v>391.67500000000001</v>
+      </c>
+      <c r="D119">
+        <v>0.25362499999999999</v>
+      </c>
+      <c r="E119">
+        <v>0.27775</v>
+      </c>
+      <c r="F119">
+        <v>0.26824999999999999</v>
+      </c>
+      <c r="G119">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="H119">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="I119">
+        <v>0.18825</v>
+      </c>
+      <c r="J119">
+        <v>0.23</v>
+      </c>
+      <c r="K119">
+        <v>0.23850000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C120">
+        <v>388.8</v>
+      </c>
+      <c r="D120">
+        <v>0.23850000000000002</v>
+      </c>
+      <c r="E120">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F120">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="G120">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H120">
+        <v>0.22774999999999998</v>
+      </c>
+      <c r="I120">
+        <v>0.19</v>
+      </c>
+      <c r="J120">
+        <v>0.23074999999999998</v>
+      </c>
+      <c r="K120">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C121">
+        <v>402.375</v>
+      </c>
+      <c r="D121">
+        <v>0.28712499999999996</v>
+      </c>
+      <c r="E121">
+        <v>0.29075000000000001</v>
+      </c>
+      <c r="F121">
+        <v>0.27074999999999999</v>
+      </c>
+      <c r="G121">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H121">
+        <v>0.22524999999999998</v>
+      </c>
+      <c r="I121">
+        <v>0.18974999999999997</v>
+      </c>
+      <c r="J121">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="K121">
+        <v>0.23975000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B122" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C122">
+        <v>398.57499999999999</v>
+      </c>
+      <c r="D122">
+        <v>0.28637499999999999</v>
+      </c>
+      <c r="E122">
+        <v>0.28725000000000001</v>
+      </c>
+      <c r="F122">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="G122">
+        <v>0.27975</v>
+      </c>
+      <c r="H122">
+        <v>0.2205</v>
+      </c>
+      <c r="I122">
+        <v>0.18675</v>
+      </c>
+      <c r="J122">
+        <v>0.22675000000000003</v>
+      </c>
+      <c r="K122">
+        <v>0.23675000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C123">
+        <v>437.42500000000001</v>
+      </c>
+      <c r="D123">
+        <v>0.31862499999999999</v>
+      </c>
+      <c r="E123">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="F123">
+        <v>0.29075000000000001</v>
+      </c>
+      <c r="G123">
+        <v>0.3</v>
+      </c>
+      <c r="H123">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I123">
+        <v>0.22274999999999998</v>
+      </c>
+      <c r="J123">
+        <v>0.2515</v>
+      </c>
+      <c r="K123">
+        <v>0.24600000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C124">
+        <v>435.375</v>
+      </c>
+      <c r="D124">
+        <v>0.28112499999999996</v>
+      </c>
+      <c r="E124">
+        <v>0.28825000000000001</v>
+      </c>
+      <c r="F124">
+        <v>0.28275</v>
+      </c>
+      <c r="G124">
+        <v>0.29875000000000002</v>
+      </c>
+      <c r="H124">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="I124">
+        <v>0.23675000000000002</v>
+      </c>
+      <c r="J124">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="K124">
+        <v>0.26350000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C125">
+        <v>424.27499999999998</v>
+      </c>
+      <c r="D125">
+        <v>0.267125</v>
+      </c>
+      <c r="E125">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F125">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="G125">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H125">
+        <v>0.24700000000000003</v>
+      </c>
+      <c r="I125">
+        <v>0.23075000000000004</v>
+      </c>
+      <c r="J125">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="K125">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C126">
+        <v>394.17500000000001</v>
+      </c>
+      <c r="D126">
+        <v>0.22112500000000002</v>
+      </c>
+      <c r="E126">
+        <v>0.24850000000000003</v>
+      </c>
+      <c r="F126">
+        <v>0.25174999999999997</v>
+      </c>
+      <c r="G126">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="H126">
+        <v>0.23950000000000002</v>
+      </c>
+      <c r="I126">
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="J126">
+        <v>0.26124999999999998</v>
+      </c>
+      <c r="K126">
+        <v>0.26524999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C127">
+        <v>354.02499999999998</v>
+      </c>
+      <c r="D127">
+        <v>0.18087499999999998</v>
+      </c>
+      <c r="E127">
+        <v>0.21375</v>
+      </c>
+      <c r="F127">
+        <v>0.214</v>
+      </c>
+      <c r="G127">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="H127">
+        <v>0.218</v>
+      </c>
+      <c r="I127">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J127">
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="K127">
+        <v>0.25674999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C128">
+        <v>371.07500000000005</v>
+      </c>
+      <c r="D128">
+        <v>0.23512499999999995</v>
+      </c>
+      <c r="E128">
+        <v>0.25224999999999997</v>
+      </c>
+      <c r="F128">
+        <v>0.22</v>
+      </c>
+      <c r="G128">
+        <v>0.23624999999999999</v>
+      </c>
+      <c r="H128">
+        <v>0.21425</v>
+      </c>
+      <c r="I128">
+        <v>0.193</v>
+      </c>
+      <c r="J128">
+        <v>0.24674999999999997</v>
+      </c>
+      <c r="K128">
+        <v>0.25774999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C129">
+        <v>384.7</v>
+      </c>
+      <c r="D129">
+        <v>0.27925</v>
+      </c>
+      <c r="E129">
+        <v>0.26849999999999996</v>
+      </c>
+      <c r="F129">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="G129">
+        <v>0.23725000000000002</v>
+      </c>
+      <c r="H129">
+        <v>0.215</v>
+      </c>
+      <c r="I129">
+        <v>0.19075</v>
+      </c>
+      <c r="J129">
+        <v>0.24725000000000003</v>
+      </c>
+      <c r="K129">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C130">
+        <v>379.70000000000005</v>
+      </c>
+      <c r="D130">
+        <v>0.25699999999999995</v>
+      </c>
+      <c r="E130">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F130">
+        <v>0.23774999999999999</v>
+      </c>
+      <c r="G130">
+        <v>0.23774999999999999</v>
+      </c>
+      <c r="H130">
+        <v>0.21050000000000002</v>
+      </c>
+      <c r="I130">
+        <v>0.18675</v>
+      </c>
+      <c r="J130">
+        <v>0.23924999999999996</v>
+      </c>
+      <c r="K130">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C131">
+        <v>366.9</v>
+      </c>
+      <c r="D131">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="E131">
+        <v>0.26</v>
+      </c>
+      <c r="F131">
+        <v>0.23299999999999998</v>
+      </c>
+      <c r="G131">
+        <v>0.23674999999999996</v>
+      </c>
+      <c r="H131">
+        <v>0.20550000000000002</v>
+      </c>
+      <c r="I131">
+        <v>0.18425</v>
+      </c>
+      <c r="J131">
+        <v>0.23524999999999999</v>
+      </c>
+      <c r="K131">
+        <v>0.25124999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C132">
+        <v>328.35</v>
+      </c>
+      <c r="D132">
+        <v>0.16125</v>
+      </c>
+      <c r="E132">
+        <v>0.21025000000000002</v>
+      </c>
+      <c r="F132">
+        <v>0.20149999999999998</v>
+      </c>
+      <c r="G132">
+        <v>0.21725000000000003</v>
+      </c>
+      <c r="H132">
+        <v>0.1925</v>
+      </c>
+      <c r="I132">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="J132">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="K132">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C133">
+        <v>291.2</v>
+      </c>
+      <c r="D133">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E133">
+        <v>0.18200000000000002</v>
+      </c>
+      <c r="F133">
+        <v>0.16325000000000001</v>
+      </c>
+      <c r="G133">
+        <v>0.17725000000000002</v>
+      </c>
+      <c r="H133">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="I133">
+        <v>0.16274999999999998</v>
+      </c>
+      <c r="J133">
+        <v>0.2235</v>
+      </c>
+      <c r="K133">
+        <v>0.24475000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C134">
+        <v>260.05</v>
+      </c>
+      <c r="D134">
+        <v>0.114</v>
+      </c>
+      <c r="E134">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="F134">
+        <v>0.14175000000000001</v>
+      </c>
+      <c r="G134">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H134">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="I134">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="J134">
+        <v>0.21475000000000002</v>
+      </c>
+      <c r="K134">
+        <v>0.24150000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C135">
+        <v>239.35000000000002</v>
+      </c>
+      <c r="D135">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E135">
+        <v>0.15925</v>
+      </c>
+      <c r="F135">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G135">
+        <v>0.12175000000000001</v>
+      </c>
+      <c r="H135">
+        <v>0.11824999999999999</v>
+      </c>
+      <c r="I135">
+        <v>0.1255</v>
+      </c>
+      <c r="J135">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="K135">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C136">
+        <v>222.8</v>
+      </c>
+      <c r="D136">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="E136">
+        <v>0.15225</v>
+      </c>
+      <c r="F136">
+        <v>0.12675</v>
+      </c>
+      <c r="G136">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="H136">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="I136">
+        <v>0.1105</v>
+      </c>
+      <c r="J136">
+        <v>0.19</v>
+      </c>
+      <c r="K136">
+        <v>0.22424999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C137">
+        <v>209.8</v>
+      </c>
+      <c r="D137">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E137">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="F137">
+        <v>0.12075</v>
+      </c>
+      <c r="G137">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="H137">
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="I137">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="J137">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="K137">
+        <v>0.21850000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C138">
+        <v>196.2</v>
+      </c>
+      <c r="D138">
+        <v>9.2749999999999999E-2</v>
+      </c>
+      <c r="E138">
+        <v>0.14150000000000001</v>
+      </c>
+      <c r="F138">
+        <v>0.11525000000000001</v>
+      </c>
+      <c r="G138">
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="H138">
+        <v>7.4249999999999997E-2</v>
+      </c>
+      <c r="I138">
+        <v>8.3750000000000005E-2</v>
+      </c>
+      <c r="J138">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="K138">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C139">
+        <v>178.60000000000002</v>
+      </c>
+      <c r="D139">
+        <v>8.1000000000000016E-2</v>
+      </c>
+      <c r="E139">
+        <v>0.13274999999999998</v>
+      </c>
+      <c r="F139">
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="G139">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H139">
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="I139">
+        <v>6.9249999999999992E-2</v>
+      </c>
+      <c r="J139">
+        <v>0.15525</v>
+      </c>
+      <c r="K139">
+        <v>0.20425000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C140">
+        <v>166</v>
+      </c>
+      <c r="D140">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="E140">
+        <v>0.1255</v>
+      </c>
+      <c r="F140">
+        <v>0.10175000000000001</v>
+      </c>
+      <c r="G140">
+        <v>7.425000000000001E-2</v>
+      </c>
+      <c r="H140">
+        <v>5.3749999999999992E-2</v>
+      </c>
+      <c r="I140">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J140">
+        <v>0.14324999999999999</v>
+      </c>
+      <c r="K140">
+        <v>0.19524999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C141">
+        <v>198.79999999999998</v>
+      </c>
+      <c r="D141">
+        <v>0.1825</v>
+      </c>
+      <c r="E141">
+        <v>0.17350000000000002</v>
+      </c>
+      <c r="F141">
+        <v>0.10925000000000001</v>
+      </c>
+      <c r="G141">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="H141">
+        <v>5.6749999999999995E-2</v>
+      </c>
+      <c r="I141">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="J141">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="K141">
+        <v>0.1905</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C142">
+        <v>243.25000000000003</v>
+      </c>
+      <c r="D142">
+        <v>0.24775</v>
+      </c>
+      <c r="E142">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="F142">
+        <v>0.1585</v>
+      </c>
+      <c r="G142">
+        <v>8.1499999999999989E-2</v>
+      </c>
+      <c r="H142">
+        <v>5.8250000000000003E-2</v>
+      </c>
+      <c r="I142">
+        <v>7.0250000000000007E-2</v>
+      </c>
+      <c r="J142">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="K142">
+        <v>0.18899999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C143">
+        <v>249.15</v>
+      </c>
+      <c r="D143">
+        <v>0.24950000000000003</v>
+      </c>
+      <c r="E143">
+        <v>0.25975000000000004</v>
+      </c>
+      <c r="F143">
+        <v>0.17974999999999997</v>
+      </c>
+      <c r="G143">
+        <v>8.9749999999999996E-2</v>
+      </c>
+      <c r="H143">
+        <v>6.1499999999999992E-2</v>
+      </c>
+      <c r="I143">
+        <v>7.0750000000000007E-2</v>
+      </c>
+      <c r="J143">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="K143">
+        <v>0.1885</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B144" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C144">
+        <v>242.84999999999997</v>
+      </c>
+      <c r="D144">
+        <v>0.21775000000000003</v>
+      </c>
+      <c r="E144">
+        <v>0.24150000000000002</v>
+      </c>
+      <c r="F144">
+        <v>0.17725000000000002</v>
+      </c>
+      <c r="G144">
+        <v>9.6750000000000003E-2</v>
+      </c>
+      <c r="H144">
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="I144">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="J144">
+        <v>0.14824999999999999</v>
+      </c>
+      <c r="K144">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B145" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C145">
+        <v>238.5</v>
+      </c>
+      <c r="D145">
+        <v>0.19700000000000004</v>
+      </c>
+      <c r="E145">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F145">
+        <v>0.17299999999999996</v>
+      </c>
+      <c r="G145">
+        <v>0.10224999999999999</v>
+      </c>
+      <c r="H145">
+        <v>7.0750000000000007E-2</v>
+      </c>
+      <c r="I145">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="J145">
+        <v>0.14824999999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.1895</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C146">
+        <v>237.95000000000002</v>
+      </c>
+      <c r="D146">
+        <v>0.18774999999999997</v>
+      </c>
+      <c r="E146">
+        <v>0.22675000000000001</v>
+      </c>
+      <c r="F146">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="G146">
+        <v>0.10675000000000001</v>
+      </c>
+      <c r="H146">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="I146">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J146">
+        <v>0.14924999999999999</v>
+      </c>
+      <c r="K146">
+        <v>0.18725000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="6">
+        <v>41387</v>
+      </c>
+      <c r="C147">
+        <v>404.22500000000002</v>
+      </c>
+      <c r="D147">
+        <v>0.268125</v>
+      </c>
+      <c r="E147">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="F147">
+        <v>0.27399999999999997</v>
+      </c>
+      <c r="G147">
+        <v>0.27074999999999999</v>
+      </c>
+      <c r="H147">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="I147">
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="J147">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="K147">
+        <v>0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C148">
+        <v>401.375</v>
+      </c>
+      <c r="D148">
+        <v>0.25412499999999999</v>
+      </c>
+      <c r="E148">
+        <v>0.27825000000000005</v>
+      </c>
+      <c r="F148">
+        <v>0.27625</v>
+      </c>
+      <c r="G148">
+        <v>0.27</v>
+      </c>
+      <c r="H148">
+        <v>0.27024999999999999</v>
+      </c>
+      <c r="I148">
+        <v>0.23224999999999998</v>
+      </c>
+      <c r="J148">
+        <v>0.19799999999999998</v>
+      </c>
+      <c r="K148">
+        <v>0.22774999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C149">
+        <v>389.15</v>
+      </c>
+      <c r="D149">
+        <v>0.22450000000000003</v>
+      </c>
+      <c r="E149">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F149">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G149">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H149">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I149">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="J149">
+        <v>0.19574999999999998</v>
+      </c>
+      <c r="K149">
+        <v>0.22699999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="6">
+        <v>41423</v>
+      </c>
+      <c r="C150">
+        <v>409.05</v>
+      </c>
+      <c r="D150">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E150">
+        <v>0.28825000000000001</v>
+      </c>
+      <c r="F150">
+        <v>0.27725</v>
+      </c>
+      <c r="G150">
+        <v>0.26824999999999999</v>
+      </c>
+      <c r="H150">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="I150">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J150">
+        <v>0.19975000000000001</v>
+      </c>
+      <c r="K150">
+        <v>0.22750000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C151">
+        <v>407.22500000000002</v>
+      </c>
+      <c r="D151">
+        <v>0.28787499999999999</v>
+      </c>
+      <c r="E151">
+        <v>0.28575</v>
+      </c>
+      <c r="F151">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G151">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="H151">
+        <v>0.26724999999999999</v>
+      </c>
+      <c r="I151">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J151">
+        <v>0.19974999999999998</v>
+      </c>
+      <c r="K151">
+        <v>0.22525000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B152" s="6">
+        <v>41450</v>
+      </c>
+      <c r="C152">
+        <v>470.34999999999997</v>
+      </c>
+      <c r="D152">
+        <v>0.33274999999999999</v>
+      </c>
+      <c r="E152">
+        <v>0.30450000000000005</v>
+      </c>
+      <c r="F152">
+        <v>0.29125000000000001</v>
+      </c>
+      <c r="G152">
+        <v>0.31725000000000003</v>
+      </c>
+      <c r="H152">
+        <v>0.30375000000000002</v>
+      </c>
+      <c r="I152">
+        <v>0.29975000000000002</v>
+      </c>
+      <c r="J152">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K152">
+        <v>0.23850000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" s="6">
+        <v>41466</v>
+      </c>
+      <c r="C153">
+        <v>458.1</v>
+      </c>
+      <c r="D153">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="E153">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="F153">
+        <v>0.28725000000000001</v>
+      </c>
+      <c r="G153">
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="H153">
+        <v>0.3</v>
+      </c>
+      <c r="I153">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="J153">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="K153">
+        <v>0.25424999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" s="6">
+        <v>41485</v>
+      </c>
+      <c r="C154">
+        <v>446.52499999999998</v>
+      </c>
+      <c r="D154">
+        <v>0.27612499999999995</v>
+      </c>
+      <c r="E154">
+        <v>0.28125</v>
+      </c>
+      <c r="F154">
+        <v>0.28225</v>
+      </c>
+      <c r="G154">
+        <v>0.29475000000000001</v>
+      </c>
+      <c r="H154">
+        <v>0.29275000000000001</v>
+      </c>
+      <c r="I154">
+        <v>0.28525</v>
+      </c>
+      <c r="J154">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K154">
+        <v>0.25825000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B155" s="6">
+        <v>41515</v>
+      </c>
+      <c r="C155">
+        <v>414.47499999999997</v>
+      </c>
+      <c r="D155">
+        <v>0.22087500000000002</v>
+      </c>
+      <c r="E155">
+        <v>0.25525000000000003</v>
+      </c>
+      <c r="F155">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="G155">
+        <v>0.27124999999999999</v>
+      </c>
+      <c r="H155">
+        <v>0.28325</v>
+      </c>
+      <c r="I155">
+        <v>0.26299999999999996</v>
+      </c>
+      <c r="J155">
+        <v>0.24975000000000003</v>
+      </c>
+      <c r="K155">
+        <v>0.25950000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="6">
+        <v>41533</v>
+      </c>
+      <c r="C156">
+        <v>375.25</v>
+      </c>
+      <c r="D156">
+        <v>0.17125000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.21924999999999997</v>
+      </c>
+      <c r="F156">
+        <v>0.24325000000000002</v>
+      </c>
+      <c r="G156">
+        <v>0.23900000000000002</v>
+      </c>
+      <c r="H156">
+        <v>0.26575000000000004</v>
+      </c>
+      <c r="I156">
+        <v>0.2445</v>
+      </c>
+      <c r="J156">
+        <v>0.23574999999999999</v>
+      </c>
+      <c r="K156">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B157" s="6">
+        <v>41542</v>
+      </c>
+      <c r="C157">
+        <v>390.47499999999997</v>
+      </c>
+      <c r="D157">
+        <v>0.22612500000000002</v>
+      </c>
+      <c r="E157">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F157">
+        <v>0.24875</v>
+      </c>
+      <c r="G157">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H157">
+        <v>0.26</v>
+      </c>
+      <c r="I157">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="J157">
+        <v>0.22774999999999998</v>
+      </c>
+      <c r="K157">
+        <v>0.25624999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" s="6">
+        <v>41548</v>
+      </c>
+      <c r="C158">
+        <v>400.6</v>
+      </c>
+      <c r="D158">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="E158">
+        <v>0.27575000000000005</v>
+      </c>
+      <c r="F158">
+        <v>0.25475000000000003</v>
+      </c>
+      <c r="G158">
+        <v>0.23700000000000002</v>
+      </c>
+      <c r="H158">
+        <v>0.26074999999999998</v>
+      </c>
+      <c r="I158">
+        <v>0.23525000000000001</v>
+      </c>
+      <c r="J158">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="K158">
+        <v>0.25524999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="6">
+        <v>41555</v>
+      </c>
+      <c r="C159">
+        <v>398.2</v>
+      </c>
+      <c r="D159">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="E159">
+        <v>0.27925000000000005</v>
+      </c>
+      <c r="F159">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="G159">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H159">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="I159">
+        <v>0.23024999999999998</v>
+      </c>
+      <c r="J159">
+        <v>0.21825</v>
+      </c>
+      <c r="K159">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="6">
+        <v>41562</v>
+      </c>
+      <c r="C160">
+        <v>405.85</v>
+      </c>
+      <c r="D160">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="E160">
+        <v>0.29125000000000001</v>
+      </c>
+      <c r="F160">
+        <v>0.26774999999999999</v>
+      </c>
+      <c r="G160">
+        <v>0.24</v>
+      </c>
+      <c r="H160">
+        <v>0.26</v>
+      </c>
+      <c r="I160">
+        <v>0.22675000000000001</v>
+      </c>
+      <c r="J160">
+        <v>0.21625</v>
+      </c>
+      <c r="K160">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" s="6">
+        <v>41569</v>
+      </c>
+      <c r="C161">
+        <v>387.85</v>
+      </c>
+      <c r="D161">
+        <v>0.22024999999999997</v>
+      </c>
+      <c r="E161">
+        <v>0.27374999999999999</v>
+      </c>
+      <c r="F161">
+        <v>0.26549999999999996</v>
+      </c>
+      <c r="G161">
+        <v>0.23850000000000002</v>
+      </c>
+      <c r="H161">
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="I161">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="J161">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K161">
+        <v>0.24975000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="6">
+        <v>41576</v>
+      </c>
+      <c r="C162">
+        <v>382.95</v>
+      </c>
+      <c r="D162">
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="E162">
+        <v>0.26949999999999996</v>
+      </c>
+      <c r="F162">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="G162">
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="H162">
+        <v>0.25174999999999997</v>
+      </c>
+      <c r="I162">
+        <v>0.22125</v>
+      </c>
+      <c r="J162">
+        <v>0.20724999999999999</v>
+      </c>
+      <c r="K162">
+        <v>0.24875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="6">
+        <v>41583</v>
+      </c>
+      <c r="C163">
+        <v>347.9</v>
+      </c>
+      <c r="D163">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="E163">
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="F163">
+        <v>0.2455</v>
+      </c>
+      <c r="G163">
+        <v>0.22200000000000003</v>
+      </c>
+      <c r="H163">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="I163">
+        <v>0.21174999999999997</v>
+      </c>
+      <c r="J163">
+        <v>0.20174999999999998</v>
+      </c>
+      <c r="K163">
+        <v>0.24600000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" s="6">
+        <v>41590</v>
+      </c>
+      <c r="C164">
+        <v>318.8</v>
+      </c>
+      <c r="D164">
+        <v>0.11725000000000002</v>
+      </c>
+      <c r="E164">
+        <v>0.20299999999999996</v>
+      </c>
+      <c r="F164">
+        <v>0.21799999999999997</v>
+      </c>
+      <c r="G164">
+        <v>0.1905</v>
+      </c>
+      <c r="H164">
+        <v>0.22474999999999998</v>
+      </c>
+      <c r="I164">
+        <v>0.20024999999999998</v>
+      </c>
+      <c r="J164">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K164">
+        <v>0.24525000000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" s="6">
+        <v>41597</v>
+      </c>
+      <c r="C165">
+        <v>292.59999999999997</v>
+      </c>
+      <c r="D165">
+        <v>0.1075</v>
+      </c>
+      <c r="E165">
+        <v>0.19299999999999998</v>
+      </c>
+      <c r="F165">
+        <v>0.19274999999999998</v>
+      </c>
+      <c r="G165">
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="H165">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="I165">
+        <v>0.18525</v>
+      </c>
+      <c r="J165">
+        <v>0.18275</v>
+      </c>
+      <c r="K165">
+        <v>0.23925000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" s="6">
+        <v>41604</v>
+      </c>
+      <c r="C166">
+        <v>271.99999999999994</v>
+      </c>
+      <c r="D166">
+        <v>9.774999999999999E-2</v>
+      </c>
+      <c r="E166">
+        <v>0.182</v>
+      </c>
+      <c r="F166">
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="G166">
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="H166">
+        <v>0.1855</v>
+      </c>
+      <c r="I166">
+        <v>0.17</v>
+      </c>
+      <c r="J166">
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="K166">
+        <v>0.23349999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" s="6">
+        <v>41611</v>
+      </c>
+      <c r="C167">
+        <v>249</v>
+      </c>
+      <c r="D167">
+        <v>9.2249999999999999E-2</v>
+      </c>
+      <c r="E167">
+        <v>0.16925000000000001</v>
+      </c>
+      <c r="F167">
+        <v>0.15975</v>
+      </c>
+      <c r="G167">
+        <v>0.11925000000000001</v>
+      </c>
+      <c r="H167">
+        <v>0.156</v>
+      </c>
+      <c r="I167">
+        <v>0.15150000000000002</v>
+      </c>
+      <c r="J167">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K167">
+        <v>0.23199999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" s="6">
+        <v>41618</v>
+      </c>
+      <c r="C168">
+        <v>215.5</v>
+      </c>
+      <c r="D168">
+        <v>7.7500000000000013E-2</v>
+      </c>
+      <c r="E168">
+        <v>0.15775</v>
+      </c>
+      <c r="F168">
+        <v>0.14025000000000001</v>
+      </c>
+      <c r="G168">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H168">
+        <v>0.115</v>
+      </c>
+      <c r="I168">
+        <v>0.12175000000000001</v>
+      </c>
+      <c r="J168">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="K168">
+        <v>0.22549999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" s="6">
+        <v>41625</v>
+      </c>
+      <c r="C169">
+        <v>190.25</v>
+      </c>
+      <c r="D169">
+        <v>7.1249999999999994E-2</v>
+      </c>
+      <c r="E169">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="F169">
+        <v>0.12725</v>
+      </c>
+      <c r="G169">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="H169">
+        <v>8.8749999999999996E-2</v>
+      </c>
+      <c r="I169">
+        <v>9.4500000000000015E-2</v>
+      </c>
+      <c r="J169">
+        <v>0.13149999999999998</v>
+      </c>
+      <c r="K169">
+        <v>0.21525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" s="6">
+        <v>41632</v>
+      </c>
+      <c r="C170">
+        <v>175.1</v>
+      </c>
+      <c r="D170">
+        <v>7.375000000000001E-2</v>
+      </c>
+      <c r="E170">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="F170">
+        <v>0.12</v>
+      </c>
+      <c r="G170">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="H170">
+        <v>7.3749999999999996E-2</v>
+      </c>
+      <c r="I170">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J170">
+        <v>0.12025000000000001</v>
+      </c>
+      <c r="K170">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C171">
+        <v>170.75</v>
+      </c>
+      <c r="D171">
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="E171">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F171">
+        <v>0.11724999999999999</v>
+      </c>
+      <c r="G171">
+        <v>6.4750000000000002E-2</v>
+      </c>
+      <c r="H171">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I171">
+        <v>7.1249999999999994E-2</v>
+      </c>
+      <c r="J171">
+        <v>0.11675000000000001</v>
+      </c>
+      <c r="K171">
+        <v>0.20325000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" s="6">
+        <v>41646</v>
+      </c>
+      <c r="C172">
+        <v>162.35</v>
+      </c>
+      <c r="D172">
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="E172">
+        <v>0.13175000000000001</v>
+      </c>
+      <c r="F172">
+        <v>0.114</v>
+      </c>
+      <c r="G172">
+        <v>6.1500000000000006E-2</v>
+      </c>
+      <c r="H172">
+        <v>6.4250000000000002E-2</v>
+      </c>
+      <c r="I172">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J172">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="K172">
+        <v>0.19949999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" s="6">
+        <v>41653</v>
+      </c>
+      <c r="C173">
+        <v>162.75</v>
+      </c>
+      <c r="D173">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="E173">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="F173">
+        <v>0.11549999999999999</v>
+      </c>
+      <c r="G173">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H173">
+        <v>6.4750000000000002E-2</v>
+      </c>
+      <c r="I173">
+        <v>6.5750000000000003E-2</v>
+      </c>
+      <c r="J173">
+        <v>0.11675000000000001</v>
+      </c>
+      <c r="K173">
+        <v>0.19949999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" s="6">
+        <v>41660</v>
+      </c>
+      <c r="C174">
+        <v>162.99999999999997</v>
+      </c>
+      <c r="D174">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="E174">
+        <v>0.12975</v>
+      </c>
+      <c r="F174">
+        <v>0.11425</v>
+      </c>
+      <c r="G174">
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="H174">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I174">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J174">
+        <v>0.1215</v>
+      </c>
+      <c r="K174">
+        <v>0.19725000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" s="6">
+        <v>41667</v>
+      </c>
+      <c r="C175">
+        <v>10.900000000000002</v>
+      </c>
+      <c r="D175">
+        <v>5.4500000000000014E-2</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="15" windowWidth="12120" windowHeight="6450" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="273">
   <si>
     <t>SimulationName</t>
   </si>
@@ -650,13 +650,7 @@
     <t>Summariser.AboveGround.Wt</t>
   </si>
   <si>
-    <t>Wheat.Leaf.AppearedCohortNo</t>
-  </si>
-  <si>
     <t>Wheat.Leaf.ExpandedCohortNo</t>
-  </si>
-  <si>
-    <t>Zadock</t>
   </si>
   <si>
     <t>ProfileWater</t>
@@ -684,6 +678,168 @@
   </si>
   <si>
     <t>Soil.SoilWater.SW(8)</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvBolac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvBolac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvBolac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvDerrimut</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvDerrimut</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvDerrimut</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvEGAGregory</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvEGAGregory</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvEGAGregory</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvGladius</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvGladius</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvGladius</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvH46</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvH46</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvH46</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvHartog</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvHartog</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvHartog</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvJanz</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvJanz</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvJanz</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvKelallac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvKelallac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvKelallac</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvKennedy</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvKennedy</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvMckellar</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvMckellar</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvMckellar</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvRuby</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvRuby</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvRuby</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvVentura</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvVentura</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvVentura</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvWedgetail</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvWedgetail</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvWedgetail</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvWyalkatchem</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvWyalkatchem</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvWyalkatchem</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvYitpi</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvYitpi</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvYitpi</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS1CvYoung</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS2CvYoung</t>
+  </si>
+  <si>
+    <t>Gatton2009TOS3CvYoung</t>
+  </si>
+  <si>
+    <t>TillerNo</t>
+  </si>
+  <si>
+    <t>APS2TOS1</t>
+  </si>
+  <si>
+    <t>APS2TOS2</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.SenescingCohortNo</t>
+  </si>
+  <si>
+    <t>Summariser.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.Zadok.Stage</t>
+  </si>
+  <si>
+    <t>Wheat.Structure.MainStemNodeNo</t>
   </si>
 </sst>
 </file>
@@ -715,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -732,11 +888,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -763,6 +950,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,44 +1251,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE226"/>
+  <dimension ref="A1:AE228"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="585" activePane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4164" ySplit="588" topLeftCell="AB210" activePane="bottomRight"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
+      <selection pane="bottomRight" activeCell="AB214" sqref="AB214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="17" width="29.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.42578125" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" customWidth="1"/>
+    <col min="16" max="17" width="29.6640625" customWidth="1"/>
+    <col min="18" max="18" width="30.44140625" customWidth="1"/>
+    <col min="19" max="19" width="25.33203125" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.109375" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="30.42578125" customWidth="1"/>
-    <col min="27" max="27" width="28.7109375" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" customWidth="1"/>
+    <col min="26" max="26" width="30.44140625" customWidth="1"/>
+    <col min="27" max="27" width="28.6640625" customWidth="1"/>
+    <col min="28" max="28" width="26.88671875" customWidth="1"/>
+    <col min="29" max="29" width="27.33203125" customWidth="1"/>
+    <col min="30" max="30" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -13023,6 +13220,52 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
+    <row r="227" spans="1:31">
+      <c r="A227" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C227" s="1">
+        <v>90</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E227">
+        <v>1604.4136276852012</v>
+      </c>
+      <c r="G227" s="8">
+        <v>725.23290576948159</v>
+      </c>
+      <c r="AB227" s="8">
+        <v>17741.658403475769</v>
+      </c>
+      <c r="AC227" s="8">
+        <v>40.877402172696613</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31">
+      <c r="A228" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C228" s="1">
+        <v>90</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228">
+        <v>1164.5275665177771</v>
+      </c>
+      <c r="G228" s="8">
+        <v>468.44832234248469</v>
+      </c>
+      <c r="AB228" s="8">
+        <v>16295.331929885477</v>
+      </c>
+      <c r="AC228" s="8">
+        <v>28.747393692751672</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:AD253">
     <sortCondition ref="A3:A253"/>
@@ -13034,19 +13277,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K49"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="528" topLeftCell="A49" activePane="bottomLeft"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50:I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13078,10 +13333,13 @@
         <v>208</v>
       </c>
       <c r="K1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -13112,11 +13370,12 @@
       <c r="J2" s="7">
         <v>259.60892857142858</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8">
         <v>2.2555195088806368</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -13147,11 +13406,12 @@
       <c r="J3" s="7">
         <v>649.67857142857144</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8">
         <v>4.9547302747623414</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -13182,11 +13442,12 @@
       <c r="J4" s="7">
         <v>1402.8307463434955</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8">
         <v>10.04590838974924</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -13217,11 +13478,12 @@
       <c r="J5" s="7">
         <v>1751.3349013553025</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7"/>
+      <c r="L5" s="8">
         <v>9.9447832929959699</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -13252,11 +13514,12 @@
       <c r="J6" s="7">
         <v>1887.00612321624</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7"/>
+      <c r="L6" s="8">
         <v>7.0054823627853544</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -13287,11 +13550,12 @@
       <c r="J7" s="7">
         <v>2249.0845984679604</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7"/>
+      <c r="L7" s="8">
         <v>6.7423104984325981</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -13322,11 +13586,12 @@
       <c r="J8" s="7">
         <v>2993.4587204772688</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7"/>
+      <c r="L8" s="8">
         <v>6.173970597530718</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -13357,11 +13622,12 @@
       <c r="J9" s="7">
         <v>2625.4943707521256</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7"/>
+      <c r="L9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -13392,11 +13658,12 @@
       <c r="J10" s="7">
         <v>226.8970238095238</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7"/>
+      <c r="L10" s="8">
         <v>1.8363253397825279</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -13427,11 +13694,12 @@
       <c r="J11" s="7">
         <v>624.35714285714289</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7"/>
+      <c r="L11" s="8">
         <v>4.8213129503790721</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -13462,11 +13730,12 @@
       <c r="J12" s="7">
         <v>1362.8234278234299</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7"/>
+      <c r="L12" s="8">
         <v>7.7770623965616945</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -13497,11 +13766,12 @@
       <c r="J13" s="7">
         <v>1620.5776179914026</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7"/>
+      <c r="L13" s="8">
         <v>6.2177981873402475</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -13532,11 +13802,12 @@
       <c r="J14" s="7">
         <v>1948.067399882359</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7"/>
+      <c r="L14" s="8">
         <v>5.3198033883654974</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -13567,11 +13838,12 @@
       <c r="J15" s="7">
         <v>2109.728760647753</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7"/>
+      <c r="L15" s="8">
         <v>3.7765601968632296</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -13602,11 +13874,12 @@
       <c r="J16" s="7">
         <v>2370.9786599317072</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7"/>
+      <c r="L16" s="8">
         <v>2.0383446717260489</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -13637,11 +13910,12 @@
       <c r="J17" s="7">
         <v>2121.6746017489827</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7"/>
+      <c r="L17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -13672,11 +13946,12 @@
       <c r="J18" s="7">
         <v>249.91249999999994</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7"/>
+      <c r="L18" s="8">
         <v>2.0316387491669783</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -13707,11 +13982,12 @@
       <c r="J19" s="7">
         <v>627.47023809523807</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7"/>
+      <c r="L19" s="8">
         <v>4.7877182059777823</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -13742,11 +14018,12 @@
       <c r="J20" s="7">
         <v>1264.469068519624</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7"/>
+      <c r="L20" s="8">
         <v>7.6460656976249348</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -13777,11 +14054,12 @@
       <c r="J21" s="7">
         <v>1697.7749033869459</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7"/>
+      <c r="L21" s="8">
         <v>6.4926572651336674</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -13812,11 +14090,12 @@
       <c r="J22" s="7">
         <v>1996.7879625524304</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7"/>
+      <c r="L22" s="8">
         <v>5.7135892885851494</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -13847,11 +14126,12 @@
       <c r="J23" s="7">
         <v>2130.6560161990783</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7"/>
+      <c r="L23" s="8">
         <v>4.1477986688160406</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -13882,11 +14162,12 @@
       <c r="J24" s="7">
         <v>2922.3662748673055</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7"/>
+      <c r="L24" s="8">
         <v>4.9538923805804744</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -13917,11 +14198,12 @@
       <c r="J25" s="7">
         <v>2408.9480068087651</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7"/>
+      <c r="L25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -13952,11 +14234,12 @@
       <c r="J26" s="7">
         <v>234.35535714285714</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7"/>
+      <c r="L26" s="8">
         <v>1.9249611829066204</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -13987,11 +14270,12 @@
       <c r="J27" s="7">
         <v>609.67261904761904</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7"/>
+      <c r="L27" s="8">
         <v>4.7920936608582174</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -14022,11 +14306,12 @@
       <c r="J28" s="7">
         <v>1221.1821011129721</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7"/>
+      <c r="L28" s="8">
         <v>8.5109124018762845</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -14057,11 +14342,12 @@
       <c r="J29" s="7">
         <v>1741.3625136754131</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7"/>
+      <c r="L29" s="8">
         <v>7.4113192025728081</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -14092,11 +14378,12 @@
       <c r="J30" s="7">
         <v>2123.5220807464707</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7"/>
+      <c r="L30" s="8">
         <v>5.8765044445722427</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -14127,11 +14414,12 @@
       <c r="J31" s="7">
         <v>2263.3544949769112</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7"/>
+      <c r="L31" s="8">
         <v>4.0055999064848189</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -14162,11 +14450,12 @@
       <c r="J32" s="7">
         <v>2799.2876533741037</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7"/>
+      <c r="L32" s="8">
         <v>3.0885626755610085</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -14197,11 +14486,12 @@
       <c r="J33" s="7">
         <v>2468.3094723972449</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7"/>
+      <c r="L33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -14232,11 +14522,12 @@
       <c r="J34" s="7">
         <v>265.64404761904763</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7"/>
+      <c r="L34" s="8">
         <v>2.3523726058052192</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -14267,11 +14558,12 @@
       <c r="J35" s="7">
         <v>675.00595238095241</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7"/>
+      <c r="L35" s="8">
         <v>5.0451749257967373</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>201</v>
       </c>
@@ -14302,11 +14594,12 @@
       <c r="J36" s="7">
         <v>1297.9274261316932</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7"/>
+      <c r="L36" s="8">
         <v>9.4994730635118927</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -14337,11 +14630,12 @@
       <c r="J37" s="7">
         <v>1793.2180091010782</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7"/>
+      <c r="L37" s="8">
         <v>8.240867228872558</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -14372,11 +14666,12 @@
       <c r="J38" s="7">
         <v>2003.9743996700238</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7"/>
+      <c r="L38" s="8">
         <v>5.4969255384869973</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -14407,11 +14702,12 @@
       <c r="J39" s="7">
         <v>2222.9738840553596</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7"/>
+      <c r="L39" s="8">
         <v>4.1986445555564238</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>201</v>
       </c>
@@ -14442,11 +14738,12 @@
       <c r="J40" s="7">
         <v>2842.3258907459699</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7"/>
+      <c r="L40" s="8">
         <v>2.1963741136056831</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -14477,11 +14774,12 @@
       <c r="J41" s="7">
         <v>2474.0820469697851</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7"/>
+      <c r="L41" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -14512,11 +14810,12 @@
       <c r="J42" s="7">
         <v>244.48333333333335</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7"/>
+      <c r="L42" s="8">
         <v>2.1028628032490388</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -14547,15 +14846,16 @@
       <c r="J43" s="7">
         <v>608.39285714285711</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7"/>
+      <c r="L43" s="8">
         <v>4.7774841453646726</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>202</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="12">
         <v>41569</v>
       </c>
       <c r="C44">
@@ -14582,15 +14882,15 @@
       <c r="J44">
         <v>1466.2124007666825</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>10.418043180476065</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>202</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="12">
         <v>41582</v>
       </c>
       <c r="C45">
@@ -14617,15 +14917,15 @@
       <c r="J45">
         <v>1781.801942144639</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>9.0164599027567434</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>202</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="12">
         <v>41596</v>
       </c>
       <c r="C46">
@@ -14652,15 +14952,15 @@
       <c r="J46">
         <v>2089.064179160293</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>7.240046147174402</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>202</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="12">
         <v>41610</v>
       </c>
       <c r="C47">
@@ -14687,15 +14987,15 @@
       <c r="J47">
         <v>2427.434594961032</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>5.4386966497831182</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>202</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="12">
         <v>41625</v>
       </c>
       <c r="C48">
@@ -14722,15 +15022,15 @@
       <c r="J48">
         <v>2932.0284623086782</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>2.4550837291861449</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>202</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="12">
         <v>41664</v>
       </c>
       <c r="C49">
@@ -14757,7 +15057,183 @@
       <c r="J49">
         <v>2619.6985123527334</v>
       </c>
-      <c r="K49">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="12">
+        <v>33423</v>
+      </c>
+      <c r="J50">
+        <v>35.313913161281576</v>
+      </c>
+      <c r="K50">
+        <v>2.2424918618860081</v>
+      </c>
+      <c r="L50">
+        <v>0.68653969189475772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="12">
+        <v>33442</v>
+      </c>
+      <c r="J51">
+        <v>182.43184838348461</v>
+      </c>
+      <c r="K51">
+        <v>9.4329815227589577</v>
+      </c>
+      <c r="L51">
+        <v>2.744517857737153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="12">
+        <v>33466</v>
+      </c>
+      <c r="J52">
+        <v>670.20951505517132</v>
+      </c>
+      <c r="K52">
+        <v>18.498999702466406</v>
+      </c>
+      <c r="L52">
+        <v>5.5488860835139748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="12">
+        <v>33491</v>
+      </c>
+      <c r="J53">
+        <v>924.10003844885887</v>
+      </c>
+      <c r="K53">
+        <v>14.845292187140384</v>
+      </c>
+      <c r="L53">
+        <v>3.5856666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="12">
+        <v>33513</v>
+      </c>
+      <c r="J54">
+        <v>1298.4713931263977</v>
+      </c>
+      <c r="K54">
+        <v>18.233995127224386</v>
+      </c>
+      <c r="L54">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="12">
+        <v>33529</v>
+      </c>
+      <c r="I55">
+        <v>725.23290576948159</v>
+      </c>
+      <c r="J55">
+        <v>1604.4136276852012</v>
+      </c>
+      <c r="K55">
+        <v>18.644127998804557</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" s="12">
+        <v>33487</v>
+      </c>
+      <c r="J56">
+        <v>43.749995654063447</v>
+      </c>
+      <c r="K56">
+        <v>2.7294763765373942</v>
+      </c>
+      <c r="L56">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="12">
+        <v>33506</v>
+      </c>
+      <c r="J57">
+        <v>277.06931765688734</v>
+      </c>
+      <c r="K57">
+        <v>11.42535678654575</v>
+      </c>
+      <c r="L57">
+        <v>3.706666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="12">
+        <v>33535</v>
+      </c>
+      <c r="J58">
+        <v>1068.9052750845522</v>
+      </c>
+      <c r="K58">
+        <v>18.097752757724948</v>
+      </c>
+      <c r="L58">
+        <v>3.9766666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="12">
+        <v>33554</v>
+      </c>
+      <c r="I59">
+        <v>468.44832234248469</v>
+      </c>
+      <c r="J59">
+        <v>1164.5275665177771</v>
+      </c>
+      <c r="K59">
+        <v>16.353745439800466</v>
+      </c>
+      <c r="L59">
         <v>0</v>
       </c>
     </row>
@@ -14768,19 +15244,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A370"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14788,13 +15269,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
         <v>209</v>
       </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -14808,7 +15295,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -14822,7 +15309,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -14836,7 +15323,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -14850,7 +15337,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -14864,7 +15351,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -14878,7 +15365,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -14892,7 +15379,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -14906,7 +15393,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -14920,7 +15407,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -14934,7 +15421,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -14948,7 +15435,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -14962,7 +15449,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -14976,7 +15463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -14990,7 +15477,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -15900,7 +16387,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -15914,7 +16401,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -15928,7 +16415,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -15942,7 +16429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -15956,7 +16443,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -15970,7 +16457,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -15984,7 +16471,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -15998,7 +16485,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -16012,7 +16499,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -16026,7 +16513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -16040,7 +16527,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -16052,6 +16539,3539 @@
       </c>
       <c r="D91">
         <v>14.45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C92" s="11">
+        <v>5.875</v>
+      </c>
+      <c r="F92" s="11">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C93" s="11">
+        <v>8.6374999999999993</v>
+      </c>
+      <c r="F93" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C94" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C95" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C96" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C97" s="11">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C99" s="11">
+        <v>4.3125</v>
+      </c>
+      <c r="F99" s="11">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C100" s="11">
+        <v>5.4375</v>
+      </c>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C101" s="11">
+        <v>7.2857142857142847</v>
+      </c>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C102" s="11">
+        <v>8.2142857142857135</v>
+      </c>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C103" s="11">
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C106" s="11">
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C107" s="11">
+        <v>8</v>
+      </c>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C108" s="11">
+        <v>8</v>
+      </c>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C110" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F110" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C111" s="11">
+        <v>8</v>
+      </c>
+      <c r="F111" s="11">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C112" s="11">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C113" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C114" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="F115" s="11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C117" s="11">
+        <v>4.7625000000000011</v>
+      </c>
+      <c r="F117" s="11">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C118" s="11">
+        <v>6.2125000000000004</v>
+      </c>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C119" s="11">
+        <v>7.7874999999999996</v>
+      </c>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C120" s="11">
+        <v>7.875</v>
+      </c>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C121" s="11">
+        <v>7.875</v>
+      </c>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C124" s="11">
+        <v>6.1124999999999998</v>
+      </c>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C125" s="11">
+        <v>7</v>
+      </c>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C126" s="11">
+        <v>7</v>
+      </c>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C128" s="11">
+        <v>5.625</v>
+      </c>
+      <c r="F128" s="11">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C129" s="11">
+        <v>8.8874999999999993</v>
+      </c>
+      <c r="F129" s="11">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C130" s="11">
+        <v>10.862500000000001</v>
+      </c>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C131" s="11">
+        <v>11.237500000000001</v>
+      </c>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C132" s="11">
+        <v>11.375</v>
+      </c>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C133" s="11">
+        <v>11.375</v>
+      </c>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C135" s="11">
+        <v>3.9374999999999996</v>
+      </c>
+      <c r="F135" s="11">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C136" s="11">
+        <v>4.8875000000000002</v>
+      </c>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C137" s="11">
+        <v>6.5875000000000004</v>
+      </c>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C138" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C139" s="11">
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C142" s="11">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C143" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>227</v>
+      </c>
+      <c r="B144" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C144" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>227</v>
+      </c>
+      <c r="B145" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C146" s="11">
+        <v>6</v>
+      </c>
+      <c r="F146" s="11">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C147" s="11">
+        <v>7.8875000000000002</v>
+      </c>
+      <c r="F147" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C148" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>228</v>
+      </c>
+      <c r="B149" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C149" s="11">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F149" s="11"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C150" s="11">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F150" s="11"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C151" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C153" s="11">
+        <v>4.9125000000000005</v>
+      </c>
+      <c r="F153" s="11">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C154" s="11">
+        <v>5.9875000000000007</v>
+      </c>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C155" s="11">
+        <v>7.6875</v>
+      </c>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C156" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C157" s="11">
+        <v>8.375</v>
+      </c>
+      <c r="F157" s="11"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>229</v>
+      </c>
+      <c r="B159" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C160" s="11">
+        <v>6.3625000000000007</v>
+      </c>
+      <c r="F160" s="11"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>230</v>
+      </c>
+      <c r="B161" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C161" s="11">
+        <v>7.125</v>
+      </c>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>230</v>
+      </c>
+      <c r="B162" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C162" s="11">
+        <v>7.125</v>
+      </c>
+      <c r="F162" s="11"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C163" s="11">
+        <v>9</v>
+      </c>
+      <c r="F163" s="11"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B164" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C164" s="11">
+        <v>6.625</v>
+      </c>
+      <c r="F164" s="11">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>231</v>
+      </c>
+      <c r="B165" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C165" s="11">
+        <v>8.125</v>
+      </c>
+      <c r="F165" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>231</v>
+      </c>
+      <c r="B166" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C166" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>231</v>
+      </c>
+      <c r="B167" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C167" s="11">
+        <v>9</v>
+      </c>
+      <c r="F167" s="11"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C168" s="11">
+        <v>9</v>
+      </c>
+      <c r="F168" s="11"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="F169" s="11"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="F170" s="11"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C171" s="11">
+        <v>5.1875</v>
+      </c>
+      <c r="F171" s="11">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>232</v>
+      </c>
+      <c r="B172" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C172" s="11">
+        <v>6.0874999999999995</v>
+      </c>
+      <c r="F172" s="11"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C173" s="11">
+        <v>6.7714285714285714</v>
+      </c>
+      <c r="F173" s="11"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C174" s="11">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="F174" s="11"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>232</v>
+      </c>
+      <c r="B175" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C175" s="11">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F175" s="11"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>232</v>
+      </c>
+      <c r="B176" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="F176" s="11"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="F177" s="11"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C178" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="F178" s="11"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>233</v>
+      </c>
+      <c r="B179" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C179" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="F179" s="11"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>233</v>
+      </c>
+      <c r="B180" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C180" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="F180" s="11"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>233</v>
+      </c>
+      <c r="B181" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="F181" s="11"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>234</v>
+      </c>
+      <c r="B182" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C182" s="11">
+        <v>5.875</v>
+      </c>
+      <c r="F182" s="11">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C183" s="11">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="F183" s="11">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>234</v>
+      </c>
+      <c r="B184" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C184" s="11">
+        <v>10</v>
+      </c>
+      <c r="F184" s="11"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C185" s="11">
+        <v>10</v>
+      </c>
+      <c r="F185" s="11"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>234</v>
+      </c>
+      <c r="B186" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C186" s="11">
+        <v>10</v>
+      </c>
+      <c r="F186" s="11"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="B187" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="F187" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C189" s="11">
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="F189" s="11">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C190" s="11">
+        <v>6.1375000000000002</v>
+      </c>
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C191" s="11">
+        <v>7.3624999999999998</v>
+      </c>
+      <c r="F191" s="11"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C192" s="11">
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C193" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="F193" s="11"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="F195" s="11"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C196" s="11">
+        <v>6.3625000000000007</v>
+      </c>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>236</v>
+      </c>
+      <c r="B197" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C197" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F197" s="11"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>236</v>
+      </c>
+      <c r="B198" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C198" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F198" s="11"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>236</v>
+      </c>
+      <c r="B199" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="F199" s="11"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C200" s="11">
+        <v>5.9375</v>
+      </c>
+      <c r="F200" s="11">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>237</v>
+      </c>
+      <c r="B201" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C201" s="11">
+        <v>8.2374999999999989</v>
+      </c>
+      <c r="F201" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>237</v>
+      </c>
+      <c r="B202" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C202" s="11">
+        <v>9</v>
+      </c>
+      <c r="F202" s="11"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>237</v>
+      </c>
+      <c r="B203" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C203" s="11">
+        <v>9</v>
+      </c>
+      <c r="F203" s="11"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>237</v>
+      </c>
+      <c r="B204" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C204" s="11">
+        <v>9</v>
+      </c>
+      <c r="F204" s="11"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>237</v>
+      </c>
+      <c r="B205" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C205" s="11">
+        <v>9</v>
+      </c>
+      <c r="F205" s="11"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>237</v>
+      </c>
+      <c r="B206" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="F206" s="11"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>238</v>
+      </c>
+      <c r="B207" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C207" s="11">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="F207" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C208" s="11">
+        <v>7.3714285714285719</v>
+      </c>
+      <c r="F208" s="11"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>238</v>
+      </c>
+      <c r="B209" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C209" s="11">
+        <v>8.125</v>
+      </c>
+      <c r="F209" s="11"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>238</v>
+      </c>
+      <c r="B210" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C210" s="11">
+        <v>9.3125</v>
+      </c>
+      <c r="F210" s="11"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>238</v>
+      </c>
+      <c r="B211" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C211" s="11">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="F211" s="11"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>238</v>
+      </c>
+      <c r="B212" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="F212" s="11"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>238</v>
+      </c>
+      <c r="B213" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="F213" s="11"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C214" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="F214" s="11"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B215" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C215" s="11">
+        <v>8</v>
+      </c>
+      <c r="F215" s="11"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C216" s="11">
+        <v>8</v>
+      </c>
+      <c r="F216" s="11"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>239</v>
+      </c>
+      <c r="B217" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C217" s="11"/>
+      <c r="F217" s="11"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>240</v>
+      </c>
+      <c r="B218" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C218" s="11">
+        <v>6</v>
+      </c>
+      <c r="F218" s="11">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>240</v>
+      </c>
+      <c r="B219" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C219" s="11">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="F219" s="11">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>240</v>
+      </c>
+      <c r="B220" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C220" s="11">
+        <v>9.7874999999999996</v>
+      </c>
+      <c r="F220" s="11"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>240</v>
+      </c>
+      <c r="B221" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C221" s="11">
+        <v>10.025</v>
+      </c>
+      <c r="F221" s="11"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>240</v>
+      </c>
+      <c r="B222" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C222" s="11">
+        <v>10.25</v>
+      </c>
+      <c r="F222" s="11"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B223" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C223" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="F223" s="11"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="F224" s="11"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C225" s="11">
+        <v>5.1624999999999996</v>
+      </c>
+      <c r="F225" s="11">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>241</v>
+      </c>
+      <c r="B226" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C226" s="11">
+        <v>6.2125000000000004</v>
+      </c>
+      <c r="F226" s="11"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>241</v>
+      </c>
+      <c r="B227" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C227" s="11">
+        <v>7.4750000000000005</v>
+      </c>
+      <c r="F227" s="11"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>241</v>
+      </c>
+      <c r="B228" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C228" s="11">
+        <v>9.3571428571428577</v>
+      </c>
+      <c r="F228" s="11"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C229" s="11">
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="F229" s="11"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>241</v>
+      </c>
+      <c r="B230" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="F230" s="11"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C231" s="11"/>
+      <c r="F231" s="11"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>242</v>
+      </c>
+      <c r="B232" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C232" s="11">
+        <v>6.3125</v>
+      </c>
+      <c r="F232" s="11"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C233" s="11">
+        <v>8</v>
+      </c>
+      <c r="F233" s="11"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C234" s="11">
+        <v>8.125</v>
+      </c>
+      <c r="F234" s="11"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="F235" s="11"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C236" s="11">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="F236" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C237" s="11">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="F237" s="11"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C238" s="11">
+        <v>7.875</v>
+      </c>
+      <c r="F238" s="11"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C239" s="11">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F239" s="11"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C240" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="F241" s="11"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C242" s="11"/>
+      <c r="F242" s="11"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C243" s="11">
+        <v>6.4375</v>
+      </c>
+      <c r="F243" s="11"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C244" s="11">
+        <v>7.375</v>
+      </c>
+      <c r="F244" s="11"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C245" s="11">
+        <v>7.375</v>
+      </c>
+      <c r="F245" s="11"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C246" s="11"/>
+      <c r="F246" s="11"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C247" s="11">
+        <v>5.625</v>
+      </c>
+      <c r="F247" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C248" s="11">
+        <v>7.6571428571428575</v>
+      </c>
+      <c r="F248" s="11">
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>245</v>
+      </c>
+      <c r="B249" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C249" s="11">
+        <v>10.64</v>
+      </c>
+      <c r="F249" s="11"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>245</v>
+      </c>
+      <c r="B250" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C250" s="11">
+        <v>11.379999999999999</v>
+      </c>
+      <c r="F250" s="11"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>245</v>
+      </c>
+      <c r="B251" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C251" s="11">
+        <v>12.175000000000001</v>
+      </c>
+      <c r="F251" s="11"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C252" s="11">
+        <v>14.36</v>
+      </c>
+      <c r="F252" s="11"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+      <c r="B253" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="F253" s="11"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C254" s="11">
+        <v>4.9124999999999996</v>
+      </c>
+      <c r="F254" s="11">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>246</v>
+      </c>
+      <c r="B255" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C255" s="11">
+        <v>5.6875</v>
+      </c>
+      <c r="F255" s="11"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>246</v>
+      </c>
+      <c r="B256" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C256" s="11">
+        <v>6.6142857142857139</v>
+      </c>
+      <c r="F256" s="11"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>246</v>
+      </c>
+      <c r="B257" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C257" s="11">
+        <v>9</v>
+      </c>
+      <c r="F257" s="11"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>246</v>
+      </c>
+      <c r="B258" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C258" s="11">
+        <v>10.833333333333334</v>
+      </c>
+      <c r="F258" s="11"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>246</v>
+      </c>
+      <c r="B259" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C259" s="11"/>
+      <c r="F259" s="11"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>246</v>
+      </c>
+      <c r="B260" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C260" s="11"/>
+      <c r="F260" s="11"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>247</v>
+      </c>
+      <c r="B261" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C261" s="11">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="F261" s="11"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>247</v>
+      </c>
+      <c r="B262" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C262" s="11">
+        <v>7.625</v>
+      </c>
+      <c r="F262" s="11"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>247</v>
+      </c>
+      <c r="B263" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C263" s="11">
+        <v>8.75</v>
+      </c>
+      <c r="F263" s="11"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>247</v>
+      </c>
+      <c r="B264" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C264" s="11"/>
+      <c r="F264" s="11"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>248</v>
+      </c>
+      <c r="B265" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C265" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="F265" s="11">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>248</v>
+      </c>
+      <c r="B266" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C266" s="11">
+        <v>9.0374999999999996</v>
+      </c>
+      <c r="F266" s="11">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>248</v>
+      </c>
+      <c r="B267" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C267" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="F267" s="11"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>248</v>
+      </c>
+      <c r="B268" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C268" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F268" s="11"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>248</v>
+      </c>
+      <c r="B269" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C269" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F269" s="11"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>248</v>
+      </c>
+      <c r="B270" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C270" s="11"/>
+      <c r="F270" s="11"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>248</v>
+      </c>
+      <c r="B271" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C271" s="11"/>
+      <c r="F271" s="11"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>249</v>
+      </c>
+      <c r="B272" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C272" s="11">
+        <v>5</v>
+      </c>
+      <c r="F272" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>249</v>
+      </c>
+      <c r="B273" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C273" s="11">
+        <v>6.5750000000000002</v>
+      </c>
+      <c r="F273" s="11"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>249</v>
+      </c>
+      <c r="B274" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C274" s="11">
+        <v>7.5250000000000004</v>
+      </c>
+      <c r="F274" s="11"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>249</v>
+      </c>
+      <c r="B275" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C275" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="F275" s="11"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>249</v>
+      </c>
+      <c r="B276" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C276" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="F276" s="11"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>249</v>
+      </c>
+      <c r="B277" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C277" s="11"/>
+      <c r="F277" s="11"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>249</v>
+      </c>
+      <c r="B278" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C278" s="11"/>
+      <c r="F278" s="11"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>250</v>
+      </c>
+      <c r="B279" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C279" s="11">
+        <v>6.6750000000000007</v>
+      </c>
+      <c r="F279" s="11"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>250</v>
+      </c>
+      <c r="B280" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C280" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F280" s="11"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>250</v>
+      </c>
+      <c r="B281" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C281" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F281" s="11"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>250</v>
+      </c>
+      <c r="B282" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C282" s="11"/>
+      <c r="F282" s="11"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>251</v>
+      </c>
+      <c r="B283" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C283" s="11">
+        <v>6.4375</v>
+      </c>
+      <c r="F283" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>251</v>
+      </c>
+      <c r="B284" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C284" s="11">
+        <v>8.4250000000000007</v>
+      </c>
+      <c r="F284" s="11">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>251</v>
+      </c>
+      <c r="B285" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C285" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F285" s="11"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>251</v>
+      </c>
+      <c r="B286" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C286" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F286" s="11"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>251</v>
+      </c>
+      <c r="B287" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C287" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="F287" s="11"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>251</v>
+      </c>
+      <c r="B288" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C288" s="11">
+        <v>8.8571428571428577</v>
+      </c>
+      <c r="F288" s="11"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>251</v>
+      </c>
+      <c r="B289" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C289" s="11"/>
+      <c r="F289" s="11"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>252</v>
+      </c>
+      <c r="B290" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C290" s="11">
+        <v>4.4375</v>
+      </c>
+      <c r="F290" s="11">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>252</v>
+      </c>
+      <c r="B291" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C291" s="11">
+        <v>6.2374999999999998</v>
+      </c>
+      <c r="F291" s="11"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>252</v>
+      </c>
+      <c r="B292" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C292" s="11">
+        <v>7.2625000000000002</v>
+      </c>
+      <c r="F292" s="11"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>252</v>
+      </c>
+      <c r="B293" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C293" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F293" s="11"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>252</v>
+      </c>
+      <c r="B294" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C294" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F294" s="11"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>252</v>
+      </c>
+      <c r="B295" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C295" s="11"/>
+      <c r="F295" s="11"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>252</v>
+      </c>
+      <c r="B296" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C296" s="11"/>
+      <c r="F296" s="11"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>253</v>
+      </c>
+      <c r="B297" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C297" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="F297" s="11"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>253</v>
+      </c>
+      <c r="B298" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C298" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F298" s="11"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>253</v>
+      </c>
+      <c r="B299" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C299" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F299" s="11"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C300" s="11"/>
+      <c r="F300" s="11"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>254</v>
+      </c>
+      <c r="B301" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C301" s="11">
+        <v>5.5625</v>
+      </c>
+      <c r="F301" s="11">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>254</v>
+      </c>
+      <c r="B302" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C302" s="11">
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="F302" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>254</v>
+      </c>
+      <c r="B303" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C303" s="11">
+        <v>10.828571428571427</v>
+      </c>
+      <c r="F303" s="11"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>254</v>
+      </c>
+      <c r="B304" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C304" s="11">
+        <v>11.775</v>
+      </c>
+      <c r="F304" s="11"/>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>254</v>
+      </c>
+      <c r="B305" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C305" s="11">
+        <v>13</v>
+      </c>
+      <c r="F305" s="11"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>254</v>
+      </c>
+      <c r="B306" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C306" s="11">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="F306" s="11"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>254</v>
+      </c>
+      <c r="B307" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C307" s="11"/>
+      <c r="F307" s="11"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>255</v>
+      </c>
+      <c r="B308" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C308" s="11">
+        <v>4.5125000000000002</v>
+      </c>
+      <c r="F308" s="11">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>255</v>
+      </c>
+      <c r="B309" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C309" s="11">
+        <v>5.5625</v>
+      </c>
+      <c r="F309" s="11"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>255</v>
+      </c>
+      <c r="B310" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C310" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="F310" s="11"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>255</v>
+      </c>
+      <c r="B311" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C311" s="11">
+        <v>9.0142857142857142</v>
+      </c>
+      <c r="F311" s="11"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>255</v>
+      </c>
+      <c r="B312" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C312" s="11">
+        <v>11.416666666666666</v>
+      </c>
+      <c r="F312" s="11"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>255</v>
+      </c>
+      <c r="B313" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C313" s="11"/>
+      <c r="F313" s="11"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>255</v>
+      </c>
+      <c r="B314" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C314" s="11"/>
+      <c r="F314" s="11"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>256</v>
+      </c>
+      <c r="B315" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C315" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="F315" s="11"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>256</v>
+      </c>
+      <c r="B316" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C316" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="F316" s="11"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>256</v>
+      </c>
+      <c r="B317" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C317" s="11">
+        <v>8.375</v>
+      </c>
+      <c r="F317" s="11"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>256</v>
+      </c>
+      <c r="B318" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C318" s="11"/>
+      <c r="F318" s="11"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>257</v>
+      </c>
+      <c r="B319" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C319" s="11">
+        <v>5.6875</v>
+      </c>
+      <c r="F319" s="11">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>257</v>
+      </c>
+      <c r="B320" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C320" s="11">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="F320" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>257</v>
+      </c>
+      <c r="B321" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C321" s="11">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="F321" s="11"/>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>257</v>
+      </c>
+      <c r="B322" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C322" s="11">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="F322" s="11"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>257</v>
+      </c>
+      <c r="B323" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C323" s="11">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F323" s="11"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>257</v>
+      </c>
+      <c r="B324" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C324" s="11">
+        <v>9.75</v>
+      </c>
+      <c r="F324" s="11"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>257</v>
+      </c>
+      <c r="B325" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C325" s="11"/>
+      <c r="F325" s="11"/>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>258</v>
+      </c>
+      <c r="B326" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C326" s="11">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="F326" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>258</v>
+      </c>
+      <c r="B327" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C327" s="11">
+        <v>5.9625000000000004</v>
+      </c>
+      <c r="F327" s="11"/>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>258</v>
+      </c>
+      <c r="B328" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C328" s="11">
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="F328" s="11"/>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>258</v>
+      </c>
+      <c r="B329" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C329" s="11">
+        <v>8</v>
+      </c>
+      <c r="F329" s="11"/>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>258</v>
+      </c>
+      <c r="B330" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C330" s="11">
+        <v>8</v>
+      </c>
+      <c r="F330" s="11"/>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>258</v>
+      </c>
+      <c r="B331" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C331" s="11"/>
+      <c r="F331" s="11"/>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>258</v>
+      </c>
+      <c r="B332" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C332" s="11"/>
+      <c r="F332" s="11"/>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>259</v>
+      </c>
+      <c r="B333" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C333" s="11">
+        <v>6.7499999999999991</v>
+      </c>
+      <c r="F333" s="11"/>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>259</v>
+      </c>
+      <c r="B334" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C334" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F334" s="11"/>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>259</v>
+      </c>
+      <c r="B335" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C335" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="F335" s="11"/>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>259</v>
+      </c>
+      <c r="B336" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C336" s="11"/>
+      <c r="F336" s="11"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>260</v>
+      </c>
+      <c r="B337" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C337" s="11">
+        <v>6</v>
+      </c>
+      <c r="F337" s="11">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>260</v>
+      </c>
+      <c r="B338" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C338" s="11">
+        <v>8.6875000000000018</v>
+      </c>
+      <c r="F338" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>260</v>
+      </c>
+      <c r="B339" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C339" s="11">
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="F339" s="11"/>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>260</v>
+      </c>
+      <c r="B340" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C340" s="11">
+        <v>10.142857142857142</v>
+      </c>
+      <c r="F340" s="11"/>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="s">
+        <v>260</v>
+      </c>
+      <c r="B341" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C341" s="11">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="F341" s="11"/>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>260</v>
+      </c>
+      <c r="B342" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C342" s="11">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="F342" s="11"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>260</v>
+      </c>
+      <c r="B343" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C343" s="11"/>
+      <c r="F343" s="11"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>261</v>
+      </c>
+      <c r="B344" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C344" s="11">
+        <v>4.4124999999999996</v>
+      </c>
+      <c r="F344" s="11">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>261</v>
+      </c>
+      <c r="B345" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C345" s="11">
+        <v>5.7125000000000004</v>
+      </c>
+      <c r="F345" s="11"/>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>261</v>
+      </c>
+      <c r="B346" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C346" s="11">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="F346" s="11"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>261</v>
+      </c>
+      <c r="B347" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C347" s="11">
+        <v>9.25</v>
+      </c>
+      <c r="F347" s="11"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>261</v>
+      </c>
+      <c r="B348" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C348" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="F348" s="11"/>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>261</v>
+      </c>
+      <c r="B349" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C349" s="11"/>
+      <c r="F349" s="11"/>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>261</v>
+      </c>
+      <c r="B350" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C350" s="11"/>
+      <c r="F350" s="11"/>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>262</v>
+      </c>
+      <c r="B351" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C351" s="11">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="F351" s="11"/>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>262</v>
+      </c>
+      <c r="B352" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C352" s="11">
+        <v>8</v>
+      </c>
+      <c r="F352" s="11"/>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>262</v>
+      </c>
+      <c r="B353" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C353" s="11">
+        <v>8</v>
+      </c>
+      <c r="F353" s="11"/>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>262</v>
+      </c>
+      <c r="B354" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C354" s="11"/>
+      <c r="F354" s="11"/>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>263</v>
+      </c>
+      <c r="B355" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C355" s="11">
+        <v>6.3125</v>
+      </c>
+      <c r="F355" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>263</v>
+      </c>
+      <c r="B356" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C356" s="11">
+        <v>8.15</v>
+      </c>
+      <c r="F356" s="11">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>263</v>
+      </c>
+      <c r="B357" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C357" s="11">
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="F357" s="11"/>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>263</v>
+      </c>
+      <c r="B358" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C358" s="11">
+        <v>9</v>
+      </c>
+      <c r="F358" s="11"/>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>263</v>
+      </c>
+      <c r="B359" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C359" s="11">
+        <v>9</v>
+      </c>
+      <c r="F359" s="11"/>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>263</v>
+      </c>
+      <c r="B360" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C360" s="11">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F360" s="11"/>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>263</v>
+      </c>
+      <c r="B361" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C361" s="11"/>
+      <c r="F361" s="11"/>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>264</v>
+      </c>
+      <c r="B362" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C362" s="11">
+        <v>5.2375000000000007</v>
+      </c>
+      <c r="F362" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>264</v>
+      </c>
+      <c r="B363" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C363" s="11">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="F363" s="11"/>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>264</v>
+      </c>
+      <c r="B364" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C364" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="F364" s="11"/>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>264</v>
+      </c>
+      <c r="B365" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C365" s="11">
+        <v>8</v>
+      </c>
+      <c r="F365" s="11"/>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>264</v>
+      </c>
+      <c r="B366" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C366" s="11">
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="F366" s="11"/>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>264</v>
+      </c>
+      <c r="B367" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C367" s="11"/>
+      <c r="F367" s="11"/>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>264</v>
+      </c>
+      <c r="B368" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C368" s="11"/>
+      <c r="F368" s="11"/>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>265</v>
+      </c>
+      <c r="B369" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C369" s="11">
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="F369" s="11"/>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>265</v>
+      </c>
+      <c r="B370" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C370" s="11">
+        <v>7.125</v>
+      </c>
+      <c r="F370" s="11"/>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>265</v>
+      </c>
+      <c r="B371" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C371" s="11">
+        <v>7.125</v>
+      </c>
+      <c r="F371" s="11"/>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>265</v>
+      </c>
+      <c r="B372" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C372" s="11"/>
+      <c r="F372" s="11"/>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>267</v>
+      </c>
+      <c r="B373" s="12">
+        <v>33420</v>
+      </c>
+      <c r="C373" s="16">
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>6.1333333333333337</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>267</v>
+      </c>
+      <c r="B374" s="12">
+        <v>33434</v>
+      </c>
+      <c r="C374" s="17">
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="D374">
+        <v>7</v>
+      </c>
+      <c r="E374">
+        <v>2.6</v>
+      </c>
+      <c r="F374">
+        <v>11.266666666666667</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="s">
+        <v>267</v>
+      </c>
+      <c r="B375" s="12">
+        <v>33449</v>
+      </c>
+      <c r="C375" s="17">
+        <v>10.052631578947368</v>
+      </c>
+      <c r="D375">
+        <v>8.6315789473684212</v>
+      </c>
+      <c r="E375">
+        <v>4.2631578947368425</v>
+      </c>
+      <c r="F375">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>267</v>
+      </c>
+      <c r="B376" s="12">
+        <v>33466</v>
+      </c>
+      <c r="C376" s="17">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D376">
+        <v>11.533333333333333</v>
+      </c>
+      <c r="E376">
+        <v>6.8</v>
+      </c>
+      <c r="F376">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>267</v>
+      </c>
+      <c r="B377" s="12">
+        <v>33480</v>
+      </c>
+      <c r="C377" s="17">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D377">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E377">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F377">
+        <v>6.7333333333333334</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>267</v>
+      </c>
+      <c r="B378" s="12">
+        <v>33491</v>
+      </c>
+      <c r="C378" s="18">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D378">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E378">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>268</v>
+      </c>
+      <c r="B379" s="13">
+        <v>33483</v>
+      </c>
+      <c r="C379">
+        <v>5.9285714285714288</v>
+      </c>
+      <c r="D379">
+        <v>4.2142857142857144</v>
+      </c>
+      <c r="E379">
+        <v>2</v>
+      </c>
+      <c r="F379">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" s="14">
+        <v>33507</v>
+      </c>
+      <c r="C380">
+        <v>10</v>
+      </c>
+      <c r="D380">
+        <v>9</v>
+      </c>
+      <c r="E380">
+        <v>5</v>
+      </c>
+      <c r="F380">
+        <v>11.166666666666666</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>268</v>
+      </c>
+      <c r="B381" s="14">
+        <v>33518</v>
+      </c>
+      <c r="C381">
+        <v>9.5</v>
+      </c>
+      <c r="D381">
+        <v>9.5</v>
+      </c>
+      <c r="E381">
+        <v>5.5</v>
+      </c>
+      <c r="F381">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>268</v>
+      </c>
+      <c r="B382" s="15">
+        <v>33541</v>
+      </c>
+      <c r="C382">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D382">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E382">
+        <v>7.3</v>
+      </c>
+      <c r="F382">
+        <v>5.8888888888888893</v>
       </c>
     </row>
   </sheetData>
@@ -16061,13 +20081,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C133"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16077,14 +20102,14 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>41386</v>
       </c>
       <c r="C2">
@@ -16095,7 +20120,7 @@
       <c r="A3" t="s">
         <v>197</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>41396</v>
       </c>
       <c r="C3">
@@ -16106,7 +20131,7 @@
       <c r="A4" t="s">
         <v>197</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>41410</v>
       </c>
       <c r="C4">
@@ -16117,7 +20142,7 @@
       <c r="A5" t="s">
         <v>197</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>41425</v>
       </c>
       <c r="C5">
@@ -16128,7 +20153,7 @@
       <c r="A6" t="s">
         <v>197</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>41438</v>
       </c>
       <c r="C6">
@@ -16139,7 +20164,7 @@
       <c r="A7" t="s">
         <v>197</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>41457</v>
       </c>
       <c r="C7">
@@ -16150,7 +20175,7 @@
       <c r="A8" t="s">
         <v>197</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>41465</v>
       </c>
       <c r="C8">
@@ -16161,7 +20186,7 @@
       <c r="A9" t="s">
         <v>197</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>41481</v>
       </c>
       <c r="C9">
@@ -16172,7 +20197,7 @@
       <c r="A10" t="s">
         <v>197</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>41495</v>
       </c>
       <c r="C10">
@@ -16183,7 +20208,7 @@
       <c r="A11" t="s">
         <v>197</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>41530</v>
       </c>
       <c r="C11">
@@ -16194,7 +20219,7 @@
       <c r="A12" t="s">
         <v>197</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>41558</v>
       </c>
       <c r="C12">
@@ -16205,7 +20230,7 @@
       <c r="A13" t="s">
         <v>197</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>41576</v>
       </c>
       <c r="C13">
@@ -16216,7 +20241,7 @@
       <c r="A14" t="s">
         <v>197</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>41582</v>
       </c>
       <c r="C14">
@@ -16227,7 +20252,7 @@
       <c r="A15" t="s">
         <v>197</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>41586</v>
       </c>
       <c r="C15">
@@ -16238,7 +20263,7 @@
       <c r="A16" t="s">
         <v>197</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>41599</v>
       </c>
       <c r="C16">
@@ -16249,7 +20274,7 @@
       <c r="A17" t="s">
         <v>197</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>41607</v>
       </c>
       <c r="C17">
@@ -16260,7 +20285,7 @@
       <c r="A18" t="s">
         <v>197</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>41620</v>
       </c>
       <c r="C18">
@@ -16271,7 +20296,7 @@
       <c r="A19" t="s">
         <v>197</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
         <v>41627</v>
       </c>
       <c r="C19">
@@ -16282,7 +20307,7 @@
       <c r="A20" t="s">
         <v>197</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
         <v>41638</v>
       </c>
       <c r="C20">
@@ -16293,7 +20318,7 @@
       <c r="A21" t="s">
         <v>197</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
         <v>41645</v>
       </c>
       <c r="C21">
@@ -16304,7 +20329,7 @@
       <c r="A22" t="s">
         <v>197</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="12">
         <v>41652</v>
       </c>
       <c r="C22">
@@ -16315,7 +20340,7 @@
       <c r="A23" t="s">
         <v>197</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="12">
         <v>41662</v>
       </c>
       <c r="C23">
@@ -16326,7 +20351,7 @@
       <c r="A24" t="s">
         <v>198</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="12">
         <v>41386</v>
       </c>
       <c r="C24">
@@ -16337,7 +20362,7 @@
       <c r="A25" t="s">
         <v>198</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="12">
         <v>41396</v>
       </c>
       <c r="C25">
@@ -16348,7 +20373,7 @@
       <c r="A26" t="s">
         <v>198</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>41410</v>
       </c>
       <c r="C26">
@@ -16359,7 +20384,7 @@
       <c r="A27" t="s">
         <v>198</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>41425</v>
       </c>
       <c r="C27">
@@ -16370,7 +20395,7 @@
       <c r="A28" t="s">
         <v>198</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="12">
         <v>41438</v>
       </c>
       <c r="C28">
@@ -16381,7 +20406,7 @@
       <c r="A29" t="s">
         <v>198</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>41457</v>
       </c>
       <c r="C29">
@@ -16392,7 +20417,7 @@
       <c r="A30" t="s">
         <v>198</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="12">
         <v>41465</v>
       </c>
       <c r="C30">
@@ -16403,7 +20428,7 @@
       <c r="A31" t="s">
         <v>198</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>41481</v>
       </c>
       <c r="C31">
@@ -16414,7 +20439,7 @@
       <c r="A32" t="s">
         <v>198</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="12">
         <v>41495</v>
       </c>
       <c r="C32">
@@ -16425,7 +20450,7 @@
       <c r="A33" t="s">
         <v>198</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="12">
         <v>41530</v>
       </c>
       <c r="C33">
@@ -16436,7 +20461,7 @@
       <c r="A34" t="s">
         <v>198</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="12">
         <v>41558</v>
       </c>
       <c r="C34">
@@ -16447,7 +20472,7 @@
       <c r="A35" t="s">
         <v>198</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="12">
         <v>41576</v>
       </c>
       <c r="C35">
@@ -16458,7 +20483,7 @@
       <c r="A36" t="s">
         <v>198</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="12">
         <v>41582</v>
       </c>
       <c r="C36">
@@ -16469,7 +20494,7 @@
       <c r="A37" t="s">
         <v>198</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="12">
         <v>41586</v>
       </c>
       <c r="C37">
@@ -16480,7 +20505,7 @@
       <c r="A38" t="s">
         <v>198</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="12">
         <v>41599</v>
       </c>
       <c r="C38">
@@ -16491,7 +20516,7 @@
       <c r="A39" t="s">
         <v>198</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="12">
         <v>41607</v>
       </c>
       <c r="C39">
@@ -16502,7 +20527,7 @@
       <c r="A40" t="s">
         <v>198</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="12">
         <v>41620</v>
       </c>
       <c r="C40">
@@ -16513,7 +20538,7 @@
       <c r="A41" t="s">
         <v>198</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="12">
         <v>41627</v>
       </c>
       <c r="C41">
@@ -16524,7 +20549,7 @@
       <c r="A42" t="s">
         <v>198</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="12">
         <v>41638</v>
       </c>
       <c r="C42">
@@ -16535,7 +20560,7 @@
       <c r="A43" t="s">
         <v>198</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="12">
         <v>41645</v>
       </c>
       <c r="C43">
@@ -16546,7 +20571,7 @@
       <c r="A44" t="s">
         <v>198</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="12">
         <v>41652</v>
       </c>
       <c r="C44">
@@ -16557,7 +20582,7 @@
       <c r="A45" t="s">
         <v>198</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="12">
         <v>41662</v>
       </c>
       <c r="C45">
@@ -16568,7 +20593,7 @@
       <c r="A46" t="s">
         <v>199</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="12">
         <v>41386</v>
       </c>
       <c r="C46">
@@ -16579,7 +20604,7 @@
       <c r="A47" t="s">
         <v>199</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="12">
         <v>41396</v>
       </c>
       <c r="C47">
@@ -16590,7 +20615,7 @@
       <c r="A48" t="s">
         <v>199</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="12">
         <v>41410</v>
       </c>
       <c r="C48">
@@ -16601,7 +20626,7 @@
       <c r="A49" t="s">
         <v>199</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="12">
         <v>41425</v>
       </c>
       <c r="C49">
@@ -16612,7 +20637,7 @@
       <c r="A50" t="s">
         <v>199</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="12">
         <v>41438</v>
       </c>
       <c r="C50">
@@ -16623,7 +20648,7 @@
       <c r="A51" t="s">
         <v>199</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="12">
         <v>41457</v>
       </c>
       <c r="C51">
@@ -16634,7 +20659,7 @@
       <c r="A52" t="s">
         <v>199</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="12">
         <v>41465</v>
       </c>
       <c r="C52">
@@ -16645,7 +20670,7 @@
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="12">
         <v>41481</v>
       </c>
       <c r="C53">
@@ -16656,7 +20681,7 @@
       <c r="A54" t="s">
         <v>199</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="12">
         <v>41495</v>
       </c>
       <c r="C54">
@@ -16667,7 +20692,7 @@
       <c r="A55" t="s">
         <v>199</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="12">
         <v>41530</v>
       </c>
       <c r="C55">
@@ -16678,7 +20703,7 @@
       <c r="A56" t="s">
         <v>199</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="12">
         <v>41558</v>
       </c>
       <c r="C56">
@@ -16689,7 +20714,7 @@
       <c r="A57" t="s">
         <v>199</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="12">
         <v>41576</v>
       </c>
       <c r="C57">
@@ -16700,7 +20725,7 @@
       <c r="A58" t="s">
         <v>199</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="12">
         <v>41582</v>
       </c>
       <c r="C58">
@@ -16711,7 +20736,7 @@
       <c r="A59" t="s">
         <v>199</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="12">
         <v>41586</v>
       </c>
       <c r="C59">
@@ -16722,7 +20747,7 @@
       <c r="A60" t="s">
         <v>199</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="12">
         <v>41599</v>
       </c>
       <c r="C60">
@@ -16733,7 +20758,7 @@
       <c r="A61" t="s">
         <v>199</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="12">
         <v>41607</v>
       </c>
       <c r="C61">
@@ -16744,7 +20769,7 @@
       <c r="A62" t="s">
         <v>199</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="12">
         <v>41620</v>
       </c>
       <c r="C62">
@@ -16755,7 +20780,7 @@
       <c r="A63" t="s">
         <v>199</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="12">
         <v>41627</v>
       </c>
       <c r="C63">
@@ -16766,7 +20791,7 @@
       <c r="A64" t="s">
         <v>199</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="12">
         <v>41638</v>
       </c>
       <c r="C64">
@@ -16777,7 +20802,7 @@
       <c r="A65" t="s">
         <v>199</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="12">
         <v>41645</v>
       </c>
       <c r="C65">
@@ -16788,7 +20813,7 @@
       <c r="A66" t="s">
         <v>199</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="12">
         <v>41652</v>
       </c>
       <c r="C66">
@@ -16799,7 +20824,7 @@
       <c r="A67" t="s">
         <v>199</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="12">
         <v>41662</v>
       </c>
       <c r="C67">
@@ -16810,7 +20835,7 @@
       <c r="A68" t="s">
         <v>200</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="12">
         <v>41386</v>
       </c>
       <c r="C68">
@@ -16821,7 +20846,7 @@
       <c r="A69" t="s">
         <v>200</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="12">
         <v>41396</v>
       </c>
       <c r="C69">
@@ -16832,7 +20857,7 @@
       <c r="A70" t="s">
         <v>200</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="12">
         <v>41410</v>
       </c>
       <c r="C70">
@@ -16843,7 +20868,7 @@
       <c r="A71" t="s">
         <v>200</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="12">
         <v>41425</v>
       </c>
       <c r="C71">
@@ -16854,7 +20879,7 @@
       <c r="A72" t="s">
         <v>200</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="12">
         <v>41438</v>
       </c>
       <c r="C72">
@@ -16865,7 +20890,7 @@
       <c r="A73" t="s">
         <v>200</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="12">
         <v>41457</v>
       </c>
       <c r="C73">
@@ -16876,7 +20901,7 @@
       <c r="A74" t="s">
         <v>200</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="12">
         <v>41465</v>
       </c>
       <c r="C74">
@@ -16887,7 +20912,7 @@
       <c r="A75" t="s">
         <v>200</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="12">
         <v>41481</v>
       </c>
       <c r="C75">
@@ -16898,7 +20923,7 @@
       <c r="A76" t="s">
         <v>200</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="12">
         <v>41495</v>
       </c>
       <c r="C76">
@@ -16909,7 +20934,7 @@
       <c r="A77" t="s">
         <v>200</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="12">
         <v>41530</v>
       </c>
       <c r="C77">
@@ -16920,7 +20945,7 @@
       <c r="A78" t="s">
         <v>200</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="12">
         <v>41558</v>
       </c>
       <c r="C78">
@@ -16931,7 +20956,7 @@
       <c r="A79" t="s">
         <v>200</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="12">
         <v>41576</v>
       </c>
       <c r="C79">
@@ -16942,7 +20967,7 @@
       <c r="A80" t="s">
         <v>200</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="12">
         <v>41582</v>
       </c>
       <c r="C80">
@@ -16953,7 +20978,7 @@
       <c r="A81" t="s">
         <v>200</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="12">
         <v>41586</v>
       </c>
       <c r="C81">
@@ -16964,7 +20989,7 @@
       <c r="A82" t="s">
         <v>200</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="12">
         <v>41599</v>
       </c>
       <c r="C82">
@@ -16975,7 +21000,7 @@
       <c r="A83" t="s">
         <v>200</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="12">
         <v>41607</v>
       </c>
       <c r="C83">
@@ -16986,7 +21011,7 @@
       <c r="A84" t="s">
         <v>200</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="12">
         <v>41620</v>
       </c>
       <c r="C84">
@@ -16997,7 +21022,7 @@
       <c r="A85" t="s">
         <v>200</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="12">
         <v>41627</v>
       </c>
       <c r="C85">
@@ -17008,7 +21033,7 @@
       <c r="A86" t="s">
         <v>200</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="12">
         <v>41638</v>
       </c>
       <c r="C86">
@@ -17019,7 +21044,7 @@
       <c r="A87" t="s">
         <v>200</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="12">
         <v>41645</v>
       </c>
       <c r="C87">
@@ -17030,7 +21055,7 @@
       <c r="A88" t="s">
         <v>200</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="12">
         <v>41652</v>
       </c>
       <c r="C88">
@@ -17041,7 +21066,7 @@
       <c r="A89" t="s">
         <v>200</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="12">
         <v>41662</v>
       </c>
       <c r="C89">
@@ -17052,7 +21077,7 @@
       <c r="A90" t="s">
         <v>201</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="12">
         <v>41386</v>
       </c>
       <c r="C90">
@@ -17063,7 +21088,7 @@
       <c r="A91" t="s">
         <v>201</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="12">
         <v>41396</v>
       </c>
       <c r="C91">
@@ -17074,7 +21099,7 @@
       <c r="A92" t="s">
         <v>201</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="12">
         <v>41410</v>
       </c>
       <c r="C92">
@@ -17085,7 +21110,7 @@
       <c r="A93" t="s">
         <v>201</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="12">
         <v>41425</v>
       </c>
       <c r="C93">
@@ -17096,7 +21121,7 @@
       <c r="A94" t="s">
         <v>201</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="12">
         <v>41438</v>
       </c>
       <c r="C94">
@@ -17107,7 +21132,7 @@
       <c r="A95" t="s">
         <v>201</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="12">
         <v>41457</v>
       </c>
       <c r="C95">
@@ -17118,7 +21143,7 @@
       <c r="A96" t="s">
         <v>201</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="12">
         <v>41465</v>
       </c>
       <c r="C96">
@@ -17129,7 +21154,7 @@
       <c r="A97" t="s">
         <v>201</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="12">
         <v>41481</v>
       </c>
       <c r="C97">
@@ -17140,7 +21165,7 @@
       <c r="A98" t="s">
         <v>201</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="12">
         <v>41495</v>
       </c>
       <c r="C98">
@@ -17151,7 +21176,7 @@
       <c r="A99" t="s">
         <v>201</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="12">
         <v>41530</v>
       </c>
       <c r="C99">
@@ -17162,7 +21187,7 @@
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="12">
         <v>41558</v>
       </c>
       <c r="C100">
@@ -17173,7 +21198,7 @@
       <c r="A101" t="s">
         <v>201</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="12">
         <v>41576</v>
       </c>
       <c r="C101">
@@ -17184,7 +21209,7 @@
       <c r="A102" t="s">
         <v>201</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="12">
         <v>41582</v>
       </c>
       <c r="C102">
@@ -17195,7 +21220,7 @@
       <c r="A103" t="s">
         <v>201</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="12">
         <v>41586</v>
       </c>
       <c r="C103">
@@ -17206,7 +21231,7 @@
       <c r="A104" t="s">
         <v>201</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="12">
         <v>41599</v>
       </c>
       <c r="C104">
@@ -17217,7 +21242,7 @@
       <c r="A105" t="s">
         <v>201</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="12">
         <v>41607</v>
       </c>
       <c r="C105">
@@ -17228,7 +21253,7 @@
       <c r="A106" t="s">
         <v>201</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="12">
         <v>41620</v>
       </c>
       <c r="C106">
@@ -17239,7 +21264,7 @@
       <c r="A107" t="s">
         <v>201</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="12">
         <v>41627</v>
       </c>
       <c r="C107">
@@ -17250,7 +21275,7 @@
       <c r="A108" t="s">
         <v>201</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="12">
         <v>41638</v>
       </c>
       <c r="C108">
@@ -17261,7 +21286,7 @@
       <c r="A109" t="s">
         <v>201</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="12">
         <v>41645</v>
       </c>
       <c r="C109">
@@ -17272,7 +21297,7 @@
       <c r="A110" t="s">
         <v>201</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="12">
         <v>41652</v>
       </c>
       <c r="C110">
@@ -17283,7 +21308,7 @@
       <c r="A111" t="s">
         <v>201</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="12">
         <v>41662</v>
       </c>
       <c r="C111">
@@ -17294,7 +21319,7 @@
       <c r="A112" t="s">
         <v>202</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="12">
         <v>41386</v>
       </c>
       <c r="C112">
@@ -17305,7 +21330,7 @@
       <c r="A113" t="s">
         <v>202</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="12">
         <v>41396</v>
       </c>
       <c r="C113">
@@ -17316,7 +21341,7 @@
       <c r="A114" t="s">
         <v>202</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="12">
         <v>41410</v>
       </c>
       <c r="C114">
@@ -17327,7 +21352,7 @@
       <c r="A115" t="s">
         <v>202</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="12">
         <v>41425</v>
       </c>
       <c r="C115">
@@ -17338,7 +21363,7 @@
       <c r="A116" t="s">
         <v>202</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="12">
         <v>41438</v>
       </c>
       <c r="C116">
@@ -17349,7 +21374,7 @@
       <c r="A117" t="s">
         <v>202</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="12">
         <v>41457</v>
       </c>
       <c r="C117">
@@ -17360,7 +21385,7 @@
       <c r="A118" t="s">
         <v>202</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="12">
         <v>41465</v>
       </c>
       <c r="C118">
@@ -17371,7 +21396,7 @@
       <c r="A119" t="s">
         <v>202</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="12">
         <v>41481</v>
       </c>
       <c r="C119">
@@ -17382,7 +21407,7 @@
       <c r="A120" t="s">
         <v>202</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="12">
         <v>41495</v>
       </c>
       <c r="C120">
@@ -17393,7 +21418,7 @@
       <c r="A121" t="s">
         <v>202</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="12">
         <v>41530</v>
       </c>
       <c r="C121">
@@ -17404,7 +21429,7 @@
       <c r="A122" t="s">
         <v>202</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="12">
         <v>41558</v>
       </c>
       <c r="C122">
@@ -17415,7 +21440,7 @@
       <c r="A123" t="s">
         <v>202</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="12">
         <v>41576</v>
       </c>
       <c r="C123">
@@ -17426,7 +21451,7 @@
       <c r="A124" t="s">
         <v>202</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="12">
         <v>41582</v>
       </c>
       <c r="C124">
@@ -17437,7 +21462,7 @@
       <c r="A125" t="s">
         <v>202</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="12">
         <v>41586</v>
       </c>
       <c r="C125">
@@ -17448,7 +21473,7 @@
       <c r="A126" t="s">
         <v>202</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="12">
         <v>41599</v>
       </c>
       <c r="C126">
@@ -17459,7 +21484,7 @@
       <c r="A127" t="s">
         <v>202</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="12">
         <v>41607</v>
       </c>
       <c r="C127">
@@ -17470,67 +21495,3407 @@
       <c r="A128" t="s">
         <v>202</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="12">
         <v>41620</v>
       </c>
       <c r="C128">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>202</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="12">
         <v>41627</v>
       </c>
       <c r="C129">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>202</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="12">
         <v>41638</v>
       </c>
       <c r="C130">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>202</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="12">
         <v>41645</v>
       </c>
       <c r="C131">
         <v>90.75</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>202</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="12">
         <v>41652</v>
       </c>
       <c r="C132">
         <v>91.5</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>202</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="12">
         <v>41662</v>
       </c>
       <c r="C133">
         <v>93</v>
       </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C134" s="11">
+        <v>23.125</v>
+      </c>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C135" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C136" s="11">
+        <v>56.125</v>
+      </c>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C137" s="11">
+        <v>64.0625</v>
+      </c>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C138" s="11">
+        <v>74.0625</v>
+      </c>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C139" s="11">
+        <v>83.75</v>
+      </c>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>219</v>
+      </c>
+      <c r="B140" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C140" s="11">
+        <v>88.375</v>
+      </c>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C141" s="11">
+        <v>25.375</v>
+      </c>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C142" s="11">
+        <v>30.125</v>
+      </c>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C143" s="11">
+        <v>31.875</v>
+      </c>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C144" s="11">
+        <v>45.375</v>
+      </c>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C145" s="11">
+        <v>69.0625</v>
+      </c>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C146" s="11">
+        <v>81.1875</v>
+      </c>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C147" s="11">
+        <v>92</v>
+      </c>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C148" s="11">
+        <v>30.125</v>
+      </c>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C149" s="11">
+        <v>41.75</v>
+      </c>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C150" s="11">
+        <v>77.285714285714292</v>
+      </c>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C152" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>222</v>
+      </c>
+      <c r="B153" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C153" s="11">
+        <v>24.625</v>
+      </c>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C154" s="11">
+        <v>63.625</v>
+      </c>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C155" s="11">
+        <v>68.125</v>
+      </c>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C156" s="11">
+        <v>71.212500000000006</v>
+      </c>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C157" s="11">
+        <v>83.625</v>
+      </c>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C158" s="11">
+        <v>90.25</v>
+      </c>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>223</v>
+      </c>
+      <c r="B159" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C159" s="11">
+        <v>25.375</v>
+      </c>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>223</v>
+      </c>
+      <c r="B160" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C160" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>223</v>
+      </c>
+      <c r="B161" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C161" s="11">
+        <v>32.375</v>
+      </c>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C162" s="11">
+        <v>60.125</v>
+      </c>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>223</v>
+      </c>
+      <c r="B163" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C163" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C164" s="11">
+        <v>81.75</v>
+      </c>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C165" s="11">
+        <v>92</v>
+      </c>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C166" s="11">
+        <v>31.25</v>
+      </c>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C167" s="11">
+        <v>57.428571428571431</v>
+      </c>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C168" s="11">
+        <v>79.25</v>
+      </c>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C170" s="11">
+        <v>24.625</v>
+      </c>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C171" s="11">
+        <v>25.375</v>
+      </c>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C172" s="11">
+        <v>46</v>
+      </c>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>225</v>
+      </c>
+      <c r="B173" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C173" s="11">
+        <v>54</v>
+      </c>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>225</v>
+      </c>
+      <c r="B174" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C174" s="11">
+        <v>65.375</v>
+      </c>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>225</v>
+      </c>
+      <c r="B175" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C175" s="11">
+        <v>83.25</v>
+      </c>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>225</v>
+      </c>
+      <c r="B176" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C176" s="11">
+        <v>88.875</v>
+      </c>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C177" s="11">
+        <v>25.625</v>
+      </c>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C178" s="11">
+        <v>28.5</v>
+      </c>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C179" s="11">
+        <v>31.125</v>
+      </c>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C180" s="11">
+        <v>37.625</v>
+      </c>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C181" s="11">
+        <v>68.0625</v>
+      </c>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C182" s="11">
+        <v>80.75</v>
+      </c>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C183" s="11">
+        <v>92</v>
+      </c>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C184" s="11">
+        <v>30.875</v>
+      </c>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C185" s="11">
+        <v>44.125</v>
+      </c>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>227</v>
+      </c>
+      <c r="B186" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C186" s="11">
+        <v>80.75</v>
+      </c>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>227</v>
+      </c>
+      <c r="B187" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B188" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C188" s="11">
+        <v>23.75</v>
+      </c>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>228</v>
+      </c>
+      <c r="B189" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C189" s="11">
+        <v>25</v>
+      </c>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>228</v>
+      </c>
+      <c r="B190" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C190" s="11">
+        <v>62.024999999999999</v>
+      </c>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>228</v>
+      </c>
+      <c r="B191" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C191" s="11">
+        <v>67.474999999999994</v>
+      </c>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>228</v>
+      </c>
+      <c r="B192" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C192" s="11">
+        <v>75.0625</v>
+      </c>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>228</v>
+      </c>
+      <c r="B193" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C193" s="11">
+        <v>84.375</v>
+      </c>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>228</v>
+      </c>
+      <c r="B194" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C194" s="11">
+        <v>89.125</v>
+      </c>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>229</v>
+      </c>
+      <c r="B195" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C195" s="11">
+        <v>24.875</v>
+      </c>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>229</v>
+      </c>
+      <c r="B196" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C196" s="11">
+        <v>30.875</v>
+      </c>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>229</v>
+      </c>
+      <c r="B197" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C197" s="11">
+        <v>32.125</v>
+      </c>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>229</v>
+      </c>
+      <c r="B198" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C198" s="11">
+        <v>54.5</v>
+      </c>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>229</v>
+      </c>
+      <c r="B199" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C199" s="11">
+        <v>72.375</v>
+      </c>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C200" s="11">
+        <v>84.5</v>
+      </c>
+      <c r="E200" s="12"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>229</v>
+      </c>
+      <c r="B201" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C201" s="11">
+        <v>92</v>
+      </c>
+      <c r="E201" s="12"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>230</v>
+      </c>
+      <c r="B202" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C202" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="E202" s="12"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>230</v>
+      </c>
+      <c r="B203" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C203" s="11">
+        <v>57.375</v>
+      </c>
+      <c r="E203" s="12"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>230</v>
+      </c>
+      <c r="B204" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C204" s="11">
+        <v>81.75</v>
+      </c>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C205" s="11"/>
+      <c r="E205" s="12"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C206" s="11">
+        <v>22.75</v>
+      </c>
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>231</v>
+      </c>
+      <c r="B207" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C207" s="11">
+        <v>23</v>
+      </c>
+      <c r="E207" s="12"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>231</v>
+      </c>
+      <c r="B208" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C208" s="11">
+        <v>72.525000000000006</v>
+      </c>
+      <c r="E208" s="12"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>231</v>
+      </c>
+      <c r="B209" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C209" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="E209" s="12"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>231</v>
+      </c>
+      <c r="B210" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C210" s="11">
+        <v>84.75</v>
+      </c>
+      <c r="E210" s="12"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>231</v>
+      </c>
+      <c r="B211" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C211" s="11">
+        <v>88.875</v>
+      </c>
+      <c r="E211" s="12"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C212" s="11">
+        <v>92.333333333333329</v>
+      </c>
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>232</v>
+      </c>
+      <c r="B213" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C213" s="11">
+        <v>24.875</v>
+      </c>
+      <c r="E213" s="12"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C214" s="11">
+        <v>31.375</v>
+      </c>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C215" s="11">
+        <v>32</v>
+      </c>
+      <c r="E215" s="12"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C216" s="11">
+        <v>62</v>
+      </c>
+      <c r="E216" s="12"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>232</v>
+      </c>
+      <c r="B217" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C217" s="11">
+        <v>75.275000000000006</v>
+      </c>
+      <c r="E217" s="12"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>232</v>
+      </c>
+      <c r="B218" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C218" s="11">
+        <v>85.5</v>
+      </c>
+      <c r="E218" s="12"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C219" s="11">
+        <v>92</v>
+      </c>
+      <c r="E219" s="12"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>233</v>
+      </c>
+      <c r="B220" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C220" s="11">
+        <v>31.875</v>
+      </c>
+      <c r="E220" s="12"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C221" s="11">
+        <v>63.875</v>
+      </c>
+      <c r="E221" s="12"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C222" s="11">
+        <v>84.5</v>
+      </c>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>234</v>
+      </c>
+      <c r="B224" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C224" s="11">
+        <v>23.875</v>
+      </c>
+      <c r="E224" s="12"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C225" s="11">
+        <v>24.166666666666668</v>
+      </c>
+      <c r="E225" s="12"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>234</v>
+      </c>
+      <c r="B226" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C226" s="11">
+        <v>55</v>
+      </c>
+      <c r="E226" s="12"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C227" s="11">
+        <v>64.875</v>
+      </c>
+      <c r="E227" s="12"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C228" s="11">
+        <v>71.875</v>
+      </c>
+      <c r="E228" s="12"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C229" s="11">
+        <v>85.125</v>
+      </c>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C230" s="11">
+        <v>89.166666666666671</v>
+      </c>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C231" s="11">
+        <v>25.875</v>
+      </c>
+      <c r="E231" s="12"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C232" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="E232" s="12"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C233" s="11">
+        <v>31.625</v>
+      </c>
+      <c r="E233" s="12"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C234" s="11">
+        <v>39</v>
+      </c>
+      <c r="E234" s="12"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C235" s="11">
+        <v>67.587500000000006</v>
+      </c>
+      <c r="E235" s="12"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C236" s="11">
+        <v>82.375</v>
+      </c>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C237" s="11">
+        <v>90.5</v>
+      </c>
+      <c r="E237" s="12"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C238" s="11">
+        <v>31</v>
+      </c>
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C239" s="11">
+        <v>56.625</v>
+      </c>
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C240" s="11">
+        <v>83.75</v>
+      </c>
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>236</v>
+      </c>
+      <c r="B241" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C242" s="11">
+        <v>23.875</v>
+      </c>
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C243" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C244" s="11">
+        <v>61.375</v>
+      </c>
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B245" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C245" s="11">
+        <v>67</v>
+      </c>
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C246" s="11">
+        <v>73.875</v>
+      </c>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B247" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C247" s="11">
+        <v>84.25</v>
+      </c>
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>237</v>
+      </c>
+      <c r="B248" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C248" s="11">
+        <v>91.25</v>
+      </c>
+      <c r="E248" s="12"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>238</v>
+      </c>
+      <c r="B249" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C249" s="11">
+        <v>25.25</v>
+      </c>
+      <c r="E249" s="12"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>238</v>
+      </c>
+      <c r="B250" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C250" s="11">
+        <v>30.714285714285715</v>
+      </c>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>238</v>
+      </c>
+      <c r="B251" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C251" s="11">
+        <v>31.75</v>
+      </c>
+      <c r="E251" s="12"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>238</v>
+      </c>
+      <c r="B252" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C252" s="11">
+        <v>51.375</v>
+      </c>
+      <c r="E252" s="12"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>238</v>
+      </c>
+      <c r="B253" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C253" s="11">
+        <v>71.962500000000006</v>
+      </c>
+      <c r="E253" s="12"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C254" s="11">
+        <v>82.75</v>
+      </c>
+      <c r="E254" s="12"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>238</v>
+      </c>
+      <c r="B255" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C255" s="11">
+        <v>92</v>
+      </c>
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C256" s="11">
+        <v>30.75</v>
+      </c>
+      <c r="E256" s="12"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>239</v>
+      </c>
+      <c r="B257" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C257" s="11">
+        <v>48.5</v>
+      </c>
+      <c r="E257" s="12"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>239</v>
+      </c>
+      <c r="B258" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C258" s="11">
+        <v>79.75</v>
+      </c>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>239</v>
+      </c>
+      <c r="B259" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C259" s="11"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>240</v>
+      </c>
+      <c r="B260" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C260" s="11">
+        <v>22.875</v>
+      </c>
+      <c r="E260" s="12"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>240</v>
+      </c>
+      <c r="B261" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C261" s="11">
+        <v>24.625</v>
+      </c>
+      <c r="E261" s="12"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C262" s="11">
+        <v>37.375</v>
+      </c>
+      <c r="E262" s="12"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C263" s="11">
+        <v>43.75</v>
+      </c>
+      <c r="E263" s="12"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>240</v>
+      </c>
+      <c r="B264" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C264" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="E264" s="12"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>240</v>
+      </c>
+      <c r="B265" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C265" s="11">
+        <v>67.9375</v>
+      </c>
+      <c r="E265" s="12"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>240</v>
+      </c>
+      <c r="B266" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C266" s="11">
+        <v>83.142857142857139</v>
+      </c>
+      <c r="E266" s="12"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>241</v>
+      </c>
+      <c r="B267" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C267" s="11">
+        <v>24.625</v>
+      </c>
+      <c r="E267" s="12"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>241</v>
+      </c>
+      <c r="B268" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C268" s="11">
+        <v>30.375</v>
+      </c>
+      <c r="E268" s="12"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>241</v>
+      </c>
+      <c r="B269" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C269" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="E269" s="12"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>241</v>
+      </c>
+      <c r="B270" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C270" s="11">
+        <v>33.875</v>
+      </c>
+      <c r="E270" s="12"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>241</v>
+      </c>
+      <c r="B271" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C271" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="E271" s="12"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>241</v>
+      </c>
+      <c r="B272" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C272" s="11">
+        <v>71.742857142857147</v>
+      </c>
+      <c r="E272" s="12"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>241</v>
+      </c>
+      <c r="B273" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C273" s="11">
+        <v>84.666666666666671</v>
+      </c>
+      <c r="E273" s="12"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>242</v>
+      </c>
+      <c r="B274" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C274" s="11">
+        <v>31.25</v>
+      </c>
+      <c r="E274" s="12"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>242</v>
+      </c>
+      <c r="B275" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C275" s="11">
+        <v>34.375</v>
+      </c>
+      <c r="E275" s="12"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>242</v>
+      </c>
+      <c r="B276" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C276" s="11">
+        <v>71.75</v>
+      </c>
+      <c r="E276" s="12"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>242</v>
+      </c>
+      <c r="B277" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C277" s="11"/>
+      <c r="E277" s="12"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>243</v>
+      </c>
+      <c r="B278" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C278" s="11">
+        <v>25.25</v>
+      </c>
+      <c r="E278" s="12"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>243</v>
+      </c>
+      <c r="B279" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C279" s="11">
+        <v>30.625</v>
+      </c>
+      <c r="E279" s="12"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>243</v>
+      </c>
+      <c r="B280" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C280" s="11">
+        <v>32.375</v>
+      </c>
+      <c r="E280" s="12"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>243</v>
+      </c>
+      <c r="B281" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C281" s="11">
+        <v>56.375</v>
+      </c>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>243</v>
+      </c>
+      <c r="B282" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C282" s="11">
+        <v>75.25</v>
+      </c>
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>243</v>
+      </c>
+      <c r="B283" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C283" s="11">
+        <v>80.25</v>
+      </c>
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>243</v>
+      </c>
+      <c r="B284" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C284" s="11">
+        <v>92</v>
+      </c>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>244</v>
+      </c>
+      <c r="B285" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C285" s="11">
+        <v>31</v>
+      </c>
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>244</v>
+      </c>
+      <c r="B286" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C286" s="11">
+        <v>54.625</v>
+      </c>
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>244</v>
+      </c>
+      <c r="B287" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C287" s="11">
+        <v>81.857142857142861</v>
+      </c>
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>244</v>
+      </c>
+      <c r="B288" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C288" s="11"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>245</v>
+      </c>
+      <c r="B289" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C289" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="E289" s="12"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>245</v>
+      </c>
+      <c r="B290" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C290" s="11">
+        <v>25.857142857142858</v>
+      </c>
+      <c r="E290" s="12"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>245</v>
+      </c>
+      <c r="B291" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C291" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>245</v>
+      </c>
+      <c r="B292" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C292" s="11">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="E292" s="12"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>245</v>
+      </c>
+      <c r="B293" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C293" s="11">
+        <v>31.571428571428573</v>
+      </c>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>245</v>
+      </c>
+      <c r="B294" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C294" s="11">
+        <v>32.428571428571431</v>
+      </c>
+      <c r="E294" s="12"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>245</v>
+      </c>
+      <c r="B295" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C295" s="11">
+        <v>39.571428571428569</v>
+      </c>
+      <c r="E295" s="12"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>246</v>
+      </c>
+      <c r="B296" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C296" s="11">
+        <v>26.375</v>
+      </c>
+      <c r="E296" s="12"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>246</v>
+      </c>
+      <c r="B297" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C297" s="11">
+        <v>28.75</v>
+      </c>
+      <c r="E297" s="12"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>246</v>
+      </c>
+      <c r="B298" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C298" s="11">
+        <v>29.75</v>
+      </c>
+      <c r="E298" s="12"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>246</v>
+      </c>
+      <c r="B299" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C299" s="11">
+        <v>30.75</v>
+      </c>
+      <c r="E299" s="12"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>246</v>
+      </c>
+      <c r="B300" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C300" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="E300" s="12"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>246</v>
+      </c>
+      <c r="B301" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C301" s="11">
+        <v>36.625</v>
+      </c>
+      <c r="E301" s="12"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>246</v>
+      </c>
+      <c r="B302" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C302" s="11">
+        <v>53.4</v>
+      </c>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>247</v>
+      </c>
+      <c r="B303" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C303" s="11">
+        <v>30</v>
+      </c>
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>247</v>
+      </c>
+      <c r="B304" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C304" s="11">
+        <v>30</v>
+      </c>
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>247</v>
+      </c>
+      <c r="B305" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C305" s="11">
+        <v>30.375</v>
+      </c>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>247</v>
+      </c>
+      <c r="B306" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C306" s="11"/>
+      <c r="E306" s="12"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>248</v>
+      </c>
+      <c r="B307" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C307" s="11">
+        <v>24.375</v>
+      </c>
+      <c r="E307" s="12"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>248</v>
+      </c>
+      <c r="B308" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C308" s="11">
+        <v>24.375</v>
+      </c>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>248</v>
+      </c>
+      <c r="B309" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C309" s="11">
+        <v>66.3</v>
+      </c>
+      <c r="E309" s="12"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>248</v>
+      </c>
+      <c r="B310" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C310" s="11">
+        <v>72.125</v>
+      </c>
+      <c r="E310" s="12"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>248</v>
+      </c>
+      <c r="B311" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C311" s="11">
+        <v>80.75</v>
+      </c>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>248</v>
+      </c>
+      <c r="B312" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C312" s="11">
+        <v>85.375</v>
+      </c>
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>248</v>
+      </c>
+      <c r="B313" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C313" s="11">
+        <v>92</v>
+      </c>
+      <c r="E313" s="12"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>249</v>
+      </c>
+      <c r="B314" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C314" s="11">
+        <v>25</v>
+      </c>
+      <c r="E314" s="12"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>249</v>
+      </c>
+      <c r="B315" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C315" s="11">
+        <v>30.25</v>
+      </c>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>249</v>
+      </c>
+      <c r="B316" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C316" s="11">
+        <v>32</v>
+      </c>
+      <c r="E316" s="12"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>249</v>
+      </c>
+      <c r="B317" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C317" s="11">
+        <v>57</v>
+      </c>
+      <c r="E317" s="12"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>249</v>
+      </c>
+      <c r="B318" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C318" s="11">
+        <v>77.75</v>
+      </c>
+      <c r="E318" s="12"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>249</v>
+      </c>
+      <c r="B319" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C319" s="11">
+        <v>85.75</v>
+      </c>
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>249</v>
+      </c>
+      <c r="B320" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C320" s="11">
+        <v>92</v>
+      </c>
+      <c r="E320" s="12"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>250</v>
+      </c>
+      <c r="B321" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C321" s="11">
+        <v>31.875</v>
+      </c>
+      <c r="E321" s="12"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>250</v>
+      </c>
+      <c r="B322" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C322" s="11">
+        <v>59.875</v>
+      </c>
+      <c r="E322" s="12"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>250</v>
+      </c>
+      <c r="B323" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C323" s="11">
+        <v>83.25</v>
+      </c>
+      <c r="E323" s="12"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>250</v>
+      </c>
+      <c r="B324" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C324" s="11"/>
+      <c r="E324" s="12"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>251</v>
+      </c>
+      <c r="B325" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C325" s="11">
+        <v>23</v>
+      </c>
+      <c r="E325" s="12"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>251</v>
+      </c>
+      <c r="B326" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C326" s="11">
+        <v>23.625</v>
+      </c>
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>251</v>
+      </c>
+      <c r="B327" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C327" s="11">
+        <v>67.174999999999997</v>
+      </c>
+      <c r="E327" s="12"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>251</v>
+      </c>
+      <c r="B328" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C328" s="11">
+        <v>71.7</v>
+      </c>
+      <c r="E328" s="12"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>251</v>
+      </c>
+      <c r="B329" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C329" s="11">
+        <v>82.125</v>
+      </c>
+      <c r="E329" s="12"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>251</v>
+      </c>
+      <c r="B330" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C330" s="11">
+        <v>86.25</v>
+      </c>
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>251</v>
+      </c>
+      <c r="B331" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C331" s="11">
+        <v>92</v>
+      </c>
+      <c r="E331" s="12"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>252</v>
+      </c>
+      <c r="B332" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C332" s="11">
+        <v>24.75</v>
+      </c>
+      <c r="E332" s="12"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>252</v>
+      </c>
+      <c r="B333" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C333" s="11">
+        <v>31.375</v>
+      </c>
+      <c r="E333" s="12"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>252</v>
+      </c>
+      <c r="B334" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C334" s="11">
+        <v>32.375</v>
+      </c>
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>252</v>
+      </c>
+      <c r="B335" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C335" s="11">
+        <v>54.875</v>
+      </c>
+      <c r="E335" s="12"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>252</v>
+      </c>
+      <c r="B336" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C336" s="11">
+        <v>74.25</v>
+      </c>
+      <c r="E336" s="12"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>252</v>
+      </c>
+      <c r="B337" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C337" s="11">
+        <v>82.3125</v>
+      </c>
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>252</v>
+      </c>
+      <c r="B338" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C338" s="11">
+        <v>92.142857142857139</v>
+      </c>
+      <c r="E338" s="12"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>253</v>
+      </c>
+      <c r="B339" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C339" s="11">
+        <v>31.75</v>
+      </c>
+      <c r="E339" s="12"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>253</v>
+      </c>
+      <c r="B340" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C340" s="11">
+        <v>58.5</v>
+      </c>
+      <c r="E340" s="12"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>253</v>
+      </c>
+      <c r="B341" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C341" s="11">
+        <v>81</v>
+      </c>
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>253</v>
+      </c>
+      <c r="B342" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C342" s="11"/>
+      <c r="E342" s="12"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>254</v>
+      </c>
+      <c r="B343" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C343" s="11">
+        <v>25.428571428571427</v>
+      </c>
+      <c r="E343" s="12"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>254</v>
+      </c>
+      <c r="B344" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C344" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="E344" s="12"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>254</v>
+      </c>
+      <c r="B345" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C345" s="11">
+        <v>31.75</v>
+      </c>
+      <c r="E345" s="12"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>254</v>
+      </c>
+      <c r="B346" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C346" s="11">
+        <v>33.375</v>
+      </c>
+      <c r="E346" s="12"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>254</v>
+      </c>
+      <c r="B347" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C347" s="11">
+        <v>39.625</v>
+      </c>
+      <c r="E347" s="12"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>254</v>
+      </c>
+      <c r="B348" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C348" s="11">
+        <v>63.866666666666667</v>
+      </c>
+      <c r="E348" s="12"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>254</v>
+      </c>
+      <c r="B349" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C349" s="11">
+        <v>73</v>
+      </c>
+      <c r="E349" s="12"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>255</v>
+      </c>
+      <c r="B350" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C350" s="11">
+        <v>26.125</v>
+      </c>
+      <c r="E350" s="12"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>255</v>
+      </c>
+      <c r="B351" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C351" s="11">
+        <v>28.75</v>
+      </c>
+      <c r="E351" s="12"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>255</v>
+      </c>
+      <c r="B352" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C352" s="11">
+        <v>30.125</v>
+      </c>
+      <c r="E352" s="12"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>255</v>
+      </c>
+      <c r="B353" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C353" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="E353" s="12"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>255</v>
+      </c>
+      <c r="B354" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C354" s="11">
+        <v>39.625</v>
+      </c>
+      <c r="E354" s="12"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>255</v>
+      </c>
+      <c r="B355" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C355" s="11">
+        <v>80.75</v>
+      </c>
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>255</v>
+      </c>
+      <c r="B356" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C356" s="11">
+        <v>85</v>
+      </c>
+      <c r="E356" s="12"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>256</v>
+      </c>
+      <c r="B357" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C357" s="11">
+        <v>30</v>
+      </c>
+      <c r="E357" s="12"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>256</v>
+      </c>
+      <c r="B358" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C358" s="11">
+        <v>30.375</v>
+      </c>
+      <c r="E358" s="12"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>256</v>
+      </c>
+      <c r="B359" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C359" s="11">
+        <v>31.125</v>
+      </c>
+      <c r="E359" s="12"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>256</v>
+      </c>
+      <c r="B360" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C360" s="11"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>257</v>
+      </c>
+      <c r="B361" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C361" s="11">
+        <v>25.875</v>
+      </c>
+      <c r="E361" s="12"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>257</v>
+      </c>
+      <c r="B362" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C362" s="11">
+        <v>25.25</v>
+      </c>
+      <c r="E362" s="12"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>257</v>
+      </c>
+      <c r="B363" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C363" s="11">
+        <v>55.5</v>
+      </c>
+      <c r="E363" s="12"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>257</v>
+      </c>
+      <c r="B364" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C364" s="11">
+        <v>65.875</v>
+      </c>
+      <c r="E364" s="12"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>257</v>
+      </c>
+      <c r="B365" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C365" s="11">
+        <v>73.962500000000006</v>
+      </c>
+      <c r="E365" s="12"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>257</v>
+      </c>
+      <c r="B366" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C366" s="11">
+        <v>86.285714285714292</v>
+      </c>
+      <c r="E366" s="12"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>257</v>
+      </c>
+      <c r="B367" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C367" s="11">
+        <v>91.285714285714292</v>
+      </c>
+      <c r="E367" s="12"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>258</v>
+      </c>
+      <c r="B368" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C368" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="E368" s="12"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>258</v>
+      </c>
+      <c r="B369" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C369" s="11">
+        <v>30.571428571428573</v>
+      </c>
+      <c r="E369" s="12"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>258</v>
+      </c>
+      <c r="B370" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C370" s="11">
+        <v>33.5</v>
+      </c>
+      <c r="E370" s="12"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>258</v>
+      </c>
+      <c r="B371" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C371" s="11">
+        <v>55.75</v>
+      </c>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>258</v>
+      </c>
+      <c r="B372" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C372" s="11">
+        <v>71.75</v>
+      </c>
+      <c r="E372" s="12"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>258</v>
+      </c>
+      <c r="B373" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C373" s="11">
+        <v>81.5</v>
+      </c>
+      <c r="E373" s="12"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>258</v>
+      </c>
+      <c r="B374" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C374" s="11">
+        <v>92</v>
+      </c>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>259</v>
+      </c>
+      <c r="B375" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C375" s="11">
+        <v>30.875</v>
+      </c>
+      <c r="E375" s="12"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>259</v>
+      </c>
+      <c r="B376" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C376" s="11">
+        <v>57.875</v>
+      </c>
+      <c r="E376" s="12"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>259</v>
+      </c>
+      <c r="B377" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C377" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>259</v>
+      </c>
+      <c r="B378" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C378" s="11"/>
+      <c r="E378" s="12"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>260</v>
+      </c>
+      <c r="B379" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C379" s="11">
+        <v>25.375</v>
+      </c>
+      <c r="E379" s="12"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>260</v>
+      </c>
+      <c r="B380" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C380" s="11">
+        <v>25</v>
+      </c>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>260</v>
+      </c>
+      <c r="B381" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C381" s="11">
+        <v>42.714285714285715</v>
+      </c>
+      <c r="E381" s="12"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>260</v>
+      </c>
+      <c r="B382" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C382" s="11">
+        <v>62</v>
+      </c>
+      <c r="E382" s="12"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>260</v>
+      </c>
+      <c r="B383" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C383" s="11">
+        <v>68.674999999999997</v>
+      </c>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>260</v>
+      </c>
+      <c r="B384" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C384" s="11">
+        <v>82.857142857142861</v>
+      </c>
+      <c r="E384" s="12"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>260</v>
+      </c>
+      <c r="B385" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C385" s="11">
+        <v>88.75</v>
+      </c>
+      <c r="E385" s="12"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>261</v>
+      </c>
+      <c r="B386" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C386" s="11">
+        <v>24.625</v>
+      </c>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>261</v>
+      </c>
+      <c r="B387" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C387" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="E387" s="12"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>261</v>
+      </c>
+      <c r="B388" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C388" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="E388" s="12"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>261</v>
+      </c>
+      <c r="B389" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C389" s="11">
+        <v>36.75</v>
+      </c>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>261</v>
+      </c>
+      <c r="B390" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C390" s="11">
+        <v>69.375</v>
+      </c>
+      <c r="E390" s="12"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>261</v>
+      </c>
+      <c r="B391" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C391" s="11">
+        <v>80.5</v>
+      </c>
+      <c r="E391" s="12"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>261</v>
+      </c>
+      <c r="B392" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C392" s="11">
+        <v>90.571428571428569</v>
+      </c>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>262</v>
+      </c>
+      <c r="B393" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C393" s="11">
+        <v>31.125</v>
+      </c>
+      <c r="E393" s="12"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>262</v>
+      </c>
+      <c r="B394" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C394" s="11">
+        <v>46</v>
+      </c>
+      <c r="E394" s="12"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>262</v>
+      </c>
+      <c r="B395" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C395" s="11">
+        <v>76.75</v>
+      </c>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>262</v>
+      </c>
+      <c r="B396" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C396" s="11"/>
+      <c r="E396" s="12"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>263</v>
+      </c>
+      <c r="B397" s="12">
+        <v>39973</v>
+      </c>
+      <c r="C397" s="11">
+        <v>24</v>
+      </c>
+      <c r="E397" s="12"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>263</v>
+      </c>
+      <c r="B398" s="12">
+        <v>40000</v>
+      </c>
+      <c r="C398" s="11">
+        <v>24.25</v>
+      </c>
+      <c r="E398" s="12"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>263</v>
+      </c>
+      <c r="B399" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C399" s="11">
+        <v>66.3125</v>
+      </c>
+      <c r="E399" s="12"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>263</v>
+      </c>
+      <c r="B400" s="12">
+        <v>40039</v>
+      </c>
+      <c r="C400" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="E400" s="12"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>263</v>
+      </c>
+      <c r="B401" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C401" s="11">
+        <v>81.25</v>
+      </c>
+      <c r="E401" s="12"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>263</v>
+      </c>
+      <c r="B402" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C402" s="11">
+        <v>87</v>
+      </c>
+      <c r="E402" s="12"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>263</v>
+      </c>
+      <c r="B403" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C403" s="11">
+        <v>91</v>
+      </c>
+      <c r="E403" s="12"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>264</v>
+      </c>
+      <c r="B404" s="12">
+        <v>40001</v>
+      </c>
+      <c r="C404" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="E404" s="12"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>264</v>
+      </c>
+      <c r="B405" s="12">
+        <v>40018</v>
+      </c>
+      <c r="C405" s="11">
+        <v>30.875</v>
+      </c>
+      <c r="E405" s="12"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>264</v>
+      </c>
+      <c r="B406" s="12">
+        <v>40031</v>
+      </c>
+      <c r="C406" s="11">
+        <v>32.5</v>
+      </c>
+      <c r="E406" s="12"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>264</v>
+      </c>
+      <c r="B407" s="12">
+        <v>40049</v>
+      </c>
+      <c r="C407" s="11">
+        <v>61.75</v>
+      </c>
+      <c r="E407" s="12"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>264</v>
+      </c>
+      <c r="B408" s="12">
+        <v>40071</v>
+      </c>
+      <c r="C408" s="11">
+        <v>75.4375</v>
+      </c>
+      <c r="E408" s="12"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>264</v>
+      </c>
+      <c r="B409" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C409" s="11">
+        <v>83</v>
+      </c>
+      <c r="E409" s="12"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>264</v>
+      </c>
+      <c r="B410" s="12">
+        <v>40106</v>
+      </c>
+      <c r="C410" s="11">
+        <v>92.625</v>
+      </c>
+      <c r="E410" s="12"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>265</v>
+      </c>
+      <c r="B411" s="12">
+        <v>40070</v>
+      </c>
+      <c r="C411" s="11">
+        <v>31.625</v>
+      </c>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>265</v>
+      </c>
+      <c r="B412" s="12">
+        <v>40087</v>
+      </c>
+      <c r="C412" s="11">
+        <v>59.428571428571431</v>
+      </c>
+      <c r="E412" s="12"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>265</v>
+      </c>
+      <c r="B413" s="12">
+        <v>40107</v>
+      </c>
+      <c r="C413" s="11">
+        <v>84.5</v>
+      </c>
+      <c r="E413" s="12"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>265</v>
+      </c>
+      <c r="B414" s="12">
+        <v>40133</v>
+      </c>
+      <c r="C414" s="11"/>
+      <c r="E414" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17541,14 +24906,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -17559,31 +24926,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="276">
   <si>
     <t>SimulationName</t>
   </si>
@@ -839,7 +839,16 @@
     <t>Wheat.Phenology.Zadok.Stage</t>
   </si>
   <si>
-    <t>Wheat.Structure.MainStemNodeNo</t>
+    <t>GattonRowSpacingRowSpace25cm</t>
+  </si>
+  <si>
+    <t>GattonRowSpacingRowSpace50cm</t>
+  </si>
+  <si>
+    <t>GattonRowSpacingRowSpaceN0</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.AppearedCohortNo</t>
   </si>
 </sst>
 </file>
@@ -1251,14 +1260,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE228"/>
+  <dimension ref="A1:AE231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4164" ySplit="588" topLeftCell="AB210" activePane="bottomRight"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
-      <selection pane="bottomRight" activeCell="AB214" sqref="AB214"/>
+      <pane ySplit="864" topLeftCell="A92" activePane="bottomLeft"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13266,6 +13273,75 @@
         <v>28.747393692751672</v>
       </c>
     </row>
+    <row r="229" spans="1:31">
+      <c r="A229" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" s="1">
+        <v>90</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229">
+        <v>1675.3</v>
+      </c>
+      <c r="G229">
+        <v>636.29999999999995</v>
+      </c>
+      <c r="AB229">
+        <v>16885</v>
+      </c>
+      <c r="AC229">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31">
+      <c r="A230" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C230" s="1">
+        <v>90</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230">
+        <v>1492.5</v>
+      </c>
+      <c r="G230">
+        <v>554.25</v>
+      </c>
+      <c r="AB230">
+        <v>15830</v>
+      </c>
+      <c r="AC230">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31">
+      <c r="A231" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C231" s="1">
+        <v>90</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231">
+        <v>1238.7</v>
+      </c>
+      <c r="G231">
+        <v>380</v>
+      </c>
+      <c r="AB231">
+        <v>10025</v>
+      </c>
+      <c r="AC231">
+        <v>37.9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:AD253">
     <sortCondition ref="A3:A253"/>
@@ -13277,17 +13353,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="528" topLeftCell="A49" activePane="bottomLeft"/>
-      <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50:I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4884" ySplit="528" topLeftCell="A60" activePane="bottomRight"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -15237,6 +15315,725 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="12">
+        <v>40745</v>
+      </c>
+      <c r="C60">
+        <v>480</v>
+      </c>
+      <c r="J60">
+        <v>25.9</v>
+      </c>
+      <c r="L60">
+        <v>0.41818507199999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="12">
+        <v>40752</v>
+      </c>
+      <c r="C61">
+        <v>880</v>
+      </c>
+      <c r="J61">
+        <v>86</v>
+      </c>
+      <c r="L61">
+        <v>1.45847481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="12">
+        <v>40756</v>
+      </c>
+      <c r="C62">
+        <v>853.33333333333326</v>
+      </c>
+      <c r="E62">
+        <v>92.4</v>
+      </c>
+      <c r="F62">
+        <v>26.5</v>
+      </c>
+      <c r="J62">
+        <v>118.9</v>
+      </c>
+      <c r="L62">
+        <v>2.0131426069999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="12">
+        <v>40764</v>
+      </c>
+      <c r="C63">
+        <v>800</v>
+      </c>
+      <c r="E63">
+        <v>126.4</v>
+      </c>
+      <c r="F63">
+        <v>51.8</v>
+      </c>
+      <c r="J63">
+        <v>178.3</v>
+      </c>
+      <c r="L63">
+        <v>2.9735134680000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="12">
+        <v>40788</v>
+      </c>
+      <c r="C64">
+        <v>773.33333333333326</v>
+      </c>
+      <c r="E64">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="F64">
+        <v>244.2</v>
+      </c>
+      <c r="J64">
+        <v>520.5</v>
+      </c>
+      <c r="L64">
+        <v>6.1201040439999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" s="12">
+        <v>40851</v>
+      </c>
+      <c r="C65">
+        <v>492.24674144728192</v>
+      </c>
+      <c r="I65">
+        <v>636.29999999999995</v>
+      </c>
+      <c r="J65">
+        <v>1675.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="12">
+        <v>40745</v>
+      </c>
+      <c r="C66">
+        <v>240</v>
+      </c>
+      <c r="J66">
+        <v>16.7</v>
+      </c>
+      <c r="L66">
+        <v>0.24753102699999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="12">
+        <v>40752</v>
+      </c>
+      <c r="C67">
+        <v>466.66666666666663</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>0.846396072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="12">
+        <v>40756</v>
+      </c>
+      <c r="C68">
+        <v>473.33333333333337</v>
+      </c>
+      <c r="E68">
+        <v>50.1</v>
+      </c>
+      <c r="F68">
+        <v>13.2</v>
+      </c>
+      <c r="J68">
+        <v>63.4</v>
+      </c>
+      <c r="L68">
+        <v>1.0147118559999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="12">
+        <v>40764</v>
+      </c>
+      <c r="C69">
+        <v>446.66666666666663</v>
+      </c>
+      <c r="E69">
+        <v>100.2</v>
+      </c>
+      <c r="F69">
+        <v>38.4</v>
+      </c>
+      <c r="J69">
+        <v>138.6</v>
+      </c>
+      <c r="L69">
+        <v>2.2704393980000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="12">
+        <v>40788</v>
+      </c>
+      <c r="C70">
+        <v>533.33333333333337</v>
+      </c>
+      <c r="E70">
+        <v>221.8</v>
+      </c>
+      <c r="F70">
+        <v>190.3</v>
+      </c>
+      <c r="J70">
+        <v>412</v>
+      </c>
+      <c r="L70">
+        <v>4.9096734560000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="12">
+        <v>40851</v>
+      </c>
+      <c r="C71">
+        <v>400.19794245747079</v>
+      </c>
+      <c r="I71">
+        <v>554.25</v>
+      </c>
+      <c r="J71">
+        <v>1492.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="12">
+        <v>40851</v>
+      </c>
+      <c r="C72">
+        <v>389.1151157936099</v>
+      </c>
+      <c r="I72">
+        <v>380</v>
+      </c>
+      <c r="J72">
+        <v>1238.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C73">
+        <v>127.49999618530273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C74">
+        <v>106.66666793823242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C75">
+        <v>243.58333587646484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C76">
+        <v>161.875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C77">
+        <v>130.90291213989258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C78">
+        <v>125.54166793823242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C79">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C80">
+        <v>109.58333206176758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C81">
+        <v>100.41666793823242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C82">
+        <v>468.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C83">
+        <v>424.16667175292969</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C84">
+        <v>167.77791595458984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C85">
+        <v>177.08332824707031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C86">
+        <v>214.9999974568685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C87">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C88">
+        <v>108.33333587646484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C89">
+        <v>522.66665649414062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C90">
+        <v>344.69166564941406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C91">
+        <v>493.055419921875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C92">
+        <v>287.569580078125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C93">
+        <v>304.72207641601562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C94">
+        <v>118.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C95">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C96">
+        <v>523.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C97">
+        <v>501.52915954589844</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C98">
+        <v>369.16665649414062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C99">
+        <v>351.59709167480469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C100">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C101">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C102">
+        <v>112.08333206176758</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C103">
+        <v>518.87501525878906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C104">
+        <v>534.09584045410156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C105">
+        <v>389.58332824707031</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C106">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C107">
+        <v>373.61125183105469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="13">
+        <v>33798</v>
+      </c>
+      <c r="C108">
+        <v>121.24999618530273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="14">
+        <v>33813</v>
+      </c>
+      <c r="C109">
+        <v>115.83333206176758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="14">
+        <v>33840</v>
+      </c>
+      <c r="C110">
+        <v>786.08334350585937</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="14">
+        <v>33856</v>
+      </c>
+      <c r="C111">
+        <v>836.48747253417969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="14">
+        <v>33877</v>
+      </c>
+      <c r="C112">
+        <v>450.20832824707031</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="14">
+        <v>33889</v>
+      </c>
+      <c r="C113">
+        <v>504.86123657226563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="14">
+        <v>33907</v>
+      </c>
+      <c r="C114">
+        <v>422.36125183105469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15244,12 +16041,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A370"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="576" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C371" sqref="C371"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15269,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>209</v>
@@ -20073,6 +20870,135 @@
       <c r="F382">
         <v>5.8888888888888893</v>
       </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>272</v>
+      </c>
+      <c r="B383" s="12">
+        <v>40745</v>
+      </c>
+      <c r="C383">
+        <v>4.1666666670000003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>272</v>
+      </c>
+      <c r="B384" s="12">
+        <v>40752</v>
+      </c>
+      <c r="C384">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>272</v>
+      </c>
+      <c r="B385" s="12">
+        <v>40756</v>
+      </c>
+      <c r="C385">
+        <v>5.9083333329999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>272</v>
+      </c>
+      <c r="B386" s="12">
+        <v>40764</v>
+      </c>
+      <c r="C386">
+        <v>6.5416666670000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>272</v>
+      </c>
+      <c r="B387" s="12">
+        <v>40788</v>
+      </c>
+      <c r="C387">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>272</v>
+      </c>
+      <c r="B388" s="12">
+        <v>40851</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>273</v>
+      </c>
+      <c r="B389" s="12">
+        <v>40745</v>
+      </c>
+      <c r="C389">
+        <v>4.1666666670000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>273</v>
+      </c>
+      <c r="B390" s="12">
+        <v>40752</v>
+      </c>
+      <c r="C390">
+        <v>5.2833333329999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>273</v>
+      </c>
+      <c r="B391" s="12">
+        <v>40756</v>
+      </c>
+      <c r="C391">
+        <v>5.8416666670000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>273</v>
+      </c>
+      <c r="B392" s="12">
+        <v>40764</v>
+      </c>
+      <c r="C392">
+        <v>6.7916666670000003</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>273</v>
+      </c>
+      <c r="B393" s="12">
+        <v>40788</v>
+      </c>
+      <c r="C393">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>273</v>
+      </c>
+      <c r="B394" s="12">
+        <v>40851</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="B395" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="LeafAppearance" sheetId="3" r:id="rId3"/>
     <sheet name="Zadok" sheetId="4" r:id="rId4"/>
     <sheet name="SoilWater" sheetId="5" r:id="rId5"/>
+    <sheet name="ET" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$2:$AE$226</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="278">
   <si>
     <t>SimulationName</t>
   </si>
@@ -850,6 +851,12 @@
   <si>
     <t>Wheat.Leaf.AppearedCohortNo</t>
   </si>
+  <si>
+    <t>YarrabahCreek</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
 </sst>
 </file>
 
@@ -929,10 +936,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -966,9 +974,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_BR sites 2001_2002" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13353,14 +13363,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4884" ySplit="528" topLeftCell="A60" activePane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4884" ySplit="528" topLeftCell="H102" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="A115:B119"/>
+      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16012,7 +16022,7 @@
         <v>450.20832824707031</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:12">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -16023,7 +16033,7 @@
         <v>504.86123657226563</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:12">
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
@@ -16032,6 +16042,76 @@
       </c>
       <c r="C114">
         <v>422.36125183105469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="12">
+        <v>37104</v>
+      </c>
+      <c r="J115">
+        <v>9.5756172839506171</v>
+      </c>
+      <c r="L115">
+        <v>0.14380216049382716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="12">
+        <v>37126</v>
+      </c>
+      <c r="J116">
+        <v>76.388888888888886</v>
+      </c>
+      <c r="L116">
+        <v>0.95409122776148081</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="12">
+        <v>37166</v>
+      </c>
+      <c r="J117">
+        <v>608.66319444444457</v>
+      </c>
+      <c r="L117">
+        <v>5.6411081976358552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="12">
+        <v>37174</v>
+      </c>
+      <c r="J118">
+        <v>809.05478395061732</v>
+      </c>
+      <c r="L118">
+        <v>5.037305434698613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="12">
+        <v>37229</v>
+      </c>
+      <c r="I119">
+        <v>720.8</v>
+      </c>
+      <c r="J119">
+        <v>1469.5293209876545</v>
       </c>
     </row>
   </sheetData>
@@ -21007,10 +21087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:E419"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25823,6 +25903,61 @@
       <c r="C414" s="11"/>
       <c r="E414" s="12"/>
     </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>276</v>
+      </c>
+      <c r="B415" s="12">
+        <v>37104</v>
+      </c>
+      <c r="C415" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>276</v>
+      </c>
+      <c r="B416" s="12">
+        <v>37126</v>
+      </c>
+      <c r="C416" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>276</v>
+      </c>
+      <c r="B417" s="12">
+        <v>37166</v>
+      </c>
+      <c r="C417" s="19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>276</v>
+      </c>
+      <c r="B418" s="12">
+        <v>37174</v>
+      </c>
+      <c r="C418" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>276</v>
+      </c>
+      <c r="B419" s="12">
+        <v>37229</v>
+      </c>
+      <c r="C419" s="19">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25833,7 +25968,7 @@
   <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31972,4 +32107,1755 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="12">
+        <v>37061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="12">
+        <v>37062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="12">
+        <v>37063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="12">
+        <v>37064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="12">
+        <v>37065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="12">
+        <v>37066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="12">
+        <v>37067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="12">
+        <v>37068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="12">
+        <v>37069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="12">
+        <v>37070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="12">
+        <v>37071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="12">
+        <v>37072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="12">
+        <v>37073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="12">
+        <v>37074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="12">
+        <v>37075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="12">
+        <v>37076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="12">
+        <v>37077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="12">
+        <v>37078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="12">
+        <v>37079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="12">
+        <v>37080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="12">
+        <v>37081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="12">
+        <v>37082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="12">
+        <v>37083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="12">
+        <v>37084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="12">
+        <v>37085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="12">
+        <v>37086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="12">
+        <v>37087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="12">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="12">
+        <v>37089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="12">
+        <v>37090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="12">
+        <v>37091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="12">
+        <v>37092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="12">
+        <v>37093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="12">
+        <v>37094</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="12">
+        <v>37095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="12">
+        <v>37096</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="12">
+        <v>37097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="12">
+        <v>37098</v>
+      </c>
+      <c r="C39">
+        <v>0.67387271575670293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="12">
+        <v>37099</v>
+      </c>
+      <c r="C40">
+        <v>1.0351647308139111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="12">
+        <v>37100</v>
+      </c>
+      <c r="C41">
+        <v>1.7269137077923511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="12">
+        <v>37101</v>
+      </c>
+      <c r="C42">
+        <v>1.35865720903725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="12">
+        <v>37102</v>
+      </c>
+      <c r="C43">
+        <v>1.3014448591343089</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="12">
+        <v>37103</v>
+      </c>
+      <c r="C44">
+        <v>1.545464098037165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="12">
+        <v>37104</v>
+      </c>
+      <c r="C45">
+        <v>1.645191104827457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="12">
+        <v>37105</v>
+      </c>
+      <c r="C46">
+        <v>1.5073616205517082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="12">
+        <v>37106</v>
+      </c>
+      <c r="C47">
+        <v>1.5218428191501556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="12">
+        <v>37107</v>
+      </c>
+      <c r="C48">
+        <v>1.5188297393741945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="12">
+        <v>37108</v>
+      </c>
+      <c r="C49">
+        <v>2.2268454522655037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="12">
+        <v>37109</v>
+      </c>
+      <c r="C50">
+        <v>1.8126989666716444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="12">
+        <v>37110</v>
+      </c>
+      <c r="C51">
+        <v>1.7870748189880483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="12">
+        <v>37111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" s="12">
+        <v>37112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="12">
+        <v>37113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="12">
+        <v>37114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="12">
+        <v>37115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="12">
+        <v>37116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="12">
+        <v>37117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="12">
+        <v>37118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="12">
+        <v>37119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="12">
+        <v>37120</v>
+      </c>
+      <c r="C61">
+        <v>1.7397869493438232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="12">
+        <v>37121</v>
+      </c>
+      <c r="C62">
+        <v>2.7803305540546619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="12">
+        <v>37122</v>
+      </c>
+      <c r="C63">
+        <v>1.7091170744916566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="12">
+        <v>37123</v>
+      </c>
+      <c r="C64">
+        <v>1.4535574482319122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="12">
+        <v>37124</v>
+      </c>
+      <c r="C65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" s="12">
+        <v>37125</v>
+      </c>
+      <c r="C66">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="12">
+        <v>37126</v>
+      </c>
+      <c r="C67">
+        <v>1.8250948324270242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="12">
+        <v>37127</v>
+      </c>
+      <c r="C68">
+        <v>1.8665249829498325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" s="12">
+        <v>37128</v>
+      </c>
+      <c r="C69">
+        <v>1.8340574014488069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="12">
+        <v>37129</v>
+      </c>
+      <c r="C70">
+        <v>1.4905721512068881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="12">
+        <v>37130</v>
+      </c>
+      <c r="C71">
+        <v>1.4909744978418737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" s="12">
+        <v>37131</v>
+      </c>
+      <c r="C72">
+        <v>2.067111329573184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="12">
+        <v>37132</v>
+      </c>
+      <c r="C73">
+        <v>1.2566132018213143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" s="12">
+        <v>37133</v>
+      </c>
+      <c r="C74">
+        <v>1.7094057615957217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="12">
+        <v>37134</v>
+      </c>
+      <c r="C75">
+        <v>2.6645781568422926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="12">
+        <v>37135</v>
+      </c>
+      <c r="C76">
+        <v>3.5702415711162554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" s="12">
+        <v>37136</v>
+      </c>
+      <c r="C77">
+        <v>2.9726684453780332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="12">
+        <v>37137</v>
+      </c>
+      <c r="C78">
+        <v>2.3734136900208433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="12">
+        <v>37138</v>
+      </c>
+      <c r="C79">
+        <v>2.1442586720252526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" s="12">
+        <v>37139</v>
+      </c>
+      <c r="C80">
+        <v>2.5201831976986164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" s="12">
+        <v>37140</v>
+      </c>
+      <c r="C81">
+        <v>3.0047539097978135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="12">
+        <v>37141</v>
+      </c>
+      <c r="C82">
+        <v>1.5146214134319023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="12">
+        <v>37142</v>
+      </c>
+      <c r="C83">
+        <v>1.6647636697479351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="12">
+        <v>37143</v>
+      </c>
+      <c r="C84">
+        <v>2.8776337478286522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="12">
+        <v>37144</v>
+      </c>
+      <c r="C85">
+        <v>3.4369111795743099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" s="12">
+        <v>37145</v>
+      </c>
+      <c r="C86">
+        <v>3.0697670805656978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="12">
+        <v>37146</v>
+      </c>
+      <c r="C87">
+        <v>3.3231527224725181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="12">
+        <v>37147</v>
+      </c>
+      <c r="C88">
+        <v>3.8254505886744772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="12">
+        <v>37148</v>
+      </c>
+      <c r="C89">
+        <v>2.2336273120770871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="12">
+        <v>37149</v>
+      </c>
+      <c r="C90">
+        <v>4.0816190660025278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="12">
+        <v>37150</v>
+      </c>
+      <c r="C91">
+        <v>4.5272845029118374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="12">
+        <v>37151</v>
+      </c>
+      <c r="C92">
+        <v>4.944985407606711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="12">
+        <v>37152</v>
+      </c>
+      <c r="C93">
+        <v>4.5309412590448392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="12">
+        <v>37153</v>
+      </c>
+      <c r="C94">
+        <v>4.0624717261318288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="12">
+        <v>37154</v>
+      </c>
+      <c r="C95">
+        <v>3.9883141046808612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="12">
+        <v>37155</v>
+      </c>
+      <c r="C96">
+        <v>5.1259350005618423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="12">
+        <v>37156</v>
+      </c>
+      <c r="C97">
+        <v>4.9653761687410327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" s="12">
+        <v>37157</v>
+      </c>
+      <c r="C98">
+        <v>3.9893942292258022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="12">
+        <v>37158</v>
+      </c>
+      <c r="C99">
+        <v>4.9890171424116776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="12">
+        <v>37159</v>
+      </c>
+      <c r="C100">
+        <v>5.3327501641300632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" s="12">
+        <v>37160</v>
+      </c>
+      <c r="C101">
+        <v>4.2028824887406104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="12">
+        <v>37161</v>
+      </c>
+      <c r="C102">
+        <v>4.7231995393102437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="12">
+        <v>37162</v>
+      </c>
+      <c r="C103">
+        <v>4.7623009532295191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="12">
+        <v>37163</v>
+      </c>
+      <c r="C104">
+        <v>4.8671582089148533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="12">
+        <v>37164</v>
+      </c>
+      <c r="C105">
+        <v>5.533129565011131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="12">
+        <v>37165</v>
+      </c>
+      <c r="C106">
+        <v>4.9700742407771754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" s="12">
+        <v>37166</v>
+      </c>
+      <c r="C107">
+        <v>3.9117315750168462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" s="12">
+        <v>37167</v>
+      </c>
+      <c r="C108">
+        <v>4.7292463977840171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="12">
+        <v>37168</v>
+      </c>
+      <c r="C109">
+        <v>5.3700764090767183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" s="12">
+        <v>37169</v>
+      </c>
+      <c r="C110">
+        <v>5.2839891795619849</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="12">
+        <v>37170</v>
+      </c>
+      <c r="C111">
+        <v>6.1227761769600475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="12">
+        <v>37171</v>
+      </c>
+      <c r="C112">
+        <v>4.9929489396676621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="12">
+        <v>37172</v>
+      </c>
+      <c r="C113">
+        <v>4.8010890287344434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="12">
+        <v>37173</v>
+      </c>
+      <c r="C114">
+        <v>4.9086933092250566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="12">
+        <v>37174</v>
+      </c>
+      <c r="C115">
+        <v>4.6242454715352119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="12">
+        <v>37175</v>
+      </c>
+      <c r="C116">
+        <v>0.65535460649241606</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="12">
+        <v>37176</v>
+      </c>
+      <c r="C117">
+        <v>5.6335351539497651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="12">
+        <v>37177</v>
+      </c>
+      <c r="C118">
+        <v>5.3645668782640632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="12">
+        <v>37178</v>
+      </c>
+      <c r="C119">
+        <v>3.0954276340300431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>276</v>
+      </c>
+      <c r="B120" s="12">
+        <v>37179</v>
+      </c>
+      <c r="C120">
+        <v>5.2583698405856785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="12">
+        <v>37180</v>
+      </c>
+      <c r="C121">
+        <v>4.9889788166546669</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>276</v>
+      </c>
+      <c r="B122" s="12">
+        <v>37181</v>
+      </c>
+      <c r="C122">
+        <v>4.7492333726333005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="12">
+        <v>37182</v>
+      </c>
+      <c r="C123">
+        <v>4.9392232099936564</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" s="12">
+        <v>37183</v>
+      </c>
+      <c r="C124">
+        <v>4.9073716488642853</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="12">
+        <v>37184</v>
+      </c>
+      <c r="C125">
+        <v>4.6431264699206647</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" s="12">
+        <v>37185</v>
+      </c>
+      <c r="C126">
+        <v>4.8584557475729824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" s="12">
+        <v>37186</v>
+      </c>
+      <c r="C127">
+        <v>5.2673792469271357</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" s="12">
+        <v>37187</v>
+      </c>
+      <c r="C128">
+        <v>5.5291826333913141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="12">
+        <v>37188</v>
+      </c>
+      <c r="C129">
+        <v>1.1818226198749846</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="12">
+        <v>37189</v>
+      </c>
+      <c r="C130">
+        <v>4.273916881687871</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="12">
+        <v>37190</v>
+      </c>
+      <c r="C131">
+        <v>3.3486918179720999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" s="12">
+        <v>37191</v>
+      </c>
+      <c r="C132">
+        <v>4.8372266776979655</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="12">
+        <v>37192</v>
+      </c>
+      <c r="C133">
+        <v>5.5894745627217839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>276</v>
+      </c>
+      <c r="B134" s="12">
+        <v>37193</v>
+      </c>
+      <c r="C134">
+        <v>5.7764282149802133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="12">
+        <v>37194</v>
+      </c>
+      <c r="C135">
+        <v>5.346861764340356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="12">
+        <v>37195</v>
+      </c>
+      <c r="C136">
+        <v>5.0192323461903481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="12">
+        <v>37196</v>
+      </c>
+      <c r="C137">
+        <v>5.0566908502672696</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="12">
+        <v>37197</v>
+      </c>
+      <c r="C138">
+        <v>5.916578033642101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="12">
+        <v>37198</v>
+      </c>
+      <c r="C139">
+        <v>4.91950719659068</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="12">
+        <v>37199</v>
+      </c>
+      <c r="C140">
+        <v>5.0780584105475368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="12">
+        <v>37200</v>
+      </c>
+      <c r="C141">
+        <v>4.7547340060910139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="12">
+        <v>37201</v>
+      </c>
+      <c r="C142">
+        <v>4.1029807195916881</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="12">
+        <v>37202</v>
+      </c>
+      <c r="C143">
+        <v>4.0042559811026885</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" s="12">
+        <v>37203</v>
+      </c>
+      <c r="C144">
+        <v>4.7268732853947881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>276</v>
+      </c>
+      <c r="B145" s="12">
+        <v>37204</v>
+      </c>
+      <c r="C145">
+        <v>1.4944552084930534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="12">
+        <v>37205</v>
+      </c>
+      <c r="C146">
+        <v>5.4214635564543903</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="12">
+        <v>37206</v>
+      </c>
+      <c r="C147">
+        <v>3.7072926844625784</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="12">
+        <v>37207</v>
+      </c>
+      <c r="C148">
+        <v>4.997640537716161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>276</v>
+      </c>
+      <c r="B149" s="12">
+        <v>37208</v>
+      </c>
+      <c r="C149">
+        <v>4.1851789034118658</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" s="12">
+        <v>37209</v>
+      </c>
+      <c r="C150">
+        <v>5.820617083308262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="12">
+        <v>37210</v>
+      </c>
+      <c r="C151">
+        <v>1.7558846720005905</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="12">
+        <v>37211</v>
+      </c>
+      <c r="C152">
+        <v>5.3045644178088764</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" s="12">
+        <v>37212</v>
+      </c>
+      <c r="C153">
+        <v>5.2865995190472521</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" s="12">
+        <v>37213</v>
+      </c>
+      <c r="C154">
+        <v>3.7355451985035089</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="12">
+        <v>37214</v>
+      </c>
+      <c r="C155">
+        <v>2.5734578190376505</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="12">
+        <v>37215</v>
+      </c>
+      <c r="C156">
+        <v>2.5552695337169178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>276</v>
+      </c>
+      <c r="B157" s="12">
+        <v>37216</v>
+      </c>
+      <c r="C157">
+        <v>3.251634463592239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>276</v>
+      </c>
+      <c r="B158" s="12">
+        <v>37217</v>
+      </c>
+      <c r="C158">
+        <v>3.7279107990597469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" s="12">
+        <v>37218</v>
+      </c>
+      <c r="C159">
+        <v>3.3259424892735048</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" s="12">
+        <v>37219</v>
+      </c>
+      <c r="C160">
+        <v>3.4544516920298531</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>276</v>
+      </c>
+      <c r="B161" s="12">
+        <v>37220</v>
+      </c>
+      <c r="C161">
+        <v>1.8356750244657747</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>276</v>
+      </c>
+      <c r="B162" s="12">
+        <v>37221</v>
+      </c>
+      <c r="C162">
+        <v>1.2172382285402064</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>276</v>
+      </c>
+      <c r="B163" s="12">
+        <v>37222</v>
+      </c>
+      <c r="C163">
+        <v>2.5890187901638613</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="12">
+        <v>37223</v>
+      </c>
+      <c r="C164">
+        <v>4.2770652789024615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>276</v>
+      </c>
+      <c r="B165" s="12">
+        <v>37224</v>
+      </c>
+      <c r="C165">
+        <v>3.49681112952914</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>276</v>
+      </c>
+      <c r="B166" s="12">
+        <v>37225</v>
+      </c>
+      <c r="C166">
+        <v>4.1637312196171177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167" s="12">
+        <v>37226</v>
+      </c>
+      <c r="C167">
+        <v>4.7442173822931837</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>276</v>
+      </c>
+      <c r="B168" s="12">
+        <v>37227</v>
+      </c>
+      <c r="C168">
+        <v>3.7276743051403782</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169" s="12">
+        <v>37228</v>
+      </c>
+      <c r="C169">
+        <v>4.0677862870066877</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>276</v>
+      </c>
+      <c r="B170" s="12">
+        <v>37229</v>
+      </c>
+      <c r="C170">
+        <v>5.301406352006298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="280">
   <si>
     <t>SimulationName</t>
   </si>
@@ -857,13 +857,20 @@
   <si>
     <t>ET</t>
   </si>
+  <si>
+    <t>Soil.SoilWater.SW(9)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -940,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -975,6 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21090,7 +21098,7 @@
   <dimension ref="A1:E419"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416"/>
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25965,21 +25973,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="864" topLeftCell="A169" activePane="bottomLeft"/>
+      <selection activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26013,8 +26024,14 @@
       <c r="K1" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>197</v>
       </c>
@@ -26049,7 +26066,7 @@
         <v>0.19625000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
         <v>197</v>
       </c>
@@ -26084,7 +26101,7 @@
         <v>0.19750000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="11" t="s">
         <v>197</v>
       </c>
@@ -26119,7 +26136,7 @@
         <v>0.19475000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="11" t="s">
         <v>197</v>
       </c>
@@ -26154,7 +26171,7 @@
         <v>0.19350000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
         <v>197</v>
       </c>
@@ -26189,7 +26206,7 @@
         <v>0.19375000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>197</v>
       </c>
@@ -26224,7 +26241,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>197</v>
       </c>
@@ -26259,7 +26276,7 @@
         <v>0.21325000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>197</v>
       </c>
@@ -26294,7 +26311,7 @@
         <v>0.22274999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>197</v>
       </c>
@@ -26329,7 +26346,7 @@
         <v>0.22950000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="11" t="s">
         <v>197</v>
       </c>
@@ -26364,7 +26381,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="11" t="s">
         <v>197</v>
       </c>
@@ -26399,7 +26416,7 @@
         <v>0.22075</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
         <v>197</v>
       </c>
@@ -26434,7 +26451,7 @@
         <v>0.22099999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="11" t="s">
         <v>197</v>
       </c>
@@ -26469,7 +26486,7 @@
         <v>0.21724999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
         <v>197</v>
       </c>
@@ -26504,7 +26521,7 @@
         <v>0.21675</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="11" t="s">
         <v>197</v>
       </c>
@@ -31579,7 +31596,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:13">
       <c r="A161" s="11" t="s">
         <v>202</v>
       </c>
@@ -31614,7 +31631,7 @@
         <v>0.24975000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:13">
       <c r="A162" s="11" t="s">
         <v>202</v>
       </c>
@@ -31649,7 +31666,7 @@
         <v>0.24875</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:13">
       <c r="A163" s="11" t="s">
         <v>202</v>
       </c>
@@ -31684,7 +31701,7 @@
         <v>0.24600000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:13">
       <c r="A164" s="11" t="s">
         <v>202</v>
       </c>
@@ -31719,7 +31736,7 @@
         <v>0.24525000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:13">
       <c r="A165" s="11" t="s">
         <v>202</v>
       </c>
@@ -31754,7 +31771,7 @@
         <v>0.23925000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:13">
       <c r="A166" s="11" t="s">
         <v>202</v>
       </c>
@@ -31789,7 +31806,7 @@
         <v>0.23349999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:13">
       <c r="A167" s="11" t="s">
         <v>202</v>
       </c>
@@ -31824,7 +31841,7 @@
         <v>0.23199999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:13">
       <c r="A168" s="11" t="s">
         <v>202</v>
       </c>
@@ -31859,7 +31876,7 @@
         <v>0.22549999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:13">
       <c r="A169" s="11" t="s">
         <v>202</v>
       </c>
@@ -31894,7 +31911,7 @@
         <v>0.21525</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:13">
       <c r="A170" s="11" t="s">
         <v>202</v>
       </c>
@@ -31929,7 +31946,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:13">
       <c r="A171" s="11" t="s">
         <v>202</v>
       </c>
@@ -31964,7 +31981,7 @@
         <v>0.20325000000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:13">
       <c r="A172" s="11" t="s">
         <v>202</v>
       </c>
@@ -31999,7 +32016,7 @@
         <v>0.19949999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:13">
       <c r="A173" s="11" t="s">
         <v>202</v>
       </c>
@@ -32034,7 +32051,7 @@
         <v>0.19949999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:13">
       <c r="A174" s="11" t="s">
         <v>202</v>
       </c>
@@ -32069,7 +32086,7 @@
         <v>0.19725000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:13">
       <c r="A175" s="11" t="s">
         <v>202</v>
       </c>
@@ -32102,6 +32119,356 @@
       </c>
       <c r="K175">
         <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" t="s">
+        <v>276</v>
+      </c>
+      <c r="B176" s="20">
+        <v>37068</v>
+      </c>
+      <c r="C176">
+        <v>904.78270880573837</v>
+      </c>
+      <c r="E176">
+        <v>0.46336650178340993</v>
+      </c>
+      <c r="F176">
+        <v>0.5287117995382894</v>
+      </c>
+      <c r="G176">
+        <v>0.54485817589700725</v>
+      </c>
+      <c r="H176">
+        <v>0.52897094450766613</v>
+      </c>
+      <c r="I176">
+        <v>0.51462622600062757</v>
+      </c>
+      <c r="J176">
+        <v>0.54345742022487398</v>
+      </c>
+      <c r="K176">
+        <v>0.50275464008076465</v>
+      </c>
+      <c r="L176">
+        <v>0.46624444147805399</v>
+      </c>
+      <c r="M176">
+        <v>0.43092339451799921</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+      <c r="B177" s="20">
+        <v>37097</v>
+      </c>
+      <c r="C177">
+        <v>897.75645123572258</v>
+      </c>
+      <c r="E177">
+        <v>0.44612710192039051</v>
+      </c>
+      <c r="F177">
+        <v>0.52952518366686052</v>
+      </c>
+      <c r="G177">
+        <v>0.53790888791554647</v>
+      </c>
+      <c r="H177">
+        <v>0.52759201630554953</v>
+      </c>
+      <c r="I177">
+        <v>0.5065663217920181</v>
+      </c>
+      <c r="J177">
+        <v>0.53834621822054318</v>
+      </c>
+      <c r="K177">
+        <v>0.50228573792617592</v>
+      </c>
+      <c r="L177">
+        <v>0.46664457708616164</v>
+      </c>
+      <c r="M177">
+        <v>0.4337862113453661</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" t="s">
+        <v>276</v>
+      </c>
+      <c r="B178" s="20">
+        <v>37103</v>
+      </c>
+      <c r="C178">
+        <v>936.55537238603972</v>
+      </c>
+      <c r="E178">
+        <v>0.5159983176857651</v>
+      </c>
+      <c r="F178">
+        <v>0.54256720218397247</v>
+      </c>
+      <c r="G178">
+        <v>0.55037263864340846</v>
+      </c>
+      <c r="H178">
+        <v>0.53493614691175806</v>
+      </c>
+      <c r="I178">
+        <v>0.52054159650691501</v>
+      </c>
+      <c r="J178">
+        <v>0.55307697682190471</v>
+      </c>
+      <c r="K178">
+        <v>0.5436136274616572</v>
+      </c>
+      <c r="L178">
+        <v>0.48395772090924005</v>
+      </c>
+      <c r="M178">
+        <v>0.43771263480557793</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" t="s">
+        <v>276</v>
+      </c>
+      <c r="B179" s="20">
+        <v>37127</v>
+      </c>
+      <c r="C179">
+        <v>917.08209705901197</v>
+      </c>
+      <c r="E179">
+        <v>0.51961580866143964</v>
+      </c>
+      <c r="F179">
+        <v>0.54321630929966003</v>
+      </c>
+      <c r="G179">
+        <v>0.550913907041642</v>
+      </c>
+      <c r="H179">
+        <v>0.53011666279275726</v>
+      </c>
+      <c r="I179">
+        <v>0.52735824922219232</v>
+      </c>
+      <c r="J179">
+        <v>0.54973183641163337</v>
+      </c>
+      <c r="K179">
+        <v>0.48035779706697596</v>
+      </c>
+      <c r="L179">
+        <v>0.45473452662424946</v>
+      </c>
+      <c r="M179">
+        <v>0.42936538817450903</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" t="s">
+        <v>276</v>
+      </c>
+      <c r="B180" s="20">
+        <v>37166</v>
+      </c>
+      <c r="C180">
+        <v>781.24223856149877</v>
+      </c>
+      <c r="E180">
+        <v>0.34382444998586331</v>
+      </c>
+      <c r="F180">
+        <v>0.3758451409405123</v>
+      </c>
+      <c r="G180">
+        <v>0.4213465884752241</v>
+      </c>
+      <c r="H180">
+        <v>0.4395812476839871</v>
+      </c>
+      <c r="I180">
+        <v>0.46439152101895348</v>
+      </c>
+      <c r="J180">
+        <v>0.51203355913485626</v>
+      </c>
+      <c r="K180">
+        <v>0.4737617484669765</v>
+      </c>
+      <c r="L180">
+        <v>0.45440500422598168</v>
+      </c>
+      <c r="M180">
+        <v>0.42102193287513956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" t="s">
+        <v>276</v>
+      </c>
+      <c r="B181" s="20">
+        <v>37174</v>
+      </c>
+      <c r="C181">
+        <v>760.95883640208854</v>
+      </c>
+      <c r="E181">
+        <v>0.33764096723288206</v>
+      </c>
+      <c r="F181">
+        <v>0.35624176126266333</v>
+      </c>
+      <c r="G181">
+        <v>0.39474561362548427</v>
+      </c>
+      <c r="H181">
+        <v>0.41791669295525219</v>
+      </c>
+      <c r="I181">
+        <v>0.44869264649829271</v>
+      </c>
+      <c r="J181">
+        <v>0.50706232309325261</v>
+      </c>
+      <c r="K181">
+        <v>0.47096823033137641</v>
+      </c>
+      <c r="L181">
+        <v>0.44990670380170061</v>
+      </c>
+      <c r="M181">
+        <v>0.42161924320953881</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" t="s">
+        <v>276</v>
+      </c>
+      <c r="B182" s="20">
+        <v>37197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" t="s">
+        <v>276</v>
+      </c>
+      <c r="B183" s="20">
+        <v>37200</v>
+      </c>
+      <c r="C183">
+        <v>672.26132498316542</v>
+      </c>
+      <c r="E183">
+        <v>0.27391534189002842</v>
+      </c>
+      <c r="F183">
+        <v>0.29179351070458681</v>
+      </c>
+      <c r="G183">
+        <v>0.32172120887333044</v>
+      </c>
+      <c r="H183">
+        <v>0.34464302424277354</v>
+      </c>
+      <c r="I183">
+        <v>0.38121706217723073</v>
+      </c>
+      <c r="J183">
+        <v>0.44286482501949992</v>
+      </c>
+      <c r="K183">
+        <v>0.43931877262460134</v>
+      </c>
+      <c r="L183">
+        <v>0.44232547651572413</v>
+      </c>
+      <c r="M183">
+        <v>0.42350740286805172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" t="s">
+        <v>276</v>
+      </c>
+      <c r="B184" s="20">
+        <v>37216</v>
+      </c>
+      <c r="C184">
+        <v>687.68728594656227</v>
+      </c>
+      <c r="E184">
+        <v>0.34187749898448344</v>
+      </c>
+      <c r="F184">
+        <v>0.30741767271470127</v>
+      </c>
+      <c r="G184">
+        <v>0.32245484202390318</v>
+      </c>
+      <c r="H184">
+        <v>0.34060554711649133</v>
+      </c>
+      <c r="I184">
+        <v>0.37865568982417847</v>
+      </c>
+      <c r="J184">
+        <v>0.43902349445312649</v>
+      </c>
+      <c r="K184">
+        <v>0.43520393076437558</v>
+      </c>
+      <c r="L184">
+        <v>0.44342822444943819</v>
+      </c>
+      <c r="M184">
+        <v>0.42976952940211399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" t="s">
+        <v>276</v>
+      </c>
+      <c r="B185" s="20">
+        <v>37230</v>
+      </c>
+      <c r="C185">
+        <v>724.00029456307641</v>
+      </c>
+      <c r="E185">
+        <v>0.4311657365770607</v>
+      </c>
+      <c r="F185">
+        <v>0.36661783595799613</v>
+      </c>
+      <c r="G185">
+        <v>0.34921838875901734</v>
+      </c>
+      <c r="H185">
+        <v>0.35659408138284937</v>
+      </c>
+      <c r="I185">
+        <v>0.38457441496299843</v>
+      </c>
+      <c r="J185">
+        <v>0.44137710614422587</v>
+      </c>
+      <c r="K185">
+        <v>0.43300305927935284</v>
+      </c>
+      <c r="L185">
+        <v>0.43591572858981648</v>
+      </c>
+      <c r="M185">
+        <v>0.42153512116206493</v>
       </c>
     </row>
   </sheetData>
@@ -32113,7 +32480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="281">
   <si>
     <t>SimulationName</t>
   </si>
@@ -863,6 +863,9 @@
   <si>
     <t>Soil.SoilWater.SW(10)</t>
   </si>
+  <si>
+    <t>SLA</t>
+  </si>
 </sst>
 </file>
 
@@ -991,6 +994,493 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeSeries!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TimeSeries!$L$2:$L$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>2.2555195088806368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9547302747623414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.04590838974924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9447832929959699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0054823627853544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7423104984325981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.173970597530718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8363253397825279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8213129503790721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7770623965616945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2177981873402475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3198033883654974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7765601968632296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0383446717260489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0316387491669783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7877182059777823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6460656976249348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4926572651336674</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7135892885851494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1477986688160406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9538923805804744</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9249611829066204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7920936608582174</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5109124018762845</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4113192025728081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8765044445722427</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0055999064848189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0885626755610085</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3523726058052192</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0451749257967373</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4994730635118927</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.240867228872558</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4969255384869973</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1986445555564238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1963741136056831</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1028628032490388</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7774841453646726</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>10.418043180476065</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>9.0164599027567434</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>7.240046147174402</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>5.4386966497831182</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>2.4550837291861449</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.68653969189475772</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>2.744517857737153</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>5.5488860835139748</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>3.5856666666666666</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>3.706666666666667</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>3.9766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.41818507199999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>1.45847481</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>2.0131426069999998</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>2.9735134680000002</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>6.1201040439999996</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.24753102699999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.846396072</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>1.0147118559999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>2.2704393980000002</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>4.9096734560000002</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.14380216049382716</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.95409122776148081</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>5.6411081976358552</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>5.037305434698613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TimeSeries!$M$2:$M$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>145.64812833058843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17114.958280670078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21237.67677611388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21034.869889455826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18550.02305396468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17915.444500810641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18442.894288501975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13458.44265377408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17332.223474767379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20434.375721033495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18410.591739457868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16816.395966651733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14015.384169136631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12537.896828311004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13576.51062407475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17112.729576356687</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21238.271295474417</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17627.452014254584</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17670.157183519306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14664.16845033676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15758.382309816327</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13667.875184660552</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17052.278924791121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21877.358915658166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17939.147479960298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16911.011670701722</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13800.288523138919</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14774.273340705162</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14444.168764028893</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16461.113816868012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22411.958196800588</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18873.31768787709</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15850.428052751748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13715.259585228112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11964.88896030678</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14141.062813517357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17148.736598933356</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22033.221202590721</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18977.595263532443</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18370.283917277549</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16039.632268520445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11561.511467702374</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21787.257651515149</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23524.63186708861</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22142.199869753982</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20253.72966067864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22659.075828343313</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22135.588169522092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="178053504"/>
+        <c:axId val="178056192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178053504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178056192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178056192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178053504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,10 +1770,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="864" topLeftCell="A92" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6408" ySplit="864" topLeftCell="L81" activePane="bottomRight"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4995,7 +5487,9 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="M76" s="1">
+        <v>61</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5480,7 +5974,9 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="M83" s="1">
+        <v>407.6</v>
+      </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5965,7 +6461,9 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+      <c r="M90" s="1">
+        <v>556</v>
+      </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -6450,7 +6948,9 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="M97" s="1">
+        <v>617.70000000000005</v>
+      </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -6923,7 +7423,9 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="M104" s="1">
+        <v>220.1</v>
+      </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7408,7 +7910,9 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="M111" s="1">
+        <v>431.7</v>
+      </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -13371,14 +13875,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4884" ySplit="528" topLeftCell="H102" activePane="bottomLeft"/>
+      <pane xSplit="4884" ySplit="528" topLeftCell="C81" activePane="bottomRight"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="A115:B119"/>
-      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13397,7 +13901,7 @@
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13434,8 +13938,11 @@
       <c r="L1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -13470,8 +13977,12 @@
       <c r="L2" s="8">
         <v>2.2555195088806368</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <f>L2*10000/E2</f>
+        <v>145.64812833058843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -13506,8 +14017,12 @@
       <c r="L3" s="8">
         <v>4.9547302747623414</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <f t="shared" ref="M3:M64" si="0">L3*1000000/E3</f>
+        <v>17114.958280670078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -13542,8 +14057,12 @@
       <c r="L4" s="8">
         <v>10.04590838974924</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>21237.67677611388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -13578,8 +14097,12 @@
       <c r="L5" s="8">
         <v>9.9447832929959699</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>21034.869889455826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -13614,8 +14137,12 @@
       <c r="L6" s="8">
         <v>7.0054823627853544</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>18550.02305396468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -13650,8 +14177,12 @@
       <c r="L7" s="8">
         <v>6.7423104984325981</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>17915.444500810641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -13686,8 +14217,12 @@
       <c r="L8" s="8">
         <v>6.173970597530718</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>18442.894288501975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -13723,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -13758,8 +14293,12 @@
       <c r="L10" s="8">
         <v>1.8363253397825279</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>13458.44265377408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -13794,8 +14333,12 @@
       <c r="L11" s="8">
         <v>4.8213129503790721</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>17332.223474767379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -13830,8 +14373,12 @@
       <c r="L12" s="8">
         <v>7.7770623965616945</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>20434.375721033495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -13866,8 +14413,12 @@
       <c r="L13" s="8">
         <v>6.2177981873402475</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>18410.591739457868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -13902,8 +14453,12 @@
       <c r="L14" s="8">
         <v>5.3198033883654974</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>16816.395966651733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -13938,8 +14493,12 @@
       <c r="L15" s="8">
         <v>3.7765601968632296</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>14015.384169136631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -13974,8 +14533,12 @@
       <c r="L16" s="8">
         <v>2.0383446717260489</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>12537.896828311004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -14011,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -14046,8 +14609,12 @@
       <c r="L18" s="8">
         <v>2.0316387491669783</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>13576.51062407475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -14082,8 +14649,12 @@
       <c r="L19" s="8">
         <v>4.7877182059777823</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>17112.729576356687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -14118,8 +14689,12 @@
       <c r="L20" s="8">
         <v>7.6460656976249348</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>21238.271295474417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -14154,8 +14729,12 @@
       <c r="L21" s="8">
         <v>6.4926572651336674</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>17627.452014254584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -14190,8 +14769,12 @@
       <c r="L22" s="8">
         <v>5.7135892885851494</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>17670.157183519306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -14226,8 +14809,12 @@
       <c r="L23" s="8">
         <v>4.1477986688160406</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>14664.16845033676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -14262,8 +14849,12 @@
       <c r="L24" s="8">
         <v>4.9538923805804744</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>15758.382309816327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -14299,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -14334,8 +14925,12 @@
       <c r="L26" s="8">
         <v>1.9249611829066204</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>13667.875184660552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -14370,8 +14965,12 @@
       <c r="L27" s="8">
         <v>4.7920936608582174</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>17052.278924791121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -14406,8 +15005,12 @@
       <c r="L28" s="8">
         <v>8.5109124018762845</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>21877.358915658166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -14442,8 +15045,12 @@
       <c r="L29" s="8">
         <v>7.4113192025728081</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>17939.147479960298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -14478,8 +15085,12 @@
       <c r="L30" s="8">
         <v>5.8765044445722427</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>16911.011670701722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -14514,8 +15125,12 @@
       <c r="L31" s="8">
         <v>4.0055999064848189</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>13800.288523138919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -14550,8 +15165,12 @@
       <c r="L32" s="8">
         <v>3.0885626755610085</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>14774.273340705162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -14587,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -14622,8 +15241,12 @@
       <c r="L34" s="8">
         <v>2.3523726058052192</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>14444.168764028893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -14658,8 +15281,12 @@
       <c r="L35" s="8">
         <v>5.0451749257967373</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>16461.113816868012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>201</v>
       </c>
@@ -14694,8 +15321,12 @@
       <c r="L36" s="8">
         <v>9.4994730635118927</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>22411.958196800588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -14730,8 +15361,12 @@
       <c r="L37" s="8">
         <v>8.240867228872558</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>18873.31768787709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -14766,8 +15401,12 @@
       <c r="L38" s="8">
         <v>5.4969255384869973</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>15850.428052751748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -14802,8 +15441,12 @@
       <c r="L39" s="8">
         <v>4.1986445555564238</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>13715.259585228112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>201</v>
       </c>
@@ -14838,8 +15481,12 @@
       <c r="L40" s="8">
         <v>2.1963741136056831</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>11964.88896030678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -14875,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -14910,8 +15557,12 @@
       <c r="L42" s="8">
         <v>2.1028628032490388</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>14141.062813517357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -14946,8 +15597,12 @@
       <c r="L43" s="8">
         <v>4.7774841453646726</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>17148.736598933356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -14981,8 +15636,12 @@
       <c r="L44">
         <v>10.418043180476065</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>22033.221202590721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -15016,8 +15675,12 @@
       <c r="L45">
         <v>9.0164599027567434</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>18977.595263532443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -15051,8 +15714,12 @@
       <c r="L46">
         <v>7.240046147174402</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>18370.283917277549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -15086,8 +15753,12 @@
       <c r="L47">
         <v>5.4386966497831182</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>16039.632268520445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -15121,8 +15792,12 @@
       <c r="L48">
         <v>2.4550837291861449</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>11561.511467702374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -15157,7 +15832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -15174,7 +15849,7 @@
         <v>0.68653969189475772</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>267</v>
       </c>
@@ -15191,7 +15866,7 @@
         <v>2.744517857737153</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -15208,7 +15883,7 @@
         <v>5.5488860835139748</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>267</v>
       </c>
@@ -15225,7 +15900,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>267</v>
       </c>
@@ -15242,7 +15917,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -15262,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -15279,7 +15954,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -15296,7 +15971,7 @@
         <v>3.706666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>268</v>
       </c>
@@ -15313,7 +15988,7 @@
         <v>3.9766666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>268</v>
       </c>
@@ -15333,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>272</v>
       </c>
@@ -15350,7 +16025,7 @@
         <v>0.41818507199999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -15367,7 +16042,7 @@
         <v>1.45847481</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>272</v>
       </c>
@@ -15389,8 +16064,12 @@
       <c r="L62">
         <v>2.0131426069999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>21787.257651515149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -15412,8 +16091,12 @@
       <c r="L63">
         <v>2.9735134680000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>23524.63186708861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -15435,8 +16118,12 @@
       <c r="L64">
         <v>6.1201040439999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>22142.199869753982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -15453,7 +16140,7 @@
         <v>1675.3</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>273</v>
       </c>
@@ -15470,7 +16157,7 @@
         <v>0.24753102699999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>273</v>
       </c>
@@ -15487,7 +16174,7 @@
         <v>0.846396072</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>273</v>
       </c>
@@ -15509,8 +16196,12 @@
       <c r="L68">
         <v>1.0147118559999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <f t="shared" ref="M68:M70" si="1">L68*1000000/E68</f>
+        <v>20253.72966067864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>273</v>
       </c>
@@ -15532,8 +16223,12 @@
       <c r="L69">
         <v>2.2704393980000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>22659.075828343313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>273</v>
       </c>
@@ -15555,8 +16250,12 @@
       <c r="L70">
         <v>4.9096734560000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>22135.588169522092</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>273</v>
       </c>
@@ -15573,7 +16272,7 @@
         <v>1492.5</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>274</v>
       </c>
@@ -15590,7 +16289,7 @@
         <v>1238.7</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
         <v>110</v>
       </c>
@@ -15601,7 +16300,7 @@
         <v>127.49999618530273</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
         <v>110</v>
       </c>
@@ -15612,7 +16311,7 @@
         <v>106.66666793823242</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
         <v>110</v>
       </c>
@@ -15623,7 +16322,7 @@
         <v>243.58333587646484</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
         <v>110</v>
       </c>
@@ -15634,7 +16333,7 @@
         <v>161.875</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
         <v>110</v>
       </c>
@@ -15645,7 +16344,7 @@
         <v>130.90291213989258</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
         <v>110</v>
       </c>
@@ -15656,7 +16355,7 @@
         <v>125.54166793823242</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
         <v>110</v>
       </c>
@@ -15667,7 +16366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
         <v>111</v>
       </c>
@@ -16124,6 +16823,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25975,7 +26675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="864" topLeftCell="A169" activePane="bottomLeft"/>
       <selection activeCell="M2" sqref="M2"/>
       <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="283">
   <si>
     <t>SimulationName</t>
   </si>
@@ -863,6 +863,15 @@
   <si>
     <t>Wheat.Summariser.AboveGround.N</t>
   </si>
+  <si>
+    <t>Yucheng2002</t>
+  </si>
+  <si>
+    <t>Yucheng2003</t>
+  </si>
+  <si>
+    <t>Yucheng2004</t>
+  </si>
 </sst>
 </file>
 
@@ -1400,23 +1409,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85630976"/>
-        <c:axId val="85634048"/>
+        <c:axId val="74805632"/>
+        <c:axId val="74807168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85630976"/>
+        <c:axId val="74805632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85634048"/>
+        <c:crossAx val="74807168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85634048"/>
+        <c:axId val="74807168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1433,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85630976"/>
+        <c:crossAx val="74805632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,7 +1445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13865,14 +13874,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4884" ySplit="528" topLeftCell="C81" activePane="bottomRight"/>
-      <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A142" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16804,11 +16811,559 @@
       <c r="B119" s="12">
         <v>37229</v>
       </c>
-      <c r="I119">
-        <v>720.8</v>
-      </c>
       <c r="J119">
         <v>1469.5293209876545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" s="12">
+        <v>37699</v>
+      </c>
+      <c r="J120">
+        <v>57.620000000000005</v>
+      </c>
+      <c r="L120">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="12">
+        <v>37707</v>
+      </c>
+      <c r="J121">
+        <v>86.63</v>
+      </c>
+      <c r="L121">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="12">
+        <v>37715</v>
+      </c>
+      <c r="J122">
+        <v>225.99</v>
+      </c>
+      <c r="L122">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="12">
+        <v>37721</v>
+      </c>
+      <c r="J123">
+        <v>312.01</v>
+      </c>
+      <c r="L123">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" s="12">
+        <v>37726</v>
+      </c>
+      <c r="J124">
+        <v>416.98</v>
+      </c>
+      <c r="L124">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="12">
+        <v>37731</v>
+      </c>
+      <c r="L125">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" s="12">
+        <v>37736</v>
+      </c>
+      <c r="J126">
+        <v>546.79</v>
+      </c>
+      <c r="L126">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" s="12">
+        <v>37741</v>
+      </c>
+      <c r="L127">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" s="12">
+        <v>37746</v>
+      </c>
+      <c r="J128">
+        <v>797.05</v>
+      </c>
+      <c r="L128">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="12">
+        <v>37751</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="12">
+        <v>37756</v>
+      </c>
+      <c r="J130">
+        <v>1128.73</v>
+      </c>
+      <c r="L130">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="12">
+        <v>37766</v>
+      </c>
+      <c r="J131">
+        <v>1279.8</v>
+      </c>
+      <c r="L131">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="12">
+        <v>37776</v>
+      </c>
+      <c r="I132">
+        <v>526</v>
+      </c>
+      <c r="J132">
+        <v>922.8</v>
+      </c>
+      <c r="L132">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" s="12">
+        <v>38050</v>
+      </c>
+      <c r="J133">
+        <v>57.25</v>
+      </c>
+      <c r="L133">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" s="12">
+        <v>38057</v>
+      </c>
+      <c r="J134">
+        <v>93.289999999999992</v>
+      </c>
+      <c r="L134">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" s="12">
+        <v>38066</v>
+      </c>
+      <c r="J135">
+        <v>151.34</v>
+      </c>
+      <c r="L135">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="12">
+        <v>38071</v>
+      </c>
+      <c r="J136">
+        <v>140.99</v>
+      </c>
+      <c r="L136">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="12">
+        <v>38077</v>
+      </c>
+      <c r="J137">
+        <v>296.70999999999998</v>
+      </c>
+      <c r="L137">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="12">
+        <v>38085</v>
+      </c>
+      <c r="J138">
+        <v>500.95</v>
+      </c>
+      <c r="L138">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="12">
+        <v>38093</v>
+      </c>
+      <c r="J139">
+        <v>539.75</v>
+      </c>
+      <c r="L139">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="12">
+        <v>38100</v>
+      </c>
+      <c r="J140">
+        <v>758</v>
+      </c>
+      <c r="L140">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="12">
+        <v>38107</v>
+      </c>
+      <c r="J141">
+        <v>896.58999999999992</v>
+      </c>
+      <c r="L141">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" s="12">
+        <v>38114</v>
+      </c>
+      <c r="J142">
+        <v>1194.78</v>
+      </c>
+      <c r="L142">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="12">
+        <v>38120</v>
+      </c>
+      <c r="J143">
+        <v>1302.02</v>
+      </c>
+      <c r="L143">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="12">
+        <v>38127</v>
+      </c>
+      <c r="J144">
+        <v>1100.03</v>
+      </c>
+      <c r="L144">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="12">
+        <v>38135</v>
+      </c>
+      <c r="J145">
+        <v>1581.04</v>
+      </c>
+      <c r="L145">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" s="12">
+        <v>38142</v>
+      </c>
+      <c r="I146">
+        <v>523.5</v>
+      </c>
+      <c r="J146">
+        <v>1638.4299999999998</v>
+      </c>
+      <c r="L146">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147" s="12">
+        <v>38377</v>
+      </c>
+      <c r="J147">
+        <v>90.97</v>
+      </c>
+      <c r="L147">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" s="12">
+        <v>38411</v>
+      </c>
+      <c r="J148">
+        <v>104.09</v>
+      </c>
+      <c r="L148">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" s="12">
+        <v>38431</v>
+      </c>
+      <c r="J149">
+        <v>150.13</v>
+      </c>
+      <c r="L149">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="12">
+        <v>38436</v>
+      </c>
+      <c r="J150">
+        <v>188.15</v>
+      </c>
+      <c r="L150">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="12">
+        <v>38441</v>
+      </c>
+      <c r="J151">
+        <v>236.96999999999997</v>
+      </c>
+      <c r="L151">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" s="12">
+        <v>38452</v>
+      </c>
+      <c r="J152">
+        <v>408</v>
+      </c>
+      <c r="L152">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="12">
+        <v>38462</v>
+      </c>
+      <c r="J153">
+        <v>373.73</v>
+      </c>
+      <c r="L153">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>282</v>
+      </c>
+      <c r="B154" s="12">
+        <v>38472</v>
+      </c>
+      <c r="J154">
+        <v>819.46</v>
+      </c>
+      <c r="L154">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" s="12">
+        <v>38482</v>
+      </c>
+      <c r="J155">
+        <v>1322.84</v>
+      </c>
+      <c r="L155">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" s="12">
+        <v>38492</v>
+      </c>
+      <c r="J156">
+        <v>986.53</v>
+      </c>
+      <c r="L156">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" s="12">
+        <v>38502</v>
+      </c>
+      <c r="J157">
+        <v>1662.9900000000002</v>
+      </c>
+      <c r="L157">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="12">
+        <v>38508</v>
+      </c>
+      <c r="J158">
+        <v>1478.8899999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="12">
+        <v>38511</v>
+      </c>
+      <c r="I159">
+        <v>516.9</v>
       </c>
     </row>
   </sheetData>
@@ -26665,7 +27220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="864" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="M2" sqref="M2"/>
       <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="283">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1409,23 +1409,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74805632"/>
-        <c:axId val="74807168"/>
+        <c:axId val="134104960"/>
+        <c:axId val="134106496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74805632"/>
+        <c:axId val="134104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74807168"/>
+        <c:crossAx val="134106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74807168"/>
+        <c:axId val="134106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1433,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74805632"/>
+        <c:crossAx val="134104960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,7 +1445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13876,10 +13876,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="576" topLeftCell="A142" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27218,12 +27218,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="864" topLeftCell="A193" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="864" activePane="bottomLeft"/>
       <selection activeCell="M2" sqref="M2"/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34299,12 +34299,1662 @@
         <v>566.21451567862778</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>36</v>
       </c>
       <c r="B209" s="12">
         <v>34964</v>
+      </c>
+      <c r="C209">
+        <v>474.12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>280</v>
+      </c>
+      <c r="B210" s="12">
+        <v>37625</v>
+      </c>
+      <c r="C210">
+        <v>515.21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>280</v>
+      </c>
+      <c r="B211" s="12">
+        <v>37635</v>
+      </c>
+      <c r="C211">
+        <v>490.88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>280</v>
+      </c>
+      <c r="B212" s="12">
+        <v>37644</v>
+      </c>
+      <c r="C212">
+        <v>474.12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>280</v>
+      </c>
+      <c r="B213" s="12">
+        <v>37656</v>
+      </c>
+      <c r="C213">
+        <v>442.51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>280</v>
+      </c>
+      <c r="B214" s="12">
+        <v>37676</v>
+      </c>
+      <c r="C214">
+        <v>421.52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>280</v>
+      </c>
+      <c r="B215" s="12">
+        <v>37686</v>
+      </c>
+      <c r="C215">
+        <v>427.99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>280</v>
+      </c>
+      <c r="B216" s="12">
+        <v>37691</v>
+      </c>
+      <c r="C216">
+        <v>429.14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>280</v>
+      </c>
+      <c r="B217" s="12">
+        <v>37696</v>
+      </c>
+      <c r="C217">
+        <v>432.88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>280</v>
+      </c>
+      <c r="B218" s="12">
+        <v>37701</v>
+      </c>
+      <c r="C218">
+        <v>392.26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>280</v>
+      </c>
+      <c r="B219" s="12">
+        <v>37706</v>
+      </c>
+      <c r="C219">
+        <v>484.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>280</v>
+      </c>
+      <c r="B220" s="12">
+        <v>37711</v>
+      </c>
+      <c r="C220">
+        <v>466.79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>280</v>
+      </c>
+      <c r="B221" s="12">
+        <v>37717</v>
+      </c>
+      <c r="C221">
+        <v>454.26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" s="12">
+        <v>37722</v>
+      </c>
+      <c r="C222">
+        <v>444.97</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>280</v>
+      </c>
+      <c r="B223" s="12">
+        <v>37727</v>
+      </c>
+      <c r="C223">
+        <v>530.32000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>280</v>
+      </c>
+      <c r="B224" s="12">
+        <v>37732</v>
+      </c>
+      <c r="C224">
+        <v>511.55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225" s="12">
+        <v>37734</v>
+      </c>
+      <c r="C225">
+        <v>503.63</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226" s="12">
+        <v>37737</v>
+      </c>
+      <c r="C226">
+        <v>495.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>280</v>
+      </c>
+      <c r="B227" s="12">
+        <v>37740</v>
+      </c>
+      <c r="C227">
+        <v>476.83</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>280</v>
+      </c>
+      <c r="B228" s="12">
+        <v>37746</v>
+      </c>
+      <c r="C228">
+        <v>454.54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>280</v>
+      </c>
+      <c r="B229" s="12">
+        <v>37751</v>
+      </c>
+      <c r="C229">
+        <v>452.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>280</v>
+      </c>
+      <c r="B230" s="12">
+        <v>37756</v>
+      </c>
+      <c r="C230">
+        <v>521.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>280</v>
+      </c>
+      <c r="B231" s="12">
+        <v>37761</v>
+      </c>
+      <c r="C231">
+        <v>472.22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>280</v>
+      </c>
+      <c r="B232" s="12">
+        <v>37766</v>
+      </c>
+      <c r="C232">
+        <v>460.45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233" s="12">
+        <v>37771</v>
+      </c>
+      <c r="C233">
+        <v>417.19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>280</v>
+      </c>
+      <c r="B234" s="12">
+        <v>37777</v>
+      </c>
+      <c r="C234">
+        <v>433.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>280</v>
+      </c>
+      <c r="B235" s="12">
+        <v>37782</v>
+      </c>
+      <c r="C235">
+        <v>417.64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>280</v>
+      </c>
+      <c r="B236" s="12">
+        <v>37786</v>
+      </c>
+      <c r="C236">
+        <v>429.41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>280</v>
+      </c>
+      <c r="B237" s="12">
+        <v>37791</v>
+      </c>
+      <c r="C237">
+        <v>426.06</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>280</v>
+      </c>
+      <c r="B238" s="12">
+        <v>37796</v>
+      </c>
+      <c r="C238">
+        <v>435.21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>280</v>
+      </c>
+      <c r="B239" s="12">
+        <v>37802</v>
+      </c>
+      <c r="C239">
+        <v>419.34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>280</v>
+      </c>
+      <c r="B240" s="12">
+        <v>37807</v>
+      </c>
+      <c r="C240">
+        <v>422.67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>280</v>
+      </c>
+      <c r="B241" s="12">
+        <v>37812</v>
+      </c>
+      <c r="C241">
+        <v>432.35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>280</v>
+      </c>
+      <c r="B242" s="12">
+        <v>37817</v>
+      </c>
+      <c r="C242">
+        <v>451.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>280</v>
+      </c>
+      <c r="B243" s="12">
+        <v>37823</v>
+      </c>
+      <c r="C243">
+        <v>451.98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>280</v>
+      </c>
+      <c r="B244" s="12">
+        <v>37828</v>
+      </c>
+      <c r="C244">
+        <v>470.84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>280</v>
+      </c>
+      <c r="B245" s="12">
+        <v>37833</v>
+      </c>
+      <c r="C245">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>280</v>
+      </c>
+      <c r="B246" s="12">
+        <v>37838</v>
+      </c>
+      <c r="C246">
+        <v>454.58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>280</v>
+      </c>
+      <c r="B247" s="12">
+        <v>37844</v>
+      </c>
+      <c r="C247">
+        <v>433.17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>280</v>
+      </c>
+      <c r="B248" s="12">
+        <v>37851</v>
+      </c>
+      <c r="C248">
+        <v>440.07</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>280</v>
+      </c>
+      <c r="B249" s="12">
+        <v>37856</v>
+      </c>
+      <c r="C249">
+        <v>443.74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="12">
+        <v>37863</v>
+      </c>
+      <c r="C250">
+        <v>454.52</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>280</v>
+      </c>
+      <c r="B251" s="12">
+        <v>37869</v>
+      </c>
+      <c r="C251">
+        <v>466.11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>280</v>
+      </c>
+      <c r="B252" s="12">
+        <v>37874</v>
+      </c>
+      <c r="C252">
+        <v>445.87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>280</v>
+      </c>
+      <c r="B253" s="12">
+        <v>37879</v>
+      </c>
+      <c r="C253">
+        <v>450.72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>280</v>
+      </c>
+      <c r="B254" s="12">
+        <v>37884</v>
+      </c>
+      <c r="C254">
+        <v>457.38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>280</v>
+      </c>
+      <c r="B255" s="12">
+        <v>37889</v>
+      </c>
+      <c r="C255">
+        <v>445.29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>280</v>
+      </c>
+      <c r="B256" s="12">
+        <v>37896</v>
+      </c>
+      <c r="C256">
+        <v>480.73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>280</v>
+      </c>
+      <c r="B257" s="12">
+        <v>37901</v>
+      </c>
+      <c r="C257">
+        <v>560.04</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>280</v>
+      </c>
+      <c r="B258" s="12">
+        <v>37908</v>
+      </c>
+      <c r="C258">
+        <v>547.94000000000005</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>281</v>
+      </c>
+      <c r="B259" s="12">
+        <v>37914</v>
+      </c>
+      <c r="C259">
+        <v>531.39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>281</v>
+      </c>
+      <c r="B260" s="12">
+        <v>37919</v>
+      </c>
+      <c r="C260">
+        <v>505.06</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>281</v>
+      </c>
+      <c r="B261" s="12">
+        <v>37924</v>
+      </c>
+      <c r="C261">
+        <v>510.53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>281</v>
+      </c>
+      <c r="B262" s="12">
+        <v>37929</v>
+      </c>
+      <c r="C262">
+        <v>527.99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>281</v>
+      </c>
+      <c r="B263" s="12">
+        <v>37934</v>
+      </c>
+      <c r="C263">
+        <v>514.49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>281</v>
+      </c>
+      <c r="B264" s="12">
+        <v>37939</v>
+      </c>
+      <c r="C264">
+        <v>520.22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265" s="12">
+        <v>37961</v>
+      </c>
+      <c r="C265">
+        <v>505.08</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>281</v>
+      </c>
+      <c r="B266" s="12">
+        <v>37966</v>
+      </c>
+      <c r="C266">
+        <v>522.91999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>281</v>
+      </c>
+      <c r="B267" s="12">
+        <v>37970</v>
+      </c>
+      <c r="C267">
+        <v>529.46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>281</v>
+      </c>
+      <c r="B268" s="12">
+        <v>37975</v>
+      </c>
+      <c r="C268">
+        <v>515.77</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>281</v>
+      </c>
+      <c r="B269" s="12">
+        <v>37986</v>
+      </c>
+      <c r="C269">
+        <v>488.57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>281</v>
+      </c>
+      <c r="B270" s="12">
+        <v>37991</v>
+      </c>
+      <c r="C270">
+        <v>480.7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>281</v>
+      </c>
+      <c r="B271" s="12">
+        <v>37995</v>
+      </c>
+      <c r="C271">
+        <v>488.65</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>281</v>
+      </c>
+      <c r="B272" s="12">
+        <v>38000</v>
+      </c>
+      <c r="C272">
+        <v>481.95</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273" s="12">
+        <v>38005</v>
+      </c>
+      <c r="C273">
+        <v>487.46</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" s="12">
+        <v>38011</v>
+      </c>
+      <c r="C274">
+        <v>490.73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" s="12">
+        <v>38015</v>
+      </c>
+      <c r="C275">
+        <v>502.19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" s="12">
+        <v>38020</v>
+      </c>
+      <c r="C276">
+        <v>496.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" s="12">
+        <v>38026</v>
+      </c>
+      <c r="C277">
+        <v>499.38</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" s="12">
+        <v>38030</v>
+      </c>
+      <c r="C278">
+        <v>517.30999999999995</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" s="12">
+        <v>38036</v>
+      </c>
+      <c r="C279">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="12">
+        <v>38041</v>
+      </c>
+      <c r="C280">
+        <v>483.45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" s="12">
+        <v>38045</v>
+      </c>
+      <c r="C281">
+        <v>486.24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" s="12">
+        <v>38050</v>
+      </c>
+      <c r="C282">
+        <v>491.29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" s="12">
+        <v>38055</v>
+      </c>
+      <c r="C283">
+        <v>568.65</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284" s="12">
+        <v>38061</v>
+      </c>
+      <c r="C284">
+        <v>523.87</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>281</v>
+      </c>
+      <c r="B285" s="12">
+        <v>38066</v>
+      </c>
+      <c r="C285">
+        <v>496.61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>281</v>
+      </c>
+      <c r="B286" s="12">
+        <v>38071</v>
+      </c>
+      <c r="C286">
+        <v>512.25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>281</v>
+      </c>
+      <c r="B287" s="12">
+        <v>38076</v>
+      </c>
+      <c r="C287">
+        <v>487.19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>281</v>
+      </c>
+      <c r="B288" s="12">
+        <v>38081</v>
+      </c>
+      <c r="C288">
+        <v>477.26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>281</v>
+      </c>
+      <c r="B289" s="12">
+        <v>38086</v>
+      </c>
+      <c r="C289">
+        <v>452.34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>281</v>
+      </c>
+      <c r="B290" s="12">
+        <v>38091</v>
+      </c>
+      <c r="C290">
+        <v>544.72</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>281</v>
+      </c>
+      <c r="B291" s="12">
+        <v>38097</v>
+      </c>
+      <c r="C291">
+        <v>486.54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>281</v>
+      </c>
+      <c r="B292" s="12">
+        <v>38102</v>
+      </c>
+      <c r="C292">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>281</v>
+      </c>
+      <c r="B293" s="12">
+        <v>38107</v>
+      </c>
+      <c r="C293">
+        <v>477.38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>281</v>
+      </c>
+      <c r="B294" s="12">
+        <v>38112</v>
+      </c>
+      <c r="C294">
+        <v>446.75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>281</v>
+      </c>
+      <c r="B295" s="12">
+        <v>38117</v>
+      </c>
+      <c r="C295">
+        <v>462.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>281</v>
+      </c>
+      <c r="B296" s="12">
+        <v>38119</v>
+      </c>
+      <c r="C296">
+        <v>455.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>281</v>
+      </c>
+      <c r="B297" s="12">
+        <v>38124</v>
+      </c>
+      <c r="C297">
+        <v>423.6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>281</v>
+      </c>
+      <c r="B298" s="12">
+        <v>38129</v>
+      </c>
+      <c r="C298">
+        <v>420.85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>281</v>
+      </c>
+      <c r="B299" s="12">
+        <v>38135</v>
+      </c>
+      <c r="C299">
+        <v>409.9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>281</v>
+      </c>
+      <c r="B300" s="12">
+        <v>38140</v>
+      </c>
+      <c r="C300">
+        <v>413.01</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>281</v>
+      </c>
+      <c r="B301" s="12">
+        <v>38145</v>
+      </c>
+      <c r="C301">
+        <v>399.88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>281</v>
+      </c>
+      <c r="B302" s="12">
+        <v>38150</v>
+      </c>
+      <c r="C302">
+        <v>467.96</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>281</v>
+      </c>
+      <c r="B303" s="12">
+        <v>38160</v>
+      </c>
+      <c r="C303">
+        <v>553.54999999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>281</v>
+      </c>
+      <c r="B304" s="12">
+        <v>38164</v>
+      </c>
+      <c r="C304">
+        <v>575.23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>281</v>
+      </c>
+      <c r="B305" s="12">
+        <v>38171</v>
+      </c>
+      <c r="C305">
+        <v>564.59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>281</v>
+      </c>
+      <c r="B306" s="12">
+        <v>38188</v>
+      </c>
+      <c r="C306">
+        <v>531.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>281</v>
+      </c>
+      <c r="B307" s="12">
+        <v>38193</v>
+      </c>
+      <c r="C307">
+        <v>616.32000000000005</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>281</v>
+      </c>
+      <c r="B308" s="12">
+        <v>38200</v>
+      </c>
+      <c r="C308">
+        <v>602.21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>281</v>
+      </c>
+      <c r="B309" s="12">
+        <v>38204</v>
+      </c>
+      <c r="C309">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>281</v>
+      </c>
+      <c r="B310" s="12">
+        <v>38212</v>
+      </c>
+      <c r="C310">
+        <v>599.77</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>281</v>
+      </c>
+      <c r="B311" s="12">
+        <v>38217</v>
+      </c>
+      <c r="C311">
+        <v>570.41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>281</v>
+      </c>
+      <c r="B312" s="12">
+        <v>38222</v>
+      </c>
+      <c r="C312">
+        <v>607.75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>281</v>
+      </c>
+      <c r="B313" s="12">
+        <v>38229</v>
+      </c>
+      <c r="C313">
+        <v>575.24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>281</v>
+      </c>
+      <c r="B314" s="12">
+        <v>38232</v>
+      </c>
+      <c r="C314">
+        <v>575.24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>281</v>
+      </c>
+      <c r="B315" s="12">
+        <v>38234</v>
+      </c>
+      <c r="C315">
+        <v>542.29999999999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>281</v>
+      </c>
+      <c r="B316" s="12">
+        <v>38239</v>
+      </c>
+      <c r="C316">
+        <v>553.24</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>281</v>
+      </c>
+      <c r="B317" s="12">
+        <v>38245</v>
+      </c>
+      <c r="C317">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>281</v>
+      </c>
+      <c r="B318" s="12">
+        <v>38250</v>
+      </c>
+      <c r="C318">
+        <v>528.51</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>281</v>
+      </c>
+      <c r="B319" s="12">
+        <v>38255</v>
+      </c>
+      <c r="C319">
+        <v>517.92999999999995</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>281</v>
+      </c>
+      <c r="B320" s="12">
+        <v>38262</v>
+      </c>
+      <c r="C320">
+        <v>501.28</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>281</v>
+      </c>
+      <c r="B321" s="12">
+        <v>38268</v>
+      </c>
+      <c r="C321">
+        <v>498.74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>282</v>
+      </c>
+      <c r="B322" s="12">
+        <v>38273</v>
+      </c>
+      <c r="C322">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>282</v>
+      </c>
+      <c r="B323" s="12">
+        <v>38278</v>
+      </c>
+      <c r="C323">
+        <v>503.12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>282</v>
+      </c>
+      <c r="B324" s="12">
+        <v>38283</v>
+      </c>
+      <c r="C324">
+        <v>500.47</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>282</v>
+      </c>
+      <c r="B325" s="12">
+        <v>38288</v>
+      </c>
+      <c r="C325">
+        <v>521.92999999999995</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>282</v>
+      </c>
+      <c r="B326" s="12">
+        <v>38303</v>
+      </c>
+      <c r="C326">
+        <v>485.45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>282</v>
+      </c>
+      <c r="B327" s="12">
+        <v>38308</v>
+      </c>
+      <c r="C327">
+        <v>507.99</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>282</v>
+      </c>
+      <c r="B328" s="12">
+        <v>38322</v>
+      </c>
+      <c r="C328">
+        <v>501.18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>282</v>
+      </c>
+      <c r="B329" s="12">
+        <v>38331</v>
+      </c>
+      <c r="C329">
+        <v>509.35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>282</v>
+      </c>
+      <c r="B330" s="12">
+        <v>38341</v>
+      </c>
+      <c r="C330">
+        <v>501.15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>282</v>
+      </c>
+      <c r="B331" s="12">
+        <v>38351</v>
+      </c>
+      <c r="C331">
+        <v>503.67</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>282</v>
+      </c>
+      <c r="B332" s="12">
+        <v>38361</v>
+      </c>
+      <c r="C332">
+        <v>502.06</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>282</v>
+      </c>
+      <c r="B333" s="12">
+        <v>38373</v>
+      </c>
+      <c r="C333">
+        <v>512.97</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>282</v>
+      </c>
+      <c r="B334" s="12">
+        <v>38382</v>
+      </c>
+      <c r="C334">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>282</v>
+      </c>
+      <c r="B335" s="12">
+        <v>38394</v>
+      </c>
+      <c r="C335">
+        <v>506.68</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>282</v>
+      </c>
+      <c r="B336" s="12">
+        <v>38403</v>
+      </c>
+      <c r="C336">
+        <v>505.38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>282</v>
+      </c>
+      <c r="B337" s="12">
+        <v>38412</v>
+      </c>
+      <c r="C337">
+        <v>498.57</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>282</v>
+      </c>
+      <c r="B338" s="12">
+        <v>38417</v>
+      </c>
+      <c r="C338">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>282</v>
+      </c>
+      <c r="B339" s="12">
+        <v>38422</v>
+      </c>
+      <c r="C339">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" s="12">
+        <v>38427</v>
+      </c>
+      <c r="C340">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>282</v>
+      </c>
+      <c r="B341" s="12">
+        <v>38432</v>
+      </c>
+      <c r="C341">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>282</v>
+      </c>
+      <c r="B342" s="12">
+        <v>38437</v>
+      </c>
+      <c r="C342">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>282</v>
+      </c>
+      <c r="B343" s="12">
+        <v>38448</v>
+      </c>
+      <c r="C343">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>282</v>
+      </c>
+      <c r="B344" s="12">
+        <v>38452</v>
+      </c>
+      <c r="C344">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>282</v>
+      </c>
+      <c r="B345" s="12">
+        <v>38457</v>
+      </c>
+      <c r="C345">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>282</v>
+      </c>
+      <c r="B346" s="12">
+        <v>38462</v>
+      </c>
+      <c r="C346">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>282</v>
+      </c>
+      <c r="B347" s="12">
+        <v>38467</v>
+      </c>
+      <c r="C347">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>282</v>
+      </c>
+      <c r="B348" s="12">
+        <v>38472</v>
+      </c>
+      <c r="C348">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>282</v>
+      </c>
+      <c r="B349" s="12">
+        <v>38478</v>
+      </c>
+      <c r="C349">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>282</v>
+      </c>
+      <c r="B350" s="12">
+        <v>38483</v>
+      </c>
+      <c r="C350">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>282</v>
+      </c>
+      <c r="B351" s="12">
+        <v>38488</v>
+      </c>
+      <c r="C351">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>282</v>
+      </c>
+      <c r="B352" s="12">
+        <v>38493</v>
+      </c>
+      <c r="C352">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>282</v>
+      </c>
+      <c r="B353" s="12">
+        <v>38498</v>
+      </c>
+      <c r="C353">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>282</v>
+      </c>
+      <c r="B354" s="12">
+        <v>38503</v>
+      </c>
+      <c r="C354">
+        <v>408.05</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>282</v>
+      </c>
+      <c r="B355" s="12">
+        <v>38508</v>
+      </c>
+      <c r="C355">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" s="12">
+        <v>38514</v>
+      </c>
+      <c r="C356">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>282</v>
+      </c>
+      <c r="B357" s="12">
+        <v>38510</v>
+      </c>
+      <c r="C357">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>282</v>
+      </c>
+      <c r="B358" s="12">
+        <v>38520</v>
+      </c>
+      <c r="C358">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>282</v>
+      </c>
+      <c r="B359" s="12">
+        <v>38525</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12120" windowHeight="6456" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12024" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="295">
   <si>
     <t>SimulationName</t>
   </si>
@@ -872,6 +872,42 @@
   <si>
     <t>Yucheng2004</t>
   </si>
+  <si>
+    <t>RainShelterIrrigControl</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigHalf</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSpringD1</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSpringD2</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSpringD3</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSpringD4</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSummerD1</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSummerD2</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSummerD3</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSummerD4</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigSummerD5</t>
+  </si>
+  <si>
+    <t>RainShelterIrrigNil</t>
+  </si>
 </sst>
 </file>
 
@@ -1409,23 +1445,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="134104960"/>
-        <c:axId val="134106496"/>
+        <c:axId val="70469888"/>
+        <c:axId val="114243072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134104960"/>
+        <c:axId val="70469888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134106496"/>
+        <c:crossAx val="114243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134106496"/>
+        <c:axId val="114243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1469,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134104960"/>
+        <c:crossAx val="70469888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,7 +1481,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1771,17 +1807,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE231"/>
+  <dimension ref="A1:AE471"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="11280" ySplit="708" topLeftCell="F462" activePane="bottomLeft"/>
+      <selection activeCell="B443" sqref="B443"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D460" sqref="D460:D471"/>
+      <selection pane="bottomRight" activeCell="G460" sqref="G460:G471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
@@ -13863,6 +13903,2832 @@
         <v>37.9</v>
       </c>
     </row>
+    <row r="232" spans="1:31">
+      <c r="A232" t="s">
+        <v>193</v>
+      </c>
+      <c r="B232" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E232" s="7">
+        <v>259.60892857142858</v>
+      </c>
+      <c r="G232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31">
+      <c r="A233" t="s">
+        <v>193</v>
+      </c>
+      <c r="B233" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E233" s="7">
+        <v>649.67857142857144</v>
+      </c>
+      <c r="G233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31">
+      <c r="A234" t="s">
+        <v>193</v>
+      </c>
+      <c r="B234" s="6">
+        <v>41569</v>
+      </c>
+      <c r="E234" s="7">
+        <v>1402.8307463434955</v>
+      </c>
+      <c r="G234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31">
+      <c r="A235" t="s">
+        <v>193</v>
+      </c>
+      <c r="B235" s="6">
+        <v>41582</v>
+      </c>
+      <c r="E235" s="7">
+        <v>1751.3349013553025</v>
+      </c>
+      <c r="G235" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31">
+      <c r="A236" t="s">
+        <v>193</v>
+      </c>
+      <c r="B236" s="6">
+        <v>41596</v>
+      </c>
+      <c r="E236" s="7">
+        <v>1887.00612321624</v>
+      </c>
+      <c r="G236" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31">
+      <c r="A237" t="s">
+        <v>193</v>
+      </c>
+      <c r="B237" s="6">
+        <v>41610</v>
+      </c>
+      <c r="E237" s="7">
+        <v>2249.0845984679604</v>
+      </c>
+      <c r="G237" s="7">
+        <v>75.125780348288274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31">
+      <c r="A238" t="s">
+        <v>193</v>
+      </c>
+      <c r="B238" s="6">
+        <v>41625</v>
+      </c>
+      <c r="E238" s="7">
+        <v>2993.4587204772688</v>
+      </c>
+      <c r="G238" s="7">
+        <v>674.19936772259132</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31">
+      <c r="A239" t="s">
+        <v>193</v>
+      </c>
+      <c r="B239" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C239" s="1">
+        <v>90</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E239" s="7">
+        <v>2625.4943707521256</v>
+      </c>
+      <c r="G239" s="7">
+        <v>885.4530850000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31">
+      <c r="A240" t="s">
+        <v>194</v>
+      </c>
+      <c r="B240" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E240" s="7">
+        <v>226.8970238095238</v>
+      </c>
+      <c r="G240" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>194</v>
+      </c>
+      <c r="B241" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E241" s="7">
+        <v>624.35714285714289</v>
+      </c>
+      <c r="G241" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>194</v>
+      </c>
+      <c r="B242" s="6">
+        <v>41569</v>
+      </c>
+      <c r="E242" s="7">
+        <v>1362.8234278234299</v>
+      </c>
+      <c r="G242" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>194</v>
+      </c>
+      <c r="B243" s="6">
+        <v>41582</v>
+      </c>
+      <c r="E243" s="7">
+        <v>1620.5776179914026</v>
+      </c>
+      <c r="G243" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>194</v>
+      </c>
+      <c r="B244" s="6">
+        <v>41596</v>
+      </c>
+      <c r="E244" s="7">
+        <v>1948.067399882359</v>
+      </c>
+      <c r="G244" s="7">
+        <v>13.980240013994239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>194</v>
+      </c>
+      <c r="B245" s="6">
+        <v>41610</v>
+      </c>
+      <c r="E245" s="7">
+        <v>2109.728760647753</v>
+      </c>
+      <c r="G245" s="7">
+        <v>190.56940146327679</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>194</v>
+      </c>
+      <c r="B246" s="6">
+        <v>41625</v>
+      </c>
+      <c r="E246" s="7">
+        <v>2370.9786599317072</v>
+      </c>
+      <c r="G246" s="7">
+        <v>590.5571996210947</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>194</v>
+      </c>
+      <c r="B247" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C247" s="1">
+        <v>90</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E247" s="7">
+        <v>2121.6746017489827</v>
+      </c>
+      <c r="G247" s="7">
+        <v>682.3106949999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>195</v>
+      </c>
+      <c r="B248" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E248" s="7">
+        <v>249.91249999999994</v>
+      </c>
+      <c r="G248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>195</v>
+      </c>
+      <c r="B249" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E249" s="7">
+        <v>627.47023809523807</v>
+      </c>
+      <c r="G249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>195</v>
+      </c>
+      <c r="B250" s="6">
+        <v>41569</v>
+      </c>
+      <c r="E250" s="7">
+        <v>1264.469068519624</v>
+      </c>
+      <c r="G250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>195</v>
+      </c>
+      <c r="B251" s="6">
+        <v>41582</v>
+      </c>
+      <c r="E251" s="7">
+        <v>1697.7749033869459</v>
+      </c>
+      <c r="G251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>195</v>
+      </c>
+      <c r="B252" s="6">
+        <v>41596</v>
+      </c>
+      <c r="E252" s="7">
+        <v>1996.7879625524304</v>
+      </c>
+      <c r="G252" s="7">
+        <v>11.153680586309871</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>195</v>
+      </c>
+      <c r="B253" s="6">
+        <v>41610</v>
+      </c>
+      <c r="E253" s="7">
+        <v>2130.6560161990783</v>
+      </c>
+      <c r="G253" s="7">
+        <v>168.78927445061521</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>195</v>
+      </c>
+      <c r="B254" s="6">
+        <v>41625</v>
+      </c>
+      <c r="E254" s="7">
+        <v>2922.3662748673055</v>
+      </c>
+      <c r="G254" s="7">
+        <v>789.0796191460812</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>195</v>
+      </c>
+      <c r="B255" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C255" s="1">
+        <v>90</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E255" s="7">
+        <v>2408.9480068087651</v>
+      </c>
+      <c r="G255" s="7">
+        <v>939.17181999999991</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>196</v>
+      </c>
+      <c r="B256" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E256" s="7">
+        <v>234.35535714285714</v>
+      </c>
+      <c r="G256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>196</v>
+      </c>
+      <c r="B257" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E257" s="7">
+        <v>609.67261904761904</v>
+      </c>
+      <c r="G257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>196</v>
+      </c>
+      <c r="B258" s="6">
+        <v>41569</v>
+      </c>
+      <c r="E258" s="7">
+        <v>1221.1821011129721</v>
+      </c>
+      <c r="G258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>196</v>
+      </c>
+      <c r="B259" s="6">
+        <v>41582</v>
+      </c>
+      <c r="E259" s="7">
+        <v>1741.3625136754131</v>
+      </c>
+      <c r="G259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>196</v>
+      </c>
+      <c r="B260" s="6">
+        <v>41596</v>
+      </c>
+      <c r="E260" s="7">
+        <v>2123.5220807464707</v>
+      </c>
+      <c r="G260" s="7">
+        <v>19.173452652310573</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>196</v>
+      </c>
+      <c r="B261" s="6">
+        <v>41610</v>
+      </c>
+      <c r="E261" s="7">
+        <v>2263.3544949769112</v>
+      </c>
+      <c r="G261" s="7">
+        <v>190.79860792638289</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>196</v>
+      </c>
+      <c r="B262" s="6">
+        <v>41625</v>
+      </c>
+      <c r="E262" s="7">
+        <v>2799.2876533741037</v>
+      </c>
+      <c r="G262" s="7">
+        <v>793.51438215060045</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>196</v>
+      </c>
+      <c r="B263" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C263" s="1">
+        <v>90</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E263" s="7">
+        <v>2468.3094723972449</v>
+      </c>
+      <c r="G263" s="7">
+        <v>954.44929750000006</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>197</v>
+      </c>
+      <c r="B264" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E264" s="7">
+        <v>265.64404761904763</v>
+      </c>
+      <c r="G264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>197</v>
+      </c>
+      <c r="B265" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E265" s="7">
+        <v>675.00595238095241</v>
+      </c>
+      <c r="G265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>197</v>
+      </c>
+      <c r="B266" s="6">
+        <v>41569</v>
+      </c>
+      <c r="E266" s="7">
+        <v>1297.9274261316932</v>
+      </c>
+      <c r="G266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>197</v>
+      </c>
+      <c r="B267" s="6">
+        <v>41582</v>
+      </c>
+      <c r="E267" s="7">
+        <v>1793.2180091010782</v>
+      </c>
+      <c r="G267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>197</v>
+      </c>
+      <c r="B268" s="6">
+        <v>41596</v>
+      </c>
+      <c r="E268" s="7">
+        <v>2003.9743996700238</v>
+      </c>
+      <c r="G268" s="7">
+        <v>3.4552826398587286</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269" s="6">
+        <v>41610</v>
+      </c>
+      <c r="E269" s="7">
+        <v>2222.9738840553596</v>
+      </c>
+      <c r="G269" s="7">
+        <v>147.75605742630131</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>197</v>
+      </c>
+      <c r="B270" s="6">
+        <v>41625</v>
+      </c>
+      <c r="E270" s="7">
+        <v>2842.3258907459699</v>
+      </c>
+      <c r="G270" s="7">
+        <v>750.80083243980357</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>197</v>
+      </c>
+      <c r="B271" s="6">
+        <v>41664</v>
+      </c>
+      <c r="C271" s="1">
+        <v>90</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E271" s="7">
+        <v>2474.0820469697851</v>
+      </c>
+      <c r="G271" s="7">
+        <v>861.81991500000004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>198</v>
+      </c>
+      <c r="B272" s="6">
+        <v>41459</v>
+      </c>
+      <c r="E272" s="7">
+        <v>244.48333333333335</v>
+      </c>
+      <c r="G272" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>198</v>
+      </c>
+      <c r="B273" s="6">
+        <v>41520</v>
+      </c>
+      <c r="E273" s="7">
+        <v>608.39285714285711</v>
+      </c>
+      <c r="G273" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>198</v>
+      </c>
+      <c r="B274" s="12">
+        <v>41569</v>
+      </c>
+      <c r="E274">
+        <v>1466.2124007666825</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>198</v>
+      </c>
+      <c r="B275" s="12">
+        <v>41582</v>
+      </c>
+      <c r="E275">
+        <v>1781.801942144639</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>198</v>
+      </c>
+      <c r="B276" s="12">
+        <v>41596</v>
+      </c>
+      <c r="E276">
+        <v>2089.064179160293</v>
+      </c>
+      <c r="G276">
+        <v>0.28549387128289255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>198</v>
+      </c>
+      <c r="B277" s="12">
+        <v>41610</v>
+      </c>
+      <c r="E277">
+        <v>2427.434594961032</v>
+      </c>
+      <c r="G277">
+        <v>154.97552617836226</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>198</v>
+      </c>
+      <c r="B278" s="12">
+        <v>41625</v>
+      </c>
+      <c r="E278">
+        <v>2932.0284623086782</v>
+      </c>
+      <c r="G278">
+        <v>675.26504150544918</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>198</v>
+      </c>
+      <c r="B279" s="12">
+        <v>41664</v>
+      </c>
+      <c r="C279" s="1">
+        <v>90</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E279">
+        <v>2619.6985123527334</v>
+      </c>
+      <c r="G279">
+        <v>904.03921750000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E280">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E281">
+        <v>263.75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E282">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E283">
+        <v>216.98</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E284">
+        <v>231.05</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E285">
+        <v>249.6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E286">
+        <v>230.43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E287">
+        <v>202.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E288">
+        <v>182.98</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E289">
+        <v>250.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E290">
+        <v>187.53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" s="12">
+        <v>33505</v>
+      </c>
+      <c r="E291">
+        <v>164.83</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B292" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E292">
+        <v>419.2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B293" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E293">
+        <v>450.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B294" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E294">
+        <v>372.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B295" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E295">
+        <v>497.48</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B296" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E296">
+        <v>516.85</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B297" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E297">
+        <v>467.08</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B298" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E298">
+        <v>457.68</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B299" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E299">
+        <v>401.83</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B300" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E300">
+        <v>414.43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B301" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E301">
+        <v>438.08</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B302" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E302">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B303" s="12">
+        <v>33521</v>
+      </c>
+      <c r="E303">
+        <v>395.75</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B304" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E304">
+        <v>589.63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B305" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E305">
+        <v>735.55</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B306" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E306">
+        <v>618.48</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B307" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E307">
+        <v>781.45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B308" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E308">
+        <v>814.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B309" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E309">
+        <v>679.58</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B310" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E310">
+        <v>623.20000000000005</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B311" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E311">
+        <v>771.53</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B312" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E312">
+        <v>682.15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B313" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E313">
+        <v>573.20000000000005</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B314" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E314">
+        <v>676.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B315" s="12">
+        <v>33533</v>
+      </c>
+      <c r="E315">
+        <v>569.78</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B316" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E316">
+        <v>963.05</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B317" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E317">
+        <v>1057.8800000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B318" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E318">
+        <v>862.88</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B319" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E319">
+        <v>845.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B320" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E320">
+        <v>1106.95</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B321" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E321">
+        <v>887.9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B322" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E322">
+        <v>750.13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B323" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E323">
+        <v>1092.8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B324" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E324">
+        <v>824.58</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B325" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E325">
+        <v>874.25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B326" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E326">
+        <v>1088.4000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B327" s="12">
+        <v>33547</v>
+      </c>
+      <c r="E327">
+        <v>818.53</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B328" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E328">
+        <v>1307.08</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B329" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E329">
+        <v>1591.55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B330" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E330">
+        <v>1501.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B331" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E331">
+        <v>1520.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B332" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E332">
+        <v>1228.05</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B333" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E333">
+        <v>1151.83</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B334" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E334">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B335" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E335">
+        <v>1508.83</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B336" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E336">
+        <v>1647.48</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B337" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E337">
+        <v>1575.03</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B338" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E338">
+        <v>1266.18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B339" s="12">
+        <v>33561</v>
+      </c>
+      <c r="E339">
+        <v>1024.25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B340" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E340">
+        <v>1501.28</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B341" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E341">
+        <v>1047.23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B342" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E342">
+        <v>1662.8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B343" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E343">
+        <v>1418.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B344" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E344">
+        <v>1706.63</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B345" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E345">
+        <v>1281.5999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B346" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E346">
+        <v>1341.55</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B347" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E347">
+        <v>1483.85</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B348" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E348">
+        <v>1689.18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B349" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E349">
+        <v>1622.85</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B350" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E350">
+        <v>1751.78</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B351" s="12">
+        <v>33568</v>
+      </c>
+      <c r="E351">
+        <v>1055.43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B352" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E352">
+        <v>1751.78</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B353" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E353">
+        <v>1591.6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B354" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E354">
+        <v>1647.38</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B355" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E355">
+        <v>2095.0300000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B356" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E356">
+        <v>1282.25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B357" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E357">
+        <v>1377.55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B358" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E358">
+        <v>1476.58</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B359" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E359">
+        <v>1662.78</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B360" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E360">
+        <v>1701.48</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B361" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E361">
+        <v>2028.48</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B362" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E362">
+        <v>1984.3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B363" s="12">
+        <v>33574</v>
+      </c>
+      <c r="E363">
+        <v>1266.68</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B364" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E364">
+        <v>2299.75</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B365" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E365">
+        <v>2155.3000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B366" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E366">
+        <v>2025.98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B367" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E367">
+        <v>1881.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B368" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E368">
+        <v>1769.48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B369" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E369">
+        <v>1525.78</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B370" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E370">
+        <v>1651.03</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B371" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E371">
+        <v>2105.9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B372" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E372">
+        <v>2266.4299999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B373" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E373">
+        <v>2044.33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B374" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E374">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B375" s="12">
+        <v>33581</v>
+      </c>
+      <c r="E375">
+        <v>1387.15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B376" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E376">
+        <v>2326.25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B377" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E377">
+        <v>2204.6999999999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B378" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E378">
+        <v>1656.98</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B379" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E379">
+        <v>2187.5500000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B380" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E380">
+        <v>1650.3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B381" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E381">
+        <v>1350.48</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B382" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E382">
+        <v>1632.25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B383" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E383">
+        <v>2091.73</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B384" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E384">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B385" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E385">
+        <v>1968.43</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B386" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E386">
+        <v>2301.6799999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B387" s="12">
+        <v>33585</v>
+      </c>
+      <c r="E387">
+        <v>1231.43</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B388" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E388">
+        <v>2224.7800000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B389" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E389">
+        <v>1912.63</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B390" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E390">
+        <v>2054.35</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B391" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E391">
+        <v>2122.0500000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B392" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E392">
+        <v>1663.3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B393" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E393">
+        <v>1502.85</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B394" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E394">
+        <v>1452.43</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B395" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E395">
+        <v>1681.98</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B396" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E396">
+        <v>1863.68</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B397" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E397">
+        <v>2257.63</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B398" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E398">
+        <v>2140.4499999999998</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B399" s="12">
+        <v>33590</v>
+      </c>
+      <c r="E399">
+        <v>1455.98</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B400" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E400">
+        <v>2313.6999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B401" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E401">
+        <v>2238.63</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B402" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E402">
+        <v>2337.1999999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B403" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E403">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B404" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E404">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B405" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E405">
+        <v>1362.03</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B406" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E406">
+        <v>1698.15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B407" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E407">
+        <v>2075.23</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B408" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E408">
+        <v>1831.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B409" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E409">
+        <v>1932.68</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B410" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E410">
+        <v>2174.83</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B411" s="12">
+        <v>33595</v>
+      </c>
+      <c r="E411">
+        <v>1439.9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B412" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E412">
+        <v>2315.5500000000002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B413" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E413">
+        <v>2452.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B414" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E414">
+        <v>2457.38</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B415" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E415">
+        <v>1634.63</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B416" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E416">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B417" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E417">
+        <v>1880.6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B418" s="12">
+        <v>33602</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B419" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E419">
+        <v>1831.08</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B420" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E420">
+        <v>2186.3000000000002</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B421" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E421">
+        <v>2030.43</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B422" s="12">
+        <v>33602</v>
+      </c>
+      <c r="E422">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B423" s="12">
+        <v>33602</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B424" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E424">
+        <v>2595.6999999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B425" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E425">
+        <v>2308.2800000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B426" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E426">
+        <v>2505.4499999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B427" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E427">
+        <v>1955.8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B428" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E428">
+        <v>1854.05</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B429" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E429">
+        <v>2191.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B430" s="12">
+        <v>33609</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B431" s="12">
+        <v>33609</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B432" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E432">
+        <v>2068.9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B433" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E433">
+        <v>1944.28</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B434" s="12">
+        <v>33609</v>
+      </c>
+      <c r="E434">
+        <v>2391.83</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B435" s="12">
+        <v>33609</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B436" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E436">
+        <v>2526.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B437" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E437">
+        <v>2427.6799999999998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B438" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E438">
+        <v>2200.08</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B439" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E439">
+        <v>2316.58</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B440" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E440">
+        <v>1700.28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B441" s="12">
+        <v>33613</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B442" s="12">
+        <v>33613</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B443" s="12">
+        <v>33613</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B444" s="12">
+        <v>33613</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B445" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E445">
+        <v>2344.8000000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B446" s="12">
+        <v>33613</v>
+      </c>
+      <c r="E446">
+        <v>2747.95</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B447" s="12">
+        <v>33613</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B448" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B449" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B450" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B451" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B452" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B453" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B454" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B455" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B456" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B457" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B458" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B459" s="12">
+        <v>33618</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B460" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C460">
+        <v>90</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G460">
+        <v>778.47</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B461" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C461">
+        <v>90</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G461">
+        <v>752.04</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B462" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C462">
+        <v>90</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G462">
+        <v>875.14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B463" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C463">
+        <v>90</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G463">
+        <v>799.72</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B464" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C464">
+        <v>90</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G464">
+        <v>547.62</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B465" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C465">
+        <v>90</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G465">
+        <v>502.62</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B466" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C466">
+        <v>90</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G466">
+        <v>521.15</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B467" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C467">
+        <v>90</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G467">
+        <v>583.44000000000005</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B468" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C468">
+        <v>90</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G468">
+        <v>713.96</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B469" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C469">
+        <v>90</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G469">
+        <v>846.94</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B470" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C470">
+        <v>90</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G470">
+        <v>791.54</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B471" s="12">
+        <v>33623</v>
+      </c>
+      <c r="C471">
+        <v>90</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G471">
+        <v>324.31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:AD253">
     <sortCondition ref="A3:A253"/>
@@ -13877,9 +16743,11 @@
   <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A142" activePane="bottomLeft"/>
+      <pane xSplit="4356" ySplit="576" topLeftCell="I1" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I2:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27220,7 +30088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="864" activePane="bottomLeft"/>
       <selection activeCell="M2" sqref="M2"/>
       <selection pane="bottomLeft"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="12" windowWidth="12024" windowHeight="5844"/>
+    <workbookView xWindow="192" yWindow="12" windowWidth="12024" windowHeight="5844" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="295">
   <si>
     <t>SimulationName</t>
   </si>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1037,6 +1037,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,23 +1455,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="157716864"/>
-        <c:axId val="157718400"/>
+        <c:axId val="123769600"/>
+        <c:axId val="123771136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157716864"/>
+        <c:axId val="123769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157718400"/>
+        <c:crossAx val="123771136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157718400"/>
+        <c:axId val="123771136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1479,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157716864"/>
+        <c:crossAx val="123769600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1490,7 +1491,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1818,11 +1819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11280" ySplit="708" topLeftCell="AC24" activePane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11280" ySplit="708" topLeftCell="AC222" activePane="bottomLeft"/>
       <selection activeCell="B443" sqref="B443"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
       <selection pane="bottomRight" activeCell="AC26" sqref="AC26:AC37"/>
     </sheetView>
   </sheetViews>
@@ -20597,12 +20598,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F395"/>
+  <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="576" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4212" ySplit="576" topLeftCell="D369" activePane="bottomRight"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B384" sqref="B384"/>
+      <selection pane="bottomRight" activeCell="E380" sqref="E380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25349,42 +25352,35 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>264</v>
-      </c>
-      <c r="B379" s="13">
-        <v>33483</v>
-      </c>
-      <c r="C379">
-        <v>5.9285714285714288</v>
-      </c>
-      <c r="D379">
-        <v>4.2142857142857144</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B379" s="12">
+        <v>33529</v>
+      </c>
+      <c r="C379" s="22"/>
       <c r="E379">
-        <v>2</v>
-      </c>
-      <c r="F379">
-        <v>5.6</v>
+        <f>D378</f>
+        <v>11.666666666666666</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>264</v>
       </c>
-      <c r="B380" s="14">
-        <v>33507</v>
+      <c r="B380" s="13">
+        <v>33483</v>
       </c>
       <c r="C380">
-        <v>10</v>
+        <v>5.9285714285714288</v>
       </c>
       <c r="D380">
-        <v>9</v>
+        <v>4.2142857142857144</v>
       </c>
       <c r="E380">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F380">
-        <v>11.166666666666666</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -25392,61 +25388,71 @@
         <v>264</v>
       </c>
       <c r="B381" s="14">
-        <v>33518</v>
+        <v>33507</v>
       </c>
       <c r="C381">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D381">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E381">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F381">
-        <v>11.2</v>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>264</v>
       </c>
-      <c r="B382" s="15">
-        <v>33541</v>
+      <c r="B382" s="14">
+        <v>33518</v>
       </c>
       <c r="C382">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="D382">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E382">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="F382">
-        <v>5.8888888888888893</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>268</v>
-      </c>
-      <c r="B383" s="12">
-        <v>40745</v>
+        <v>264</v>
+      </c>
+      <c r="B383" s="15">
+        <v>33541</v>
       </c>
       <c r="C383">
-        <v>4.1666666670000003</v>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D383">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E383">
+        <v>7.3</v>
+      </c>
+      <c r="F383">
+        <v>5.8888888888888893</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B384" s="12">
-        <v>40752</v>
-      </c>
-      <c r="C384">
-        <v>5.4249999999999998</v>
+        <v>33554</v>
+      </c>
+      <c r="E384">
+        <f>D383</f>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -25454,10 +25460,10 @@
         <v>268</v>
       </c>
       <c r="B385" s="12">
-        <v>40756</v>
+        <v>40745</v>
       </c>
       <c r="C385">
-        <v>5.9083333329999999</v>
+        <v>4.1666666670000003</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -25465,10 +25471,10 @@
         <v>268</v>
       </c>
       <c r="B386" s="12">
-        <v>40764</v>
+        <v>40752</v>
       </c>
       <c r="C386">
-        <v>6.5416666670000003</v>
+        <v>5.4249999999999998</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -25476,10 +25482,10 @@
         <v>268</v>
       </c>
       <c r="B387" s="12">
-        <v>40788</v>
+        <v>40756</v>
       </c>
       <c r="C387">
-        <v>9.75</v>
+        <v>5.9083333329999999</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -25487,29 +25493,29 @@
         <v>268</v>
       </c>
       <c r="B388" s="12">
-        <v>40851</v>
+        <v>40764</v>
+      </c>
+      <c r="C388">
+        <v>6.5416666670000003</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B389" s="12">
-        <v>40745</v>
+        <v>40788</v>
       </c>
       <c r="C389">
-        <v>4.1666666670000003</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B390" s="12">
-        <v>40752</v>
-      </c>
-      <c r="C390">
-        <v>5.2833333329999999</v>
+        <v>40851</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -25517,10 +25523,10 @@
         <v>269</v>
       </c>
       <c r="B391" s="12">
-        <v>40756</v>
+        <v>40745</v>
       </c>
       <c r="C391">
-        <v>5.8416666670000001</v>
+        <v>4.1666666670000003</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -25528,10 +25534,10 @@
         <v>269</v>
       </c>
       <c r="B392" s="12">
-        <v>40764</v>
+        <v>40752</v>
       </c>
       <c r="C392">
-        <v>6.7916666670000003</v>
+        <v>5.2833333329999999</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -25539,10 +25545,10 @@
         <v>269</v>
       </c>
       <c r="B393" s="12">
-        <v>40788</v>
+        <v>40756</v>
       </c>
       <c r="C393">
-        <v>10</v>
+        <v>5.8416666670000001</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -25550,11 +25556,33 @@
         <v>269</v>
       </c>
       <c r="B394" s="12">
+        <v>40764</v>
+      </c>
+      <c r="C394">
+        <v>6.7916666670000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>269</v>
+      </c>
+      <c r="B395" s="12">
+        <v>40788</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>269</v>
+      </c>
+      <c r="B396" s="12">
         <v>40851</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="B395" s="12"/>
+    <row r="397" spans="1:3">
+      <c r="B397" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ApsimX\Prototypes\Wheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="12" windowWidth="12120" windowHeight="6456" activeTab="2"/>
+    <workbookView xWindow="1152" yWindow="12" windowWidth="12120" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="286">
   <si>
     <t>SimulationName</t>
   </si>
@@ -862,14 +862,39 @@
   <si>
     <t>Wheat.AboveGround.N</t>
   </si>
+  <si>
+    <t>Wagga2013CvGregoryWaterWet</t>
+  </si>
+  <si>
+    <t>Wagga2013CvLivingstonWaterWet</t>
+  </si>
+  <si>
+    <t>Wagga2013CvGregoryWaterDry</t>
+  </si>
+  <si>
+    <t>Wagga2013CvLivingstonWaterDry</t>
+  </si>
+  <si>
+    <t>Wagga2014CvGregoryWaterWet</t>
+  </si>
+  <si>
+    <t>Wagga2014CvLivingstonWaterWet</t>
+  </si>
+  <si>
+    <t>Wagga2014CvGregoryWaterDry</t>
+  </si>
+  <si>
+    <t>Wagga2014CvLivingstonWaterDry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -946,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -982,6 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,11 +1456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165452192"/>
-        <c:axId val="216044256"/>
+        <c:axId val="216251968"/>
+        <c:axId val="206452200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165452192"/>
+        <c:axId val="216251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,12 +1470,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216044256"/>
+        <c:crossAx val="206452200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216044256"/>
+        <c:axId val="206452200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165452192"/>
+        <c:crossAx val="216251968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1803,9 +1829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE231"/>
+  <dimension ref="A1:AE239"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9012" ySplit="576" topLeftCell="A214" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236:A239"/>
+      <selection pane="bottomRight" activeCell="D231" sqref="D231:D239"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13891,6 +13923,222 @@
       </c>
       <c r="AC231">
         <v>37.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>278</v>
+      </c>
+      <c r="C232" s="1">
+        <v>90</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E232">
+        <v>994</v>
+      </c>
+      <c r="G232">
+        <v>365</v>
+      </c>
+      <c r="AB232">
+        <v>9746</v>
+      </c>
+      <c r="AC232" s="21">
+        <f>G232/AB232*1000</f>
+        <v>37.451262056228195</v>
+      </c>
+      <c r="AD232">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>279</v>
+      </c>
+      <c r="C233" s="1">
+        <v>90</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E233">
+        <v>787</v>
+      </c>
+      <c r="G233">
+        <v>300</v>
+      </c>
+      <c r="AB233">
+        <v>8755</v>
+      </c>
+      <c r="AC233" s="21">
+        <f t="shared" ref="AC233:AC239" si="0">G233/AB233*1000</f>
+        <v>34.266133637921186</v>
+      </c>
+      <c r="AD233">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>280</v>
+      </c>
+      <c r="C234" s="1">
+        <v>90</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E234">
+        <v>554</v>
+      </c>
+      <c r="G234">
+        <v>163</v>
+      </c>
+      <c r="AB234">
+        <v>6773</v>
+      </c>
+      <c r="AC234" s="21">
+        <f t="shared" si="0"/>
+        <v>24.066144987450173</v>
+      </c>
+      <c r="AD234">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>281</v>
+      </c>
+      <c r="C235" s="1">
+        <v>90</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E235">
+        <v>610</v>
+      </c>
+      <c r="G235">
+        <v>199</v>
+      </c>
+      <c r="AB235">
+        <v>7325</v>
+      </c>
+      <c r="AC235" s="21">
+        <f t="shared" si="0"/>
+        <v>27.167235494880547</v>
+      </c>
+      <c r="AD235">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>282</v>
+      </c>
+      <c r="C236" s="1">
+        <v>90</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E236">
+        <v>1784</v>
+      </c>
+      <c r="G236">
+        <v>601</v>
+      </c>
+      <c r="AB236">
+        <v>15060</v>
+      </c>
+      <c r="AC236" s="21">
+        <f t="shared" si="0"/>
+        <v>39.907038512616204</v>
+      </c>
+      <c r="AD236">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>283</v>
+      </c>
+      <c r="C237" s="1">
+        <v>90</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E237">
+        <v>1408</v>
+      </c>
+      <c r="G237">
+        <v>453</v>
+      </c>
+      <c r="AB237">
+        <v>12180</v>
+      </c>
+      <c r="AC237" s="21">
+        <f t="shared" si="0"/>
+        <v>37.192118226600982</v>
+      </c>
+      <c r="AD237">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C238" s="1">
+        <v>90</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E238">
+        <v>1437</v>
+      </c>
+      <c r="G238">
+        <v>468</v>
+      </c>
+      <c r="AB238">
+        <v>13530</v>
+      </c>
+      <c r="AC238" s="21">
+        <f t="shared" si="0"/>
+        <v>34.589800443458984</v>
+      </c>
+      <c r="AD238">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>285</v>
+      </c>
+      <c r="C239" s="1">
+        <v>90</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E239">
+        <v>1392</v>
+      </c>
+      <c r="G239">
+        <v>421</v>
+      </c>
+      <c r="AB239">
+        <v>11830</v>
+      </c>
+      <c r="AC239" s="21">
+        <f t="shared" si="0"/>
+        <v>35.587489433643277</v>
+      </c>
+      <c r="AD239">
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
@@ -16860,15 +17108,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A367" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395:A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="330">
   <si>
     <t>SimulationName</t>
   </si>
@@ -886,6 +886,138 @@
   <si>
     <t>Wagga2014CvLivingstonWaterDry</t>
   </si>
+  <si>
+    <t>Konya09WaterAAA</t>
+  </si>
+  <si>
+    <t>Konya09WaterBAA</t>
+  </si>
+  <si>
+    <t>Konya09WaterCAA</t>
+  </si>
+  <si>
+    <t>Konya09WaterDAA</t>
+  </si>
+  <si>
+    <t>Konya09WaterABA</t>
+  </si>
+  <si>
+    <t>Konya09WaterACA</t>
+  </si>
+  <si>
+    <t>Konya09WaterADA</t>
+  </si>
+  <si>
+    <t>Konya09WaterAAB</t>
+  </si>
+  <si>
+    <t>Konya09WaterAAC</t>
+  </si>
+  <si>
+    <t>Konya09WaterAAD</t>
+  </si>
+  <si>
+    <t>Konya09WaterABB</t>
+  </si>
+  <si>
+    <t>Konya09WaterACC</t>
+  </si>
+  <si>
+    <t>Konya09WaterADD</t>
+  </si>
+  <si>
+    <t>Konya09WaterBAB</t>
+  </si>
+  <si>
+    <t>Konya09WaterCAC</t>
+  </si>
+  <si>
+    <t>Konya09WaterDAD</t>
+  </si>
+  <si>
+    <t>Konya09WaterBBA</t>
+  </si>
+  <si>
+    <t>Konya09WaterCCA</t>
+  </si>
+  <si>
+    <t>Konya09WaterDDA</t>
+  </si>
+  <si>
+    <t>Konya09WaterBBB</t>
+  </si>
+  <si>
+    <t>Konya09WaterCCC</t>
+  </si>
+  <si>
+    <t>Konya09WaterDDD</t>
+  </si>
+  <si>
+    <t>Konya11WaterBAA</t>
+  </si>
+  <si>
+    <t>Konya11WaterCAA</t>
+  </si>
+  <si>
+    <t>Konya11WaterDAA</t>
+  </si>
+  <si>
+    <t>Konya11WaterABA</t>
+  </si>
+  <si>
+    <t>Konya11WaterACA</t>
+  </si>
+  <si>
+    <t>Konya11WaterADA</t>
+  </si>
+  <si>
+    <t>Konya11WaterAAB</t>
+  </si>
+  <si>
+    <t>Konya11WaterAAC</t>
+  </si>
+  <si>
+    <t>Konya11WaterAAD</t>
+  </si>
+  <si>
+    <t>Konya11WaterABB</t>
+  </si>
+  <si>
+    <t>Konya11WaterACC</t>
+  </si>
+  <si>
+    <t>Konya11WaterADD</t>
+  </si>
+  <si>
+    <t>Konya11WaterBAB</t>
+  </si>
+  <si>
+    <t>Konya11WaterCAC</t>
+  </si>
+  <si>
+    <t>Konya11WaterDAD</t>
+  </si>
+  <si>
+    <t>Konya11WaterBBA</t>
+  </si>
+  <si>
+    <t>Konya11WaterCCA</t>
+  </si>
+  <si>
+    <t>Konya11WaterDDA</t>
+  </si>
+  <si>
+    <t>Konya11WaterBBB</t>
+  </si>
+  <si>
+    <t>Konya11WaterCCC</t>
+  </si>
+  <si>
+    <t>Konya11WaterDDD</t>
+  </si>
+  <si>
+    <t>Konya11WaterAAA</t>
+  </si>
 </sst>
 </file>
 
@@ -1456,11 +1588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216251968"/>
-        <c:axId val="206452200"/>
+        <c:axId val="370514216"/>
+        <c:axId val="370514608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216251968"/>
+        <c:axId val="370514216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,12 +1602,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206452200"/>
+        <c:crossAx val="370514608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206452200"/>
+        <c:axId val="370514608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216251968"/>
+        <c:crossAx val="370514216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1829,14 +1961,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE239"/>
+  <dimension ref="A1:AE283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9012" ySplit="576" topLeftCell="A214" activePane="bottomRight"/>
+      <pane xSplit="9012" ySplit="576" topLeftCell="AB157" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A236" sqref="A236:A239"/>
-      <selection pane="bottomRight" activeCell="D231" sqref="D231:D239"/>
+      <selection pane="bottomLeft" activeCell="D261" sqref="C261:D283"/>
+      <selection pane="bottomRight" activeCell="AB157" sqref="AB157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14139,6 +14271,1194 @@
       </c>
       <c r="AD239">
         <v>10.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C240" s="1">
+        <v>90</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E240">
+        <v>2094</v>
+      </c>
+      <c r="G240">
+        <v>682</v>
+      </c>
+      <c r="AB240">
+        <f>G240/AC240*1000</f>
+        <v>17442.455242966753</v>
+      </c>
+      <c r="AC240">
+        <v>39.1</v>
+      </c>
+      <c r="AD240">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C241" s="1">
+        <v>90</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E241">
+        <v>2011</v>
+      </c>
+      <c r="G241">
+        <v>630</v>
+      </c>
+      <c r="AB241">
+        <f t="shared" ref="AB241:AB283" si="1">G241/AC241*1000</f>
+        <v>15750</v>
+      </c>
+      <c r="AC241">
+        <v>40</v>
+      </c>
+      <c r="AD241">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C242" s="1">
+        <v>90</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E242">
+        <v>1926</v>
+      </c>
+      <c r="G242">
+        <v>572</v>
+      </c>
+      <c r="AB242">
+        <f t="shared" si="1"/>
+        <v>14554.707379134861</v>
+      </c>
+      <c r="AC242">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AD242">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C243" s="1">
+        <v>90</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E243">
+        <v>1702</v>
+      </c>
+      <c r="G243">
+        <v>435</v>
+      </c>
+      <c r="AB243">
+        <f t="shared" si="1"/>
+        <v>11096.938775510203</v>
+      </c>
+      <c r="AC243">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AD243">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C244" s="1">
+        <v>90</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E244">
+        <v>1985</v>
+      </c>
+      <c r="G244">
+        <v>627</v>
+      </c>
+      <c r="AB244">
+        <f t="shared" si="1"/>
+        <v>15873.417721518987</v>
+      </c>
+      <c r="AC244">
+        <v>39.5</v>
+      </c>
+      <c r="AD244">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C245" s="1">
+        <v>90</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E245">
+        <v>1759</v>
+      </c>
+      <c r="G245">
+        <v>551</v>
+      </c>
+      <c r="AB245">
+        <f t="shared" si="1"/>
+        <v>14851.752021563343</v>
+      </c>
+      <c r="AC245">
+        <v>37.1</v>
+      </c>
+      <c r="AD245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C246" s="1">
+        <v>90</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E246">
+        <v>1644</v>
+      </c>
+      <c r="G246">
+        <v>441</v>
+      </c>
+      <c r="AB246">
+        <f t="shared" si="1"/>
+        <v>12284.122562674096</v>
+      </c>
+      <c r="AC246">
+        <v>35.9</v>
+      </c>
+      <c r="AD246">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" s="1">
+        <v>90</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E247">
+        <v>2009</v>
+      </c>
+      <c r="G247">
+        <v>667</v>
+      </c>
+      <c r="AB247">
+        <f t="shared" si="1"/>
+        <v>17146.529562982007</v>
+      </c>
+      <c r="AC247">
+        <v>38.9</v>
+      </c>
+      <c r="AD247">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C248" s="1">
+        <v>90</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E248">
+        <v>1934</v>
+      </c>
+      <c r="G248">
+        <v>637</v>
+      </c>
+      <c r="AB248">
+        <f t="shared" si="1"/>
+        <v>15964.912280701756</v>
+      </c>
+      <c r="AC248">
+        <v>39.9</v>
+      </c>
+      <c r="AD248">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C249" s="1">
+        <v>90</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E249">
+        <v>1822</v>
+      </c>
+      <c r="G249">
+        <v>533</v>
+      </c>
+      <c r="AB249">
+        <f t="shared" si="1"/>
+        <v>14175.531914893616</v>
+      </c>
+      <c r="AC249">
+        <v>37.6</v>
+      </c>
+      <c r="AD249">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C250" s="1">
+        <v>90</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E250">
+        <v>1801</v>
+      </c>
+      <c r="G250">
+        <v>564</v>
+      </c>
+      <c r="AB250">
+        <f t="shared" si="1"/>
+        <v>14351.145038167941</v>
+      </c>
+      <c r="AC250">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AD250">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C251" s="1">
+        <v>90</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E251">
+        <v>1759</v>
+      </c>
+      <c r="G251">
+        <v>497</v>
+      </c>
+      <c r="AB251">
+        <f t="shared" si="1"/>
+        <v>12875.647668393782</v>
+      </c>
+      <c r="AC251">
+        <v>38.6</v>
+      </c>
+      <c r="AD251">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C252" s="1">
+        <v>90</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E252">
+        <v>1492</v>
+      </c>
+      <c r="G252">
+        <v>411</v>
+      </c>
+      <c r="AB252">
+        <f t="shared" si="1"/>
+        <v>12492.401215805472</v>
+      </c>
+      <c r="AC252">
+        <v>32.9</v>
+      </c>
+      <c r="AD252">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C253" s="1">
+        <v>90</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E253">
+        <v>1847</v>
+      </c>
+      <c r="G253">
+        <v>602</v>
+      </c>
+      <c r="AB253">
+        <f t="shared" si="1"/>
+        <v>15718.015665796345</v>
+      </c>
+      <c r="AC253">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AD253">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C254" s="1">
+        <v>90</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E254">
+        <v>1649</v>
+      </c>
+      <c r="G254">
+        <v>521</v>
+      </c>
+      <c r="AB254">
+        <f t="shared" si="1"/>
+        <v>13674.540682414698</v>
+      </c>
+      <c r="AC254">
+        <v>38.1</v>
+      </c>
+      <c r="AD254">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C255" s="1">
+        <v>90</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E255">
+        <v>1531</v>
+      </c>
+      <c r="G255">
+        <v>454</v>
+      </c>
+      <c r="AB255">
+        <f t="shared" si="1"/>
+        <v>12270.27027027027</v>
+      </c>
+      <c r="AC255">
+        <v>37</v>
+      </c>
+      <c r="AD255">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C256" s="1">
+        <v>90</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E256">
+        <v>1814</v>
+      </c>
+      <c r="G256">
+        <v>547</v>
+      </c>
+      <c r="AB256">
+        <f t="shared" si="1"/>
+        <v>13954.08163265306</v>
+      </c>
+      <c r="AC256">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AD256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C257" s="1">
+        <v>90</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E257">
+        <v>1731</v>
+      </c>
+      <c r="G257">
+        <v>486</v>
+      </c>
+      <c r="AB257">
+        <f t="shared" si="1"/>
+        <v>12925.531914893616</v>
+      </c>
+      <c r="AC257">
+        <v>37.6</v>
+      </c>
+      <c r="AD257">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C258" s="1">
+        <v>90</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E258">
+        <v>1432</v>
+      </c>
+      <c r="G258">
+        <v>357</v>
+      </c>
+      <c r="AB258">
+        <f t="shared" si="1"/>
+        <v>10347.826086956522</v>
+      </c>
+      <c r="AC258">
+        <v>34.5</v>
+      </c>
+      <c r="AD258">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C259" s="1">
+        <v>90</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E259">
+        <v>1707</v>
+      </c>
+      <c r="G259">
+        <v>530</v>
+      </c>
+      <c r="AB259">
+        <f t="shared" si="1"/>
+        <v>14247.311827956988</v>
+      </c>
+      <c r="AC259">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AD259">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C260" s="1">
+        <v>90</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E260">
+        <v>1589</v>
+      </c>
+      <c r="G260">
+        <v>409</v>
+      </c>
+      <c r="AB260">
+        <f t="shared" si="1"/>
+        <v>10906.666666666666</v>
+      </c>
+      <c r="AC260">
+        <v>37.5</v>
+      </c>
+      <c r="AD260">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C261" s="1">
+        <v>90</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E261">
+        <v>1328</v>
+      </c>
+      <c r="G261">
+        <v>288</v>
+      </c>
+      <c r="AB261">
+        <f t="shared" si="1"/>
+        <v>8495.575221238938</v>
+      </c>
+      <c r="AC261">
+        <v>33.9</v>
+      </c>
+      <c r="AD261">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C262" s="1">
+        <v>90</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E262">
+        <v>1743</v>
+      </c>
+      <c r="G262">
+        <v>647</v>
+      </c>
+      <c r="AB262">
+        <f t="shared" si="1"/>
+        <v>13070.707070707071</v>
+      </c>
+      <c r="AC262">
+        <v>49.5</v>
+      </c>
+      <c r="AD262">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C263" s="1">
+        <v>90</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E263">
+        <v>1761</v>
+      </c>
+      <c r="G263">
+        <v>604</v>
+      </c>
+      <c r="AB263">
+        <f t="shared" si="1"/>
+        <v>11570.88122605364</v>
+      </c>
+      <c r="AC263">
+        <v>52.2</v>
+      </c>
+      <c r="AD263">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C264" s="1">
+        <v>90</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E264">
+        <v>1607</v>
+      </c>
+      <c r="G264">
+        <v>561</v>
+      </c>
+      <c r="AB264">
+        <f t="shared" si="1"/>
+        <v>11175.298804780876</v>
+      </c>
+      <c r="AC264">
+        <v>50.2</v>
+      </c>
+      <c r="AD264">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C265" s="1">
+        <v>90</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E265">
+        <v>1437</v>
+      </c>
+      <c r="G265">
+        <v>467</v>
+      </c>
+      <c r="AB265">
+        <f t="shared" si="1"/>
+        <v>9511.2016293279012</v>
+      </c>
+      <c r="AC265">
+        <v>49.1</v>
+      </c>
+      <c r="AD265">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C266" s="1">
+        <v>90</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E266">
+        <v>1635</v>
+      </c>
+      <c r="G266">
+        <v>595</v>
+      </c>
+      <c r="AB266">
+        <f t="shared" si="1"/>
+        <v>11805.555555555555</v>
+      </c>
+      <c r="AC266">
+        <v>50.4</v>
+      </c>
+      <c r="AD266">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C267" s="1">
+        <v>90</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E267">
+        <v>1538</v>
+      </c>
+      <c r="G267">
+        <v>549</v>
+      </c>
+      <c r="AB267">
+        <f t="shared" si="1"/>
+        <v>11461.377870563676</v>
+      </c>
+      <c r="AC267">
+        <v>47.9</v>
+      </c>
+      <c r="AD267">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" s="1">
+        <v>90</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E268">
+        <v>1474</v>
+      </c>
+      <c r="G268">
+        <v>451</v>
+      </c>
+      <c r="AB268">
+        <f t="shared" si="1"/>
+        <v>10512.820512820514</v>
+      </c>
+      <c r="AC268">
+        <v>42.9</v>
+      </c>
+      <c r="AD268">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C269" s="1">
+        <v>90</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E269">
+        <v>1775</v>
+      </c>
+      <c r="G269">
+        <v>625</v>
+      </c>
+      <c r="AB269">
+        <f t="shared" si="1"/>
+        <v>12351.778656126482</v>
+      </c>
+      <c r="AC269">
+        <v>50.6</v>
+      </c>
+      <c r="AD269">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C270" s="1">
+        <v>90</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E270">
+        <v>1664</v>
+      </c>
+      <c r="G270">
+        <v>589</v>
+      </c>
+      <c r="AB270">
+        <f t="shared" si="1"/>
+        <v>12916.666666666666</v>
+      </c>
+      <c r="AC270">
+        <v>45.6</v>
+      </c>
+      <c r="AD270">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C271" s="1">
+        <v>90</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E271">
+        <v>1547</v>
+      </c>
+      <c r="G271">
+        <v>523</v>
+      </c>
+      <c r="AB271">
+        <f t="shared" si="1"/>
+        <v>11344.902386117135</v>
+      </c>
+      <c r="AC271">
+        <v>46.1</v>
+      </c>
+      <c r="AD271">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C272" s="1">
+        <v>90</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E272">
+        <v>1577</v>
+      </c>
+      <c r="G272">
+        <v>571</v>
+      </c>
+      <c r="AB272">
+        <f t="shared" si="1"/>
+        <v>11558.704453441296</v>
+      </c>
+      <c r="AC272">
+        <v>49.4</v>
+      </c>
+      <c r="AD272">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C273" s="1">
+        <v>90</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E273">
+        <v>1407</v>
+      </c>
+      <c r="G273">
+        <v>522</v>
+      </c>
+      <c r="AB273">
+        <f t="shared" si="1"/>
+        <v>11177.730192719486</v>
+      </c>
+      <c r="AC273">
+        <v>46.7</v>
+      </c>
+      <c r="AD273">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C274" s="1">
+        <v>90</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E274">
+        <v>1241</v>
+      </c>
+      <c r="G274">
+        <v>395</v>
+      </c>
+      <c r="AB274">
+        <f t="shared" si="1"/>
+        <v>10675.675675675675</v>
+      </c>
+      <c r="AC274">
+        <v>37</v>
+      </c>
+      <c r="AD274">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275" s="1">
+        <v>90</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E275">
+        <v>1569</v>
+      </c>
+      <c r="G275">
+        <v>579</v>
+      </c>
+      <c r="AB275">
+        <f t="shared" si="1"/>
+        <v>11744.421906693713</v>
+      </c>
+      <c r="AC275">
+        <v>49.3</v>
+      </c>
+      <c r="AD275">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C276" s="1">
+        <v>90</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E276">
+        <v>1459</v>
+      </c>
+      <c r="G276">
+        <v>537</v>
+      </c>
+      <c r="AB276">
+        <f t="shared" si="1"/>
+        <v>11164.241164241163</v>
+      </c>
+      <c r="AC276">
+        <v>48.1</v>
+      </c>
+      <c r="AD276">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C277" s="1">
+        <v>90</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E277">
+        <v>1256</v>
+      </c>
+      <c r="G277">
+        <v>412</v>
+      </c>
+      <c r="AB277">
+        <f t="shared" si="1"/>
+        <v>9196.4285714285706</v>
+      </c>
+      <c r="AC277">
+        <v>44.8</v>
+      </c>
+      <c r="AD277">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C278" s="1">
+        <v>90</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E278">
+        <v>1528</v>
+      </c>
+      <c r="G278">
+        <v>538</v>
+      </c>
+      <c r="AB278">
+        <f t="shared" si="1"/>
+        <v>10426.356589147286</v>
+      </c>
+      <c r="AC278">
+        <v>51.6</v>
+      </c>
+      <c r="AD278">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C279" s="1">
+        <v>90</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E279">
+        <v>1361</v>
+      </c>
+      <c r="G279">
+        <v>456</v>
+      </c>
+      <c r="AB279">
+        <f t="shared" si="1"/>
+        <v>9978.1181619256004</v>
+      </c>
+      <c r="AC279">
+        <v>45.7</v>
+      </c>
+      <c r="AD279">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C280" s="1">
+        <v>90</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E280">
+        <v>1158</v>
+      </c>
+      <c r="G280">
+        <v>336</v>
+      </c>
+      <c r="AB280">
+        <f t="shared" si="1"/>
+        <v>8337.4689826302729</v>
+      </c>
+      <c r="AC280">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AD280">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C281" s="1">
+        <v>90</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E281">
+        <v>1478</v>
+      </c>
+      <c r="G281">
+        <v>513</v>
+      </c>
+      <c r="AB281">
+        <f t="shared" si="1"/>
+        <v>10078.585461689589</v>
+      </c>
+      <c r="AC281">
+        <v>50.9</v>
+      </c>
+      <c r="AD281">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C282" s="1">
+        <v>90</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E282">
+        <v>1112</v>
+      </c>
+      <c r="G282">
+        <v>407</v>
+      </c>
+      <c r="AB282">
+        <f t="shared" si="1"/>
+        <v>8867.1023965141612</v>
+      </c>
+      <c r="AC282">
+        <v>45.9</v>
+      </c>
+      <c r="AD282">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C283" s="1">
+        <v>90</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E283">
+        <v>1013</v>
+      </c>
+      <c r="G283">
+        <v>243</v>
+      </c>
+      <c r="AB283">
+        <f t="shared" si="1"/>
+        <v>6411.6094986807384</v>
+      </c>
+      <c r="AC283">
+        <v>37.9</v>
+      </c>
+      <c r="AD283">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -20,14 +20,14 @@
     <sheet name="ET" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$2:$AE$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$2:$AH$226</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="333">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1018,6 +1018,15 @@
   <si>
     <t>Konya11WaterAAA</t>
   </si>
+  <si>
+    <t>Wheat.Leaf.Live.Nconc</t>
+  </si>
+  <si>
+    <t>Wheat.Stem.Live.Nconc</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Dead.Nconc</t>
+  </si>
 </sst>
 </file>
 
@@ -2000,14 +2009,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE283"/>
+  <dimension ref="A1:AH283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9015" ySplit="578" topLeftCell="S223" activePane="bottomRight"/>
+      <pane xSplit="7440" ySplit="578" topLeftCell="AB66" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="D261" sqref="C261:D283"/>
-      <selection pane="bottomRight" activeCell="S223" sqref="S223"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+      <selection pane="bottomRight" activeCell="AC66" sqref="AC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2032,18 +2041,18 @@
     <col min="19" max="19" width="25.33203125" customWidth="1"/>
     <col min="20" max="20" width="26.6640625" customWidth="1"/>
     <col min="21" max="21" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.1328125" customWidth="1"/>
-    <col min="23" max="23" width="23.6640625" customWidth="1"/>
-    <col min="24" max="24" width="28.6640625" customWidth="1"/>
-    <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="30.46484375" customWidth="1"/>
-    <col min="27" max="27" width="28.6640625" customWidth="1"/>
-    <col min="28" max="28" width="26.86328125" customWidth="1"/>
-    <col min="29" max="29" width="27.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.46484375" customWidth="1"/>
+    <col min="22" max="23" width="28.1328125" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="26" width="28.6640625" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+    <col min="28" max="29" width="30.46484375" customWidth="1"/>
+    <col min="30" max="30" width="28.6640625" customWidth="1"/>
+    <col min="31" max="31" width="26.86328125" customWidth="1"/>
+    <col min="32" max="32" width="27.33203125" customWidth="1"/>
+    <col min="33" max="33" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2111,34 +2120,43 @@
         <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -2178,8 +2196,11 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -2219,8 +2240,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -2260,8 +2284,11 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2301,8 +2328,11 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -2342,8 +2372,11 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2383,8 +2416,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -2424,8 +2460,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2465,8 +2504,11 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -2506,8 +2548,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -2547,8 +2592,11 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2588,8 +2636,11 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -2629,8 +2680,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2670,8 +2724,11 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -2711,8 +2768,11 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -2752,8 +2812,11 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2793,8 +2856,11 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -2834,8 +2900,11 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2875,8 +2944,11 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -2916,8 +2988,11 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -2957,8 +3032,11 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -2998,8 +3076,11 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -3039,8 +3120,11 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -3080,8 +3164,11 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -3121,8 +3208,11 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -3163,17 +3253,20 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
-        <v>2.02</v>
-      </c>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1">
+      <c r="AD26" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -3214,17 +3307,20 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1">
-        <v>1.72</v>
-      </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1">
+      <c r="AD27" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -3265,17 +3361,20 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1">
-        <v>1.61</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1">
+      <c r="AD28" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -3316,17 +3415,20 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1">
-        <v>2.12</v>
-      </c>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1">
+      <c r="AD29" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -3367,17 +3469,20 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1">
-        <v>1.63</v>
-      </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1">
+      <c r="AD30" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
@@ -3418,17 +3523,20 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1">
-        <v>1.7</v>
-      </c>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1">
+      <c r="AD31" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -3469,17 +3577,20 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1">
-        <v>1.81</v>
-      </c>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1">
+      <c r="AD32" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -3520,17 +3631,20 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1">
-        <v>2.44</v>
-      </c>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1">
+      <c r="AD33" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -3571,17 +3685,20 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1">
-        <v>2.34</v>
-      </c>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1">
+      <c r="AD34" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -3622,17 +3739,20 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1">
-        <v>1.73</v>
-      </c>
+      <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1">
+      <c r="AD35" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -3673,17 +3793,20 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1">
-        <v>1.62</v>
-      </c>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1">
+      <c r="AD36" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -3724,17 +3847,20 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1">
-        <v>1.99</v>
-      </c>
+      <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1">
+      <c r="AD37" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3778,8 +3904,11 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -3823,8 +3952,11 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3868,8 +4000,11 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -3912,19 +4047,22 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1">
         <v>1.5600000000000001E-2</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AE41" s="1">
         <v>3468.9</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AF41" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -3968,8 +4106,11 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
@@ -4013,8 +4154,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
@@ -4058,8 +4202,11 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
@@ -4102,21 +4249,24 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="1">
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1">
         <v>1.93</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AE45" s="1">
         <v>5295.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AF45" s="1">
         <v>38.1</v>
       </c>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1">
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -4160,8 +4310,11 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
@@ -4205,8 +4358,11 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4250,8 +4406,11 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -4294,21 +4453,24 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="1">
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1">
         <v>2.13</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AE49" s="1">
         <v>12634.6</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AF49" s="1">
         <v>38.9</v>
       </c>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1">
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -4352,8 +4514,11 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>36</v>
       </c>
@@ -4397,8 +4562,11 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>36</v>
       </c>
@@ -4442,8 +4610,11 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>36</v>
       </c>
@@ -4486,21 +4657,24 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1">
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1">
         <v>2.17</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AE53" s="1">
         <v>13360.7</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AF53" s="1">
         <v>40.599999999999994</v>
       </c>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1">
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>38</v>
       </c>
@@ -4544,8 +4718,11 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
@@ -4589,8 +4766,11 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>38</v>
       </c>
@@ -4634,8 +4814,11 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>38</v>
       </c>
@@ -4678,21 +4861,24 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="1">
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1">
         <v>1.6</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AE57" s="1">
         <v>7412.1</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AF57" s="1">
         <v>43.6</v>
       </c>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1">
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>34</v>
       </c>
@@ -4736,8 +4922,11 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>34</v>
       </c>
@@ -4781,8 +4970,11 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>34</v>
       </c>
@@ -4826,8 +5018,11 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
@@ -4870,21 +5065,24 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="1">
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1">
         <v>1.74</v>
       </c>
-      <c r="AB61" s="1">
+      <c r="AE61" s="1">
         <v>10383.200000000001</v>
       </c>
-      <c r="AC61" s="1">
+      <c r="AF61" s="1">
         <v>39.4</v>
       </c>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1">
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>39</v>
       </c>
@@ -4928,8 +5126,11 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -4973,8 +5174,11 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>39</v>
       </c>
@@ -5018,8 +5222,11 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>39</v>
       </c>
@@ -5062,21 +5269,24 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="1">
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1">
         <v>1.88</v>
       </c>
-      <c r="AB65" s="1">
+      <c r="AE65" s="1">
         <v>9886.7000000000007</v>
       </c>
-      <c r="AC65" s="1">
+      <c r="AF65" s="1">
         <v>40.9</v>
       </c>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1">
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>35</v>
       </c>
@@ -5120,8 +5330,11 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>35</v>
       </c>
@@ -5165,8 +5378,11 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>35</v>
       </c>
@@ -5210,8 +5426,11 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>35</v>
       </c>
@@ -5254,21 +5473,24 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1">
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1">
         <v>1.93</v>
       </c>
-      <c r="AB69" s="1">
+      <c r="AE69" s="1">
         <v>11395.6</v>
       </c>
-      <c r="AC69" s="1">
+      <c r="AF69" s="1">
         <v>42</v>
       </c>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1">
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>107</v>
       </c>
@@ -5320,20 +5542,29 @@
         <v>0.01</v>
       </c>
       <c r="W70" s="1">
+        <f>U70/K70</f>
+        <v>4.1935483870967745E-2</v>
+      </c>
+      <c r="X70" s="1">
         <v>0.03</v>
       </c>
-      <c r="X70" s="1">
+      <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
+      <c r="Z70" s="1">
+        <f>X70/M70</f>
+        <v>0.03</v>
+      </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>107</v>
       </c>
@@ -5385,20 +5616,29 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="W71" s="1">
+        <f t="shared" ref="W71:W110" si="0">U71/K71</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="X71" s="1">
         <v>0.09</v>
       </c>
-      <c r="X71" s="1">
+      <c r="Y71" s="1">
         <v>0.03</v>
       </c>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
+      <c r="Z71" s="1">
+        <f t="shared" ref="Z71:Z110" si="1">X71/M71</f>
+        <v>1.9565217391304349E-2</v>
+      </c>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>107</v>
       </c>
@@ -5454,24 +5694,36 @@
         <v>0.04</v>
       </c>
       <c r="W72" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9774011299435026E-2</v>
+      </c>
+      <c r="X72" s="1">
         <v>0.21</v>
       </c>
-      <c r="X72" s="1">
+      <c r="Y72" s="1">
         <v>0.04</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Z72" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1081081081081086E-3</v>
+      </c>
+      <c r="AA72" s="1">
         <v>0.03</v>
       </c>
-      <c r="Z72" s="1">
+      <c r="AB72" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="1">
+        <f t="shared" ref="AC71:AC111" si="2">AA72/O72</f>
+        <v>6.1224489795918364E-3</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>107</v>
       </c>
@@ -5527,24 +5779,36 @@
         <v>0.16</v>
       </c>
       <c r="W73" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7699115044247787E-2</v>
+      </c>
+      <c r="X73" s="1">
         <v>0.23</v>
       </c>
-      <c r="X73" s="1">
+      <c r="Y73" s="1">
         <v>0.02</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="Z73" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3013698630136989E-3</v>
+      </c>
+      <c r="AA73" s="1">
         <v>0.05</v>
       </c>
-      <c r="Z73" s="1">
+      <c r="AB73" s="1">
         <v>0.01</v>
       </c>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+      <c r="AC73" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>107</v>
       </c>
@@ -5600,24 +5864,36 @@
         <v>0.03</v>
       </c>
       <c r="W74" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6494845360824743E-2</v>
+      </c>
+      <c r="X74" s="1">
         <v>0.38</v>
       </c>
-      <c r="X74" s="1">
+      <c r="Y74" s="1">
         <v>0.03</v>
       </c>
-      <c r="Y74" s="1">
+      <c r="Z74" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8015267175572519E-3</v>
+      </c>
+      <c r="AA74" s="1">
         <v>0.06</v>
       </c>
-      <c r="Z74" s="1">
+      <c r="AB74" s="1">
         <v>0</v>
       </c>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="AC74" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -5677,24 +5953,36 @@
         <v>0.06</v>
       </c>
       <c r="W75" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="X75" s="1">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="X75" s="1">
-        <v>0.06</v>
       </c>
       <c r="Y75" s="1">
         <v>0.06</v>
       </c>
       <c r="Z75" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6325878594249198E-3</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="AB75" s="1">
         <v>0</v>
       </c>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
+      <c r="AC75" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5801526717557254E-3</v>
+      </c>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>107</v>
       </c>
@@ -5739,23 +6027,26 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76" s="1">
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1">
         <v>1.93</v>
       </c>
-      <c r="AB76" s="1">
+      <c r="AE76" s="1">
         <v>2102.69</v>
       </c>
-      <c r="AC76" s="1">
+      <c r="AF76" s="1">
         <v>40.65</v>
       </c>
-      <c r="AD76" s="1">
+      <c r="AG76" s="1">
         <v>11</v>
       </c>
-      <c r="AE76" s="1">
+      <c r="AH76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>110</v>
       </c>
@@ -5807,20 +6098,29 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W77" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3076923076923072E-2</v>
+      </c>
+      <c r="X77" s="1">
         <v>0.12</v>
       </c>
-      <c r="X77" s="1">
+      <c r="Y77" s="1">
         <v>0.03</v>
       </c>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
+      <c r="Z77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>110</v>
       </c>
@@ -5872,20 +6172,29 @@
         <v>0.49</v>
       </c>
       <c r="W78" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1862464183381092E-2</v>
+      </c>
+      <c r="X78" s="1">
         <v>0.63</v>
       </c>
-      <c r="X78" s="1">
+      <c r="Y78" s="1">
         <v>0.25</v>
       </c>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5593220338983052E-2</v>
+      </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>110</v>
       </c>
@@ -5941,24 +6250,36 @@
         <v>0.18</v>
       </c>
       <c r="W79" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1057764441110271E-2</v>
+      </c>
+      <c r="X79" s="1">
         <v>2.33</v>
       </c>
-      <c r="X79" s="1">
+      <c r="Y79" s="1">
         <v>0.48</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Z79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1006140765233822E-2</v>
+      </c>
+      <c r="AA79" s="1">
         <v>0.13</v>
       </c>
-      <c r="Z79" s="1">
+      <c r="AB79" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="AC79" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>110</v>
       </c>
@@ -6014,24 +6335,36 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="W80" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4862745098039214E-2</v>
+      </c>
+      <c r="X80" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X80" s="1">
+      <c r="Y80" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Z80" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1861215707369544E-3</v>
+      </c>
+      <c r="AA80" s="1">
         <v>0.21</v>
       </c>
-      <c r="Z80" s="1">
+      <c r="AB80" s="1">
         <v>0.06</v>
       </c>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="AC80" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9322033898305086E-3</v>
+      </c>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>110</v>
       </c>
@@ -6087,24 +6420,36 @@
         <v>0.08</v>
       </c>
       <c r="W81" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5343443354148082E-2</v>
+      </c>
+      <c r="X81" s="1">
         <v>2.31</v>
       </c>
-      <c r="X81" s="1">
+      <c r="Y81" s="1">
         <v>0.03</v>
       </c>
-      <c r="Y81" s="1">
+      <c r="Z81" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7487828627069133E-3</v>
+      </c>
+      <c r="AA81" s="1">
         <v>0.33</v>
       </c>
-      <c r="Z81" s="1">
+      <c r="AB81" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="AC81" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6742209631728052E-3</v>
+      </c>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>110</v>
       </c>
@@ -6164,24 +6509,36 @@
         <v>0.18</v>
       </c>
       <c r="W82" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7069597069597072E-3</v>
+      </c>
+      <c r="X82" s="1">
         <v>1.75</v>
       </c>
-      <c r="X82" s="1">
+      <c r="Y82" s="1">
         <v>0.01</v>
       </c>
-      <c r="Y82" s="1">
+      <c r="Z82" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8446033810143041E-3</v>
+      </c>
+      <c r="AA82" s="1">
         <v>0.61</v>
       </c>
-      <c r="Z82" s="1">
+      <c r="AB82" s="1">
         <v>0.17</v>
       </c>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
+      <c r="AC82" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9836601307189539E-3</v>
+      </c>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>110</v>
       </c>
@@ -6226,23 +6583,26 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="1">
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1">
         <v>1.43</v>
       </c>
-      <c r="AB83" s="1">
+      <c r="AE83" s="1">
         <v>11760.51</v>
       </c>
-      <c r="AC83" s="1">
+      <c r="AF83" s="1">
         <v>40.800000000000004</v>
       </c>
-      <c r="AD83" s="1">
+      <c r="AG83" s="1">
         <v>8.15</v>
       </c>
-      <c r="AE83" s="1">
+      <c r="AH83" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>111</v>
       </c>
@@ -6294,20 +6654,29 @@
         <v>0.03</v>
       </c>
       <c r="W84" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7534246575342465E-2</v>
+      </c>
+      <c r="X84" s="1">
         <v>0.08</v>
       </c>
-      <c r="X84" s="1">
+      <c r="Y84" s="1">
         <v>0.02</v>
       </c>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
+      <c r="Z84" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>111</v>
       </c>
@@ -6359,20 +6728,29 @@
         <v>0.45</v>
       </c>
       <c r="W85" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3076923076923075E-2</v>
+      </c>
+      <c r="X85" s="1">
         <v>0.43</v>
       </c>
-      <c r="X85" s="1">
+      <c r="Y85" s="1">
         <v>0.23</v>
       </c>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
+      <c r="Z85" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7388535031847135E-2</v>
+      </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>111</v>
       </c>
@@ -6428,24 +6806,36 @@
         <v>0.75</v>
       </c>
       <c r="W86" s="1">
+        <f t="shared" si="0"/>
+        <v>3.692416725726435E-2</v>
+      </c>
+      <c r="X86" s="1">
         <v>2.69</v>
       </c>
-      <c r="X86" s="1">
+      <c r="Y86" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Z86" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5433161216293746E-2</v>
+      </c>
+      <c r="AA86" s="1">
         <v>0.08</v>
       </c>
-      <c r="Z86" s="1">
+      <c r="AB86" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
+      <c r="AC86" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0526315789473686E-2</v>
+      </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>111</v>
       </c>
@@ -6501,24 +6891,36 @@
         <v>0.19</v>
       </c>
       <c r="W87" s="1">
+        <f t="shared" si="0"/>
+        <v>3.239193083573487E-2</v>
+      </c>
+      <c r="X87" s="1">
         <v>3.4</v>
       </c>
-      <c r="X87" s="1">
+      <c r="Y87" s="1">
         <v>0.23</v>
       </c>
-      <c r="Y87" s="1">
+      <c r="Z87" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095229E-3</v>
+      </c>
+      <c r="AA87" s="1">
         <v>0.11</v>
       </c>
-      <c r="Z87" s="1">
+      <c r="AB87" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
+      <c r="AC87" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9710144927536229E-3</v>
+      </c>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>111</v>
       </c>
@@ -6574,24 +6976,36 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="W88" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1433182698515168E-2</v>
+      </c>
+      <c r="X88" s="1">
         <v>3.12</v>
       </c>
-      <c r="X88" s="1">
+      <c r="Y88" s="1">
         <v>0.35</v>
       </c>
-      <c r="Y88" s="1">
+      <c r="Z88" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0136590069098513E-3</v>
+      </c>
+      <c r="AA88" s="1">
         <v>0.31</v>
       </c>
-      <c r="Z88" s="1">
+      <c r="AB88" s="1">
         <v>0</v>
       </c>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
+      <c r="AC88" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5655296229802512E-3</v>
+      </c>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>111</v>
       </c>
@@ -6651,24 +7065,36 @@
         <v>0.31</v>
       </c>
       <c r="W89" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7808219178082191E-2</v>
+      </c>
+      <c r="X89" s="1">
         <v>2.74</v>
       </c>
-      <c r="X89" s="1">
+      <c r="Y89" s="1">
         <v>0.15</v>
       </c>
-      <c r="Y89" s="1">
+      <c r="Z89" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1370979918465955E-3</v>
+      </c>
+      <c r="AA89" s="1">
         <v>0.37</v>
       </c>
-      <c r="Z89" s="1">
+      <c r="AB89" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
+      <c r="AC89" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5722891566265054E-3</v>
+      </c>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>111</v>
       </c>
@@ -6713,23 +7139,26 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-      <c r="AA90" s="1">
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1">
         <v>1.62</v>
       </c>
-      <c r="AB90" s="1">
+      <c r="AE90" s="1">
         <v>15809.27</v>
       </c>
-      <c r="AC90" s="1">
+      <c r="AF90" s="1">
         <v>43.6</v>
       </c>
-      <c r="AD90" s="1">
+      <c r="AG90" s="1">
         <v>9.23</v>
       </c>
-      <c r="AE90" s="1">
+      <c r="AH90" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>112</v>
       </c>
@@ -6781,20 +7210,29 @@
         <v>0.03</v>
       </c>
       <c r="W91" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285711E-2</v>
+      </c>
+      <c r="X91" s="1">
         <v>0.12</v>
       </c>
-      <c r="X91" s="1">
+      <c r="Y91" s="1">
         <v>0.02</v>
       </c>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
+      <c r="Z91" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454536E-2</v>
+      </c>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>112</v>
       </c>
@@ -6846,20 +7284,29 @@
         <v>0.8</v>
       </c>
       <c r="W92" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8144796380090492E-2</v>
+      </c>
+      <c r="X92" s="1">
         <v>0.93</v>
       </c>
-      <c r="X92" s="1">
+      <c r="Y92" s="1">
         <v>0.34</v>
       </c>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
+      <c r="Z92" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2272727272727274E-2</v>
+      </c>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>112</v>
       </c>
@@ -6915,24 +7362,36 @@
         <v>0.73</v>
       </c>
       <c r="W93" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2731092436974788E-2</v>
+      </c>
+      <c r="X93" s="1">
         <v>5.3</v>
       </c>
-      <c r="X93" s="1">
+      <c r="Y93" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y93" s="1">
+      <c r="Z93" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4917724494593323E-2</v>
+      </c>
+      <c r="AA93" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z93" s="1">
+      <c r="AB93" s="1">
         <v>0.09</v>
       </c>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
+      <c r="AC93" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3793103448275864E-2</v>
+      </c>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>112</v>
       </c>
@@ -6988,24 +7447,36 @@
         <v>1.3</v>
       </c>
       <c r="W94" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7963376507369362E-2</v>
+      </c>
+      <c r="X94" s="1">
         <v>6.28</v>
       </c>
-      <c r="X94" s="1">
+      <c r="Y94" s="1">
         <v>1.68</v>
       </c>
-      <c r="Y94" s="1">
+      <c r="Z94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5882650480526051E-2</v>
+      </c>
+      <c r="AA94" s="1">
         <v>0.75</v>
       </c>
-      <c r="Z94" s="1">
+      <c r="AB94" s="1">
         <v>0.46</v>
       </c>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="AC94" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2776831345826235E-2</v>
+      </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>112</v>
       </c>
@@ -7061,24 +7532,36 @@
         <v>0.84</v>
       </c>
       <c r="W95" s="1">
+        <f t="shared" si="0"/>
+        <v>3.56317093311313E-2</v>
+      </c>
+      <c r="X95" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="X95" s="1">
+      <c r="Y95" s="1">
         <v>1.45</v>
       </c>
-      <c r="Y95" s="1">
+      <c r="Z95" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1982019946621717E-2</v>
+      </c>
+      <c r="AA95" s="1">
         <v>0.65</v>
       </c>
-      <c r="Z95" s="1">
+      <c r="AB95" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
+      <c r="AC95" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1265164644714038E-2</v>
+      </c>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>112</v>
       </c>
@@ -7138,24 +7621,36 @@
         <v>0.4</v>
       </c>
       <c r="W96" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1394692264257479E-2</v>
+      </c>
+      <c r="X96" s="1">
         <v>8.86</v>
       </c>
-      <c r="X96" s="1">
+      <c r="Y96" s="1">
         <v>1.17</v>
       </c>
-      <c r="Y96" s="1">
+      <c r="Z96" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2374301675977653E-2</v>
+      </c>
+      <c r="AA96" s="1">
         <v>1.43</v>
       </c>
-      <c r="Z96" s="1">
+      <c r="AB96" s="1">
         <v>0.24</v>
       </c>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
+      <c r="AC96" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2917795844625112E-2</v>
+      </c>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>112</v>
       </c>
@@ -7200,23 +7695,26 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="1">
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1">
         <v>2.42</v>
       </c>
-      <c r="AB97" s="1">
+      <c r="AE97" s="1">
         <v>20225.400000000001</v>
       </c>
-      <c r="AC97" s="1">
+      <c r="AF97" s="1">
         <v>34.35</v>
       </c>
-      <c r="AD97" s="1">
+      <c r="AG97" s="1">
         <v>13.8</v>
       </c>
-      <c r="AE97" s="1">
+      <c r="AH97" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>108</v>
       </c>
@@ -7268,20 +7766,29 @@
         <v>0.01</v>
       </c>
       <c r="W98" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="X98" s="1">
         <v>0.08</v>
       </c>
-      <c r="X98" s="1">
+      <c r="Y98" s="1">
         <v>0</v>
       </c>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
+      <c r="Z98" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>108</v>
       </c>
@@ -7333,20 +7840,29 @@
         <v>0.04</v>
       </c>
       <c r="W99" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6735395189003437E-2</v>
+      </c>
+      <c r="X99" s="1">
         <v>0.38</v>
       </c>
-      <c r="X99" s="1">
+      <c r="Y99" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
+      <c r="Z99" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8358208955223878E-2</v>
+      </c>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>108</v>
       </c>
@@ -7402,24 +7918,36 @@
         <v>0.24</v>
       </c>
       <c r="W100" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9538834951456311E-2</v>
+      </c>
+      <c r="X100" s="1">
         <v>0.89</v>
       </c>
-      <c r="X100" s="1">
+      <c r="Y100" s="1">
         <v>0.12</v>
       </c>
-      <c r="Y100" s="1">
+      <c r="Z100" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6867017280240427E-3</v>
+      </c>
+      <c r="AA100" s="1">
         <v>0.09</v>
       </c>
-      <c r="Z100" s="1">
+      <c r="AB100" s="1">
         <v>0.01</v>
       </c>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
+      <c r="AC100" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7692307692307696E-3</v>
+      </c>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>108</v>
       </c>
@@ -7475,24 +8003,36 @@
         <v>0.03</v>
       </c>
       <c r="W101" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6147859922178986E-2</v>
+      </c>
+      <c r="X101" s="1">
         <v>0.88</v>
       </c>
-      <c r="X101" s="1">
+      <c r="Y101" s="1">
         <v>0.21</v>
       </c>
-      <c r="Y101" s="1">
+      <c r="Z101" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1489863272041495E-3</v>
+      </c>
+      <c r="AA101" s="1">
         <v>0.12</v>
       </c>
-      <c r="Z101" s="1">
+      <c r="AB101" s="1">
         <v>0.01</v>
       </c>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
+      <c r="AC101" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8585209003215433E-3</v>
+      </c>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>108</v>
       </c>
@@ -7548,24 +8088,36 @@
         <v>0.02</v>
       </c>
       <c r="W102" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1598746081504702E-2</v>
+      </c>
+      <c r="X102" s="1">
         <v>0.79</v>
       </c>
-      <c r="X102" s="1">
+      <c r="Y102" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y102" s="1">
+      <c r="Z102" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6483405967147166E-3</v>
+      </c>
+      <c r="AA102" s="1">
         <v>0.17</v>
       </c>
-      <c r="Z102" s="1">
+      <c r="AB102" s="1">
         <v>0.06</v>
       </c>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
+      <c r="AC102" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2692307692307695E-3</v>
+      </c>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
@@ -7612,25 +8164,34 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
-      <c r="W103" s="1">
+      <c r="W103" s="1"/>
+      <c r="X103" s="1">
         <v>0.62</v>
       </c>
-      <c r="X103" s="1">
+      <c r="Y103" s="1">
         <v>0</v>
       </c>
-      <c r="Y103" s="1">
+      <c r="Z103" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2318214542836573E-3</v>
+      </c>
+      <c r="AA103" s="1">
         <v>0.3</v>
       </c>
-      <c r="Z103" s="1">
+      <c r="AB103" s="1">
         <v>0.04</v>
       </c>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
+      <c r="AC103" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2397408207343412E-3</v>
+      </c>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>108</v>
       </c>
@@ -7675,23 +8236,26 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="1">
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1">
         <v>1.45</v>
       </c>
-      <c r="AB104" s="1">
+      <c r="AE104" s="1">
         <v>6192.93</v>
       </c>
-      <c r="AC104" s="1">
+      <c r="AF104" s="1">
         <v>40.450000000000003</v>
       </c>
-      <c r="AD104" s="1">
+      <c r="AG104" s="1">
         <v>8.27</v>
       </c>
-      <c r="AE104" s="1">
+      <c r="AH104" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>109</v>
       </c>
@@ -7743,20 +8307,29 @@
         <v>0.03</v>
       </c>
       <c r="W105" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="X105" s="1">
         <v>0.1</v>
       </c>
-      <c r="X105" s="1">
+      <c r="Y105" s="1">
         <v>0.04</v>
       </c>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
+      <c r="Z105" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764712E-2</v>
+      </c>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>109</v>
       </c>
@@ -7808,20 +8381,29 @@
         <v>0.77</v>
       </c>
       <c r="W106" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2525252525252523E-2</v>
+      </c>
+      <c r="X106" s="1">
         <v>0.72</v>
       </c>
-      <c r="X106" s="1">
+      <c r="Y106" s="1">
         <v>0.3</v>
       </c>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
+      <c r="Z106" s="1">
+        <f t="shared" si="1"/>
+        <v>3.692307692307692E-2</v>
+      </c>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>109</v>
       </c>
@@ -7877,24 +8459,36 @@
         <v>0.27</v>
       </c>
       <c r="W107" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4354561101549054E-2</v>
+      </c>
+      <c r="X107" s="1">
         <v>1.43</v>
       </c>
-      <c r="X107" s="1">
+      <c r="Y107" s="1">
         <v>0.19</v>
       </c>
-      <c r="Y107" s="1">
+      <c r="Z107" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3033707865168534E-3</v>
+      </c>
+      <c r="AA107" s="1">
         <v>0.17</v>
       </c>
-      <c r="Z107" s="1">
+      <c r="AB107" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
+      <c r="AC107" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9439252336448614E-3</v>
+      </c>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>109</v>
       </c>
@@ -7950,24 +8544,36 @@
         <v>0.27</v>
       </c>
       <c r="W108" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8013856812933028E-2</v>
+      </c>
+      <c r="X108" s="1">
         <v>1.35</v>
       </c>
-      <c r="X108" s="1">
+      <c r="Y108" s="1">
         <v>0.31</v>
       </c>
-      <c r="Y108" s="1">
+      <c r="Z108" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5226130653266338E-3</v>
+      </c>
+      <c r="AA108" s="1">
         <v>0.17</v>
       </c>
-      <c r="Z108" s="1">
+      <c r="AB108" s="1">
         <v>0.03</v>
       </c>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
+      <c r="AC108" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6961325966850829E-3</v>
+      </c>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
@@ -8023,24 +8629,36 @@
         <v>0.01</v>
       </c>
       <c r="W109" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2739571589627957E-2</v>
+      </c>
+      <c r="X109" s="1">
         <v>1.76</v>
       </c>
-      <c r="X109" s="1">
+      <c r="Y109" s="1">
         <v>0.11</v>
       </c>
-      <c r="Y109" s="1">
+      <c r="Z109" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9475799698542955E-3</v>
+      </c>
+      <c r="AA109" s="1">
         <v>0.32</v>
       </c>
-      <c r="Z109" s="1">
+      <c r="AB109" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
+      <c r="AC109" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2328042328042331E-3</v>
+      </c>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
@@ -8100,24 +8718,36 @@
         <v>0.23</v>
       </c>
       <c r="W110" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8607594936708865E-3</v>
+      </c>
+      <c r="X110" s="1">
         <v>1.5</v>
       </c>
-      <c r="X110" s="1">
+      <c r="Y110" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Y110" s="1">
+      <c r="Z110" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4185746533376329E-3</v>
+      </c>
+      <c r="AA110" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Z110" s="1">
+      <c r="AB110" s="1">
         <v>0.01</v>
       </c>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
+      <c r="AC110" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3026706231453996E-3</v>
+      </c>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -8162,23 +8792,26 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
-      <c r="AA111" s="1">
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1">
         <v>1.39</v>
       </c>
-      <c r="AB111" s="1">
+      <c r="AE111" s="1">
         <v>10299.34</v>
       </c>
-      <c r="AC111" s="1">
+      <c r="AF111" s="1">
         <v>40.099999999999994</v>
       </c>
-      <c r="AD111" s="1">
+      <c r="AG111" s="1">
         <v>7.92</v>
       </c>
-      <c r="AE111" s="1">
+      <c r="AH111" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>164</v>
       </c>
@@ -8218,8 +8851,11 @@
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>165</v>
       </c>
@@ -8259,8 +8895,11 @@
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>166</v>
       </c>
@@ -8300,8 +8939,11 @@
       <c r="AC114" s="1"/>
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>167</v>
       </c>
@@ -8341,8 +8983,11 @@
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>168</v>
       </c>
@@ -8382,8 +9027,11 @@
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>169</v>
       </c>
@@ -8423,8 +9071,11 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>170</v>
       </c>
@@ -8464,8 +9115,11 @@
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>171</v>
       </c>
@@ -8505,8 +9159,11 @@
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>172</v>
       </c>
@@ -8546,8 +9203,11 @@
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>173</v>
       </c>
@@ -8587,8 +9247,11 @@
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>174</v>
       </c>
@@ -8628,8 +9291,11 @@
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
         <v>175</v>
       </c>
@@ -8669,8 +9335,11 @@
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>176</v>
       </c>
@@ -8710,8 +9379,11 @@
       <c r="AC124" s="1"/>
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>177</v>
       </c>
@@ -8751,8 +9423,11 @@
       <c r="AC125" s="1"/>
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>178</v>
       </c>
@@ -8792,8 +9467,11 @@
       <c r="AC126" s="1"/>
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
         <v>179</v>
       </c>
@@ -8833,8 +9511,11 @@
       <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
         <v>180</v>
       </c>
@@ -8874,8 +9555,11 @@
       <c r="AC128" s="1"/>
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>124</v>
       </c>
@@ -8911,18 +9595,21 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
-      <c r="AB129" s="1">
-        <v>6984</v>
-      </c>
-      <c r="AC129" s="1">
-        <v>32.700000000000003</v>
-      </c>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
       <c r="AD129" s="1"/>
       <c r="AE129" s="1">
+        <v>6984</v>
+      </c>
+      <c r="AF129" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>125</v>
       </c>
@@ -8958,18 +9645,21 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
-      <c r="AB130" s="1">
-        <v>11360</v>
-      </c>
-      <c r="AC130" s="1">
-        <v>37</v>
-      </c>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
       <c r="AE130" s="1">
+        <v>11360</v>
+      </c>
+      <c r="AF130" s="1">
+        <v>37</v>
+      </c>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>126</v>
       </c>
@@ -9005,18 +9695,21 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
-      <c r="AB131" s="1">
-        <v>10804</v>
-      </c>
-      <c r="AC131" s="1">
-        <v>32</v>
-      </c>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
       <c r="AD131" s="1"/>
       <c r="AE131" s="1">
+        <v>10804</v>
+      </c>
+      <c r="AF131" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
         <v>127</v>
       </c>
@@ -9054,18 +9747,21 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
-      <c r="AB132" s="1">
-        <v>7980</v>
-      </c>
-      <c r="AC132" s="1">
-        <v>34.5</v>
-      </c>
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
       <c r="AD132" s="1"/>
       <c r="AE132" s="1">
+        <v>7980</v>
+      </c>
+      <c r="AF132" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="AG132" s="1"/>
+      <c r="AH132" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>120</v>
       </c>
@@ -9103,18 +9799,21 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
-      <c r="AB133" s="1">
-        <v>5046</v>
-      </c>
-      <c r="AC133" s="1">
-        <v>37.900000000000006</v>
-      </c>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
       <c r="AD133" s="1"/>
       <c r="AE133" s="1">
+        <v>5046</v>
+      </c>
+      <c r="AF133" s="1">
+        <v>37.900000000000006</v>
+      </c>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
         <v>121</v>
       </c>
@@ -9152,18 +9851,21 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
-      <c r="AB134" s="1">
-        <v>4615</v>
-      </c>
-      <c r="AC134" s="1">
-        <v>41.4</v>
-      </c>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
       <c r="AD134" s="1"/>
       <c r="AE134" s="1">
+        <v>4615</v>
+      </c>
+      <c r="AF134" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>122</v>
       </c>
@@ -9201,18 +9903,21 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
-      <c r="AB135" s="1">
-        <v>5907</v>
-      </c>
-      <c r="AC135" s="1">
-        <v>37.6</v>
-      </c>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
       <c r="AD135" s="1"/>
       <c r="AE135" s="1">
+        <v>5907</v>
+      </c>
+      <c r="AF135" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>123</v>
       </c>
@@ -9250,18 +9955,21 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
-      <c r="AB136" s="1">
-        <v>6303</v>
-      </c>
-      <c r="AC136" s="1">
-        <v>41.6</v>
-      </c>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
       <c r="AD136" s="1"/>
       <c r="AE136" s="1">
+        <v>6303</v>
+      </c>
+      <c r="AF136" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>87</v>
       </c>
@@ -9304,11 +10012,14 @@
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
-      <c r="AE137" s="1">
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>88</v>
       </c>
@@ -9351,11 +10062,14 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
       <c r="AD138" s="1"/>
-      <c r="AE138" s="1">
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>89</v>
       </c>
@@ -9398,11 +10112,14 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
       <c r="AD139" s="1"/>
-      <c r="AE139" s="1">
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>90</v>
       </c>
@@ -9445,11 +10162,14 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
       <c r="AD140" s="1"/>
-      <c r="AE140" s="1">
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+      <c r="AH140" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>91</v>
       </c>
@@ -9492,11 +10212,14 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
       <c r="AD141" s="1"/>
-      <c r="AE141" s="1">
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+      <c r="AH141" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
         <v>92</v>
       </c>
@@ -9539,11 +10262,14 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
       <c r="AD142" s="1"/>
-      <c r="AE142" s="1">
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+      <c r="AG142" s="1"/>
+      <c r="AH142" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>93</v>
       </c>
@@ -9586,11 +10312,14 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
       <c r="AD143" s="1"/>
-      <c r="AE143" s="1">
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
         <v>94</v>
       </c>
@@ -9633,11 +10362,14 @@
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
       <c r="AD144" s="1"/>
-      <c r="AE144" s="1">
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+      <c r="AH144" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A145" s="5" t="s">
         <v>95</v>
       </c>
@@ -9680,11 +10412,14 @@
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
       <c r="AD145" s="1"/>
-      <c r="AE145" s="1">
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+      <c r="AH145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A146" s="5" t="s">
         <v>96</v>
       </c>
@@ -9727,11 +10462,14 @@
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
       <c r="AD146" s="1"/>
-      <c r="AE146" s="1">
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+      <c r="AH146" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>97</v>
       </c>
@@ -9774,11 +10512,14 @@
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
       <c r="AD147" s="1"/>
-      <c r="AE147" s="1">
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+      <c r="AG147" s="1"/>
+      <c r="AH147" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A148" s="5" t="s">
         <v>98</v>
       </c>
@@ -9821,11 +10562,14 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
       <c r="AD148" s="1"/>
-      <c r="AE148" s="1">
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+      <c r="AH148" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
         <v>99</v>
       </c>
@@ -9868,11 +10612,14 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
       <c r="AD149" s="1"/>
-      <c r="AE149" s="1">
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+      <c r="AG149" s="1"/>
+      <c r="AH149" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A150" s="5" t="s">
         <v>100</v>
       </c>
@@ -9915,11 +10662,14 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
       <c r="AD150" s="1"/>
-      <c r="AE150" s="1">
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>101</v>
       </c>
@@ -9962,11 +10712,14 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
       <c r="AD151" s="1"/>
-      <c r="AE151" s="1">
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A152" s="5" t="s">
         <v>102</v>
       </c>
@@ -10009,11 +10762,14 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
-      <c r="AE152" s="1">
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+      <c r="AH152" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
         <v>47</v>
       </c>
@@ -10052,23 +10808,26 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
-      <c r="AA153" s="1">
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB153" s="1">
+      <c r="AE153" s="1">
         <v>7384.5</v>
       </c>
-      <c r="AC153" s="1">
+      <c r="AF153" s="1">
         <v>34.700000000000003</v>
       </c>
-      <c r="AD153" s="1">
+      <c r="AG153" s="1">
         <v>12.2</v>
       </c>
-      <c r="AE153" s="1">
+      <c r="AH153" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="s">
         <v>48</v>
       </c>
@@ -10107,23 +10866,26 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
-      <c r="AA154" s="1">
+      <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
+      <c r="AC154" s="1"/>
+      <c r="AD154" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB154" s="1">
+      <c r="AE154" s="1">
         <v>5706.2</v>
       </c>
-      <c r="AC154" s="1">
+      <c r="AF154" s="1">
         <v>36.299999999999997</v>
       </c>
-      <c r="AD154" s="1">
+      <c r="AG154" s="1">
         <v>13.5</v>
       </c>
-      <c r="AE154" s="1">
+      <c r="AH154" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
         <v>49</v>
       </c>
@@ -10164,23 +10926,26 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
-      <c r="AA155" s="1">
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1">
         <v>1.8</v>
       </c>
-      <c r="AB155" s="1">
+      <c r="AE155" s="1">
         <v>5734</v>
       </c>
-      <c r="AC155" s="1">
+      <c r="AF155" s="1">
         <v>30.4</v>
       </c>
-      <c r="AD155" s="1">
+      <c r="AG155" s="1">
         <v>10.1</v>
       </c>
-      <c r="AE155" s="1">
+      <c r="AH155" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="s">
         <v>50</v>
       </c>
@@ -10221,23 +10986,26 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
-      <c r="AA156" s="1">
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1">
         <v>2</v>
       </c>
-      <c r="AB156" s="1">
+      <c r="AE156" s="1">
         <v>6474</v>
       </c>
-      <c r="AC156" s="1">
+      <c r="AF156" s="1">
         <v>30.5</v>
       </c>
-      <c r="AD156" s="1">
+      <c r="AG156" s="1">
         <v>11.5</v>
       </c>
-      <c r="AE156" s="1">
+      <c r="AH156" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
         <v>51</v>
       </c>
@@ -10278,23 +11046,26 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
-      <c r="AA157" s="1">
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB157" s="1">
+      <c r="AE157" s="1">
         <v>9196</v>
       </c>
-      <c r="AC157" s="1">
+      <c r="AF157" s="1">
         <v>25.6</v>
       </c>
-      <c r="AD157" s="1">
+      <c r="AG157" s="1">
         <v>13.1</v>
       </c>
-      <c r="AE157" s="1">
+      <c r="AH157" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="s">
         <v>59</v>
       </c>
@@ -10331,17 +11102,20 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
-      <c r="AA158" s="1">
-        <v>1.66</v>
-      </c>
+      <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
       <c r="AD158" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1">
         <v>9.5</v>
       </c>
-      <c r="AE158" s="1"/>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH158" s="1"/>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
         <v>60</v>
       </c>
@@ -10378,17 +11152,20 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
-      <c r="AA159" s="1">
-        <v>1.73</v>
-      </c>
+      <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
       <c r="AD159" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1">
         <v>9.9</v>
       </c>
-      <c r="AE159" s="1"/>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH159" s="1"/>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="s">
         <v>61</v>
       </c>
@@ -10425,17 +11202,20 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
-      <c r="AA160" s="1">
-        <v>1.49</v>
-      </c>
+      <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
       <c r="AD160" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1">
         <v>8.6</v>
       </c>
-      <c r="AE160" s="1"/>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH160" s="1"/>
+    </row>
+    <row r="161" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
         <v>62</v>
       </c>
@@ -10472,17 +11252,20 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
-      <c r="AA161" s="1">
-        <v>2.06</v>
-      </c>
+      <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
       <c r="AD161" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1">
         <v>11.8</v>
       </c>
-      <c r="AE161" s="1"/>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH161" s="1"/>
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="s">
         <v>57</v>
       </c>
@@ -10519,17 +11302,20 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
-      <c r="AA162" s="1">
-        <v>1.76</v>
-      </c>
+      <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
       <c r="AD162" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
+      <c r="AG162" s="1">
         <v>10.1</v>
       </c>
-      <c r="AE162" s="1"/>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH162" s="1"/>
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="s">
         <v>58</v>
       </c>
@@ -10566,17 +11352,20 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
-      <c r="AA163" s="1">
-        <v>1.76</v>
-      </c>
+      <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
       <c r="AD163" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1">
         <v>10.1</v>
       </c>
-      <c r="AE163" s="1"/>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AH163" s="1"/>
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
         <v>130</v>
       </c>
@@ -10615,23 +11404,26 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
-      <c r="AA164" s="1">
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1">
         <v>2.12</v>
       </c>
-      <c r="AB164" s="1">
+      <c r="AE164" s="1">
         <v>7618</v>
       </c>
-      <c r="AC164" s="1">
+      <c r="AF164" s="1">
         <v>28</v>
       </c>
-      <c r="AD164" s="1">
+      <c r="AG164" s="1">
         <v>12.1</v>
       </c>
-      <c r="AE164" s="1">
+      <c r="AH164" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="s">
         <v>131</v>
       </c>
@@ -10670,23 +11462,26 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
-      <c r="AA165" s="1">
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
+      <c r="AD165" s="1">
         <v>2.98</v>
       </c>
-      <c r="AB165" s="1">
+      <c r="AE165" s="1">
         <v>4381</v>
       </c>
-      <c r="AC165" s="1">
+      <c r="AF165" s="1">
         <v>27</v>
       </c>
-      <c r="AD165" s="1">
+      <c r="AG165" s="1">
         <v>17</v>
       </c>
-      <c r="AE165" s="1">
+      <c r="AH165" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>132</v>
       </c>
@@ -10725,23 +11520,26 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
-      <c r="AA166" s="1">
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1">
         <v>2.19</v>
       </c>
-      <c r="AB166" s="1">
+      <c r="AE166" s="1">
         <v>6505</v>
       </c>
-      <c r="AC166" s="1">
+      <c r="AF166" s="1">
         <v>38</v>
       </c>
-      <c r="AD166" s="1">
+      <c r="AG166" s="1">
         <v>12.5</v>
       </c>
-      <c r="AE166" s="1">
+      <c r="AH166" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="s">
         <v>133</v>
       </c>
@@ -10780,23 +11578,26 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
-      <c r="AA167" s="1">
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AB167" s="1">
+      <c r="AE167" s="1">
         <v>4769</v>
       </c>
-      <c r="AC167" s="1">
+      <c r="AF167" s="1">
         <v>32</v>
       </c>
-      <c r="AD167" s="1">
+      <c r="AG167" s="1">
         <v>14.1</v>
       </c>
-      <c r="AE167" s="1">
+      <c r="AH167" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A168" s="5" t="s">
         <v>134</v>
       </c>
@@ -10835,23 +11636,26 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
-      <c r="AA168" s="1">
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1">
         <v>1.82</v>
       </c>
-      <c r="AB168" s="1">
+      <c r="AE168" s="1">
         <v>7550</v>
       </c>
-      <c r="AC168" s="1">
+      <c r="AF168" s="1">
         <v>31</v>
       </c>
-      <c r="AD168" s="1">
+      <c r="AG168" s="1">
         <v>10.4</v>
       </c>
-      <c r="AE168" s="1">
+      <c r="AH168" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A169" s="5" t="s">
         <v>135</v>
       </c>
@@ -10890,23 +11694,26 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
-      <c r="AA169" s="1">
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1">
         <v>3.28</v>
       </c>
-      <c r="AB169" s="1">
+      <c r="AE169" s="1">
         <v>3419</v>
       </c>
-      <c r="AC169" s="1">
+      <c r="AF169" s="1">
         <v>26</v>
       </c>
-      <c r="AD169" s="1">
+      <c r="AG169" s="1">
         <v>18.7</v>
       </c>
-      <c r="AE169" s="1">
+      <c r="AH169" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
         <v>136</v>
       </c>
@@ -10945,23 +11752,26 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
-      <c r="AA170" s="1">
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
+      <c r="AD170" s="1">
         <v>1.89</v>
       </c>
-      <c r="AB170" s="1">
+      <c r="AE170" s="1">
         <v>6634</v>
       </c>
-      <c r="AC170" s="1">
+      <c r="AF170" s="1">
         <v>41</v>
       </c>
-      <c r="AD170" s="1">
+      <c r="AG170" s="1">
         <v>10.8</v>
       </c>
-      <c r="AE170" s="1">
+      <c r="AH170" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
         <v>137</v>
       </c>
@@ -11000,23 +11810,26 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
-      <c r="AA171" s="1">
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1">
         <v>3.02</v>
       </c>
-      <c r="AB171" s="1">
+      <c r="AE171" s="1">
         <v>3500</v>
       </c>
-      <c r="AC171" s="1">
+      <c r="AF171" s="1">
         <v>20</v>
       </c>
-      <c r="AD171" s="1">
+      <c r="AG171" s="1">
         <v>17.2</v>
       </c>
-      <c r="AE171" s="1">
+      <c r="AH171" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
         <v>138</v>
       </c>
@@ -11055,23 +11868,26 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
-      <c r="AA172" s="1">
+      <c r="AA172" s="1"/>
+      <c r="AB172" s="1"/>
+      <c r="AC172" s="1"/>
+      <c r="AD172" s="1">
         <v>2.58</v>
       </c>
-      <c r="AB172" s="1">
+      <c r="AE172" s="1">
         <v>5181</v>
       </c>
-      <c r="AC172" s="1">
+      <c r="AF172" s="1">
         <v>32</v>
       </c>
-      <c r="AD172" s="1">
+      <c r="AG172" s="1">
         <v>14.7</v>
       </c>
-      <c r="AE172" s="1">
+      <c r="AH172" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
         <v>139</v>
       </c>
@@ -11110,23 +11926,26 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
-      <c r="AA173" s="1">
+      <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
+      <c r="AC173" s="1"/>
+      <c r="AD173" s="1">
         <v>2.96</v>
       </c>
-      <c r="AB173" s="1">
+      <c r="AE173" s="1">
         <v>9399</v>
       </c>
-      <c r="AC173" s="1">
+      <c r="AF173" s="1">
         <v>24</v>
       </c>
-      <c r="AD173" s="1">
+      <c r="AG173" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="AE173" s="1">
+      <c r="AH173" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
         <v>140</v>
       </c>
@@ -11165,23 +11984,26 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
-      <c r="AA174" s="1">
+      <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
+      <c r="AC174" s="1"/>
+      <c r="AD174" s="1">
         <v>3.05</v>
       </c>
-      <c r="AB174" s="1">
+      <c r="AE174" s="1">
         <v>6367</v>
       </c>
-      <c r="AC174" s="1">
+      <c r="AF174" s="1">
         <v>24</v>
       </c>
-      <c r="AD174" s="1">
+      <c r="AG174" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="AE174" s="1">
+      <c r="AH174" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
         <v>141</v>
       </c>
@@ -11220,23 +12042,26 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
-      <c r="AA175" s="1">
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
+      <c r="AC175" s="1"/>
+      <c r="AD175" s="1">
         <v>2.46</v>
       </c>
-      <c r="AB175" s="1">
+      <c r="AE175" s="1">
         <v>7187</v>
       </c>
-      <c r="AC175" s="1">
+      <c r="AF175" s="1">
         <v>35</v>
       </c>
-      <c r="AD175" s="1">
+      <c r="AG175" s="1">
         <v>14</v>
       </c>
-      <c r="AE175" s="1">
+      <c r="AH175" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
         <v>142</v>
       </c>
@@ -11275,23 +12100,26 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
-      <c r="AA176" s="1">
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1">
         <v>3.09</v>
       </c>
-      <c r="AB176" s="1">
+      <c r="AE176" s="1">
         <v>4404</v>
       </c>
-      <c r="AC176" s="1">
+      <c r="AF176" s="1">
         <v>27</v>
       </c>
-      <c r="AD176" s="1">
+      <c r="AG176" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="AE176" s="1">
+      <c r="AH176" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
         <v>143</v>
       </c>
@@ -11330,23 +12158,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
-      <c r="AA177" s="1">
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB177" s="1">
+      <c r="AE177" s="1">
         <v>8813</v>
       </c>
-      <c r="AC177" s="1">
+      <c r="AF177" s="1">
         <v>26</v>
       </c>
-      <c r="AD177" s="1">
+      <c r="AG177" s="1">
         <v>13.7</v>
       </c>
-      <c r="AE177" s="1">
+      <c r="AH177" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
         <v>144</v>
       </c>
@@ -11385,23 +12216,26 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
-      <c r="AA178" s="1">
+      <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
+      <c r="AC178" s="1"/>
+      <c r="AD178" s="1">
         <v>3.25</v>
       </c>
-      <c r="AB178" s="1">
+      <c r="AE178" s="1">
         <v>4375</v>
       </c>
-      <c r="AC178" s="1">
+      <c r="AF178" s="1">
         <v>24</v>
       </c>
-      <c r="AD178" s="1">
+      <c r="AG178" s="1">
         <v>18.5</v>
       </c>
-      <c r="AE178" s="1">
+      <c r="AH178" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>145</v>
       </c>
@@ -11440,23 +12274,26 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
-      <c r="AA179" s="1">
+      <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
+      <c r="AC179" s="1"/>
+      <c r="AD179" s="1">
         <v>2.6</v>
       </c>
-      <c r="AB179" s="1">
+      <c r="AE179" s="1">
         <v>7428</v>
       </c>
-      <c r="AC179" s="1">
+      <c r="AF179" s="1">
         <v>35</v>
       </c>
-      <c r="AD179" s="1">
+      <c r="AG179" s="1">
         <v>14.8</v>
       </c>
-      <c r="AE179" s="1">
+      <c r="AH179" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>146</v>
       </c>
@@ -11495,23 +12332,26 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
-      <c r="AA180" s="1">
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
+      <c r="AC180" s="1"/>
+      <c r="AD180" s="1">
         <v>3.25</v>
       </c>
-      <c r="AB180" s="1">
+      <c r="AE180" s="1">
         <v>4122</v>
       </c>
-      <c r="AC180" s="1">
+      <c r="AF180" s="1">
         <v>27</v>
       </c>
-      <c r="AD180" s="1">
+      <c r="AG180" s="1">
         <v>18.5</v>
       </c>
-      <c r="AE180" s="1">
+      <c r="AH180" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>147</v>
       </c>
@@ -11550,23 +12390,26 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
-      <c r="AA181" s="1">
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
+      <c r="AC181" s="1"/>
+      <c r="AD181" s="1">
         <v>1.79</v>
       </c>
-      <c r="AB181" s="1">
+      <c r="AE181" s="1">
         <v>8815</v>
       </c>
-      <c r="AC181" s="1">
+      <c r="AF181" s="1">
         <v>42</v>
       </c>
-      <c r="AD181" s="1">
+      <c r="AG181" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="AE181" s="1">
+      <c r="AH181" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>148</v>
       </c>
@@ -11605,23 +12448,26 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
-      <c r="AA182" s="1">
+      <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
+      <c r="AC182" s="1"/>
+      <c r="AD182" s="1">
         <v>2.33</v>
       </c>
-      <c r="AB182" s="1">
+      <c r="AE182" s="1">
         <v>8758</v>
       </c>
-      <c r="AC182" s="1">
+      <c r="AF182" s="1">
         <v>33.4</v>
       </c>
-      <c r="AD182" s="1">
+      <c r="AG182" s="1">
         <v>13.3</v>
       </c>
-      <c r="AE182" s="1">
+      <c r="AH182" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>149</v>
       </c>
@@ -11660,23 +12506,26 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
-      <c r="AA183" s="1">
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
+      <c r="AD183" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AB183" s="1">
+      <c r="AE183" s="1">
         <v>7206</v>
       </c>
-      <c r="AC183" s="1">
+      <c r="AF183" s="1">
         <v>48</v>
       </c>
-      <c r="AD183" s="1">
+      <c r="AG183" s="1">
         <v>11.8</v>
       </c>
-      <c r="AE183" s="1">
+      <c r="AH183" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>150</v>
       </c>
@@ -11715,23 +12564,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
-      <c r="AA184" s="1">
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1">
         <v>2.44</v>
       </c>
-      <c r="AB184" s="1">
+      <c r="AE184" s="1">
         <v>6500</v>
       </c>
-      <c r="AC184" s="1">
+      <c r="AF184" s="1">
         <v>36.4</v>
       </c>
-      <c r="AD184" s="1">
+      <c r="AG184" s="1">
         <v>13.9</v>
       </c>
-      <c r="AE184" s="1">
+      <c r="AH184" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>151</v>
       </c>
@@ -11770,23 +12622,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
-      <c r="AA185" s="1">
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1">
         <v>1.25</v>
       </c>
-      <c r="AB185" s="1">
+      <c r="AE185" s="1">
         <v>7562</v>
       </c>
-      <c r="AC185" s="1">
+      <c r="AF185" s="1">
         <v>45</v>
       </c>
-      <c r="AD185" s="1">
+      <c r="AG185" s="1">
         <v>7.1</v>
       </c>
-      <c r="AE185" s="1">
+      <c r="AH185" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
         <v>152</v>
       </c>
@@ -11825,23 +12680,26 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
-      <c r="AA186" s="1">
+      <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
+      <c r="AC186" s="1"/>
+      <c r="AD186" s="1">
         <v>1.81</v>
       </c>
-      <c r="AB186" s="1">
+      <c r="AE186" s="1">
         <v>7802</v>
       </c>
-      <c r="AC186" s="1">
+      <c r="AF186" s="1">
         <v>33.4</v>
       </c>
-      <c r="AD186" s="1">
+      <c r="AG186" s="1">
         <v>10.3</v>
       </c>
-      <c r="AE186" s="1">
+      <c r="AH186" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
         <v>153</v>
       </c>
@@ -11880,23 +12738,26 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="1">
+      <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
+      <c r="AC187" s="1"/>
+      <c r="AD187" s="1">
         <v>1.75</v>
       </c>
-      <c r="AB187" s="1">
+      <c r="AE187" s="1">
         <v>5911</v>
       </c>
-      <c r="AC187" s="1">
+      <c r="AF187" s="1">
         <v>53</v>
       </c>
-      <c r="AD187" s="1">
+      <c r="AG187" s="1">
         <v>10</v>
       </c>
-      <c r="AE187" s="1">
+      <c r="AH187" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
         <v>154</v>
       </c>
@@ -11935,23 +12796,26 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
-      <c r="AA188" s="1">
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
+      <c r="AD188" s="1">
         <v>2.12</v>
       </c>
-      <c r="AB188" s="1">
+      <c r="AE188" s="1">
         <v>4600</v>
       </c>
-      <c r="AC188" s="1">
+      <c r="AF188" s="1">
         <v>39</v>
       </c>
-      <c r="AD188" s="1">
+      <c r="AG188" s="1">
         <v>12.1</v>
       </c>
-      <c r="AE188" s="1">
+      <c r="AH188" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
         <v>155</v>
       </c>
@@ -11990,23 +12854,26 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
-      <c r="AA189" s="1">
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
+      <c r="AD189" s="1">
         <v>2.12</v>
       </c>
-      <c r="AB189" s="1">
+      <c r="AE189" s="1">
         <v>6105</v>
       </c>
-      <c r="AC189" s="1">
+      <c r="AF189" s="1">
         <v>39.9</v>
       </c>
-      <c r="AD189" s="1">
+      <c r="AG189" s="1">
         <v>12.1</v>
       </c>
-      <c r="AE189" s="1">
+      <c r="AH189" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
         <v>156</v>
       </c>
@@ -12045,23 +12912,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
-      <c r="AA190" s="1">
+      <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
+      <c r="AC190" s="1"/>
+      <c r="AD190" s="1">
         <v>2.11</v>
       </c>
-      <c r="AB190" s="1">
+      <c r="AE190" s="1">
         <v>11354</v>
       </c>
-      <c r="AC190" s="1">
+      <c r="AF190" s="1">
         <v>39</v>
       </c>
-      <c r="AD190" s="1">
+      <c r="AG190" s="1">
         <v>12</v>
       </c>
-      <c r="AE190" s="1">
+      <c r="AH190" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
         <v>157</v>
       </c>
@@ -12100,23 +12970,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
-      <c r="AA191" s="1">
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
+      <c r="AD191" s="1">
         <v>3.02</v>
       </c>
-      <c r="AB191" s="1">
+      <c r="AE191" s="1">
         <v>7573</v>
       </c>
-      <c r="AC191" s="1">
+      <c r="AF191" s="1">
         <v>31.4</v>
       </c>
-      <c r="AD191" s="1">
+      <c r="AG191" s="1">
         <v>17.2</v>
       </c>
-      <c r="AE191" s="1">
+      <c r="AH191" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A192" s="5" t="s">
         <v>158</v>
       </c>
@@ -12155,23 +13028,26 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
-      <c r="AA192" s="1">
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1">
         <v>2.46</v>
       </c>
-      <c r="AB192" s="1">
+      <c r="AE192" s="1">
         <v>7547</v>
       </c>
-      <c r="AC192" s="1">
+      <c r="AF192" s="1">
         <v>48</v>
       </c>
-      <c r="AD192" s="1">
+      <c r="AG192" s="1">
         <v>14</v>
       </c>
-      <c r="AE192" s="1">
+      <c r="AH192" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
         <v>159</v>
       </c>
@@ -12210,23 +13086,26 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
-      <c r="AA193" s="1">
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
+      <c r="AD193" s="1">
         <v>2.77</v>
       </c>
-      <c r="AB193" s="1">
+      <c r="AE193" s="1">
         <v>6057</v>
       </c>
-      <c r="AC193" s="1">
+      <c r="AF193" s="1">
         <v>38.9</v>
       </c>
-      <c r="AD193" s="1">
+      <c r="AG193" s="1">
         <v>15.8</v>
       </c>
-      <c r="AE193" s="1">
+      <c r="AH193" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
         <v>160</v>
       </c>
@@ -12265,23 +13144,26 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
-      <c r="AA194" s="1">
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1">
         <v>1.68</v>
       </c>
-      <c r="AB194" s="1">
+      <c r="AE194" s="1">
         <v>9582</v>
       </c>
-      <c r="AC194" s="1">
+      <c r="AF194" s="1">
         <v>42</v>
       </c>
-      <c r="AD194" s="1">
+      <c r="AG194" s="1">
         <v>9.6</v>
       </c>
-      <c r="AE194" s="1">
+      <c r="AH194" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
         <v>161</v>
       </c>
@@ -12320,23 +13202,26 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
-      <c r="AA195" s="1">
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB195" s="1">
+      <c r="AE195" s="1">
         <v>7102</v>
       </c>
-      <c r="AC195" s="1">
+      <c r="AF195" s="1">
         <v>33.4</v>
       </c>
-      <c r="AD195" s="1">
+      <c r="AG195" s="1">
         <v>13.7</v>
       </c>
-      <c r="AE195" s="1">
+      <c r="AH195" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A196" s="5" t="s">
         <v>162</v>
       </c>
@@ -12375,23 +13260,26 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
-      <c r="AA196" s="1">
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AB196" s="1">
+      <c r="AE196" s="1">
         <v>7278</v>
       </c>
-      <c r="AC196" s="1">
+      <c r="AF196" s="1">
         <v>46</v>
       </c>
-      <c r="AD196" s="1">
+      <c r="AG196" s="1">
         <v>11.7</v>
       </c>
-      <c r="AE196" s="1">
+      <c r="AH196" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A197" s="5" t="s">
         <v>163</v>
       </c>
@@ -12424,19 +13312,22 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
-      <c r="AA197" s="1">
-        <v>2.39</v>
-      </c>
+      <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
       <c r="AD197" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1">
         <v>13.6</v>
       </c>
-      <c r="AE197" s="1">
+      <c r="AH197" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
         <v>113</v>
       </c>
@@ -12477,23 +13368,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
-      <c r="AA198" s="1">
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1">
         <v>2.44</v>
       </c>
-      <c r="AB198" s="1">
+      <c r="AE198" s="1">
         <v>21306</v>
       </c>
-      <c r="AC198" s="1">
+      <c r="AF198" s="1">
         <v>46.6</v>
       </c>
-      <c r="AD198" s="1">
+      <c r="AG198" s="1">
         <v>13.9</v>
       </c>
-      <c r="AE198" s="1">
+      <c r="AH198" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A199" s="5" t="s">
         <v>114</v>
       </c>
@@ -12534,23 +13428,26 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
-      <c r="AA199" s="1">
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
+      <c r="AD199" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AB199" s="1">
+      <c r="AE199" s="1">
         <v>21350</v>
       </c>
-      <c r="AC199" s="1">
+      <c r="AF199" s="1">
         <v>44.6</v>
       </c>
-      <c r="AD199" s="1">
+      <c r="AG199" s="1">
         <v>14.4</v>
       </c>
-      <c r="AE199" s="1">
+      <c r="AH199" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
         <v>115</v>
       </c>
@@ -12591,23 +13488,26 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
-      <c r="AA200" s="1">
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
+      <c r="AD200" s="1">
         <v>2.76</v>
       </c>
-      <c r="AB200" s="1">
+      <c r="AE200" s="1">
         <v>14701</v>
       </c>
-      <c r="AC200" s="1">
+      <c r="AF200" s="1">
         <v>38</v>
       </c>
-      <c r="AD200" s="1">
+      <c r="AG200" s="1">
         <v>15.7</v>
       </c>
-      <c r="AE200" s="1">
+      <c r="AH200" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
         <v>116</v>
       </c>
@@ -12648,23 +13548,26 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
-      <c r="AA201" s="1">
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AD201" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB201" s="1">
+      <c r="AE201" s="1">
         <v>15428</v>
       </c>
-      <c r="AC201" s="1">
+      <c r="AF201" s="1">
         <v>37.5</v>
       </c>
-      <c r="AD201" s="1">
+      <c r="AG201" s="1">
         <v>13.7</v>
       </c>
-      <c r="AE201" s="1">
+      <c r="AH201" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
         <v>117</v>
       </c>
@@ -12705,23 +13608,26 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
-      <c r="AA202" s="1">
+      <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
+      <c r="AC202" s="1"/>
+      <c r="AD202" s="1">
         <v>2.42</v>
       </c>
-      <c r="AB202" s="1">
+      <c r="AE202" s="1">
         <v>17642</v>
       </c>
-      <c r="AC202" s="1">
+      <c r="AF202" s="1">
         <v>40.5</v>
       </c>
-      <c r="AD202" s="1">
+      <c r="AG202" s="1">
         <v>13.8</v>
       </c>
-      <c r="AE202" s="1">
+      <c r="AH202" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
         <v>118</v>
       </c>
@@ -12762,23 +13668,26 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
-      <c r="AA203" s="1">
+      <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
+      <c r="AC203" s="1"/>
+      <c r="AD203" s="1">
         <v>2.56</v>
       </c>
-      <c r="AB203" s="1">
+      <c r="AE203" s="1">
         <v>21472</v>
       </c>
-      <c r="AC203" s="1">
+      <c r="AF203" s="1">
         <v>39.800000000000004</v>
       </c>
-      <c r="AD203" s="1">
+      <c r="AG203" s="1">
         <v>14.6</v>
       </c>
-      <c r="AE203" s="1">
+      <c r="AH203" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
         <v>119</v>
       </c>
@@ -12819,23 +13728,26 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
-      <c r="AA204" s="1">
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1">
         <v>2.59</v>
       </c>
-      <c r="AB204" s="1">
+      <c r="AE204" s="1">
         <v>10334</v>
       </c>
-      <c r="AC204" s="1">
+      <c r="AF204" s="1">
         <v>34.700000000000003</v>
       </c>
-      <c r="AD204" s="1">
+      <c r="AG204" s="1">
         <v>14.8</v>
       </c>
-      <c r="AE204" s="1">
+      <c r="AH204" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
         <v>54</v>
       </c>
@@ -12872,19 +13784,22 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
-      <c r="AA205" s="1">
-        <v>1.84</v>
-      </c>
+      <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
       <c r="AD205" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="AE205" s="1"/>
+      <c r="AF205" s="1"/>
+      <c r="AG205" s="1">
         <v>10.5</v>
       </c>
-      <c r="AE205" s="1">
+      <c r="AH205" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
         <v>55</v>
       </c>
@@ -12921,19 +13836,22 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
-      <c r="AA206" s="1">
-        <v>2.04</v>
-      </c>
+      <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
       <c r="AD206" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="AE206" s="1"/>
+      <c r="AF206" s="1"/>
+      <c r="AG206" s="1">
         <v>11.6</v>
       </c>
-      <c r="AE206" s="1">
+      <c r="AH206" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
         <v>52</v>
       </c>
@@ -12974,23 +13892,26 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
-      <c r="AA207" s="1">
+      <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
+      <c r="AC207" s="1"/>
+      <c r="AD207" s="1">
         <v>1.66</v>
       </c>
-      <c r="AB207" s="1">
+      <c r="AE207" s="1">
         <v>4155</v>
       </c>
-      <c r="AC207" s="1">
+      <c r="AF207" s="1">
         <v>38.5</v>
       </c>
-      <c r="AD207" s="1">
+      <c r="AG207" s="1">
         <v>9.5</v>
       </c>
-      <c r="AE207" s="1">
+      <c r="AH207" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A208" s="5" t="s">
         <v>53</v>
       </c>
@@ -13027,23 +13948,26 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
-      <c r="AA208" s="1">
+      <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
+      <c r="AC208" s="1"/>
+      <c r="AD208" s="1">
         <v>1.82</v>
       </c>
-      <c r="AB208" s="1">
+      <c r="AE208" s="1">
         <v>6542.2</v>
       </c>
-      <c r="AC208" s="1">
+      <c r="AF208" s="1">
         <v>32.099999999999994</v>
       </c>
-      <c r="AD208" s="1">
+      <c r="AG208" s="1">
         <v>10.4</v>
       </c>
-      <c r="AE208" s="1">
+      <c r="AH208" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A209" s="5" t="s">
         <v>56</v>
       </c>
@@ -13081,16 +14005,19 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
-      <c r="AB209" s="1">
-        <v>9857</v>
-      </c>
+      <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
       <c r="AD209" s="1"/>
       <c r="AE209" s="1">
+        <v>9857</v>
+      </c>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+      <c r="AH209" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A210" s="5" t="s">
         <v>181</v>
       </c>
@@ -13129,23 +14056,26 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
-      <c r="AA210" s="1">
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1">
         <v>2.06</v>
       </c>
-      <c r="AB210" s="1">
+      <c r="AE210" s="1">
         <v>8221.1</v>
       </c>
-      <c r="AC210" s="1">
+      <c r="AF210" s="1">
         <v>27.7</v>
       </c>
-      <c r="AD210" s="1">
+      <c r="AG210" s="1">
         <v>11.7</v>
       </c>
-      <c r="AE210" s="1">
+      <c r="AH210" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A211" s="5" t="s">
         <v>182</v>
       </c>
@@ -13184,23 +14114,26 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
-      <c r="AA211" s="1">
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1">
         <v>2.04</v>
       </c>
-      <c r="AB211" s="1">
+      <c r="AE211" s="1">
         <v>8114.9</v>
       </c>
-      <c r="AC211" s="1">
+      <c r="AF211" s="1">
         <v>30.900000000000002</v>
       </c>
-      <c r="AD211" s="1">
+      <c r="AG211" s="1">
         <v>11.6</v>
       </c>
-      <c r="AE211" s="1">
+      <c r="AH211" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A212" s="5" t="s">
         <v>183</v>
       </c>
@@ -13239,23 +14172,26 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
-      <c r="AA212" s="1">
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1">
         <v>1.83</v>
       </c>
-      <c r="AB212" s="1">
+      <c r="AE212" s="1">
         <v>11694.5</v>
       </c>
-      <c r="AC212" s="1">
+      <c r="AF212" s="1">
         <v>21.7</v>
       </c>
-      <c r="AD212" s="1">
+      <c r="AG212" s="1">
         <v>10.4</v>
       </c>
-      <c r="AE212" s="1">
+      <c r="AH212" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A213" s="5" t="s">
         <v>184</v>
       </c>
@@ -13294,23 +14230,26 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
-      <c r="AA213" s="1">
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1">
         <v>2.14</v>
       </c>
-      <c r="AB213" s="1">
+      <c r="AE213" s="1">
         <v>10901.3</v>
       </c>
-      <c r="AC213" s="1">
+      <c r="AF213" s="1">
         <v>24.5</v>
       </c>
-      <c r="AD213" s="1">
+      <c r="AG213" s="1">
         <v>12.2</v>
       </c>
-      <c r="AE213" s="1">
+      <c r="AH213" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A214" s="5" t="s">
         <v>185</v>
       </c>
@@ -13349,23 +14288,26 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
-      <c r="AA214" s="1">
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1">
         <v>2.52</v>
       </c>
-      <c r="AB214" s="1">
+      <c r="AE214" s="1">
         <v>10786.68</v>
       </c>
-      <c r="AC214" s="1">
+      <c r="AF214" s="1">
         <v>22.700000000000003</v>
       </c>
-      <c r="AD214" s="1">
+      <c r="AG214" s="1">
         <v>14.3</v>
       </c>
-      <c r="AE214" s="1">
+      <c r="AH214" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A215" s="5" t="s">
         <v>186</v>
       </c>
@@ -13404,23 +14346,26 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
-      <c r="AA215" s="1">
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
+      <c r="AD215" s="1">
         <v>1.67</v>
       </c>
-      <c r="AB215" s="1">
+      <c r="AE215" s="1">
         <v>3717.8</v>
       </c>
-      <c r="AC215" s="1">
+      <c r="AF215" s="1">
         <v>26.599999999999998</v>
       </c>
-      <c r="AD215" s="1">
+      <c r="AG215" s="1">
         <v>9.5</v>
       </c>
-      <c r="AE215" s="1">
+      <c r="AH215" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A216" s="5" t="s">
         <v>187</v>
       </c>
@@ -13459,23 +14404,26 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
-      <c r="AA216" s="1">
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1">
         <v>1.74</v>
       </c>
-      <c r="AB216" s="1">
+      <c r="AE216" s="1">
         <v>5286.9</v>
       </c>
-      <c r="AC216" s="1">
+      <c r="AF216" s="1">
         <v>27.2</v>
       </c>
-      <c r="AD216" s="1">
+      <c r="AG216" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AE216" s="1">
+      <c r="AH216" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
         <v>188</v>
       </c>
@@ -13514,23 +14462,26 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
-      <c r="AA217" s="1">
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1">
         <v>1.83</v>
       </c>
-      <c r="AB217" s="1">
+      <c r="AE217" s="1">
         <v>6170.5</v>
       </c>
-      <c r="AC217" s="1">
+      <c r="AF217" s="1">
         <v>28.5</v>
       </c>
-      <c r="AD217" s="1">
+      <c r="AG217" s="1">
         <v>10.4</v>
       </c>
-      <c r="AE217" s="1">
+      <c r="AH217" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
         <v>189</v>
       </c>
@@ -13569,23 +14520,26 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
-      <c r="AA218" s="1">
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
+      <c r="AD218" s="1">
         <v>1.87</v>
       </c>
-      <c r="AB218" s="1">
+      <c r="AE218" s="1">
         <v>7501</v>
       </c>
-      <c r="AC218" s="1">
+      <c r="AF218" s="1">
         <v>27.5</v>
       </c>
-      <c r="AD218" s="1">
+      <c r="AG218" s="1">
         <v>10.6</v>
       </c>
-      <c r="AE218" s="1">
+      <c r="AH218" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A219" s="5" t="s">
         <v>190</v>
       </c>
@@ -13624,23 +14578,26 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
-      <c r="AA219" s="1">
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1">
         <v>1.88</v>
       </c>
-      <c r="AB219" s="1">
+      <c r="AE219" s="1">
         <v>8349.2999999999993</v>
       </c>
-      <c r="AC219" s="1">
+      <c r="AF219" s="1">
         <v>27</v>
       </c>
-      <c r="AD219" s="1">
+      <c r="AG219" s="1">
         <v>10.6</v>
       </c>
-      <c r="AE219" s="1">
+      <c r="AH219" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A220" s="5" t="s">
         <v>43</v>
       </c>
@@ -13677,23 +14634,26 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
-      <c r="AA220" s="1">
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
+      <c r="AD220" s="1">
         <v>1.94</v>
       </c>
-      <c r="AB220" s="1">
+      <c r="AE220" s="1">
         <v>4956.2</v>
       </c>
-      <c r="AC220" s="1">
+      <c r="AF220" s="1">
         <v>34.299999999999997</v>
       </c>
-      <c r="AD220" s="1">
+      <c r="AG220" s="1">
         <v>11.1</v>
       </c>
-      <c r="AE220" s="1">
+      <c r="AH220" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
         <v>44</v>
       </c>
@@ -13730,23 +14690,26 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
-      <c r="AA221" s="1">
+      <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
+      <c r="AC221" s="1"/>
+      <c r="AD221" s="1">
         <v>1.92</v>
       </c>
-      <c r="AB221" s="1">
+      <c r="AE221" s="1">
         <v>7621.9</v>
       </c>
-      <c r="AC221" s="1">
+      <c r="AF221" s="1">
         <v>32.800000000000004</v>
       </c>
-      <c r="AD221" s="1">
+      <c r="AG221" s="1">
         <v>11</v>
       </c>
-      <c r="AE221" s="1">
+      <c r="AH221" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>45</v>
       </c>
@@ -13783,23 +14746,26 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
-      <c r="AA222" s="1">
+      <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
+      <c r="AC222" s="1"/>
+      <c r="AD222" s="1">
         <v>2.35</v>
       </c>
-      <c r="AB222" s="1">
+      <c r="AE222" s="1">
         <v>7255.5</v>
       </c>
-      <c r="AC222" s="1">
+      <c r="AF222" s="1">
         <v>31.7</v>
       </c>
-      <c r="AD222" s="1">
+      <c r="AG222" s="1">
         <v>13.4</v>
       </c>
-      <c r="AE222" s="1">
+      <c r="AH222" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>46</v>
       </c>
@@ -13836,23 +14802,26 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
-      <c r="AA223" s="1">
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
+      <c r="AD223" s="1">
         <v>2.42</v>
       </c>
-      <c r="AB223" s="1">
+      <c r="AE223" s="1">
         <v>8227.7999999999993</v>
       </c>
-      <c r="AC223" s="1">
+      <c r="AF223" s="1">
         <v>31.6</v>
       </c>
-      <c r="AD223" s="1">
+      <c r="AG223" s="1">
         <v>13.8</v>
       </c>
-      <c r="AE223" s="1">
+      <c r="AH223" s="1">
         <v>325</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>103</v>
       </c>
@@ -13894,8 +14863,11 @@
       <c r="AC224" s="1"/>
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
-    </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF224" s="1"/>
+      <c r="AG224" s="1"/>
+      <c r="AH224" s="1"/>
+    </row>
+    <row r="225" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
         <v>104</v>
       </c>
@@ -13937,8 +14909,11 @@
       <c r="AC225" s="1"/>
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
-    </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+      <c r="AH225" s="1"/>
+    </row>
+    <row r="226" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>105</v>
       </c>
@@ -13980,8 +14955,11 @@
       <c r="AC226" s="1"/>
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
-    </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+      <c r="AH226" s="1"/>
+    </row>
+    <row r="227" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A227" s="5" t="s">
         <v>262</v>
       </c>
@@ -13997,14 +14975,14 @@
       <c r="G227" s="8">
         <v>725.23290576948159</v>
       </c>
-      <c r="AB227" s="8">
+      <c r="AE227" s="8">
         <v>17741.658403475769</v>
       </c>
-      <c r="AC227" s="8">
+      <c r="AF227" s="8">
         <v>40.877402172696613</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A228" s="5" t="s">
         <v>263</v>
       </c>
@@ -14020,14 +14998,14 @@
       <c r="G228" s="8">
         <v>468.44832234248469</v>
       </c>
-      <c r="AB228" s="8">
+      <c r="AE228" s="8">
         <v>16295.331929885477</v>
       </c>
-      <c r="AC228" s="8">
+      <c r="AF228" s="8">
         <v>28.747393692751672</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A229" s="5" t="s">
         <v>266</v>
       </c>
@@ -14043,14 +15021,14 @@
       <c r="G229">
         <v>636.29999999999995</v>
       </c>
-      <c r="AB229">
+      <c r="AE229">
         <v>16885</v>
       </c>
-      <c r="AC229">
+      <c r="AF229">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A230" s="5" t="s">
         <v>267</v>
       </c>
@@ -14066,14 +15044,14 @@
       <c r="G230">
         <v>554.25</v>
       </c>
-      <c r="AB230">
+      <c r="AE230">
         <v>15830</v>
       </c>
-      <c r="AC230">
+      <c r="AF230">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A231" s="5" t="s">
         <v>268</v>
       </c>
@@ -14089,14 +15067,14 @@
       <c r="G231">
         <v>380</v>
       </c>
-      <c r="AB231">
+      <c r="AE231">
         <v>10025</v>
       </c>
-      <c r="AC231">
+      <c r="AF231">
         <v>37.9</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>278</v>
       </c>
@@ -14112,18 +15090,18 @@
       <c r="G232">
         <v>365</v>
       </c>
-      <c r="AB232">
+      <c r="AE232">
         <v>9746</v>
       </c>
-      <c r="AC232" s="21">
-        <f>G232/AB232*1000</f>
+      <c r="AF232" s="21">
+        <f>G232/AE232*1000</f>
         <v>37.451262056228195</v>
       </c>
-      <c r="AD232">
+      <c r="AG232">
         <v>6.9</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>279</v>
       </c>
@@ -14139,18 +15117,18 @@
       <c r="G233">
         <v>300</v>
       </c>
-      <c r="AB233">
+      <c r="AE233">
         <v>8755</v>
       </c>
-      <c r="AC233" s="21">
-        <f t="shared" ref="AC233:AC239" si="0">G233/AB233*1000</f>
+      <c r="AF233" s="21">
+        <f t="shared" ref="AF233:AF239" si="3">G233/AE233*1000</f>
         <v>34.266133637921186</v>
       </c>
-      <c r="AD233">
+      <c r="AG233">
         <v>7.5</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>280</v>
       </c>
@@ -14166,18 +15144,18 @@
       <c r="G234">
         <v>163</v>
       </c>
-      <c r="AB234">
+      <c r="AE234">
         <v>6773</v>
       </c>
-      <c r="AC234" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF234" s="21">
+        <f t="shared" si="3"/>
         <v>24.066144987450173</v>
       </c>
-      <c r="AD234">
+      <c r="AG234">
         <v>11.9</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>281</v>
       </c>
@@ -14193,18 +15171,18 @@
       <c r="G235">
         <v>199</v>
       </c>
-      <c r="AB235">
+      <c r="AE235">
         <v>7325</v>
       </c>
-      <c r="AC235" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF235" s="21">
+        <f t="shared" si="3"/>
         <v>27.167235494880547</v>
       </c>
-      <c r="AD235">
+      <c r="AG235">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>282</v>
       </c>
@@ -14220,18 +15198,18 @@
       <c r="G236">
         <v>601</v>
       </c>
-      <c r="AB236">
+      <c r="AE236">
         <v>15060</v>
       </c>
-      <c r="AC236" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF236" s="21">
+        <f t="shared" si="3"/>
         <v>39.907038512616204</v>
       </c>
-      <c r="AD236">
+      <c r="AG236">
         <v>7.6</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>283</v>
       </c>
@@ -14247,18 +15225,18 @@
       <c r="G237">
         <v>453</v>
       </c>
-      <c r="AB237">
+      <c r="AE237">
         <v>12180</v>
       </c>
-      <c r="AC237" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF237" s="21">
+        <f t="shared" si="3"/>
         <v>37.192118226600982</v>
       </c>
-      <c r="AD237">
+      <c r="AG237">
         <v>7.5</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>284</v>
       </c>
@@ -14274,18 +15252,18 @@
       <c r="G238">
         <v>468</v>
       </c>
-      <c r="AB238">
+      <c r="AE238">
         <v>13530</v>
       </c>
-      <c r="AC238" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF238" s="21">
+        <f t="shared" si="3"/>
         <v>34.589800443458984</v>
       </c>
-      <c r="AD238">
+      <c r="AG238">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>285</v>
       </c>
@@ -14301,18 +15279,18 @@
       <c r="G239">
         <v>421</v>
       </c>
-      <c r="AB239">
+      <c r="AE239">
         <v>11830</v>
       </c>
-      <c r="AC239" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF239" s="21">
+        <f t="shared" si="3"/>
         <v>35.587489433643277</v>
       </c>
-      <c r="AD239">
+      <c r="AG239">
         <v>10.3</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
         <v>286</v>
       </c>
@@ -14329,25 +15307,25 @@
         <v>682</v>
       </c>
       <c r="S240">
-        <f>G240*AA240/100</f>
+        <f>G240*AD240/100</f>
         <v>15.646584938704029</v>
       </c>
-      <c r="AA240">
-        <f>AD240/5.71</f>
+      <c r="AD240">
+        <f>AG240/5.71</f>
         <v>2.2942206654991244</v>
       </c>
-      <c r="AB240">
-        <f>G240/AC240*1000</f>
+      <c r="AE240">
+        <f>G240/AF240*1000</f>
         <v>17442.455242966753</v>
       </c>
-      <c r="AC240">
+      <c r="AF240">
         <v>39.1</v>
       </c>
-      <c r="AD240">
+      <c r="AG240">
         <v>13.1</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A241" s="5" t="s">
         <v>287</v>
       </c>
@@ -14364,25 +15342,25 @@
         <v>630</v>
       </c>
       <c r="S241">
-        <f t="shared" ref="S241:S283" si="1">G241*AA241/100</f>
+        <f t="shared" ref="S241:S283" si="4">G241*AD241/100</f>
         <v>14.23292469352014</v>
       </c>
-      <c r="AA241">
-        <f t="shared" ref="AA241:AA283" si="2">AD241/5.71</f>
+      <c r="AD241">
+        <f t="shared" ref="AD241:AD283" si="5">AG241/5.71</f>
         <v>2.2591943957968477</v>
       </c>
-      <c r="AB241">
-        <f t="shared" ref="AB241:AB283" si="3">G241/AC241*1000</f>
+      <c r="AE241">
+        <f t="shared" ref="AE241:AE283" si="6">G241/AF241*1000</f>
         <v>15750</v>
       </c>
-      <c r="AC241">
+      <c r="AF241">
         <v>40</v>
       </c>
-      <c r="AD241">
+      <c r="AG241">
         <v>12.9</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
         <v>288</v>
       </c>
@@ -14399,25 +15377,25 @@
         <v>572</v>
       </c>
       <c r="S242">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.523642732049039</v>
       </c>
-      <c r="AA242">
-        <f t="shared" si="2"/>
+      <c r="AD242">
+        <f t="shared" si="5"/>
         <v>2.3642732049036779</v>
       </c>
-      <c r="AB242">
-        <f t="shared" si="3"/>
+      <c r="AE242">
+        <f t="shared" si="6"/>
         <v>14554.707379134861</v>
       </c>
-      <c r="AC242">
+      <c r="AF242">
         <v>39.299999999999997</v>
       </c>
-      <c r="AD242">
+      <c r="AG242">
         <v>13.5</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A243" s="5" t="s">
         <v>289</v>
       </c>
@@ -14434,25 +15412,25 @@
         <v>435</v>
       </c>
       <c r="S243">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.741681260945709</v>
       </c>
-      <c r="AA243">
-        <f t="shared" si="2"/>
+      <c r="AD243">
+        <f t="shared" si="5"/>
         <v>2.4693520140105076</v>
       </c>
-      <c r="AB243">
-        <f t="shared" si="3"/>
+      <c r="AE243">
+        <f t="shared" si="6"/>
         <v>11096.938775510203</v>
       </c>
-      <c r="AC243">
+      <c r="AF243">
         <v>39.200000000000003</v>
       </c>
-      <c r="AD243">
+      <c r="AG243">
         <v>14.1</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A244" s="5" t="s">
         <v>290</v>
       </c>
@@ -14469,25 +15447,25 @@
         <v>627</v>
       </c>
       <c r="S244">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.945534150612959</v>
       </c>
-      <c r="AA244">
-        <f t="shared" si="2"/>
+      <c r="AD244">
+        <f t="shared" si="5"/>
         <v>2.2241681260945709</v>
       </c>
-      <c r="AB244">
-        <f t="shared" si="3"/>
+      <c r="AE244">
+        <f t="shared" si="6"/>
         <v>15873.417721518987</v>
       </c>
-      <c r="AC244">
+      <c r="AF244">
         <v>39.5</v>
       </c>
-      <c r="AD244">
+      <c r="AG244">
         <v>12.7</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A245" s="5" t="s">
         <v>291</v>
       </c>
@@ -14504,25 +15482,25 @@
         <v>551</v>
       </c>
       <c r="S245">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.544658493870404</v>
       </c>
-      <c r="AA245">
-        <f t="shared" si="2"/>
+      <c r="AD245">
+        <f t="shared" si="5"/>
         <v>2.276707530647986</v>
       </c>
-      <c r="AB245">
-        <f t="shared" si="3"/>
+      <c r="AE245">
+        <f t="shared" si="6"/>
         <v>14851.752021563343</v>
       </c>
-      <c r="AC245">
+      <c r="AF245">
         <v>37.1</v>
       </c>
-      <c r="AD245">
+      <c r="AG245">
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
         <v>292</v>
       </c>
@@ -14539,25 +15517,25 @@
         <v>441</v>
       </c>
       <c r="S246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.117513134851139</v>
       </c>
-      <c r="AA246">
-        <f t="shared" si="2"/>
+      <c r="AD246">
+        <f t="shared" si="5"/>
         <v>2.2942206654991244</v>
       </c>
-      <c r="AB246">
-        <f t="shared" si="3"/>
+      <c r="AE246">
+        <f t="shared" si="6"/>
         <v>12284.122562674096</v>
       </c>
-      <c r="AC246">
+      <c r="AF246">
         <v>35.9</v>
       </c>
-      <c r="AD246">
+      <c r="AG246">
         <v>13.1</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A247" s="5" t="s">
         <v>293</v>
       </c>
@@ -14574,25 +15552,25 @@
         <v>667</v>
       </c>
       <c r="S247">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.48476357267951</v>
       </c>
-      <c r="AA247">
-        <f t="shared" si="2"/>
+      <c r="AD247">
+        <f t="shared" si="5"/>
         <v>2.1716287215411558</v>
       </c>
-      <c r="AB247">
-        <f t="shared" si="3"/>
+      <c r="AE247">
+        <f t="shared" si="6"/>
         <v>17146.529562982007</v>
       </c>
-      <c r="AC247">
+      <c r="AF247">
         <v>38.9</v>
       </c>
-      <c r="AD247">
+      <c r="AG247">
         <v>12.4</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A248" s="5" t="s">
         <v>294</v>
       </c>
@@ -14609,25 +15587,25 @@
         <v>637</v>
       </c>
       <c r="S248">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.167950963222417</v>
       </c>
-      <c r="AA248">
-        <f t="shared" si="2"/>
+      <c r="AD248">
+        <f t="shared" si="5"/>
         <v>2.2241681260945709</v>
       </c>
-      <c r="AB248">
-        <f t="shared" si="3"/>
+      <c r="AE248">
+        <f t="shared" si="6"/>
         <v>15964.912280701756</v>
       </c>
-      <c r="AC248">
+      <c r="AF248">
         <v>39.9</v>
       </c>
-      <c r="AD248">
+      <c r="AG248">
         <v>12.7</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A249" s="5" t="s">
         <v>295</v>
       </c>
@@ -14644,25 +15622,25 @@
         <v>533</v>
       </c>
       <c r="S249">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.854816112084062</v>
       </c>
-      <c r="AA249">
-        <f t="shared" si="2"/>
+      <c r="AD249">
+        <f t="shared" si="5"/>
         <v>2.2241681260945709</v>
       </c>
-      <c r="AB249">
-        <f t="shared" si="3"/>
+      <c r="AE249">
+        <f t="shared" si="6"/>
         <v>14175.531914893616</v>
       </c>
-      <c r="AC249">
+      <c r="AF249">
         <v>37.6</v>
       </c>
-      <c r="AD249">
+      <c r="AG249">
         <v>12.7</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A250" s="5" t="s">
         <v>296</v>
       </c>
@@ -14679,25 +15657,25 @@
         <v>564</v>
       </c>
       <c r="S250">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.741856392294221</v>
       </c>
-      <c r="AA250">
-        <f t="shared" si="2"/>
+      <c r="AD250">
+        <f t="shared" si="5"/>
         <v>2.2591943957968477</v>
       </c>
-      <c r="AB250">
-        <f t="shared" si="3"/>
+      <c r="AE250">
+        <f t="shared" si="6"/>
         <v>14351.145038167941</v>
       </c>
-      <c r="AC250">
+      <c r="AF250">
         <v>39.299999999999997</v>
       </c>
-      <c r="AD250">
+      <c r="AG250">
         <v>12.9</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>297</v>
       </c>
@@ -14714,25 +15692,25 @@
         <v>497</v>
       </c>
       <c r="S251">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.96707530647986</v>
       </c>
-      <c r="AA251">
-        <f t="shared" si="2"/>
+      <c r="AD251">
+        <f t="shared" si="5"/>
         <v>2.2066549912434326</v>
       </c>
-      <c r="AB251">
-        <f t="shared" si="3"/>
+      <c r="AE251">
+        <f t="shared" si="6"/>
         <v>12875.647668393782</v>
       </c>
-      <c r="AC251">
+      <c r="AF251">
         <v>38.6</v>
       </c>
-      <c r="AD251">
+      <c r="AG251">
         <v>12.6</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A252" s="5" t="s">
         <v>298</v>
       </c>
@@ -14749,25 +15727,25 @@
         <v>411</v>
       </c>
       <c r="S252">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5012259194395803</v>
       </c>
-      <c r="AA252">
-        <f t="shared" si="2"/>
+      <c r="AD252">
+        <f t="shared" si="5"/>
         <v>2.3117338003502628</v>
       </c>
-      <c r="AB252">
-        <f t="shared" si="3"/>
+      <c r="AE252">
+        <f t="shared" si="6"/>
         <v>12492.401215805472</v>
       </c>
-      <c r="AC252">
+      <c r="AF252">
         <v>32.9</v>
       </c>
-      <c r="AD252">
+      <c r="AG252">
         <v>13.2</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>299</v>
       </c>
@@ -14784,25 +15762,25 @@
         <v>602</v>
       </c>
       <c r="S253">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.494921190893169</v>
       </c>
-      <c r="AA253">
-        <f t="shared" si="2"/>
+      <c r="AD253">
+        <f t="shared" si="5"/>
         <v>2.2416812609457093</v>
       </c>
-      <c r="AB253">
-        <f t="shared" si="3"/>
+      <c r="AE253">
+        <f t="shared" si="6"/>
         <v>15718.015665796345</v>
       </c>
-      <c r="AC253">
+      <c r="AF253">
         <v>38.299999999999997</v>
       </c>
-      <c r="AD253">
+      <c r="AG253">
         <v>12.8</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>300</v>
       </c>
@@ -14819,25 +15797,25 @@
         <v>521</v>
       </c>
       <c r="S254">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.135376532399301</v>
       </c>
-      <c r="AA254">
-        <f t="shared" si="2"/>
+      <c r="AD254">
+        <f t="shared" si="5"/>
         <v>2.3292469352014011</v>
       </c>
-      <c r="AB254">
-        <f t="shared" si="3"/>
+      <c r="AE254">
+        <f t="shared" si="6"/>
         <v>13674.540682414698</v>
       </c>
-      <c r="AC254">
+      <c r="AF254">
         <v>38.1</v>
       </c>
-      <c r="AD254">
+      <c r="AG254">
         <v>13.3</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>301</v>
       </c>
@@ -14854,25 +15832,25 @@
         <v>454</v>
       </c>
       <c r="S255">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.415761821366026</v>
       </c>
-      <c r="AA255">
-        <f t="shared" si="2"/>
+      <c r="AD255">
+        <f t="shared" si="5"/>
         <v>2.2942206654991244</v>
       </c>
-      <c r="AB255">
-        <f t="shared" si="3"/>
+      <c r="AE255">
+        <f t="shared" si="6"/>
         <v>12270.27027027027</v>
       </c>
-      <c r="AC255">
+      <c r="AF255">
         <v>37</v>
       </c>
-      <c r="AD255">
+      <c r="AG255">
         <v>13.1</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A256" s="5" t="s">
         <v>302</v>
       </c>
@@ -14889,25 +15867,25 @@
         <v>547</v>
       </c>
       <c r="S256">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.453590192644484</v>
       </c>
-      <c r="AA256">
-        <f t="shared" si="2"/>
+      <c r="AD256">
+        <f t="shared" si="5"/>
         <v>2.276707530647986</v>
       </c>
-      <c r="AB256">
-        <f t="shared" si="3"/>
+      <c r="AE256">
+        <f t="shared" si="6"/>
         <v>13954.08163265306</v>
       </c>
-      <c r="AC256">
+      <c r="AF256">
         <v>39.200000000000003</v>
       </c>
-      <c r="AD256">
+      <c r="AG256">
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A257" s="5" t="s">
         <v>303</v>
       </c>
@@ -14924,25 +15902,25 @@
         <v>486</v>
       </c>
       <c r="S257">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.575481611208406</v>
       </c>
-      <c r="AA257">
-        <f t="shared" si="2"/>
+      <c r="AD257">
+        <f t="shared" si="5"/>
         <v>2.3817863397548162</v>
       </c>
-      <c r="AB257">
-        <f t="shared" si="3"/>
+      <c r="AE257">
+        <f t="shared" si="6"/>
         <v>12925.531914893616</v>
       </c>
-      <c r="AC257">
+      <c r="AF257">
         <v>37.6</v>
       </c>
-      <c r="AD257">
+      <c r="AG257">
         <v>13.6</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A258" s="5" t="s">
         <v>304</v>
       </c>
@@ -14959,25 +15937,25 @@
         <v>357</v>
       </c>
       <c r="S258">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0656742556917678</v>
       </c>
-      <c r="AA258">
-        <f t="shared" si="2"/>
+      <c r="AD258">
+        <f t="shared" si="5"/>
         <v>2.5394045534150611</v>
       </c>
-      <c r="AB258">
-        <f t="shared" si="3"/>
+      <c r="AE258">
+        <f t="shared" si="6"/>
         <v>10347.826086956522</v>
       </c>
-      <c r="AC258">
+      <c r="AF258">
         <v>34.5</v>
       </c>
-      <c r="AD258">
+      <c r="AG258">
         <v>14.5</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
         <v>305</v>
       </c>
@@ -14994,25 +15972,25 @@
         <v>530</v>
       </c>
       <c r="S259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.695271453590191</v>
       </c>
-      <c r="AA259">
-        <f t="shared" si="2"/>
+      <c r="AD259">
+        <f t="shared" si="5"/>
         <v>2.2066549912434326</v>
       </c>
-      <c r="AB259">
-        <f t="shared" si="3"/>
+      <c r="AE259">
+        <f t="shared" si="6"/>
         <v>14247.311827956988</v>
       </c>
-      <c r="AC259">
+      <c r="AF259">
         <v>37.200000000000003</v>
       </c>
-      <c r="AD259">
+      <c r="AG259">
         <v>12.6</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A260" s="5" t="s">
         <v>306</v>
       </c>
@@ -15029,25 +16007,25 @@
         <v>409</v>
       </c>
       <c r="S260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5266199649737295</v>
       </c>
-      <c r="AA260">
-        <f t="shared" si="2"/>
+      <c r="AD260">
+        <f t="shared" si="5"/>
         <v>2.3292469352014011</v>
       </c>
-      <c r="AB260">
-        <f t="shared" si="3"/>
+      <c r="AE260">
+        <f t="shared" si="6"/>
         <v>10906.666666666666</v>
       </c>
-      <c r="AC260">
+      <c r="AF260">
         <v>37.5</v>
       </c>
-      <c r="AD260">
+      <c r="AG260">
         <v>13.3</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A261" s="5" t="s">
         <v>307</v>
       </c>
@@ -15064,25 +16042,25 @@
         <v>288</v>
       </c>
       <c r="S261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1621716287215405</v>
       </c>
-      <c r="AA261">
-        <f t="shared" si="2"/>
+      <c r="AD261">
+        <f t="shared" si="5"/>
         <v>2.486865148861646</v>
       </c>
-      <c r="AB261">
-        <f t="shared" si="3"/>
+      <c r="AE261">
+        <f t="shared" si="6"/>
         <v>8495.575221238938</v>
       </c>
-      <c r="AC261">
+      <c r="AF261">
         <v>33.9</v>
       </c>
-      <c r="AD261">
+      <c r="AG261">
         <v>14.2</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A262" s="5" t="s">
         <v>329</v>
       </c>
@@ -15099,25 +16077,25 @@
         <v>647</v>
       </c>
       <c r="S262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.750087565674256</v>
       </c>
-      <c r="AA262">
-        <f t="shared" si="2"/>
+      <c r="AD262">
+        <f t="shared" si="5"/>
         <v>2.4343257443082313</v>
       </c>
-      <c r="AB262">
-        <f t="shared" si="3"/>
+      <c r="AE262">
+        <f t="shared" si="6"/>
         <v>13070.707070707071</v>
       </c>
-      <c r="AC262">
+      <c r="AF262">
         <v>49.5</v>
       </c>
-      <c r="AD262">
+      <c r="AG262">
         <v>13.9</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A263" s="5" t="s">
         <v>308</v>
       </c>
@@ -15134,25 +16112,25 @@
         <v>604</v>
       </c>
       <c r="S263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.914886164623464</v>
       </c>
-      <c r="AA263">
-        <f t="shared" si="2"/>
+      <c r="AD263">
+        <f t="shared" si="5"/>
         <v>2.4693520140105076</v>
       </c>
-      <c r="AB263">
-        <f t="shared" si="3"/>
+      <c r="AE263">
+        <f t="shared" si="6"/>
         <v>11570.88122605364</v>
       </c>
-      <c r="AC263">
+      <c r="AF263">
         <v>52.2</v>
       </c>
-      <c r="AD263">
+      <c r="AG263">
         <v>14.1</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A264" s="5" t="s">
         <v>309</v>
       </c>
@@ -15169,25 +16147,25 @@
         <v>561</v>
       </c>
       <c r="S264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.558318739054291</v>
       </c>
-      <c r="AA264">
-        <f t="shared" si="2"/>
+      <c r="AD264">
+        <f t="shared" si="5"/>
         <v>2.416812609457093</v>
       </c>
-      <c r="AB264">
-        <f t="shared" si="3"/>
+      <c r="AE264">
+        <f t="shared" si="6"/>
         <v>11175.298804780876</v>
       </c>
-      <c r="AC264">
+      <c r="AF264">
         <v>50.2</v>
       </c>
-      <c r="AD264">
+      <c r="AG264">
         <v>13.8</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A265" s="5" t="s">
         <v>310</v>
       </c>
@@ -15204,25 +16182,25 @@
         <v>467</v>
       </c>
       <c r="S265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.022591943957968</v>
       </c>
-      <c r="AA265">
-        <f t="shared" si="2"/>
+      <c r="AD265">
+        <f t="shared" si="5"/>
         <v>2.5744308231173378</v>
       </c>
-      <c r="AB265">
-        <f t="shared" si="3"/>
+      <c r="AE265">
+        <f t="shared" si="6"/>
         <v>9511.2016293279012</v>
       </c>
-      <c r="AC265">
+      <c r="AF265">
         <v>49.1</v>
       </c>
-      <c r="AD265">
+      <c r="AG265">
         <v>14.7</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A266" s="5" t="s">
         <v>311</v>
       </c>
@@ -15239,25 +16217,25 @@
         <v>595</v>
       </c>
       <c r="S266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.692644483362521</v>
       </c>
-      <c r="AA266">
-        <f t="shared" si="2"/>
+      <c r="AD266">
+        <f t="shared" si="5"/>
         <v>2.4693520140105076</v>
       </c>
-      <c r="AB266">
-        <f t="shared" si="3"/>
+      <c r="AE266">
+        <f t="shared" si="6"/>
         <v>11805.555555555555</v>
       </c>
-      <c r="AC266">
+      <c r="AF266">
         <v>50.4</v>
       </c>
-      <c r="AD266">
+      <c r="AG266">
         <v>14.1</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
         <v>312</v>
       </c>
@@ -15274,25 +16252,25 @@
         <v>549</v>
       </c>
       <c r="S267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.979859894921193</v>
       </c>
-      <c r="AA267">
-        <f t="shared" si="2"/>
+      <c r="AD267">
+        <f t="shared" si="5"/>
         <v>2.3642732049036779</v>
       </c>
-      <c r="AB267">
-        <f t="shared" si="3"/>
+      <c r="AE267">
+        <f t="shared" si="6"/>
         <v>11461.377870563676</v>
       </c>
-      <c r="AC267">
+      <c r="AF267">
         <v>47.9</v>
       </c>
-      <c r="AD267">
+      <c r="AG267">
         <v>13.5</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A268" s="5" t="s">
         <v>313</v>
       </c>
@@ -15309,25 +16287,25 @@
         <v>451</v>
       </c>
       <c r="S268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.662872154115586</v>
       </c>
-      <c r="AA268">
-        <f t="shared" si="2"/>
+      <c r="AD268">
+        <f t="shared" si="5"/>
         <v>2.3642732049036779</v>
       </c>
-      <c r="AB268">
-        <f t="shared" si="3"/>
+      <c r="AE268">
+        <f t="shared" si="6"/>
         <v>10512.820512820514</v>
       </c>
-      <c r="AC268">
+      <c r="AF268">
         <v>42.9</v>
       </c>
-      <c r="AD268">
+      <c r="AG268">
         <v>13.5</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
         <v>314</v>
       </c>
@@ -15344,25 +16322,25 @@
         <v>625</v>
       </c>
       <c r="S269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.32399299474606</v>
       </c>
-      <c r="AA269">
-        <f t="shared" si="2"/>
+      <c r="AD269">
+        <f t="shared" si="5"/>
         <v>2.4518388791593697</v>
       </c>
-      <c r="AB269">
-        <f t="shared" si="3"/>
+      <c r="AE269">
+        <f t="shared" si="6"/>
         <v>12351.778656126482</v>
       </c>
-      <c r="AC269">
+      <c r="AF269">
         <v>50.6</v>
       </c>
-      <c r="AD269">
+      <c r="AG269">
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A270" s="5" t="s">
         <v>315</v>
       </c>
@@ -15379,25 +16357,25 @@
         <v>589</v>
       </c>
       <c r="S270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.028721541155868</v>
       </c>
-      <c r="AA270">
-        <f t="shared" si="2"/>
+      <c r="AD270">
+        <f t="shared" si="5"/>
         <v>2.3817863397548162</v>
       </c>
-      <c r="AB270">
-        <f t="shared" si="3"/>
+      <c r="AE270">
+        <f t="shared" si="6"/>
         <v>12916.666666666666</v>
       </c>
-      <c r="AC270">
+      <c r="AF270">
         <v>45.6</v>
       </c>
-      <c r="AD270">
+      <c r="AG270">
         <v>13.6</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A271" s="5" t="s">
         <v>316</v>
       </c>
@@ -15414,25 +16392,25 @@
         <v>523</v>
       </c>
       <c r="S271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.273555166374781</v>
       </c>
-      <c r="AA271">
-        <f t="shared" si="2"/>
+      <c r="AD271">
+        <f t="shared" si="5"/>
         <v>2.3467600700525395</v>
       </c>
-      <c r="AB271">
-        <f t="shared" si="3"/>
+      <c r="AE271">
+        <f t="shared" si="6"/>
         <v>11344.902386117135</v>
       </c>
-      <c r="AC271">
+      <c r="AF271">
         <v>46.1</v>
       </c>
-      <c r="AD271">
+      <c r="AG271">
         <v>13.4</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A272" s="5" t="s">
         <v>317</v>
       </c>
@@ -15449,25 +16427,25 @@
         <v>571</v>
       </c>
       <c r="S272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="AA272">
-        <f t="shared" si="2"/>
+      <c r="AD272">
+        <f t="shared" si="5"/>
         <v>2.3642732049036779</v>
       </c>
-      <c r="AB272">
-        <f t="shared" si="3"/>
+      <c r="AE272">
+        <f t="shared" si="6"/>
         <v>11558.704453441296</v>
       </c>
-      <c r="AC272">
+      <c r="AF272">
         <v>49.4</v>
       </c>
-      <c r="AD272">
+      <c r="AG272">
         <v>13.5</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A273" s="5" t="s">
         <v>318</v>
       </c>
@@ -15484,25 +16462,25 @@
         <v>522</v>
       </c>
       <c r="S273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.250087565674256</v>
       </c>
-      <c r="AA273">
-        <f t="shared" si="2"/>
+      <c r="AD273">
+        <f t="shared" si="5"/>
         <v>2.3467600700525395</v>
       </c>
-      <c r="AB273">
-        <f t="shared" si="3"/>
+      <c r="AE273">
+        <f t="shared" si="6"/>
         <v>11177.730192719486</v>
       </c>
-      <c r="AC273">
+      <c r="AF273">
         <v>46.7</v>
       </c>
-      <c r="AD273">
+      <c r="AG273">
         <v>13.4</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A274" s="5" t="s">
         <v>319</v>
       </c>
@@ -15519,25 +16497,25 @@
         <v>395</v>
       </c>
       <c r="S274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2005253940455347</v>
       </c>
-      <c r="AA274">
-        <f t="shared" si="2"/>
+      <c r="AD274">
+        <f t="shared" si="5"/>
         <v>2.3292469352014011</v>
       </c>
-      <c r="AB274">
-        <f t="shared" si="3"/>
+      <c r="AE274">
+        <f t="shared" si="6"/>
         <v>10675.675675675675</v>
       </c>
-      <c r="AC274">
+      <c r="AF274">
         <v>37</v>
       </c>
-      <c r="AD274">
+      <c r="AG274">
         <v>13.3</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A275" s="5" t="s">
         <v>320</v>
       </c>
@@ -15554,25 +16532,25 @@
         <v>579</v>
       </c>
       <c r="S275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.29754816112084</v>
       </c>
-      <c r="AA275">
-        <f t="shared" si="2"/>
+      <c r="AD275">
+        <f t="shared" si="5"/>
         <v>2.4693520140105076</v>
       </c>
-      <c r="AB275">
-        <f t="shared" si="3"/>
+      <c r="AE275">
+        <f t="shared" si="6"/>
         <v>11744.421906693713</v>
       </c>
-      <c r="AC275">
+      <c r="AF275">
         <v>49.3</v>
       </c>
-      <c r="AD275">
+      <c r="AG275">
         <v>14.1</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A276" s="5" t="s">
         <v>321</v>
       </c>
@@ -15589,25 +16567,25 @@
         <v>537</v>
       </c>
       <c r="S276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.166374781085814</v>
       </c>
-      <c r="AA276">
-        <f t="shared" si="2"/>
+      <c r="AD276">
+        <f t="shared" si="5"/>
         <v>2.4518388791593697</v>
       </c>
-      <c r="AB276">
-        <f t="shared" si="3"/>
+      <c r="AE276">
+        <f t="shared" si="6"/>
         <v>11164.241164241163</v>
       </c>
-      <c r="AC276">
+      <c r="AF276">
         <v>48.1</v>
       </c>
-      <c r="AD276">
+      <c r="AG276">
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A277" s="5" t="s">
         <v>322</v>
       </c>
@@ -15624,25 +16602,25 @@
         <v>412</v>
       </c>
       <c r="S277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.17373029772329</v>
       </c>
-      <c r="AA277">
-        <f t="shared" si="2"/>
+      <c r="AD277">
+        <f t="shared" si="5"/>
         <v>2.4693520140105076</v>
       </c>
-      <c r="AB277">
-        <f t="shared" si="3"/>
+      <c r="AE277">
+        <f t="shared" si="6"/>
         <v>9196.4285714285706</v>
       </c>
-      <c r="AC277">
+      <c r="AF277">
         <v>44.8</v>
       </c>
-      <c r="AD277">
+      <c r="AG277">
         <v>14.1</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A278" s="5" t="s">
         <v>323</v>
       </c>
@@ -15659,25 +16637,25 @@
         <v>538</v>
       </c>
       <c r="S278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.379334500875654</v>
       </c>
-      <c r="AA278">
-        <f t="shared" si="2"/>
+      <c r="AD278">
+        <f t="shared" si="5"/>
         <v>2.486865148861646</v>
       </c>
-      <c r="AB278">
-        <f t="shared" si="3"/>
+      <c r="AE278">
+        <f t="shared" si="6"/>
         <v>10426.356589147286</v>
       </c>
-      <c r="AC278">
+      <c r="AF278">
         <v>51.6</v>
       </c>
-      <c r="AD278">
+      <c r="AG278">
         <v>14.2</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A279" s="5" t="s">
         <v>324</v>
       </c>
@@ -15694,25 +16672,25 @@
         <v>456</v>
       </c>
       <c r="S279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.180385288966727</v>
       </c>
-      <c r="AA279">
-        <f t="shared" si="2"/>
+      <c r="AD279">
+        <f t="shared" si="5"/>
         <v>2.4518388791593697</v>
       </c>
-      <c r="AB279">
-        <f t="shared" si="3"/>
+      <c r="AE279">
+        <f t="shared" si="6"/>
         <v>9978.1181619256004</v>
       </c>
-      <c r="AC279">
+      <c r="AF279">
         <v>45.7</v>
       </c>
-      <c r="AD279">
+      <c r="AG279">
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A280" s="5" t="s">
         <v>325</v>
       </c>
@@ -15729,25 +16707,25 @@
         <v>336</v>
       </c>
       <c r="S280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.002802101576183</v>
       </c>
-      <c r="AA280">
-        <f t="shared" si="2"/>
+      <c r="AD280">
+        <f t="shared" si="5"/>
         <v>2.3817863397548162</v>
       </c>
-      <c r="AB280">
-        <f t="shared" si="3"/>
+      <c r="AE280">
+        <f t="shared" si="6"/>
         <v>8337.4689826302729</v>
       </c>
-      <c r="AC280">
+      <c r="AF280">
         <v>40.299999999999997</v>
       </c>
-      <c r="AD280">
+      <c r="AG280">
         <v>13.6</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A281" s="5" t="s">
         <v>326</v>
       </c>
@@ -15764,25 +16742,25 @@
         <v>513</v>
       </c>
       <c r="S281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.577933450087567</v>
       </c>
-      <c r="AA281">
-        <f t="shared" si="2"/>
+      <c r="AD281">
+        <f t="shared" si="5"/>
         <v>2.4518388791593697</v>
       </c>
-      <c r="AB281">
-        <f t="shared" si="3"/>
+      <c r="AE281">
+        <f t="shared" si="6"/>
         <v>10078.585461689589</v>
       </c>
-      <c r="AC281">
+      <c r="AF281">
         <v>50.9</v>
       </c>
-      <c r="AD281">
+      <c r="AG281">
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A282" s="5" t="s">
         <v>327</v>
       </c>
@@ -15799,25 +16777,25 @@
         <v>407</v>
       </c>
       <c r="S282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.8364273204903672</v>
       </c>
-      <c r="AA282">
-        <f t="shared" si="2"/>
+      <c r="AD282">
+        <f t="shared" si="5"/>
         <v>2.416812609457093</v>
       </c>
-      <c r="AB282">
-        <f t="shared" si="3"/>
+      <c r="AE282">
+        <f t="shared" si="6"/>
         <v>8867.1023965141612</v>
       </c>
-      <c r="AC282">
+      <c r="AF282">
         <v>45.9</v>
       </c>
-      <c r="AD282">
+      <c r="AG282">
         <v>13.8</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A283" s="5" t="s">
         <v>328</v>
       </c>
@@ -15834,21 +16812,21 @@
         <v>243</v>
       </c>
       <c r="S283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5323992994746058</v>
       </c>
-      <c r="AA283">
-        <f t="shared" si="2"/>
+      <c r="AD283">
+        <f t="shared" si="5"/>
         <v>2.276707530647986</v>
       </c>
-      <c r="AB283">
-        <f t="shared" si="3"/>
+      <c r="AE283">
+        <f t="shared" si="6"/>
         <v>6411.6094986807384</v>
       </c>
-      <c r="AC283">
+      <c r="AF283">
         <v>37.9</v>
       </c>
-      <c r="AD283">
+      <c r="AG283">
         <v>13</v>
       </c>
     </row>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="338">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2035,13 +2035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AO451"/>
+  <dimension ref="A1:AO456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B442" sqref="B442"/>
+      <selection pane="bottomRight" activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21261,6 +21261,82 @@
         <v>389.1151157936099</v>
       </c>
     </row>
+    <row r="452" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" t="s">
+        <v>268</v>
+      </c>
+      <c r="B452" s="12">
+        <v>37104</v>
+      </c>
+      <c r="E452">
+        <v>9.5756172839506171</v>
+      </c>
+      <c r="I452">
+        <v>0.14380216049382716</v>
+      </c>
+    </row>
+    <row r="453" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" t="s">
+        <v>268</v>
+      </c>
+      <c r="B453" s="12">
+        <v>37126</v>
+      </c>
+      <c r="E453">
+        <v>76.388888888888886</v>
+      </c>
+      <c r="I453">
+        <v>0.95409122776148081</v>
+      </c>
+    </row>
+    <row r="454" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" t="s">
+        <v>268</v>
+      </c>
+      <c r="B454" s="12">
+        <v>37166</v>
+      </c>
+      <c r="E454">
+        <v>608.66319444444457</v>
+      </c>
+      <c r="I454">
+        <v>5.6411081976358552</v>
+      </c>
+    </row>
+    <row r="455" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" t="s">
+        <v>268</v>
+      </c>
+      <c r="B455" s="12">
+        <v>37174</v>
+      </c>
+      <c r="E455">
+        <v>809.05478395061732</v>
+      </c>
+      <c r="I455">
+        <v>5.037305434698613</v>
+      </c>
+    </row>
+    <row r="456" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" t="s">
+        <v>268</v>
+      </c>
+      <c r="B456" s="12">
+        <v>37229</v>
+      </c>
+      <c r="C456" s="1">
+        <v>90</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E456">
+        <v>1469.5293209876545</v>
+      </c>
+      <c r="G456">
+        <v>720.8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AO451">
     <filterColumn colId="0">
@@ -21284,11 +21360,11 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5130" ySplit="576" topLeftCell="I53" activePane="bottomRight"/>
+      <pane xSplit="5130" ySplit="576" topLeftCell="A110" activePane="bottomRight"/>
       <selection activeCell="A40" sqref="A40"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:B72"/>
-      <selection pane="bottomRight" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115:B119"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="355">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1678,11 +1678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294006712"/>
-        <c:axId val="294007104"/>
+        <c:axId val="319283872"/>
+        <c:axId val="319284264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294006712"/>
+        <c:axId val="319283872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,12 +1692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294007104"/>
+        <c:crossAx val="319284264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294007104"/>
+        <c:axId val="319284264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294006712"/>
+        <c:crossAx val="319283872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2054,10 +2054,10 @@
   <dimension ref="A1:AQ920"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF704" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E457" sqref="E457:BE749"/>
+      <selection pane="bottomRight" activeCell="AK716" sqref="AK716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21492,6 +21492,9 @@
       <c r="B286" s="5">
         <v>41664</v>
       </c>
+      <c r="D286" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E286" s="21">
         <v>2625.4943707521256</v>
       </c>
@@ -22033,6 +22036,9 @@
       <c r="B294" s="5">
         <v>41664</v>
       </c>
+      <c r="D294" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E294" s="21">
         <v>2121.6746017489827</v>
       </c>
@@ -22574,6 +22580,9 @@
       <c r="B302" s="5">
         <v>41664</v>
       </c>
+      <c r="D302" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E302" s="21">
         <v>2408.9480068087651</v>
       </c>
@@ -23115,6 +23124,9 @@
       <c r="B310" s="5">
         <v>41664</v>
       </c>
+      <c r="D310" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E310" s="21">
         <v>2468.3094723972449</v>
       </c>
@@ -23656,6 +23668,9 @@
       <c r="B318" s="5">
         <v>41664</v>
       </c>
+      <c r="D318" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E318" s="21">
         <v>2474.0820469697851</v>
       </c>
@@ -24196,6 +24211,9 @@
       </c>
       <c r="B326" s="11">
         <v>41664</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E326" s="21">
         <v>2619.6985123527334</v>
@@ -30976,9 +30994,6 @@
       <c r="AE461">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN461">
-        <v>151.167</v>
-      </c>
     </row>
     <row r="462" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
@@ -31023,9 +31038,6 @@
       <c r="AE462">
         <v>1.4E-2</v>
       </c>
-      <c r="AN462">
-        <v>173.5</v>
-      </c>
     </row>
     <row r="463" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
@@ -31070,9 +31082,6 @@
       <c r="AE463">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN463">
-        <v>214.083</v>
-      </c>
     </row>
     <row r="464" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
@@ -31117,9 +31126,6 @@
       <c r="AE464">
         <v>1.2E-2</v>
       </c>
-      <c r="AN464">
-        <v>243</v>
-      </c>
     </row>
     <row r="465" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
@@ -31164,9 +31170,6 @@
       <c r="AE465">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN465">
-        <v>271.95</v>
-      </c>
     </row>
     <row r="466" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -31211,9 +31214,6 @@
       <c r="AE466">
         <v>1.2E-2</v>
       </c>
-      <c r="AN466">
-        <v>353.46699999999998</v>
-      </c>
     </row>
     <row r="467" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
@@ -31249,9 +31249,6 @@
       <c r="AE467">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN467">
-        <v>400.9</v>
-      </c>
     </row>
     <row r="468" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
@@ -31287,9 +31284,6 @@
       <c r="AE468">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN468">
-        <v>441.28300000000002</v>
-      </c>
     </row>
     <row r="469" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
@@ -31325,9 +31319,6 @@
       <c r="AE469">
         <v>1.6E-2</v>
       </c>
-      <c r="AN469">
-        <v>461.43299999999999</v>
-      </c>
     </row>
     <row r="470" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
@@ -31378,7 +31369,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AN471">
-        <v>443.88</v>
+        <v>136.66800000000001</v>
       </c>
     </row>
     <row r="472" spans="1:40" x14ac:dyDescent="0.25">
@@ -31546,9 +31537,6 @@
       <c r="AE476">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN476">
-        <v>188.833</v>
-      </c>
     </row>
     <row r="477" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -31593,9 +31581,6 @@
       <c r="AE477">
         <v>1.4E-2</v>
       </c>
-      <c r="AN477">
-        <v>203.767</v>
-      </c>
     </row>
     <row r="478" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
@@ -31640,9 +31625,6 @@
       <c r="AE478">
         <v>1.4E-2</v>
       </c>
-      <c r="AN478">
-        <v>291.83300000000003</v>
-      </c>
     </row>
     <row r="479" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
@@ -31687,9 +31669,6 @@
       <c r="AE479">
         <v>1.2E-2</v>
       </c>
-      <c r="AN479">
-        <v>328.66699999999997</v>
-      </c>
     </row>
     <row r="480" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
@@ -31734,9 +31713,6 @@
       <c r="AE480">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN480">
-        <v>394.43299999999999</v>
-      </c>
     </row>
     <row r="481" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
@@ -31781,9 +31757,6 @@
       <c r="AE481">
         <v>1.4E-2</v>
       </c>
-      <c r="AN481">
-        <v>405.16699999999997</v>
-      </c>
     </row>
     <row r="482" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
@@ -31828,9 +31801,6 @@
       <c r="AE482">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN482">
-        <v>449.85</v>
-      </c>
     </row>
     <row r="483" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
@@ -31866,9 +31836,6 @@
       <c r="AE483">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN483">
-        <v>688.63300000000004</v>
-      </c>
     </row>
     <row r="484" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
@@ -31904,9 +31871,6 @@
       <c r="AE484">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN484">
-        <v>673.86699999999996</v>
-      </c>
     </row>
     <row r="485" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
@@ -31957,7 +31921,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN486">
-        <v>905.40599999999995</v>
+        <v>238.62199999999996</v>
       </c>
     </row>
     <row r="487" spans="1:40" x14ac:dyDescent="0.25">
@@ -32125,9 +32089,6 @@
       <c r="AE491">
         <v>1.9E-2</v>
       </c>
-      <c r="AN491">
-        <v>186.833</v>
-      </c>
     </row>
     <row r="492" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
@@ -32172,9 +32133,6 @@
       <c r="AE492">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN492">
-        <v>269.60000000000002</v>
-      </c>
     </row>
     <row r="493" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
@@ -32219,9 +32177,6 @@
       <c r="AE493">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN493">
-        <v>327.16699999999997</v>
-      </c>
     </row>
     <row r="494" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
@@ -32266,9 +32221,6 @@
       <c r="AE494">
         <v>1.6E-2</v>
       </c>
-      <c r="AN494">
-        <v>402.5</v>
-      </c>
     </row>
     <row r="495" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
@@ -32313,9 +32265,6 @@
       <c r="AE495">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN495">
-        <v>560.75</v>
-      </c>
     </row>
     <row r="496" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
@@ -32360,9 +32309,6 @@
       <c r="AE496">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN496">
-        <v>544.91700000000003</v>
-      </c>
     </row>
     <row r="497" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
@@ -32407,9 +32353,6 @@
       <c r="AE497">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN497">
-        <v>800.41700000000003</v>
-      </c>
     </row>
     <row r="498" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
@@ -32445,9 +32388,6 @@
       <c r="AE498">
         <v>1.9E-2</v>
       </c>
-      <c r="AN498">
-        <v>786.45</v>
-      </c>
     </row>
     <row r="499" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -32483,9 +32423,6 @@
       <c r="AE499">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN499">
-        <v>848.26700000000005</v>
-      </c>
     </row>
     <row r="500" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
@@ -32536,7 +32473,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN501">
-        <v>975.15200000000004</v>
+        <v>235.35400000000004</v>
       </c>
     </row>
     <row r="502" spans="1:40" x14ac:dyDescent="0.25">
@@ -32704,9 +32641,6 @@
       <c r="AE506">
         <v>0.02</v>
       </c>
-      <c r="AN506">
-        <v>225.167</v>
-      </c>
     </row>
     <row r="507" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
@@ -32751,9 +32685,6 @@
       <c r="AE507">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN507">
-        <v>241.95</v>
-      </c>
     </row>
     <row r="508" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
@@ -32798,9 +32729,6 @@
       <c r="AE508">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN508">
-        <v>390.66699999999997</v>
-      </c>
     </row>
     <row r="509" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
@@ -32845,9 +32773,6 @@
       <c r="AE509">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN509">
-        <v>522</v>
-      </c>
     </row>
     <row r="510" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -32892,9 +32817,6 @@
       <c r="AE510">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN510">
-        <v>702.21699999999998</v>
-      </c>
     </row>
     <row r="511" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
@@ -32939,9 +32861,6 @@
       <c r="AE511">
         <v>0.02</v>
       </c>
-      <c r="AN511">
-        <v>746.65</v>
-      </c>
     </row>
     <row r="512" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
@@ -32986,9 +32905,6 @@
       <c r="AE512">
         <v>0.02</v>
       </c>
-      <c r="AN512">
-        <v>995</v>
-      </c>
     </row>
     <row r="513" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
@@ -33033,9 +32949,6 @@
       <c r="AE513">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AN513">
-        <v>1009.333</v>
-      </c>
     </row>
     <row r="514" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
@@ -33071,9 +32984,6 @@
       <c r="AE514">
         <v>2.4E-2</v>
       </c>
-      <c r="AN514">
-        <v>1078.1669999999999</v>
-      </c>
     </row>
     <row r="515" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
@@ -33124,7 +33034,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="AN516">
-        <v>1099.9390000000001</v>
+        <v>227.58100000000013</v>
       </c>
     </row>
     <row r="517" spans="1:40" x14ac:dyDescent="0.25">
@@ -33298,9 +33208,6 @@
       <c r="AE521">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN521">
-        <v>104.667</v>
-      </c>
     </row>
     <row r="522" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
@@ -33345,9 +33252,6 @@
       <c r="AE522">
         <v>1.4E-2</v>
       </c>
-      <c r="AN522">
-        <v>145.517</v>
-      </c>
     </row>
     <row r="523" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
@@ -33392,9 +33296,6 @@
       <c r="AE523">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN523">
-        <v>216.11699999999999</v>
-      </c>
     </row>
     <row r="524" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
@@ -33439,9 +33340,6 @@
       <c r="AE524">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN524">
-        <v>224.667</v>
-      </c>
     </row>
     <row r="525" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
@@ -33486,9 +33384,6 @@
       <c r="AE525">
         <v>1.4E-2</v>
       </c>
-      <c r="AN525">
-        <v>305.53300000000002</v>
-      </c>
     </row>
     <row r="526" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
@@ -33533,9 +33428,6 @@
       <c r="AE526">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN526">
-        <v>204.333</v>
-      </c>
     </row>
     <row r="527" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
@@ -33580,9 +33472,6 @@
       <c r="AE527">
         <v>1.4E-2</v>
       </c>
-      <c r="AN527">
-        <v>302.45</v>
-      </c>
     </row>
     <row r="528" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
@@ -33618,9 +33507,6 @@
       <c r="AE528">
         <v>1.4E-2</v>
       </c>
-      <c r="AN528">
-        <v>276.517</v>
-      </c>
     </row>
     <row r="529" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
@@ -33656,9 +33542,6 @@
       <c r="AE529">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN529">
-        <v>258.233</v>
-      </c>
     </row>
     <row r="530" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
@@ -33709,7 +33592,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN531">
-        <v>347.255</v>
+        <v>102.09</v>
       </c>
     </row>
     <row r="532" spans="1:40" x14ac:dyDescent="0.25">
@@ -33880,9 +33763,6 @@
       <c r="AE536">
         <v>1.9E-2</v>
       </c>
-      <c r="AN536">
-        <v>160.833</v>
-      </c>
     </row>
     <row r="537" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
@@ -33927,9 +33807,6 @@
       <c r="AE537">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN537">
-        <v>223.9</v>
-      </c>
     </row>
     <row r="538" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
@@ -33974,9 +33851,6 @@
       <c r="AE538">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN538">
-        <v>281.767</v>
-      </c>
     </row>
     <row r="539" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
@@ -34021,9 +33895,6 @@
       <c r="AE539">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN539">
-        <v>354.66699999999997</v>
-      </c>
     </row>
     <row r="540" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
@@ -34068,9 +33939,6 @@
       <c r="AE540">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN540">
-        <v>432.45</v>
-      </c>
     </row>
     <row r="541" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
@@ -34115,9 +33983,6 @@
       <c r="AE541">
         <v>1.4E-2</v>
       </c>
-      <c r="AN541">
-        <v>568.06700000000001</v>
-      </c>
     </row>
     <row r="542" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
@@ -34162,9 +34027,6 @@
       <c r="AE542">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN542">
-        <v>547.15</v>
-      </c>
     </row>
     <row r="543" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
@@ -34200,9 +34062,6 @@
       <c r="AE543">
         <v>1.4E-2</v>
       </c>
-      <c r="AN543">
-        <v>695.4</v>
-      </c>
     </row>
     <row r="544" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
@@ -34238,9 +34097,6 @@
       <c r="AE544">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN544">
-        <v>628.78300000000002</v>
-      </c>
     </row>
     <row r="545" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
@@ -34291,7 +34147,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN546">
-        <v>629.18600000000004</v>
+        <v>161.32800000000003</v>
       </c>
     </row>
     <row r="547" spans="1:40" x14ac:dyDescent="0.25">
@@ -34459,9 +34315,6 @@
       <c r="AE551">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN551">
-        <v>207.333</v>
-      </c>
     </row>
     <row r="552" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
@@ -34506,9 +34359,6 @@
       <c r="AE552">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN552">
-        <v>208.81700000000001</v>
-      </c>
     </row>
     <row r="553" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
@@ -34553,9 +34403,6 @@
       <c r="AE553">
         <v>1.6E-2</v>
       </c>
-      <c r="AN553">
-        <v>328.5</v>
-      </c>
     </row>
     <row r="554" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
@@ -34600,9 +34447,6 @@
       <c r="AE554">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN554">
-        <v>462</v>
-      </c>
     </row>
     <row r="555" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
@@ -34647,9 +34491,6 @@
       <c r="AE555">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN555">
-        <v>548.16700000000003</v>
-      </c>
     </row>
     <row r="556" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
@@ -34694,9 +34535,6 @@
       <c r="AE556">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN556">
-        <v>426.61700000000002</v>
-      </c>
     </row>
     <row r="557" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
@@ -34741,9 +34579,6 @@
       <c r="AE557">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN557">
-        <v>689.95</v>
-      </c>
     </row>
     <row r="558" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
@@ -34782,9 +34617,6 @@
       <c r="AE558">
         <v>1.4E-2</v>
       </c>
-      <c r="AN558">
-        <v>556.70000000000005</v>
-      </c>
     </row>
     <row r="559" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
@@ -34820,9 +34652,6 @@
       <c r="AE559">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN559">
-        <v>776.16700000000003</v>
-      </c>
     </row>
     <row r="560" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
@@ -34873,7 +34702,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AN561">
-        <v>852.73599999999999</v>
+        <v>225.30899999999997</v>
       </c>
     </row>
     <row r="562" spans="1:40" x14ac:dyDescent="0.25">
@@ -35047,9 +34876,6 @@
       <c r="AE566">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN566">
-        <v>220.167</v>
-      </c>
     </row>
     <row r="567" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
@@ -35094,9 +34920,6 @@
       <c r="AE567">
         <v>1.6E-2</v>
       </c>
-      <c r="AN567">
-        <v>259.75</v>
-      </c>
     </row>
     <row r="568" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
@@ -35141,9 +34964,6 @@
       <c r="AE568">
         <v>1.6E-2</v>
       </c>
-      <c r="AN568">
-        <v>399.16699999999997</v>
-      </c>
     </row>
     <row r="569" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
@@ -35188,9 +35008,6 @@
       <c r="AE569">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN569">
-        <v>515.66700000000003</v>
-      </c>
     </row>
     <row r="570" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
@@ -35235,9 +35052,6 @@
       <c r="AE570">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN570">
-        <v>636.78300000000002</v>
-      </c>
     </row>
     <row r="571" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
@@ -35282,9 +35096,6 @@
       <c r="AE571">
         <v>1.9E-2</v>
       </c>
-      <c r="AN571">
-        <v>801.16700000000003</v>
-      </c>
     </row>
     <row r="572" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
@@ -35329,9 +35140,6 @@
       <c r="AE572">
         <v>1.9E-2</v>
       </c>
-      <c r="AN572">
-        <v>899</v>
-      </c>
     </row>
     <row r="573" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
@@ -35376,9 +35184,6 @@
       <c r="AE573">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AN573">
-        <v>874.26700000000005</v>
-      </c>
     </row>
     <row r="574" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
@@ -35414,9 +35219,6 @@
       <c r="AE574">
         <v>2.3E-2</v>
       </c>
-      <c r="AN574">
-        <v>877.93299999999999</v>
-      </c>
     </row>
     <row r="575" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
@@ -35467,7 +35269,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="AN576">
-        <v>854.68100000000004</v>
+        <v>190.71600000000001</v>
       </c>
     </row>
     <row r="577" spans="1:40" x14ac:dyDescent="0.25">
@@ -35681,9 +35483,6 @@
       <c r="AE583">
         <v>1.4E-2</v>
       </c>
-      <c r="AN583">
-        <v>86.167000000000002</v>
-      </c>
     </row>
     <row r="584" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
@@ -35728,9 +35527,6 @@
       <c r="AE584">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN584">
-        <v>159.833</v>
-      </c>
     </row>
     <row r="585" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
@@ -35775,9 +35571,6 @@
       <c r="AE585">
         <v>1.6E-2</v>
       </c>
-      <c r="AN585">
-        <v>172.63300000000001</v>
-      </c>
     </row>
     <row r="586" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
@@ -35822,9 +35615,6 @@
       <c r="AE586">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN586">
-        <v>216.38300000000001</v>
-      </c>
     </row>
     <row r="587" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
@@ -35869,9 +35659,6 @@
       <c r="AE587">
         <v>1.6E-2</v>
       </c>
-      <c r="AN587">
-        <v>268.91699999999997</v>
-      </c>
     </row>
     <row r="588" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
@@ -35916,9 +35703,6 @@
       <c r="AE588">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN588">
-        <v>354.55</v>
-      </c>
     </row>
     <row r="589" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
@@ -35963,9 +35747,6 @@
       <c r="AE589">
         <v>1.9E-2</v>
       </c>
-      <c r="AN589">
-        <v>304.58300000000003</v>
-      </c>
     </row>
     <row r="590" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
@@ -36001,9 +35782,6 @@
       <c r="AE590">
         <v>1.9E-2</v>
       </c>
-      <c r="AN590">
-        <v>339.66699999999997</v>
-      </c>
     </row>
     <row r="591" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
@@ -36040,7 +35818,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AN591">
-        <v>430.661</v>
+        <v>93.73599999999999</v>
       </c>
     </row>
     <row r="592" spans="1:40" x14ac:dyDescent="0.25">
@@ -36254,9 +36032,6 @@
       <c r="AE598">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN598">
-        <v>185</v>
-      </c>
     </row>
     <row r="599" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
@@ -36301,9 +36076,6 @@
       <c r="AE599">
         <v>1.6E-2</v>
       </c>
-      <c r="AN599">
-        <v>228.333</v>
-      </c>
     </row>
     <row r="600" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
@@ -36348,9 +36120,6 @@
       <c r="AE600">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN600">
-        <v>259.64999999999998</v>
-      </c>
     </row>
     <row r="601" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
@@ -36395,9 +36164,6 @@
       <c r="AE601">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN601">
-        <v>469.63299999999998</v>
-      </c>
     </row>
     <row r="602" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
@@ -36442,9 +36208,6 @@
       <c r="AE602">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN602">
-        <v>484.6</v>
-      </c>
     </row>
     <row r="603" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
@@ -36489,9 +36252,6 @@
       <c r="AE603">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN603">
-        <v>640.1</v>
-      </c>
     </row>
     <row r="604" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
@@ -36536,9 +36296,6 @@
       <c r="AE604">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN604">
-        <v>667.16700000000003</v>
-      </c>
     </row>
     <row r="605" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
@@ -36574,9 +36331,6 @@
       <c r="AE605">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN605">
-        <v>688.38300000000004</v>
-      </c>
     </row>
     <row r="606" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
@@ -36613,7 +36367,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN606">
-        <v>768.08500000000004</v>
+        <v>177.47500000000002</v>
       </c>
     </row>
     <row r="607" spans="1:40" x14ac:dyDescent="0.25">
@@ -36827,9 +36581,6 @@
       <c r="AE613">
         <v>0.02</v>
       </c>
-      <c r="AN613">
-        <v>190.95</v>
-      </c>
     </row>
     <row r="614" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
@@ -36874,9 +36625,6 @@
       <c r="AE614">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN614">
-        <v>258.83300000000003</v>
-      </c>
     </row>
     <row r="615" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
@@ -36921,9 +36669,6 @@
       <c r="AE615">
         <v>0.02</v>
       </c>
-      <c r="AN615">
-        <v>322.43299999999999</v>
-      </c>
     </row>
     <row r="616" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
@@ -36968,9 +36713,6 @@
       <c r="AE616">
         <v>0.02</v>
       </c>
-      <c r="AN616">
-        <v>450.03300000000002</v>
-      </c>
     </row>
     <row r="617" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
@@ -37015,9 +36757,6 @@
       <c r="AE617">
         <v>1.9E-2</v>
       </c>
-      <c r="AN617">
-        <v>538.76700000000005</v>
-      </c>
     </row>
     <row r="618" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
@@ -37062,9 +36801,6 @@
       <c r="AE618">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN618">
-        <v>752.28300000000002</v>
-      </c>
     </row>
     <row r="619" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A619" s="4" t="s">
@@ -37109,9 +36845,6 @@
       <c r="AE619">
         <v>1.9E-2</v>
       </c>
-      <c r="AN619">
-        <v>1014</v>
-      </c>
     </row>
     <row r="620" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
@@ -37147,9 +36880,6 @@
       <c r="AE620">
         <v>1.9E-2</v>
       </c>
-      <c r="AN620">
-        <v>655.6</v>
-      </c>
     </row>
     <row r="621" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
@@ -37186,7 +36916,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="AN621">
-        <v>812.18100000000004</v>
+        <v>190.90600000000006</v>
       </c>
     </row>
     <row r="622" spans="1:40" x14ac:dyDescent="0.25">
@@ -37400,9 +37130,6 @@
       <c r="AE628">
         <v>0.02</v>
       </c>
-      <c r="AN628">
-        <v>191.833</v>
-      </c>
     </row>
     <row r="629" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
@@ -37447,9 +37174,6 @@
       <c r="AE629">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN629">
-        <v>280.16699999999997</v>
-      </c>
     </row>
     <row r="630" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
@@ -37494,9 +37218,6 @@
       <c r="AE630">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AN630">
-        <v>333.38299999999998</v>
-      </c>
     </row>
     <row r="631" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
@@ -37541,9 +37262,6 @@
       <c r="AE631">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AN631">
-        <v>439.96699999999998</v>
-      </c>
     </row>
     <row r="632" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
@@ -37588,9 +37306,6 @@
       <c r="AE632">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AN632">
-        <v>594.86699999999996</v>
-      </c>
     </row>
     <row r="633" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
@@ -37635,9 +37350,6 @@
       <c r="AE633">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AN633">
-        <v>766.68299999999999</v>
-      </c>
     </row>
     <row r="634" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
@@ -37682,9 +37394,6 @@
       <c r="AE634">
         <v>2.4E-2</v>
       </c>
-      <c r="AN634">
-        <v>819</v>
-      </c>
     </row>
     <row r="635" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
@@ -37720,9 +37429,6 @@
       <c r="AE635">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN635">
-        <v>804.31700000000001</v>
-      </c>
     </row>
     <row r="636" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
@@ -37759,7 +37465,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="AN636">
-        <v>915.83</v>
+        <v>199.73700000000008</v>
       </c>
     </row>
     <row r="637" spans="1:40" x14ac:dyDescent="0.25">
@@ -37938,9 +37644,6 @@
       <c r="AE642">
         <v>1.6E-2</v>
       </c>
-      <c r="AN642">
-        <v>79.349999999999994</v>
-      </c>
     </row>
     <row r="643" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
@@ -37985,9 +37688,6 @@
       <c r="AE643">
         <v>1.4E-2</v>
       </c>
-      <c r="AN643">
-        <v>64.832999999999998</v>
-      </c>
     </row>
     <row r="644" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
@@ -38032,9 +37732,6 @@
       <c r="AE644">
         <v>1.4E-2</v>
       </c>
-      <c r="AN644">
-        <v>113</v>
-      </c>
     </row>
     <row r="645" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
@@ -38079,9 +37776,6 @@
       <c r="AE645">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN645">
-        <v>138.917</v>
-      </c>
     </row>
     <row r="646" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
@@ -38126,9 +37820,6 @@
       <c r="AE646">
         <v>1.6E-2</v>
       </c>
-      <c r="AN646">
-        <v>180.56700000000001</v>
-      </c>
     </row>
     <row r="647" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
@@ -38173,9 +37864,6 @@
       <c r="AE647">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN647">
-        <v>223.53299999999999</v>
-      </c>
     </row>
     <row r="648" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
@@ -38220,9 +37908,6 @@
       <c r="AE648">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN648">
-        <v>254.06700000000001</v>
-      </c>
     </row>
     <row r="649" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
@@ -38258,9 +37943,6 @@
       <c r="AE649">
         <v>1.6E-2</v>
       </c>
-      <c r="AN649">
-        <v>431.21699999999998</v>
-      </c>
     </row>
     <row r="650" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
@@ -38296,9 +37978,6 @@
       <c r="AE650">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN650">
-        <v>317.267</v>
-      </c>
     </row>
     <row r="651" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
@@ -38335,7 +38014,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="AN651">
-        <v>369.983</v>
+        <v>83.942999999999984</v>
       </c>
     </row>
     <row r="652" spans="1:40" x14ac:dyDescent="0.25">
@@ -38549,9 +38228,6 @@
       <c r="AE658">
         <v>1.6E-2</v>
       </c>
-      <c r="AN658">
-        <v>154</v>
-      </c>
     </row>
     <row r="659" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
@@ -38596,9 +38272,6 @@
       <c r="AE659">
         <v>1.4E-2</v>
       </c>
-      <c r="AN659">
-        <v>182.667</v>
-      </c>
     </row>
     <row r="660" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
@@ -38643,9 +38316,6 @@
       <c r="AE660">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN660">
-        <v>278.78300000000002</v>
-      </c>
     </row>
     <row r="661" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
@@ -38690,9 +38360,6 @@
       <c r="AE661">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN661">
-        <v>357.91699999999997</v>
-      </c>
     </row>
     <row r="662" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
@@ -38737,9 +38404,6 @@
       <c r="AE662">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN662">
-        <v>393.017</v>
-      </c>
     </row>
     <row r="663" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
@@ -38784,9 +38448,6 @@
       <c r="AE663">
         <v>1.6E-2</v>
       </c>
-      <c r="AN663">
-        <v>533.1</v>
-      </c>
     </row>
     <row r="664" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
@@ -38822,9 +38483,6 @@
       <c r="AE664">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AN664">
-        <v>608.13300000000004</v>
-      </c>
     </row>
     <row r="665" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
@@ -38860,9 +38518,6 @@
       <c r="AE665">
         <v>1.6E-2</v>
       </c>
-      <c r="AN665">
-        <v>600.20000000000005</v>
-      </c>
     </row>
     <row r="666" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
@@ -38899,7 +38554,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AN666">
-        <v>772.005</v>
+        <v>171.82600000000002</v>
       </c>
     </row>
     <row r="667" spans="1:40" x14ac:dyDescent="0.25">
@@ -39113,9 +38768,6 @@
       <c r="AE673">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN673">
-        <v>192.667</v>
-      </c>
     </row>
     <row r="674" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
@@ -39160,9 +38812,6 @@
       <c r="AE674">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN674">
-        <v>246.167</v>
-      </c>
     </row>
     <row r="675" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
@@ -39207,9 +38856,6 @@
       <c r="AE675">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN675">
-        <v>333.1</v>
-      </c>
     </row>
     <row r="676" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
@@ -39254,9 +38900,6 @@
       <c r="AE676">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN676">
-        <v>418.31700000000001</v>
-      </c>
     </row>
     <row r="677" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
@@ -39301,9 +38944,6 @@
       <c r="AE677">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN677">
-        <v>510.53300000000002</v>
-      </c>
     </row>
     <row r="678" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
@@ -39348,9 +38988,6 @@
       <c r="AE678">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN678">
-        <v>649.06700000000001</v>
-      </c>
     </row>
     <row r="679" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
@@ -39386,9 +39023,6 @@
       <c r="AE679">
         <v>1.6E-2</v>
       </c>
-      <c r="AN679">
-        <v>805.33299999999997</v>
-      </c>
     </row>
     <row r="680" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
@@ -39424,9 +39058,6 @@
       <c r="AE680">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AN680">
-        <v>850.01700000000005</v>
-      </c>
     </row>
     <row r="681" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
@@ -39463,7 +39094,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AN681">
-        <v>887.79399999999998</v>
+        <v>182.548</v>
       </c>
     </row>
     <row r="682" spans="1:40" x14ac:dyDescent="0.25">
@@ -39677,9 +39308,6 @@
       <c r="AE688">
         <v>1.9E-2</v>
       </c>
-      <c r="AN688">
-        <v>215.667</v>
-      </c>
     </row>
     <row r="689" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
@@ -39724,9 +39352,6 @@
       <c r="AE689">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AN689">
-        <v>228.167</v>
-      </c>
     </row>
     <row r="690" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
@@ -39771,9 +39396,6 @@
       <c r="AE690">
         <v>1.2E-2</v>
       </c>
-      <c r="AN690">
-        <v>337.78300000000002</v>
-      </c>
     </row>
     <row r="691" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
@@ -39818,9 +39440,6 @@
       <c r="AE691">
         <v>0.02</v>
       </c>
-      <c r="AN691">
-        <v>513.65</v>
-      </c>
     </row>
     <row r="692" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
@@ -39865,9 +39484,6 @@
       <c r="AE692">
         <v>0.02</v>
       </c>
-      <c r="AN692">
-        <v>631.83299999999997</v>
-      </c>
     </row>
     <row r="693" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
@@ -39912,9 +39528,6 @@
       <c r="AE693">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AN693">
-        <v>682.53300000000002</v>
-      </c>
     </row>
     <row r="694" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
@@ -39953,9 +39566,6 @@
       <c r="AE694">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AN694">
-        <v>811.76700000000005</v>
-      </c>
     </row>
     <row r="695" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
@@ -39991,9 +39601,6 @@
       <c r="AE695">
         <v>2.3E-2</v>
       </c>
-      <c r="AN695">
-        <v>909.5</v>
-      </c>
     </row>
     <row r="696" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
@@ -40030,7 +39637,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="AN696">
-        <v>964.33600000000001</v>
+        <v>210.447</v>
       </c>
     </row>
     <row r="750" spans="5:43" x14ac:dyDescent="0.25">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862"/>
+    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="347">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2063,11 +2063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR897"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD446" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E782" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG446" sqref="AG446"/>
+      <selection pane="bottomRight" activeCell="G795" sqref="G795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -52390,10 +52390,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -57261,8 +57261,75 @@
         <v>90</v>
       </c>
     </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" t="s">
+        <v>334</v>
+      </c>
+      <c r="B420" s="11">
+        <v>37448</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" t="s">
+        <v>334</v>
+      </c>
+      <c r="B421" s="11">
+        <v>37504</v>
+      </c>
+      <c r="C421">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" t="s">
+        <v>334</v>
+      </c>
+      <c r="B422" s="11">
+        <v>37560</v>
+      </c>
+      <c r="C422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" t="s">
+        <v>334</v>
+      </c>
+      <c r="B423" s="11">
+        <v>37568</v>
+      </c>
+      <c r="C423">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" t="s">
+        <v>334</v>
+      </c>
+      <c r="B424" s="11">
+        <v>37582</v>
+      </c>
+      <c r="C424">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" t="s">
+        <v>334</v>
+      </c>
+      <c r="B425" s="11">
+        <v>37617</v>
+      </c>
+      <c r="C425">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="347">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1081,7 +1081,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1092,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF808080"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1156,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1200,6 +1212,15 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,10 +2085,10 @@
   <dimension ref="A1:AR897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E782" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B867" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G795" sqref="G795"/>
+      <selection pane="bottomRight" activeCell="B878" sqref="B878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -42369,49 +42390,46 @@
       <c r="A851" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B851" s="1"/>
-      <c r="C851" s="1">
-        <v>90</v>
-      </c>
-      <c r="D851" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E851" s="22">
-        <v>922.8</v>
-      </c>
-      <c r="F851" s="22"/>
-      <c r="G851" s="22">
-        <v>526.05999999999995</v>
-      </c>
-      <c r="H851" s="22"/>
-      <c r="I851" s="22"/>
-      <c r="J851" s="22"/>
-      <c r="K851" s="22"/>
-      <c r="L851" s="22"/>
-      <c r="M851" s="22"/>
-      <c r="N851" s="22"/>
-      <c r="O851" s="22"/>
-      <c r="P851" s="22"/>
-      <c r="Q851" s="22"/>
-      <c r="R851" s="22"/>
-      <c r="S851" s="22"/>
-      <c r="T851" s="22"/>
-      <c r="U851" s="22"/>
-      <c r="V851" s="22"/>
-      <c r="W851" s="22"/>
-      <c r="X851" s="22"/>
-      <c r="Y851" s="22"/>
-      <c r="Z851" s="22"/>
-      <c r="AA851" s="22"/>
-      <c r="AB851" s="22"/>
-      <c r="AC851" s="22"/>
-      <c r="AD851" s="22"/>
-      <c r="AE851" s="22"/>
-      <c r="AF851" s="22"/>
-      <c r="AG851" s="22"/>
-      <c r="AH851" s="22"/>
-      <c r="AI851" s="22"/>
-      <c r="AJ851" s="22"/>
+      <c r="B851" s="11">
+        <v>37699</v>
+      </c>
+      <c r="D851" s="21"/>
+      <c r="E851" s="21">
+        <v>57.620000000000005</v>
+      </c>
+      <c r="F851" s="21"/>
+      <c r="G851" s="21"/>
+      <c r="H851" s="21"/>
+      <c r="I851" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="J851" s="21"/>
+      <c r="K851" s="21"/>
+      <c r="L851" s="21"/>
+      <c r="M851" s="21"/>
+      <c r="N851" s="21"/>
+      <c r="O851" s="21"/>
+      <c r="P851" s="21"/>
+      <c r="Q851" s="21"/>
+      <c r="R851" s="21"/>
+      <c r="S851" s="21"/>
+      <c r="T851" s="21"/>
+      <c r="U851" s="21"/>
+      <c r="V851" s="21"/>
+      <c r="W851" s="21"/>
+      <c r="X851" s="21"/>
+      <c r="Y851" s="21"/>
+      <c r="Z851" s="21"/>
+      <c r="AA851" s="21"/>
+      <c r="AB851" s="21"/>
+      <c r="AC851" s="21"/>
+      <c r="AD851" s="21"/>
+      <c r="AE851" s="21"/>
+      <c r="AF851" s="21"/>
+      <c r="AG851" s="21"/>
+      <c r="AH851" s="21"/>
+      <c r="AI851" s="21"/>
+      <c r="AJ851" s="21"/>
       <c r="AK851" s="21"/>
       <c r="AL851" s="21"/>
       <c r="AM851" s="21"/>
@@ -42423,51 +42441,49 @@
     </row>
     <row r="852" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B852" s="1"/>
-      <c r="C852" s="1">
-        <v>90</v>
-      </c>
-      <c r="D852" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E852" s="22">
-        <v>1638.43</v>
-      </c>
-      <c r="F852" s="22"/>
-      <c r="G852" s="22">
-        <v>523.53</v>
-      </c>
-      <c r="H852" s="22"/>
-      <c r="I852" s="22"/>
-      <c r="J852" s="22"/>
-      <c r="K852" s="22"/>
-      <c r="L852" s="22"/>
-      <c r="M852" s="22"/>
-      <c r="N852" s="22"/>
-      <c r="O852" s="22"/>
-      <c r="P852" s="22"/>
-      <c r="Q852" s="22"/>
-      <c r="R852" s="22"/>
-      <c r="S852" s="22"/>
-      <c r="T852" s="22"/>
-      <c r="U852" s="22"/>
-      <c r="V852" s="22"/>
-      <c r="W852" s="22"/>
-      <c r="X852" s="22"/>
-      <c r="Y852" s="22"/>
-      <c r="Z852" s="22"/>
-      <c r="AA852" s="22"/>
-      <c r="AB852" s="22"/>
-      <c r="AC852" s="22"/>
-      <c r="AD852" s="22"/>
-      <c r="AE852" s="22"/>
-      <c r="AF852" s="22"/>
-      <c r="AG852" s="22"/>
-      <c r="AH852" s="22"/>
-      <c r="AI852" s="22"/>
-      <c r="AJ852" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="B852" s="11">
+        <v>37707</v>
+      </c>
+      <c r="C852" s="25"/>
+      <c r="D852" s="21"/>
+      <c r="E852" s="21">
+        <v>86.63</v>
+      </c>
+      <c r="F852" s="21"/>
+      <c r="G852" s="21"/>
+      <c r="H852" s="21"/>
+      <c r="I852" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="J852" s="21"/>
+      <c r="K852" s="21"/>
+      <c r="L852" s="21"/>
+      <c r="M852" s="21"/>
+      <c r="N852" s="21"/>
+      <c r="O852" s="21"/>
+      <c r="P852" s="21"/>
+      <c r="Q852" s="21"/>
+      <c r="R852" s="21"/>
+      <c r="S852" s="21"/>
+      <c r="T852" s="21"/>
+      <c r="U852" s="21"/>
+      <c r="V852" s="21"/>
+      <c r="W852" s="21"/>
+      <c r="X852" s="21"/>
+      <c r="Y852" s="21"/>
+      <c r="Z852" s="21"/>
+      <c r="AA852" s="21"/>
+      <c r="AB852" s="21"/>
+      <c r="AC852" s="21"/>
+      <c r="AD852" s="21"/>
+      <c r="AE852" s="21"/>
+      <c r="AF852" s="21"/>
+      <c r="AG852" s="21"/>
+      <c r="AH852" s="21"/>
+      <c r="AI852" s="21"/>
+      <c r="AJ852" s="21"/>
       <c r="AK852" s="21"/>
       <c r="AL852" s="21"/>
       <c r="AM852" s="21"/>
@@ -42479,51 +42495,49 @@
     </row>
     <row r="853" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B853" s="1"/>
-      <c r="C853" s="1">
-        <v>90</v>
-      </c>
-      <c r="D853" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E853" s="22">
-        <v>1478.89</v>
-      </c>
-      <c r="F853" s="22"/>
-      <c r="G853" s="22">
-        <v>516.92999999999995</v>
-      </c>
-      <c r="H853" s="22"/>
-      <c r="I853" s="22"/>
-      <c r="J853" s="22"/>
-      <c r="K853" s="22"/>
-      <c r="L853" s="22"/>
-      <c r="M853" s="22"/>
-      <c r="N853" s="22"/>
-      <c r="O853" s="22"/>
-      <c r="P853" s="22"/>
-      <c r="Q853" s="22"/>
-      <c r="R853" s="22"/>
-      <c r="S853" s="22"/>
-      <c r="T853" s="22"/>
-      <c r="U853" s="22"/>
-      <c r="V853" s="22"/>
-      <c r="W853" s="22"/>
-      <c r="X853" s="22"/>
-      <c r="Y853" s="22"/>
-      <c r="Z853" s="22"/>
-      <c r="AA853" s="22"/>
-      <c r="AB853" s="22"/>
-      <c r="AC853" s="22"/>
-      <c r="AD853" s="22"/>
-      <c r="AE853" s="22"/>
-      <c r="AF853" s="22"/>
-      <c r="AG853" s="22"/>
-      <c r="AH853" s="22"/>
-      <c r="AI853" s="22"/>
-      <c r="AJ853" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="B853" s="11">
+        <v>37715</v>
+      </c>
+      <c r="C853" s="24"/>
+      <c r="D853" s="21"/>
+      <c r="E853" s="21">
+        <v>225.99</v>
+      </c>
+      <c r="F853" s="21"/>
+      <c r="G853" s="21"/>
+      <c r="H853" s="21"/>
+      <c r="I853" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="J853" s="21"/>
+      <c r="K853" s="21"/>
+      <c r="L853" s="21"/>
+      <c r="M853" s="21"/>
+      <c r="N853" s="21"/>
+      <c r="O853" s="21"/>
+      <c r="P853" s="21"/>
+      <c r="Q853" s="21"/>
+      <c r="R853" s="21"/>
+      <c r="S853" s="21"/>
+      <c r="T853" s="21"/>
+      <c r="U853" s="21"/>
+      <c r="V853" s="21"/>
+      <c r="W853" s="21"/>
+      <c r="X853" s="21"/>
+      <c r="Y853" s="21"/>
+      <c r="Z853" s="21"/>
+      <c r="AA853" s="21"/>
+      <c r="AB853" s="21"/>
+      <c r="AC853" s="21"/>
+      <c r="AD853" s="21"/>
+      <c r="AE853" s="21"/>
+      <c r="AF853" s="21"/>
+      <c r="AG853" s="21"/>
+      <c r="AH853" s="21"/>
+      <c r="AI853" s="21"/>
+      <c r="AJ853" s="21"/>
       <c r="AK853" s="21"/>
       <c r="AL853" s="21"/>
       <c r="AM853" s="21"/>
@@ -42534,11 +42548,23 @@
       <c r="AR853" s="21"/>
     </row>
     <row r="854" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E854" s="21"/>
+      <c r="A854" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B854" s="11">
+        <v>37721</v>
+      </c>
+      <c r="C854" s="25"/>
+      <c r="D854" s="21"/>
+      <c r="E854" s="21">
+        <v>312.01</v>
+      </c>
       <c r="F854" s="21"/>
       <c r="G854" s="21"/>
       <c r="H854" s="21"/>
-      <c r="I854" s="21"/>
+      <c r="I854" s="21">
+        <v>1.45</v>
+      </c>
       <c r="J854" s="21"/>
       <c r="K854" s="21"/>
       <c r="L854" s="21"/>
@@ -42576,11 +42602,23 @@
       <c r="AR854" s="21"/>
     </row>
     <row r="855" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E855" s="21"/>
+      <c r="A855" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B855" s="11">
+        <v>37726</v>
+      </c>
+      <c r="C855" s="25"/>
+      <c r="D855" s="21"/>
+      <c r="E855" s="21">
+        <v>416.98</v>
+      </c>
       <c r="F855" s="21"/>
       <c r="G855" s="21"/>
       <c r="H855" s="21"/>
-      <c r="I855" s="21"/>
+      <c r="I855" s="21">
+        <v>2.65</v>
+      </c>
       <c r="J855" s="21"/>
       <c r="K855" s="21"/>
       <c r="L855" s="21"/>
@@ -42618,11 +42656,20 @@
       <c r="AR855" s="21"/>
     </row>
     <row r="856" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A856" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B856" s="11">
+        <v>37731</v>
+      </c>
+      <c r="C856" s="25"/>
+      <c r="D856" s="21"/>
       <c r="E856" s="21"/>
-      <c r="F856" s="21"/>
       <c r="G856" s="21"/>
       <c r="H856" s="21"/>
-      <c r="I856" s="21"/>
+      <c r="I856" s="21">
+        <v>3.89</v>
+      </c>
       <c r="J856" s="21"/>
       <c r="K856" s="21"/>
       <c r="L856" s="21"/>
@@ -42660,11 +42707,22 @@
       <c r="AR856" s="21"/>
     </row>
     <row r="857" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E857" s="21"/>
-      <c r="F857" s="21"/>
+      <c r="A857" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B857" s="11">
+        <v>37736</v>
+      </c>
+      <c r="C857" s="25"/>
+      <c r="D857" s="21"/>
+      <c r="E857" s="21">
+        <v>546.79</v>
+      </c>
       <c r="G857" s="21"/>
       <c r="H857" s="21"/>
-      <c r="I857" s="21"/>
+      <c r="I857" s="21">
+        <v>5.21</v>
+      </c>
       <c r="J857" s="21"/>
       <c r="K857" s="21"/>
       <c r="L857" s="21"/>
@@ -42702,11 +42760,20 @@
       <c r="AR857" s="21"/>
     </row>
     <row r="858" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A858" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B858" s="11">
+        <v>37741</v>
+      </c>
+      <c r="C858" s="25"/>
+      <c r="D858" s="21"/>
       <c r="E858" s="21"/>
-      <c r="F858" s="21"/>
       <c r="G858" s="21"/>
       <c r="H858" s="21"/>
-      <c r="I858" s="21"/>
+      <c r="I858" s="21">
+        <v>5.55</v>
+      </c>
       <c r="J858" s="21"/>
       <c r="K858" s="21"/>
       <c r="L858" s="21"/>
@@ -42744,11 +42811,22 @@
       <c r="AR858" s="21"/>
     </row>
     <row r="859" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E859" s="21"/>
-      <c r="F859" s="21"/>
+      <c r="A859" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B859" s="11">
+        <v>37746</v>
+      </c>
+      <c r="C859" s="25"/>
+      <c r="D859" s="21"/>
+      <c r="E859" s="21">
+        <v>797.05</v>
+      </c>
       <c r="G859" s="21"/>
       <c r="H859" s="21"/>
-      <c r="I859" s="21"/>
+      <c r="I859" s="21">
+        <v>4.8899999999999997</v>
+      </c>
       <c r="J859" s="21"/>
       <c r="K859" s="21"/>
       <c r="L859" s="21"/>
@@ -42786,11 +42864,20 @@
       <c r="AR859" s="21"/>
     </row>
     <row r="860" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A860" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B860" s="11">
+        <v>37751</v>
+      </c>
+      <c r="C860" s="25"/>
+      <c r="D860" s="21"/>
       <c r="E860" s="21"/>
-      <c r="F860" s="21"/>
       <c r="G860" s="21"/>
       <c r="H860" s="21"/>
-      <c r="I860" s="21"/>
+      <c r="I860" s="21">
+        <v>4</v>
+      </c>
       <c r="J860" s="21"/>
       <c r="K860" s="21"/>
       <c r="L860" s="21"/>
@@ -42828,11 +42915,22 @@
       <c r="AR860" s="21"/>
     </row>
     <row r="861" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E861" s="21"/>
-      <c r="F861" s="21"/>
+      <c r="A861" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B861" s="11">
+        <v>37756</v>
+      </c>
+      <c r="C861" s="25"/>
+      <c r="D861" s="21"/>
+      <c r="E861" s="21">
+        <v>1128.73</v>
+      </c>
       <c r="G861" s="21"/>
       <c r="H861" s="21"/>
-      <c r="I861" s="21"/>
+      <c r="I861" s="21">
+        <v>3.35</v>
+      </c>
       <c r="J861" s="21"/>
       <c r="K861" s="21"/>
       <c r="L861" s="21"/>
@@ -42870,11 +42968,22 @@
       <c r="AR861" s="21"/>
     </row>
     <row r="862" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E862" s="21"/>
-      <c r="F862" s="21"/>
+      <c r="A862" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B862" s="11">
+        <v>37766</v>
+      </c>
+      <c r="C862" s="25"/>
+      <c r="D862" s="21"/>
+      <c r="E862" s="21">
+        <v>1279.8</v>
+      </c>
       <c r="G862" s="21"/>
       <c r="H862" s="21"/>
-      <c r="I862" s="21"/>
+      <c r="I862" s="21">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="J862" s="21"/>
       <c r="K862" s="21"/>
       <c r="L862" s="21"/>
@@ -42912,11 +43021,26 @@
       <c r="AR862" s="21"/>
     </row>
     <row r="863" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E863" s="21"/>
-      <c r="F863" s="21"/>
-      <c r="G863" s="21"/>
+      <c r="A863" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B863" s="11">
+        <v>37776</v>
+      </c>
+      <c r="C863" s="25"/>
+      <c r="D863" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E863" s="21">
+        <v>922.8</v>
+      </c>
+      <c r="G863" s="21">
+        <v>526.05999999999995</v>
+      </c>
       <c r="H863" s="21"/>
-      <c r="I863" s="21"/>
+      <c r="I863" s="21">
+        <v>0.78</v>
+      </c>
       <c r="J863" s="21"/>
       <c r="K863" s="21"/>
       <c r="L863" s="21"/>
@@ -42954,11 +43078,22 @@
       <c r="AR863" s="21"/>
     </row>
     <row r="864" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E864" s="21"/>
-      <c r="F864" s="21"/>
+      <c r="A864" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B864" s="11">
+        <v>38050</v>
+      </c>
+      <c r="C864" s="25"/>
+      <c r="D864" s="21"/>
+      <c r="E864" s="21">
+        <v>57.25</v>
+      </c>
       <c r="G864" s="21"/>
       <c r="H864" s="21"/>
-      <c r="I864" s="21"/>
+      <c r="I864" s="21">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="J864" s="21"/>
       <c r="K864" s="21"/>
       <c r="L864" s="21"/>
@@ -42995,12 +43130,23 @@
       <c r="AQ864" s="21"/>
       <c r="AR864" s="21"/>
     </row>
-    <row r="865" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E865" s="21"/>
-      <c r="F865" s="21"/>
+    <row r="865" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A865" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B865" s="11">
+        <v>38057</v>
+      </c>
+      <c r="C865" s="25"/>
+      <c r="D865" s="21"/>
+      <c r="E865" s="21">
+        <v>93.289999999999992</v>
+      </c>
       <c r="G865" s="21"/>
       <c r="H865" s="21"/>
-      <c r="I865" s="21"/>
+      <c r="I865" s="21">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J865" s="21"/>
       <c r="K865" s="21"/>
       <c r="L865" s="21"/>
@@ -43037,12 +43183,23 @@
       <c r="AQ865" s="21"/>
       <c r="AR865" s="21"/>
     </row>
-    <row r="866" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E866" s="21"/>
-      <c r="F866" s="21"/>
+    <row r="866" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A866" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B866" s="11">
+        <v>38066</v>
+      </c>
+      <c r="C866" s="25"/>
+      <c r="D866" s="21"/>
+      <c r="E866" s="21">
+        <v>151.34</v>
+      </c>
       <c r="G866" s="21"/>
       <c r="H866" s="21"/>
-      <c r="I866" s="21"/>
+      <c r="I866" s="21">
+        <v>1.7</v>
+      </c>
       <c r="J866" s="21"/>
       <c r="K866" s="21"/>
       <c r="L866" s="21"/>
@@ -43079,12 +43236,23 @@
       <c r="AQ866" s="21"/>
       <c r="AR866" s="21"/>
     </row>
-    <row r="867" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E867" s="21"/>
-      <c r="F867" s="21"/>
+    <row r="867" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A867" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B867" s="11">
+        <v>38071</v>
+      </c>
+      <c r="C867" s="25"/>
+      <c r="D867" s="21"/>
+      <c r="E867" s="21">
+        <v>140.99</v>
+      </c>
       <c r="G867" s="21"/>
       <c r="H867" s="21"/>
-      <c r="I867" s="21"/>
+      <c r="I867" s="21">
+        <v>1.69</v>
+      </c>
       <c r="J867" s="21"/>
       <c r="K867" s="21"/>
       <c r="L867" s="21"/>
@@ -43121,12 +43289,23 @@
       <c r="AQ867" s="21"/>
       <c r="AR867" s="21"/>
     </row>
-    <row r="868" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E868" s="21"/>
-      <c r="F868" s="21"/>
+    <row r="868" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A868" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B868" s="11">
+        <v>38077</v>
+      </c>
+      <c r="C868" s="25"/>
+      <c r="D868" s="21"/>
+      <c r="E868" s="21">
+        <v>296.70999999999998</v>
+      </c>
       <c r="G868" s="21"/>
       <c r="H868" s="21"/>
-      <c r="I868" s="21"/>
+      <c r="I868" s="21">
+        <v>3.49</v>
+      </c>
       <c r="J868" s="21"/>
       <c r="K868" s="21"/>
       <c r="L868" s="21"/>
@@ -43163,12 +43342,23 @@
       <c r="AQ868" s="21"/>
       <c r="AR868" s="21"/>
     </row>
-    <row r="869" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E869" s="21"/>
-      <c r="F869" s="21"/>
+    <row r="869" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A869" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B869" s="11">
+        <v>38085</v>
+      </c>
+      <c r="C869" s="25"/>
+      <c r="D869" s="21"/>
+      <c r="E869" s="21">
+        <v>500.95</v>
+      </c>
       <c r="G869" s="21"/>
       <c r="H869" s="21"/>
-      <c r="I869" s="21"/>
+      <c r="I869" s="21">
+        <v>4.99</v>
+      </c>
       <c r="J869" s="21"/>
       <c r="K869" s="21"/>
       <c r="L869" s="21"/>
@@ -43205,12 +43395,23 @@
       <c r="AQ869" s="21"/>
       <c r="AR869" s="21"/>
     </row>
-    <row r="870" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E870" s="21"/>
-      <c r="F870" s="21"/>
+    <row r="870" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A870" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B870" s="11">
+        <v>38093</v>
+      </c>
+      <c r="C870" s="25"/>
+      <c r="D870" s="21"/>
+      <c r="E870" s="21">
+        <v>539.75</v>
+      </c>
       <c r="G870" s="21"/>
       <c r="H870" s="21"/>
-      <c r="I870" s="21"/>
+      <c r="I870" s="21">
+        <v>6.9</v>
+      </c>
       <c r="J870" s="21"/>
       <c r="K870" s="21"/>
       <c r="L870" s="21"/>
@@ -43247,12 +43448,23 @@
       <c r="AQ870" s="21"/>
       <c r="AR870" s="21"/>
     </row>
-    <row r="871" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E871" s="21"/>
-      <c r="F871" s="21"/>
+    <row r="871" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A871" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B871" s="11">
+        <v>38100</v>
+      </c>
+      <c r="C871" s="25"/>
+      <c r="D871" s="21"/>
+      <c r="E871" s="21">
+        <v>758</v>
+      </c>
       <c r="G871" s="21"/>
       <c r="H871" s="21"/>
-      <c r="I871" s="21"/>
+      <c r="I871" s="21">
+        <v>6.41</v>
+      </c>
       <c r="J871" s="21"/>
       <c r="K871" s="21"/>
       <c r="L871" s="21"/>
@@ -43289,12 +43501,23 @@
       <c r="AQ871" s="21"/>
       <c r="AR871" s="21"/>
     </row>
-    <row r="872" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E872" s="21"/>
-      <c r="F872" s="21"/>
+    <row r="872" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A872" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B872" s="11">
+        <v>38107</v>
+      </c>
+      <c r="C872" s="25"/>
+      <c r="D872" s="21"/>
+      <c r="E872" s="21">
+        <v>896.58999999999992</v>
+      </c>
       <c r="G872" s="21"/>
       <c r="H872" s="21"/>
-      <c r="I872" s="21"/>
+      <c r="I872" s="21">
+        <v>5.47</v>
+      </c>
       <c r="J872" s="21"/>
       <c r="K872" s="21"/>
       <c r="L872" s="21"/>
@@ -43331,12 +43554,23 @@
       <c r="AQ872" s="21"/>
       <c r="AR872" s="21"/>
     </row>
-    <row r="873" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E873" s="21"/>
-      <c r="F873" s="21"/>
+    <row r="873" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A873" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B873" s="11">
+        <v>38114</v>
+      </c>
+      <c r="C873" s="25"/>
+      <c r="D873" s="21"/>
+      <c r="E873" s="21">
+        <v>1194.78</v>
+      </c>
       <c r="G873" s="21"/>
       <c r="H873" s="21"/>
-      <c r="I873" s="21"/>
+      <c r="I873" s="21">
+        <v>5.15</v>
+      </c>
       <c r="J873" s="21"/>
       <c r="K873" s="21"/>
       <c r="L873" s="21"/>
@@ -43373,12 +43607,23 @@
       <c r="AQ873" s="21"/>
       <c r="AR873" s="21"/>
     </row>
-    <row r="874" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E874" s="21"/>
-      <c r="F874" s="21"/>
+    <row r="874" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A874" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B874" s="11">
+        <v>38120</v>
+      </c>
+      <c r="C874" s="25"/>
+      <c r="D874" s="21"/>
+      <c r="E874" s="21">
+        <v>1302.02</v>
+      </c>
       <c r="G874" s="21"/>
       <c r="H874" s="21"/>
-      <c r="I874" s="21"/>
+      <c r="I874" s="21">
+        <v>3.79</v>
+      </c>
       <c r="J874" s="21"/>
       <c r="K874" s="21"/>
       <c r="L874" s="21"/>
@@ -43415,12 +43660,23 @@
       <c r="AQ874" s="21"/>
       <c r="AR874" s="21"/>
     </row>
-    <row r="875" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E875" s="21"/>
-      <c r="F875" s="21"/>
+    <row r="875" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A875" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B875" s="11">
+        <v>38127</v>
+      </c>
+      <c r="C875" s="25"/>
+      <c r="D875" s="21"/>
+      <c r="E875" s="21">
+        <v>1100.03</v>
+      </c>
       <c r="G875" s="21"/>
       <c r="H875" s="21"/>
-      <c r="I875" s="21"/>
+      <c r="I875" s="21">
+        <v>2.86</v>
+      </c>
       <c r="J875" s="21"/>
       <c r="K875" s="21"/>
       <c r="L875" s="21"/>
@@ -43457,12 +43713,23 @@
       <c r="AQ875" s="21"/>
       <c r="AR875" s="21"/>
     </row>
-    <row r="876" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E876" s="21"/>
-      <c r="F876" s="21"/>
+    <row r="876" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A876" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B876" s="11">
+        <v>38135</v>
+      </c>
+      <c r="C876" s="25"/>
+      <c r="D876" s="21"/>
+      <c r="E876" s="21">
+        <v>1581.04</v>
+      </c>
       <c r="G876" s="21"/>
       <c r="H876" s="21"/>
-      <c r="I876" s="21"/>
+      <c r="I876" s="21">
+        <v>1.97</v>
+      </c>
       <c r="J876" s="21"/>
       <c r="K876" s="21"/>
       <c r="L876" s="21"/>
@@ -43499,12 +43766,27 @@
       <c r="AQ876" s="21"/>
       <c r="AR876" s="21"/>
     </row>
-    <row r="877" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E877" s="21"/>
-      <c r="F877" s="21"/>
-      <c r="G877" s="21"/>
+    <row r="877" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A877" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B877" s="11">
+        <v>38142</v>
+      </c>
+      <c r="C877" s="25"/>
+      <c r="D877" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E877" s="21">
+        <v>1638.4299999999998</v>
+      </c>
+      <c r="G877" s="21">
+        <v>523.53</v>
+      </c>
       <c r="H877" s="21"/>
-      <c r="I877" s="21"/>
+      <c r="I877" s="21">
+        <v>0.38</v>
+      </c>
       <c r="J877" s="21"/>
       <c r="K877" s="21"/>
       <c r="L877" s="21"/>
@@ -43541,12 +43823,23 @@
       <c r="AQ877" s="21"/>
       <c r="AR877" s="21"/>
     </row>
-    <row r="878" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E878" s="21"/>
-      <c r="F878" s="21"/>
+    <row r="878" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A878" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B878" s="11">
+        <v>38377</v>
+      </c>
+      <c r="C878" s="25"/>
+      <c r="D878" s="21"/>
+      <c r="E878" s="21">
+        <v>90.97</v>
+      </c>
       <c r="G878" s="21"/>
       <c r="H878" s="21"/>
-      <c r="I878" s="21"/>
+      <c r="I878" s="21">
+        <v>0.43</v>
+      </c>
       <c r="J878" s="21"/>
       <c r="K878" s="21"/>
       <c r="L878" s="21"/>
@@ -43583,12 +43876,23 @@
       <c r="AQ878" s="21"/>
       <c r="AR878" s="21"/>
     </row>
-    <row r="879" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E879" s="21"/>
-      <c r="F879" s="21"/>
+    <row r="879" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A879" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B879" s="11">
+        <v>38411</v>
+      </c>
+      <c r="C879" s="25"/>
+      <c r="D879" s="21"/>
+      <c r="E879" s="21">
+        <v>104.09</v>
+      </c>
       <c r="G879" s="21"/>
       <c r="H879" s="21"/>
-      <c r="I879" s="21"/>
+      <c r="I879" s="21">
+        <v>0.48</v>
+      </c>
       <c r="J879" s="21"/>
       <c r="K879" s="21"/>
       <c r="L879" s="21"/>
@@ -43625,12 +43929,23 @@
       <c r="AQ879" s="21"/>
       <c r="AR879" s="21"/>
     </row>
-    <row r="880" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E880" s="21"/>
-      <c r="F880" s="21"/>
+    <row r="880" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A880" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B880" s="11">
+        <v>38431</v>
+      </c>
+      <c r="C880" s="25"/>
+      <c r="D880" s="21"/>
+      <c r="E880" s="21">
+        <v>150.13</v>
+      </c>
       <c r="G880" s="21"/>
       <c r="H880" s="21"/>
-      <c r="I880" s="21"/>
+      <c r="I880" s="21">
+        <v>1.05</v>
+      </c>
       <c r="J880" s="21"/>
       <c r="K880" s="21"/>
       <c r="L880" s="21"/>
@@ -43667,12 +43982,23 @@
       <c r="AQ880" s="21"/>
       <c r="AR880" s="21"/>
     </row>
-    <row r="881" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E881" s="21"/>
-      <c r="F881" s="21"/>
+    <row r="881" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A881" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B881" s="11">
+        <v>38436</v>
+      </c>
+      <c r="C881" s="25"/>
+      <c r="D881" s="21"/>
+      <c r="E881" s="21">
+        <v>188.15</v>
+      </c>
       <c r="G881" s="21"/>
       <c r="H881" s="21"/>
-      <c r="I881" s="21"/>
+      <c r="I881" s="21">
+        <v>1.56</v>
+      </c>
       <c r="J881" s="21"/>
       <c r="K881" s="21"/>
       <c r="L881" s="21"/>
@@ -43709,12 +44035,23 @@
       <c r="AQ881" s="21"/>
       <c r="AR881" s="21"/>
     </row>
-    <row r="882" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E882" s="21"/>
-      <c r="F882" s="21"/>
+    <row r="882" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A882" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B882" s="11">
+        <v>38441</v>
+      </c>
+      <c r="C882" s="25"/>
+      <c r="D882" s="21"/>
+      <c r="E882" s="21">
+        <v>236.96999999999997</v>
+      </c>
       <c r="G882" s="21"/>
       <c r="H882" s="21"/>
-      <c r="I882" s="21"/>
+      <c r="I882" s="21">
+        <v>1.89</v>
+      </c>
       <c r="J882" s="21"/>
       <c r="K882" s="21"/>
       <c r="L882" s="21"/>
@@ -43751,12 +44088,23 @@
       <c r="AQ882" s="21"/>
       <c r="AR882" s="21"/>
     </row>
-    <row r="883" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E883" s="21"/>
-      <c r="F883" s="21"/>
+    <row r="883" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A883" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B883" s="11">
+        <v>38452</v>
+      </c>
+      <c r="C883" s="25"/>
+      <c r="D883" s="21"/>
+      <c r="E883" s="21">
+        <v>408</v>
+      </c>
       <c r="G883" s="21"/>
       <c r="H883" s="21"/>
-      <c r="I883" s="21"/>
+      <c r="I883" s="21">
+        <v>4.46</v>
+      </c>
       <c r="J883" s="21"/>
       <c r="K883" s="21"/>
       <c r="L883" s="21"/>
@@ -43793,12 +44141,23 @@
       <c r="AQ883" s="21"/>
       <c r="AR883" s="21"/>
     </row>
-    <row r="884" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E884" s="21"/>
-      <c r="F884" s="21"/>
+    <row r="884" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A884" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B884" s="11">
+        <v>38462</v>
+      </c>
+      <c r="C884" s="25"/>
+      <c r="D884" s="21"/>
+      <c r="E884" s="21">
+        <v>373.73</v>
+      </c>
       <c r="G884" s="21"/>
       <c r="H884" s="21"/>
-      <c r="I884" s="21"/>
+      <c r="I884" s="21">
+        <v>5.0199999999999996</v>
+      </c>
       <c r="J884" s="21"/>
       <c r="K884" s="21"/>
       <c r="L884" s="21"/>
@@ -43835,12 +44194,23 @@
       <c r="AQ884" s="21"/>
       <c r="AR884" s="21"/>
     </row>
-    <row r="885" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E885" s="21"/>
-      <c r="F885" s="21"/>
+    <row r="885" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A885" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B885" s="11">
+        <v>38472</v>
+      </c>
+      <c r="C885" s="25"/>
+      <c r="D885" s="21"/>
+      <c r="E885" s="21">
+        <v>819.46</v>
+      </c>
       <c r="G885" s="21"/>
       <c r="H885" s="21"/>
-      <c r="I885" s="21"/>
+      <c r="I885" s="21">
+        <v>5.51</v>
+      </c>
       <c r="J885" s="21"/>
       <c r="K885" s="21"/>
       <c r="L885" s="21"/>
@@ -43877,12 +44247,23 @@
       <c r="AQ885" s="21"/>
       <c r="AR885" s="21"/>
     </row>
-    <row r="886" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E886" s="21"/>
-      <c r="F886" s="21"/>
+    <row r="886" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A886" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B886" s="11">
+        <v>38482</v>
+      </c>
+      <c r="C886" s="25"/>
+      <c r="D886" s="21"/>
+      <c r="E886" s="21">
+        <v>1322.84</v>
+      </c>
       <c r="G886" s="21"/>
       <c r="H886" s="21"/>
-      <c r="I886" s="21"/>
+      <c r="I886" s="21">
+        <v>5.68</v>
+      </c>
       <c r="J886" s="21"/>
       <c r="K886" s="21"/>
       <c r="L886" s="21"/>
@@ -43919,12 +44300,23 @@
       <c r="AQ886" s="21"/>
       <c r="AR886" s="21"/>
     </row>
-    <row r="887" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E887" s="21"/>
-      <c r="F887" s="21"/>
+    <row r="887" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A887" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B887" s="11">
+        <v>38492</v>
+      </c>
+      <c r="C887" s="25"/>
+      <c r="D887" s="21"/>
+      <c r="E887" s="21">
+        <v>986.53</v>
+      </c>
       <c r="G887" s="21"/>
       <c r="H887" s="21"/>
-      <c r="I887" s="21"/>
+      <c r="I887" s="21">
+        <v>4.7</v>
+      </c>
       <c r="J887" s="21"/>
       <c r="K887" s="21"/>
       <c r="L887" s="21"/>
@@ -43961,12 +44353,23 @@
       <c r="AQ887" s="21"/>
       <c r="AR887" s="21"/>
     </row>
-    <row r="888" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E888" s="21"/>
-      <c r="F888" s="21"/>
+    <row r="888" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A888" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B888" s="11">
+        <v>38502</v>
+      </c>
+      <c r="C888" s="25"/>
+      <c r="D888" s="21"/>
+      <c r="E888" s="21">
+        <v>1662.9900000000002</v>
+      </c>
       <c r="G888" s="21"/>
       <c r="H888" s="21"/>
-      <c r="I888" s="21"/>
+      <c r="I888" s="21">
+        <v>2.36</v>
+      </c>
       <c r="J888" s="21"/>
       <c r="K888" s="21"/>
       <c r="L888" s="21"/>
@@ -44003,9 +44406,18 @@
       <c r="AQ888" s="21"/>
       <c r="AR888" s="21"/>
     </row>
-    <row r="889" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E889" s="21"/>
-      <c r="F889" s="21"/>
+    <row r="889" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A889" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B889" s="11">
+        <v>38508</v>
+      </c>
+      <c r="C889" s="25"/>
+      <c r="D889" s="21"/>
+      <c r="E889" s="21">
+        <v>1478.8899999999999</v>
+      </c>
       <c r="G889" s="21"/>
       <c r="H889" s="21"/>
       <c r="I889" s="21"/>
@@ -44045,12 +44457,21 @@
       <c r="AQ889" s="21"/>
       <c r="AR889" s="21"/>
     </row>
-    <row r="890" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E890" s="21"/>
-      <c r="F890" s="21"/>
-      <c r="G890" s="21"/>
+    <row r="890" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A890" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B890" s="11">
+        <v>38511</v>
+      </c>
+      <c r="C890" s="25"/>
+      <c r="D890" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G890">
+        <v>516.92999999999995</v>
+      </c>
       <c r="H890" s="21"/>
-      <c r="I890" s="21"/>
       <c r="J890" s="21"/>
       <c r="K890" s="21"/>
       <c r="L890" s="21"/>
@@ -44087,9 +44508,8 @@
       <c r="AQ890" s="21"/>
       <c r="AR890" s="21"/>
     </row>
-    <row r="891" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E891" s="21"/>
-      <c r="F891" s="21"/>
+    <row r="891" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C891" s="25"/>
       <c r="G891" s="21"/>
       <c r="H891" s="21"/>
       <c r="I891" s="21"/>
@@ -44129,9 +44549,8 @@
       <c r="AQ891" s="21"/>
       <c r="AR891" s="21"/>
     </row>
-    <row r="892" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E892" s="21"/>
-      <c r="F892" s="21"/>
+    <row r="892" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C892" s="25"/>
       <c r="G892" s="21"/>
       <c r="H892" s="21"/>
       <c r="I892" s="21"/>
@@ -44171,9 +44590,8 @@
       <c r="AQ892" s="21"/>
       <c r="AR892" s="21"/>
     </row>
-    <row r="893" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E893" s="21"/>
-      <c r="F893" s="21"/>
+    <row r="893" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C893" s="25"/>
       <c r="G893" s="21"/>
       <c r="H893" s="21"/>
       <c r="I893" s="21"/>
@@ -44213,9 +44631,8 @@
       <c r="AQ893" s="21"/>
       <c r="AR893" s="21"/>
     </row>
-    <row r="894" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E894" s="21"/>
-      <c r="F894" s="21"/>
+    <row r="894" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C894" s="25"/>
       <c r="G894" s="21"/>
       <c r="H894" s="21"/>
       <c r="I894" s="21"/>
@@ -44255,131 +44672,14 @@
       <c r="AQ894" s="21"/>
       <c r="AR894" s="21"/>
     </row>
-    <row r="895" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E895" s="21"/>
-      <c r="F895" s="21"/>
-      <c r="G895" s="21"/>
-      <c r="H895" s="21"/>
-      <c r="I895" s="21"/>
-      <c r="J895" s="21"/>
-      <c r="K895" s="21"/>
-      <c r="L895" s="21"/>
-      <c r="M895" s="21"/>
-      <c r="N895" s="21"/>
-      <c r="O895" s="21"/>
-      <c r="P895" s="21"/>
-      <c r="Q895" s="21"/>
-      <c r="R895" s="21"/>
-      <c r="S895" s="21"/>
-      <c r="T895" s="21"/>
-      <c r="U895" s="21"/>
-      <c r="V895" s="21"/>
-      <c r="W895" s="21"/>
-      <c r="X895" s="21"/>
-      <c r="Y895" s="21"/>
-      <c r="Z895" s="21"/>
-      <c r="AA895" s="21"/>
-      <c r="AB895" s="21"/>
-      <c r="AC895" s="21"/>
-      <c r="AD895" s="21"/>
-      <c r="AE895" s="21"/>
-      <c r="AF895" s="21"/>
-      <c r="AG895" s="21"/>
-      <c r="AH895" s="21"/>
-      <c r="AI895" s="21"/>
-      <c r="AJ895" s="21"/>
-      <c r="AK895" s="21"/>
-      <c r="AL895" s="21"/>
-      <c r="AM895" s="21"/>
-      <c r="AN895" s="21"/>
-      <c r="AO895" s="21"/>
-      <c r="AP895" s="21"/>
-      <c r="AQ895" s="21"/>
-      <c r="AR895" s="21"/>
-    </row>
-    <row r="896" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E896" s="21"/>
-      <c r="F896" s="21"/>
-      <c r="G896" s="21"/>
-      <c r="H896" s="21"/>
-      <c r="I896" s="21"/>
-      <c r="J896" s="21"/>
-      <c r="K896" s="21"/>
-      <c r="L896" s="21"/>
-      <c r="M896" s="21"/>
-      <c r="N896" s="21"/>
-      <c r="O896" s="21"/>
-      <c r="P896" s="21"/>
-      <c r="Q896" s="21"/>
-      <c r="R896" s="21"/>
-      <c r="S896" s="21"/>
-      <c r="T896" s="21"/>
-      <c r="U896" s="21"/>
-      <c r="V896" s="21"/>
-      <c r="W896" s="21"/>
-      <c r="X896" s="21"/>
-      <c r="Y896" s="21"/>
-      <c r="Z896" s="21"/>
-      <c r="AA896" s="21"/>
-      <c r="AB896" s="21"/>
-      <c r="AC896" s="21"/>
-      <c r="AD896" s="21"/>
-      <c r="AE896" s="21"/>
-      <c r="AF896" s="21"/>
-      <c r="AG896" s="21"/>
-      <c r="AH896" s="21"/>
-      <c r="AI896" s="21"/>
-      <c r="AJ896" s="21"/>
-      <c r="AK896" s="21"/>
-      <c r="AL896" s="21"/>
-      <c r="AM896" s="21"/>
-      <c r="AN896" s="21"/>
-      <c r="AO896" s="21"/>
-      <c r="AP896" s="21"/>
-      <c r="AQ896" s="21"/>
-      <c r="AR896" s="21"/>
-    </row>
-    <row r="897" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="E897" s="21"/>
-      <c r="F897" s="21"/>
-      <c r="G897" s="21"/>
-      <c r="H897" s="21"/>
-      <c r="I897" s="21"/>
-      <c r="J897" s="21"/>
-      <c r="K897" s="21"/>
-      <c r="L897" s="21"/>
-      <c r="M897" s="21"/>
-      <c r="N897" s="21"/>
-      <c r="O897" s="21"/>
-      <c r="P897" s="21"/>
-      <c r="Q897" s="21"/>
-      <c r="R897" s="21"/>
-      <c r="S897" s="21"/>
-      <c r="T897" s="21"/>
-      <c r="U897" s="21"/>
-      <c r="V897" s="21"/>
-      <c r="W897" s="21"/>
-      <c r="X897" s="21"/>
-      <c r="Y897" s="21"/>
-      <c r="Z897" s="21"/>
-      <c r="AA897" s="21"/>
-      <c r="AB897" s="21"/>
-      <c r="AC897" s="21"/>
-      <c r="AD897" s="21"/>
-      <c r="AE897" s="21"/>
-      <c r="AF897" s="21"/>
-      <c r="AG897" s="21"/>
-      <c r="AH897" s="21"/>
-      <c r="AI897" s="21"/>
-      <c r="AJ897" s="21"/>
-      <c r="AK897" s="21"/>
-      <c r="AL897" s="21"/>
-      <c r="AM897" s="21"/>
-      <c r="AN897" s="21"/>
-      <c r="AO897" s="21"/>
-      <c r="AP897" s="21"/>
-      <c r="AQ897" s="21"/>
-      <c r="AR897" s="21"/>
+    <row r="895" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C895" s="25"/>
+    </row>
+    <row r="896" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="C896" s="25"/>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C897" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A2:AP853">
@@ -52390,10 +52690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:E434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -57327,6 +57627,105 @@
         <v>86</v>
       </c>
     </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" t="s">
+        <v>86</v>
+      </c>
+      <c r="B426" s="11">
+        <v>37705</v>
+      </c>
+      <c r="C426">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" t="s">
+        <v>86</v>
+      </c>
+      <c r="B427" s="11">
+        <v>37739</v>
+      </c>
+      <c r="C427">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>86</v>
+      </c>
+      <c r="B428" s="11">
+        <v>37776</v>
+      </c>
+      <c r="C428">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" t="s">
+        <v>87</v>
+      </c>
+      <c r="B429" s="11">
+        <v>38055</v>
+      </c>
+      <c r="C429">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" t="s">
+        <v>87</v>
+      </c>
+      <c r="B430" s="11">
+        <v>38100</v>
+      </c>
+      <c r="C430">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" t="s">
+        <v>87</v>
+      </c>
+      <c r="B431" s="11">
+        <v>38142</v>
+      </c>
+      <c r="C431">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" t="s">
+        <v>88</v>
+      </c>
+      <c r="B432" s="11">
+        <v>38438</v>
+      </c>
+      <c r="C432">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" t="s">
+        <v>88</v>
+      </c>
+      <c r="B433" s="11">
+        <v>38482</v>
+      </c>
+      <c r="C433">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" t="s">
+        <v>88</v>
+      </c>
+      <c r="B434" s="11">
+        <v>38511</v>
+      </c>
+      <c r="C434">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57335,12 +57734,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M489"/>
+  <dimension ref="A1:M645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="870" topLeftCell="A459" activePane="bottomLeft"/>
+      <pane ySplit="870" topLeftCell="A616" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210:B489"/>
+      <selection pane="bottomLeft" activeCell="A582" sqref="A582:A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -74224,8 +74623,3927 @@
         <v>0.2114</v>
       </c>
     </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" t="s">
+        <v>86</v>
+      </c>
+      <c r="B490" s="11">
+        <v>37625</v>
+      </c>
+      <c r="C490">
+        <v>474.12</v>
+      </c>
+      <c r="D490">
+        <v>78</v>
+      </c>
+      <c r="E490">
+        <v>80.2</v>
+      </c>
+      <c r="F490">
+        <v>97.2</v>
+      </c>
+      <c r="G490">
+        <v>101.6</v>
+      </c>
+      <c r="H490">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" t="s">
+        <v>86</v>
+      </c>
+      <c r="B491" s="11">
+        <v>37635</v>
+      </c>
+      <c r="C491">
+        <v>515.21</v>
+      </c>
+      <c r="D491">
+        <v>91.2</v>
+      </c>
+      <c r="E491">
+        <v>84.1</v>
+      </c>
+      <c r="F491">
+        <v>104.9</v>
+      </c>
+      <c r="G491">
+        <v>106.2</v>
+      </c>
+      <c r="H491">
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" t="s">
+        <v>86</v>
+      </c>
+      <c r="B492" s="11">
+        <v>37644</v>
+      </c>
+      <c r="C492">
+        <v>490.88</v>
+      </c>
+      <c r="D492">
+        <v>89.5</v>
+      </c>
+      <c r="E492">
+        <v>80.2</v>
+      </c>
+      <c r="F492">
+        <v>101.1</v>
+      </c>
+      <c r="G492">
+        <v>99.6</v>
+      </c>
+      <c r="H492">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" t="s">
+        <v>86</v>
+      </c>
+      <c r="B493" s="11">
+        <v>37656</v>
+      </c>
+      <c r="C493">
+        <v>474.12</v>
+      </c>
+      <c r="D493">
+        <v>78</v>
+      </c>
+      <c r="E493">
+        <v>80.2</v>
+      </c>
+      <c r="F493">
+        <v>97.2</v>
+      </c>
+      <c r="G493">
+        <v>101.6</v>
+      </c>
+      <c r="H493">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" t="s">
+        <v>86</v>
+      </c>
+      <c r="B494" s="11">
+        <v>37676</v>
+      </c>
+      <c r="C494">
+        <v>442.51</v>
+      </c>
+      <c r="D494">
+        <v>60.2</v>
+      </c>
+      <c r="E494">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F494">
+        <v>96</v>
+      </c>
+      <c r="G494">
+        <v>92.2</v>
+      </c>
+      <c r="H494">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" t="s">
+        <v>86</v>
+      </c>
+      <c r="B495" s="11">
+        <v>37686</v>
+      </c>
+      <c r="C495">
+        <v>421.52</v>
+      </c>
+      <c r="D495">
+        <v>61.4</v>
+      </c>
+      <c r="E495">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F495">
+        <v>89.4</v>
+      </c>
+      <c r="G495">
+        <v>89.5</v>
+      </c>
+      <c r="H495">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" t="s">
+        <v>86</v>
+      </c>
+      <c r="B496" s="11">
+        <v>37691</v>
+      </c>
+      <c r="C496">
+        <v>427.99</v>
+      </c>
+      <c r="D496">
+        <v>59.2</v>
+      </c>
+      <c r="E496">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F496">
+        <v>91.9</v>
+      </c>
+      <c r="G496">
+        <v>89.4</v>
+      </c>
+      <c r="H496">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" t="s">
+        <v>86</v>
+      </c>
+      <c r="B497" s="11">
+        <v>37696</v>
+      </c>
+      <c r="C497">
+        <v>429.14</v>
+      </c>
+      <c r="D497">
+        <v>62.2</v>
+      </c>
+      <c r="E497">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F497">
+        <v>91.5</v>
+      </c>
+      <c r="G497">
+        <v>88.8</v>
+      </c>
+      <c r="H497">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" t="s">
+        <v>86</v>
+      </c>
+      <c r="B498" s="11">
+        <v>37701</v>
+      </c>
+      <c r="C498">
+        <v>432.88</v>
+      </c>
+      <c r="D498">
+        <v>60.6</v>
+      </c>
+      <c r="E498">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F498">
+        <v>92.2</v>
+      </c>
+      <c r="G498">
+        <v>89.9</v>
+      </c>
+      <c r="H498">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" t="s">
+        <v>86</v>
+      </c>
+      <c r="B499" s="11">
+        <v>37706</v>
+      </c>
+      <c r="C499">
+        <v>392.26</v>
+      </c>
+      <c r="D499">
+        <v>60</v>
+      </c>
+      <c r="E499">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F499">
+        <v>90.6</v>
+      </c>
+      <c r="G499">
+        <v>77.8</v>
+      </c>
+      <c r="H499">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" t="s">
+        <v>86</v>
+      </c>
+      <c r="B500" s="11">
+        <v>37711</v>
+      </c>
+      <c r="C500">
+        <v>484.9</v>
+      </c>
+      <c r="D500">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E500">
+        <v>91.8</v>
+      </c>
+      <c r="F500">
+        <v>100.3</v>
+      </c>
+      <c r="G500">
+        <v>95.4</v>
+      </c>
+      <c r="H500">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" t="s">
+        <v>86</v>
+      </c>
+      <c r="B501" s="11">
+        <v>37717</v>
+      </c>
+      <c r="C501">
+        <v>466.79</v>
+      </c>
+      <c r="D501">
+        <v>69.5</v>
+      </c>
+      <c r="E501">
+        <v>84.4</v>
+      </c>
+      <c r="F501">
+        <v>100.9</v>
+      </c>
+      <c r="G501">
+        <v>98.2</v>
+      </c>
+      <c r="H501">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" t="s">
+        <v>86</v>
+      </c>
+      <c r="B502" s="11">
+        <v>37722</v>
+      </c>
+      <c r="C502">
+        <v>454.26</v>
+      </c>
+      <c r="D502">
+        <v>66.2</v>
+      </c>
+      <c r="E502">
+        <v>80.2</v>
+      </c>
+      <c r="F502">
+        <v>97.9</v>
+      </c>
+      <c r="G502">
+        <v>95.9</v>
+      </c>
+      <c r="H502">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" t="s">
+        <v>86</v>
+      </c>
+      <c r="B503" s="11">
+        <v>37727</v>
+      </c>
+      <c r="C503">
+        <v>444.97</v>
+      </c>
+      <c r="D503">
+        <v>57</v>
+      </c>
+      <c r="E503">
+        <v>78.7</v>
+      </c>
+      <c r="F503">
+        <v>98.6</v>
+      </c>
+      <c r="G503">
+        <v>95.9</v>
+      </c>
+      <c r="H503">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" t="s">
+        <v>86</v>
+      </c>
+      <c r="B504" s="11">
+        <v>37732</v>
+      </c>
+      <c r="C504">
+        <v>530.32000000000005</v>
+      </c>
+      <c r="D504">
+        <v>88.1</v>
+      </c>
+      <c r="E504">
+        <v>96</v>
+      </c>
+      <c r="F504">
+        <v>111.2</v>
+      </c>
+      <c r="G504">
+        <v>118</v>
+      </c>
+      <c r="H504">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" t="s">
+        <v>86</v>
+      </c>
+      <c r="B505" s="11">
+        <v>37734</v>
+      </c>
+      <c r="C505">
+        <v>511.55</v>
+      </c>
+      <c r="D505">
+        <v>78.3</v>
+      </c>
+      <c r="E505">
+        <v>89.9</v>
+      </c>
+      <c r="F505">
+        <v>109</v>
+      </c>
+      <c r="G505">
+        <v>118.1</v>
+      </c>
+      <c r="H505">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" t="s">
+        <v>86</v>
+      </c>
+      <c r="B506" s="11">
+        <v>37737</v>
+      </c>
+      <c r="C506">
+        <v>503.63</v>
+      </c>
+      <c r="D506">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E506">
+        <v>89.1</v>
+      </c>
+      <c r="F506">
+        <v>105.9</v>
+      </c>
+      <c r="G506">
+        <v>116.9</v>
+      </c>
+      <c r="H506">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" t="s">
+        <v>86</v>
+      </c>
+      <c r="B507" s="11">
+        <v>37740</v>
+      </c>
+      <c r="C507">
+        <v>495.9</v>
+      </c>
+      <c r="D507">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E507">
+        <v>84.2</v>
+      </c>
+      <c r="F507">
+        <v>104.6</v>
+      </c>
+      <c r="G507">
+        <v>115.9</v>
+      </c>
+      <c r="H507">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" t="s">
+        <v>86</v>
+      </c>
+      <c r="B508" s="11">
+        <v>37746</v>
+      </c>
+      <c r="C508">
+        <v>476.83</v>
+      </c>
+      <c r="D508">
+        <v>59.4</v>
+      </c>
+      <c r="E508">
+        <v>83</v>
+      </c>
+      <c r="F508">
+        <v>104.2</v>
+      </c>
+      <c r="G508">
+        <v>113.7</v>
+      </c>
+      <c r="H508">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" t="s">
+        <v>86</v>
+      </c>
+      <c r="B509" s="11">
+        <v>37751</v>
+      </c>
+      <c r="C509">
+        <v>454.54</v>
+      </c>
+      <c r="D509">
+        <v>53</v>
+      </c>
+      <c r="E509">
+        <v>77</v>
+      </c>
+      <c r="F509">
+        <v>101</v>
+      </c>
+      <c r="G509">
+        <v>109.2</v>
+      </c>
+      <c r="H509">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" t="s">
+        <v>86</v>
+      </c>
+      <c r="B510" s="11">
+        <v>37756</v>
+      </c>
+      <c r="C510">
+        <v>452.7</v>
+      </c>
+      <c r="D510">
+        <v>47.5</v>
+      </c>
+      <c r="E510">
+        <v>77.2</v>
+      </c>
+      <c r="F510">
+        <v>102.5</v>
+      </c>
+      <c r="G510">
+        <v>109.7</v>
+      </c>
+      <c r="H510">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" t="s">
+        <v>86</v>
+      </c>
+      <c r="B511" s="11">
+        <v>37761</v>
+      </c>
+      <c r="C511">
+        <v>521.9</v>
+      </c>
+      <c r="D511">
+        <v>79.5</v>
+      </c>
+      <c r="E511">
+        <v>90.6</v>
+      </c>
+      <c r="F511">
+        <v>109.5</v>
+      </c>
+      <c r="G511">
+        <v>120</v>
+      </c>
+      <c r="H511">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" t="s">
+        <v>86</v>
+      </c>
+      <c r="B512" s="11">
+        <v>37766</v>
+      </c>
+      <c r="C512">
+        <v>472.22</v>
+      </c>
+      <c r="D512">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E512">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F512">
+        <v>101.2</v>
+      </c>
+      <c r="G512">
+        <v>109.9</v>
+      </c>
+      <c r="H512">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" t="s">
+        <v>86</v>
+      </c>
+      <c r="B513" s="11">
+        <v>37771</v>
+      </c>
+      <c r="C513">
+        <v>460.45</v>
+      </c>
+      <c r="D513">
+        <v>51.4</v>
+      </c>
+      <c r="E513">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="F513">
+        <v>103.2</v>
+      </c>
+      <c r="G513">
+        <v>110.9</v>
+      </c>
+      <c r="H513">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" t="s">
+        <v>86</v>
+      </c>
+      <c r="B514" s="11">
+        <v>37777</v>
+      </c>
+      <c r="C514">
+        <v>417.19</v>
+      </c>
+      <c r="D514">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E514">
+        <v>69.5</v>
+      </c>
+      <c r="F514">
+        <v>94.4</v>
+      </c>
+      <c r="G514">
+        <v>104.5</v>
+      </c>
+      <c r="H514">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" t="s">
+        <v>86</v>
+      </c>
+      <c r="B515" s="11">
+        <v>37782</v>
+      </c>
+      <c r="C515">
+        <v>433.9</v>
+      </c>
+      <c r="D515">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E515">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="F515">
+        <v>100.1</v>
+      </c>
+      <c r="G515">
+        <v>104.8</v>
+      </c>
+      <c r="H515">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" t="s">
+        <v>87</v>
+      </c>
+      <c r="B516" s="11">
+        <v>37786</v>
+      </c>
+      <c r="C516">
+        <v>417.64</v>
+      </c>
+      <c r="D516">
+        <v>41.6</v>
+      </c>
+      <c r="E516">
+        <v>72</v>
+      </c>
+      <c r="F516">
+        <v>94.1</v>
+      </c>
+      <c r="G516">
+        <v>96.9</v>
+      </c>
+      <c r="H516">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A517" t="s">
+        <v>87</v>
+      </c>
+      <c r="B517" s="11">
+        <v>37791</v>
+      </c>
+      <c r="C517">
+        <v>429.41</v>
+      </c>
+      <c r="D517">
+        <v>41.9</v>
+      </c>
+      <c r="E517">
+        <v>74.2</v>
+      </c>
+      <c r="F517">
+        <v>97.2</v>
+      </c>
+      <c r="G517">
+        <v>99.5</v>
+      </c>
+      <c r="H517">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A518" t="s">
+        <v>87</v>
+      </c>
+      <c r="B518" s="11">
+        <v>37796</v>
+      </c>
+      <c r="C518">
+        <v>426.06</v>
+      </c>
+      <c r="D518">
+        <v>46.1</v>
+      </c>
+      <c r="E518">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="F518">
+        <v>95.7</v>
+      </c>
+      <c r="G518">
+        <v>96.9</v>
+      </c>
+      <c r="H518">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A519" t="s">
+        <v>87</v>
+      </c>
+      <c r="B519" s="11">
+        <v>37802</v>
+      </c>
+      <c r="C519">
+        <v>435.21</v>
+      </c>
+      <c r="D519">
+        <v>48.8</v>
+      </c>
+      <c r="E519">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F519">
+        <v>98.1</v>
+      </c>
+      <c r="G519">
+        <v>96.6</v>
+      </c>
+      <c r="H519">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A520" t="s">
+        <v>87</v>
+      </c>
+      <c r="B520" s="11">
+        <v>37807</v>
+      </c>
+      <c r="C520">
+        <v>419.34</v>
+      </c>
+      <c r="D520">
+        <v>45</v>
+      </c>
+      <c r="E520">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F520">
+        <v>93.8</v>
+      </c>
+      <c r="G520">
+        <v>93.4</v>
+      </c>
+      <c r="H520">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A521" t="s">
+        <v>87</v>
+      </c>
+      <c r="B521" s="11">
+        <v>37812</v>
+      </c>
+      <c r="C521">
+        <v>422.67</v>
+      </c>
+      <c r="D521">
+        <v>46.7</v>
+      </c>
+      <c r="E521">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F521">
+        <v>96.1</v>
+      </c>
+      <c r="G521">
+        <v>92.3</v>
+      </c>
+      <c r="H521">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A522" t="s">
+        <v>87</v>
+      </c>
+      <c r="B522" s="11">
+        <v>37817</v>
+      </c>
+      <c r="C522">
+        <v>432.35</v>
+      </c>
+      <c r="D522">
+        <v>53.7</v>
+      </c>
+      <c r="E522">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F522">
+        <v>95.1</v>
+      </c>
+      <c r="G522">
+        <v>94.1</v>
+      </c>
+      <c r="H522">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" t="s">
+        <v>87</v>
+      </c>
+      <c r="B523" s="11">
+        <v>37823</v>
+      </c>
+      <c r="C523">
+        <v>451.19</v>
+      </c>
+      <c r="D523">
+        <v>73</v>
+      </c>
+      <c r="E523">
+        <v>74.8</v>
+      </c>
+      <c r="F523">
+        <v>94.9</v>
+      </c>
+      <c r="G523">
+        <v>94.3</v>
+      </c>
+      <c r="H523">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" t="s">
+        <v>87</v>
+      </c>
+      <c r="B524" s="11">
+        <v>37828</v>
+      </c>
+      <c r="C524">
+        <v>451.98</v>
+      </c>
+      <c r="D524">
+        <v>66.2</v>
+      </c>
+      <c r="E524">
+        <v>79</v>
+      </c>
+      <c r="F524">
+        <v>95.1</v>
+      </c>
+      <c r="G524">
+        <v>97.1</v>
+      </c>
+      <c r="H524">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" t="s">
+        <v>87</v>
+      </c>
+      <c r="B525" s="11">
+        <v>37833</v>
+      </c>
+      <c r="C525">
+        <v>470.84</v>
+      </c>
+      <c r="D525">
+        <v>74.8</v>
+      </c>
+      <c r="E525">
+        <v>82.4</v>
+      </c>
+      <c r="F525">
+        <v>98.3</v>
+      </c>
+      <c r="G525">
+        <v>99.1</v>
+      </c>
+      <c r="H525">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" t="s">
+        <v>87</v>
+      </c>
+      <c r="B526" s="11">
+        <v>37838</v>
+      </c>
+      <c r="C526">
+        <v>467.2</v>
+      </c>
+      <c r="D526">
+        <v>68.2</v>
+      </c>
+      <c r="E526">
+        <v>81.8</v>
+      </c>
+      <c r="F526">
+        <v>98.9</v>
+      </c>
+      <c r="G526">
+        <v>102</v>
+      </c>
+      <c r="H526">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" t="s">
+        <v>87</v>
+      </c>
+      <c r="B527" s="11">
+        <v>37844</v>
+      </c>
+      <c r="C527">
+        <v>454.58</v>
+      </c>
+      <c r="D527">
+        <v>61.9</v>
+      </c>
+      <c r="E527">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F527">
+        <v>97.1</v>
+      </c>
+      <c r="G527">
+        <v>100.9</v>
+      </c>
+      <c r="H527">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" t="s">
+        <v>87</v>
+      </c>
+      <c r="B528" s="11">
+        <v>37851</v>
+      </c>
+      <c r="C528">
+        <v>433.17</v>
+      </c>
+      <c r="D528">
+        <v>50.3</v>
+      </c>
+      <c r="E528">
+        <v>78.2</v>
+      </c>
+      <c r="F528">
+        <v>92.5</v>
+      </c>
+      <c r="G528">
+        <v>98.6</v>
+      </c>
+      <c r="H528">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" t="s">
+        <v>87</v>
+      </c>
+      <c r="B529" s="11">
+        <v>37856</v>
+      </c>
+      <c r="C529">
+        <v>440.07</v>
+      </c>
+      <c r="D529">
+        <v>60.9</v>
+      </c>
+      <c r="E529">
+        <v>74.5</v>
+      </c>
+      <c r="F529">
+        <v>93.3</v>
+      </c>
+      <c r="G529">
+        <v>95.1</v>
+      </c>
+      <c r="H529">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" t="s">
+        <v>87</v>
+      </c>
+      <c r="B530" s="11">
+        <v>37863</v>
+      </c>
+      <c r="C530">
+        <v>443.74</v>
+      </c>
+      <c r="D530">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E530">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="F530">
+        <v>91.7</v>
+      </c>
+      <c r="G530">
+        <v>93.3</v>
+      </c>
+      <c r="H530">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A531" t="s">
+        <v>87</v>
+      </c>
+      <c r="B531" s="11">
+        <v>37869</v>
+      </c>
+      <c r="C531">
+        <v>454.52</v>
+      </c>
+      <c r="D531">
+        <v>74.3</v>
+      </c>
+      <c r="E531">
+        <v>80.8</v>
+      </c>
+      <c r="F531">
+        <v>93.1</v>
+      </c>
+      <c r="G531">
+        <v>95.1</v>
+      </c>
+      <c r="H531">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A532" t="s">
+        <v>87</v>
+      </c>
+      <c r="B532" s="11">
+        <v>37874</v>
+      </c>
+      <c r="C532">
+        <v>466.11</v>
+      </c>
+      <c r="D532">
+        <v>70.8</v>
+      </c>
+      <c r="E532">
+        <v>82</v>
+      </c>
+      <c r="F532">
+        <v>97.4</v>
+      </c>
+      <c r="G532">
+        <v>101.9</v>
+      </c>
+      <c r="H532">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A533" t="s">
+        <v>87</v>
+      </c>
+      <c r="B533" s="11">
+        <v>37879</v>
+      </c>
+      <c r="C533">
+        <v>445.87</v>
+      </c>
+      <c r="D533">
+        <v>63.5</v>
+      </c>
+      <c r="E533">
+        <v>76</v>
+      </c>
+      <c r="F533">
+        <v>94.4</v>
+      </c>
+      <c r="G533">
+        <v>99.6</v>
+      </c>
+      <c r="H533">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A534" t="s">
+        <v>87</v>
+      </c>
+      <c r="B534" s="11">
+        <v>37884</v>
+      </c>
+      <c r="C534">
+        <v>450.72</v>
+      </c>
+      <c r="D534">
+        <v>61.5</v>
+      </c>
+      <c r="E534">
+        <v>76.5</v>
+      </c>
+      <c r="F534">
+        <v>97.1</v>
+      </c>
+      <c r="G534">
+        <v>101.7</v>
+      </c>
+      <c r="H534">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A535" t="s">
+        <v>87</v>
+      </c>
+      <c r="B535" s="11">
+        <v>37889</v>
+      </c>
+      <c r="C535">
+        <v>457.38</v>
+      </c>
+      <c r="D535">
+        <v>60.3</v>
+      </c>
+      <c r="E535">
+        <v>78.3</v>
+      </c>
+      <c r="F535">
+        <v>93.9</v>
+      </c>
+      <c r="G535">
+        <v>106.4</v>
+      </c>
+      <c r="H535">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A536" t="s">
+        <v>87</v>
+      </c>
+      <c r="B536" s="11">
+        <v>37896</v>
+      </c>
+      <c r="C536">
+        <v>445.29</v>
+      </c>
+      <c r="D536">
+        <v>66.7</v>
+      </c>
+      <c r="E536">
+        <v>75.2</v>
+      </c>
+      <c r="F536">
+        <v>94.5</v>
+      </c>
+      <c r="G536">
+        <v>96.1</v>
+      </c>
+      <c r="H536">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A537" t="s">
+        <v>87</v>
+      </c>
+      <c r="B537" s="11">
+        <v>37901</v>
+      </c>
+      <c r="C537">
+        <v>480.73</v>
+      </c>
+      <c r="D537">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E537">
+        <v>82.4</v>
+      </c>
+      <c r="F537">
+        <v>102.7</v>
+      </c>
+      <c r="G537">
+        <v>106</v>
+      </c>
+      <c r="H537">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A538" t="s">
+        <v>87</v>
+      </c>
+      <c r="B538" s="11">
+        <v>37908</v>
+      </c>
+      <c r="C538">
+        <v>560.04</v>
+      </c>
+      <c r="D538">
+        <v>92.8</v>
+      </c>
+      <c r="E538">
+        <v>105.8</v>
+      </c>
+      <c r="F538">
+        <v>118.9</v>
+      </c>
+      <c r="G538">
+        <v>121.3</v>
+      </c>
+      <c r="H538">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A539" t="s">
+        <v>87</v>
+      </c>
+      <c r="B539" s="11">
+        <v>37914</v>
+      </c>
+      <c r="C539">
+        <v>547.94000000000005</v>
+      </c>
+      <c r="D539">
+        <v>88.1</v>
+      </c>
+      <c r="E539">
+        <v>97.6</v>
+      </c>
+      <c r="F539">
+        <v>116.1</v>
+      </c>
+      <c r="G539">
+        <v>125.2</v>
+      </c>
+      <c r="H539">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A540" t="s">
+        <v>87</v>
+      </c>
+      <c r="B540" s="11">
+        <v>37919</v>
+      </c>
+      <c r="C540">
+        <v>531.39</v>
+      </c>
+      <c r="D540">
+        <v>77.5</v>
+      </c>
+      <c r="E540">
+        <v>93.5</v>
+      </c>
+      <c r="F540">
+        <v>111.8</v>
+      </c>
+      <c r="G540">
+        <v>125.9</v>
+      </c>
+      <c r="H540">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A541" t="s">
+        <v>87</v>
+      </c>
+      <c r="B541" s="11">
+        <v>37924</v>
+      </c>
+      <c r="C541">
+        <v>505.06</v>
+      </c>
+      <c r="D541">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E541">
+        <v>87.6</v>
+      </c>
+      <c r="F541">
+        <v>105.9</v>
+      </c>
+      <c r="G541">
+        <v>120.6</v>
+      </c>
+      <c r="H541">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A542" t="s">
+        <v>87</v>
+      </c>
+      <c r="B542" s="11">
+        <v>37929</v>
+      </c>
+      <c r="C542">
+        <v>510.53</v>
+      </c>
+      <c r="D542">
+        <v>73</v>
+      </c>
+      <c r="E542">
+        <v>89.7</v>
+      </c>
+      <c r="F542">
+        <v>107.8</v>
+      </c>
+      <c r="G542">
+        <v>120</v>
+      </c>
+      <c r="H542">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A543" t="s">
+        <v>87</v>
+      </c>
+      <c r="B543" s="11">
+        <v>37934</v>
+      </c>
+      <c r="C543">
+        <v>527.99</v>
+      </c>
+      <c r="D543">
+        <v>79.7</v>
+      </c>
+      <c r="E543">
+        <v>91.7</v>
+      </c>
+      <c r="F543">
+        <v>109.3</v>
+      </c>
+      <c r="G543">
+        <v>123.9</v>
+      </c>
+      <c r="H543">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A544" t="s">
+        <v>87</v>
+      </c>
+      <c r="B544" s="11">
+        <v>37939</v>
+      </c>
+      <c r="C544">
+        <v>514.49</v>
+      </c>
+      <c r="D544">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E544">
+        <v>89.3</v>
+      </c>
+      <c r="F544">
+        <v>108</v>
+      </c>
+      <c r="G544">
+        <v>121.1</v>
+      </c>
+      <c r="H544">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A545" t="s">
+        <v>87</v>
+      </c>
+      <c r="B545" s="11">
+        <v>37961</v>
+      </c>
+      <c r="C545">
+        <v>520.22</v>
+      </c>
+      <c r="D545">
+        <v>80</v>
+      </c>
+      <c r="E545">
+        <v>88.1</v>
+      </c>
+      <c r="F545">
+        <v>109.9</v>
+      </c>
+      <c r="G545">
+        <v>122.1</v>
+      </c>
+      <c r="H545">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A546" t="s">
+        <v>87</v>
+      </c>
+      <c r="B546" s="11">
+        <v>37966</v>
+      </c>
+      <c r="C546">
+        <v>505.08</v>
+      </c>
+      <c r="D546">
+        <v>73.3</v>
+      </c>
+      <c r="E546">
+        <v>87</v>
+      </c>
+      <c r="F546">
+        <v>105.2</v>
+      </c>
+      <c r="G546">
+        <v>120.4</v>
+      </c>
+      <c r="H546">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A547" t="s">
+        <v>87</v>
+      </c>
+      <c r="B547" s="11">
+        <v>37970</v>
+      </c>
+      <c r="C547">
+        <v>522.91999999999996</v>
+      </c>
+      <c r="D547">
+        <v>74.3</v>
+      </c>
+      <c r="E547">
+        <v>89.8</v>
+      </c>
+      <c r="F547">
+        <v>112.1</v>
+      </c>
+      <c r="G547">
+        <v>119.6</v>
+      </c>
+      <c r="H547">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A548" t="s">
+        <v>87</v>
+      </c>
+      <c r="B548" s="11">
+        <v>37975</v>
+      </c>
+      <c r="C548">
+        <v>529.46</v>
+      </c>
+      <c r="D548">
+        <v>76.2</v>
+      </c>
+      <c r="E548">
+        <v>90.8</v>
+      </c>
+      <c r="F548">
+        <v>111.5</v>
+      </c>
+      <c r="G548">
+        <v>126.3</v>
+      </c>
+      <c r="H548">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A549" t="s">
+        <v>87</v>
+      </c>
+      <c r="B549" s="11">
+        <v>37986</v>
+      </c>
+      <c r="C549">
+        <v>515.77</v>
+      </c>
+      <c r="D549">
+        <v>71.8</v>
+      </c>
+      <c r="E549">
+        <v>88.8</v>
+      </c>
+      <c r="F549">
+        <v>110.1</v>
+      </c>
+      <c r="G549">
+        <v>123.9</v>
+      </c>
+      <c r="H549">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A550" t="s">
+        <v>87</v>
+      </c>
+      <c r="B550" s="11">
+        <v>37991</v>
+      </c>
+      <c r="C550">
+        <v>488.57</v>
+      </c>
+      <c r="D550">
+        <v>70.5</v>
+      </c>
+      <c r="E550">
+        <v>83.5</v>
+      </c>
+      <c r="F550">
+        <v>104.6</v>
+      </c>
+      <c r="G550">
+        <v>115.5</v>
+      </c>
+      <c r="H550">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A551" t="s">
+        <v>87</v>
+      </c>
+      <c r="B551" s="11">
+        <v>37995</v>
+      </c>
+      <c r="C551">
+        <v>480.7</v>
+      </c>
+      <c r="D551">
+        <v>64.3</v>
+      </c>
+      <c r="E551">
+        <v>82.3</v>
+      </c>
+      <c r="F551">
+        <v>103.1</v>
+      </c>
+      <c r="G551">
+        <v>115.9</v>
+      </c>
+      <c r="H551">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A552" t="s">
+        <v>87</v>
+      </c>
+      <c r="B552" s="11">
+        <v>38000</v>
+      </c>
+      <c r="C552">
+        <v>488.65</v>
+      </c>
+      <c r="D552">
+        <v>68.7</v>
+      </c>
+      <c r="E552">
+        <v>83.1</v>
+      </c>
+      <c r="F552">
+        <v>104.6</v>
+      </c>
+      <c r="G552">
+        <v>116.9</v>
+      </c>
+      <c r="H552">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A553" t="s">
+        <v>87</v>
+      </c>
+      <c r="B553" s="11">
+        <v>38005</v>
+      </c>
+      <c r="C553">
+        <v>481.95</v>
+      </c>
+      <c r="D553">
+        <v>68.7</v>
+      </c>
+      <c r="E553">
+        <v>82.7</v>
+      </c>
+      <c r="F553">
+        <v>101.4</v>
+      </c>
+      <c r="G553">
+        <v>114.6</v>
+      </c>
+      <c r="H553">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A554" t="s">
+        <v>87</v>
+      </c>
+      <c r="B554" s="11">
+        <v>38011</v>
+      </c>
+      <c r="C554">
+        <v>487.46</v>
+      </c>
+      <c r="D554">
+        <v>73.5</v>
+      </c>
+      <c r="E554">
+        <v>82.1</v>
+      </c>
+      <c r="F554">
+        <v>103.9</v>
+      </c>
+      <c r="G554">
+        <v>114.4</v>
+      </c>
+      <c r="H554">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A555" t="s">
+        <v>87</v>
+      </c>
+      <c r="B555" s="11">
+        <v>38015</v>
+      </c>
+      <c r="C555">
+        <v>490.73</v>
+      </c>
+      <c r="D555">
+        <v>74</v>
+      </c>
+      <c r="E555">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F555">
+        <v>102.1</v>
+      </c>
+      <c r="G555">
+        <v>117.2</v>
+      </c>
+      <c r="H555">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" t="s">
+        <v>87</v>
+      </c>
+      <c r="B556" s="11">
+        <v>38020</v>
+      </c>
+      <c r="C556">
+        <v>502.19</v>
+      </c>
+      <c r="D556">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E556">
+        <v>85.4</v>
+      </c>
+      <c r="F556">
+        <v>105.3</v>
+      </c>
+      <c r="G556">
+        <v>119.1</v>
+      </c>
+      <c r="H556">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" t="s">
+        <v>87</v>
+      </c>
+      <c r="B557" s="11">
+        <v>38026</v>
+      </c>
+      <c r="C557">
+        <v>496.3</v>
+      </c>
+      <c r="D557">
+        <v>70.7</v>
+      </c>
+      <c r="E557">
+        <v>83.9</v>
+      </c>
+      <c r="F557">
+        <v>105.7</v>
+      </c>
+      <c r="G557">
+        <v>117.8</v>
+      </c>
+      <c r="H557">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" t="s">
+        <v>87</v>
+      </c>
+      <c r="B558" s="11">
+        <v>38030</v>
+      </c>
+      <c r="C558">
+        <v>499.38</v>
+      </c>
+      <c r="D558">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E558">
+        <v>84.7</v>
+      </c>
+      <c r="F558">
+        <v>104.7</v>
+      </c>
+      <c r="G558">
+        <v>118.7</v>
+      </c>
+      <c r="H558">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" t="s">
+        <v>87</v>
+      </c>
+      <c r="B559" s="11">
+        <v>38036</v>
+      </c>
+      <c r="C559">
+        <v>517.30999999999995</v>
+      </c>
+      <c r="D559">
+        <v>76</v>
+      </c>
+      <c r="E559">
+        <v>92.7</v>
+      </c>
+      <c r="F559">
+        <v>112.2</v>
+      </c>
+      <c r="G559">
+        <v>118.9</v>
+      </c>
+      <c r="H559">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" t="s">
+        <v>87</v>
+      </c>
+      <c r="B560" s="11">
+        <v>38041</v>
+      </c>
+      <c r="C560">
+        <v>496</v>
+      </c>
+      <c r="D560">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E560">
+        <v>84.3</v>
+      </c>
+      <c r="F560">
+        <v>105.5</v>
+      </c>
+      <c r="G560">
+        <v>117.4</v>
+      </c>
+      <c r="H560">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" t="s">
+        <v>87</v>
+      </c>
+      <c r="B561" s="11">
+        <v>38045</v>
+      </c>
+      <c r="C561">
+        <v>483.45</v>
+      </c>
+      <c r="D561">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E561">
+        <v>83.6</v>
+      </c>
+      <c r="F561">
+        <v>101.8</v>
+      </c>
+      <c r="G561">
+        <v>115.3</v>
+      </c>
+      <c r="H561">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" t="s">
+        <v>87</v>
+      </c>
+      <c r="B562" s="11">
+        <v>38050</v>
+      </c>
+      <c r="C562">
+        <v>486.24</v>
+      </c>
+      <c r="D562">
+        <v>71.2</v>
+      </c>
+      <c r="E562">
+        <v>82</v>
+      </c>
+      <c r="F562">
+        <v>102.5</v>
+      </c>
+      <c r="G562">
+        <v>116.4</v>
+      </c>
+      <c r="H562">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" t="s">
+        <v>87</v>
+      </c>
+      <c r="B563" s="11">
+        <v>38055</v>
+      </c>
+      <c r="C563">
+        <v>491.29</v>
+      </c>
+      <c r="D563">
+        <v>63.7</v>
+      </c>
+      <c r="E563">
+        <v>82.8</v>
+      </c>
+      <c r="F563">
+        <v>107.4</v>
+      </c>
+      <c r="G563">
+        <v>118.5</v>
+      </c>
+      <c r="H563">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" t="s">
+        <v>87</v>
+      </c>
+      <c r="B564" s="11">
+        <v>38061</v>
+      </c>
+      <c r="C564">
+        <v>568.65</v>
+      </c>
+      <c r="D564">
+        <v>95.2</v>
+      </c>
+      <c r="E564">
+        <v>110.8</v>
+      </c>
+      <c r="F564">
+        <v>116.4</v>
+      </c>
+      <c r="G564">
+        <v>124.9</v>
+      </c>
+      <c r="H564">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" t="s">
+        <v>87</v>
+      </c>
+      <c r="B565" s="11">
+        <v>38066</v>
+      </c>
+      <c r="C565">
+        <v>523.87</v>
+      </c>
+      <c r="D565">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E565">
+        <v>91.9</v>
+      </c>
+      <c r="F565">
+        <v>111.6</v>
+      </c>
+      <c r="G565">
+        <v>123.4</v>
+      </c>
+      <c r="H565">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" t="s">
+        <v>87</v>
+      </c>
+      <c r="B566" s="11">
+        <v>38071</v>
+      </c>
+      <c r="C566">
+        <v>496.61</v>
+      </c>
+      <c r="D566">
+        <v>69.3</v>
+      </c>
+      <c r="E566">
+        <v>85.9</v>
+      </c>
+      <c r="F566">
+        <v>105.5</v>
+      </c>
+      <c r="G566">
+        <v>117.9</v>
+      </c>
+      <c r="H566">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" t="s">
+        <v>87</v>
+      </c>
+      <c r="B567" s="11">
+        <v>38076</v>
+      </c>
+      <c r="C567">
+        <v>512.25</v>
+      </c>
+      <c r="D567">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E567">
+        <v>88.1</v>
+      </c>
+      <c r="F567">
+        <v>109.7</v>
+      </c>
+      <c r="G567">
+        <v>124</v>
+      </c>
+      <c r="H567">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A568" t="s">
+        <v>87</v>
+      </c>
+      <c r="B568" s="11">
+        <v>38081</v>
+      </c>
+      <c r="C568">
+        <v>487.19</v>
+      </c>
+      <c r="D568">
+        <v>60</v>
+      </c>
+      <c r="E568">
+        <v>89.3</v>
+      </c>
+      <c r="F568">
+        <v>104.7</v>
+      </c>
+      <c r="G568">
+        <v>114.7</v>
+      </c>
+      <c r="H568">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A569" t="s">
+        <v>87</v>
+      </c>
+      <c r="B569" s="11">
+        <v>38086</v>
+      </c>
+      <c r="C569">
+        <v>477.26</v>
+      </c>
+      <c r="D569">
+        <v>51.6</v>
+      </c>
+      <c r="E569">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F569">
+        <v>104.8</v>
+      </c>
+      <c r="G569">
+        <v>117.9</v>
+      </c>
+      <c r="H569">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A570" t="s">
+        <v>87</v>
+      </c>
+      <c r="B570" s="11">
+        <v>38091</v>
+      </c>
+      <c r="C570">
+        <v>452.34</v>
+      </c>
+      <c r="D570">
+        <v>42.2</v>
+      </c>
+      <c r="E570">
+        <v>76.5</v>
+      </c>
+      <c r="F570">
+        <v>101.4</v>
+      </c>
+      <c r="G570">
+        <v>116.1</v>
+      </c>
+      <c r="H570">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A571" t="s">
+        <v>87</v>
+      </c>
+      <c r="B571" s="11">
+        <v>38097</v>
+      </c>
+      <c r="C571">
+        <v>544.72</v>
+      </c>
+      <c r="D571">
+        <v>87.2</v>
+      </c>
+      <c r="E571">
+        <v>99.5</v>
+      </c>
+      <c r="F571">
+        <v>111.6</v>
+      </c>
+      <c r="G571">
+        <v>123.8</v>
+      </c>
+      <c r="H571">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A572" t="s">
+        <v>87</v>
+      </c>
+      <c r="B572" s="11">
+        <v>38102</v>
+      </c>
+      <c r="C572">
+        <v>486.54</v>
+      </c>
+      <c r="D572">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E572">
+        <v>82.5</v>
+      </c>
+      <c r="F572">
+        <v>104.9</v>
+      </c>
+      <c r="G572">
+        <v>117.6</v>
+      </c>
+      <c r="H572">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A573" t="s">
+        <v>87</v>
+      </c>
+      <c r="B573" s="11">
+        <v>38107</v>
+      </c>
+      <c r="C573">
+        <v>480</v>
+      </c>
+      <c r="D573">
+        <v>63.1</v>
+      </c>
+      <c r="E573">
+        <v>81.2</v>
+      </c>
+      <c r="F573">
+        <v>103.1</v>
+      </c>
+      <c r="G573">
+        <v>115.5</v>
+      </c>
+      <c r="H573">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A574" t="s">
+        <v>87</v>
+      </c>
+      <c r="B574" s="11">
+        <v>38112</v>
+      </c>
+      <c r="C574">
+        <v>477.38</v>
+      </c>
+      <c r="D574">
+        <v>59.6</v>
+      </c>
+      <c r="E574">
+        <v>81.8</v>
+      </c>
+      <c r="F574">
+        <v>103.5</v>
+      </c>
+      <c r="G574">
+        <v>115</v>
+      </c>
+      <c r="H574">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A575" t="s">
+        <v>87</v>
+      </c>
+      <c r="B575" s="11">
+        <v>38117</v>
+      </c>
+      <c r="C575">
+        <v>446.75</v>
+      </c>
+      <c r="D575">
+        <v>43.3</v>
+      </c>
+      <c r="E575">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F575">
+        <v>99.5</v>
+      </c>
+      <c r="G575">
+        <v>110.9</v>
+      </c>
+      <c r="H575">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A576" t="s">
+        <v>87</v>
+      </c>
+      <c r="B576" s="11">
+        <v>38119</v>
+      </c>
+      <c r="C576">
+        <v>462.6</v>
+      </c>
+      <c r="D576">
+        <v>55.1</v>
+      </c>
+      <c r="E576">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F576">
+        <v>101.4</v>
+      </c>
+      <c r="G576">
+        <v>113.2</v>
+      </c>
+      <c r="H576">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A577" t="s">
+        <v>87</v>
+      </c>
+      <c r="B577" s="11">
+        <v>38124</v>
+      </c>
+      <c r="C577">
+        <v>455.8</v>
+      </c>
+      <c r="D577">
+        <v>48.1</v>
+      </c>
+      <c r="E577">
+        <v>77.3</v>
+      </c>
+      <c r="F577">
+        <v>100.8</v>
+      </c>
+      <c r="G577">
+        <v>113.4</v>
+      </c>
+      <c r="H577">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A578" t="s">
+        <v>87</v>
+      </c>
+      <c r="B578" s="11">
+        <v>38129</v>
+      </c>
+      <c r="C578">
+        <v>423.6</v>
+      </c>
+      <c r="D578">
+        <v>29</v>
+      </c>
+      <c r="E578">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F578">
+        <v>99.3</v>
+      </c>
+      <c r="G578">
+        <v>107.9</v>
+      </c>
+      <c r="H578">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A579" t="s">
+        <v>87</v>
+      </c>
+      <c r="B579" s="11">
+        <v>38135</v>
+      </c>
+      <c r="C579">
+        <v>420.85</v>
+      </c>
+      <c r="D579">
+        <v>31.8</v>
+      </c>
+      <c r="E579">
+        <v>70.5</v>
+      </c>
+      <c r="F579">
+        <v>97.2</v>
+      </c>
+      <c r="G579">
+        <v>105.6</v>
+      </c>
+      <c r="H579">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A580" t="s">
+        <v>87</v>
+      </c>
+      <c r="B580" s="11">
+        <v>38140</v>
+      </c>
+      <c r="C580">
+        <v>409.9</v>
+      </c>
+      <c r="D580">
+        <v>25.4</v>
+      </c>
+      <c r="E580">
+        <v>65.8</v>
+      </c>
+      <c r="F580">
+        <v>97.5</v>
+      </c>
+      <c r="G580">
+        <v>104.7</v>
+      </c>
+      <c r="H580">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A581" t="s">
+        <v>87</v>
+      </c>
+      <c r="B581" s="11">
+        <v>38145</v>
+      </c>
+      <c r="C581">
+        <v>413.01</v>
+      </c>
+      <c r="D581">
+        <v>36.1</v>
+      </c>
+      <c r="E581">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F581">
+        <v>94.6</v>
+      </c>
+      <c r="G581">
+        <v>100.3</v>
+      </c>
+      <c r="H581">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A582" t="s">
+        <v>88</v>
+      </c>
+      <c r="B582" s="11">
+        <v>38150</v>
+      </c>
+      <c r="C582">
+        <v>399.88</v>
+      </c>
+      <c r="D582">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E582">
+        <v>53.8</v>
+      </c>
+      <c r="F582">
+        <v>88.6</v>
+      </c>
+      <c r="G582">
+        <v>104.7</v>
+      </c>
+      <c r="H582">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A583" t="s">
+        <v>88</v>
+      </c>
+      <c r="B583" s="11">
+        <v>38160</v>
+      </c>
+      <c r="C583">
+        <v>467.96</v>
+      </c>
+      <c r="D583">
+        <v>77.8</v>
+      </c>
+      <c r="E583">
+        <v>79.3</v>
+      </c>
+      <c r="F583">
+        <v>97.4</v>
+      </c>
+      <c r="G583">
+        <v>98.5</v>
+      </c>
+      <c r="H583">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A584" t="s">
+        <v>88</v>
+      </c>
+      <c r="B584" s="11">
+        <v>38164</v>
+      </c>
+      <c r="C584">
+        <v>553.54999999999995</v>
+      </c>
+      <c r="D584">
+        <v>88.3</v>
+      </c>
+      <c r="E584">
+        <v>105.3</v>
+      </c>
+      <c r="F584">
+        <v>116.5</v>
+      </c>
+      <c r="G584">
+        <v>122.8</v>
+      </c>
+      <c r="H584">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A585" t="s">
+        <v>88</v>
+      </c>
+      <c r="B585" s="11">
+        <v>38171</v>
+      </c>
+      <c r="C585">
+        <v>575.23</v>
+      </c>
+      <c r="D585">
+        <v>93.8</v>
+      </c>
+      <c r="E585">
+        <v>111.4</v>
+      </c>
+      <c r="F585">
+        <v>121.1</v>
+      </c>
+      <c r="G585">
+        <v>125.7</v>
+      </c>
+      <c r="H585">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A586" t="s">
+        <v>88</v>
+      </c>
+      <c r="B586" s="11">
+        <v>38188</v>
+      </c>
+      <c r="C586">
+        <v>564.59</v>
+      </c>
+      <c r="D586">
+        <v>89.1</v>
+      </c>
+      <c r="E586">
+        <v>106.9</v>
+      </c>
+      <c r="F586">
+        <v>118.8</v>
+      </c>
+      <c r="G586">
+        <v>127.5</v>
+      </c>
+      <c r="H586">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A587" t="s">
+        <v>88</v>
+      </c>
+      <c r="B587" s="11">
+        <v>38193</v>
+      </c>
+      <c r="C587">
+        <v>531.25</v>
+      </c>
+      <c r="D587">
+        <v>73.3</v>
+      </c>
+      <c r="E587">
+        <v>93.7</v>
+      </c>
+      <c r="F587">
+        <v>114.1</v>
+      </c>
+      <c r="G587">
+        <v>127.4</v>
+      </c>
+      <c r="H587">
+        <v>122.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" t="s">
+        <v>88</v>
+      </c>
+      <c r="B588" s="11">
+        <v>38200</v>
+      </c>
+      <c r="C588">
+        <v>616.32000000000005</v>
+      </c>
+      <c r="D588">
+        <v>119.4</v>
+      </c>
+      <c r="E588">
+        <v>122.1</v>
+      </c>
+      <c r="F588">
+        <v>122.9</v>
+      </c>
+      <c r="G588">
+        <v>128.9</v>
+      </c>
+      <c r="H588">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A589" t="s">
+        <v>88</v>
+      </c>
+      <c r="B589" s="11">
+        <v>38204</v>
+      </c>
+      <c r="C589">
+        <v>602.21</v>
+      </c>
+      <c r="D589">
+        <v>107.6</v>
+      </c>
+      <c r="E589">
+        <v>120.8</v>
+      </c>
+      <c r="F589">
+        <v>121.4</v>
+      </c>
+      <c r="G589">
+        <v>128.1</v>
+      </c>
+      <c r="H589">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A590" t="s">
+        <v>88</v>
+      </c>
+      <c r="B590" s="11">
+        <v>38212</v>
+      </c>
+      <c r="C590">
+        <v>610</v>
+      </c>
+      <c r="D590">
+        <v>107.7</v>
+      </c>
+      <c r="E590">
+        <v>122.7</v>
+      </c>
+      <c r="F590">
+        <v>124</v>
+      </c>
+      <c r="G590">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="H590">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A591" t="s">
+        <v>88</v>
+      </c>
+      <c r="B591" s="11">
+        <v>38217</v>
+      </c>
+      <c r="C591">
+        <v>599.77</v>
+      </c>
+      <c r="D591">
+        <v>102.5</v>
+      </c>
+      <c r="E591">
+        <v>122.6</v>
+      </c>
+      <c r="F591">
+        <v>123.9</v>
+      </c>
+      <c r="G591">
+        <v>127.1</v>
+      </c>
+      <c r="H591">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A592" t="s">
+        <v>88</v>
+      </c>
+      <c r="B592" s="11">
+        <v>38222</v>
+      </c>
+      <c r="C592">
+        <v>570.41</v>
+      </c>
+      <c r="D592">
+        <v>89.5</v>
+      </c>
+      <c r="E592">
+        <v>107</v>
+      </c>
+      <c r="F592">
+        <v>120.7</v>
+      </c>
+      <c r="G592">
+        <v>127.7</v>
+      </c>
+      <c r="H592">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A593" t="s">
+        <v>88</v>
+      </c>
+      <c r="B593" s="11">
+        <v>38229</v>
+      </c>
+      <c r="C593">
+        <v>607.75</v>
+      </c>
+      <c r="D593">
+        <v>109.6</v>
+      </c>
+      <c r="E593">
+        <v>122.8</v>
+      </c>
+      <c r="F593">
+        <v>120.6</v>
+      </c>
+      <c r="G593">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="H593">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A594" t="s">
+        <v>88</v>
+      </c>
+      <c r="B594" s="11">
+        <v>38232</v>
+      </c>
+      <c r="C594">
+        <v>575.24</v>
+      </c>
+      <c r="D594">
+        <v>92</v>
+      </c>
+      <c r="E594">
+        <v>107.2</v>
+      </c>
+      <c r="F594">
+        <v>122.7</v>
+      </c>
+      <c r="G594">
+        <v>129</v>
+      </c>
+      <c r="H594">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A595" t="s">
+        <v>88</v>
+      </c>
+      <c r="B595" s="11">
+        <v>38234</v>
+      </c>
+      <c r="C595">
+        <v>575.24</v>
+      </c>
+      <c r="D595">
+        <v>92</v>
+      </c>
+      <c r="E595">
+        <v>107.2</v>
+      </c>
+      <c r="F595">
+        <v>122.7</v>
+      </c>
+      <c r="G595">
+        <v>129</v>
+      </c>
+      <c r="H595">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A596" t="s">
+        <v>88</v>
+      </c>
+      <c r="B596" s="11">
+        <v>38239</v>
+      </c>
+      <c r="C596">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="D596">
+        <v>83.2</v>
+      </c>
+      <c r="E596">
+        <v>95</v>
+      </c>
+      <c r="F596">
+        <v>114.9</v>
+      </c>
+      <c r="G596">
+        <v>124.6</v>
+      </c>
+      <c r="H596">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A597" t="s">
+        <v>88</v>
+      </c>
+      <c r="B597" s="11">
+        <v>38245</v>
+      </c>
+      <c r="C597">
+        <v>553.24</v>
+      </c>
+      <c r="D597">
+        <v>88.1</v>
+      </c>
+      <c r="E597">
+        <v>98.8</v>
+      </c>
+      <c r="F597">
+        <v>115</v>
+      </c>
+      <c r="G597">
+        <v>126.7</v>
+      </c>
+      <c r="H597">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A598" t="s">
+        <v>88</v>
+      </c>
+      <c r="B598" s="11">
+        <v>38250</v>
+      </c>
+      <c r="C598">
+        <v>537</v>
+      </c>
+      <c r="D598">
+        <v>82</v>
+      </c>
+      <c r="E598">
+        <v>93</v>
+      </c>
+      <c r="F598">
+        <v>112</v>
+      </c>
+      <c r="G598">
+        <v>127</v>
+      </c>
+      <c r="H598">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A599" t="s">
+        <v>88</v>
+      </c>
+      <c r="B599" s="11">
+        <v>38255</v>
+      </c>
+      <c r="C599">
+        <v>528.51</v>
+      </c>
+      <c r="D599">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E599">
+        <v>93.2</v>
+      </c>
+      <c r="F599">
+        <v>110</v>
+      </c>
+      <c r="G599">
+        <v>123.7</v>
+      </c>
+      <c r="H599">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A600" t="s">
+        <v>88</v>
+      </c>
+      <c r="B600" s="11">
+        <v>38262</v>
+      </c>
+      <c r="C600">
+        <v>517.92999999999995</v>
+      </c>
+      <c r="D600">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E600">
+        <v>88.6</v>
+      </c>
+      <c r="F600">
+        <v>106.9</v>
+      </c>
+      <c r="G600">
+        <v>121.9</v>
+      </c>
+      <c r="H600">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A601" t="s">
+        <v>88</v>
+      </c>
+      <c r="B601" s="11">
+        <v>38268</v>
+      </c>
+      <c r="C601">
+        <v>501.28</v>
+      </c>
+      <c r="D601">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E601">
+        <v>86</v>
+      </c>
+      <c r="F601">
+        <v>105.2</v>
+      </c>
+      <c r="G601">
+        <v>121.3</v>
+      </c>
+      <c r="H601">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A602" t="s">
+        <v>88</v>
+      </c>
+      <c r="B602" s="11">
+        <v>38273</v>
+      </c>
+      <c r="C602">
+        <v>498.74</v>
+      </c>
+      <c r="D602">
+        <v>69.5</v>
+      </c>
+      <c r="E602">
+        <v>87.6</v>
+      </c>
+      <c r="F602">
+        <v>107</v>
+      </c>
+      <c r="G602">
+        <v>115.5</v>
+      </c>
+      <c r="H602">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A603" t="s">
+        <v>88</v>
+      </c>
+      <c r="B603" s="11">
+        <v>38278</v>
+      </c>
+      <c r="C603">
+        <v>498</v>
+      </c>
+      <c r="D603">
+        <v>70</v>
+      </c>
+      <c r="E603">
+        <v>86</v>
+      </c>
+      <c r="F603">
+        <v>106</v>
+      </c>
+      <c r="G603">
+        <v>119</v>
+      </c>
+      <c r="H603">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A604" t="s">
+        <v>88</v>
+      </c>
+      <c r="B604" s="11">
+        <v>38283</v>
+      </c>
+      <c r="C604">
+        <v>503.12</v>
+      </c>
+      <c r="D604">
+        <v>67.3</v>
+      </c>
+      <c r="E604">
+        <v>88</v>
+      </c>
+      <c r="F604">
+        <v>107.4</v>
+      </c>
+      <c r="G604">
+        <v>120.9</v>
+      </c>
+      <c r="H604">
+        <v>119.4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A605" t="s">
+        <v>88</v>
+      </c>
+      <c r="B605" s="11">
+        <v>38288</v>
+      </c>
+      <c r="C605">
+        <v>500.47</v>
+      </c>
+      <c r="D605">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E605">
+        <v>87.1</v>
+      </c>
+      <c r="F605">
+        <v>106.4</v>
+      </c>
+      <c r="G605">
+        <v>120.8</v>
+      </c>
+      <c r="H605">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A606" t="s">
+        <v>88</v>
+      </c>
+      <c r="B606" s="11">
+        <v>38303</v>
+      </c>
+      <c r="C606">
+        <v>521.92999999999995</v>
+      </c>
+      <c r="D606">
+        <v>77.8</v>
+      </c>
+      <c r="E606">
+        <v>90.7</v>
+      </c>
+      <c r="F606">
+        <v>112.6</v>
+      </c>
+      <c r="G606">
+        <v>119.7</v>
+      </c>
+      <c r="H606">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A607" t="s">
+        <v>88</v>
+      </c>
+      <c r="B607" s="11">
+        <v>38308</v>
+      </c>
+      <c r="C607">
+        <v>485.45</v>
+      </c>
+      <c r="D607">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E607">
+        <v>82.9</v>
+      </c>
+      <c r="F607">
+        <v>104.7</v>
+      </c>
+      <c r="G607">
+        <v>115.2</v>
+      </c>
+      <c r="H607">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A608" t="s">
+        <v>88</v>
+      </c>
+      <c r="B608" s="11">
+        <v>38322</v>
+      </c>
+      <c r="C608">
+        <v>507.99</v>
+      </c>
+      <c r="D608">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E608">
+        <v>87.4</v>
+      </c>
+      <c r="F608">
+        <v>107.8</v>
+      </c>
+      <c r="G608">
+        <v>120.6</v>
+      </c>
+      <c r="H608">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A609" t="s">
+        <v>88</v>
+      </c>
+      <c r="B609" s="11">
+        <v>38331</v>
+      </c>
+      <c r="C609">
+        <v>501.18</v>
+      </c>
+      <c r="D609">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E609">
+        <v>85.7</v>
+      </c>
+      <c r="F609">
+        <v>106.6</v>
+      </c>
+      <c r="G609">
+        <v>119.9</v>
+      </c>
+      <c r="H609">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A610" t="s">
+        <v>88</v>
+      </c>
+      <c r="B610" s="11">
+        <v>38341</v>
+      </c>
+      <c r="C610">
+        <v>509.35</v>
+      </c>
+      <c r="D610">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E610">
+        <v>87.6</v>
+      </c>
+      <c r="F610">
+        <v>106.8</v>
+      </c>
+      <c r="G610">
+        <v>124.1</v>
+      </c>
+      <c r="H610">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A611" t="s">
+        <v>88</v>
+      </c>
+      <c r="B611" s="11">
+        <v>38351</v>
+      </c>
+      <c r="C611">
+        <v>501.15</v>
+      </c>
+      <c r="D611">
+        <v>68</v>
+      </c>
+      <c r="E611">
+        <v>84.8</v>
+      </c>
+      <c r="F611">
+        <v>106.5</v>
+      </c>
+      <c r="G611">
+        <v>121.7</v>
+      </c>
+      <c r="H611">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A612" t="s">
+        <v>88</v>
+      </c>
+      <c r="B612" s="11">
+        <v>38361</v>
+      </c>
+      <c r="C612">
+        <v>503.67</v>
+      </c>
+      <c r="D612">
+        <v>74</v>
+      </c>
+      <c r="E612">
+        <v>84.3</v>
+      </c>
+      <c r="F612">
+        <v>104.9</v>
+      </c>
+      <c r="G612">
+        <v>120.7</v>
+      </c>
+      <c r="H612">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A613" t="s">
+        <v>88</v>
+      </c>
+      <c r="B613" s="11">
+        <v>38373</v>
+      </c>
+      <c r="C613">
+        <v>502.06</v>
+      </c>
+      <c r="D613">
+        <v>77</v>
+      </c>
+      <c r="E613">
+        <v>82.7</v>
+      </c>
+      <c r="F613">
+        <v>104.5</v>
+      </c>
+      <c r="G613">
+        <v>119</v>
+      </c>
+      <c r="H613">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A614" t="s">
+        <v>88</v>
+      </c>
+      <c r="B614" s="11">
+        <v>38382</v>
+      </c>
+      <c r="C614">
+        <v>512.97</v>
+      </c>
+      <c r="D614">
+        <v>77.3</v>
+      </c>
+      <c r="E614">
+        <v>86.5</v>
+      </c>
+      <c r="F614">
+        <v>106.6</v>
+      </c>
+      <c r="G614">
+        <v>121.2</v>
+      </c>
+      <c r="H614">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A615" t="s">
+        <v>88</v>
+      </c>
+      <c r="B615" s="11">
+        <v>38394</v>
+      </c>
+      <c r="C615">
+        <v>505</v>
+      </c>
+      <c r="D615">
+        <v>75</v>
+      </c>
+      <c r="E615">
+        <v>85</v>
+      </c>
+      <c r="F615">
+        <v>105</v>
+      </c>
+      <c r="G615">
+        <v>120</v>
+      </c>
+      <c r="H615">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A616" t="s">
+        <v>88</v>
+      </c>
+      <c r="B616" s="11">
+        <v>38403</v>
+      </c>
+      <c r="C616">
+        <v>506.68</v>
+      </c>
+      <c r="D616">
+        <v>82.4</v>
+      </c>
+      <c r="E616">
+        <v>83.1</v>
+      </c>
+      <c r="F616">
+        <v>103.7</v>
+      </c>
+      <c r="G616">
+        <v>118.6</v>
+      </c>
+      <c r="H616">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A617" t="s">
+        <v>88</v>
+      </c>
+      <c r="B617" s="11">
+        <v>38412</v>
+      </c>
+      <c r="C617">
+        <v>505.38</v>
+      </c>
+      <c r="D617">
+        <v>77</v>
+      </c>
+      <c r="E617">
+        <v>89.9</v>
+      </c>
+      <c r="F617">
+        <v>104.4</v>
+      </c>
+      <c r="G617">
+        <v>117.1</v>
+      </c>
+      <c r="H617">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A618" t="s">
+        <v>88</v>
+      </c>
+      <c r="B618" s="11">
+        <v>38417</v>
+      </c>
+      <c r="C618">
+        <v>498.57</v>
+      </c>
+      <c r="D618">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E618">
+        <v>86.4</v>
+      </c>
+      <c r="F618">
+        <v>105.9</v>
+      </c>
+      <c r="G618">
+        <v>118.7</v>
+      </c>
+      <c r="H618">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A619" t="s">
+        <v>88</v>
+      </c>
+      <c r="B619" s="11">
+        <v>38422</v>
+      </c>
+      <c r="C619">
+        <v>499.99</v>
+      </c>
+      <c r="D619">
+        <v>66.3</v>
+      </c>
+      <c r="E619">
+        <v>86</v>
+      </c>
+      <c r="F619">
+        <v>107</v>
+      </c>
+      <c r="G619">
+        <v>119.8</v>
+      </c>
+      <c r="H619">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A620" t="s">
+        <v>88</v>
+      </c>
+      <c r="B620" s="11">
+        <v>38427</v>
+      </c>
+      <c r="C620">
+        <v>489</v>
+      </c>
+      <c r="D620">
+        <v>64</v>
+      </c>
+      <c r="E620">
+        <v>84</v>
+      </c>
+      <c r="F620">
+        <v>103</v>
+      </c>
+      <c r="G620">
+        <v>119</v>
+      </c>
+      <c r="H620">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A621" t="s">
+        <v>88</v>
+      </c>
+      <c r="B621" s="11">
+        <v>38432</v>
+      </c>
+      <c r="C621">
+        <v>489</v>
+      </c>
+      <c r="D621">
+        <v>64</v>
+      </c>
+      <c r="E621">
+        <v>84</v>
+      </c>
+      <c r="F621">
+        <v>105</v>
+      </c>
+      <c r="G621">
+        <v>117</v>
+      </c>
+      <c r="H621">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A622" t="s">
+        <v>88</v>
+      </c>
+      <c r="B622" s="11">
+        <v>38437</v>
+      </c>
+      <c r="C622">
+        <v>476</v>
+      </c>
+      <c r="D622">
+        <v>60</v>
+      </c>
+      <c r="E622">
+        <v>82</v>
+      </c>
+      <c r="F622">
+        <v>104</v>
+      </c>
+      <c r="G622">
+        <v>114</v>
+      </c>
+      <c r="H622">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A623" t="s">
+        <v>88</v>
+      </c>
+      <c r="B623" s="11">
+        <v>38448</v>
+      </c>
+      <c r="C623">
+        <v>560</v>
+      </c>
+      <c r="D623">
+        <v>92</v>
+      </c>
+      <c r="E623">
+        <v>105</v>
+      </c>
+      <c r="F623">
+        <v>115</v>
+      </c>
+      <c r="G623">
+        <v>127</v>
+      </c>
+      <c r="H623">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A624" t="s">
+        <v>88</v>
+      </c>
+      <c r="B624" s="11">
+        <v>38452</v>
+      </c>
+      <c r="C624">
+        <v>522</v>
+      </c>
+      <c r="D624">
+        <v>78</v>
+      </c>
+      <c r="E624">
+        <v>92</v>
+      </c>
+      <c r="F624">
+        <v>108</v>
+      </c>
+      <c r="G624">
+        <v>122</v>
+      </c>
+      <c r="H624">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A625" t="s">
+        <v>88</v>
+      </c>
+      <c r="B625" s="11">
+        <v>38457</v>
+      </c>
+      <c r="C625">
+        <v>482</v>
+      </c>
+      <c r="D625">
+        <v>64</v>
+      </c>
+      <c r="E625">
+        <v>84</v>
+      </c>
+      <c r="F625">
+        <v>104</v>
+      </c>
+      <c r="G625">
+        <v>112</v>
+      </c>
+      <c r="H625">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A626" t="s">
+        <v>88</v>
+      </c>
+      <c r="B626" s="11">
+        <v>38462</v>
+      </c>
+      <c r="C626">
+        <v>502</v>
+      </c>
+      <c r="D626">
+        <v>76</v>
+      </c>
+      <c r="E626">
+        <v>86</v>
+      </c>
+      <c r="F626">
+        <v>104</v>
+      </c>
+      <c r="G626">
+        <v>118</v>
+      </c>
+      <c r="H626">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A627" t="s">
+        <v>88</v>
+      </c>
+      <c r="B627" s="11">
+        <v>38467</v>
+      </c>
+      <c r="C627">
+        <v>453</v>
+      </c>
+      <c r="D627">
+        <v>54</v>
+      </c>
+      <c r="E627">
+        <v>78</v>
+      </c>
+      <c r="F627">
+        <v>97</v>
+      </c>
+      <c r="G627">
+        <v>111</v>
+      </c>
+      <c r="H627">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A628" t="s">
+        <v>88</v>
+      </c>
+      <c r="B628" s="11">
+        <v>38472</v>
+      </c>
+      <c r="C628">
+        <v>454</v>
+      </c>
+      <c r="D628">
+        <v>44</v>
+      </c>
+      <c r="E628">
+        <v>76</v>
+      </c>
+      <c r="F628">
+        <v>102</v>
+      </c>
+      <c r="G628">
+        <v>114</v>
+      </c>
+      <c r="H628">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A629" t="s">
+        <v>88</v>
+      </c>
+      <c r="B629" s="11">
+        <v>38478</v>
+      </c>
+      <c r="C629">
+        <v>444</v>
+      </c>
+      <c r="D629">
+        <v>43</v>
+      </c>
+      <c r="E629">
+        <v>71</v>
+      </c>
+      <c r="F629">
+        <v>100</v>
+      </c>
+      <c r="G629">
+        <v>111</v>
+      </c>
+      <c r="H629">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A630" t="s">
+        <v>88</v>
+      </c>
+      <c r="B630" s="11">
+        <v>38483</v>
+      </c>
+      <c r="C630">
+        <v>514</v>
+      </c>
+      <c r="D630">
+        <v>78</v>
+      </c>
+      <c r="E630">
+        <v>91</v>
+      </c>
+      <c r="F630">
+        <v>107</v>
+      </c>
+      <c r="G630">
+        <v>119</v>
+      </c>
+      <c r="H630">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A631" t="s">
+        <v>88</v>
+      </c>
+      <c r="B631" s="11">
+        <v>38488</v>
+      </c>
+      <c r="C631">
+        <v>483</v>
+      </c>
+      <c r="D631">
+        <v>67</v>
+      </c>
+      <c r="E631">
+        <v>82</v>
+      </c>
+      <c r="F631">
+        <v>102</v>
+      </c>
+      <c r="G631">
+        <v>113</v>
+      </c>
+      <c r="H631">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A632" t="s">
+        <v>88</v>
+      </c>
+      <c r="B632" s="11">
+        <v>38493</v>
+      </c>
+      <c r="C632">
+        <v>472</v>
+      </c>
+      <c r="D632">
+        <v>59</v>
+      </c>
+      <c r="E632">
+        <v>82</v>
+      </c>
+      <c r="F632">
+        <v>103</v>
+      </c>
+      <c r="G632">
+        <v>111</v>
+      </c>
+      <c r="H632">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A633" t="s">
+        <v>88</v>
+      </c>
+      <c r="B633" s="11">
+        <v>38498</v>
+      </c>
+      <c r="C633">
+        <v>439</v>
+      </c>
+      <c r="D633">
+        <v>41</v>
+      </c>
+      <c r="E633">
+        <v>74</v>
+      </c>
+      <c r="F633">
+        <v>100</v>
+      </c>
+      <c r="G633">
+        <v>108</v>
+      </c>
+      <c r="H633">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A634" t="s">
+        <v>88</v>
+      </c>
+      <c r="B634" s="11">
+        <v>38503</v>
+      </c>
+      <c r="C634">
+        <v>415</v>
+      </c>
+      <c r="D634">
+        <v>31</v>
+      </c>
+      <c r="E634">
+        <v>67</v>
+      </c>
+      <c r="F634">
+        <v>97</v>
+      </c>
+      <c r="G634">
+        <v>104</v>
+      </c>
+      <c r="H634">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A635" t="s">
+        <v>88</v>
+      </c>
+      <c r="B635" s="11">
+        <v>38508</v>
+      </c>
+      <c r="C635">
+        <v>408.05</v>
+      </c>
+      <c r="D635">
+        <v>28.8</v>
+      </c>
+      <c r="E635">
+        <v>63.9</v>
+      </c>
+      <c r="F635">
+        <v>96</v>
+      </c>
+      <c r="G635">
+        <v>100.9</v>
+      </c>
+      <c r="H635">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A636" t="s">
+        <v>88</v>
+      </c>
+      <c r="B636" s="11">
+        <v>38514</v>
+      </c>
+      <c r="C636">
+        <v>383</v>
+      </c>
+      <c r="D636">
+        <v>25</v>
+      </c>
+      <c r="E636">
+        <v>59</v>
+      </c>
+      <c r="F636">
+        <v>91</v>
+      </c>
+      <c r="G636">
+        <v>92</v>
+      </c>
+      <c r="H636">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A637" t="s">
+        <v>88</v>
+      </c>
+      <c r="B637" s="11">
+        <v>38510</v>
+      </c>
+      <c r="C637">
+        <v>378</v>
+      </c>
+      <c r="D637">
+        <v>27</v>
+      </c>
+      <c r="E637">
+        <v>61</v>
+      </c>
+      <c r="F637">
+        <v>88</v>
+      </c>
+      <c r="G637">
+        <v>89</v>
+      </c>
+      <c r="H637">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A638" t="s">
+        <v>88</v>
+      </c>
+      <c r="B638" s="11">
+        <v>38520</v>
+      </c>
+      <c r="C638">
+        <v>378</v>
+      </c>
+      <c r="D638">
+        <v>27</v>
+      </c>
+      <c r="E638">
+        <v>61</v>
+      </c>
+      <c r="F638">
+        <v>88</v>
+      </c>
+      <c r="G638">
+        <v>89</v>
+      </c>
+      <c r="H638">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A639" t="s">
+        <v>88</v>
+      </c>
+      <c r="B639" s="11">
+        <v>38525</v>
+      </c>
+      <c r="C639">
+        <v>403</v>
+      </c>
+      <c r="D639">
+        <v>32</v>
+      </c>
+      <c r="E639">
+        <v>69</v>
+      </c>
+      <c r="F639">
+        <v>92</v>
+      </c>
+      <c r="G639">
+        <v>94</v>
+      </c>
+      <c r="H639">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C640" s="25"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C641" s="25"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C642" s="25"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C643" s="25"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C644" s="25"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C645" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862" activeTab="3"/>
+    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="372">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1071,6 +1071,81 @@
   <si>
     <t>MouseRemoval0.50Date2002-10-11</t>
   </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO2</t>
+  </si>
+  <si>
+    <t>Wheat_FACE93_DryNormalCO2</t>
+  </si>
+  <si>
+    <t>Wheat_FACE93_DryHighCO2</t>
+  </si>
+  <si>
+    <t>Wheat_FACE93_WetNormalCO2</t>
+  </si>
+  <si>
+    <t>Wheat_FACE93_WetHighCO2</t>
+  </si>
+  <si>
+    <t>ArizonaFACE92CO2NormalIrrDry</t>
+  </si>
+  <si>
+    <t>ArizonaFACE92CO2HighIrrDry</t>
+  </si>
+  <si>
+    <t>ArizonaFACE92CO2NormalIrrWet</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO3</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO4</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO5</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO6</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO7</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO8</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO9</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO10</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO11</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO12</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO13</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO14</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO15</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO16</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO17</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO18</t>
+  </si>
+  <si>
+    <t>Wheat_FACE92_WetHighCO19</t>
+  </si>
 </sst>
 </file>
 
@@ -2082,20 +2157,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR897"/>
+  <dimension ref="A1:AR1054"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B867" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B956" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B878" sqref="B878"/>
+      <selection pane="bottomRight" activeCell="A945" sqref="A945:A962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="49.578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.15625" customWidth="1"/>
     <col min="5" max="5" width="28.578125" customWidth="1"/>
     <col min="6" max="6" width="34.26171875" customWidth="1"/>
@@ -44509,10 +44584,25 @@
       <c r="AR890" s="21"/>
     </row>
     <row r="891" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C891" s="25"/>
-      <c r="G891" s="21"/>
+      <c r="A891" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B891" s="11">
+        <v>33981</v>
+      </c>
+      <c r="C891">
+        <v>12.72</v>
+      </c>
+      <c r="E891">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
       <c r="H891" s="21"/>
-      <c r="I891" s="21"/>
+      <c r="I891">
+        <v>7.6200000000000004E-2</v>
+      </c>
       <c r="J891" s="21"/>
       <c r="K891" s="21"/>
       <c r="L891" s="21"/>
@@ -44550,10 +44640,25 @@
       <c r="AR891" s="21"/>
     </row>
     <row r="892" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C892" s="25"/>
-      <c r="G892" s="21"/>
+      <c r="A892" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B892" s="11">
+        <v>33991</v>
+      </c>
+      <c r="C892">
+        <v>22.45</v>
+      </c>
+      <c r="E892">
+        <v>116.5</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
       <c r="H892" s="21"/>
-      <c r="I892" s="21"/>
+      <c r="I892">
+        <v>0.26369999999999999</v>
+      </c>
       <c r="J892" s="21"/>
       <c r="K892" s="21"/>
       <c r="L892" s="21"/>
@@ -44591,10 +44696,25 @@
       <c r="AR892" s="21"/>
     </row>
     <row r="893" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C893" s="25"/>
-      <c r="G893" s="21"/>
+      <c r="A893" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B893" s="11">
+        <v>34001</v>
+      </c>
+      <c r="C893">
+        <v>25.02</v>
+      </c>
+      <c r="E893">
+        <v>411.2</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
       <c r="H893" s="21"/>
-      <c r="I893" s="21"/>
+      <c r="I893">
+        <v>0.85219999999999996</v>
+      </c>
       <c r="J893" s="21"/>
       <c r="K893" s="21"/>
       <c r="L893" s="21"/>
@@ -44632,10 +44752,25 @@
       <c r="AR893" s="21"/>
     </row>
     <row r="894" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C894" s="25"/>
-      <c r="G894" s="21"/>
+      <c r="A894" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B894" s="11">
+        <v>34009</v>
+      </c>
+      <c r="C894">
+        <v>27.72</v>
+      </c>
+      <c r="E894">
+        <v>816.6</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
       <c r="H894" s="21"/>
-      <c r="I894" s="21"/>
+      <c r="I894">
+        <v>1.823</v>
+      </c>
       <c r="J894" s="21"/>
       <c r="K894" s="21"/>
       <c r="L894" s="21"/>
@@ -44673,13 +44808,3238 @@
       <c r="AR894" s="21"/>
     </row>
     <row r="895" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C895" s="25"/>
+      <c r="A895" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B895" s="11">
+        <v>34016</v>
+      </c>
+      <c r="C895">
+        <v>31.17</v>
+      </c>
+      <c r="D895" s="25"/>
+      <c r="E895">
+        <v>1642</v>
+      </c>
+      <c r="G895">
+        <v>0</v>
+      </c>
+      <c r="I895">
+        <v>3.3210000000000002</v>
+      </c>
     </row>
     <row r="896" spans="1:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="C896" s="25"/>
-    </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C897" s="26"/>
+      <c r="A896" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B896" s="11">
+        <v>34023</v>
+      </c>
+      <c r="C896">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D896" s="25"/>
+      <c r="E896">
+        <v>2398</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="I896">
+        <v>4.9450000000000003</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A897" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B897" s="11">
+        <v>34030</v>
+      </c>
+      <c r="C897">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D897" s="25"/>
+      <c r="E897">
+        <v>3113</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+      <c r="I897">
+        <v>5.3760000000000003</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A898" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B898" s="11">
+        <v>34037</v>
+      </c>
+      <c r="C898">
+        <v>38.57</v>
+      </c>
+      <c r="D898" s="25"/>
+      <c r="E898">
+        <v>4561</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="I898">
+        <v>5.5259999999999998</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A899" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B899" s="11">
+        <v>34044</v>
+      </c>
+      <c r="C899">
+        <v>49.77</v>
+      </c>
+      <c r="D899" s="25"/>
+      <c r="E899">
+        <v>5359</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+      <c r="I899">
+        <v>8.0739999999999998</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A900" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B900" s="11">
+        <v>34051</v>
+      </c>
+      <c r="C900">
+        <v>61.4</v>
+      </c>
+      <c r="D900" s="25"/>
+      <c r="E900">
+        <v>6378</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A901" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B901" s="11">
+        <v>34059</v>
+      </c>
+      <c r="C901">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="D901" s="25"/>
+      <c r="E901">
+        <v>8996</v>
+      </c>
+      <c r="G901">
+        <v>127.8</v>
+      </c>
+      <c r="I901">
+        <v>5.2939999999999996</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A902" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B902" s="11">
+        <v>34066</v>
+      </c>
+      <c r="C902">
+        <v>82.32</v>
+      </c>
+      <c r="D902" s="25"/>
+      <c r="E902">
+        <v>11127</v>
+      </c>
+      <c r="G902">
+        <v>594.79999999999995</v>
+      </c>
+      <c r="I902">
+        <v>5.1580000000000004</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A903" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B903" s="11">
+        <v>34073</v>
+      </c>
+      <c r="C903">
+        <v>84.07</v>
+      </c>
+      <c r="D903" s="25"/>
+      <c r="E903">
+        <v>12069</v>
+      </c>
+      <c r="G903">
+        <v>1722</v>
+      </c>
+      <c r="I903">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A904" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B904" s="11">
+        <v>34080</v>
+      </c>
+      <c r="C904">
+        <v>86.25</v>
+      </c>
+      <c r="D904" s="25"/>
+      <c r="E904">
+        <v>14357</v>
+      </c>
+      <c r="G904">
+        <v>3641</v>
+      </c>
+      <c r="I904">
+        <v>3.403</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A905" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B905" s="11">
+        <v>34087</v>
+      </c>
+      <c r="C905">
+        <v>87.07</v>
+      </c>
+      <c r="D905" s="25"/>
+      <c r="E905">
+        <v>15195</v>
+      </c>
+      <c r="G905">
+        <v>5348</v>
+      </c>
+      <c r="I905">
+        <v>2.2160000000000002</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A906" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B906" s="11">
+        <v>34094</v>
+      </c>
+      <c r="C906">
+        <v>88.62</v>
+      </c>
+      <c r="D906" s="25"/>
+      <c r="E906">
+        <v>15220</v>
+      </c>
+      <c r="G906">
+        <v>6378</v>
+      </c>
+      <c r="I906">
+        <v>0.6552</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A907" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B907" s="11">
+        <v>34101</v>
+      </c>
+      <c r="C907">
+        <v>92.95</v>
+      </c>
+      <c r="D907" s="25"/>
+      <c r="E907">
+        <v>15409</v>
+      </c>
+      <c r="G907">
+        <v>6688</v>
+      </c>
+      <c r="I907">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A908" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B908" s="11">
+        <v>34108</v>
+      </c>
+      <c r="C908">
+        <v>93</v>
+      </c>
+      <c r="D908" s="25"/>
+      <c r="E908">
+        <v>14913</v>
+      </c>
+      <c r="G908">
+        <v>6768</v>
+      </c>
+      <c r="I908">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A909" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B909" s="11">
+        <v>33981</v>
+      </c>
+      <c r="C909">
+        <v>12.57</v>
+      </c>
+      <c r="D909" s="25"/>
+      <c r="E909">
+        <v>30.27</v>
+      </c>
+      <c r="G909">
+        <v>0</v>
+      </c>
+      <c r="I909">
+        <v>6.8699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A910" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B910" s="11">
+        <v>33991</v>
+      </c>
+      <c r="C910">
+        <v>22.27</v>
+      </c>
+      <c r="D910" s="25"/>
+      <c r="E910">
+        <v>109.5</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+      <c r="I910">
+        <v>0.23719999999999999</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A911" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B911" s="11">
+        <v>34001</v>
+      </c>
+      <c r="C911">
+        <v>25.47</v>
+      </c>
+      <c r="D911" s="25"/>
+      <c r="E911">
+        <v>438.7</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="I911">
+        <v>0.86950000000000005</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A912" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B912" s="11">
+        <v>34009</v>
+      </c>
+      <c r="C912">
+        <v>28.9</v>
+      </c>
+      <c r="D912" s="25"/>
+      <c r="E912">
+        <v>953</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="I912">
+        <v>2.0950000000000002</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A913" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B913" s="11">
+        <v>34016</v>
+      </c>
+      <c r="C913">
+        <v>30.87</v>
+      </c>
+      <c r="D913" s="25"/>
+      <c r="E913">
+        <v>1812</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+      <c r="I913">
+        <v>3.5640000000000001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A914" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B914" s="11">
+        <v>34023</v>
+      </c>
+      <c r="C914">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="D914" s="25"/>
+      <c r="E914">
+        <v>2503</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="I914">
+        <v>4.8310000000000004</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A915" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B915" s="11">
+        <v>34030</v>
+      </c>
+      <c r="C915">
+        <v>32.17</v>
+      </c>
+      <c r="D915" s="25"/>
+      <c r="E915">
+        <v>3651</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+      <c r="I915">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A916" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B916" s="11">
+        <v>34037</v>
+      </c>
+      <c r="C916">
+        <v>40.07</v>
+      </c>
+      <c r="D916" s="25"/>
+      <c r="E916">
+        <v>5102</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="I916">
+        <v>5.8120000000000003</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A917" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B917" s="11">
+        <v>34044</v>
+      </c>
+      <c r="C917">
+        <v>53.07</v>
+      </c>
+      <c r="D917" s="25"/>
+      <c r="E917">
+        <v>6045</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A918" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B918" s="11">
+        <v>34051</v>
+      </c>
+      <c r="C918">
+        <v>65.27</v>
+      </c>
+      <c r="D918" s="25"/>
+      <c r="E918">
+        <v>7955</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A919" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B919" s="11">
+        <v>34059</v>
+      </c>
+      <c r="C919">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D919" s="25"/>
+      <c r="E919">
+        <v>10917</v>
+      </c>
+      <c r="G919">
+        <v>257.5</v>
+      </c>
+      <c r="I919">
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A920" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B920" s="11">
+        <v>34066</v>
+      </c>
+      <c r="C920">
+        <v>82.45</v>
+      </c>
+      <c r="D920" s="25"/>
+      <c r="E920">
+        <v>13402</v>
+      </c>
+      <c r="G920">
+        <v>1087</v>
+      </c>
+      <c r="I920">
+        <v>4.6239999999999997</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A921" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B921" s="11">
+        <v>34073</v>
+      </c>
+      <c r="C921">
+        <v>85.3</v>
+      </c>
+      <c r="D921" s="25"/>
+      <c r="E921">
+        <v>15549</v>
+      </c>
+      <c r="G921">
+        <v>2912</v>
+      </c>
+      <c r="I921">
+        <v>4.5910000000000002</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A922" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B922" s="11">
+        <v>34080</v>
+      </c>
+      <c r="C922">
+        <v>86.85</v>
+      </c>
+      <c r="D922" s="25"/>
+      <c r="E922">
+        <v>19213</v>
+      </c>
+      <c r="G922">
+        <v>5629</v>
+      </c>
+      <c r="I922">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A923" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B923" s="11">
+        <v>34087</v>
+      </c>
+      <c r="C923">
+        <v>88.45</v>
+      </c>
+      <c r="D923" s="25"/>
+      <c r="E923">
+        <v>18814</v>
+      </c>
+      <c r="G923">
+        <v>7249</v>
+      </c>
+      <c r="I923">
+        <v>1.7829999999999999</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A924" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B924" s="11">
+        <v>34094</v>
+      </c>
+      <c r="C924">
+        <v>89.92</v>
+      </c>
+      <c r="D924" s="25"/>
+      <c r="E924">
+        <v>17116</v>
+      </c>
+      <c r="G924">
+        <v>7551</v>
+      </c>
+      <c r="I924">
+        <v>0.20250000000000001</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A925" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B925" s="11">
+        <v>34101</v>
+      </c>
+      <c r="C925">
+        <v>93</v>
+      </c>
+      <c r="D925" s="25"/>
+      <c r="E925">
+        <v>20695</v>
+      </c>
+      <c r="G925">
+        <v>9008</v>
+      </c>
+      <c r="I925">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A926" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B926" s="11">
+        <v>34108</v>
+      </c>
+      <c r="C926">
+        <v>93</v>
+      </c>
+      <c r="D926" s="25"/>
+      <c r="E926">
+        <v>15523</v>
+      </c>
+      <c r="G926">
+        <v>7349</v>
+      </c>
+      <c r="I926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A927" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B927" s="11">
+        <v>33981</v>
+      </c>
+      <c r="C927">
+        <v>12.77</v>
+      </c>
+      <c r="D927" s="25"/>
+      <c r="E927">
+        <v>31.45</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+      <c r="I927">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A928" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B928" s="11">
+        <v>33991</v>
+      </c>
+      <c r="C928">
+        <v>22.25</v>
+      </c>
+      <c r="D928" s="25"/>
+      <c r="E928">
+        <v>110.9</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="I928">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A929" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B929" s="11">
+        <v>34001</v>
+      </c>
+      <c r="C929">
+        <v>24.97</v>
+      </c>
+      <c r="D929" s="25"/>
+      <c r="E929">
+        <v>397</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+      <c r="I929">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A930" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B930" s="11">
+        <v>34009</v>
+      </c>
+      <c r="C930">
+        <v>28.02</v>
+      </c>
+      <c r="D930" s="25"/>
+      <c r="E930">
+        <v>757.2</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+      <c r="I930">
+        <v>1.7170000000000001</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A931" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B931" s="11">
+        <v>34016</v>
+      </c>
+      <c r="C931">
+        <v>30.92</v>
+      </c>
+      <c r="D931" s="25"/>
+      <c r="E931">
+        <v>1669</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="I931">
+        <v>3.4830000000000001</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A932" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B932" s="11">
+        <v>34023</v>
+      </c>
+      <c r="C932">
+        <v>32</v>
+      </c>
+      <c r="D932" s="25"/>
+      <c r="E932">
+        <v>2256</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="I932">
+        <v>4.9390000000000001</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A933" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B933" s="11">
+        <v>34030</v>
+      </c>
+      <c r="C933">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="D933" s="25"/>
+      <c r="E933">
+        <v>3210</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="I933">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A934" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B934" s="11">
+        <v>34037</v>
+      </c>
+      <c r="C934">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D934" s="25"/>
+      <c r="E934">
+        <v>4647</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+      <c r="I934">
+        <v>5.7080000000000002</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A935" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B935" s="11">
+        <v>34044</v>
+      </c>
+      <c r="C935">
+        <v>47.72</v>
+      </c>
+      <c r="D935" s="25"/>
+      <c r="E935">
+        <v>5415</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="I935">
+        <v>6.9489999999999998</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A936" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B936" s="11">
+        <v>34051</v>
+      </c>
+      <c r="C936">
+        <v>58.52</v>
+      </c>
+      <c r="D936" s="25"/>
+      <c r="E936">
+        <v>6375</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A937" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B937" s="11">
+        <v>34059</v>
+      </c>
+      <c r="C937">
+        <v>71.22</v>
+      </c>
+      <c r="D937" s="25"/>
+      <c r="E937">
+        <v>10278</v>
+      </c>
+      <c r="G937">
+        <v>57.95</v>
+      </c>
+      <c r="I937">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A938" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B938" s="11">
+        <v>34066</v>
+      </c>
+      <c r="C938">
+        <v>79.97</v>
+      </c>
+      <c r="D938" s="25"/>
+      <c r="E938">
+        <v>11282</v>
+      </c>
+      <c r="G938">
+        <v>397.4</v>
+      </c>
+      <c r="I938">
+        <v>5.9829999999999997</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A939" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B939" s="11">
+        <v>34073</v>
+      </c>
+      <c r="C939">
+        <v>83.95</v>
+      </c>
+      <c r="D939" s="25"/>
+      <c r="E939">
+        <v>13758</v>
+      </c>
+      <c r="G939">
+        <v>1273</v>
+      </c>
+      <c r="I939">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A940" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B940" s="11">
+        <v>34080</v>
+      </c>
+      <c r="C940">
+        <v>85.89</v>
+      </c>
+      <c r="D940" s="25"/>
+      <c r="E940">
+        <v>16169</v>
+      </c>
+      <c r="G940">
+        <v>3303</v>
+      </c>
+      <c r="I940">
+        <v>5.7519999999999998</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A941" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B941" s="11">
+        <v>34087</v>
+      </c>
+      <c r="C941">
+        <v>87.24</v>
+      </c>
+      <c r="D941" s="25"/>
+      <c r="E941">
+        <v>16938</v>
+      </c>
+      <c r="G941">
+        <v>5225</v>
+      </c>
+      <c r="I941">
+        <v>5.1920000000000002</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A942" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B942" s="11">
+        <v>34094</v>
+      </c>
+      <c r="C942">
+        <v>87.15</v>
+      </c>
+      <c r="D942" s="25"/>
+      <c r="E942">
+        <v>19615</v>
+      </c>
+      <c r="G942">
+        <v>7671</v>
+      </c>
+      <c r="I942">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A943" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B943" s="11">
+        <v>34101</v>
+      </c>
+      <c r="C943">
+        <v>88.82</v>
+      </c>
+      <c r="D943" s="25"/>
+      <c r="E943">
+        <v>20122</v>
+      </c>
+      <c r="G943">
+        <v>8336</v>
+      </c>
+      <c r="I943">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A944" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B944" s="11">
+        <v>34108</v>
+      </c>
+      <c r="C944">
+        <v>92.97</v>
+      </c>
+      <c r="D944" s="25"/>
+      <c r="E944">
+        <v>18275</v>
+      </c>
+      <c r="G944">
+        <v>8040</v>
+      </c>
+      <c r="I944">
+        <v>0.23369999999999999</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A945" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B945" s="11">
+        <v>33981</v>
+      </c>
+      <c r="C945">
+        <v>12.42</v>
+      </c>
+      <c r="D945" s="25"/>
+      <c r="E945">
+        <v>31.17</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="I945">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A946" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B946" s="11">
+        <v>33991</v>
+      </c>
+      <c r="C946">
+        <v>22.37</v>
+      </c>
+      <c r="D946" s="25"/>
+      <c r="E946">
+        <v>122</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="I946">
+        <v>0.2712</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A947" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B947" s="11">
+        <v>34001</v>
+      </c>
+      <c r="C947">
+        <v>25.57</v>
+      </c>
+      <c r="D947" s="25"/>
+      <c r="E947">
+        <v>455.6</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="I947">
+        <v>0.92249999999999999</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A948" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B948" s="11">
+        <v>34009</v>
+      </c>
+      <c r="C948">
+        <v>28.17</v>
+      </c>
+      <c r="D948" s="25"/>
+      <c r="E948">
+        <v>889.5</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="I948">
+        <v>1.946</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A949" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B949" s="11">
+        <v>34016</v>
+      </c>
+      <c r="C949">
+        <v>30.8</v>
+      </c>
+      <c r="D949" s="25"/>
+      <c r="E949">
+        <v>1775</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="I949">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A950" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B950" s="11">
+        <v>34023</v>
+      </c>
+      <c r="C950">
+        <v>31.92</v>
+      </c>
+      <c r="D950" s="25"/>
+      <c r="E950">
+        <v>2704</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="I950">
+        <v>5.3129999999999997</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A951" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B951" s="11">
+        <v>34030</v>
+      </c>
+      <c r="C951">
+        <v>32.32</v>
+      </c>
+      <c r="D951" s="25"/>
+      <c r="E951">
+        <v>3592</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="I951">
+        <v>5.9569999999999999</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A952" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B952" s="11">
+        <v>34037</v>
+      </c>
+      <c r="C952">
+        <v>40</v>
+      </c>
+      <c r="D952" s="25"/>
+      <c r="E952">
+        <v>5272</v>
+      </c>
+      <c r="G952">
+        <v>0</v>
+      </c>
+      <c r="I952">
+        <v>6.7050000000000001</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A953" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B953" s="11">
+        <v>34044</v>
+      </c>
+      <c r="C953">
+        <v>52.57</v>
+      </c>
+      <c r="D953" s="25"/>
+      <c r="E953">
+        <v>6166</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A954" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B954" s="11">
+        <v>34051</v>
+      </c>
+      <c r="C954">
+        <v>62.22</v>
+      </c>
+      <c r="D954" s="25"/>
+      <c r="E954">
+        <v>7574</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A955" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B955" s="11">
+        <v>34059</v>
+      </c>
+      <c r="C955">
+        <v>72.7</v>
+      </c>
+      <c r="D955" s="25"/>
+      <c r="E955">
+        <v>11844</v>
+      </c>
+      <c r="G955">
+        <v>167.7</v>
+      </c>
+      <c r="I955">
+        <v>6.4290000000000003</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A956" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B956" s="11">
+        <v>34066</v>
+      </c>
+      <c r="C956">
+        <v>82.97</v>
+      </c>
+      <c r="D956" s="25"/>
+      <c r="E956">
+        <v>13951</v>
+      </c>
+      <c r="G956">
+        <v>782.5</v>
+      </c>
+      <c r="I956">
+        <v>5.7450000000000001</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A957" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B957" s="11">
+        <v>34073</v>
+      </c>
+      <c r="C957">
+        <v>85.15</v>
+      </c>
+      <c r="D957" s="25"/>
+      <c r="E957">
+        <v>15735</v>
+      </c>
+      <c r="G957">
+        <v>2285</v>
+      </c>
+      <c r="I957">
+        <v>5.6529999999999996</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A958" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B958" s="11">
+        <v>34080</v>
+      </c>
+      <c r="C958">
+        <v>86.92</v>
+      </c>
+      <c r="D958" s="25"/>
+      <c r="E958">
+        <v>19524</v>
+      </c>
+      <c r="G958">
+        <v>4796</v>
+      </c>
+      <c r="I958">
+        <v>5.8819999999999997</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A959" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B959" s="11">
+        <v>34087</v>
+      </c>
+      <c r="C959">
+        <v>88.39</v>
+      </c>
+      <c r="D959" s="25"/>
+      <c r="E959">
+        <v>18075</v>
+      </c>
+      <c r="G959">
+        <v>6169</v>
+      </c>
+      <c r="I959">
+        <v>4.2859999999999996</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A960" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B960" s="11">
+        <v>34094</v>
+      </c>
+      <c r="C960">
+        <v>88.97</v>
+      </c>
+      <c r="D960" s="25"/>
+      <c r="E960">
+        <v>21857</v>
+      </c>
+      <c r="G960">
+        <v>9196</v>
+      </c>
+      <c r="I960">
+        <v>2.5920000000000001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A961" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B961" s="11">
+        <v>34101</v>
+      </c>
+      <c r="C961">
+        <v>92.52</v>
+      </c>
+      <c r="D961" s="25"/>
+      <c r="E961">
+        <v>20817</v>
+      </c>
+      <c r="G961">
+        <v>8534</v>
+      </c>
+      <c r="I961">
+        <v>0.23269999999999999</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A962" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B962" s="11">
+        <v>34108</v>
+      </c>
+      <c r="C962">
+        <v>93</v>
+      </c>
+      <c r="D962" s="25"/>
+      <c r="E962">
+        <v>19832</v>
+      </c>
+      <c r="G962">
+        <v>9168</v>
+      </c>
+      <c r="I962">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A963" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B963" s="11">
+        <v>34338</v>
+      </c>
+      <c r="C963">
+        <v>10.82</v>
+      </c>
+      <c r="D963" s="25"/>
+      <c r="E963">
+        <v>30.25</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="I963">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A964" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B964" s="11">
+        <v>34345</v>
+      </c>
+      <c r="C964">
+        <v>11.47</v>
+      </c>
+      <c r="D964" s="25"/>
+      <c r="E964">
+        <v>52.82</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="I964">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A965" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B965" s="11">
+        <v>34352</v>
+      </c>
+      <c r="C965">
+        <v>15.07</v>
+      </c>
+      <c r="D965" s="25"/>
+      <c r="E965">
+        <v>86.42</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="I965">
+        <v>9.64E-2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A966" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B966" s="11">
+        <v>34359</v>
+      </c>
+      <c r="C966">
+        <v>21.75</v>
+      </c>
+      <c r="D966" s="25"/>
+      <c r="E966">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
+      </c>
+      <c r="I966">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A967" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B967" s="11">
+        <v>34366</v>
+      </c>
+      <c r="C967">
+        <v>22.4</v>
+      </c>
+      <c r="D967" s="25"/>
+      <c r="E967">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="G967">
+        <v>0</v>
+      </c>
+      <c r="I967">
+        <v>0.30669999999999997</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A968" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B968" s="11">
+        <v>34373</v>
+      </c>
+      <c r="C968">
+        <v>22.9</v>
+      </c>
+      <c r="D968" s="25"/>
+      <c r="E968">
+        <v>352.9</v>
+      </c>
+      <c r="G968">
+        <v>0</v>
+      </c>
+      <c r="I968">
+        <v>0.59819999999999995</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A969" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B969" s="11">
+        <v>34380</v>
+      </c>
+      <c r="C969">
+        <v>24.55</v>
+      </c>
+      <c r="D969" s="25"/>
+      <c r="E969">
+        <v>629.6</v>
+      </c>
+      <c r="G969">
+        <v>0</v>
+      </c>
+      <c r="I969">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A970" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B970" s="11">
+        <v>34387</v>
+      </c>
+      <c r="C970">
+        <v>29.45</v>
+      </c>
+      <c r="D970" s="25"/>
+      <c r="E970">
+        <v>1150</v>
+      </c>
+      <c r="G970">
+        <v>0</v>
+      </c>
+      <c r="I970">
+        <v>1.927</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A971" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B971" s="11">
+        <v>34394</v>
+      </c>
+      <c r="C971">
+        <v>31.2</v>
+      </c>
+      <c r="D971" s="25"/>
+      <c r="E971">
+        <v>1951</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="I971">
+        <v>2.9039999999999999</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A972" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B972" s="11">
+        <v>34401</v>
+      </c>
+      <c r="C972">
+        <v>31.87</v>
+      </c>
+      <c r="D972" s="25"/>
+      <c r="E972">
+        <v>2893</v>
+      </c>
+      <c r="G972">
+        <v>0</v>
+      </c>
+      <c r="I972">
+        <v>4.1159999999999997</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A973" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B973" s="11">
+        <v>34408</v>
+      </c>
+      <c r="C973">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="D973" s="25"/>
+      <c r="E973">
+        <v>3480</v>
+      </c>
+      <c r="G973">
+        <v>0</v>
+      </c>
+      <c r="I973">
+        <v>4.0069999999999997</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A974" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B974" s="11">
+        <v>34415</v>
+      </c>
+      <c r="C974">
+        <v>47.77</v>
+      </c>
+      <c r="D974" s="25"/>
+      <c r="E974">
+        <v>4461</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="I974">
+        <v>4.0830000000000002</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A975" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B975" s="11">
+        <v>34422</v>
+      </c>
+      <c r="C975">
+        <v>55.02</v>
+      </c>
+      <c r="D975" s="25"/>
+      <c r="E975">
+        <v>5297</v>
+      </c>
+      <c r="G975">
+        <v>0</v>
+      </c>
+      <c r="I975">
+        <v>3.9209999999999998</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A976" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B976" s="11">
+        <v>34429</v>
+      </c>
+      <c r="C976">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="D976" s="25"/>
+      <c r="E976">
+        <v>7319</v>
+      </c>
+      <c r="G976">
+        <v>99.07</v>
+      </c>
+      <c r="I976">
+        <v>3.649</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A977" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B977" s="11">
+        <v>34436</v>
+      </c>
+      <c r="C977">
+        <v>72.47</v>
+      </c>
+      <c r="D977" s="25"/>
+      <c r="E977">
+        <v>9820</v>
+      </c>
+      <c r="G977">
+        <v>540.9</v>
+      </c>
+      <c r="I977">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A978" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B978" s="11">
+        <v>34444</v>
+      </c>
+      <c r="C978">
+        <v>78.27</v>
+      </c>
+      <c r="D978" s="25"/>
+      <c r="E978">
+        <v>10719</v>
+      </c>
+      <c r="G978">
+        <v>2018</v>
+      </c>
+      <c r="I978">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A979" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B979" s="11">
+        <v>34450</v>
+      </c>
+      <c r="C979">
+        <v>82.02</v>
+      </c>
+      <c r="D979" s="25"/>
+      <c r="E979">
+        <v>11294</v>
+      </c>
+      <c r="G979">
+        <v>3292</v>
+      </c>
+      <c r="I979">
+        <v>2.1150000000000002</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A980" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B980" s="11">
+        <v>34458</v>
+      </c>
+      <c r="C980">
+        <v>84.5</v>
+      </c>
+      <c r="D980" s="25"/>
+      <c r="E980">
+        <v>13232</v>
+      </c>
+      <c r="G980">
+        <v>5205</v>
+      </c>
+      <c r="I980">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A981" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B981" s="11">
+        <v>34465</v>
+      </c>
+      <c r="C981">
+        <v>87.75</v>
+      </c>
+      <c r="D981" s="25"/>
+      <c r="E981">
+        <v>13343</v>
+      </c>
+      <c r="G981">
+        <v>5956</v>
+      </c>
+      <c r="I981">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A982" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B982" s="11">
+        <v>34472</v>
+      </c>
+      <c r="C982">
+        <v>92.52</v>
+      </c>
+      <c r="D982" s="25"/>
+      <c r="E982">
+        <v>13631</v>
+      </c>
+      <c r="G982">
+        <v>6155</v>
+      </c>
+      <c r="I982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A983" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B983" s="11">
+        <v>34479</v>
+      </c>
+      <c r="C983">
+        <v>92.72</v>
+      </c>
+      <c r="D983" s="25"/>
+      <c r="E983">
+        <v>13857</v>
+      </c>
+      <c r="G983">
+        <v>6190</v>
+      </c>
+      <c r="I983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A984" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B984" s="11">
+        <v>34338</v>
+      </c>
+      <c r="C984">
+        <v>10.62</v>
+      </c>
+      <c r="D984" s="25"/>
+      <c r="E984">
+        <v>28.34</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="I984">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A985" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B985" s="11">
+        <v>34345</v>
+      </c>
+      <c r="C985">
+        <v>11.45</v>
+      </c>
+      <c r="D985" s="25"/>
+      <c r="E985">
+        <v>58.11</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="I985">
+        <v>6.1699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A986" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B986" s="11">
+        <v>34352</v>
+      </c>
+      <c r="C986">
+        <v>15.42</v>
+      </c>
+      <c r="D986" s="25"/>
+      <c r="E986">
+        <v>100.5</v>
+      </c>
+      <c r="G986">
+        <v>0</v>
+      </c>
+      <c r="I986">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A987" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B987" s="11">
+        <v>34359</v>
+      </c>
+      <c r="C987">
+        <v>21.6</v>
+      </c>
+      <c r="D987" s="25"/>
+      <c r="E987">
+        <v>173</v>
+      </c>
+      <c r="G987">
+        <v>0</v>
+      </c>
+      <c r="I987">
+        <v>0.22470000000000001</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A988" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B988" s="11">
+        <v>34366</v>
+      </c>
+      <c r="C988">
+        <v>23.02</v>
+      </c>
+      <c r="D988" s="25"/>
+      <c r="E988">
+        <v>332.7</v>
+      </c>
+      <c r="G988">
+        <v>0</v>
+      </c>
+      <c r="I988">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A989" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B989" s="11">
+        <v>34373</v>
+      </c>
+      <c r="C989">
+        <v>23.82</v>
+      </c>
+      <c r="D989" s="25"/>
+      <c r="E989">
+        <v>469</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="I989">
+        <v>0.79520000000000002</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A990" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B990" s="11">
+        <v>34380</v>
+      </c>
+      <c r="C990">
+        <v>26.12</v>
+      </c>
+      <c r="D990" s="25"/>
+      <c r="E990">
+        <v>928.3</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="I990">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A991" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B991" s="11">
+        <v>34387</v>
+      </c>
+      <c r="C991">
+        <v>29.6</v>
+      </c>
+      <c r="D991" s="25"/>
+      <c r="E991">
+        <v>1564</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="I991">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A992" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B992" s="11">
+        <v>34394</v>
+      </c>
+      <c r="C992">
+        <v>31.22</v>
+      </c>
+      <c r="D992" s="25"/>
+      <c r="E992">
+        <v>2653</v>
+      </c>
+      <c r="G992">
+        <v>0</v>
+      </c>
+      <c r="I992">
+        <v>3.9409999999999998</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A993" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B993" s="11">
+        <v>34401</v>
+      </c>
+      <c r="C993">
+        <v>31.97</v>
+      </c>
+      <c r="D993" s="25"/>
+      <c r="E993">
+        <v>3703</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="I993">
+        <v>5.1539999999999999</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A994" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B994" s="11">
+        <v>34408</v>
+      </c>
+      <c r="C994">
+        <v>38.75</v>
+      </c>
+      <c r="D994" s="25"/>
+      <c r="E994">
+        <v>4731</v>
+      </c>
+      <c r="G994">
+        <v>0</v>
+      </c>
+      <c r="I994">
+        <v>5.1349999999999998</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A995" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B995" s="11">
+        <v>34415</v>
+      </c>
+      <c r="C995">
+        <v>52.52</v>
+      </c>
+      <c r="D995" s="25"/>
+      <c r="E995">
+        <v>6398</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="I995">
+        <v>4.6539999999999999</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A996" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B996" s="11">
+        <v>34422</v>
+      </c>
+      <c r="C996">
+        <v>57.85</v>
+      </c>
+      <c r="D996" s="25"/>
+      <c r="E996">
+        <v>8252</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="I996">
+        <v>4.9169999999999998</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A997" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B997" s="11">
+        <v>34429</v>
+      </c>
+      <c r="C997">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="D997" s="25"/>
+      <c r="E997">
+        <v>9294</v>
+      </c>
+      <c r="G997">
+        <v>320.7</v>
+      </c>
+      <c r="I997">
+        <v>3.9180000000000001</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A998" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B998" s="11">
+        <v>34436</v>
+      </c>
+      <c r="C998">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D998" s="25"/>
+      <c r="E998">
+        <v>10694</v>
+      </c>
+      <c r="G998">
+        <v>1092</v>
+      </c>
+      <c r="I998">
+        <v>3.3010000000000002</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A999" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B999" s="11">
+        <v>34444</v>
+      </c>
+      <c r="C999">
+        <v>78.77</v>
+      </c>
+      <c r="D999" s="25"/>
+      <c r="E999">
+        <v>13398</v>
+      </c>
+      <c r="G999">
+        <v>3402</v>
+      </c>
+      <c r="I999">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1000" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1000" s="11">
+        <v>34450</v>
+      </c>
+      <c r="C1000">
+        <v>82.62</v>
+      </c>
+      <c r="D1000" s="25"/>
+      <c r="E1000">
+        <v>13837</v>
+      </c>
+      <c r="G1000">
+        <v>5108</v>
+      </c>
+      <c r="I1000">
+        <v>1.637</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1001" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1001" s="11">
+        <v>34458</v>
+      </c>
+      <c r="C1001">
+        <v>85.77</v>
+      </c>
+      <c r="D1001" s="25"/>
+      <c r="E1001">
+        <v>14871</v>
+      </c>
+      <c r="G1001">
+        <v>6701</v>
+      </c>
+      <c r="I1001">
+        <v>0.30449999999999999</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1002" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1002" s="11">
+        <v>34465</v>
+      </c>
+      <c r="C1002">
+        <v>89.85</v>
+      </c>
+      <c r="D1002" s="25"/>
+      <c r="E1002">
+        <v>15791</v>
+      </c>
+      <c r="G1002">
+        <v>7203</v>
+      </c>
+      <c r="I1002">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1003" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1003" s="11">
+        <v>34472</v>
+      </c>
+      <c r="C1003">
+        <v>92.85</v>
+      </c>
+      <c r="D1003" s="25"/>
+      <c r="E1003">
+        <v>16505</v>
+      </c>
+      <c r="G1003">
+        <v>7944</v>
+      </c>
+      <c r="I1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1004" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1004" s="11">
+        <v>34479</v>
+      </c>
+      <c r="C1004">
+        <v>92.9</v>
+      </c>
+      <c r="D1004" s="25"/>
+      <c r="E1004">
+        <v>15830</v>
+      </c>
+      <c r="G1004">
+        <v>7414</v>
+      </c>
+      <c r="I1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1005" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1005" s="11">
+        <v>34338</v>
+      </c>
+      <c r="C1005">
+        <v>10.52</v>
+      </c>
+      <c r="D1005" s="25"/>
+      <c r="E1005">
+        <v>25.12</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="I1005">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1006" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1006" s="11">
+        <v>34345</v>
+      </c>
+      <c r="C1006">
+        <v>11.02</v>
+      </c>
+      <c r="D1006" s="25"/>
+      <c r="E1006">
+        <v>48.44</v>
+      </c>
+      <c r="G1006">
+        <v>0</v>
+      </c>
+      <c r="I1006">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1007" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1007" s="11">
+        <v>34352</v>
+      </c>
+      <c r="C1007">
+        <v>14.77</v>
+      </c>
+      <c r="D1007" s="25"/>
+      <c r="E1007">
+        <v>87.12</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="I1007">
+        <v>9.7699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1008" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1008" s="11">
+        <v>34359</v>
+      </c>
+      <c r="C1008">
+        <v>21.32</v>
+      </c>
+      <c r="D1008" s="25"/>
+      <c r="E1008">
+        <v>137</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="I1008">
+        <v>0.1837</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1009" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1009" s="11">
+        <v>34366</v>
+      </c>
+      <c r="C1009">
+        <v>22.5</v>
+      </c>
+      <c r="D1009" s="25"/>
+      <c r="E1009">
+        <v>266.2</v>
+      </c>
+      <c r="G1009">
+        <v>0</v>
+      </c>
+      <c r="I1009">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1010" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1010" s="11">
+        <v>34373</v>
+      </c>
+      <c r="C1010">
+        <v>23.8</v>
+      </c>
+      <c r="D1010" s="25"/>
+      <c r="E1010">
+        <v>380</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="I1010">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1011" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1011" s="11">
+        <v>34380</v>
+      </c>
+      <c r="C1011">
+        <v>25.47</v>
+      </c>
+      <c r="D1011" s="25"/>
+      <c r="E1011">
+        <v>700.7</v>
+      </c>
+      <c r="G1011">
+        <v>0</v>
+      </c>
+      <c r="I1011">
+        <v>1.147</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1012" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1012" s="11">
+        <v>34387</v>
+      </c>
+      <c r="C1012">
+        <v>29.37</v>
+      </c>
+      <c r="D1012" s="25"/>
+      <c r="E1012">
+        <v>1370</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="I1012">
+        <v>2.246</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1013" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1013" s="11">
+        <v>34394</v>
+      </c>
+      <c r="C1013">
+        <v>30.97</v>
+      </c>
+      <c r="D1013" s="25"/>
+      <c r="E1013">
+        <v>2185</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="I1013">
+        <v>3.419</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1014" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1014" s="11">
+        <v>34401</v>
+      </c>
+      <c r="C1014">
+        <v>32</v>
+      </c>
+      <c r="D1014" s="25"/>
+      <c r="E1014">
+        <v>3397</v>
+      </c>
+      <c r="G1014">
+        <v>0</v>
+      </c>
+      <c r="I1014">
+        <v>5.3369999999999997</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1015" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1015" s="11">
+        <v>34408</v>
+      </c>
+      <c r="C1015">
+        <v>35.6</v>
+      </c>
+      <c r="D1015" s="25"/>
+      <c r="E1015">
+        <v>4351</v>
+      </c>
+      <c r="G1015">
+        <v>0</v>
+      </c>
+      <c r="I1015">
+        <v>6.3929999999999998</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1016" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1016" s="11">
+        <v>34415</v>
+      </c>
+      <c r="C1016">
+        <v>42.52</v>
+      </c>
+      <c r="D1016" s="25"/>
+      <c r="E1016">
+        <v>5295</v>
+      </c>
+      <c r="G1016">
+        <v>0</v>
+      </c>
+      <c r="I1016">
+        <v>6.6550000000000002</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1017" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1017" s="11">
+        <v>34422</v>
+      </c>
+      <c r="C1017">
+        <v>50.87</v>
+      </c>
+      <c r="D1017" s="25"/>
+      <c r="E1017">
+        <v>7320</v>
+      </c>
+      <c r="G1017">
+        <v>0</v>
+      </c>
+      <c r="I1017">
+        <v>7.1440000000000001</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1018" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1018" s="11">
+        <v>34429</v>
+      </c>
+      <c r="C1018">
+        <v>62.52</v>
+      </c>
+      <c r="D1018" s="25"/>
+      <c r="E1018">
+        <v>7823</v>
+      </c>
+      <c r="G1018">
+        <v>26.18</v>
+      </c>
+      <c r="I1018">
+        <v>5.9459999999999997</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1019" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1019" s="11">
+        <v>34436</v>
+      </c>
+      <c r="C1019">
+        <v>71.42</v>
+      </c>
+      <c r="D1019" s="25"/>
+      <c r="E1019">
+        <v>9784</v>
+      </c>
+      <c r="G1019">
+        <v>226.8</v>
+      </c>
+      <c r="I1019">
+        <v>5.569</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1020" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1020" s="11">
+        <v>34444</v>
+      </c>
+      <c r="C1020">
+        <v>76.72</v>
+      </c>
+      <c r="D1020" s="25"/>
+      <c r="E1020">
+        <v>13376</v>
+      </c>
+      <c r="G1020">
+        <v>1275</v>
+      </c>
+      <c r="I1020">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1021" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1021" s="11">
+        <v>34450</v>
+      </c>
+      <c r="C1021">
+        <v>79.75</v>
+      </c>
+      <c r="D1021" s="25"/>
+      <c r="E1021">
+        <v>14378</v>
+      </c>
+      <c r="G1021">
+        <v>2946</v>
+      </c>
+      <c r="I1021">
+        <v>5.3609999999999998</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1022" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1022" s="11">
+        <v>34458</v>
+      </c>
+      <c r="C1022">
+        <v>83.22</v>
+      </c>
+      <c r="D1022" s="25"/>
+      <c r="E1022">
+        <v>15032</v>
+      </c>
+      <c r="G1022">
+        <v>4550</v>
+      </c>
+      <c r="I1022">
+        <v>4.1239999999999997</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1023" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1023" s="11">
+        <v>34465</v>
+      </c>
+      <c r="C1023">
+        <v>84.4</v>
+      </c>
+      <c r="D1023" s="25"/>
+      <c r="E1023">
+        <v>18000</v>
+      </c>
+      <c r="G1023">
+        <v>6476</v>
+      </c>
+      <c r="I1023">
+        <v>3.056</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1024" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1024" s="11">
+        <v>34472</v>
+      </c>
+      <c r="C1024">
+        <v>86.62</v>
+      </c>
+      <c r="D1024" s="25"/>
+      <c r="E1024">
+        <v>18475</v>
+      </c>
+      <c r="G1024">
+        <v>7624</v>
+      </c>
+      <c r="I1024">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1025" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1025" s="11">
+        <v>34479</v>
+      </c>
+      <c r="C1025">
+        <v>92.1</v>
+      </c>
+      <c r="D1025" s="25"/>
+      <c r="E1025">
+        <v>19212</v>
+      </c>
+      <c r="G1025">
+        <v>8293</v>
+      </c>
+      <c r="I1025">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1026" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1026" s="11">
+        <v>34485</v>
+      </c>
+      <c r="C1026">
+        <v>92.97</v>
+      </c>
+      <c r="D1026" s="25"/>
+      <c r="E1026">
+        <v>18000</v>
+      </c>
+      <c r="G1026">
+        <v>7681</v>
+      </c>
+      <c r="I1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1027" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1027" s="11">
+        <v>34338</v>
+      </c>
+      <c r="C1027">
+        <v>10.65</v>
+      </c>
+      <c r="D1027" s="25"/>
+      <c r="E1027">
+        <v>28.07</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="I1027">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1028" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1028" s="11">
+        <v>34345</v>
+      </c>
+      <c r="C1028">
+        <v>11.35</v>
+      </c>
+      <c r="D1028" s="25"/>
+      <c r="E1028">
+        <v>58.47</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="I1028">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1029" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1029" s="11">
+        <v>34352</v>
+      </c>
+      <c r="C1029">
+        <v>15.37</v>
+      </c>
+      <c r="D1029" s="25"/>
+      <c r="E1029">
+        <v>94.7</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <v>9.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1030" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1030" s="11">
+        <v>34359</v>
+      </c>
+      <c r="C1030">
+        <v>21.95</v>
+      </c>
+      <c r="D1030" s="25"/>
+      <c r="E1030">
+        <v>181.7</v>
+      </c>
+      <c r="G1030">
+        <v>0</v>
+      </c>
+      <c r="I1030">
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1031" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1031" s="11">
+        <v>34366</v>
+      </c>
+      <c r="C1031">
+        <v>22.92</v>
+      </c>
+      <c r="D1031" s="25"/>
+      <c r="E1031">
+        <v>280.3</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="I1031">
+        <v>0.35020000000000001</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1032" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1032" s="11">
+        <v>34373</v>
+      </c>
+      <c r="C1032">
+        <v>24.5</v>
+      </c>
+      <c r="D1032" s="25"/>
+      <c r="E1032">
+        <v>470.7</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="I1032">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1033" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1033" s="11">
+        <v>34380</v>
+      </c>
+      <c r="C1033">
+        <v>26.02</v>
+      </c>
+      <c r="D1033" s="25"/>
+      <c r="E1033">
+        <v>1067</v>
+      </c>
+      <c r="G1033">
+        <v>0</v>
+      </c>
+      <c r="I1033">
+        <v>1.6919999999999999</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1034" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1034" s="11">
+        <v>34387</v>
+      </c>
+      <c r="C1034">
+        <v>30.4</v>
+      </c>
+      <c r="D1034" s="25"/>
+      <c r="E1034">
+        <v>1731</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="I1034">
+        <v>2.7240000000000002</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1035" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1035" s="11">
+        <v>34394</v>
+      </c>
+      <c r="C1035">
+        <v>31.27</v>
+      </c>
+      <c r="D1035" s="25"/>
+      <c r="E1035">
+        <v>2569</v>
+      </c>
+      <c r="G1035">
+        <v>0</v>
+      </c>
+      <c r="I1035">
+        <v>3.9039999999999999</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1036" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1036" s="11">
+        <v>34401</v>
+      </c>
+      <c r="C1036">
+        <v>31.82</v>
+      </c>
+      <c r="D1036" s="25"/>
+      <c r="E1036">
+        <v>3685</v>
+      </c>
+      <c r="G1036">
+        <v>0</v>
+      </c>
+      <c r="I1036">
+        <v>5.7050000000000001</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1037" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1037" s="11">
+        <v>34408</v>
+      </c>
+      <c r="C1037">
+        <v>37.57</v>
+      </c>
+      <c r="D1037" s="25"/>
+      <c r="E1037">
+        <v>5046</v>
+      </c>
+      <c r="G1037">
+        <v>0</v>
+      </c>
+      <c r="I1037">
+        <v>6.7759999999999998</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1038" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1038" s="11">
+        <v>34415</v>
+      </c>
+      <c r="C1038">
+        <v>48.05</v>
+      </c>
+      <c r="D1038" s="25"/>
+      <c r="E1038">
+        <v>6147</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="I1038">
+        <v>5.8250000000000002</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1039" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1039" s="11">
+        <v>34422</v>
+      </c>
+      <c r="C1039">
+        <v>56</v>
+      </c>
+      <c r="D1039" s="25"/>
+      <c r="E1039">
+        <v>8459</v>
+      </c>
+      <c r="G1039">
+        <v>0</v>
+      </c>
+      <c r="I1039">
+        <v>6.8819999999999997</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1040" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1040" s="11">
+        <v>34429</v>
+      </c>
+      <c r="C1040">
+        <v>69.67</v>
+      </c>
+      <c r="D1040" s="25"/>
+      <c r="E1040">
+        <v>10858</v>
+      </c>
+      <c r="G1040">
+        <v>136.4</v>
+      </c>
+      <c r="I1040">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1041" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1041" s="11">
+        <v>34436</v>
+      </c>
+      <c r="C1041">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="D1041" s="25"/>
+      <c r="E1041">
+        <v>12083</v>
+      </c>
+      <c r="G1041">
+        <v>681.1</v>
+      </c>
+      <c r="I1041">
+        <v>5.1989999999999998</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1042" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1042" s="11">
+        <v>34444</v>
+      </c>
+      <c r="C1042">
+        <v>78.25</v>
+      </c>
+      <c r="D1042" s="25"/>
+      <c r="E1042">
+        <v>14272</v>
+      </c>
+      <c r="G1042">
+        <v>2414</v>
+      </c>
+      <c r="I1042">
+        <v>5.3159999999999998</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1043" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1043" s="11">
+        <v>34450</v>
+      </c>
+      <c r="C1043">
+        <v>83.07</v>
+      </c>
+      <c r="D1043" s="25"/>
+      <c r="E1043">
+        <v>17055</v>
+      </c>
+      <c r="G1043">
+        <v>4622</v>
+      </c>
+      <c r="I1043">
+        <v>5.1109999999999998</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1044" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1044" s="11">
+        <v>34458</v>
+      </c>
+      <c r="C1044">
+        <v>84.3</v>
+      </c>
+      <c r="D1044" s="25"/>
+      <c r="E1044">
+        <v>19902</v>
+      </c>
+      <c r="G1044">
+        <v>7378</v>
+      </c>
+      <c r="I1044">
+        <v>3.5390000000000001</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1045" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1045" s="11">
+        <v>34465</v>
+      </c>
+      <c r="C1045">
+        <v>85.67</v>
+      </c>
+      <c r="D1045" s="25"/>
+      <c r="E1045">
+        <v>21879</v>
+      </c>
+      <c r="G1045">
+        <v>9100</v>
+      </c>
+      <c r="I1045">
+        <v>1.581</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1046" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1046" s="11">
+        <v>34472</v>
+      </c>
+      <c r="C1046">
+        <v>90.32</v>
+      </c>
+      <c r="D1046" s="25"/>
+      <c r="E1046">
+        <v>20099</v>
+      </c>
+      <c r="G1046">
+        <v>8583</v>
+      </c>
+      <c r="I1046">
+        <v>9.2700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1047" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1047" s="11">
+        <v>34479</v>
+      </c>
+      <c r="C1047">
+        <v>92.8</v>
+      </c>
+      <c r="D1047" s="25"/>
+      <c r="E1047">
+        <v>19328</v>
+      </c>
+      <c r="G1047">
+        <v>8487</v>
+      </c>
+      <c r="I1047">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1048" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1048" s="11">
+        <v>34485</v>
+      </c>
+      <c r="C1048">
+        <v>93</v>
+      </c>
+      <c r="D1048" s="25"/>
+      <c r="E1048">
+        <v>19276</v>
+      </c>
+      <c r="G1048">
+        <v>8604</v>
+      </c>
+      <c r="I1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1049" s="25"/>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1050" s="25"/>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1051" s="25"/>
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1052" s="25"/>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1053" s="25"/>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1054" s="25"/>
     </row>
   </sheetData>
   <sortState ref="A2:AP853">
@@ -52692,7 +56052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+    <sheetView topLeftCell="A410" workbookViewId="0">
       <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="355">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1072,21 +1072,6 @@
     <t>MouseRemoval0.50Date2002-10-11</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO2</t>
-  </si>
-  <si>
-    <t>Wheat_FACE93_DryNormalCO2</t>
-  </si>
-  <si>
-    <t>Wheat_FACE93_DryHighCO2</t>
-  </si>
-  <si>
-    <t>Wheat_FACE93_WetNormalCO2</t>
-  </si>
-  <si>
-    <t>Wheat_FACE93_WetHighCO2</t>
-  </si>
-  <si>
     <t>ArizonaFACE92CO2NormalIrrDry</t>
   </si>
   <si>
@@ -1096,55 +1081,19 @@
     <t>ArizonaFACE92CO2NormalIrrWet</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO3</t>
+    <t>ArizonaFACE92CO2HighIrrWet</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO4</t>
+    <t>ArizonaFACE93CO2NormalIrrDry</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO5</t>
+    <t>ArizonaFACE93CO2HighIrrDry</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO6</t>
+    <t>ArizonaFACE93CO2NormalIrrWet</t>
   </si>
   <si>
-    <t>Wheat_FACE92_WetHighCO7</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO8</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO9</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO10</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO11</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO12</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO13</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO14</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO15</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO16</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO17</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO18</t>
-  </si>
-  <si>
-    <t>Wheat_FACE92_WetHighCO19</t>
+    <t>ArizonaFACE93CO2HighIrrWet</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2109,10 @@
   <dimension ref="A1:AR1054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B956" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1029" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A945" sqref="A945:A962"/>
+      <selection pane="bottomRight" activeCell="D1048" sqref="D1048"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -44585,7 +44534,7 @@
     </row>
     <row r="891" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B891" s="11">
         <v>33981</v>
@@ -44594,7 +44543,7 @@
         <v>12.72</v>
       </c>
       <c r="E891">
-        <v>33.479999999999997</v>
+        <v>3.3479999999999999</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -44641,7 +44590,7 @@
     </row>
     <row r="892" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B892" s="11">
         <v>33991</v>
@@ -44650,7 +44599,7 @@
         <v>22.45</v>
       </c>
       <c r="E892">
-        <v>116.5</v>
+        <v>11.65</v>
       </c>
       <c r="G892">
         <v>0</v>
@@ -44697,7 +44646,7 @@
     </row>
     <row r="893" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B893" s="11">
         <v>34001</v>
@@ -44706,7 +44655,7 @@
         <v>25.02</v>
       </c>
       <c r="E893">
-        <v>411.2</v>
+        <v>41.12</v>
       </c>
       <c r="G893">
         <v>0</v>
@@ -44753,7 +44702,7 @@
     </row>
     <row r="894" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B894" s="11">
         <v>34009</v>
@@ -44762,7 +44711,7 @@
         <v>27.72</v>
       </c>
       <c r="E894">
-        <v>816.6</v>
+        <v>81.66</v>
       </c>
       <c r="G894">
         <v>0</v>
@@ -44809,7 +44758,7 @@
     </row>
     <row r="895" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B895" s="11">
         <v>34016</v>
@@ -44819,18 +44768,19 @@
       </c>
       <c r="D895" s="25"/>
       <c r="E895">
-        <v>1642</v>
+        <v>164.2</v>
       </c>
       <c r="G895">
         <v>0</v>
       </c>
+      <c r="H895" s="21"/>
       <c r="I895">
         <v>3.3210000000000002</v>
       </c>
     </row>
     <row r="896" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B896" s="11">
         <v>34023</v>
@@ -44840,18 +44790,19 @@
       </c>
       <c r="D896" s="25"/>
       <c r="E896">
-        <v>2398</v>
+        <v>239.8</v>
       </c>
       <c r="G896">
         <v>0</v>
       </c>
+      <c r="H896" s="21"/>
       <c r="I896">
         <v>4.9450000000000003</v>
       </c>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B897" s="11">
         <v>34030</v>
@@ -44861,18 +44812,19 @@
       </c>
       <c r="D897" s="25"/>
       <c r="E897">
-        <v>3113</v>
+        <v>311.3</v>
       </c>
       <c r="G897">
         <v>0</v>
       </c>
+      <c r="H897" s="21"/>
       <c r="I897">
         <v>5.3760000000000003</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B898" s="11">
         <v>34037</v>
@@ -44882,18 +44834,19 @@
       </c>
       <c r="D898" s="25"/>
       <c r="E898">
-        <v>4561</v>
+        <v>456.1</v>
       </c>
       <c r="G898">
         <v>0</v>
       </c>
+      <c r="H898" s="21"/>
       <c r="I898">
         <v>5.5259999999999998</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B899" s="11">
         <v>34044</v>
@@ -44903,18 +44856,19 @@
       </c>
       <c r="D899" s="25"/>
       <c r="E899">
-        <v>5359</v>
+        <v>535.9</v>
       </c>
       <c r="G899">
         <v>0</v>
       </c>
+      <c r="H899" s="21"/>
       <c r="I899">
         <v>8.0739999999999998</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B900" s="11">
         <v>34051</v>
@@ -44924,15 +44878,16 @@
       </c>
       <c r="D900" s="25"/>
       <c r="E900">
-        <v>6378</v>
+        <v>637.79999999999995</v>
       </c>
       <c r="G900">
         <v>0</v>
       </c>
+      <c r="H900" s="21"/>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B901" s="11">
         <v>34059</v>
@@ -44942,18 +44897,19 @@
       </c>
       <c r="D901" s="25"/>
       <c r="E901">
-        <v>8996</v>
+        <v>899.6</v>
       </c>
       <c r="G901">
-        <v>127.8</v>
-      </c>
+        <v>12.78</v>
+      </c>
+      <c r="H901" s="21"/>
       <c r="I901">
         <v>5.2939999999999996</v>
       </c>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B902" s="11">
         <v>34066</v>
@@ -44963,18 +44919,19 @@
       </c>
       <c r="D902" s="25"/>
       <c r="E902">
-        <v>11127</v>
+        <v>1112.7</v>
       </c>
       <c r="G902">
-        <v>594.79999999999995</v>
-      </c>
+        <v>59.48</v>
+      </c>
+      <c r="H902" s="21"/>
       <c r="I902">
         <v>5.1580000000000004</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B903" s="11">
         <v>34073</v>
@@ -44984,18 +44941,19 @@
       </c>
       <c r="D903" s="25"/>
       <c r="E903">
-        <v>12069</v>
+        <v>1206.9000000000001</v>
       </c>
       <c r="G903">
-        <v>1722</v>
-      </c>
+        <v>172.2</v>
+      </c>
+      <c r="H903" s="21"/>
       <c r="I903">
         <v>4.1230000000000002</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B904" s="11">
         <v>34080</v>
@@ -45005,18 +44963,19 @@
       </c>
       <c r="D904" s="25"/>
       <c r="E904">
-        <v>14357</v>
+        <v>1435.7</v>
       </c>
       <c r="G904">
-        <v>3641</v>
-      </c>
+        <v>364.1</v>
+      </c>
+      <c r="H904" s="21"/>
       <c r="I904">
         <v>3.403</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B905" s="11">
         <v>34087</v>
@@ -45026,18 +44985,19 @@
       </c>
       <c r="D905" s="25"/>
       <c r="E905">
-        <v>15195</v>
+        <v>1519.5</v>
       </c>
       <c r="G905">
-        <v>5348</v>
-      </c>
+        <v>534.79999999999995</v>
+      </c>
+      <c r="H905" s="21"/>
       <c r="I905">
         <v>2.2160000000000002</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B906" s="11">
         <v>34094</v>
@@ -45047,18 +45007,19 @@
       </c>
       <c r="D906" s="25"/>
       <c r="E906">
-        <v>15220</v>
+        <v>1522</v>
       </c>
       <c r="G906">
-        <v>6378</v>
-      </c>
+        <v>637.79999999999995</v>
+      </c>
+      <c r="H906" s="21"/>
       <c r="I906">
         <v>0.6552</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B907" s="11">
         <v>34101</v>
@@ -45068,18 +45029,19 @@
       </c>
       <c r="D907" s="25"/>
       <c r="E907">
-        <v>15409</v>
+        <v>1540.9</v>
       </c>
       <c r="G907">
-        <v>6688</v>
-      </c>
+        <v>668.8</v>
+      </c>
+      <c r="H907" s="21"/>
       <c r="I907">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B908" s="11">
         <v>34108</v>
@@ -45087,20 +45049,23 @@
       <c r="C908">
         <v>93</v>
       </c>
-      <c r="D908" s="25"/>
+      <c r="D908" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E908">
-        <v>14913</v>
+        <v>1491.3</v>
       </c>
       <c r="G908">
-        <v>6768</v>
-      </c>
+        <v>676.8</v>
+      </c>
+      <c r="H908" s="21"/>
       <c r="I908">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B909" s="11">
         <v>33981</v>
@@ -45110,18 +45075,19 @@
       </c>
       <c r="D909" s="25"/>
       <c r="E909">
-        <v>30.27</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="G909">
         <v>0</v>
       </c>
+      <c r="H909" s="21"/>
       <c r="I909">
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B910" s="11">
         <v>33991</v>
@@ -45131,18 +45097,19 @@
       </c>
       <c r="D910" s="25"/>
       <c r="E910">
-        <v>109.5</v>
+        <v>10.95</v>
       </c>
       <c r="G910">
         <v>0</v>
       </c>
+      <c r="H910" s="21"/>
       <c r="I910">
         <v>0.23719999999999999</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B911" s="11">
         <v>34001</v>
@@ -45152,18 +45119,19 @@
       </c>
       <c r="D911" s="25"/>
       <c r="E911">
-        <v>438.7</v>
+        <v>43.87</v>
       </c>
       <c r="G911">
         <v>0</v>
       </c>
+      <c r="H911" s="21"/>
       <c r="I911">
         <v>0.86950000000000005</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B912" s="11">
         <v>34009</v>
@@ -45173,18 +45141,19 @@
       </c>
       <c r="D912" s="25"/>
       <c r="E912">
-        <v>953</v>
+        <v>95.3</v>
       </c>
       <c r="G912">
         <v>0</v>
       </c>
+      <c r="H912" s="21"/>
       <c r="I912">
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B913" s="11">
         <v>34016</v>
@@ -45194,18 +45163,19 @@
       </c>
       <c r="D913" s="25"/>
       <c r="E913">
-        <v>1812</v>
+        <v>181.2</v>
       </c>
       <c r="G913">
         <v>0</v>
       </c>
+      <c r="H913" s="21"/>
       <c r="I913">
         <v>3.5640000000000001</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B914" s="11">
         <v>34023</v>
@@ -45215,18 +45185,19 @@
       </c>
       <c r="D914" s="25"/>
       <c r="E914">
-        <v>2503</v>
+        <v>250.3</v>
       </c>
       <c r="G914">
         <v>0</v>
       </c>
+      <c r="H914" s="21"/>
       <c r="I914">
         <v>4.8310000000000004</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B915" s="11">
         <v>34030</v>
@@ -45236,18 +45207,19 @@
       </c>
       <c r="D915" s="25"/>
       <c r="E915">
-        <v>3651</v>
+        <v>365.1</v>
       </c>
       <c r="G915">
         <v>0</v>
       </c>
+      <c r="H915" s="21"/>
       <c r="I915">
         <v>6.13</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B916" s="11">
         <v>34037</v>
@@ -45257,18 +45229,19 @@
       </c>
       <c r="D916" s="25"/>
       <c r="E916">
-        <v>5102</v>
+        <v>510.2</v>
       </c>
       <c r="G916">
         <v>0</v>
       </c>
+      <c r="H916" s="21"/>
       <c r="I916">
         <v>5.8120000000000003</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B917" s="11">
         <v>34044</v>
@@ -45278,15 +45251,16 @@
       </c>
       <c r="D917" s="25"/>
       <c r="E917">
-        <v>6045</v>
+        <v>604.5</v>
       </c>
       <c r="G917">
         <v>0</v>
       </c>
-    </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H917" s="21"/>
+    </row>
+    <row r="918" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B918" s="11">
         <v>34051</v>
@@ -45296,15 +45270,16 @@
       </c>
       <c r="D918" s="25"/>
       <c r="E918">
-        <v>7955</v>
+        <v>795.5</v>
       </c>
       <c r="G918">
         <v>0</v>
       </c>
-    </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H918" s="21"/>
+    </row>
+    <row r="919" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B919" s="11">
         <v>34059</v>
@@ -45314,18 +45289,19 @@
       </c>
       <c r="D919" s="25"/>
       <c r="E919">
-        <v>10917</v>
+        <v>1091.7</v>
       </c>
       <c r="G919">
-        <v>257.5</v>
-      </c>
+        <v>25.75</v>
+      </c>
+      <c r="H919" s="21"/>
       <c r="I919">
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B920" s="11">
         <v>34066</v>
@@ -45335,18 +45311,19 @@
       </c>
       <c r="D920" s="25"/>
       <c r="E920">
-        <v>13402</v>
+        <v>1340.2</v>
       </c>
       <c r="G920">
-        <v>1087</v>
-      </c>
+        <v>108.7</v>
+      </c>
+      <c r="H920" s="21"/>
       <c r="I920">
         <v>4.6239999999999997</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B921" s="11">
         <v>34073</v>
@@ -45356,18 +45333,19 @@
       </c>
       <c r="D921" s="25"/>
       <c r="E921">
-        <v>15549</v>
+        <v>1554.9</v>
       </c>
       <c r="G921">
-        <v>2912</v>
-      </c>
+        <v>291.2</v>
+      </c>
+      <c r="H921" s="21"/>
       <c r="I921">
         <v>4.5910000000000002</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B922" s="11">
         <v>34080</v>
@@ -45377,18 +45355,19 @@
       </c>
       <c r="D922" s="25"/>
       <c r="E922">
-        <v>19213</v>
+        <v>1921.3</v>
       </c>
       <c r="G922">
-        <v>5629</v>
-      </c>
+        <v>562.9</v>
+      </c>
+      <c r="H922" s="21"/>
       <c r="I922">
         <v>3.9249999999999998</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B923" s="11">
         <v>34087</v>
@@ -45398,18 +45377,19 @@
       </c>
       <c r="D923" s="25"/>
       <c r="E923">
-        <v>18814</v>
+        <v>1881.4</v>
       </c>
       <c r="G923">
-        <v>7249</v>
-      </c>
+        <v>724.9</v>
+      </c>
+      <c r="H923" s="21"/>
       <c r="I923">
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B924" s="11">
         <v>34094</v>
@@ -45419,18 +45399,19 @@
       </c>
       <c r="D924" s="25"/>
       <c r="E924">
-        <v>17116</v>
+        <v>1711.6</v>
       </c>
       <c r="G924">
-        <v>7551</v>
-      </c>
+        <v>755.1</v>
+      </c>
+      <c r="H924" s="21"/>
       <c r="I924">
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B925" s="11">
         <v>34101</v>
@@ -45440,18 +45421,19 @@
       </c>
       <c r="D925" s="25"/>
       <c r="E925">
-        <v>20695</v>
+        <v>2069.5</v>
       </c>
       <c r="G925">
-        <v>9008</v>
-      </c>
+        <v>900.8</v>
+      </c>
+      <c r="H925" s="21"/>
       <c r="I925">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B926" s="11">
         <v>34108</v>
@@ -45459,20 +45441,30 @@
       <c r="C926">
         <v>93</v>
       </c>
-      <c r="D926" s="25"/>
+      <c r="D926" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E926">
-        <v>15523</v>
+        <v>1552.3</v>
       </c>
       <c r="G926">
-        <v>7349</v>
-      </c>
+        <v>734.9</v>
+      </c>
+      <c r="H926" s="21"/>
       <c r="I926">
         <v>0</v>
       </c>
-    </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG926">
+        <f>G926/AH926*1000</f>
+        <v>15821.313240043055</v>
+      </c>
+      <c r="AH926">
+        <v>46.45</v>
+      </c>
+    </row>
+    <row r="927" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B927" s="11">
         <v>33981</v>
@@ -45482,18 +45474,19 @@
       </c>
       <c r="D927" s="25"/>
       <c r="E927">
-        <v>31.45</v>
+        <v>3.145</v>
       </c>
       <c r="G927">
         <v>0</v>
       </c>
+      <c r="H927" s="21"/>
       <c r="I927">
         <v>7.0499999999999993E-2</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B928" s="11">
         <v>33991</v>
@@ -45503,18 +45496,19 @@
       </c>
       <c r="D928" s="25"/>
       <c r="E928">
-        <v>110.9</v>
+        <v>11.09</v>
       </c>
       <c r="G928">
         <v>0</v>
       </c>
+      <c r="H928" s="21"/>
       <c r="I928">
         <v>0.25750000000000001</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B929" s="11">
         <v>34001</v>
@@ -45524,18 +45518,19 @@
       </c>
       <c r="D929" s="25"/>
       <c r="E929">
-        <v>397</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G929">
         <v>0</v>
       </c>
+      <c r="H929" s="21"/>
       <c r="I929">
         <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B930" s="11">
         <v>34009</v>
@@ -45545,18 +45540,19 @@
       </c>
       <c r="D930" s="25"/>
       <c r="E930">
-        <v>757.2</v>
+        <v>75.72</v>
       </c>
       <c r="G930">
         <v>0</v>
       </c>
+      <c r="H930" s="21"/>
       <c r="I930">
         <v>1.7170000000000001</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B931" s="11">
         <v>34016</v>
@@ -45566,18 +45562,19 @@
       </c>
       <c r="D931" s="25"/>
       <c r="E931">
-        <v>1669</v>
+        <v>166.9</v>
       </c>
       <c r="G931">
         <v>0</v>
       </c>
+      <c r="H931" s="21"/>
       <c r="I931">
         <v>3.4830000000000001</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B932" s="11">
         <v>34023</v>
@@ -45587,18 +45584,19 @@
       </c>
       <c r="D932" s="25"/>
       <c r="E932">
-        <v>2256</v>
+        <v>225.6</v>
       </c>
       <c r="G932">
         <v>0</v>
       </c>
+      <c r="H932" s="21"/>
       <c r="I932">
         <v>4.9390000000000001</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B933" s="11">
         <v>34030</v>
@@ -45608,18 +45606,19 @@
       </c>
       <c r="D933" s="25"/>
       <c r="E933">
-        <v>3210</v>
+        <v>321</v>
       </c>
       <c r="G933">
         <v>0</v>
       </c>
+      <c r="H933" s="21"/>
       <c r="I933">
         <v>5.42</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B934" s="11">
         <v>34037</v>
@@ -45629,18 +45628,19 @@
       </c>
       <c r="D934" s="25"/>
       <c r="E934">
-        <v>4647</v>
+        <v>464.7</v>
       </c>
       <c r="G934">
         <v>0</v>
       </c>
+      <c r="H934" s="21"/>
       <c r="I934">
         <v>5.7080000000000002</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B935" s="11">
         <v>34044</v>
@@ -45650,18 +45650,19 @@
       </c>
       <c r="D935" s="25"/>
       <c r="E935">
-        <v>5415</v>
+        <v>541.5</v>
       </c>
       <c r="G935">
         <v>0</v>
       </c>
+      <c r="H935" s="21"/>
       <c r="I935">
         <v>6.9489999999999998</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B936" s="11">
         <v>34051</v>
@@ -45671,15 +45672,16 @@
       </c>
       <c r="D936" s="25"/>
       <c r="E936">
-        <v>6375</v>
+        <v>637.5</v>
       </c>
       <c r="G936">
         <v>0</v>
       </c>
+      <c r="H936" s="21"/>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B937" s="11">
         <v>34059</v>
@@ -45689,18 +45691,19 @@
       </c>
       <c r="D937" s="25"/>
       <c r="E937">
-        <v>10278</v>
+        <v>1027.8</v>
       </c>
       <c r="G937">
-        <v>57.95</v>
-      </c>
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="H937" s="21"/>
       <c r="I937">
         <v>6.2</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B938" s="11">
         <v>34066</v>
@@ -45710,18 +45713,19 @@
       </c>
       <c r="D938" s="25"/>
       <c r="E938">
-        <v>11282</v>
+        <v>1128.2</v>
       </c>
       <c r="G938">
-        <v>397.4</v>
-      </c>
+        <v>39.739999999999995</v>
+      </c>
+      <c r="H938" s="21"/>
       <c r="I938">
         <v>5.9829999999999997</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B939" s="11">
         <v>34073</v>
@@ -45731,18 +45735,19 @@
       </c>
       <c r="D939" s="25"/>
       <c r="E939">
-        <v>13758</v>
+        <v>1375.8</v>
       </c>
       <c r="G939">
-        <v>1273</v>
-      </c>
+        <v>127.3</v>
+      </c>
+      <c r="H939" s="21"/>
       <c r="I939">
         <v>6</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B940" s="11">
         <v>34080</v>
@@ -45752,18 +45757,19 @@
       </c>
       <c r="D940" s="25"/>
       <c r="E940">
-        <v>16169</v>
+        <v>1616.9</v>
       </c>
       <c r="G940">
-        <v>3303</v>
-      </c>
+        <v>330.3</v>
+      </c>
+      <c r="H940" s="21"/>
       <c r="I940">
         <v>5.7519999999999998</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B941" s="11">
         <v>34087</v>
@@ -45773,18 +45779,19 @@
       </c>
       <c r="D941" s="25"/>
       <c r="E941">
-        <v>16938</v>
+        <v>1693.8</v>
       </c>
       <c r="G941">
-        <v>5225</v>
-      </c>
+        <v>522.5</v>
+      </c>
+      <c r="H941" s="21"/>
       <c r="I941">
         <v>5.1920000000000002</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B942" s="11">
         <v>34094</v>
@@ -45794,18 +45801,19 @@
       </c>
       <c r="D942" s="25"/>
       <c r="E942">
-        <v>19615</v>
+        <v>1961.5</v>
       </c>
       <c r="G942">
-        <v>7671</v>
-      </c>
+        <v>767.1</v>
+      </c>
+      <c r="H942" s="21"/>
       <c r="I942">
         <v>4.53</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B943" s="11">
         <v>34101</v>
@@ -45815,18 +45823,19 @@
       </c>
       <c r="D943" s="25"/>
       <c r="E943">
-        <v>20122</v>
+        <v>2012.2</v>
       </c>
       <c r="G943">
-        <v>8336</v>
-      </c>
+        <v>833.6</v>
+      </c>
+      <c r="H943" s="21"/>
       <c r="I943">
         <v>2.14</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B944" s="11">
         <v>34108</v>
@@ -45834,20 +45843,23 @@
       <c r="C944">
         <v>92.97</v>
       </c>
-      <c r="D944" s="25"/>
+      <c r="D944" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E944">
-        <v>18275</v>
+        <v>1827.5</v>
       </c>
       <c r="G944">
-        <v>8040</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="H944" s="21"/>
       <c r="I944">
         <v>0.23369999999999999</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" s="25" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B945" s="11">
         <v>33981</v>
@@ -45857,18 +45869,19 @@
       </c>
       <c r="D945" s="25"/>
       <c r="E945">
-        <v>31.17</v>
+        <v>3.117</v>
       </c>
       <c r="G945">
         <v>0</v>
       </c>
+      <c r="H945" s="21"/>
       <c r="I945">
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" s="25" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B946" s="11">
         <v>33991</v>
@@ -45878,18 +45891,19 @@
       </c>
       <c r="D946" s="25"/>
       <c r="E946">
-        <v>122</v>
+        <v>12.2</v>
       </c>
       <c r="G946">
         <v>0</v>
       </c>
+      <c r="H946" s="21"/>
       <c r="I946">
         <v>0.2712</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A947" s="25" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B947" s="11">
         <v>34001</v>
@@ -45899,18 +45913,19 @@
       </c>
       <c r="D947" s="25"/>
       <c r="E947">
-        <v>455.6</v>
+        <v>45.56</v>
       </c>
       <c r="G947">
         <v>0</v>
       </c>
+      <c r="H947" s="21"/>
       <c r="I947">
         <v>0.92249999999999999</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A948" s="25" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B948" s="11">
         <v>34009</v>
@@ -45920,18 +45935,19 @@
       </c>
       <c r="D948" s="25"/>
       <c r="E948">
-        <v>889.5</v>
+        <v>88.95</v>
       </c>
       <c r="G948">
         <v>0</v>
       </c>
+      <c r="H948" s="21"/>
       <c r="I948">
         <v>1.946</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A949" s="25" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B949" s="11">
         <v>34016</v>
@@ -45941,18 +45957,19 @@
       </c>
       <c r="D949" s="25"/>
       <c r="E949">
-        <v>1775</v>
+        <v>177.5</v>
       </c>
       <c r="G949">
         <v>0</v>
       </c>
+      <c r="H949" s="21"/>
       <c r="I949">
         <v>3.48</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A950" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B950" s="11">
         <v>34023</v>
@@ -45962,18 +45979,19 @@
       </c>
       <c r="D950" s="25"/>
       <c r="E950">
-        <v>2704</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="G950">
         <v>0</v>
       </c>
+      <c r="H950" s="21"/>
       <c r="I950">
         <v>5.3129999999999997</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A951" s="25" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B951" s="11">
         <v>34030</v>
@@ -45983,18 +46001,19 @@
       </c>
       <c r="D951" s="25"/>
       <c r="E951">
-        <v>3592</v>
+        <v>359.2</v>
       </c>
       <c r="G951">
         <v>0</v>
       </c>
+      <c r="H951" s="21"/>
       <c r="I951">
         <v>5.9569999999999999</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A952" s="25" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B952" s="11">
         <v>34037</v>
@@ -46004,18 +46023,19 @@
       </c>
       <c r="D952" s="25"/>
       <c r="E952">
-        <v>5272</v>
+        <v>527.20000000000005</v>
       </c>
       <c r="G952">
         <v>0</v>
       </c>
+      <c r="H952" s="21"/>
       <c r="I952">
         <v>6.7050000000000001</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A953" s="25" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B953" s="11">
         <v>34044</v>
@@ -46025,15 +46045,16 @@
       </c>
       <c r="D953" s="25"/>
       <c r="E953">
-        <v>6166</v>
+        <v>616.6</v>
       </c>
       <c r="G953">
         <v>0</v>
       </c>
+      <c r="H953" s="21"/>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A954" s="25" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B954" s="11">
         <v>34051</v>
@@ -46043,15 +46064,16 @@
       </c>
       <c r="D954" s="25"/>
       <c r="E954">
-        <v>7574</v>
+        <v>757.4</v>
       </c>
       <c r="G954">
         <v>0</v>
       </c>
+      <c r="H954" s="21"/>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A955" s="25" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B955" s="11">
         <v>34059</v>
@@ -46061,18 +46083,19 @@
       </c>
       <c r="D955" s="25"/>
       <c r="E955">
-        <v>11844</v>
+        <v>1184.4000000000001</v>
       </c>
       <c r="G955">
-        <v>167.7</v>
-      </c>
+        <v>16.77</v>
+      </c>
+      <c r="H955" s="21"/>
       <c r="I955">
         <v>6.4290000000000003</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A956" s="25" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B956" s="11">
         <v>34066</v>
@@ -46082,18 +46105,19 @@
       </c>
       <c r="D956" s="25"/>
       <c r="E956">
-        <v>13951</v>
+        <v>1395.1</v>
       </c>
       <c r="G956">
-        <v>782.5</v>
-      </c>
+        <v>78.25</v>
+      </c>
+      <c r="H956" s="21"/>
       <c r="I956">
         <v>5.7450000000000001</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A957" s="25" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B957" s="11">
         <v>34073</v>
@@ -46103,18 +46127,19 @@
       </c>
       <c r="D957" s="25"/>
       <c r="E957">
-        <v>15735</v>
+        <v>1573.5</v>
       </c>
       <c r="G957">
-        <v>2285</v>
-      </c>
+        <v>228.5</v>
+      </c>
+      <c r="H957" s="21"/>
       <c r="I957">
         <v>5.6529999999999996</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A958" s="25" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B958" s="11">
         <v>34080</v>
@@ -46124,18 +46149,19 @@
       </c>
       <c r="D958" s="25"/>
       <c r="E958">
-        <v>19524</v>
+        <v>1952.4</v>
       </c>
       <c r="G958">
-        <v>4796</v>
-      </c>
+        <v>479.6</v>
+      </c>
+      <c r="H958" s="21"/>
       <c r="I958">
         <v>5.8819999999999997</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A959" s="25" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B959" s="11">
         <v>34087</v>
@@ -46145,18 +46171,19 @@
       </c>
       <c r="D959" s="25"/>
       <c r="E959">
-        <v>18075</v>
+        <v>1807.5</v>
       </c>
       <c r="G959">
-        <v>6169</v>
-      </c>
+        <v>616.9</v>
+      </c>
+      <c r="H959" s="21"/>
       <c r="I959">
         <v>4.2859999999999996</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A960" s="25" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B960" s="11">
         <v>34094</v>
@@ -46166,18 +46193,19 @@
       </c>
       <c r="D960" s="25"/>
       <c r="E960">
-        <v>21857</v>
+        <v>2185.6999999999998</v>
       </c>
       <c r="G960">
-        <v>9196</v>
-      </c>
+        <v>919.6</v>
+      </c>
+      <c r="H960" s="21"/>
       <c r="I960">
         <v>2.5920000000000001</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A961" s="25" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B961" s="11">
         <v>34101</v>
@@ -46187,18 +46215,19 @@
       </c>
       <c r="D961" s="25"/>
       <c r="E961">
-        <v>20817</v>
+        <v>2081.6999999999998</v>
       </c>
       <c r="G961">
-        <v>8534</v>
-      </c>
+        <v>853.4</v>
+      </c>
+      <c r="H961" s="21"/>
       <c r="I961">
         <v>0.23269999999999999</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A962" s="25" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B962" s="11">
         <v>34108</v>
@@ -46206,20 +46235,30 @@
       <c r="C962">
         <v>93</v>
       </c>
-      <c r="D962" s="25"/>
+      <c r="D962" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E962">
-        <v>19832</v>
+        <v>1983.2</v>
       </c>
       <c r="G962">
-        <v>9168</v>
-      </c>
+        <v>916.8</v>
+      </c>
+      <c r="H962" s="21"/>
       <c r="I962">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG962">
+        <f>G962/AH962*1000</f>
+        <v>19452.577975811582</v>
+      </c>
+      <c r="AH962">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="963" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A963" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B963" s="11">
         <v>34338</v>
@@ -46229,18 +46268,19 @@
       </c>
       <c r="D963" s="25"/>
       <c r="E963">
-        <v>30.25</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="G963">
         <v>0</v>
       </c>
+      <c r="H963" s="21"/>
       <c r="I963">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A964" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B964" s="11">
         <v>34345</v>
@@ -46250,18 +46290,19 @@
       </c>
       <c r="D964" s="25"/>
       <c r="E964">
-        <v>52.82</v>
+        <v>5.282</v>
       </c>
       <c r="G964">
         <v>0</v>
       </c>
+      <c r="H964" s="21"/>
       <c r="I964">
         <v>5.9499999999999997E-2</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A965" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B965" s="11">
         <v>34352</v>
@@ -46271,18 +46312,19 @@
       </c>
       <c r="D965" s="25"/>
       <c r="E965">
-        <v>86.42</v>
+        <v>8.6419999999999995</v>
       </c>
       <c r="G965">
         <v>0</v>
       </c>
+      <c r="H965" s="21"/>
       <c r="I965">
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A966" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B966" s="11">
         <v>34359</v>
@@ -46292,18 +46334,19 @@
       </c>
       <c r="D966" s="25"/>
       <c r="E966">
-        <v>141.80000000000001</v>
+        <v>14.180000000000001</v>
       </c>
       <c r="G966">
         <v>0</v>
       </c>
+      <c r="H966" s="21"/>
       <c r="I966">
         <v>0.19170000000000001</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A967" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B967" s="11">
         <v>34366</v>
@@ -46313,18 +46356,19 @@
       </c>
       <c r="D967" s="25"/>
       <c r="E967">
-        <v>258.10000000000002</v>
+        <v>25.810000000000002</v>
       </c>
       <c r="G967">
         <v>0</v>
       </c>
+      <c r="H967" s="21"/>
       <c r="I967">
         <v>0.30669999999999997</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A968" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B968" s="11">
         <v>34373</v>
@@ -46334,18 +46378,19 @@
       </c>
       <c r="D968" s="25"/>
       <c r="E968">
-        <v>352.9</v>
+        <v>35.29</v>
       </c>
       <c r="G968">
         <v>0</v>
       </c>
+      <c r="H968" s="21"/>
       <c r="I968">
         <v>0.59819999999999995</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A969" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B969" s="11">
         <v>34380</v>
@@ -46355,18 +46400,19 @@
       </c>
       <c r="D969" s="25"/>
       <c r="E969">
-        <v>629.6</v>
+        <v>62.96</v>
       </c>
       <c r="G969">
         <v>0</v>
       </c>
+      <c r="H969" s="21"/>
       <c r="I969">
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A970" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B970" s="11">
         <v>34387</v>
@@ -46376,18 +46422,19 @@
       </c>
       <c r="D970" s="25"/>
       <c r="E970">
-        <v>1150</v>
+        <v>115</v>
       </c>
       <c r="G970">
         <v>0</v>
       </c>
+      <c r="H970" s="21"/>
       <c r="I970">
         <v>1.927</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A971" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B971" s="11">
         <v>34394</v>
@@ -46397,18 +46444,19 @@
       </c>
       <c r="D971" s="25"/>
       <c r="E971">
-        <v>1951</v>
+        <v>195.1</v>
       </c>
       <c r="G971">
         <v>0</v>
       </c>
+      <c r="H971" s="21"/>
       <c r="I971">
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A972" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B972" s="11">
         <v>34401</v>
@@ -46418,18 +46466,19 @@
       </c>
       <c r="D972" s="25"/>
       <c r="E972">
-        <v>2893</v>
+        <v>289.3</v>
       </c>
       <c r="G972">
         <v>0</v>
       </c>
+      <c r="H972" s="21"/>
       <c r="I972">
         <v>4.1159999999999997</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A973" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B973" s="11">
         <v>34408</v>
@@ -46439,18 +46488,19 @@
       </c>
       <c r="D973" s="25"/>
       <c r="E973">
-        <v>3480</v>
+        <v>348</v>
       </c>
       <c r="G973">
         <v>0</v>
       </c>
+      <c r="H973" s="21"/>
       <c r="I973">
         <v>4.0069999999999997</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A974" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B974" s="11">
         <v>34415</v>
@@ -46460,18 +46510,19 @@
       </c>
       <c r="D974" s="25"/>
       <c r="E974">
-        <v>4461</v>
+        <v>446.1</v>
       </c>
       <c r="G974">
         <v>0</v>
       </c>
+      <c r="H974" s="21"/>
       <c r="I974">
         <v>4.0830000000000002</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A975" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B975" s="11">
         <v>34422</v>
@@ -46481,18 +46532,19 @@
       </c>
       <c r="D975" s="25"/>
       <c r="E975">
-        <v>5297</v>
+        <v>529.70000000000005</v>
       </c>
       <c r="G975">
         <v>0</v>
       </c>
+      <c r="H975" s="21"/>
       <c r="I975">
         <v>3.9209999999999998</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A976" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B976" s="11">
         <v>34429</v>
@@ -46502,18 +46554,19 @@
       </c>
       <c r="D976" s="25"/>
       <c r="E976">
-        <v>7319</v>
+        <v>731.9</v>
       </c>
       <c r="G976">
-        <v>99.07</v>
-      </c>
+        <v>9.907</v>
+      </c>
+      <c r="H976" s="21"/>
       <c r="I976">
         <v>3.649</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A977" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B977" s="11">
         <v>34436</v>
@@ -46523,18 +46576,19 @@
       </c>
       <c r="D977" s="25"/>
       <c r="E977">
-        <v>9820</v>
+        <v>982</v>
       </c>
       <c r="G977">
-        <v>540.9</v>
-      </c>
+        <v>54.089999999999996</v>
+      </c>
+      <c r="H977" s="21"/>
       <c r="I977">
         <v>3.524</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A978" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B978" s="11">
         <v>34444</v>
@@ -46544,18 +46598,19 @@
       </c>
       <c r="D978" s="25"/>
       <c r="E978">
-        <v>10719</v>
+        <v>1071.9000000000001</v>
       </c>
       <c r="G978">
-        <v>2018</v>
-      </c>
+        <v>201.8</v>
+      </c>
+      <c r="H978" s="21"/>
       <c r="I978">
         <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A979" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B979" s="11">
         <v>34450</v>
@@ -46565,18 +46620,19 @@
       </c>
       <c r="D979" s="25"/>
       <c r="E979">
-        <v>11294</v>
+        <v>1129.4000000000001</v>
       </c>
       <c r="G979">
-        <v>3292</v>
-      </c>
+        <v>329.2</v>
+      </c>
+      <c r="H979" s="21"/>
       <c r="I979">
         <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A980" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B980" s="11">
         <v>34458</v>
@@ -46586,18 +46642,19 @@
       </c>
       <c r="D980" s="25"/>
       <c r="E980">
-        <v>13232</v>
+        <v>1323.2</v>
       </c>
       <c r="G980">
-        <v>5205</v>
-      </c>
+        <v>520.5</v>
+      </c>
+      <c r="H980" s="21"/>
       <c r="I980">
         <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A981" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B981" s="11">
         <v>34465</v>
@@ -46607,18 +46664,19 @@
       </c>
       <c r="D981" s="25"/>
       <c r="E981">
-        <v>13343</v>
+        <v>1334.3</v>
       </c>
       <c r="G981">
-        <v>5956</v>
-      </c>
+        <v>595.6</v>
+      </c>
+      <c r="H981" s="21"/>
       <c r="I981">
         <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A982" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B982" s="11">
         <v>34472</v>
@@ -46628,18 +46686,19 @@
       </c>
       <c r="D982" s="25"/>
       <c r="E982">
-        <v>13631</v>
+        <v>1363.1</v>
       </c>
       <c r="G982">
-        <v>6155</v>
-      </c>
+        <v>615.5</v>
+      </c>
+      <c r="H982" s="21"/>
       <c r="I982">
         <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A983" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B983" s="11">
         <v>34479</v>
@@ -46647,20 +46706,23 @@
       <c r="C983">
         <v>92.72</v>
       </c>
-      <c r="D983" s="25"/>
+      <c r="D983" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E983">
-        <v>13857</v>
+        <v>1385.7</v>
       </c>
       <c r="G983">
-        <v>6190</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="H983" s="21"/>
       <c r="I983">
         <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A984" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B984" s="11">
         <v>34338</v>
@@ -46670,18 +46732,19 @@
       </c>
       <c r="D984" s="25"/>
       <c r="E984">
-        <v>28.34</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="G984">
         <v>0</v>
       </c>
+      <c r="H984" s="21"/>
       <c r="I984">
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A985" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B985" s="11">
         <v>34345</v>
@@ -46691,18 +46754,19 @@
       </c>
       <c r="D985" s="25"/>
       <c r="E985">
-        <v>58.11</v>
+        <v>5.8109999999999999</v>
       </c>
       <c r="G985">
         <v>0</v>
       </c>
+      <c r="H985" s="21"/>
       <c r="I985">
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A986" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B986" s="11">
         <v>34352</v>
@@ -46712,18 +46776,19 @@
       </c>
       <c r="D986" s="25"/>
       <c r="E986">
-        <v>100.5</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="G986">
         <v>0</v>
       </c>
+      <c r="H986" s="21"/>
       <c r="I986">
         <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A987" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B987" s="11">
         <v>34359</v>
@@ -46733,18 +46798,19 @@
       </c>
       <c r="D987" s="25"/>
       <c r="E987">
-        <v>173</v>
+        <v>17.3</v>
       </c>
       <c r="G987">
         <v>0</v>
       </c>
+      <c r="H987" s="21"/>
       <c r="I987">
         <v>0.22470000000000001</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A988" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B988" s="11">
         <v>34366</v>
@@ -46754,18 +46820,19 @@
       </c>
       <c r="D988" s="25"/>
       <c r="E988">
-        <v>332.7</v>
+        <v>33.269999999999996</v>
       </c>
       <c r="G988">
         <v>0</v>
       </c>
+      <c r="H988" s="21"/>
       <c r="I988">
         <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A989" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B989" s="11">
         <v>34373</v>
@@ -46775,18 +46842,19 @@
       </c>
       <c r="D989" s="25"/>
       <c r="E989">
-        <v>469</v>
+        <v>46.9</v>
       </c>
       <c r="G989">
         <v>0</v>
       </c>
+      <c r="H989" s="21"/>
       <c r="I989">
         <v>0.79520000000000002</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A990" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B990" s="11">
         <v>34380</v>
@@ -46796,18 +46864,19 @@
       </c>
       <c r="D990" s="25"/>
       <c r="E990">
-        <v>928.3</v>
+        <v>92.83</v>
       </c>
       <c r="G990">
         <v>0</v>
       </c>
+      <c r="H990" s="21"/>
       <c r="I990">
         <v>1.45</v>
       </c>
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A991" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B991" s="11">
         <v>34387</v>
@@ -46817,18 +46886,19 @@
       </c>
       <c r="D991" s="25"/>
       <c r="E991">
-        <v>1564</v>
+        <v>156.4</v>
       </c>
       <c r="G991">
         <v>0</v>
       </c>
+      <c r="H991" s="21"/>
       <c r="I991">
         <v>2.423</v>
       </c>
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A992" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B992" s="11">
         <v>34394</v>
@@ -46838,18 +46908,19 @@
       </c>
       <c r="D992" s="25"/>
       <c r="E992">
-        <v>2653</v>
+        <v>265.3</v>
       </c>
       <c r="G992">
         <v>0</v>
       </c>
+      <c r="H992" s="21"/>
       <c r="I992">
         <v>3.9409999999999998</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A993" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B993" s="11">
         <v>34401</v>
@@ -46859,18 +46930,19 @@
       </c>
       <c r="D993" s="25"/>
       <c r="E993">
-        <v>3703</v>
+        <v>370.3</v>
       </c>
       <c r="G993">
         <v>0</v>
       </c>
+      <c r="H993" s="21"/>
       <c r="I993">
         <v>5.1539999999999999</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A994" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B994" s="11">
         <v>34408</v>
@@ -46880,18 +46952,19 @@
       </c>
       <c r="D994" s="25"/>
       <c r="E994">
-        <v>4731</v>
+        <v>473.1</v>
       </c>
       <c r="G994">
         <v>0</v>
       </c>
+      <c r="H994" s="21"/>
       <c r="I994">
         <v>5.1349999999999998</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A995" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B995" s="11">
         <v>34415</v>
@@ -46901,18 +46974,19 @@
       </c>
       <c r="D995" s="25"/>
       <c r="E995">
-        <v>6398</v>
+        <v>639.79999999999995</v>
       </c>
       <c r="G995">
         <v>0</v>
       </c>
+      <c r="H995" s="21"/>
       <c r="I995">
         <v>4.6539999999999999</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A996" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B996" s="11">
         <v>34422</v>
@@ -46922,18 +46996,19 @@
       </c>
       <c r="D996" s="25"/>
       <c r="E996">
-        <v>8252</v>
+        <v>825.2</v>
       </c>
       <c r="G996">
         <v>0</v>
       </c>
+      <c r="H996" s="21"/>
       <c r="I996">
         <v>4.9169999999999998</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A997" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B997" s="11">
         <v>34429</v>
@@ -46943,18 +47018,19 @@
       </c>
       <c r="D997" s="25"/>
       <c r="E997">
-        <v>9294</v>
+        <v>929.4</v>
       </c>
       <c r="G997">
-        <v>320.7</v>
-      </c>
+        <v>32.07</v>
+      </c>
+      <c r="H997" s="21"/>
       <c r="I997">
         <v>3.9180000000000001</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A998" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B998" s="11">
         <v>34436</v>
@@ -46964,18 +47040,19 @@
       </c>
       <c r="D998" s="25"/>
       <c r="E998">
-        <v>10694</v>
+        <v>1069.4000000000001</v>
       </c>
       <c r="G998">
-        <v>1092</v>
-      </c>
+        <v>109.2</v>
+      </c>
+      <c r="H998" s="21"/>
       <c r="I998">
         <v>3.3010000000000002</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A999" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B999" s="11">
         <v>34444</v>
@@ -46985,18 +47062,19 @@
       </c>
       <c r="D999" s="25"/>
       <c r="E999">
-        <v>13398</v>
+        <v>1339.8</v>
       </c>
       <c r="G999">
-        <v>3402</v>
-      </c>
+        <v>340.2</v>
+      </c>
+      <c r="H999" s="21"/>
       <c r="I999">
         <v>2.5489999999999999</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1000" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1000" s="11">
         <v>34450</v>
@@ -47006,18 +47084,19 @@
       </c>
       <c r="D1000" s="25"/>
       <c r="E1000">
-        <v>13837</v>
+        <v>1383.7</v>
       </c>
       <c r="G1000">
-        <v>5108</v>
-      </c>
+        <v>510.8</v>
+      </c>
+      <c r="H1000" s="21"/>
       <c r="I1000">
         <v>1.637</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1001" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1001" s="11">
         <v>34458</v>
@@ -47027,18 +47106,19 @@
       </c>
       <c r="D1001" s="25"/>
       <c r="E1001">
-        <v>14871</v>
+        <v>1487.1</v>
       </c>
       <c r="G1001">
-        <v>6701</v>
-      </c>
+        <v>670.1</v>
+      </c>
+      <c r="H1001" s="21"/>
       <c r="I1001">
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1002" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1002" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1002" s="11">
         <v>34465</v>
@@ -47048,18 +47128,19 @@
       </c>
       <c r="D1002" s="25"/>
       <c r="E1002">
-        <v>15791</v>
+        <v>1579.1</v>
       </c>
       <c r="G1002">
-        <v>7203</v>
-      </c>
+        <v>720.3</v>
+      </c>
+      <c r="H1002" s="21"/>
       <c r="I1002">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1003" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1003" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1003" s="11">
         <v>34472</v>
@@ -47069,18 +47150,19 @@
       </c>
       <c r="D1003" s="25"/>
       <c r="E1003">
-        <v>16505</v>
+        <v>1650.5</v>
       </c>
       <c r="G1003">
-        <v>7944</v>
-      </c>
+        <v>794.4</v>
+      </c>
+      <c r="H1003" s="21"/>
       <c r="I1003">
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1004" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1004" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1004" s="11">
         <v>34479</v>
@@ -47088,20 +47170,30 @@
       <c r="C1004">
         <v>92.9</v>
       </c>
-      <c r="D1004" s="25"/>
+      <c r="D1004" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E1004">
-        <v>15830</v>
+        <v>1583</v>
       </c>
       <c r="G1004">
-        <v>7414</v>
-      </c>
+        <v>741.4</v>
+      </c>
+      <c r="H1004" s="21"/>
       <c r="I1004">
         <v>0</v>
       </c>
-    </row>
-    <row r="1005" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG1004">
+        <f>G1004/AH1004*1000</f>
+        <v>16380.910296067168</v>
+      </c>
+      <c r="AH1004">
+        <v>45.26</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1005" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1005" s="11">
         <v>34338</v>
@@ -47111,18 +47203,19 @@
       </c>
       <c r="D1005" s="25"/>
       <c r="E1005">
-        <v>25.12</v>
+        <v>2.512</v>
       </c>
       <c r="G1005">
         <v>0</v>
       </c>
+      <c r="H1005" s="21"/>
       <c r="I1005">
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1006" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1006" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1006" s="11">
         <v>34345</v>
@@ -47132,18 +47225,19 @@
       </c>
       <c r="D1006" s="25"/>
       <c r="E1006">
-        <v>48.44</v>
+        <v>4.8439999999999994</v>
       </c>
       <c r="G1006">
         <v>0</v>
       </c>
+      <c r="H1006" s="21"/>
       <c r="I1006">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1007" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1007" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1007" s="11">
         <v>34352</v>
@@ -47153,18 +47247,19 @@
       </c>
       <c r="D1007" s="25"/>
       <c r="E1007">
-        <v>87.12</v>
+        <v>8.7119999999999997</v>
       </c>
       <c r="G1007">
         <v>0</v>
       </c>
+      <c r="H1007" s="21"/>
       <c r="I1007">
         <v>9.7699999999999995E-2</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1008" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1008" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1008" s="11">
         <v>34359</v>
@@ -47174,18 +47269,19 @@
       </c>
       <c r="D1008" s="25"/>
       <c r="E1008">
-        <v>137</v>
+        <v>13.7</v>
       </c>
       <c r="G1008">
         <v>0</v>
       </c>
+      <c r="H1008" s="21"/>
       <c r="I1008">
         <v>0.1837</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1009" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1009" s="11">
         <v>34366</v>
@@ -47195,18 +47291,19 @@
       </c>
       <c r="D1009" s="25"/>
       <c r="E1009">
-        <v>266.2</v>
+        <v>26.619999999999997</v>
       </c>
       <c r="G1009">
         <v>0</v>
       </c>
+      <c r="H1009" s="21"/>
       <c r="I1009">
         <v>0.33250000000000002</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1010" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1010" s="11">
         <v>34373</v>
@@ -47216,18 +47313,19 @@
       </c>
       <c r="D1010" s="25"/>
       <c r="E1010">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="G1010">
         <v>0</v>
       </c>
+      <c r="H1010" s="21"/>
       <c r="I1010">
         <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1011" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1011" s="11">
         <v>34380</v>
@@ -47237,18 +47335,19 @@
       </c>
       <c r="D1011" s="25"/>
       <c r="E1011">
-        <v>700.7</v>
+        <v>70.070000000000007</v>
       </c>
       <c r="G1011">
         <v>0</v>
       </c>
+      <c r="H1011" s="21"/>
       <c r="I1011">
         <v>1.147</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1012" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1012" s="11">
         <v>34387</v>
@@ -47258,18 +47357,19 @@
       </c>
       <c r="D1012" s="25"/>
       <c r="E1012">
-        <v>1370</v>
+        <v>137</v>
       </c>
       <c r="G1012">
         <v>0</v>
       </c>
+      <c r="H1012" s="21"/>
       <c r="I1012">
         <v>2.246</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1013" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1013" s="11">
         <v>34394</v>
@@ -47279,18 +47379,19 @@
       </c>
       <c r="D1013" s="25"/>
       <c r="E1013">
-        <v>2185</v>
+        <v>218.5</v>
       </c>
       <c r="G1013">
         <v>0</v>
       </c>
+      <c r="H1013" s="21"/>
       <c r="I1013">
         <v>3.419</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1014" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1014" s="11">
         <v>34401</v>
@@ -47300,18 +47401,19 @@
       </c>
       <c r="D1014" s="25"/>
       <c r="E1014">
-        <v>3397</v>
+        <v>339.7</v>
       </c>
       <c r="G1014">
         <v>0</v>
       </c>
+      <c r="H1014" s="21"/>
       <c r="I1014">
         <v>5.3369999999999997</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1015" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1015" s="11">
         <v>34408</v>
@@ -47321,18 +47423,19 @@
       </c>
       <c r="D1015" s="25"/>
       <c r="E1015">
-        <v>4351</v>
+        <v>435.1</v>
       </c>
       <c r="G1015">
         <v>0</v>
       </c>
+      <c r="H1015" s="21"/>
       <c r="I1015">
         <v>6.3929999999999998</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1016" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1016" s="11">
         <v>34415</v>
@@ -47342,18 +47445,19 @@
       </c>
       <c r="D1016" s="25"/>
       <c r="E1016">
-        <v>5295</v>
+        <v>529.5</v>
       </c>
       <c r="G1016">
         <v>0</v>
       </c>
+      <c r="H1016" s="21"/>
       <c r="I1016">
         <v>6.6550000000000002</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1017" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1017" s="11">
         <v>34422</v>
@@ -47363,18 +47467,19 @@
       </c>
       <c r="D1017" s="25"/>
       <c r="E1017">
-        <v>7320</v>
+        <v>732</v>
       </c>
       <c r="G1017">
         <v>0</v>
       </c>
+      <c r="H1017" s="21"/>
       <c r="I1017">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1018" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1018" s="11">
         <v>34429</v>
@@ -47384,18 +47489,19 @@
       </c>
       <c r="D1018" s="25"/>
       <c r="E1018">
-        <v>7823</v>
+        <v>782.3</v>
       </c>
       <c r="G1018">
-        <v>26.18</v>
-      </c>
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="H1018" s="21"/>
       <c r="I1018">
         <v>5.9459999999999997</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1019" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1019" s="11">
         <v>34436</v>
@@ -47405,18 +47511,19 @@
       </c>
       <c r="D1019" s="25"/>
       <c r="E1019">
-        <v>9784</v>
+        <v>978.4</v>
       </c>
       <c r="G1019">
-        <v>226.8</v>
-      </c>
+        <v>22.68</v>
+      </c>
+      <c r="H1019" s="21"/>
       <c r="I1019">
         <v>5.569</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1020" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1020" s="11">
         <v>34444</v>
@@ -47426,18 +47533,19 @@
       </c>
       <c r="D1020" s="25"/>
       <c r="E1020">
-        <v>13376</v>
+        <v>1337.6</v>
       </c>
       <c r="G1020">
-        <v>1275</v>
-      </c>
+        <v>127.5</v>
+      </c>
+      <c r="H1020" s="21"/>
       <c r="I1020">
         <v>6.36</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1021" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1021" s="11">
         <v>34450</v>
@@ -47447,18 +47555,19 @@
       </c>
       <c r="D1021" s="25"/>
       <c r="E1021">
-        <v>14378</v>
+        <v>1437.8</v>
       </c>
       <c r="G1021">
-        <v>2946</v>
-      </c>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="H1021" s="21"/>
       <c r="I1021">
         <v>5.3609999999999998</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1022" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1022" s="11">
         <v>34458</v>
@@ -47468,18 +47577,19 @@
       </c>
       <c r="D1022" s="25"/>
       <c r="E1022">
-        <v>15032</v>
+        <v>1503.2</v>
       </c>
       <c r="G1022">
-        <v>4550</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="H1022" s="21"/>
       <c r="I1022">
         <v>4.1239999999999997</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1023" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1023" s="11">
         <v>34465</v>
@@ -47489,18 +47599,19 @@
       </c>
       <c r="D1023" s="25"/>
       <c r="E1023">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="G1023">
-        <v>6476</v>
-      </c>
+        <v>647.6</v>
+      </c>
+      <c r="H1023" s="21"/>
       <c r="I1023">
         <v>3.056</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1024" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1024" s="11">
         <v>34472</v>
@@ -47510,18 +47621,19 @@
       </c>
       <c r="D1024" s="25"/>
       <c r="E1024">
-        <v>18475</v>
+        <v>1847.5</v>
       </c>
       <c r="G1024">
-        <v>7624</v>
-      </c>
+        <v>762.4</v>
+      </c>
+      <c r="H1024" s="21"/>
       <c r="I1024">
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1025" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1025" s="11">
         <v>34479</v>
@@ -47531,18 +47643,19 @@
       </c>
       <c r="D1025" s="25"/>
       <c r="E1025">
-        <v>19212</v>
+        <v>1921.2</v>
       </c>
       <c r="G1025">
-        <v>8293</v>
-      </c>
+        <v>829.3</v>
+      </c>
+      <c r="H1025" s="21"/>
       <c r="I1025">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1026" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1026" s="11">
         <v>34485</v>
@@ -47550,20 +47663,23 @@
       <c r="C1026">
         <v>92.97</v>
       </c>
-      <c r="D1026" s="25"/>
+      <c r="D1026" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E1026">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="G1026">
-        <v>7681</v>
-      </c>
+        <v>768.1</v>
+      </c>
+      <c r="H1026" s="21"/>
       <c r="I1026">
         <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1027" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1027" s="11">
         <v>34338</v>
@@ -47573,18 +47689,19 @@
       </c>
       <c r="D1027" s="25"/>
       <c r="E1027">
-        <v>28.07</v>
+        <v>2.8069999999999999</v>
       </c>
       <c r="G1027">
         <v>0</v>
       </c>
+      <c r="H1027" s="21"/>
       <c r="I1027">
         <v>0.03</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1028" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1028" s="11">
         <v>34345</v>
@@ -47594,18 +47711,19 @@
       </c>
       <c r="D1028" s="25"/>
       <c r="E1028">
-        <v>58.47</v>
+        <v>5.8469999999999995</v>
       </c>
       <c r="G1028">
         <v>0</v>
       </c>
+      <c r="H1028" s="21"/>
       <c r="I1028">
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1029" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1029" s="11">
         <v>34352</v>
@@ -47615,18 +47733,19 @@
       </c>
       <c r="D1029" s="25"/>
       <c r="E1029">
-        <v>94.7</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="G1029">
         <v>0</v>
       </c>
+      <c r="H1029" s="21"/>
       <c r="I1029">
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1030" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1030" s="11">
         <v>34359</v>
@@ -47636,18 +47755,19 @@
       </c>
       <c r="D1030" s="25"/>
       <c r="E1030">
-        <v>181.7</v>
+        <v>18.169999999999998</v>
       </c>
       <c r="G1030">
         <v>0</v>
       </c>
+      <c r="H1030" s="21"/>
       <c r="I1030">
         <v>0.23949999999999999</v>
       </c>
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1031" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1031" s="11">
         <v>34366</v>
@@ -47657,18 +47777,19 @@
       </c>
       <c r="D1031" s="25"/>
       <c r="E1031">
-        <v>280.3</v>
+        <v>28.03</v>
       </c>
       <c r="G1031">
         <v>0</v>
       </c>
+      <c r="H1031" s="21"/>
       <c r="I1031">
         <v>0.35020000000000001</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1032" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1032" s="11">
         <v>34373</v>
@@ -47678,18 +47799,19 @@
       </c>
       <c r="D1032" s="25"/>
       <c r="E1032">
-        <v>470.7</v>
+        <v>47.07</v>
       </c>
       <c r="G1032">
         <v>0</v>
       </c>
+      <c r="H1032" s="21"/>
       <c r="I1032">
         <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1033" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1033" s="11">
         <v>34380</v>
@@ -47699,18 +47821,19 @@
       </c>
       <c r="D1033" s="25"/>
       <c r="E1033">
-        <v>1067</v>
+        <v>106.7</v>
       </c>
       <c r="G1033">
         <v>0</v>
       </c>
+      <c r="H1033" s="21"/>
       <c r="I1033">
         <v>1.6919999999999999</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1034" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1034" s="11">
         <v>34387</v>
@@ -47720,18 +47843,19 @@
       </c>
       <c r="D1034" s="25"/>
       <c r="E1034">
-        <v>1731</v>
+        <v>173.1</v>
       </c>
       <c r="G1034">
         <v>0</v>
       </c>
+      <c r="H1034" s="21"/>
       <c r="I1034">
         <v>2.7240000000000002</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1035" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1035" s="11">
         <v>34394</v>
@@ -47741,18 +47865,19 @@
       </c>
       <c r="D1035" s="25"/>
       <c r="E1035">
-        <v>2569</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="G1035">
         <v>0</v>
       </c>
+      <c r="H1035" s="21"/>
       <c r="I1035">
         <v>3.9039999999999999</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1036" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1036" s="11">
         <v>34401</v>
@@ -47762,18 +47887,19 @@
       </c>
       <c r="D1036" s="25"/>
       <c r="E1036">
-        <v>3685</v>
+        <v>368.5</v>
       </c>
       <c r="G1036">
         <v>0</v>
       </c>
+      <c r="H1036" s="21"/>
       <c r="I1036">
         <v>5.7050000000000001</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1037" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1037" s="11">
         <v>34408</v>
@@ -47783,18 +47909,19 @@
       </c>
       <c r="D1037" s="25"/>
       <c r="E1037">
-        <v>5046</v>
+        <v>504.6</v>
       </c>
       <c r="G1037">
         <v>0</v>
       </c>
+      <c r="H1037" s="21"/>
       <c r="I1037">
         <v>6.7759999999999998</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1038" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1038" s="11">
         <v>34415</v>
@@ -47804,18 +47931,19 @@
       </c>
       <c r="D1038" s="25"/>
       <c r="E1038">
-        <v>6147</v>
+        <v>614.70000000000005</v>
       </c>
       <c r="G1038">
         <v>0</v>
       </c>
+      <c r="H1038" s="21"/>
       <c r="I1038">
         <v>5.8250000000000002</v>
       </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1039" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1039" s="11">
         <v>34422</v>
@@ -47825,18 +47953,19 @@
       </c>
       <c r="D1039" s="25"/>
       <c r="E1039">
-        <v>8459</v>
+        <v>845.9</v>
       </c>
       <c r="G1039">
         <v>0</v>
       </c>
+      <c r="H1039" s="21"/>
       <c r="I1039">
         <v>6.8819999999999997</v>
       </c>
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1040" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1040" s="11">
         <v>34429</v>
@@ -47846,18 +47975,19 @@
       </c>
       <c r="D1040" s="25"/>
       <c r="E1040">
-        <v>10858</v>
+        <v>1085.8</v>
       </c>
       <c r="G1040">
-        <v>136.4</v>
-      </c>
+        <v>13.64</v>
+      </c>
+      <c r="H1040" s="21"/>
       <c r="I1040">
         <v>6.45</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1041" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1041" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1041" s="11">
         <v>34436</v>
@@ -47867,18 +47997,19 @@
       </c>
       <c r="D1041" s="25"/>
       <c r="E1041">
-        <v>12083</v>
+        <v>1208.3</v>
       </c>
       <c r="G1041">
-        <v>681.1</v>
-      </c>
+        <v>68.11</v>
+      </c>
+      <c r="H1041" s="21"/>
       <c r="I1041">
         <v>5.1989999999999998</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1042" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1042" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1042" s="11">
         <v>34444</v>
@@ -47888,18 +48019,19 @@
       </c>
       <c r="D1042" s="25"/>
       <c r="E1042">
-        <v>14272</v>
+        <v>1427.2</v>
       </c>
       <c r="G1042">
-        <v>2414</v>
-      </c>
+        <v>241.4</v>
+      </c>
+      <c r="H1042" s="21"/>
       <c r="I1042">
         <v>5.3159999999999998</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1043" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1043" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1043" s="11">
         <v>34450</v>
@@ -47909,18 +48041,19 @@
       </c>
       <c r="D1043" s="25"/>
       <c r="E1043">
-        <v>17055</v>
+        <v>1705.5</v>
       </c>
       <c r="G1043">
-        <v>4622</v>
-      </c>
+        <v>462.2</v>
+      </c>
+      <c r="H1043" s="21"/>
       <c r="I1043">
         <v>5.1109999999999998</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1044" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1044" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1044" s="11">
         <v>34458</v>
@@ -47930,18 +48063,19 @@
       </c>
       <c r="D1044" s="25"/>
       <c r="E1044">
-        <v>19902</v>
+        <v>1990.2</v>
       </c>
       <c r="G1044">
-        <v>7378</v>
-      </c>
+        <v>737.8</v>
+      </c>
+      <c r="H1044" s="21"/>
       <c r="I1044">
         <v>3.5390000000000001</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1045" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1045" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1045" s="11">
         <v>34465</v>
@@ -47951,18 +48085,19 @@
       </c>
       <c r="D1045" s="25"/>
       <c r="E1045">
-        <v>21879</v>
+        <v>2187.9</v>
       </c>
       <c r="G1045">
-        <v>9100</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="H1045" s="21"/>
       <c r="I1045">
         <v>1.581</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1046" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1046" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1046" s="11">
         <v>34472</v>
@@ -47972,18 +48107,19 @@
       </c>
       <c r="D1046" s="25"/>
       <c r="E1046">
-        <v>20099</v>
+        <v>2009.9</v>
       </c>
       <c r="G1046">
-        <v>8583</v>
-      </c>
+        <v>858.3</v>
+      </c>
+      <c r="H1046" s="21"/>
       <c r="I1046">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1047" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1047" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1047" s="11">
         <v>34479</v>
@@ -47993,18 +48129,19 @@
       </c>
       <c r="D1047" s="25"/>
       <c r="E1047">
-        <v>19328</v>
+        <v>1932.8</v>
       </c>
       <c r="G1047">
-        <v>8487</v>
-      </c>
+        <v>848.7</v>
+      </c>
+      <c r="H1047" s="21"/>
       <c r="I1047">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1048" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1048" s="11">
         <v>34485</v>
@@ -48012,33 +48149,43 @@
       <c r="C1048">
         <v>93</v>
       </c>
-      <c r="D1048" s="25"/>
+      <c r="D1048" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E1048">
-        <v>19276</v>
+        <v>1927.6</v>
       </c>
       <c r="G1048">
-        <v>8604</v>
-      </c>
+        <v>860.4</v>
+      </c>
+      <c r="H1048" s="21"/>
       <c r="I1048">
         <v>0</v>
       </c>
-    </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG1048">
+        <f>G1048/AH1048*1000</f>
+        <v>19958.246346555323</v>
+      </c>
+      <c r="AH1048">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1049" s="25"/>
     </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1050" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1050" s="25"/>
     </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1051" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1051" s="25"/>
     </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1052" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1052" s="25"/>
     </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1053" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1053" s="25"/>
     </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1054" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D1054" s="25"/>
     </row>
   </sheetData>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862"/>
+    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="358">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1095,6 +1095,15 @@
   <si>
     <t>ArizonaFACE93CO2HighIrrWet</t>
   </si>
+  <si>
+    <t>Lonzee04</t>
+  </si>
+  <si>
+    <t>Lonzee06</t>
+  </si>
+  <si>
+    <t>Lonzee08</t>
+  </si>
 </sst>
 </file>
 
@@ -2108,11 +2117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1029" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1049" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1048" sqref="D1048"/>
+      <selection pane="bottomRight" activeCell="A1052" sqref="A1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2148,6 +2157,7 @@
     <col min="34" max="34" width="27.26171875" customWidth="1"/>
     <col min="35" max="35" width="23.41796875" customWidth="1"/>
     <col min="37" max="37" width="30.41796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.3671875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.1015625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.9453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -47985,7 +47995,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="1041" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1041" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1041" s="25" t="s">
         <v>354</v>
       </c>
@@ -48007,7 +48017,7 @@
         <v>5.1989999999999998</v>
       </c>
     </row>
-    <row r="1042" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1042" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1042" s="25" t="s">
         <v>354</v>
       </c>
@@ -48029,7 +48039,7 @@
         <v>5.3159999999999998</v>
       </c>
     </row>
-    <row r="1043" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1043" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1043" s="25" t="s">
         <v>354</v>
       </c>
@@ -48051,7 +48061,7 @@
         <v>5.1109999999999998</v>
       </c>
     </row>
-    <row r="1044" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1044" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1044" s="25" t="s">
         <v>354</v>
       </c>
@@ -48073,7 +48083,7 @@
         <v>3.5390000000000001</v>
       </c>
     </row>
-    <row r="1045" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1045" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1045" s="25" t="s">
         <v>354</v>
       </c>
@@ -48095,7 +48105,7 @@
         <v>1.581</v>
       </c>
     </row>
-    <row r="1046" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1046" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1046" s="25" t="s">
         <v>354</v>
       </c>
@@ -48117,7 +48127,7 @@
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="1047" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1047" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1047" s="25" t="s">
         <v>354</v>
       </c>
@@ -48139,7 +48149,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="1048" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1048" s="25" t="s">
         <v>354</v>
       </c>
@@ -48170,22 +48180,55 @@
         <v>43.11</v>
       </c>
     </row>
-    <row r="1049" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1049" s="25"/>
-    </row>
-    <row r="1050" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1050" s="25"/>
-    </row>
-    <row r="1051" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1051" s="25"/>
-    </row>
-    <row r="1052" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1049" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1049" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1049">
+        <v>890</v>
+      </c>
+      <c r="AK1049">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1050" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1050">
+        <v>750</v>
+      </c>
+      <c r="AK1050">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1051" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1051">
+        <v>910</v>
+      </c>
+      <c r="AK1051">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="D1052" s="25"/>
     </row>
-    <row r="1053" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1053" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="D1053" s="25"/>
     </row>
-    <row r="1054" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1054" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="D1054" s="25"/>
     </row>
   </sheetData>
@@ -56197,10 +56240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -61232,6 +61275,317 @@
       <c r="C434">
         <v>90</v>
       </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" t="s">
+        <v>355</v>
+      </c>
+      <c r="B435" s="11">
+        <v>38274</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" t="s">
+        <v>355</v>
+      </c>
+      <c r="B436" s="11">
+        <v>38418</v>
+      </c>
+      <c r="C436">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" t="s">
+        <v>355</v>
+      </c>
+      <c r="B437" s="11">
+        <v>38454</v>
+      </c>
+      <c r="C437">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" t="s">
+        <v>355</v>
+      </c>
+      <c r="B438" s="11">
+        <v>38457</v>
+      </c>
+      <c r="C438">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" t="s">
+        <v>355</v>
+      </c>
+      <c r="B439" s="11">
+        <v>38492</v>
+      </c>
+      <c r="C439">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" t="s">
+        <v>355</v>
+      </c>
+      <c r="B440" s="11">
+        <v>38504</v>
+      </c>
+      <c r="C440">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" t="s">
+        <v>355</v>
+      </c>
+      <c r="B441" s="11">
+        <v>38517</v>
+      </c>
+      <c r="C441">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" t="s">
+        <v>355</v>
+      </c>
+      <c r="B442" s="11">
+        <v>38533</v>
+      </c>
+      <c r="C442">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" t="s">
+        <v>355</v>
+      </c>
+      <c r="B443" s="11">
+        <v>38548</v>
+      </c>
+      <c r="C443">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" t="s">
+        <v>355</v>
+      </c>
+      <c r="B444" s="11">
+        <v>38563</v>
+      </c>
+      <c r="C444">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" t="s">
+        <v>356</v>
+      </c>
+      <c r="B445" s="11">
+        <v>39003</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" t="s">
+        <v>356</v>
+      </c>
+      <c r="B446" s="11">
+        <v>39089</v>
+      </c>
+      <c r="C446">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" t="s">
+        <v>356</v>
+      </c>
+      <c r="B447" s="11">
+        <v>39167</v>
+      </c>
+      <c r="C447">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" t="s">
+        <v>356</v>
+      </c>
+      <c r="B448" s="11">
+        <v>39179</v>
+      </c>
+      <c r="C448">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" t="s">
+        <v>356</v>
+      </c>
+      <c r="B449" s="11">
+        <v>39212</v>
+      </c>
+      <c r="C449">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" t="s">
+        <v>356</v>
+      </c>
+      <c r="B450" s="11">
+        <v>39224</v>
+      </c>
+      <c r="C450">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" t="s">
+        <v>356</v>
+      </c>
+      <c r="B451" s="11">
+        <v>39234</v>
+      </c>
+      <c r="C451">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" t="s">
+        <v>356</v>
+      </c>
+      <c r="B452" s="11">
+        <v>39252</v>
+      </c>
+      <c r="C452">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" t="s">
+        <v>356</v>
+      </c>
+      <c r="B453" s="11">
+        <v>39263</v>
+      </c>
+      <c r="C453">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" t="s">
+        <v>357</v>
+      </c>
+      <c r="B454" s="11">
+        <v>39765</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" t="s">
+        <v>357</v>
+      </c>
+      <c r="B455" s="11">
+        <v>39798</v>
+      </c>
+      <c r="C455">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" t="s">
+        <v>357</v>
+      </c>
+      <c r="B456" s="11">
+        <v>39889</v>
+      </c>
+      <c r="C456">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" t="s">
+        <v>357</v>
+      </c>
+      <c r="B457" s="11">
+        <v>39927</v>
+      </c>
+      <c r="C457">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" t="s">
+        <v>357</v>
+      </c>
+      <c r="B458" s="11">
+        <v>39966</v>
+      </c>
+      <c r="C458">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" t="s">
+        <v>357</v>
+      </c>
+      <c r="B459" s="11">
+        <v>39975</v>
+      </c>
+      <c r="C459">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" t="s">
+        <v>357</v>
+      </c>
+      <c r="B460" s="11">
+        <v>39983</v>
+      </c>
+      <c r="C460">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" t="s">
+        <v>357</v>
+      </c>
+      <c r="B461" s="11">
+        <v>40001</v>
+      </c>
+      <c r="C461">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" t="s">
+        <v>357</v>
+      </c>
+      <c r="B462" s="11">
+        <v>40009</v>
+      </c>
+      <c r="C462">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B464" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="359">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1104,6 +1104,9 @@
   <si>
     <t>Lonzee08</t>
   </si>
+  <si>
+    <t>Gorgan05</t>
+  </si>
 </sst>
 </file>
 
@@ -2115,13 +2118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR1054"/>
+  <dimension ref="A1:AR1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1049" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R1049" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1052" sqref="A1052"/>
+      <selection pane="bottomRight" activeCell="R1052" sqref="R1052:R1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -48223,13 +48226,230 @@
       </c>
     </row>
     <row r="1052" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1052" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1052" s="11">
+        <v>38762.5167</v>
+      </c>
       <c r="D1052" s="25"/>
+      <c r="E1052">
+        <v>12.993</v>
+      </c>
+      <c r="I1052">
+        <v>0.29147000000000001</v>
+      </c>
+      <c r="R1052">
+        <v>0.40613500000000002</v>
+      </c>
     </row>
     <row r="1053" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1053" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1053" s="11">
+        <v>38772.504300000001</v>
+      </c>
       <c r="D1053" s="25"/>
+      <c r="E1053">
+        <v>29.234300000000001</v>
+      </c>
+      <c r="I1053">
+        <v>0.48391499999999998</v>
+      </c>
     </row>
     <row r="1054" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1054" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1054" s="11">
+        <v>38781.8531</v>
+      </c>
       <c r="D1054" s="25"/>
+      <c r="E1054">
+        <v>68.213499999999996</v>
+      </c>
+      <c r="I1054">
+        <v>0.94015000000000004</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1055" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1055" s="11">
+        <v>38793.4637</v>
+      </c>
+      <c r="E1055">
+        <v>139.67500000000001</v>
+      </c>
+      <c r="I1055">
+        <v>2.03186</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1056" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1056" s="11">
+        <v>38802.517</v>
+      </c>
+      <c r="E1056">
+        <v>292.34300000000002</v>
+      </c>
+      <c r="I1056">
+        <v>2.8837899999999999</v>
+      </c>
+      <c r="R1056">
+        <v>7.1623700000000001</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1057" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1057" s="11">
+        <v>38812.864000000001</v>
+      </c>
+      <c r="E1057">
+        <v>470.99799999999999</v>
+      </c>
+      <c r="I1057">
+        <v>3.96353</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1058" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1058" s="11">
+        <v>38822.945</v>
+      </c>
+      <c r="E1058">
+        <v>893.27099999999996</v>
+      </c>
+      <c r="I1058">
+        <v>4.2159300000000002</v>
+      </c>
+      <c r="R1058">
+        <v>14.680099999999999</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1059" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1059" s="11">
+        <v>38830.023000000001</v>
+      </c>
+      <c r="E1059">
+        <v>864.03700000000003</v>
+      </c>
+      <c r="I1059">
+        <v>4.4561700000000002</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1060" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1060" s="11">
+        <v>38837.478999999999</v>
+      </c>
+      <c r="E1060">
+        <v>1075.17</v>
+      </c>
+      <c r="G1060">
+        <v>16.241299999999999</v>
+      </c>
+      <c r="I1060">
+        <v>2.7059899999999999</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1061" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1061" s="11">
+        <v>38843.648000000001</v>
+      </c>
+      <c r="E1061">
+        <v>1289.56</v>
+      </c>
+      <c r="G1061">
+        <v>87.703000000000003</v>
+      </c>
+      <c r="I1061">
+        <v>1.2315700000000001</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1062" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1062" s="11">
+        <v>38851.353999999999</v>
+      </c>
+      <c r="E1062">
+        <v>1188.8599999999999</v>
+      </c>
+      <c r="G1062">
+        <v>198.14400000000001</v>
+      </c>
+      <c r="I1062">
+        <v>0.98021999999999998</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1063" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1063" s="11">
+        <v>38857.508999999998</v>
+      </c>
+      <c r="E1063">
+        <v>1344.78</v>
+      </c>
+      <c r="G1063">
+        <v>331.32299999999998</v>
+      </c>
+      <c r="I1063">
+        <v>0.29714800000000002</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1064" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1064" s="11">
+        <v>38865.525000000001</v>
+      </c>
+      <c r="E1064">
+        <v>1192.1099999999999</v>
+      </c>
+      <c r="G1064">
+        <v>500.23200000000003</v>
+      </c>
+      <c r="I1064">
+        <v>9.8136300000000003E-3</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1065" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1065" s="11">
+        <v>38871.985000000001</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1065">
+        <v>1270.07</v>
+      </c>
+      <c r="G1065">
+        <v>539.21100000000001</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:AP853">
@@ -56240,16 +56460,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -61584,8 +61805,47 @@
         <v>89</v>
       </c>
     </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C463" s="11"/>
+    </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B464" s="11"/>
+      <c r="C464" s="11"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C465" s="11"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C466" s="11"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C467" s="11"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C468" s="11"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C469" s="11"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C470" s="11"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C471" s="11"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C472" s="11"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C473" s="11"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C474" s="11"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C475" s="11"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C476" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862" activeTab="3"/>
+    <workbookView xWindow="1158" yWindow="18" windowWidth="12120" windowHeight="6468" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="359">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2118,19 +2118,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR1065"/>
+  <dimension ref="A1:AR1083"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R1049" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1060" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1052" sqref="R1052:R1058"/>
+      <selection pane="bottomRight" activeCell="B1084" sqref="B1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="49.578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.89453125" customWidth="1"/>
     <col min="3" max="3" width="24.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.15625" customWidth="1"/>
     <col min="5" max="5" width="28.578125" customWidth="1"/>
@@ -2161,6 +2161,7 @@
     <col min="35" max="35" width="23.41796875" customWidth="1"/>
     <col min="37" max="37" width="30.41796875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.3671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.47265625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.1015625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.9453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -47998,7 +47999,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="1041" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1041" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1041" s="25" t="s">
         <v>354</v>
       </c>
@@ -48020,7 +48021,7 @@
         <v>5.1989999999999998</v>
       </c>
     </row>
-    <row r="1042" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1042" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1042" s="25" t="s">
         <v>354</v>
       </c>
@@ -48042,7 +48043,7 @@
         <v>5.3159999999999998</v>
       </c>
     </row>
-    <row r="1043" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1043" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1043" s="25" t="s">
         <v>354</v>
       </c>
@@ -48064,7 +48065,7 @@
         <v>5.1109999999999998</v>
       </c>
     </row>
-    <row r="1044" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1044" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1044" s="25" t="s">
         <v>354</v>
       </c>
@@ -48086,7 +48087,7 @@
         <v>3.5390000000000001</v>
       </c>
     </row>
-    <row r="1045" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1045" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1045" s="25" t="s">
         <v>354</v>
       </c>
@@ -48108,7 +48109,7 @@
         <v>1.581</v>
       </c>
     </row>
-    <row r="1046" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1046" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1046" s="25" t="s">
         <v>354</v>
       </c>
@@ -48130,7 +48131,7 @@
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="1047" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1047" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1047" s="25" t="s">
         <v>354</v>
       </c>
@@ -48152,7 +48153,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="1048" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1048" s="25" t="s">
         <v>354</v>
       </c>
@@ -48183,272 +48184,683 @@
         <v>43.11</v>
       </c>
     </row>
-    <row r="1049" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1049" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1049" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1049">
-        <v>890</v>
-      </c>
-      <c r="AK1049">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1050" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1050" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1050">
-        <v>750</v>
-      </c>
-      <c r="AK1050">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1051" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1051" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1051">
-        <v>910</v>
-      </c>
-      <c r="AK1051">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1049" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1049" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1049" s="11">
+        <v>38762</v>
+      </c>
+      <c r="D1049" s="25"/>
+      <c r="E1049">
+        <v>12.993</v>
+      </c>
+      <c r="I1049">
+        <v>0.29147000000000001</v>
+      </c>
+      <c r="R1049">
+        <v>0.40613500000000002</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1050" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1050" s="11">
+        <v>38772</v>
+      </c>
+      <c r="D1050" s="25"/>
+      <c r="E1050">
+        <v>29.234300000000001</v>
+      </c>
+      <c r="I1050">
+        <v>0.48391499999999998</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1051" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1051" s="11">
+        <v>38781</v>
+      </c>
+      <c r="D1051" s="25"/>
+      <c r="E1051">
+        <v>68.213499999999996</v>
+      </c>
+      <c r="I1051">
+        <v>0.94015000000000004</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1052" t="s">
         <v>358</v>
       </c>
       <c r="B1052" s="11">
-        <v>38762.5167</v>
-      </c>
-      <c r="D1052" s="25"/>
+        <v>38793</v>
+      </c>
       <c r="E1052">
-        <v>12.993</v>
+        <v>139.67500000000001</v>
       </c>
       <c r="I1052">
-        <v>0.29147000000000001</v>
-      </c>
-      <c r="R1052">
-        <v>0.40613500000000002</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>2.03186</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1053" t="s">
         <v>358</v>
       </c>
       <c r="B1053" s="11">
-        <v>38772.504300000001</v>
-      </c>
-      <c r="D1053" s="25"/>
+        <v>38802</v>
+      </c>
       <c r="E1053">
-        <v>29.234300000000001</v>
+        <v>292.34300000000002</v>
       </c>
       <c r="I1053">
-        <v>0.48391499999999998</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>2.8837899999999999</v>
+      </c>
+      <c r="R1053">
+        <v>7.1623700000000001</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1054" t="s">
         <v>358</v>
       </c>
       <c r="B1054" s="11">
-        <v>38781.8531</v>
-      </c>
-      <c r="D1054" s="25"/>
+        <v>38812</v>
+      </c>
       <c r="E1054">
-        <v>68.213499999999996</v>
+        <v>470.99799999999999</v>
       </c>
       <c r="I1054">
-        <v>0.94015000000000004</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>3.96353</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1055" t="s">
         <v>358</v>
       </c>
       <c r="B1055" s="11">
-        <v>38793.4637</v>
+        <v>38822</v>
       </c>
       <c r="E1055">
-        <v>139.67500000000001</v>
+        <v>893.27099999999996</v>
       </c>
       <c r="I1055">
-        <v>2.03186</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>4.2159300000000002</v>
+      </c>
+      <c r="R1055">
+        <v>14.680099999999999</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1056" t="s">
         <v>358</v>
       </c>
       <c r="B1056" s="11">
-        <v>38802.517</v>
+        <v>38830</v>
       </c>
       <c r="E1056">
-        <v>292.34300000000002</v>
+        <v>864.03700000000003</v>
       </c>
       <c r="I1056">
-        <v>2.8837899999999999</v>
-      </c>
-      <c r="R1056">
-        <v>7.1623700000000001</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>4.4561700000000002</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1057" t="s">
         <v>358</v>
       </c>
       <c r="B1057" s="11">
-        <v>38812.864000000001</v>
+        <v>38837</v>
       </c>
       <c r="E1057">
-        <v>470.99799999999999</v>
+        <v>1075.17</v>
+      </c>
+      <c r="G1057">
+        <v>16.241299999999999</v>
       </c>
       <c r="I1057">
-        <v>3.96353</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>2.7059899999999999</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1058" t="s">
         <v>358</v>
       </c>
       <c r="B1058" s="11">
-        <v>38822.945</v>
+        <v>38843</v>
       </c>
       <c r="E1058">
-        <v>893.27099999999996</v>
+        <v>1289.56</v>
+      </c>
+      <c r="G1058">
+        <v>87.703000000000003</v>
       </c>
       <c r="I1058">
-        <v>4.2159300000000002</v>
-      </c>
-      <c r="R1058">
-        <v>14.680099999999999</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2315700000000001</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1059" t="s">
         <v>358</v>
       </c>
       <c r="B1059" s="11">
-        <v>38830.023000000001</v>
+        <v>38851</v>
       </c>
       <c r="E1059">
-        <v>864.03700000000003</v>
+        <v>1188.8599999999999</v>
+      </c>
+      <c r="G1059">
+        <v>198.14400000000001</v>
       </c>
       <c r="I1059">
-        <v>4.4561700000000002</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0.98021999999999998</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1060" t="s">
         <v>358</v>
       </c>
       <c r="B1060" s="11">
-        <v>38837.478999999999</v>
+        <v>38857</v>
       </c>
       <c r="E1060">
-        <v>1075.17</v>
+        <v>1344.78</v>
       </c>
       <c r="G1060">
-        <v>16.241299999999999</v>
+        <v>331.32299999999998</v>
       </c>
       <c r="I1060">
-        <v>2.7059899999999999</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0.29714800000000002</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1061" t="s">
         <v>358</v>
       </c>
       <c r="B1061" s="11">
-        <v>38843.648000000001</v>
+        <v>38865</v>
       </c>
       <c r="E1061">
-        <v>1289.56</v>
+        <v>1192.1099999999999</v>
       </c>
       <c r="G1061">
-        <v>87.703000000000003</v>
+        <v>500.23200000000003</v>
       </c>
       <c r="I1061">
-        <v>1.2315700000000001</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>9.8136300000000003E-3</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1062" t="s">
         <v>358</v>
       </c>
       <c r="B1062" s="11">
-        <v>38851.353999999999</v>
+        <v>38871</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>157</v>
       </c>
       <c r="E1062">
-        <v>1188.8599999999999</v>
+        <v>1270.07</v>
       </c>
       <c r="G1062">
-        <v>198.14400000000001</v>
-      </c>
-      <c r="I1062">
-        <v>0.98021999999999998</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1063" t="s">
-        <v>358</v>
+        <v>539.21100000000001</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1063" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="B1063" s="11">
-        <v>38857.508999999998</v>
+        <v>38425</v>
       </c>
       <c r="E1063">
-        <v>1344.78</v>
-      </c>
-      <c r="G1063">
-        <v>331.32299999999998</v>
-      </c>
-      <c r="I1063">
-        <v>0.29714800000000002</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1064" t="s">
-        <v>358</v>
+        <v>41.257399999999997</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1064" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="B1064" s="11">
-        <v>38865.525000000001</v>
+        <v>38438</v>
       </c>
       <c r="E1064">
-        <v>1192.1099999999999</v>
-      </c>
-      <c r="G1064">
-        <v>500.23200000000003</v>
-      </c>
-      <c r="I1064">
-        <v>9.8136300000000003E-3</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1065" t="s">
-        <v>358</v>
+        <v>100.196</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1065" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="B1065" s="11">
-        <v>38871.985000000001</v>
-      </c>
-      <c r="D1065" t="s">
+        <v>38452</v>
+      </c>
+      <c r="E1065">
+        <v>235.756</v>
+      </c>
+      <c r="K1065">
+        <v>70.726900000000001</v>
+      </c>
+      <c r="N1065">
+        <v>76.620800000000003</v>
+      </c>
+      <c r="P1065">
+        <v>17.681699999999999</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1066" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1066" s="11">
+        <v>38459</v>
+      </c>
+      <c r="E1066">
+        <v>259.33199999999999</v>
+      </c>
+      <c r="I1066">
+        <v>1.4011499999999999</v>
+      </c>
+      <c r="K1066">
+        <v>123.77200000000001</v>
+      </c>
+      <c r="N1066">
+        <v>141.45400000000001</v>
+      </c>
+      <c r="P1066">
+        <v>11.787800000000001</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1067" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1067" s="11">
+        <v>38465</v>
+      </c>
+      <c r="E1067">
+        <v>394.892</v>
+      </c>
+      <c r="I1067">
+        <v>3.02841</v>
+      </c>
+      <c r="K1067">
+        <v>159.136</v>
+      </c>
+      <c r="N1067">
+        <v>200.393</v>
+      </c>
+      <c r="P1067">
+        <v>17.681699999999999</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1068" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1068" s="11">
+        <v>38472</v>
+      </c>
+      <c r="E1068">
+        <v>506.87599999999998</v>
+      </c>
+      <c r="I1068">
+        <v>3.7477399999999998</v>
+      </c>
+      <c r="K1068">
+        <v>153.24199999999999</v>
+      </c>
+      <c r="N1068">
+        <v>300.589</v>
+      </c>
+      <c r="P1068">
+        <v>11.787800000000001</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1069" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1069" s="11">
+        <v>38480</v>
+      </c>
+      <c r="E1069">
+        <v>666.01199999999994</v>
+      </c>
+      <c r="I1069">
+        <v>3.5118399999999999</v>
+      </c>
+      <c r="K1069">
+        <v>218.07499999999999</v>
+      </c>
+      <c r="N1069">
+        <v>412.57400000000001</v>
+      </c>
+      <c r="P1069">
+        <v>41.257399999999997</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1070" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1070" s="11">
+        <v>38486</v>
+      </c>
+      <c r="E1070">
+        <v>854.61699999999996</v>
+      </c>
+      <c r="I1070">
+        <v>3.28382</v>
+      </c>
+      <c r="K1070">
+        <v>194.499</v>
+      </c>
+      <c r="N1070">
+        <v>618.86099999999999</v>
+      </c>
+      <c r="P1070">
+        <v>47.151299999999999</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1071" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1071" s="11">
+        <v>38492</v>
+      </c>
+      <c r="E1071">
+        <v>1113.95</v>
+      </c>
+      <c r="I1071">
+        <v>3.0244300000000002</v>
+      </c>
+      <c r="K1071">
+        <v>153.24199999999999</v>
+      </c>
+      <c r="N1071">
+        <v>548.13400000000001</v>
+      </c>
+      <c r="P1071">
+        <v>53.045200000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1072" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1072" s="11">
+        <v>38500</v>
+      </c>
+      <c r="E1072">
+        <v>1119.8399999999999</v>
+      </c>
+      <c r="I1072">
+        <v>2.9529399999999999</v>
+      </c>
+      <c r="K1072">
+        <v>159.136</v>
+      </c>
+      <c r="N1072">
+        <v>719.05700000000002</v>
+      </c>
+      <c r="P1072">
+        <v>82.514700000000005</v>
+      </c>
+      <c r="AM1072">
+        <v>91.690700000000007</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1073" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1073" s="11">
+        <v>38506</v>
+      </c>
+      <c r="E1073">
+        <v>1408.64</v>
+      </c>
+      <c r="I1073">
+        <v>3.0223399999999998</v>
+      </c>
+      <c r="K1073">
+        <v>165.029</v>
+      </c>
+      <c r="N1073">
+        <v>795.678</v>
+      </c>
+      <c r="P1073">
+        <v>100.196</v>
+      </c>
+      <c r="AM1073">
+        <v>162.55500000000001</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1074" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1074" s="11">
+        <v>38513</v>
+      </c>
+      <c r="E1074">
+        <v>1532.42</v>
+      </c>
+      <c r="I1074">
+        <v>2.67685</v>
+      </c>
+      <c r="K1074">
+        <v>135.56</v>
+      </c>
+      <c r="N1074">
+        <v>760.31399999999996</v>
+      </c>
+      <c r="P1074">
+        <v>123.77200000000001</v>
+      </c>
+      <c r="AM1074">
+        <v>215.74199999999999</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1075" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1075" s="11">
+        <v>38520</v>
+      </c>
+      <c r="E1075">
+        <v>1732.81</v>
+      </c>
+      <c r="I1075">
+        <v>2.2374499999999999</v>
+      </c>
+      <c r="K1075">
+        <v>88.408600000000007</v>
+      </c>
+      <c r="N1075">
+        <v>736.73900000000003</v>
+      </c>
+      <c r="P1075">
+        <v>153.24199999999999</v>
+      </c>
+      <c r="AM1075">
+        <v>380.73200000000003</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1076" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1076" s="11">
+        <v>38526</v>
+      </c>
+      <c r="E1076">
+        <v>2056.9699999999998</v>
+      </c>
+      <c r="I1076">
+        <v>1.6023000000000001</v>
+      </c>
+      <c r="K1076">
+        <v>88.408600000000007</v>
+      </c>
+      <c r="N1076">
+        <v>583.49699999999996</v>
+      </c>
+      <c r="P1076">
+        <v>153.24199999999999</v>
+      </c>
+      <c r="AM1076">
+        <v>728.04300000000001</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1077" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1077" s="11">
+        <v>38533</v>
+      </c>
+      <c r="E1077">
+        <v>2068.7600000000002</v>
+      </c>
+      <c r="I1077">
+        <v>0.99854399999999999</v>
+      </c>
+      <c r="K1077">
+        <v>41.257399999999997</v>
+      </c>
+      <c r="N1077">
+        <v>559.92100000000005</v>
+      </c>
+      <c r="P1077">
+        <v>170.923</v>
+      </c>
+      <c r="AM1077">
+        <v>940.07600000000002</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1078" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1078" s="11">
+        <v>38540</v>
+      </c>
+      <c r="E1078">
+        <v>2068.7600000000002</v>
+      </c>
+      <c r="I1078">
+        <v>0.52780300000000002</v>
+      </c>
+      <c r="K1078">
+        <v>0</v>
+      </c>
+      <c r="N1078">
+        <v>506.87599999999998</v>
+      </c>
+      <c r="P1078">
+        <v>229.86199999999999</v>
+      </c>
+      <c r="AM1078">
+        <v>1052.0999999999999</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1079" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1079" s="11">
+        <v>38547</v>
+      </c>
+      <c r="E1079">
+        <v>2186.64</v>
+      </c>
+      <c r="I1079">
+        <v>0.36234699999999997</v>
+      </c>
+      <c r="AM1079">
+        <v>1152.3699999999999</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1080" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1080" s="11">
+        <v>38553</v>
+      </c>
+      <c r="E1080">
+        <v>1998.04</v>
+      </c>
+      <c r="I1080">
+        <v>0</v>
+      </c>
+      <c r="AM1080">
+        <v>1082.04</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1081" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1081" s="11">
+        <v>38567</v>
+      </c>
+      <c r="D1081" t="s">
         <v>157</v>
       </c>
-      <c r="E1065">
-        <v>1270.07</v>
-      </c>
-      <c r="G1065">
-        <v>539.21100000000001</v>
+      <c r="E1081">
+        <v>1962.67</v>
+      </c>
+      <c r="G1081">
+        <v>890</v>
+      </c>
+      <c r="AK1081">
+        <v>464</v>
+      </c>
+      <c r="AM1081">
+        <v>1064.6199999999999</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1082" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1082" s="11">
+        <v>39299</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1082">
+        <v>750</v>
+      </c>
+      <c r="AK1082">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1083" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1083" s="11">
+        <v>40032</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1083">
+        <v>910</v>
+      </c>
+      <c r="AK1083">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -48466,10 +48878,10 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7938" ySplit="570" topLeftCell="A22" activePane="bottomRight"/>
+      <pane xSplit="7938" ySplit="570" topLeftCell="A96" activePane="bottomLeft"/>
       <selection activeCell="A40" sqref="A40"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115:B119"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
       <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
@@ -56462,7 +56874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+    <sheetView topLeftCell="A450" workbookViewId="0">
       <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="364">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1107,6 +1107,21 @@
   <si>
     <t>Gorgan05</t>
   </si>
+  <si>
+    <t>JammaNRate69NUSG</t>
+  </si>
+  <si>
+    <t>JammaNRate0NUSG</t>
+  </si>
+  <si>
+    <t>JammaNRate23NUSG</t>
+  </si>
+  <si>
+    <t>JammaNRate46NUSG</t>
+  </si>
+  <si>
+    <t>JammaNRate46NUC</t>
+  </si>
 </sst>
 </file>
 
@@ -2118,13 +2133,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR1083"/>
+  <dimension ref="A1:AR1088"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1060" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1074" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1084" sqref="B1084"/>
+      <selection pane="bottomRight" activeCell="B1084" sqref="B1084:B1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -48863,6 +48878,176 @@
         <v>426</v>
       </c>
     </row>
+    <row r="1084" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1084" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1084" s="11">
+        <v>40872</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1084">
+        <v>373.2</v>
+      </c>
+      <c r="G1084">
+        <v>120.8</v>
+      </c>
+      <c r="R1084">
+        <v>3.9</v>
+      </c>
+      <c r="T1084">
+        <v>2.21</v>
+      </c>
+      <c r="AG1084">
+        <f>G1084/AH1084*1000</f>
+        <v>3383.7535014005598</v>
+      </c>
+      <c r="AH1084">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AK1084">
+        <f>AG1084/15.7</f>
+        <v>215.52570072615032</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1085" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1085" s="11">
+        <v>40872</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1085">
+        <v>530.4</v>
+      </c>
+      <c r="G1085">
+        <v>192.3</v>
+      </c>
+      <c r="R1085">
+        <v>6.52</v>
+      </c>
+      <c r="T1085">
+        <v>5.03</v>
+      </c>
+      <c r="AG1085">
+        <f>G1085/AH1085*1000</f>
+        <v>5225.54347826087</v>
+      </c>
+      <c r="AH1085">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AK1085">
+        <f>AG1085/22.2</f>
+        <v>235.38484136310225</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1086" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1086" s="11">
+        <v>40872</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1086">
+        <v>664.9</v>
+      </c>
+      <c r="G1086">
+        <v>250.7</v>
+      </c>
+      <c r="R1086">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="T1086">
+        <v>6.95</v>
+      </c>
+      <c r="AG1086">
+        <f>G1086/AH1086*1000</f>
+        <v>6444.7300771208229</v>
+      </c>
+      <c r="AH1086">
+        <v>38.9</v>
+      </c>
+      <c r="AK1086">
+        <f>AG1086/26.3</f>
+        <v>245.04677099318718</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1087" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1087" s="11">
+        <v>40872</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1087">
+        <v>851.5</v>
+      </c>
+      <c r="G1087">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="R1087">
+        <v>10.78</v>
+      </c>
+      <c r="T1087">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AG1087">
+        <f>G1087/AH1087*1000</f>
+        <v>7598.0861244019152</v>
+      </c>
+      <c r="AH1087">
+        <v>41.8</v>
+      </c>
+      <c r="AK1087">
+        <f>AG1087/33.3</f>
+        <v>228.17075448654401</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1088" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1088" s="11">
+        <v>40872</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1088">
+        <v>709.8</v>
+      </c>
+      <c r="G1088">
+        <v>261.3</v>
+      </c>
+      <c r="R1088">
+        <v>8.14</v>
+      </c>
+      <c r="T1088">
+        <v>5.56</v>
+      </c>
+      <c r="AG1088">
+        <f>G1088/AH1088*1000</f>
+        <v>6787.0129870129877</v>
+      </c>
+      <c r="AH1088">
+        <v>38.5</v>
+      </c>
+      <c r="AK1088">
+        <f>AG1088/28.7</f>
+        <v>236.48128874609714</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:AP853">
     <sortCondition ref="A2:A853"/>
@@ -56875,7 +57060,7 @@
   <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465"/>
+      <selection activeCell="B466" sqref="B466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -62218,45 +62403,81 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C463" s="11"/>
+      <c r="A463" t="s">
+        <v>359</v>
+      </c>
+      <c r="B463" s="11">
+        <f>DATE(2011,7,25)+0</f>
+        <v>40749</v>
+      </c>
+      <c r="C463" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C464" s="11"/>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C465" s="11"/>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C466" s="11"/>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" t="s">
+        <v>359</v>
+      </c>
+      <c r="B464" s="11">
+        <f>DATE(2011,7,25)+84-1</f>
+        <v>40832</v>
+      </c>
+      <c r="C464" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" t="s">
+        <v>359</v>
+      </c>
+      <c r="B465" s="11">
+        <f>DATE(2011,7,25)+90-1</f>
+        <v>40838</v>
+      </c>
+      <c r="C465" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" t="s">
+        <v>359</v>
+      </c>
+      <c r="B466" s="11">
+        <f>DATE(2011,7,25)+124-1</f>
+        <v>40872</v>
+      </c>
+      <c r="C466" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C467" s="11"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C468" s="11"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C469" s="11"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C470" s="11"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C471" s="11"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C472" s="11"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C473" s="11"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C474" s="11"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C475" s="11"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C476" s="11"/>
     </row>
   </sheetData>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="857">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2600,9 +2600,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-dd"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2656,7 +2657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2678,6 +2679,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,13 +2986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV3277"/>
+  <dimension ref="A1:AV3122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2910" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN2945" sqref="AN2945"/>
+      <pane xSplit="6840" ySplit="1440" topLeftCell="AD2948" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="D2882" sqref="D2882"/>
+      <selection pane="bottomLeft" activeCell="A2956" sqref="A2956"/>
+      <selection pane="bottomRight" activeCell="AE2949" sqref="AE2949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68943,135 +68946,407 @@
       </c>
     </row>
     <row r="2949" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2949" s="6"/>
+      <c r="A2949" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B2949" s="9">
+        <v>41103</v>
+      </c>
+      <c r="AE2949" s="10">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="2950" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2950" s="6"/>
+      <c r="A2950" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2950" s="9">
+        <v>41103</v>
+      </c>
+      <c r="AE2950" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="2951" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2951" s="6"/>
+      <c r="A2951" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2951" s="9">
+        <v>41110</v>
+      </c>
+      <c r="AE2951" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="2952" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2952" s="6"/>
+      <c r="A2952" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2952" s="9">
+        <v>41116</v>
+      </c>
+      <c r="AE2952" s="10">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="2953" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2953" s="6"/>
+      <c r="A2953" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2953" s="9">
+        <v>41128</v>
+      </c>
+      <c r="AE2953" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="2954" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2954" s="6"/>
+      <c r="A2954" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2954" s="9">
+        <v>41116</v>
+      </c>
+      <c r="AE2954" s="10">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="2955" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2955" s="6"/>
+      <c r="A2955" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2955" s="9">
+        <v>41128</v>
+      </c>
+      <c r="AE2955" s="10">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="2956" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2956" s="6"/>
+      <c r="A2956" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2956" s="9">
+        <v>41136</v>
+      </c>
+      <c r="AE2956" s="10">
+        <v>4.8499999999999996</v>
+      </c>
     </row>
     <row r="2957" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2957" s="6"/>
+      <c r="A2957" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2957" s="9">
+        <v>41099</v>
+      </c>
+      <c r="AE2957" s="10">
+        <v>5.65</v>
+      </c>
     </row>
     <row r="2958" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2958" s="6"/>
+      <c r="A2958" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2958" s="9">
+        <v>41109</v>
+      </c>
+      <c r="AE2958" s="10">
+        <v>6.55</v>
+      </c>
     </row>
     <row r="2959" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2959" s="6"/>
+      <c r="A2959" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2959" s="9">
+        <v>41099</v>
+      </c>
+      <c r="AE2959" s="10">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="2960" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B2960" s="6"/>
-    </row>
-    <row r="2961" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2961" s="6"/>
-    </row>
-    <row r="2962" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2962" s="6"/>
-    </row>
-    <row r="2963" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2963" s="6"/>
-    </row>
-    <row r="2964" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2964" s="6"/>
-    </row>
-    <row r="2965" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2965" s="6"/>
-    </row>
-    <row r="2966" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2966" s="6"/>
-    </row>
-    <row r="2967" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2967" s="6"/>
-    </row>
-    <row r="2968" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2968" s="6"/>
-    </row>
-    <row r="2969" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2969" s="6"/>
-    </row>
-    <row r="2970" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2970" s="6"/>
-    </row>
-    <row r="2971" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2971" s="6"/>
-    </row>
-    <row r="2972" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2972" s="6"/>
-    </row>
-    <row r="2973" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2973" s="6"/>
-    </row>
-    <row r="2974" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2974" s="6"/>
-    </row>
-    <row r="2975" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2975" s="6"/>
-    </row>
-    <row r="2976" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2976" s="6"/>
-    </row>
-    <row r="2977" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2977" s="6"/>
-    </row>
-    <row r="2978" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2978" s="6"/>
-    </row>
-    <row r="2979" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2979" s="6"/>
-    </row>
-    <row r="2980" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2980" s="6"/>
-    </row>
-    <row r="2981" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2981" s="6"/>
-    </row>
-    <row r="2982" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2982" s="6"/>
-    </row>
-    <row r="2983" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A2960" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2960" s="9">
+        <v>41109</v>
+      </c>
+      <c r="AE2960" s="10">
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2961" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2961" s="9">
+        <v>41119</v>
+      </c>
+      <c r="AE2961" s="10">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2962" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2962" s="9">
+        <v>41119</v>
+      </c>
+      <c r="AE2962" s="10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2963" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2963" s="9">
+        <v>41129</v>
+      </c>
+      <c r="AE2963" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2964" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2964" s="9">
+        <v>41136</v>
+      </c>
+      <c r="AE2964" s="10">
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2965" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2965" s="9">
+        <v>41142</v>
+      </c>
+      <c r="AE2965" s="10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2966" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2966" s="9">
+        <v>41081</v>
+      </c>
+      <c r="AE2966" s="10">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2967" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2967" s="9">
+        <v>41108</v>
+      </c>
+      <c r="AE2967" s="10">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2968" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2968" s="9">
+        <v>41117</v>
+      </c>
+      <c r="AE2968" s="10">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2969" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2969" s="9">
+        <v>41124</v>
+      </c>
+      <c r="AE2969" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2970" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2970" s="9">
+        <v>41081</v>
+      </c>
+      <c r="AE2970" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2971" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2971" s="9">
+        <v>41108</v>
+      </c>
+      <c r="AE2971" s="10">
+        <v>4.5500000000000007</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2972" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2972" s="9">
+        <v>41117</v>
+      </c>
+      <c r="AE2972" s="10">
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2973" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2973" s="9">
+        <v>41124</v>
+      </c>
+      <c r="AE2973" s="10">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2974" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2974" s="9">
+        <v>41134</v>
+      </c>
+      <c r="AE2974" s="10">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2975" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2975" s="9">
+        <v>41108</v>
+      </c>
+      <c r="AE2975" s="10">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2976" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2976" s="9">
+        <v>41117</v>
+      </c>
+      <c r="AE2976" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2977" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2977" s="9">
+        <v>41124</v>
+      </c>
+      <c r="AE2977" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2978" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2978" s="9">
+        <v>41134</v>
+      </c>
+      <c r="AE2978" s="10">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2979" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2979" s="9">
+        <v>41142</v>
+      </c>
+      <c r="AE2979" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2980" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2980" s="9">
+        <v>41148</v>
+      </c>
+      <c r="AE2980" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2981" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2981" s="9">
+        <v>41158</v>
+      </c>
+      <c r="AE2981" s="10">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2982" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2982" s="9">
+        <v>41164</v>
+      </c>
+      <c r="AE2982" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2983" s="6"/>
     </row>
-    <row r="2984" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2984" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2984" s="6"/>
     </row>
-    <row r="2985" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2985" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2985" s="6"/>
     </row>
-    <row r="2986" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2986" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2986" s="6"/>
     </row>
-    <row r="2987" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2987" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2987" s="6"/>
     </row>
-    <row r="2988" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2988" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2988" s="6"/>
     </row>
-    <row r="2989" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2989" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2989" s="6"/>
     </row>
-    <row r="2990" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2990" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2990" s="6"/>
     </row>
-    <row r="2991" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2991" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2991" s="6"/>
     </row>
-    <row r="2992" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2992" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2992" s="6"/>
     </row>
     <row r="2993" spans="2:2" x14ac:dyDescent="0.3">
@@ -69463,471 +69738,6 @@
     </row>
     <row r="3122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3122" s="6"/>
-    </row>
-    <row r="3123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3123" s="6"/>
-    </row>
-    <row r="3124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3124" s="6"/>
-    </row>
-    <row r="3125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3125" s="6"/>
-    </row>
-    <row r="3126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3126" s="6"/>
-    </row>
-    <row r="3127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3127" s="6"/>
-    </row>
-    <row r="3128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3128" s="6"/>
-    </row>
-    <row r="3129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3129" s="6"/>
-    </row>
-    <row r="3130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3130" s="6"/>
-    </row>
-    <row r="3131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3131" s="6"/>
-    </row>
-    <row r="3132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3132" s="6"/>
-    </row>
-    <row r="3133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3133" s="6"/>
-    </row>
-    <row r="3134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3134" s="6"/>
-    </row>
-    <row r="3135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3135" s="6"/>
-    </row>
-    <row r="3136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3136" s="6"/>
-    </row>
-    <row r="3137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3137" s="6"/>
-    </row>
-    <row r="3138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3138" s="6"/>
-    </row>
-    <row r="3139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3139" s="6"/>
-    </row>
-    <row r="3140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3140" s="6"/>
-    </row>
-    <row r="3141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3141" s="6"/>
-    </row>
-    <row r="3142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3142" s="6"/>
-    </row>
-    <row r="3143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3143" s="6"/>
-    </row>
-    <row r="3144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3144" s="6"/>
-    </row>
-    <row r="3145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3145" s="6"/>
-    </row>
-    <row r="3146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3146" s="6"/>
-    </row>
-    <row r="3147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3147" s="6"/>
-    </row>
-    <row r="3148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3148" s="6"/>
-    </row>
-    <row r="3149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3149" s="6"/>
-    </row>
-    <row r="3150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3150" s="6"/>
-    </row>
-    <row r="3151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3151" s="6"/>
-    </row>
-    <row r="3152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3152" s="6"/>
-    </row>
-    <row r="3153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3153" s="6"/>
-    </row>
-    <row r="3154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3154" s="6"/>
-    </row>
-    <row r="3155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3155" s="6"/>
-    </row>
-    <row r="3156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3156" s="6"/>
-    </row>
-    <row r="3157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3157" s="6"/>
-    </row>
-    <row r="3158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3158" s="6"/>
-    </row>
-    <row r="3159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3159" s="6"/>
-    </row>
-    <row r="3160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3160" s="6"/>
-    </row>
-    <row r="3161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3161" s="6"/>
-    </row>
-    <row r="3162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3162" s="6"/>
-    </row>
-    <row r="3163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3163" s="6"/>
-    </row>
-    <row r="3164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3164" s="6"/>
-    </row>
-    <row r="3165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3165" s="6"/>
-    </row>
-    <row r="3166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3166" s="6"/>
-    </row>
-    <row r="3167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3167" s="6"/>
-    </row>
-    <row r="3168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3168" s="6"/>
-    </row>
-    <row r="3169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3169" s="6"/>
-    </row>
-    <row r="3170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3170" s="6"/>
-    </row>
-    <row r="3171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3171" s="6"/>
-    </row>
-    <row r="3172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3172" s="6"/>
-    </row>
-    <row r="3173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3173" s="6"/>
-    </row>
-    <row r="3174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3174" s="6"/>
-    </row>
-    <row r="3175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3175" s="6"/>
-    </row>
-    <row r="3176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3176" s="6"/>
-    </row>
-    <row r="3177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3177" s="6"/>
-    </row>
-    <row r="3178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3178" s="6"/>
-    </row>
-    <row r="3179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3179" s="6"/>
-    </row>
-    <row r="3180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3180" s="6"/>
-    </row>
-    <row r="3181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3181" s="6"/>
-    </row>
-    <row r="3182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3182" s="6"/>
-    </row>
-    <row r="3183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3183" s="6"/>
-    </row>
-    <row r="3184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3184" s="6"/>
-    </row>
-    <row r="3185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3185" s="6"/>
-    </row>
-    <row r="3186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3186" s="6"/>
-    </row>
-    <row r="3187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3187" s="6"/>
-    </row>
-    <row r="3188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3188" s="6"/>
-    </row>
-    <row r="3189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3189" s="6"/>
-    </row>
-    <row r="3190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3190" s="6"/>
-    </row>
-    <row r="3191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3191" s="6"/>
-    </row>
-    <row r="3192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3192" s="6"/>
-    </row>
-    <row r="3193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3193" s="6"/>
-    </row>
-    <row r="3194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3194" s="6"/>
-    </row>
-    <row r="3195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3195" s="6"/>
-    </row>
-    <row r="3196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3196" s="6"/>
-    </row>
-    <row r="3197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3197" s="6"/>
-    </row>
-    <row r="3198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3198" s="6"/>
-    </row>
-    <row r="3199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3199" s="6"/>
-    </row>
-    <row r="3200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3200" s="6"/>
-    </row>
-    <row r="3201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3201" s="6"/>
-    </row>
-    <row r="3202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3202" s="6"/>
-    </row>
-    <row r="3203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3203" s="6"/>
-    </row>
-    <row r="3204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3204" s="6"/>
-    </row>
-    <row r="3205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3205" s="6"/>
-    </row>
-    <row r="3206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3206" s="6"/>
-    </row>
-    <row r="3207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3207" s="6"/>
-    </row>
-    <row r="3208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3208" s="6"/>
-    </row>
-    <row r="3209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3209" s="6"/>
-    </row>
-    <row r="3210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3210" s="6"/>
-    </row>
-    <row r="3211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3211" s="6"/>
-    </row>
-    <row r="3212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3212" s="6"/>
-    </row>
-    <row r="3213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3213" s="6"/>
-    </row>
-    <row r="3214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3214" s="6"/>
-    </row>
-    <row r="3215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3215" s="6"/>
-    </row>
-    <row r="3216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3216" s="6"/>
-    </row>
-    <row r="3217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3217" s="6"/>
-    </row>
-    <row r="3218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3218" s="6"/>
-    </row>
-    <row r="3219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3219" s="6"/>
-    </row>
-    <row r="3220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3220" s="6"/>
-    </row>
-    <row r="3221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3221" s="6"/>
-    </row>
-    <row r="3222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3222" s="6"/>
-    </row>
-    <row r="3223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3223" s="6"/>
-    </row>
-    <row r="3224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3224" s="6"/>
-    </row>
-    <row r="3225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3225" s="6"/>
-    </row>
-    <row r="3226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3226" s="6"/>
-    </row>
-    <row r="3227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3227" s="6"/>
-    </row>
-    <row r="3228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3228" s="6"/>
-    </row>
-    <row r="3229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3229" s="6"/>
-    </row>
-    <row r="3230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3230" s="6"/>
-    </row>
-    <row r="3231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3231" s="6"/>
-    </row>
-    <row r="3232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3232" s="6"/>
-    </row>
-    <row r="3233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3233" s="6"/>
-    </row>
-    <row r="3234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3234" s="6"/>
-    </row>
-    <row r="3235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3235" s="6"/>
-    </row>
-    <row r="3236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3236" s="6"/>
-    </row>
-    <row r="3237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3237" s="6"/>
-    </row>
-    <row r="3238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3238" s="6"/>
-    </row>
-    <row r="3239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3239" s="6"/>
-    </row>
-    <row r="3240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3240" s="6"/>
-    </row>
-    <row r="3241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3241" s="6"/>
-    </row>
-    <row r="3242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3242" s="6"/>
-    </row>
-    <row r="3243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3243" s="6"/>
-    </row>
-    <row r="3244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3244" s="6"/>
-    </row>
-    <row r="3245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3245" s="6"/>
-    </row>
-    <row r="3246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3246" s="6"/>
-    </row>
-    <row r="3247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3247" s="6"/>
-    </row>
-    <row r="3248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3248" s="6"/>
-    </row>
-    <row r="3249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3249" s="6"/>
-    </row>
-    <row r="3250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3250" s="6"/>
-    </row>
-    <row r="3251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3251" s="6"/>
-    </row>
-    <row r="3252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3252" s="6"/>
-    </row>
-    <row r="3253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3253" s="6"/>
-    </row>
-    <row r="3254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3254" s="6"/>
-    </row>
-    <row r="3255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3255" s="6"/>
-    </row>
-    <row r="3256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3256" s="6"/>
-    </row>
-    <row r="3257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3257" s="6"/>
-    </row>
-    <row r="3258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3258" s="6"/>
-    </row>
-    <row r="3259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3259" s="6"/>
-    </row>
-    <row r="3260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3260" s="6"/>
-    </row>
-    <row r="3261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3261" s="6"/>
-    </row>
-    <row r="3262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3262" s="6"/>
-    </row>
-    <row r="3263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3263" s="6"/>
-    </row>
-    <row r="3264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3264" s="6"/>
-    </row>
-    <row r="3265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3265" s="6"/>
-    </row>
-    <row r="3266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3266" s="6"/>
-    </row>
-    <row r="3267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3267" s="6"/>
-    </row>
-    <row r="3268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3268" s="6"/>
-    </row>
-    <row r="3269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3269" s="6"/>
-    </row>
-    <row r="3270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3270" s="6"/>
-    </row>
-    <row r="3271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3271" s="6"/>
-    </row>
-    <row r="3272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3272" s="6"/>
-    </row>
-    <row r="3273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3273" s="6"/>
-    </row>
-    <row r="3274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3274" s="6"/>
-    </row>
-    <row r="3275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3275" s="6"/>
-    </row>
-    <row r="3276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3276" s="6"/>
-    </row>
-    <row r="3277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3277" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:AP853">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="858">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2594,6 +2594,9 @@
   </si>
   <si>
     <t>Walpeup2011CvAxeTOS1-Jul</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.HaunStage.Value</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2653,11 +2656,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2681,6 +2695,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,13 +3003,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV3122"/>
+  <dimension ref="A1:AW3122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6840" ySplit="1440" topLeftCell="AD2948" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="D2882" sqref="D2882"/>
+      <pane xSplit="6840" ySplit="1440" topLeftCell="N748" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="AW2" sqref="AW2"/>
       <selection pane="bottomLeft" activeCell="A2956" sqref="A2956"/>
-      <selection pane="bottomRight" activeCell="AE2949" sqref="AE2949"/>
+      <selection pane="bottomRight" activeCell="Y1069" sqref="Y790:Y1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,9 +3055,10 @@
     <col min="46" max="46" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3184,8 +3203,11 @@
       <c r="AV1" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -3230,7 +3252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3245,7 +3267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -3260,7 +3282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -3275,7 +3297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3290,7 +3312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -3305,7 +3327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -3320,7 +3342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3350,7 +3372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
@@ -3365,7 +3387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -3395,7 +3417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -4961,7 +4983,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>20</v>
       </c>
@@ -4981,7 +5003,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>20</v>
       </c>
@@ -5016,7 +5038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>25</v>
       </c>
@@ -5036,7 +5058,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
@@ -5056,7 +5078,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>25</v>
       </c>
@@ -5076,7 +5098,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>25</v>
       </c>
@@ -5114,7 +5136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
@@ -5134,7 +5156,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
@@ -5154,7 +5176,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5196,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>21</v>
       </c>
@@ -5209,7 +5231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>208</v>
       </c>
@@ -5225,8 +5247,11 @@
       <c r="AD91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW91">
+        <v>5.8571428571428603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>208</v>
       </c>
@@ -5243,7 +5268,7 @@
         <v>0.68653969189475805</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>208</v>
       </c>
@@ -5262,8 +5287,11 @@
       <c r="AE93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW93">
+        <v>7.93333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>208</v>
       </c>
@@ -5280,7 +5308,7 @@
         <v>2.7445178577371498</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>208</v>
       </c>
@@ -5299,8 +5327,11 @@
       <c r="AE95">
         <v>7.6315789473684204</v>
       </c>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW95">
+        <v>9.0526315789474001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>208</v>
       </c>
@@ -5328,8 +5359,11 @@
       <c r="AF96">
         <v>5.5488860835139704</v>
       </c>
-    </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW96">
+        <v>10.6666666666667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>208</v>
       </c>
@@ -5348,8 +5382,11 @@
       <c r="AE97">
         <v>10.6666666666667</v>
       </c>
-    </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW97">
+        <v>10.6666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>208</v>
       </c>
@@ -5377,8 +5414,11 @@
       <c r="AF98">
         <v>3.5856666666666701</v>
       </c>
-    </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW98">
+        <v>10.6666666666667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>208</v>
       </c>
@@ -5395,7 +5435,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>208</v>
       </c>
@@ -5427,7 +5467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>209</v>
       </c>
@@ -5446,8 +5486,11 @@
       <c r="AE101">
         <v>4.21428571428571</v>
       </c>
-    </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW101">
+        <v>5.9285714285714297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>209</v>
       </c>
@@ -5464,7 +5507,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>209</v>
       </c>
@@ -5481,7 +5524,7 @@
         <v>3.7066666666666701</v>
       </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>209</v>
       </c>
@@ -5500,8 +5543,11 @@
       <c r="AE104">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>209</v>
       </c>
@@ -5520,8 +5566,11 @@
       <c r="AE105">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW105">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>209</v>
       </c>
@@ -5538,7 +5587,7 @@
         <v>3.9766666666666701</v>
       </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>209</v>
       </c>
@@ -5557,8 +5606,11 @@
       <c r="AE107">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW107">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>209</v>
       </c>
@@ -5590,7 +5642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>76</v>
       </c>
@@ -5628,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>76</v>
       </c>
@@ -5639,7 +5691,7 @@
         <v>127.499996185303</v>
       </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>76</v>
       </c>
@@ -5677,7 +5729,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>76</v>
       </c>
@@ -18305,7 +18357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="785" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>118</v>
       </c>
@@ -18338,7 +18390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="786" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>114</v>
       </c>
@@ -18371,7 +18423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="787" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>131</v>
       </c>
@@ -18389,7 +18441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="788" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>110</v>
       </c>
@@ -18422,7 +18474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="789" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>127</v>
       </c>
@@ -18455,7 +18507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="790" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
         <v>160</v>
       </c>
@@ -18465,14 +18517,14 @@
       <c r="O790">
         <v>3.125</v>
       </c>
-      <c r="Y790">
-        <v>5.875</v>
-      </c>
       <c r="AO790">
         <v>23.125</v>
       </c>
-    </row>
-    <row r="791" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW790">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="791" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
         <v>160</v>
       </c>
@@ -18482,70 +18534,70 @@
       <c r="O791">
         <v>3.5</v>
       </c>
-      <c r="Y791">
-        <v>8.6374999999999993</v>
-      </c>
       <c r="AO791">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="792" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW791">
+        <v>8.6374999999999993</v>
+      </c>
+    </row>
+    <row r="792" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B792" s="8">
         <v>40031</v>
       </c>
-      <c r="Y792">
-        <v>9.4</v>
-      </c>
       <c r="AO792">
         <v>56.125</v>
       </c>
-    </row>
-    <row r="793" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW792">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A793" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B793" s="8">
         <v>40039</v>
       </c>
-      <c r="Y793">
-        <v>9.6999999999999993</v>
-      </c>
       <c r="AO793">
         <v>64.0625</v>
       </c>
-    </row>
-    <row r="794" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW793">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="794" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A794" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B794" s="8">
         <v>40049</v>
       </c>
-      <c r="Y794">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="AO794">
         <v>74.0625</v>
       </c>
-    </row>
-    <row r="795" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW794">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="795" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A795" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B795" s="8">
         <v>40070</v>
       </c>
-      <c r="Y795">
-        <v>9.8333333333333304</v>
-      </c>
       <c r="AO795">
         <v>83.75</v>
       </c>
-    </row>
-    <row r="796" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW795">
+        <v>9.8333333333333304</v>
+      </c>
+    </row>
+    <row r="796" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A796" s="4" t="s">
         <v>160</v>
       </c>
@@ -18556,7 +18608,7 @@
         <v>88.375</v>
       </c>
     </row>
-    <row r="797" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
         <v>163</v>
       </c>
@@ -18566,14 +18618,14 @@
       <c r="O797">
         <v>3.5</v>
       </c>
-      <c r="Y797">
-        <v>5.5</v>
-      </c>
       <c r="AO797">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="798" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW797">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
         <v>163</v>
       </c>
@@ -18583,56 +18635,56 @@
       <c r="O798">
         <v>4.625</v>
       </c>
-      <c r="Y798">
-        <v>8</v>
-      </c>
       <c r="AO798">
         <v>24.625</v>
       </c>
-    </row>
-    <row r="799" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW798">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="799" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B799" s="8">
         <v>40031</v>
       </c>
-      <c r="Y799">
-        <v>8.3333333333333304</v>
-      </c>
       <c r="AO799">
         <v>63.625</v>
       </c>
-    </row>
-    <row r="800" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW799">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="800" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B800" s="8">
         <v>40039</v>
       </c>
-      <c r="Y800">
-        <v>8.5</v>
-      </c>
       <c r="AO800">
         <v>68.125</v>
       </c>
-    </row>
-    <row r="801" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW800">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B801" s="8">
         <v>40049</v>
       </c>
-      <c r="Y801">
-        <v>8.5</v>
-      </c>
       <c r="AO801">
         <v>71.212500000000006</v>
       </c>
-    </row>
-    <row r="802" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW801">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
         <v>163</v>
       </c>
@@ -18646,7 +18698,7 @@
         <v>83.625</v>
       </c>
     </row>
-    <row r="803" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
         <v>163</v>
       </c>
@@ -18657,7 +18709,7 @@
         <v>90.25</v>
       </c>
     </row>
-    <row r="804" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
         <v>166</v>
       </c>
@@ -18667,14 +18719,14 @@
       <c r="O804">
         <v>4.625</v>
       </c>
-      <c r="Y804">
-        <v>5.625</v>
-      </c>
       <c r="AO804">
         <v>24.625</v>
       </c>
-    </row>
-    <row r="805" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW804">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="805" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
         <v>166</v>
       </c>
@@ -18684,70 +18736,70 @@
       <c r="O805">
         <v>5.375</v>
       </c>
-      <c r="Y805">
-        <v>8.8874999999999993</v>
-      </c>
       <c r="AO805">
         <v>25.375</v>
       </c>
-    </row>
-    <row r="806" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW805">
+        <v>8.8874999999999993</v>
+      </c>
+    </row>
+    <row r="806" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B806" s="8">
         <v>40031</v>
       </c>
-      <c r="Y806">
-        <v>10.862500000000001</v>
-      </c>
       <c r="AO806">
         <v>46</v>
       </c>
-    </row>
-    <row r="807" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW806">
+        <v>10.862500000000001</v>
+      </c>
+    </row>
+    <row r="807" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B807" s="8">
         <v>40039</v>
       </c>
-      <c r="Y807">
-        <v>11.237500000000001</v>
-      </c>
       <c r="AO807">
         <v>54</v>
       </c>
-    </row>
-    <row r="808" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW807">
+        <v>11.237500000000001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B808" s="8">
         <v>40049</v>
       </c>
-      <c r="Y808">
-        <v>11.375</v>
-      </c>
       <c r="AO808">
         <v>65.375</v>
       </c>
-    </row>
-    <row r="809" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW808">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="809" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B809" s="8">
         <v>40070</v>
       </c>
-      <c r="Y809">
-        <v>11.375</v>
-      </c>
       <c r="AO809">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="810" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW809">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="810" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
         <v>166</v>
       </c>
@@ -18758,7 +18810,7 @@
         <v>88.875</v>
       </c>
     </row>
-    <row r="811" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
         <v>169</v>
       </c>
@@ -18768,14 +18820,14 @@
       <c r="O811">
         <v>3.625</v>
       </c>
-      <c r="Y811">
-        <v>6</v>
-      </c>
       <c r="AO811">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="812" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW811">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="812" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
         <v>169</v>
       </c>
@@ -18785,70 +18837,70 @@
       <c r="O812">
         <v>5</v>
       </c>
-      <c r="Y812">
-        <v>7.8875000000000002</v>
-      </c>
       <c r="AO812">
         <v>25</v>
       </c>
-    </row>
-    <row r="813" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW812">
+        <v>7.8875000000000002</v>
+      </c>
+    </row>
+    <row r="813" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B813" s="8">
         <v>40031</v>
       </c>
-      <c r="Y813">
-        <v>8.25</v>
-      </c>
       <c r="AO813">
         <v>62.024999999999999</v>
       </c>
-    </row>
-    <row r="814" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW813">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="814" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B814" s="8">
         <v>40039</v>
       </c>
-      <c r="Y814">
-        <v>8.3333333333333304</v>
-      </c>
       <c r="AO814">
         <v>67.474999999999994</v>
       </c>
-    </row>
-    <row r="815" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW814">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="815" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B815" s="8">
         <v>40049</v>
       </c>
-      <c r="Y815">
-        <v>8.3333333333333304</v>
-      </c>
       <c r="AO815">
         <v>75.0625</v>
       </c>
-    </row>
-    <row r="816" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW815">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="816" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B816" s="8">
         <v>40070</v>
       </c>
-      <c r="Y816">
-        <v>8.6666666666666696</v>
-      </c>
       <c r="AO816">
         <v>84.375</v>
       </c>
-    </row>
-    <row r="817" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW816">
+        <v>8.6666666666666696</v>
+      </c>
+    </row>
+    <row r="817" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
         <v>169</v>
       </c>
@@ -18859,7 +18911,7 @@
         <v>89.125</v>
       </c>
     </row>
-    <row r="818" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
         <v>172</v>
       </c>
@@ -18869,14 +18921,14 @@
       <c r="O818">
         <v>2.75</v>
       </c>
-      <c r="Y818">
-        <v>6.625</v>
-      </c>
       <c r="AO818">
         <v>22.75</v>
       </c>
-    </row>
-    <row r="819" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW818">
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="819" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
         <v>172</v>
       </c>
@@ -18886,56 +18938,56 @@
       <c r="O819">
         <v>3</v>
       </c>
-      <c r="Y819">
-        <v>8.125</v>
-      </c>
       <c r="AO819">
         <v>23</v>
       </c>
-    </row>
-    <row r="820" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW819">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="820" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B820" s="8">
         <v>40031</v>
       </c>
-      <c r="Y820">
-        <v>8.6666666666666696</v>
-      </c>
       <c r="AO820">
         <v>72.525000000000006</v>
       </c>
-    </row>
-    <row r="821" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW820">
+        <v>8.6666666666666696</v>
+      </c>
+    </row>
+    <row r="821" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B821" s="8">
         <v>40039</v>
       </c>
-      <c r="Y821">
-        <v>9</v>
-      </c>
       <c r="AO821">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="822" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW821">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B822" s="8">
         <v>40049</v>
       </c>
-      <c r="Y822">
-        <v>9</v>
-      </c>
       <c r="AO822">
         <v>84.75</v>
       </c>
-    </row>
-    <row r="823" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW822">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
         <v>172</v>
       </c>
@@ -18946,7 +18998,7 @@
         <v>88.875</v>
       </c>
     </row>
-    <row r="824" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
         <v>172</v>
       </c>
@@ -18957,7 +19009,7 @@
         <v>92.3333333333333</v>
       </c>
     </row>
-    <row r="825" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
         <v>175</v>
       </c>
@@ -18967,14 +19019,14 @@
       <c r="O825">
         <v>3.875</v>
       </c>
-      <c r="Y825">
-        <v>5.875</v>
-      </c>
       <c r="AO825">
         <v>23.875</v>
       </c>
-    </row>
-    <row r="826" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW825">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="826" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
         <v>175</v>
       </c>
@@ -18984,56 +19036,56 @@
       <c r="O826">
         <v>4.1666666666666696</v>
       </c>
-      <c r="Y826">
-        <v>8.7833333333333297</v>
-      </c>
       <c r="AO826">
         <v>24.1666666666667</v>
       </c>
-    </row>
-    <row r="827" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW826">
+        <v>8.7833333333333297</v>
+      </c>
+    </row>
+    <row r="827" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B827" s="8">
         <v>40031</v>
       </c>
-      <c r="Y827">
-        <v>10</v>
-      </c>
       <c r="AO827">
         <v>55</v>
       </c>
-    </row>
-    <row r="828" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW827">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="828" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B828" s="8">
         <v>40039</v>
       </c>
-      <c r="Y828">
-        <v>10</v>
-      </c>
       <c r="AO828">
         <v>64.875</v>
       </c>
-    </row>
-    <row r="829" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW828">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="829" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B829" s="8">
         <v>40049</v>
       </c>
-      <c r="Y829">
-        <v>10</v>
-      </c>
       <c r="AO829">
         <v>71.875</v>
       </c>
-    </row>
-    <row r="830" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW829">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="830" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
         <v>175</v>
       </c>
@@ -19047,7 +19099,7 @@
         <v>85.125</v>
       </c>
     </row>
-    <row r="831" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
         <v>175</v>
       </c>
@@ -19058,7 +19110,7 @@
         <v>89.1666666666667</v>
       </c>
     </row>
-    <row r="832" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
         <v>178</v>
       </c>
@@ -19068,14 +19120,14 @@
       <c r="O832">
         <v>3.875</v>
       </c>
-      <c r="Y832">
-        <v>5.9375</v>
-      </c>
       <c r="AO832">
         <v>23.875</v>
       </c>
-    </row>
-    <row r="833" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW832">
+        <v>5.9375</v>
+      </c>
+    </row>
+    <row r="833" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
         <v>178</v>
       </c>
@@ -19085,70 +19137,70 @@
       <c r="O833">
         <v>4.5</v>
       </c>
-      <c r="Y833">
-        <v>8.2375000000000007</v>
-      </c>
       <c r="AO833">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="834" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW833">
+        <v>8.2375000000000007</v>
+      </c>
+    </row>
+    <row r="834" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B834" s="8">
         <v>40031</v>
       </c>
-      <c r="Y834">
-        <v>9</v>
-      </c>
       <c r="AO834">
         <v>61.375</v>
       </c>
-    </row>
-    <row r="835" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW834">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="835" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B835" s="8">
         <v>40039</v>
       </c>
-      <c r="Y835">
-        <v>9</v>
-      </c>
       <c r="AO835">
         <v>67</v>
       </c>
-    </row>
-    <row r="836" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW835">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B836" s="8">
         <v>40049</v>
       </c>
-      <c r="Y836">
-        <v>9</v>
-      </c>
       <c r="AO836">
         <v>73.875</v>
       </c>
-    </row>
-    <row r="837" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW836">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="837" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B837" s="8">
         <v>40070</v>
       </c>
-      <c r="Y837">
-        <v>9</v>
-      </c>
       <c r="AO837">
         <v>84.25</v>
       </c>
-    </row>
-    <row r="838" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW837">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="838" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
         <v>178</v>
       </c>
@@ -19159,7 +19211,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="839" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>181</v>
       </c>
@@ -19169,14 +19221,14 @@
       <c r="O839">
         <v>2.875</v>
       </c>
-      <c r="Y839">
-        <v>6</v>
-      </c>
       <c r="AO839">
         <v>22.875</v>
       </c>
-    </row>
-    <row r="840" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW839">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="840" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
         <v>181</v>
       </c>
@@ -19186,70 +19238,70 @@
       <c r="O840">
         <v>4.625</v>
       </c>
-      <c r="Y840">
-        <v>8.7750000000000004</v>
-      </c>
       <c r="AO840">
         <v>24.625</v>
       </c>
-    </row>
-    <row r="841" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW840">
+        <v>8.7750000000000004</v>
+      </c>
+    </row>
+    <row r="841" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A841" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B841" s="8">
         <v>40031</v>
       </c>
-      <c r="Y841">
-        <v>9.7874999999999996</v>
-      </c>
       <c r="AO841">
         <v>37.375</v>
       </c>
-    </row>
-    <row r="842" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW841">
+        <v>9.7874999999999996</v>
+      </c>
+    </row>
+    <row r="842" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A842" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B842" s="8">
         <v>40039</v>
       </c>
-      <c r="Y842">
-        <v>10.025</v>
-      </c>
       <c r="AO842">
         <v>43.75</v>
       </c>
-    </row>
-    <row r="843" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW842">
+        <v>10.025</v>
+      </c>
+    </row>
+    <row r="843" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A843" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B843" s="8">
         <v>40049</v>
       </c>
-      <c r="Y843">
-        <v>10.25</v>
-      </c>
       <c r="AO843">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="844" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW843">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="844" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A844" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B844" s="8">
         <v>40070</v>
       </c>
-      <c r="Y844">
-        <v>10.5</v>
-      </c>
       <c r="AO844">
         <v>67.9375</v>
       </c>
-    </row>
-    <row r="845" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW844">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A845" s="4" t="s">
         <v>181</v>
       </c>
@@ -19260,7 +19312,7 @@
         <v>83.142857142857096</v>
       </c>
     </row>
-    <row r="846" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A846" s="4" t="s">
         <v>186</v>
       </c>
@@ -19270,14 +19322,14 @@
       <c r="O846">
         <v>5.5</v>
       </c>
-      <c r="Y846">
-        <v>5.625</v>
-      </c>
       <c r="AO846">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="847" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW846">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="847" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A847" s="4" t="s">
         <v>186</v>
       </c>
@@ -19287,70 +19339,70 @@
       <c r="O847">
         <v>5.8571428571428603</v>
       </c>
-      <c r="Y847">
-        <v>7.6571428571428601</v>
-      </c>
       <c r="AO847">
         <v>25.8571428571429</v>
       </c>
-    </row>
-    <row r="848" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW847">
+        <v>7.6571428571428601</v>
+      </c>
+    </row>
+    <row r="848" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A848" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B848" s="8">
         <v>40031</v>
       </c>
-      <c r="Y848">
-        <v>10.64</v>
-      </c>
       <c r="AO848">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="849" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW848">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="849" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A849" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B849" s="8">
         <v>40039</v>
       </c>
-      <c r="Y849">
-        <v>11.38</v>
-      </c>
       <c r="AO849">
         <v>30.8333333333333</v>
       </c>
-    </row>
-    <row r="850" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW849">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="850" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A850" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B850" s="8">
         <v>40049</v>
       </c>
-      <c r="Y850">
-        <v>12.175000000000001</v>
-      </c>
       <c r="AO850">
         <v>31.571428571428601</v>
       </c>
-    </row>
-    <row r="851" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW850">
+        <v>12.175000000000001</v>
+      </c>
+    </row>
+    <row r="851" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A851" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B851" s="8">
         <v>40070</v>
       </c>
-      <c r="Y851">
-        <v>14.36</v>
-      </c>
       <c r="AO851">
         <v>32.428571428571402</v>
       </c>
-    </row>
-    <row r="852" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW851">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="852" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A852" s="4" t="s">
         <v>186</v>
       </c>
@@ -19361,7 +19413,7 @@
         <v>39.571428571428598</v>
       </c>
     </row>
-    <row r="853" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A853" s="4" t="s">
         <v>189</v>
       </c>
@@ -19371,14 +19423,14 @@
       <c r="O853">
         <v>4.375</v>
       </c>
-      <c r="Y853">
-        <v>6.25</v>
-      </c>
       <c r="AO853">
         <v>24.375</v>
       </c>
-    </row>
-    <row r="854" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW853">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="854" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A854" s="4" t="s">
         <v>189</v>
       </c>
@@ -19388,56 +19440,56 @@
       <c r="O854">
         <v>4.375</v>
       </c>
-      <c r="Y854">
-        <v>9.0374999999999996</v>
-      </c>
       <c r="AO854">
         <v>24.375</v>
       </c>
-    </row>
-    <row r="855" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW854">
+        <v>9.0374999999999996</v>
+      </c>
+    </row>
+    <row r="855" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A855" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B855" s="8">
         <v>40031</v>
       </c>
-      <c r="Y855">
-        <v>9.5</v>
-      </c>
       <c r="AO855">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="856" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW855">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="856" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A856" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B856" s="8">
         <v>40039</v>
       </c>
-      <c r="Y856">
-        <v>9.6666666666666696</v>
-      </c>
       <c r="AO856">
         <v>72.125</v>
       </c>
-    </row>
-    <row r="857" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW856">
+        <v>9.6666666666666696</v>
+      </c>
+    </row>
+    <row r="857" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A857" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B857" s="8">
         <v>40049</v>
       </c>
-      <c r="Y857">
-        <v>9.6666666666666696</v>
-      </c>
       <c r="AO857">
         <v>80.75</v>
       </c>
-    </row>
-    <row r="858" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW857">
+        <v>9.6666666666666696</v>
+      </c>
+    </row>
+    <row r="858" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A858" s="4" t="s">
         <v>189</v>
       </c>
@@ -19448,7 +19500,7 @@
         <v>85.375</v>
       </c>
     </row>
-    <row r="859" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A859" s="4" t="s">
         <v>189</v>
       </c>
@@ -19459,7 +19511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="860" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A860" s="4" t="s">
         <v>192</v>
       </c>
@@ -19469,14 +19521,14 @@
       <c r="O860">
         <v>3</v>
       </c>
-      <c r="Y860">
-        <v>6.4375</v>
-      </c>
       <c r="AO860">
         <v>23</v>
       </c>
-    </row>
-    <row r="861" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW860">
+        <v>6.4375</v>
+      </c>
+    </row>
+    <row r="861" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A861" s="4" t="s">
         <v>192</v>
       </c>
@@ -19486,70 +19538,70 @@
       <c r="O861">
         <v>3.625</v>
       </c>
-      <c r="Y861">
-        <v>8.4250000000000007</v>
-      </c>
       <c r="AO861">
         <v>23.625</v>
       </c>
-    </row>
-    <row r="862" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW861">
+        <v>8.4250000000000007</v>
+      </c>
+    </row>
+    <row r="862" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A862" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B862" s="8">
         <v>40031</v>
       </c>
-      <c r="Y862">
-        <v>8.5</v>
-      </c>
       <c r="AO862">
         <v>67.174999999999997</v>
       </c>
-    </row>
-    <row r="863" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW862">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A863" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B863" s="8">
         <v>40039</v>
       </c>
-      <c r="Y863">
-        <v>8.5</v>
-      </c>
       <c r="AO863">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="864" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW863">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A864" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B864" s="8">
         <v>40049</v>
       </c>
-      <c r="Y864">
-        <v>8.5</v>
-      </c>
       <c r="AO864">
         <v>82.125</v>
       </c>
-    </row>
-    <row r="865" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW864">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A865" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B865" s="8">
         <v>40070</v>
       </c>
-      <c r="Y865">
-        <v>8.8571428571428594</v>
-      </c>
       <c r="AO865">
         <v>86.25</v>
       </c>
-    </row>
-    <row r="866" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW865">
+        <v>8.8571428571428594</v>
+      </c>
+    </row>
+    <row r="866" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A866" s="4" t="s">
         <v>192</v>
       </c>
@@ -19560,7 +19612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="867" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A867" s="4" t="s">
         <v>195</v>
       </c>
@@ -19570,14 +19622,14 @@
       <c r="O867">
         <v>6.125</v>
       </c>
-      <c r="Y867">
-        <v>5.5625</v>
-      </c>
       <c r="AO867">
         <v>25.428571428571399</v>
       </c>
-    </row>
-    <row r="868" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW867">
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="868" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A868" s="4" t="s">
         <v>195</v>
       </c>
@@ -19587,70 +19639,70 @@
       <c r="O868">
         <v>4.5</v>
       </c>
-      <c r="Y868">
-        <v>8.0749999999999993</v>
-      </c>
       <c r="AO868">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="869" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW868">
+        <v>8.0749999999999993</v>
+      </c>
+    </row>
+    <row r="869" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A869" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B869" s="8">
         <v>40031</v>
       </c>
-      <c r="Y869">
-        <v>10.828571428571401</v>
-      </c>
       <c r="AO869">
         <v>31.75</v>
       </c>
-    </row>
-    <row r="870" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW869">
+        <v>10.828571428571401</v>
+      </c>
+    </row>
+    <row r="870" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A870" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B870" s="8">
         <v>40039</v>
       </c>
-      <c r="Y870">
-        <v>11.775</v>
-      </c>
       <c r="AO870">
         <v>33.375</v>
       </c>
-    </row>
-    <row r="871" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW870">
+        <v>11.775</v>
+      </c>
+    </row>
+    <row r="871" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A871" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B871" s="8">
         <v>40049</v>
       </c>
-      <c r="Y871">
-        <v>13</v>
-      </c>
       <c r="AO871">
         <v>39.625</v>
       </c>
-    </row>
-    <row r="872" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW871">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A872" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B872" s="8">
         <v>40070</v>
       </c>
-      <c r="Y872">
-        <v>14.1666666666667</v>
-      </c>
       <c r="AO872">
         <v>63.866666666666703</v>
       </c>
-    </row>
-    <row r="873" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW872">
+        <v>14.1666666666667</v>
+      </c>
+    </row>
+    <row r="873" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A873" s="4" t="s">
         <v>195</v>
       </c>
@@ -19661,7 +19713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="874" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A874" s="4" t="s">
         <v>198</v>
       </c>
@@ -19671,14 +19723,14 @@
       <c r="O874">
         <v>5.875</v>
       </c>
-      <c r="Y874">
-        <v>5.6875</v>
-      </c>
       <c r="AO874">
         <v>25.875</v>
       </c>
-    </row>
-    <row r="875" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW874">
+        <v>5.6875</v>
+      </c>
+    </row>
+    <row r="875" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A875" s="4" t="s">
         <v>198</v>
       </c>
@@ -19688,70 +19740,70 @@
       <c r="O875">
         <v>5.25</v>
       </c>
-      <c r="Y875">
-        <v>7.9249999999999998</v>
-      </c>
       <c r="AO875">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="876" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW875">
+        <v>7.9249999999999998</v>
+      </c>
+    </row>
+    <row r="876" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A876" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B876" s="8">
         <v>40031</v>
       </c>
-      <c r="Y876">
-        <v>8.8333333333333304</v>
-      </c>
       <c r="AO876">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="877" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW876">
+        <v>8.8333333333333304</v>
+      </c>
+    </row>
+    <row r="877" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A877" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B877" s="8">
         <v>40039</v>
       </c>
-      <c r="Y877">
-        <v>8.8333333333333304</v>
-      </c>
       <c r="AO877">
         <v>65.875</v>
       </c>
-    </row>
-    <row r="878" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW877">
+        <v>8.8333333333333304</v>
+      </c>
+    </row>
+    <row r="878" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A878" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B878" s="8">
         <v>40049</v>
       </c>
-      <c r="Y878">
-        <v>9.1666666666666696</v>
-      </c>
       <c r="AO878">
         <v>73.962500000000006</v>
       </c>
-    </row>
-    <row r="879" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW878">
+        <v>9.1666666666666696</v>
+      </c>
+    </row>
+    <row r="879" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A879" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B879" s="8">
         <v>40070</v>
       </c>
-      <c r="Y879">
-        <v>9.75</v>
-      </c>
       <c r="AO879">
         <v>86.285714285714306</v>
       </c>
-    </row>
-    <row r="880" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW879">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="880" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A880" s="4" t="s">
         <v>198</v>
       </c>
@@ -19762,7 +19814,7 @@
         <v>91.285714285714306</v>
       </c>
     </row>
-    <row r="881" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A881" s="4" t="s">
         <v>201</v>
       </c>
@@ -19772,14 +19824,14 @@
       <c r="O881">
         <v>5.375</v>
       </c>
-      <c r="Y881">
-        <v>6</v>
-      </c>
       <c r="AO881">
         <v>25.375</v>
       </c>
-    </row>
-    <row r="882" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW881">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="882" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A882" s="4" t="s">
         <v>201</v>
       </c>
@@ -19789,70 +19841,70 @@
       <c r="O882">
         <v>5</v>
       </c>
-      <c r="Y882">
-        <v>8.6875</v>
-      </c>
       <c r="AO882">
         <v>25</v>
       </c>
-    </row>
-    <row r="883" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW882">
+        <v>8.6875</v>
+      </c>
+    </row>
+    <row r="883" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A883" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B883" s="8">
         <v>40031</v>
       </c>
-      <c r="Y883">
-        <v>9.8571428571428594</v>
-      </c>
       <c r="AO883">
         <v>42.714285714285701</v>
       </c>
-    </row>
-    <row r="884" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW883">
+        <v>9.8571428571428594</v>
+      </c>
+    </row>
+    <row r="884" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A884" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B884" s="8">
         <v>40039</v>
       </c>
-      <c r="Y884">
-        <v>10.1428571428571</v>
-      </c>
       <c r="AO884">
         <v>62</v>
       </c>
-    </row>
-    <row r="885" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW884">
+        <v>10.1428571428571</v>
+      </c>
+    </row>
+    <row r="885" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A885" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B885" s="8">
         <v>40049</v>
       </c>
-      <c r="Y885">
-        <v>10.285714285714301</v>
-      </c>
       <c r="AO885">
         <v>68.674999999999997</v>
       </c>
-    </row>
-    <row r="886" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW885">
+        <v>10.285714285714301</v>
+      </c>
+    </row>
+    <row r="886" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A886" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B886" s="8">
         <v>40070</v>
       </c>
-      <c r="Y886">
-        <v>10.285714285714301</v>
-      </c>
       <c r="AO886">
         <v>82.857142857142904</v>
       </c>
-    </row>
-    <row r="887" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW886">
+        <v>10.285714285714301</v>
+      </c>
+    </row>
+    <row r="887" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A887" s="4" t="s">
         <v>201</v>
       </c>
@@ -19863,7 +19915,7 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="888" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A888" s="4" t="s">
         <v>204</v>
       </c>
@@ -19873,14 +19925,14 @@
       <c r="O888">
         <v>4</v>
       </c>
-      <c r="Y888">
-        <v>6.3125</v>
-      </c>
       <c r="AO888">
         <v>24</v>
       </c>
-    </row>
-    <row r="889" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW888">
+        <v>6.3125</v>
+      </c>
+    </row>
+    <row r="889" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A889" s="4" t="s">
         <v>204</v>
       </c>
@@ -19890,70 +19942,70 @@
       <c r="O889">
         <v>4.25</v>
       </c>
-      <c r="Y889">
-        <v>8.15</v>
-      </c>
       <c r="AO889">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="890" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW889">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="890" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A890" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B890" s="8">
         <v>40031</v>
       </c>
-      <c r="Y890">
-        <v>8.71428571428571</v>
-      </c>
       <c r="AO890">
         <v>66.3125</v>
       </c>
-    </row>
-    <row r="891" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW890">
+        <v>8.71428571428571</v>
+      </c>
+    </row>
+    <row r="891" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A891" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B891" s="8">
         <v>40039</v>
       </c>
-      <c r="Y891">
-        <v>9</v>
-      </c>
       <c r="AO891">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="892" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW891">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="892" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A892" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B892" s="8">
         <v>40049</v>
       </c>
-      <c r="Y892">
-        <v>9</v>
-      </c>
       <c r="AO892">
         <v>81.25</v>
       </c>
-    </row>
-    <row r="893" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW892">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="893" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A893" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B893" s="8">
         <v>40070</v>
       </c>
-      <c r="Y893">
-        <v>9.1666666666666696</v>
-      </c>
       <c r="AO893">
         <v>87</v>
       </c>
-    </row>
-    <row r="894" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW893">
+        <v>9.1666666666666696</v>
+      </c>
+    </row>
+    <row r="894" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A894" s="4" t="s">
         <v>204</v>
       </c>
@@ -19964,7 +20016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="895" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A895" s="4" t="s">
         <v>161</v>
       </c>
@@ -19974,70 +20026,70 @@
       <c r="O895">
         <v>5.375</v>
       </c>
-      <c r="Y895">
-        <v>4.3125</v>
-      </c>
       <c r="AO895">
         <v>25.375</v>
       </c>
-    </row>
-    <row r="896" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW895">
+        <v>4.3125</v>
+      </c>
+    </row>
+    <row r="896" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A896" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B896" s="8">
         <v>40018</v>
       </c>
-      <c r="Y896">
-        <v>5.4375</v>
-      </c>
       <c r="AO896">
         <v>30.125</v>
       </c>
-    </row>
-    <row r="897" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW896">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="897" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A897" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B897" s="8">
         <v>40031</v>
       </c>
-      <c r="Y897">
-        <v>7.2857142857142803</v>
-      </c>
       <c r="AO897">
         <v>31.875</v>
       </c>
-    </row>
-    <row r="898" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW897">
+        <v>7.2857142857142803</v>
+      </c>
+    </row>
+    <row r="898" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A898" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B898" s="8">
         <v>40049</v>
       </c>
-      <c r="Y898">
-        <v>8.21428571428571</v>
-      </c>
       <c r="AO898">
         <v>45.375</v>
       </c>
-    </row>
-    <row r="899" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW898">
+        <v>8.21428571428571</v>
+      </c>
+    </row>
+    <row r="899" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A899" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B899" s="8">
         <v>40071</v>
       </c>
-      <c r="Y899">
-        <v>8.4285714285714306</v>
-      </c>
       <c r="AO899">
         <v>69.0625</v>
       </c>
-    </row>
-    <row r="900" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW899">
+        <v>8.4285714285714306</v>
+      </c>
+    </row>
+    <row r="900" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A900" s="4" t="s">
         <v>161</v>
       </c>
@@ -20048,7 +20100,7 @@
         <v>81.1875</v>
       </c>
     </row>
-    <row r="901" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A901" s="4" t="s">
         <v>161</v>
       </c>
@@ -20059,7 +20111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="902" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A902" s="4" t="s">
         <v>164</v>
       </c>
@@ -20069,70 +20121,70 @@
       <c r="O902">
         <v>5.375</v>
       </c>
-      <c r="Y902">
-        <v>4.7625000000000002</v>
-      </c>
       <c r="AO902">
         <v>25.375</v>
       </c>
-    </row>
-    <row r="903" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW902">
+        <v>4.7625000000000002</v>
+      </c>
+    </row>
+    <row r="903" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A903" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B903" s="8">
         <v>40018</v>
       </c>
-      <c r="Y903">
-        <v>6.2125000000000004</v>
-      </c>
       <c r="AO903">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="904" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW903">
+        <v>6.2125000000000004</v>
+      </c>
+    </row>
+    <row r="904" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A904" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B904" s="8">
         <v>40031</v>
       </c>
-      <c r="Y904">
-        <v>7.7874999999999996</v>
-      </c>
       <c r="AO904">
         <v>32.375</v>
       </c>
-    </row>
-    <row r="905" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW904">
+        <v>7.7874999999999996</v>
+      </c>
+    </row>
+    <row r="905" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A905" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B905" s="8">
         <v>40049</v>
       </c>
-      <c r="Y905">
-        <v>7.875</v>
-      </c>
       <c r="AO905">
         <v>60.125</v>
       </c>
-    </row>
-    <row r="906" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW905">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="906" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A906" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B906" s="8">
         <v>40071</v>
       </c>
-      <c r="Y906">
-        <v>7.875</v>
-      </c>
       <c r="AO906">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="907" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW906">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="907" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A907" s="4" t="s">
         <v>164</v>
       </c>
@@ -20143,7 +20195,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="908" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A908" s="4" t="s">
         <v>164</v>
       </c>
@@ -20154,7 +20206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="909" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A909" s="4" t="s">
         <v>167</v>
       </c>
@@ -20164,70 +20216,70 @@
       <c r="O909">
         <v>5.625</v>
       </c>
-      <c r="Y909">
-        <v>3.9375</v>
-      </c>
       <c r="AO909">
         <v>25.625</v>
       </c>
-    </row>
-    <row r="910" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW909">
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="910" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A910" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B910" s="8">
         <v>40018</v>
       </c>
-      <c r="Y910">
-        <v>4.8875000000000002</v>
-      </c>
       <c r="AO910">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="911" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW910">
+        <v>4.8875000000000002</v>
+      </c>
+    </row>
+    <row r="911" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A911" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B911" s="8">
         <v>40031</v>
       </c>
-      <c r="Y911">
-        <v>6.5875000000000004</v>
-      </c>
       <c r="AO911">
         <v>31.125</v>
       </c>
-    </row>
-    <row r="912" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW911">
+        <v>6.5875000000000004</v>
+      </c>
+    </row>
+    <row r="912" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A912" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B912" s="8">
         <v>40049</v>
       </c>
-      <c r="Y912">
-        <v>8.25</v>
-      </c>
       <c r="AO912">
         <v>37.625</v>
       </c>
-    </row>
-    <row r="913" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW912">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="913" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A913" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B913" s="8">
         <v>40071</v>
       </c>
-      <c r="Y913">
-        <v>8.4285714285714306</v>
-      </c>
       <c r="AO913">
         <v>68.0625</v>
       </c>
-    </row>
-    <row r="914" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW913">
+        <v>8.4285714285714306</v>
+      </c>
+    </row>
+    <row r="914" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A914" s="4" t="s">
         <v>167</v>
       </c>
@@ -20238,7 +20290,7 @@
         <v>80.75</v>
       </c>
     </row>
-    <row r="915" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A915" s="4" t="s">
         <v>167</v>
       </c>
@@ -20249,7 +20301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="916" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A916" s="4" t="s">
         <v>170</v>
       </c>
@@ -20259,70 +20311,70 @@
       <c r="O916">
         <v>4.875</v>
       </c>
-      <c r="Y916">
-        <v>4.9124999999999996</v>
-      </c>
       <c r="AO916">
         <v>24.875</v>
       </c>
-    </row>
-    <row r="917" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW916">
+        <v>4.9124999999999996</v>
+      </c>
+    </row>
+    <row r="917" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A917" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B917" s="8">
         <v>40018</v>
       </c>
-      <c r="Y917">
-        <v>5.9874999999999998</v>
-      </c>
       <c r="AO917">
         <v>30.875</v>
       </c>
-    </row>
-    <row r="918" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW917">
+        <v>5.9874999999999998</v>
+      </c>
+    </row>
+    <row r="918" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A918" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B918" s="8">
         <v>40031</v>
       </c>
-      <c r="Y918">
-        <v>7.6875</v>
-      </c>
       <c r="AO918">
         <v>32.125</v>
       </c>
-    </row>
-    <row r="919" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW918">
+        <v>7.6875</v>
+      </c>
+    </row>
+    <row r="919" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A919" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B919" s="8">
         <v>40049</v>
       </c>
-      <c r="Y919">
-        <v>8.25</v>
-      </c>
       <c r="AO919">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="920" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW919">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="920" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A920" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B920" s="8">
         <v>40071</v>
       </c>
-      <c r="Y920">
-        <v>8.375</v>
-      </c>
       <c r="AO920">
         <v>72.375</v>
       </c>
-    </row>
-    <row r="921" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW920">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="921" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A921" s="4" t="s">
         <v>170</v>
       </c>
@@ -20333,7 +20385,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="922" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A922" s="4" t="s">
         <v>170</v>
       </c>
@@ -20344,7 +20396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="923" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A923" s="4" t="s">
         <v>173</v>
       </c>
@@ -20354,70 +20406,70 @@
       <c r="O923">
         <v>4.875</v>
       </c>
-      <c r="Y923">
-        <v>5.1875</v>
-      </c>
       <c r="AO923">
         <v>24.875</v>
       </c>
-    </row>
-    <row r="924" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW923">
+        <v>5.1875</v>
+      </c>
+    </row>
+    <row r="924" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A924" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B924" s="8">
         <v>40018</v>
       </c>
-      <c r="Y924">
-        <v>6.0875000000000004</v>
-      </c>
       <c r="AO924">
         <v>31.375</v>
       </c>
-    </row>
-    <row r="925" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW924">
+        <v>6.0875000000000004</v>
+      </c>
+    </row>
+    <row r="925" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A925" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B925" s="8">
         <v>40031</v>
       </c>
-      <c r="Y925">
-        <v>6.7714285714285696</v>
-      </c>
       <c r="AO925">
         <v>32</v>
       </c>
-    </row>
-    <row r="926" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW925">
+        <v>6.7714285714285696</v>
+      </c>
+    </row>
+    <row r="926" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A926" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B926" s="8">
         <v>40049</v>
       </c>
-      <c r="Y926">
-        <v>7.8333333333333304</v>
-      </c>
       <c r="AO926">
         <v>62</v>
       </c>
-    </row>
-    <row r="927" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW926">
+        <v>7.8333333333333304</v>
+      </c>
+    </row>
+    <row r="927" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A927" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B927" s="8">
         <v>40071</v>
       </c>
-      <c r="Y927">
-        <v>8.3333333333333304</v>
-      </c>
       <c r="AO927">
         <v>75.275000000000006</v>
       </c>
-    </row>
-    <row r="928" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW927">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="928" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A928" s="4" t="s">
         <v>173</v>
       </c>
@@ -20428,7 +20480,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="929" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A929" s="4" t="s">
         <v>173</v>
       </c>
@@ -20439,7 +20491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="930" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A930" s="4" t="s">
         <v>176</v>
       </c>
@@ -20449,70 +20501,70 @@
       <c r="O930">
         <v>5.875</v>
       </c>
-      <c r="Y930">
-        <v>4.3</v>
-      </c>
       <c r="AO930">
         <v>25.875</v>
       </c>
-    </row>
-    <row r="931" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW930">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A931" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B931" s="8">
         <v>40018</v>
       </c>
-      <c r="Y931">
-        <v>6.1375000000000002</v>
-      </c>
       <c r="AO931">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="932" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW931">
+        <v>6.1375000000000002</v>
+      </c>
+    </row>
+    <row r="932" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A932" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B932" s="8">
         <v>40031</v>
       </c>
-      <c r="Y932">
-        <v>7.3624999999999998</v>
-      </c>
       <c r="AO932">
         <v>31.625</v>
       </c>
-    </row>
-    <row r="933" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW932">
+        <v>7.3624999999999998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A933" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B933" s="8">
         <v>40049</v>
       </c>
-      <c r="Y933">
-        <v>8.5500000000000007</v>
-      </c>
       <c r="AO933">
         <v>39</v>
       </c>
-    </row>
-    <row r="934" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW933">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="934" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A934" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B934" s="8">
         <v>40071</v>
       </c>
-      <c r="Y934">
-        <v>9.5</v>
-      </c>
       <c r="AO934">
         <v>67.587500000000006</v>
       </c>
-    </row>
-    <row r="935" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW934">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A935" s="4" t="s">
         <v>176</v>
       </c>
@@ -20523,7 +20575,7 @@
         <v>82.375</v>
       </c>
     </row>
-    <row r="936" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A936" s="4" t="s">
         <v>176</v>
       </c>
@@ -20534,7 +20586,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="937" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A937" s="4" t="s">
         <v>179</v>
       </c>
@@ -20544,70 +20596,70 @@
       <c r="O937">
         <v>5.25</v>
       </c>
-      <c r="Y937">
-        <v>5.1749999999999998</v>
-      </c>
       <c r="AO937">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="938" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW937">
+        <v>5.1749999999999998</v>
+      </c>
+    </row>
+    <row r="938" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A938" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B938" s="8">
         <v>40018</v>
       </c>
-      <c r="Y938">
-        <v>7.3714285714285701</v>
-      </c>
       <c r="AO938">
         <v>30.714285714285701</v>
       </c>
-    </row>
-    <row r="939" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW938">
+        <v>7.3714285714285701</v>
+      </c>
+    </row>
+    <row r="939" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A939" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B939" s="8">
         <v>40031</v>
       </c>
-      <c r="Y939">
-        <v>8.125</v>
-      </c>
       <c r="AO939">
         <v>31.75</v>
       </c>
-    </row>
-    <row r="940" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW939">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="940" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A940" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B940" s="8">
         <v>40049</v>
       </c>
-      <c r="Y940">
-        <v>9.3125</v>
-      </c>
       <c r="AO940">
         <v>51.375</v>
       </c>
-    </row>
-    <row r="941" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW940">
+        <v>9.3125</v>
+      </c>
+    </row>
+    <row r="941" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A941" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B941" s="8">
         <v>40071</v>
       </c>
-      <c r="Y941">
-        <v>9.5714285714285694</v>
-      </c>
       <c r="AO941">
         <v>71.962500000000006</v>
       </c>
-    </row>
-    <row r="942" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW941">
+        <v>9.5714285714285694</v>
+      </c>
+    </row>
+    <row r="942" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A942" s="4" t="s">
         <v>179</v>
       </c>
@@ -20618,7 +20670,7 @@
         <v>82.75</v>
       </c>
     </row>
-    <row r="943" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A943" s="4" t="s">
         <v>179</v>
       </c>
@@ -20629,7 +20681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="944" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A944" s="4" t="s">
         <v>182</v>
       </c>
@@ -20639,70 +20691,70 @@
       <c r="O944">
         <v>4.625</v>
       </c>
-      <c r="Y944">
-        <v>5.1624999999999996</v>
-      </c>
       <c r="AO944">
         <v>24.625</v>
       </c>
-    </row>
-    <row r="945" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW944">
+        <v>5.1624999999999996</v>
+      </c>
+    </row>
+    <row r="945" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A945" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B945" s="8">
         <v>40018</v>
       </c>
-      <c r="Y945">
-        <v>6.2125000000000004</v>
-      </c>
       <c r="AO945">
         <v>30.375</v>
       </c>
-    </row>
-    <row r="946" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW945">
+        <v>6.2125000000000004</v>
+      </c>
+    </row>
+    <row r="946" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A946" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B946" s="8">
         <v>40031</v>
       </c>
-      <c r="Y946">
-        <v>7.4749999999999996</v>
-      </c>
       <c r="AO946">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="947" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW946">
+        <v>7.4749999999999996</v>
+      </c>
+    </row>
+    <row r="947" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A947" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B947" s="8">
         <v>40049</v>
       </c>
-      <c r="Y947">
-        <v>9.3571428571428594</v>
-      </c>
       <c r="AO947">
         <v>33.875</v>
       </c>
-    </row>
-    <row r="948" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW947">
+        <v>9.3571428571428594</v>
+      </c>
+    </row>
+    <row r="948" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A948" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B948" s="8">
         <v>40071</v>
       </c>
-      <c r="Y948">
-        <v>9.8571428571428594</v>
-      </c>
       <c r="AO948">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="949" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW948">
+        <v>9.8571428571428594</v>
+      </c>
+    </row>
+    <row r="949" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A949" s="4" t="s">
         <v>182</v>
       </c>
@@ -20713,7 +20765,7 @@
         <v>71.742857142857105</v>
       </c>
     </row>
-    <row r="950" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A950" s="4" t="s">
         <v>182</v>
       </c>
@@ -20724,7 +20776,7 @@
         <v>84.6666666666667</v>
       </c>
     </row>
-    <row r="951" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A951" s="4" t="s">
         <v>184</v>
       </c>
@@ -20734,70 +20786,70 @@
       <c r="O951">
         <v>5.25</v>
       </c>
-      <c r="Y951">
-        <v>4.5750000000000002</v>
-      </c>
       <c r="AO951">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="952" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW951">
+        <v>4.5750000000000002</v>
+      </c>
+    </row>
+    <row r="952" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A952" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B952" s="8">
         <v>40018</v>
       </c>
-      <c r="Y952">
-        <v>6.6749999999999998</v>
-      </c>
       <c r="AO952">
         <v>30.625</v>
       </c>
-    </row>
-    <row r="953" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW952">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="953" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A953" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B953" s="8">
         <v>40031</v>
       </c>
-      <c r="Y953">
-        <v>7.875</v>
-      </c>
       <c r="AO953">
         <v>32.375</v>
       </c>
-    </row>
-    <row r="954" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW953">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="954" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A954" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B954" s="8">
         <v>40049</v>
       </c>
-      <c r="Y954">
-        <v>8.3333333333333304</v>
-      </c>
       <c r="AO954">
         <v>56.375</v>
       </c>
-    </row>
-    <row r="955" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW954">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="955" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A955" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B955" s="8">
         <v>40071</v>
       </c>
-      <c r="Y955">
-        <v>8.6</v>
-      </c>
       <c r="AO955">
         <v>75.25</v>
       </c>
-    </row>
-    <row r="956" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW955">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="956" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A956" s="4" t="s">
         <v>184</v>
       </c>
@@ -20808,7 +20860,7 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="957" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A957" s="4" t="s">
         <v>184</v>
       </c>
@@ -20819,7 +20871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="958" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A958" s="4" t="s">
         <v>187</v>
       </c>
@@ -20829,70 +20881,70 @@
       <c r="O958">
         <v>6.375</v>
       </c>
-      <c r="Y958">
-        <v>4.9124999999999996</v>
-      </c>
       <c r="AO958">
         <v>26.375</v>
       </c>
-    </row>
-    <row r="959" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW958">
+        <v>4.9124999999999996</v>
+      </c>
+    </row>
+    <row r="959" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A959" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B959" s="8">
         <v>40018</v>
       </c>
-      <c r="Y959">
-        <v>5.6875</v>
-      </c>
       <c r="AO959">
         <v>28.75</v>
       </c>
-    </row>
-    <row r="960" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW959">
+        <v>5.6875</v>
+      </c>
+    </row>
+    <row r="960" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A960" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B960" s="8">
         <v>40031</v>
       </c>
-      <c r="Y960">
-        <v>6.6142857142857103</v>
-      </c>
       <c r="AO960">
         <v>29.75</v>
       </c>
-    </row>
-    <row r="961" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW960">
+        <v>6.6142857142857103</v>
+      </c>
+    </row>
+    <row r="961" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A961" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B961" s="8">
         <v>40049</v>
       </c>
-      <c r="Y961">
-        <v>9</v>
-      </c>
       <c r="AO961">
         <v>30.75</v>
       </c>
-    </row>
-    <row r="962" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW961">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="962" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A962" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B962" s="8">
         <v>40071</v>
       </c>
-      <c r="Y962">
-        <v>10.8333333333333</v>
-      </c>
       <c r="AO962">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="963" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW962">
+        <v>10.8333333333333</v>
+      </c>
+    </row>
+    <row r="963" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A963" s="4" t="s">
         <v>187</v>
       </c>
@@ -20903,7 +20955,7 @@
         <v>36.625</v>
       </c>
     </row>
-    <row r="964" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A964" s="4" t="s">
         <v>187</v>
       </c>
@@ -20914,7 +20966,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="965" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A965" s="4" t="s">
         <v>190</v>
       </c>
@@ -20924,70 +20976,70 @@
       <c r="O965">
         <v>5</v>
       </c>
-      <c r="Y965">
-        <v>5</v>
-      </c>
       <c r="AO965">
         <v>25</v>
       </c>
-    </row>
-    <row r="966" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW965">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A966" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B966" s="8">
         <v>40018</v>
       </c>
-      <c r="Y966">
-        <v>6.5750000000000002</v>
-      </c>
       <c r="AO966">
         <v>30.25</v>
       </c>
-    </row>
-    <row r="967" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW966">
+        <v>6.5750000000000002</v>
+      </c>
+    </row>
+    <row r="967" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A967" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B967" s="8">
         <v>40031</v>
       </c>
-      <c r="Y967">
-        <v>7.5250000000000004</v>
-      </c>
       <c r="AO967">
         <v>32</v>
       </c>
-    </row>
-    <row r="968" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW967">
+        <v>7.5250000000000004</v>
+      </c>
+    </row>
+    <row r="968" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A968" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B968" s="8">
         <v>40049</v>
       </c>
-      <c r="Y968">
-        <v>8.25</v>
-      </c>
       <c r="AO968">
         <v>57</v>
       </c>
-    </row>
-    <row r="969" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW968">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="969" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A969" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B969" s="8">
         <v>40071</v>
       </c>
-      <c r="Y969">
-        <v>8.25</v>
-      </c>
       <c r="AO969">
         <v>77.75</v>
       </c>
-    </row>
-    <row r="970" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW969">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="970" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A970" s="4" t="s">
         <v>190</v>
       </c>
@@ -20998,7 +21050,7 @@
         <v>85.75</v>
       </c>
     </row>
-    <row r="971" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A971" s="4" t="s">
         <v>190</v>
       </c>
@@ -21009,7 +21061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="972" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A972" s="4" t="s">
         <v>193</v>
       </c>
@@ -21019,70 +21071,70 @@
       <c r="O972">
         <v>4.75</v>
       </c>
-      <c r="Y972">
-        <v>4.4375</v>
-      </c>
       <c r="AO972">
         <v>24.75</v>
       </c>
-    </row>
-    <row r="973" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW972">
+        <v>4.4375</v>
+      </c>
+    </row>
+    <row r="973" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A973" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B973" s="8">
         <v>40018</v>
       </c>
-      <c r="Y973">
-        <v>6.2374999999999998</v>
-      </c>
       <c r="AO973">
         <v>31.375</v>
       </c>
-    </row>
-    <row r="974" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW973">
+        <v>6.2374999999999998</v>
+      </c>
+    </row>
+    <row r="974" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A974" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B974" s="8">
         <v>40031</v>
       </c>
-      <c r="Y974">
-        <v>7.2625000000000002</v>
-      </c>
       <c r="AO974">
         <v>32.375</v>
       </c>
-    </row>
-    <row r="975" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW974">
+        <v>7.2625000000000002</v>
+      </c>
+    </row>
+    <row r="975" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A975" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B975" s="8">
         <v>40049</v>
       </c>
-      <c r="Y975">
-        <v>7.75</v>
-      </c>
       <c r="AO975">
         <v>54.875</v>
       </c>
-    </row>
-    <row r="976" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW975">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="976" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A976" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B976" s="8">
         <v>40071</v>
       </c>
-      <c r="Y976">
-        <v>7.75</v>
-      </c>
       <c r="AO976">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="977" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW976">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="977" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A977" s="4" t="s">
         <v>193</v>
       </c>
@@ -21093,7 +21145,7 @@
         <v>82.3125</v>
       </c>
     </row>
-    <row r="978" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A978" s="4" t="s">
         <v>193</v>
       </c>
@@ -21104,7 +21156,7 @@
         <v>92.142857142857096</v>
       </c>
     </row>
-    <row r="979" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A979" s="4" t="s">
         <v>196</v>
       </c>
@@ -21114,70 +21166,70 @@
       <c r="O979">
         <v>6.125</v>
       </c>
-      <c r="Y979">
-        <v>4.5125000000000002</v>
-      </c>
       <c r="AO979">
         <v>26.125</v>
       </c>
-    </row>
-    <row r="980" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW979">
+        <v>4.5125000000000002</v>
+      </c>
+    </row>
+    <row r="980" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A980" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B980" s="8">
         <v>40018</v>
       </c>
-      <c r="Y980">
-        <v>5.5625</v>
-      </c>
       <c r="AO980">
         <v>28.75</v>
       </c>
-    </row>
-    <row r="981" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW980">
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="981" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A981" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B981" s="8">
         <v>40031</v>
       </c>
-      <c r="Y981">
-        <v>7.1</v>
-      </c>
       <c r="AO981">
         <v>30.125</v>
       </c>
-    </row>
-    <row r="982" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW981">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A982" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B982" s="8">
         <v>40049</v>
       </c>
-      <c r="Y982">
-        <v>9.0142857142857107</v>
-      </c>
       <c r="AO982">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="983" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW982">
+        <v>9.0142857142857107</v>
+      </c>
+    </row>
+    <row r="983" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A983" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B983" s="8">
         <v>40071</v>
       </c>
-      <c r="Y983">
-        <v>11.4166666666667</v>
-      </c>
       <c r="AO983">
         <v>39.625</v>
       </c>
-    </row>
-    <row r="984" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW983">
+        <v>11.4166666666667</v>
+      </c>
+    </row>
+    <row r="984" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A984" s="4" t="s">
         <v>196</v>
       </c>
@@ -21188,7 +21240,7 @@
         <v>80.75</v>
       </c>
     </row>
-    <row r="985" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A985" s="4" t="s">
         <v>196</v>
       </c>
@@ -21199,7 +21251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="986" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A986" s="4" t="s">
         <v>199</v>
       </c>
@@ -21209,70 +21261,70 @@
       <c r="O986">
         <v>5.5</v>
       </c>
-      <c r="Y986">
-        <v>5</v>
-      </c>
       <c r="AO986">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="987" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW986">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="987" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A987" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B987" s="8">
         <v>40018</v>
       </c>
-      <c r="Y987">
-        <v>5.9625000000000004</v>
-      </c>
       <c r="AO987">
         <v>30.571428571428601</v>
       </c>
-    </row>
-    <row r="988" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW987">
+        <v>5.9625000000000004</v>
+      </c>
+    </row>
+    <row r="988" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A988" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B988" s="8">
         <v>40031</v>
       </c>
-      <c r="Y988">
-        <v>7.1</v>
-      </c>
       <c r="AO988">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="989" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW988">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A989" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B989" s="8">
         <v>40049</v>
       </c>
-      <c r="Y989">
-        <v>8</v>
-      </c>
       <c r="AO989">
         <v>55.75</v>
       </c>
-    </row>
-    <row r="990" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW989">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="990" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A990" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B990" s="8">
         <v>40071</v>
       </c>
-      <c r="Y990">
-        <v>8</v>
-      </c>
       <c r="AO990">
         <v>71.75</v>
       </c>
-    </row>
-    <row r="991" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW990">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="991" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A991" s="4" t="s">
         <v>199</v>
       </c>
@@ -21283,7 +21335,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="992" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A992" s="4" t="s">
         <v>199</v>
       </c>
@@ -21294,7 +21346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="993" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A993" s="4" t="s">
         <v>202</v>
       </c>
@@ -21304,70 +21356,70 @@
       <c r="O993">
         <v>4.625</v>
       </c>
-      <c r="Y993">
-        <v>4.4124999999999996</v>
-      </c>
       <c r="AO993">
         <v>24.625</v>
       </c>
-    </row>
-    <row r="994" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW993">
+        <v>4.4124999999999996</v>
+      </c>
+    </row>
+    <row r="994" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A994" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B994" s="8">
         <v>40018</v>
       </c>
-      <c r="Y994">
-        <v>5.7125000000000004</v>
-      </c>
       <c r="AO994">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="995" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW994">
+        <v>5.7125000000000004</v>
+      </c>
+    </row>
+    <row r="995" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A995" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B995" s="8">
         <v>40031</v>
       </c>
-      <c r="Y995">
-        <v>7.2249999999999996</v>
-      </c>
       <c r="AO995">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="996" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW995">
+        <v>7.2249999999999996</v>
+      </c>
+    </row>
+    <row r="996" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A996" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B996" s="8">
         <v>40049</v>
       </c>
-      <c r="Y996">
-        <v>9.25</v>
-      </c>
       <c r="AO996">
         <v>36.75</v>
       </c>
-    </row>
-    <row r="997" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW996">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="997" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A997" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B997" s="8">
         <v>40071</v>
       </c>
-      <c r="Y997">
-        <v>9.5</v>
-      </c>
       <c r="AO997">
         <v>69.375</v>
       </c>
-    </row>
-    <row r="998" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW997">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="998" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A998" s="4" t="s">
         <v>202</v>
       </c>
@@ -21378,7 +21430,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="999" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A999" s="4" t="s">
         <v>202</v>
       </c>
@@ -21389,7 +21441,7 @@
         <v>90.571428571428598</v>
       </c>
     </row>
-    <row r="1000" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1000" s="4" t="s">
         <v>205</v>
       </c>
@@ -21399,70 +21451,70 @@
       <c r="O1000">
         <v>5.5</v>
       </c>
-      <c r="Y1000">
-        <v>5.2374999999999998</v>
-      </c>
       <c r="AO1000">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="1001" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1000">
+        <v>5.2374999999999998</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1001" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B1001" s="8">
         <v>40018</v>
       </c>
-      <c r="Y1001">
-        <v>6.9749999999999996</v>
-      </c>
       <c r="AO1001">
         <v>30.875</v>
       </c>
-    </row>
-    <row r="1002" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1001">
+        <v>6.9749999999999996</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1002" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B1002" s="8">
         <v>40031</v>
       </c>
-      <c r="Y1002">
-        <v>7.85</v>
-      </c>
       <c r="AO1002">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="1003" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1002">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1003" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B1003" s="8">
         <v>40049</v>
       </c>
-      <c r="Y1003">
-        <v>8</v>
-      </c>
       <c r="AO1003">
         <v>61.75</v>
       </c>
-    </row>
-    <row r="1004" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1003">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1004" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B1004" s="8">
         <v>40071</v>
       </c>
-      <c r="Y1004">
-        <v>8.1666666666666696</v>
-      </c>
       <c r="AO1004">
         <v>75.4375</v>
       </c>
-    </row>
-    <row r="1005" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1004">
+        <v>8.1666666666666696</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1005" s="4" t="s">
         <v>205</v>
       </c>
@@ -21473,7 +21525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1006" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1006" s="4" t="s">
         <v>205</v>
       </c>
@@ -21484,49 +21536,49 @@
         <v>92.625</v>
       </c>
     </row>
-    <row r="1007" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1007" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B1007" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1007">
-        <v>6.4124999999999996</v>
-      </c>
       <c r="AO1007">
         <v>30.125</v>
       </c>
-    </row>
-    <row r="1008" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1007">
+        <v>6.4124999999999996</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1008" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B1008" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1008">
-        <v>8</v>
-      </c>
       <c r="AO1008">
         <v>41.75</v>
       </c>
-    </row>
-    <row r="1009" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1008">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1009" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B1009" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1009">
-        <v>8</v>
-      </c>
       <c r="AO1009">
         <v>77.285714285714306</v>
       </c>
-    </row>
-    <row r="1010" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1009">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1010" s="4" t="s">
         <v>162</v>
       </c>
@@ -21534,49 +21586,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1011" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1011" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B1011" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1011">
-        <v>6.1124999999999998</v>
-      </c>
       <c r="AO1011">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="1012" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1011">
+        <v>6.1124999999999998</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1012" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B1012" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1012">
-        <v>7</v>
-      </c>
       <c r="AO1012">
         <v>57.428571428571402</v>
       </c>
-    </row>
-    <row r="1013" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1012">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1013" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B1013" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1013">
-        <v>7</v>
-      </c>
       <c r="AO1013">
         <v>79.25</v>
       </c>
-    </row>
-    <row r="1014" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1013">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1014" s="4" t="s">
         <v>165</v>
       </c>
@@ -21584,49 +21636,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1015" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1015" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B1015" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1015">
-        <v>6.2750000000000004</v>
-      </c>
       <c r="AO1015">
         <v>30.875</v>
       </c>
-    </row>
-    <row r="1016" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1015">
+        <v>6.2750000000000004</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1016" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B1016" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1016">
-        <v>7.75</v>
-      </c>
       <c r="AO1016">
         <v>44.125</v>
       </c>
-    </row>
-    <row r="1017" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1016">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1017" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B1017" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1017">
-        <v>7.75</v>
-      </c>
       <c r="AO1017">
         <v>80.75</v>
       </c>
-    </row>
-    <row r="1018" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1017">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1018" s="4" t="s">
         <v>168</v>
       </c>
@@ -21634,102 +21686,102 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1019" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1019" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B1019" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1019">
-        <v>6.3624999999999998</v>
-      </c>
       <c r="AO1019">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="1020" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1019">
+        <v>6.3624999999999998</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1020" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B1020" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1020">
-        <v>7.125</v>
-      </c>
       <c r="AO1020">
         <v>57.375</v>
       </c>
-    </row>
-    <row r="1021" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1020">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1021" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B1021" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1021">
-        <v>7.125</v>
-      </c>
       <c r="AO1021">
         <v>81.75</v>
       </c>
-    </row>
-    <row r="1022" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1021">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1022" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B1022" s="8">
         <v>40133</v>
       </c>
-      <c r="Y1022">
+      <c r="AW1022">
         <v>9</v>
       </c>
     </row>
-    <row r="1023" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1023" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B1023" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1023">
-        <v>6.25</v>
-      </c>
       <c r="AO1023">
         <v>31.875</v>
       </c>
-    </row>
-    <row r="1024" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1023">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1024" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B1024" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1024">
-        <v>6.75</v>
-      </c>
       <c r="AO1024">
         <v>63.875</v>
       </c>
-    </row>
-    <row r="1025" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1024">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1025" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B1025" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1025">
-        <v>6.75</v>
-      </c>
       <c r="AO1025">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="1026" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1025">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1026" s="4" t="s">
         <v>174</v>
       </c>
@@ -21737,49 +21789,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1027" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1027" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B1027" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1027">
-        <v>6.3624999999999998</v>
-      </c>
       <c r="AO1027">
         <v>31</v>
       </c>
-    </row>
-    <row r="1028" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1027">
+        <v>6.3624999999999998</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1028" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B1028" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1028">
-        <v>7.5</v>
-      </c>
       <c r="AO1028">
         <v>56.625</v>
       </c>
-    </row>
-    <row r="1029" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1028">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1029" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B1029" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1029">
-        <v>7.5</v>
-      </c>
       <c r="AO1029">
         <v>83.75</v>
       </c>
-    </row>
-    <row r="1030" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1029">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1030" s="4" t="s">
         <v>177</v>
       </c>
@@ -21787,49 +21839,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1031" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1031" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B1031" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1031">
-        <v>6.2</v>
-      </c>
       <c r="AO1031">
         <v>30.75</v>
       </c>
-    </row>
-    <row r="1032" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1031">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1032" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B1032" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1032">
-        <v>8</v>
-      </c>
       <c r="AO1032">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="1033" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1032">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1033" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B1033" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1033">
-        <v>8</v>
-      </c>
       <c r="AO1033">
         <v>79.75</v>
       </c>
-    </row>
-    <row r="1034" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1033">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1034" s="4" t="s">
         <v>180</v>
       </c>
@@ -21837,49 +21889,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1035" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1035" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B1035" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1035">
-        <v>6.3125</v>
-      </c>
       <c r="AO1035">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="1036" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1035">
+        <v>6.3125</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1036" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B1036" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1036">
-        <v>8</v>
-      </c>
       <c r="AO1036">
         <v>34.375</v>
       </c>
-    </row>
-    <row r="1037" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1036">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1037" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B1037" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1037">
-        <v>8.125</v>
-      </c>
       <c r="AO1037">
         <v>71.75</v>
       </c>
-    </row>
-    <row r="1038" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1037">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1038" s="4" t="s">
         <v>183</v>
       </c>
@@ -21887,49 +21939,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1039" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1039" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B1039" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1039">
-        <v>6.4375</v>
-      </c>
       <c r="AO1039">
         <v>31</v>
       </c>
-    </row>
-    <row r="1040" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1039">
+        <v>6.4375</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1040" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B1040" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1040">
-        <v>7.375</v>
-      </c>
       <c r="AO1040">
         <v>54.625</v>
       </c>
-    </row>
-    <row r="1041" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1040">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1041" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B1041" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1041">
-        <v>7.375</v>
-      </c>
       <c r="AO1041">
         <v>81.857142857142904</v>
       </c>
-    </row>
-    <row r="1042" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1041">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1042" s="4" t="s">
         <v>185</v>
       </c>
@@ -21937,49 +21989,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1043" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1043" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B1043" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1043">
-        <v>5.4749999999999996</v>
-      </c>
       <c r="AO1043">
         <v>30</v>
       </c>
-    </row>
-    <row r="1044" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1043">
+        <v>5.4749999999999996</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1044" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B1044" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1044">
-        <v>7.625</v>
-      </c>
       <c r="AO1044">
         <v>30</v>
       </c>
-    </row>
-    <row r="1045" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1044">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1045" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B1045" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1045">
-        <v>8.75</v>
-      </c>
       <c r="AO1045">
         <v>30.375</v>
       </c>
-    </row>
-    <row r="1046" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1045">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1046" s="4" t="s">
         <v>188</v>
       </c>
@@ -21987,49 +22039,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1047" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1047" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B1047" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1047">
-        <v>6.6749999999999998</v>
-      </c>
       <c r="AO1047">
         <v>31.875</v>
       </c>
-    </row>
-    <row r="1048" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1047">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1048" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B1048" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1048">
-        <v>7.5</v>
-      </c>
       <c r="AO1048">
         <v>59.875</v>
       </c>
-    </row>
-    <row r="1049" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1048">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1049" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B1049" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1049">
-        <v>7.5</v>
-      </c>
       <c r="AO1049">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="1050" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1049">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1050" s="4" t="s">
         <v>191</v>
       </c>
@@ -22037,49 +22089,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1051" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1051" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B1051" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1051">
-        <v>6.75</v>
-      </c>
       <c r="AO1051">
         <v>31.75</v>
       </c>
-    </row>
-    <row r="1052" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1051">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1052" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B1052" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1052">
-        <v>7.5</v>
-      </c>
       <c r="AO1052">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="1053" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1052">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1053" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B1053" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1053">
-        <v>7.5</v>
-      </c>
       <c r="AO1053">
         <v>81</v>
       </c>
-    </row>
-    <row r="1054" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1053">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1054" s="4" t="s">
         <v>194</v>
       </c>
@@ -22087,49 +22139,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1055" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1055" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B1055" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1055">
-        <v>5.7</v>
-      </c>
       <c r="AO1055">
         <v>30</v>
       </c>
-    </row>
-    <row r="1056" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1055">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1056" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B1056" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1056">
-        <v>7.4</v>
-      </c>
       <c r="AO1056">
         <v>30.375</v>
       </c>
-    </row>
-    <row r="1057" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1056">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1057" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B1057" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1057">
-        <v>8.375</v>
-      </c>
       <c r="AO1057">
         <v>31.125</v>
       </c>
-    </row>
-    <row r="1058" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1057">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1058" s="4" t="s">
         <v>197</v>
       </c>
@@ -22137,49 +22189,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1059" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1059" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B1059" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1059">
-        <v>6.75</v>
-      </c>
       <c r="AO1059">
         <v>30.875</v>
       </c>
-    </row>
-    <row r="1060" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1059">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1060" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B1060" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1060">
-        <v>7.75</v>
-      </c>
       <c r="AO1060">
         <v>57.875</v>
       </c>
-    </row>
-    <row r="1061" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1060">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1061" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B1061" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1061">
-        <v>7.75</v>
-      </c>
       <c r="AO1061">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="1062" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1061">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1062" s="4" t="s">
         <v>200</v>
       </c>
@@ -22187,49 +22239,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1063" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1063" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B1063" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1063">
-        <v>5.8</v>
-      </c>
       <c r="AO1063">
         <v>31.125</v>
       </c>
-    </row>
-    <row r="1064" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1063">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1064" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B1064" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1064">
-        <v>8</v>
-      </c>
       <c r="AO1064">
         <v>46</v>
       </c>
-    </row>
-    <row r="1065" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1064">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1065" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B1065" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1065">
-        <v>8</v>
-      </c>
       <c r="AO1065">
         <v>76.75</v>
       </c>
-    </row>
-    <row r="1066" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1065">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1066" s="4" t="s">
         <v>203</v>
       </c>
@@ -22237,49 +22289,49 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1067" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1067" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B1067" s="8">
         <v>40070</v>
       </c>
-      <c r="Y1067">
-        <v>6.5</v>
-      </c>
       <c r="AO1067">
         <v>31.625</v>
       </c>
-    </row>
-    <row r="1068" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1067">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1068" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B1068" s="8">
         <v>40087</v>
       </c>
-      <c r="Y1068">
-        <v>7.125</v>
-      </c>
       <c r="AO1068">
         <v>59.428571428571402</v>
       </c>
-    </row>
-    <row r="1069" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1068">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1069" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B1069" s="8">
         <v>40107</v>
       </c>
-      <c r="Y1069">
-        <v>7.125</v>
-      </c>
       <c r="AO1069">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="1070" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW1069">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1070" s="4" t="s">
         <v>206</v>
       </c>
@@ -22287,7 +22339,7 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="1071" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1071" s="4" t="s">
         <v>767</v>
       </c>
@@ -22302,7 +22354,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1072" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1072" s="4" t="s">
         <v>767</v>
       </c>
@@ -22317,7 +22369,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1073" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1073" s="4" t="s">
         <v>768</v>
       </c>
@@ -22332,7 +22384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="1074" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1074" s="4" t="s">
         <v>768</v>
       </c>
@@ -22347,7 +22399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="1075" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1075" s="4" t="s">
         <v>769</v>
       </c>
@@ -22362,7 +22414,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1076" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1076" s="4" t="s">
         <v>769</v>
       </c>
@@ -22377,7 +22429,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1077" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1077" s="4" t="s">
         <v>770</v>
       </c>
@@ -22392,7 +22444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1078" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1078" s="4" t="s">
         <v>770</v>
       </c>
@@ -22407,7 +22459,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1079" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1079" s="4" t="s">
         <v>771</v>
       </c>
@@ -22422,7 +22474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1080" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1080" s="4" t="s">
         <v>771</v>
       </c>
@@ -22437,7 +22489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1081" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1081" s="4" t="s">
         <v>772</v>
       </c>
@@ -22452,7 +22504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1082" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1082" s="4" t="s">
         <v>772</v>
       </c>
@@ -22467,7 +22519,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1083" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1083" s="4" t="s">
         <v>211</v>
       </c>
@@ -22486,8 +22538,11 @@
       <c r="AV1083">
         <v>480</v>
       </c>
-    </row>
-    <row r="1084" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1083">
+        <v>4.1666666670000003</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1084" s="4" t="s">
         <v>211</v>
       </c>
@@ -22506,8 +22561,11 @@
       <c r="AV1084">
         <v>880</v>
       </c>
-    </row>
-    <row r="1085" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1084">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1085" s="4" t="s">
         <v>211</v>
       </c>
@@ -22535,8 +22593,11 @@
       <c r="AV1085">
         <v>853.33333333333303</v>
       </c>
-    </row>
-    <row r="1086" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1085">
+        <v>5.9083333329999999</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1086" s="4" t="s">
         <v>211</v>
       </c>
@@ -22564,8 +22625,11 @@
       <c r="AV1086">
         <v>800</v>
       </c>
-    </row>
-    <row r="1087" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1086">
+        <v>6.5416666670000003</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1087" s="4" t="s">
         <v>211</v>
       </c>
@@ -22593,8 +22657,11 @@
       <c r="AV1087">
         <v>773.33333333333303</v>
       </c>
-    </row>
-    <row r="1088" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1087">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1088" s="4" t="s">
         <v>211</v>
       </c>
@@ -22623,7 +22690,7 @@
         <v>492.24674144728198</v>
       </c>
     </row>
-    <row r="1089" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1089" s="4" t="s">
         <v>212</v>
       </c>
@@ -22642,8 +22709,11 @@
       <c r="AV1089">
         <v>240</v>
       </c>
-    </row>
-    <row r="1090" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1089">
+        <v>4.1666666670000003</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1090" s="4" t="s">
         <v>212</v>
       </c>
@@ -22662,8 +22732,11 @@
       <c r="AV1090">
         <v>466.66666666666703</v>
       </c>
-    </row>
-    <row r="1091" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1090">
+        <v>5.2833333329999999</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1091" s="4" t="s">
         <v>212</v>
       </c>
@@ -22691,8 +22764,11 @@
       <c r="AV1091">
         <v>473.33333333333297</v>
       </c>
-    </row>
-    <row r="1092" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1091">
+        <v>5.8416666670000001</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1092" s="4" t="s">
         <v>212</v>
       </c>
@@ -22720,8 +22796,11 @@
       <c r="AV1092">
         <v>446.66666666666703</v>
       </c>
-    </row>
-    <row r="1093" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1092">
+        <v>6.7916666670000003</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1093" s="4" t="s">
         <v>212</v>
       </c>
@@ -22749,8 +22828,11 @@
       <c r="AV1093">
         <v>533.33333333333303</v>
       </c>
-    </row>
-    <row r="1094" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1093">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1094" s="4" t="s">
         <v>212</v>
       </c>
@@ -22779,7 +22861,7 @@
         <v>400.19794245747102</v>
       </c>
     </row>
-    <row r="1095" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1095" s="4" t="s">
         <v>213</v>
       </c>
@@ -22808,7 +22890,7 @@
         <v>389.11511579361002</v>
       </c>
     </row>
-    <row r="1096" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1096" s="4" t="s">
         <v>330</v>
       </c>
@@ -22825,7 +22907,7 @@
         <v>0.29147000000000001</v>
       </c>
     </row>
-    <row r="1097" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1097" s="4" t="s">
         <v>330</v>
       </c>
@@ -22839,7 +22921,7 @@
         <v>0.48391499999999998</v>
       </c>
     </row>
-    <row r="1098" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1098" s="4" t="s">
         <v>330</v>
       </c>
@@ -22853,7 +22935,7 @@
         <v>0.94015000000000004</v>
       </c>
     </row>
-    <row r="1099" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1099" s="4" t="s">
         <v>330</v>
       </c>
@@ -22867,7 +22949,7 @@
         <v>2.03186</v>
       </c>
     </row>
-    <row r="1100" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1100" s="4" t="s">
         <v>330</v>
       </c>
@@ -22884,7 +22966,7 @@
         <v>2.8837899999999999</v>
       </c>
     </row>
-    <row r="1101" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1101" s="4" t="s">
         <v>330</v>
       </c>
@@ -22898,7 +22980,7 @@
         <v>3.96353</v>
       </c>
     </row>
-    <row r="1102" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1102" s="4" t="s">
         <v>330</v>
       </c>
@@ -22915,7 +22997,7 @@
         <v>4.2159300000000002</v>
       </c>
     </row>
-    <row r="1103" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1103" s="4" t="s">
         <v>330</v>
       </c>
@@ -22929,7 +23011,7 @@
         <v>4.4561700000000002</v>
       </c>
     </row>
-    <row r="1104" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1104" s="4" t="s">
         <v>330</v>
       </c>
@@ -68885,7 +68967,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2945" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2945" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2945" s="5" t="s">
         <v>853</v>
       </c>
@@ -68900,7 +68982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2946" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2946" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2946" s="5" t="s">
         <v>854</v>
       </c>
@@ -68915,7 +68997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2947" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2947" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2947" s="5" t="s">
         <v>855</v>
       </c>
@@ -68930,7 +69012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2948" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2948" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2948" s="5" t="s">
         <v>856</v>
       </c>
@@ -68945,408 +69027,408 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2949" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2949" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2949" s="5" t="s">
         <v>827</v>
       </c>
       <c r="B2949" s="9">
         <v>41103</v>
       </c>
-      <c r="AE2949" s="10">
+      <c r="AW2949" s="10">
         <v>5.5</v>
       </c>
     </row>
-    <row r="2950" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2950" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2950" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B2950" s="9">
         <v>41103</v>
       </c>
-      <c r="AE2950" s="10">
+      <c r="AW2950" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="2951" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2951" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2951" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B2951" s="9">
         <v>41110</v>
       </c>
-      <c r="AE2951" s="10">
+      <c r="AW2951" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="2952" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2952" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2952" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B2952" s="9">
         <v>41116</v>
       </c>
-      <c r="AE2952" s="10">
+      <c r="AW2952" s="10">
         <v>5.2</v>
       </c>
     </row>
-    <row r="2953" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2953" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2953" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B2953" s="9">
         <v>41128</v>
       </c>
-      <c r="AE2953" s="10">
+      <c r="AW2953" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="2954" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2954" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2954" s="5" t="s">
         <v>831</v>
       </c>
       <c r="B2954" s="9">
         <v>41116</v>
       </c>
-      <c r="AE2954" s="10">
+      <c r="AW2954" s="10">
         <v>2.4</v>
       </c>
     </row>
-    <row r="2955" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2955" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2955" s="5" t="s">
         <v>831</v>
       </c>
       <c r="B2955" s="9">
         <v>41128</v>
       </c>
-      <c r="AE2955" s="10">
+      <c r="AW2955" s="10">
         <v>3.55</v>
       </c>
     </row>
-    <row r="2956" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2956" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2956" s="5" t="s">
         <v>831</v>
       </c>
       <c r="B2956" s="9">
         <v>41136</v>
       </c>
-      <c r="AE2956" s="10">
+      <c r="AW2956" s="10">
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="2957" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2957" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2957" s="5" t="s">
         <v>794</v>
       </c>
       <c r="B2957" s="9">
         <v>41099</v>
       </c>
-      <c r="AE2957" s="10">
+      <c r="AW2957" s="10">
         <v>5.65</v>
       </c>
     </row>
-    <row r="2958" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2958" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2958" s="5" t="s">
         <v>794</v>
       </c>
       <c r="B2958" s="9">
         <v>41109</v>
       </c>
-      <c r="AE2958" s="10">
+      <c r="AW2958" s="10">
         <v>6.55</v>
       </c>
     </row>
-    <row r="2959" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2959" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2959" s="5" t="s">
         <v>797</v>
       </c>
       <c r="B2959" s="9">
         <v>41099</v>
       </c>
-      <c r="AE2959" s="10">
+      <c r="AW2959" s="10">
         <v>4.7</v>
       </c>
     </row>
-    <row r="2960" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2960" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2960" s="5" t="s">
         <v>797</v>
       </c>
       <c r="B2960" s="9">
         <v>41109</v>
       </c>
-      <c r="AE2960" s="10">
+      <c r="AW2960" s="10">
         <v>5.6999999999999993</v>
       </c>
     </row>
-    <row r="2961" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2961" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2961" s="5" t="s">
         <v>797</v>
       </c>
       <c r="B2961" s="9">
         <v>41119</v>
       </c>
-      <c r="AE2961" s="10">
+      <c r="AW2961" s="10">
         <v>6.95</v>
       </c>
     </row>
-    <row r="2962" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2962" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2962" s="5" t="s">
         <v>800</v>
       </c>
       <c r="B2962" s="9">
         <v>41119</v>
       </c>
-      <c r="AE2962" s="10">
+      <c r="AW2962" s="10">
         <v>3.7</v>
       </c>
     </row>
-    <row r="2963" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2963" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2963" s="5" t="s">
         <v>800</v>
       </c>
       <c r="B2963" s="9">
         <v>41129</v>
       </c>
-      <c r="AE2963" s="10">
+      <c r="AW2963" s="10">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="2964" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2964" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2964" s="5" t="s">
         <v>800</v>
       </c>
       <c r="B2964" s="9">
         <v>41136</v>
       </c>
-      <c r="AE2964" s="10">
+      <c r="AW2964" s="10">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="2965" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2965" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2965" s="5" t="s">
         <v>800</v>
       </c>
       <c r="B2965" s="9">
         <v>41142</v>
       </c>
-      <c r="AE2965" s="10">
+      <c r="AW2965" s="10">
         <v>6.7</v>
       </c>
     </row>
-    <row r="2966" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2966" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2966" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B2966" s="9">
         <v>41081</v>
       </c>
-      <c r="AE2966" s="10">
+      <c r="AW2966" s="10">
         <v>4.45</v>
       </c>
     </row>
-    <row r="2967" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2967" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2967" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B2967" s="9">
         <v>41108</v>
       </c>
-      <c r="AE2967" s="10">
+      <c r="AW2967" s="10">
         <v>6.4</v>
       </c>
     </row>
-    <row r="2968" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2968" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2968" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B2968" s="9">
         <v>41117</v>
       </c>
-      <c r="AE2968" s="10">
+      <c r="AW2968" s="10">
         <v>6.15</v>
       </c>
     </row>
-    <row r="2969" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2969" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2969" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B2969" s="9">
         <v>41124</v>
       </c>
-      <c r="AE2969" s="10">
+      <c r="AW2969" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="2970" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2970" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2970" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B2970" s="9">
         <v>41081</v>
       </c>
-      <c r="AE2970" s="10">
+      <c r="AW2970" s="10">
         <v>2.4</v>
       </c>
     </row>
-    <row r="2971" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2971" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2971" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B2971" s="9">
         <v>41108</v>
       </c>
-      <c r="AE2971" s="10">
+      <c r="AW2971" s="10">
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="2972" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2972" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2972" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B2972" s="9">
         <v>41117</v>
       </c>
-      <c r="AE2972" s="10">
+      <c r="AW2972" s="10">
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="2973" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2973" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2973" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B2973" s="9">
         <v>41124</v>
       </c>
-      <c r="AE2973" s="10">
+      <c r="AW2973" s="10">
         <v>5.85</v>
       </c>
     </row>
-    <row r="2974" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2974" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2974" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B2974" s="9">
         <v>41134</v>
       </c>
-      <c r="AE2974" s="10">
+      <c r="AW2974" s="10">
         <v>6.15</v>
       </c>
     </row>
-    <row r="2975" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2975" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2975" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2975" s="9">
         <v>41108</v>
       </c>
-      <c r="AE2975" s="10">
+      <c r="AW2975" s="10">
         <v>1.05</v>
       </c>
     </row>
-    <row r="2976" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2976" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2976" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2976" s="9">
         <v>41117</v>
       </c>
-      <c r="AE2976" s="10">
+      <c r="AW2976" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="2977" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2977" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2977" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2977" s="9">
         <v>41124</v>
       </c>
-      <c r="AE2977" s="10">
+      <c r="AW2977" s="10">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="2978" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2978" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2978" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2978" s="9">
         <v>41134</v>
       </c>
-      <c r="AE2978" s="10">
+      <c r="AW2978" s="10">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="2979" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2979" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2979" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2979" s="9">
         <v>41142</v>
       </c>
-      <c r="AE2979" s="10">
+      <c r="AW2979" s="10">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2980" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2980" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2980" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2980" s="9">
         <v>41148</v>
       </c>
-      <c r="AE2980" s="10">
+      <c r="AW2980" s="10">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="2981" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2981" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2981" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2981" s="9">
         <v>41158</v>
       </c>
-      <c r="AE2981" s="10">
+      <c r="AW2981" s="10">
         <v>6.35</v>
       </c>
     </row>
-    <row r="2982" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2982" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2982" s="5" t="s">
         <v>842</v>
       </c>
       <c r="B2982" s="9">
         <v>41164</v>
       </c>
-      <c r="AE2982" s="10">
+      <c r="AW2982" s="10">
         <v>6.25</v>
       </c>
     </row>
-    <row r="2983" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2983" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2983" s="6"/>
     </row>
-    <row r="2984" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2984" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2984" s="6"/>
     </row>
-    <row r="2985" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2985" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2985" s="6"/>
     </row>
-    <row r="2986" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2986" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2986" s="6"/>
     </row>
-    <row r="2987" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2987" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2987" s="6"/>
     </row>
-    <row r="2988" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2988" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2988" s="6"/>
     </row>
-    <row r="2989" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2989" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2989" s="6"/>
     </row>
-    <row r="2990" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2990" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2990" s="6"/>
     </row>
-    <row r="2991" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2991" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2991" s="6"/>
     </row>
-    <row r="2992" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2992" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2992" s="6"/>
     </row>
     <row r="2993" spans="2:2" x14ac:dyDescent="0.3">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -2794,7 +2794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2826,6 +2826,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3135,10 +3138,10 @@
   <dimension ref="A1:AX3130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2961" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2001" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2963" sqref="D2963"/>
+      <selection pane="bottomRight" activeCell="AL2019" sqref="AL2019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40606,6 +40609,7 @@
       <c r="M1670">
         <v>0.15075</v>
       </c>
+      <c r="V1670" s="14"/>
     </row>
     <row r="1671" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1671" s="4" t="s">
@@ -40617,6 +40621,7 @@
       <c r="C1671" s="13" t="s">
         <v>862</v>
       </c>
+      <c r="V1671" s="14"/>
       <c r="AA1671">
         <v>0.49971334567674602</v>
       </c>
@@ -40661,6 +40666,7 @@
       <c r="M1672">
         <v>0.14824999999999999</v>
       </c>
+      <c r="V1672" s="14"/>
     </row>
     <row r="1673" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1673" s="4" t="s">
@@ -40672,6 +40678,7 @@
       <c r="C1673" s="13" t="s">
         <v>862</v>
       </c>
+      <c r="V1673" s="14"/>
       <c r="AP1673">
         <v>90.5</v>
       </c>
@@ -40713,6 +40720,7 @@
       <c r="M1674">
         <v>0.14774999999999999</v>
       </c>
+      <c r="V1674" s="14"/>
       <c r="AA1674">
         <v>0</v>
       </c>
@@ -40754,6 +40762,7 @@
       <c r="M1675">
         <v>0.14274999999999999</v>
       </c>
+      <c r="V1675" s="14"/>
     </row>
     <row r="1676" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1676" s="4" t="s">
@@ -40788,6 +40797,9 @@
       <c r="S1677">
         <v>1256.0124139288801</v>
       </c>
+      <c r="W1677">
+        <v>25266.818441084899</v>
+      </c>
       <c r="Y1677">
         <v>954.44929749999994</v>
       </c>
@@ -40800,17 +40812,11 @@
       <c r="AL1677" t="s">
         <v>787</v>
       </c>
-      <c r="AQ1677">
-        <v>0</v>
-      </c>
       <c r="AS1677">
         <v>301.56311642887903</v>
       </c>
       <c r="AV1677">
         <v>798.82365915335595</v>
-      </c>
-      <c r="AW1677">
-        <v>845.8125</v>
       </c>
     </row>
     <row r="1678" spans="1:49" x14ac:dyDescent="0.25">
@@ -42773,6 +42779,9 @@
       <c r="S1744">
         <v>1233.09316214398</v>
       </c>
+      <c r="W1744">
+        <v>27609.7279011473</v>
+      </c>
       <c r="Y1744">
         <v>885.45308499999999</v>
       </c>
@@ -42785,17 +42794,11 @@
       <c r="AL1744" t="s">
         <v>787</v>
       </c>
-      <c r="AQ1744">
-        <v>0</v>
-      </c>
       <c r="AS1744">
         <v>347.64007714398502</v>
       </c>
       <c r="AV1744">
         <v>883.743501876148</v>
-      </c>
-      <c r="AW1744">
-        <v>876.1875</v>
       </c>
     </row>
     <row r="1745" spans="1:49" x14ac:dyDescent="0.25">
@@ -44669,7 +44672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1809" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1809" s="4" t="s">
         <v>148</v>
       </c>
@@ -44707,7 +44710,7 @@
         <v>0.19725000000000001</v>
       </c>
     </row>
-    <row r="1810" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1810" s="4" t="s">
         <v>148</v>
       </c>
@@ -44724,7 +44727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1811" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1811" s="4" t="s">
         <v>148</v>
       </c>
@@ -44740,6 +44743,9 @@
       <c r="S1811">
         <v>1231.5468913737</v>
       </c>
+      <c r="W1811">
+        <v>28433.773147215801</v>
+      </c>
       <c r="Y1811">
         <v>904.03921749999995</v>
       </c>
@@ -44752,20 +44758,14 @@
       <c r="AL1811" t="s">
         <v>787</v>
       </c>
-      <c r="AQ1811">
-        <v>0</v>
-      </c>
       <c r="AS1811">
         <v>327.50767387369598</v>
       </c>
       <c r="AV1811">
         <v>901.35902355859503</v>
       </c>
-      <c r="AW1811">
-        <v>897.5625</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1812" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1812" s="4" t="s">
         <v>148</v>
       </c>
@@ -44803,7 +44803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1813" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1813" s="4" t="s">
         <v>147</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="1814" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1814" s="4" t="s">
         <v>147</v>
       </c>
@@ -44861,7 +44861,7 @@
         <v>0.23849999999999999</v>
       </c>
     </row>
-    <row r="1815" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1815" s="4" t="s">
         <v>147</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>0.23849999999999999</v>
       </c>
     </row>
-    <row r="1816" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1816" s="4" t="s">
         <v>147</v>
       </c>
@@ -44919,7 +44919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1817" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1817" s="4" t="s">
         <v>147</v>
       </c>
@@ -44933,7 +44933,7 @@
         <v>0.21659329775748001</v>
       </c>
     </row>
-    <row r="1818" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1818" s="4" t="s">
         <v>147</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>0.43667134245053102</v>
       </c>
     </row>
-    <row r="1819" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1819" s="4" t="s">
         <v>147</v>
       </c>
@@ -44994,7 +44994,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="1820" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1820" s="4" t="s">
         <v>147</v>
       </c>
@@ -45038,7 +45038,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="1821" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1821" s="4" t="s">
         <v>147</v>
       </c>
@@ -45055,7 +45055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1822" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1822" s="4" t="s">
         <v>147</v>
       </c>
@@ -45093,7 +45093,7 @@
         <v>0.23674999999999999</v>
       </c>
     </row>
-    <row r="1823" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1823" s="4" t="s">
         <v>147</v>
       </c>
@@ -45116,7 +45116,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="1824" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1824" s="4" t="s">
         <v>147</v>
       </c>
@@ -46543,7 +46543,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="1873" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1873" s="4" t="s">
         <v>147</v>
       </c>
@@ -46581,7 +46581,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="1874" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1874" s="4" t="s">
         <v>147</v>
       </c>
@@ -46595,7 +46595,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="1875" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1875" s="4" t="s">
         <v>147</v>
       </c>
@@ -46636,7 +46636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1876" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1876" s="4" t="s">
         <v>147</v>
       </c>
@@ -46674,7 +46674,7 @@
         <v>0.1895</v>
       </c>
     </row>
-    <row r="1877" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1877" s="4" t="s">
         <v>147</v>
       </c>
@@ -46691,7 +46691,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1878" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1878" s="4" t="s">
         <v>147</v>
       </c>
@@ -46707,6 +46707,9 @@
       <c r="S1878">
         <v>1159.6031345220499</v>
       </c>
+      <c r="W1878">
+        <v>23906.626917524201</v>
+      </c>
       <c r="Y1878">
         <v>861.81991500000004</v>
       </c>
@@ -46719,20 +46722,14 @@
       <c r="AL1878" t="s">
         <v>787</v>
       </c>
-      <c r="AQ1878">
-        <v>0</v>
-      </c>
       <c r="AS1878">
         <v>297.78321952204601</v>
       </c>
       <c r="AV1878">
         <v>820.25531414114505</v>
       </c>
-      <c r="AW1878">
-        <v>815.4375</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1879" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1879" s="4" t="s">
         <v>147</v>
       </c>
@@ -46770,7 +46767,7 @@
         <v>0.18725</v>
       </c>
     </row>
-    <row r="1880" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1880" s="4" t="s">
         <v>144</v>
       </c>
@@ -46790,7 +46787,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="1881" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1881" s="4" t="s">
         <v>144</v>
       </c>
@@ -46828,7 +46825,7 @@
         <v>0.18225</v>
       </c>
     </row>
-    <row r="1882" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1882" s="4" t="s">
         <v>144</v>
       </c>
@@ -46866,7 +46863,7 @@
         <v>0.18074999999999999</v>
       </c>
     </row>
-    <row r="1883" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1883" s="4" t="s">
         <v>144</v>
       </c>
@@ -46886,7 +46883,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="1884" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1884" s="4" t="s">
         <v>144</v>
       </c>
@@ -46900,7 +46897,7 @@
         <v>0.20034810498982</v>
       </c>
     </row>
-    <row r="1885" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1885" s="4" t="s">
         <v>144</v>
       </c>
@@ -46941,7 +46938,7 @@
         <v>0.43562341935058402</v>
       </c>
     </row>
-    <row r="1886" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1886" s="4" t="s">
         <v>144</v>
       </c>
@@ -46961,7 +46958,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="1887" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1887" s="4" t="s">
         <v>144</v>
       </c>
@@ -47005,7 +47002,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="1888" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1888" s="4" t="s">
         <v>144</v>
       </c>
@@ -48441,7 +48438,7 @@
         <v>0.1255</v>
       </c>
     </row>
-    <row r="1937" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1937" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1937" s="4" t="s">
         <v>144</v>
       </c>
@@ -48455,7 +48452,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="1938" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1938" s="4" t="s">
         <v>144</v>
       </c>
@@ -48493,7 +48490,7 @@
         <v>0.12625</v>
       </c>
     </row>
-    <row r="1939" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1939" s="4" t="s">
         <v>144</v>
       </c>
@@ -48510,7 +48507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1940" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1940" s="4" t="s">
         <v>144</v>
       </c>
@@ -48548,7 +48545,7 @@
         <v>0.12325</v>
       </c>
     </row>
-    <row r="1941" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1941" s="4" t="s">
         <v>144</v>
       </c>
@@ -48562,7 +48559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1942" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1942" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1942" s="4" t="s">
         <v>144</v>
       </c>
@@ -48603,7 +48600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1943" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1943" s="4" t="s">
         <v>144</v>
       </c>
@@ -48641,7 +48638,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="1944" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1944" s="4" t="s">
         <v>144</v>
       </c>
@@ -48655,7 +48652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1945" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1945" s="4" t="s">
         <v>144</v>
       </c>
@@ -48671,6 +48668,9 @@
       <c r="S1945">
         <v>947.294439637339</v>
       </c>
+      <c r="W1945">
+        <v>17324.2225803978</v>
+      </c>
       <c r="Y1945">
         <v>682.31069500000001</v>
       </c>
@@ -48683,20 +48683,14 @@
       <c r="AL1945" t="s">
         <v>787</v>
       </c>
-      <c r="AQ1945">
-        <v>0</v>
-      </c>
       <c r="AS1945">
         <v>264.98374463733899</v>
       </c>
       <c r="AV1945">
         <v>734.85205635114403</v>
       </c>
-      <c r="AW1945">
-        <v>791.25</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1946" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1946" s="4" t="s">
         <v>144</v>
       </c>
@@ -48734,7 +48728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1947" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1947" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1947" s="4" t="s">
         <v>145</v>
       </c>
@@ -48754,7 +48748,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="1948" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1948" s="4" t="s">
         <v>145</v>
       </c>
@@ -48792,7 +48786,7 @@
         <v>0.18174999999999999</v>
       </c>
     </row>
-    <row r="1949" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1949" s="4" t="s">
         <v>145</v>
       </c>
@@ -48830,7 +48824,7 @@
         <v>0.18124999999999999</v>
       </c>
     </row>
-    <row r="1950" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1950" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1950" s="4" t="s">
         <v>145</v>
       </c>
@@ -48850,7 +48844,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="1951" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1951" s="4" t="s">
         <v>145</v>
       </c>
@@ -48864,7 +48858,7 @@
         <v>0.22411051883682101</v>
       </c>
     </row>
-    <row r="1952" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1952" s="4" t="s">
         <v>145</v>
       </c>
@@ -50339,7 +50333,7 @@
         <v>813.92857142857099</v>
       </c>
     </row>
-    <row r="2001" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2001" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2001" s="4" t="s">
         <v>145</v>
       </c>
@@ -50353,7 +50347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2002" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2002" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2002" s="4" t="s">
         <v>145</v>
       </c>
@@ -50367,7 +50361,7 @@
         <v>0.98882777807271205</v>
       </c>
     </row>
-    <row r="2003" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2003" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2003" s="4" t="s">
         <v>145</v>
       </c>
@@ -50405,7 +50399,7 @@
         <v>0.16550000000000001</v>
       </c>
     </row>
-    <row r="2004" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2004" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2004" s="4" t="s">
         <v>145</v>
       </c>
@@ -50419,7 +50413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2005" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2005" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2005" s="4" t="s">
         <v>145</v>
       </c>
@@ -50457,7 +50451,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="2006" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2006" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2006" s="4" t="s">
         <v>145</v>
       </c>
@@ -50474,7 +50468,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="2007" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2007" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2007" s="4" t="s">
         <v>145</v>
       </c>
@@ -50512,7 +50506,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="2008" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2008" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2008" s="4" t="s">
         <v>145</v>
       </c>
@@ -50526,7 +50520,7 @@
         <v>89.75</v>
       </c>
     </row>
-    <row r="2009" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2009" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2009" s="4" t="s">
         <v>145</v>
       </c>
@@ -50567,7 +50561,7 @@
         <v>0.30249058887758001</v>
       </c>
     </row>
-    <row r="2010" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2010" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2010" s="4" t="s">
         <v>145</v>
       </c>
@@ -50605,7 +50599,7 @@
         <v>0.15075</v>
       </c>
     </row>
-    <row r="2011" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2011" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2011" s="4" t="s">
         <v>145</v>
       </c>
@@ -50622,7 +50616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2012" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2012" s="4" t="s">
         <v>145</v>
       </c>
@@ -50638,6 +50632,9 @@
       <c r="S2012">
         <v>1221.2595441127801</v>
       </c>
+      <c r="W2012">
+        <v>21687.383565656499</v>
+      </c>
       <c r="Y2012">
         <v>939.17182000000003</v>
       </c>
@@ -50650,20 +50647,14 @@
       <c r="AL2012" t="s">
         <v>787</v>
       </c>
-      <c r="AQ2012">
-        <v>0</v>
-      </c>
       <c r="AS2012">
         <v>282.08772411277698</v>
       </c>
       <c r="AV2012">
         <v>780.86968134003996</v>
       </c>
-      <c r="AW2012">
-        <v>838.6875</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2013" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2013" s="4" t="s">
         <v>145</v>
       </c>
@@ -50701,7 +50692,7 @@
         <v>0.14774999999999999</v>
       </c>
     </row>
-    <row r="2014" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2014" s="4" t="s">
         <v>82</v>
       </c>
@@ -50737,7 +50728,7 @@
         <v>0.20795</v>
       </c>
     </row>
-    <row r="2015" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2015" s="4" t="s">
         <v>82</v>
       </c>
@@ -50773,7 +50764,7 @@
         <v>0.20895</v>
       </c>
     </row>
-    <row r="2016" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2016" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2016" s="4" t="s">
         <v>82</v>
       </c>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -2794,7 +2794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2826,9 +2826,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3138,10 +3135,10 @@
   <dimension ref="A1:AX3130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2001" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2961" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL2019" sqref="AL2019"/>
+      <selection pane="bottomRight" activeCell="D2963" sqref="D2963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40609,7 +40606,6 @@
       <c r="M1670">
         <v>0.15075</v>
       </c>
-      <c r="V1670" s="14"/>
     </row>
     <row r="1671" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1671" s="4" t="s">
@@ -40621,7 +40617,6 @@
       <c r="C1671" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="V1671" s="14"/>
       <c r="AA1671">
         <v>0.49971334567674602</v>
       </c>
@@ -40666,7 +40661,6 @@
       <c r="M1672">
         <v>0.14824999999999999</v>
       </c>
-      <c r="V1672" s="14"/>
     </row>
     <row r="1673" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1673" s="4" t="s">
@@ -40678,7 +40672,6 @@
       <c r="C1673" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="V1673" s="14"/>
       <c r="AP1673">
         <v>90.5</v>
       </c>
@@ -40720,7 +40713,6 @@
       <c r="M1674">
         <v>0.14774999999999999</v>
       </c>
-      <c r="V1674" s="14"/>
       <c r="AA1674">
         <v>0</v>
       </c>
@@ -40762,7 +40754,6 @@
       <c r="M1675">
         <v>0.14274999999999999</v>
       </c>
-      <c r="V1675" s="14"/>
     </row>
     <row r="1676" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1676" s="4" t="s">
@@ -40797,9 +40788,6 @@
       <c r="S1677">
         <v>1256.0124139288801</v>
       </c>
-      <c r="W1677">
-        <v>25266.818441084899</v>
-      </c>
       <c r="Y1677">
         <v>954.44929749999994</v>
       </c>
@@ -40812,11 +40800,17 @@
       <c r="AL1677" t="s">
         <v>787</v>
       </c>
+      <c r="AQ1677">
+        <v>0</v>
+      </c>
       <c r="AS1677">
         <v>301.56311642887903</v>
       </c>
       <c r="AV1677">
         <v>798.82365915335595</v>
+      </c>
+      <c r="AW1677">
+        <v>845.8125</v>
       </c>
     </row>
     <row r="1678" spans="1:49" x14ac:dyDescent="0.25">
@@ -42779,9 +42773,6 @@
       <c r="S1744">
         <v>1233.09316214398</v>
       </c>
-      <c r="W1744">
-        <v>27609.7279011473</v>
-      </c>
       <c r="Y1744">
         <v>885.45308499999999</v>
       </c>
@@ -42794,11 +42785,17 @@
       <c r="AL1744" t="s">
         <v>787</v>
       </c>
+      <c r="AQ1744">
+        <v>0</v>
+      </c>
       <c r="AS1744">
         <v>347.64007714398502</v>
       </c>
       <c r="AV1744">
         <v>883.743501876148</v>
+      </c>
+      <c r="AW1744">
+        <v>876.1875</v>
       </c>
     </row>
     <row r="1745" spans="1:49" x14ac:dyDescent="0.25">
@@ -44672,7 +44669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1809" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1809" s="4" t="s">
         <v>148</v>
       </c>
@@ -44710,7 +44707,7 @@
         <v>0.19725000000000001</v>
       </c>
     </row>
-    <row r="1810" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1810" s="4" t="s">
         <v>148</v>
       </c>
@@ -44727,7 +44724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1811" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1811" s="4" t="s">
         <v>148</v>
       </c>
@@ -44743,9 +44740,6 @@
       <c r="S1811">
         <v>1231.5468913737</v>
       </c>
-      <c r="W1811">
-        <v>28433.773147215801</v>
-      </c>
       <c r="Y1811">
         <v>904.03921749999995</v>
       </c>
@@ -44758,14 +44752,20 @@
       <c r="AL1811" t="s">
         <v>787</v>
       </c>
+      <c r="AQ1811">
+        <v>0</v>
+      </c>
       <c r="AS1811">
         <v>327.50767387369598</v>
       </c>
       <c r="AV1811">
         <v>901.35902355859503</v>
       </c>
-    </row>
-    <row r="1812" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW1811">
+        <v>897.5625</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1812" s="4" t="s">
         <v>148</v>
       </c>
@@ -44803,7 +44803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1813" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1813" s="4" t="s">
         <v>147</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="1814" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1814" s="4" t="s">
         <v>147</v>
       </c>
@@ -44861,7 +44861,7 @@
         <v>0.23849999999999999</v>
       </c>
     </row>
-    <row r="1815" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1815" s="4" t="s">
         <v>147</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>0.23849999999999999</v>
       </c>
     </row>
-    <row r="1816" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1816" s="4" t="s">
         <v>147</v>
       </c>
@@ -44919,7 +44919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1817" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1817" s="4" t="s">
         <v>147</v>
       </c>
@@ -44933,7 +44933,7 @@
         <v>0.21659329775748001</v>
       </c>
     </row>
-    <row r="1818" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1818" s="4" t="s">
         <v>147</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>0.43667134245053102</v>
       </c>
     </row>
-    <row r="1819" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1819" s="4" t="s">
         <v>147</v>
       </c>
@@ -44994,7 +44994,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="1820" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1820" s="4" t="s">
         <v>147</v>
       </c>
@@ -45038,7 +45038,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="1821" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1821" s="4" t="s">
         <v>147</v>
       </c>
@@ -45055,7 +45055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1822" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1822" s="4" t="s">
         <v>147</v>
       </c>
@@ -45093,7 +45093,7 @@
         <v>0.23674999999999999</v>
       </c>
     </row>
-    <row r="1823" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1823" s="4" t="s">
         <v>147</v>
       </c>
@@ -45116,7 +45116,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="1824" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1824" s="4" t="s">
         <v>147</v>
       </c>
@@ -46543,7 +46543,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="1873" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1873" s="4" t="s">
         <v>147</v>
       </c>
@@ -46581,7 +46581,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="1874" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1874" s="4" t="s">
         <v>147</v>
       </c>
@@ -46595,7 +46595,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="1875" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1875" s="4" t="s">
         <v>147</v>
       </c>
@@ -46636,7 +46636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1876" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1876" s="4" t="s">
         <v>147</v>
       </c>
@@ -46674,7 +46674,7 @@
         <v>0.1895</v>
       </c>
     </row>
-    <row r="1877" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1877" s="4" t="s">
         <v>147</v>
       </c>
@@ -46691,7 +46691,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1878" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1878" s="4" t="s">
         <v>147</v>
       </c>
@@ -46707,9 +46707,6 @@
       <c r="S1878">
         <v>1159.6031345220499</v>
       </c>
-      <c r="W1878">
-        <v>23906.626917524201</v>
-      </c>
       <c r="Y1878">
         <v>861.81991500000004</v>
       </c>
@@ -46722,14 +46719,20 @@
       <c r="AL1878" t="s">
         <v>787</v>
       </c>
+      <c r="AQ1878">
+        <v>0</v>
+      </c>
       <c r="AS1878">
         <v>297.78321952204601</v>
       </c>
       <c r="AV1878">
         <v>820.25531414114505</v>
       </c>
-    </row>
-    <row r="1879" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW1878">
+        <v>815.4375</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1879" s="4" t="s">
         <v>147</v>
       </c>
@@ -46767,7 +46770,7 @@
         <v>0.18725</v>
       </c>
     </row>
-    <row r="1880" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1880" s="4" t="s">
         <v>144</v>
       </c>
@@ -46787,7 +46790,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="1881" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1881" s="4" t="s">
         <v>144</v>
       </c>
@@ -46825,7 +46828,7 @@
         <v>0.18225</v>
       </c>
     </row>
-    <row r="1882" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1882" s="4" t="s">
         <v>144</v>
       </c>
@@ -46863,7 +46866,7 @@
         <v>0.18074999999999999</v>
       </c>
     </row>
-    <row r="1883" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1883" s="4" t="s">
         <v>144</v>
       </c>
@@ -46883,7 +46886,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="1884" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1884" s="4" t="s">
         <v>144</v>
       </c>
@@ -46897,7 +46900,7 @@
         <v>0.20034810498982</v>
       </c>
     </row>
-    <row r="1885" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1885" s="4" t="s">
         <v>144</v>
       </c>
@@ -46938,7 +46941,7 @@
         <v>0.43562341935058402</v>
       </c>
     </row>
-    <row r="1886" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1886" s="4" t="s">
         <v>144</v>
       </c>
@@ -46958,7 +46961,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="1887" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1887" s="4" t="s">
         <v>144</v>
       </c>
@@ -47002,7 +47005,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="1888" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1888" s="4" t="s">
         <v>144</v>
       </c>
@@ -48438,7 +48441,7 @@
         <v>0.1255</v>
       </c>
     </row>
-    <row r="1937" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1937" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1937" s="4" t="s">
         <v>144</v>
       </c>
@@ -48452,7 +48455,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="1938" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1938" s="4" t="s">
         <v>144</v>
       </c>
@@ -48490,7 +48493,7 @@
         <v>0.12625</v>
       </c>
     </row>
-    <row r="1939" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1939" s="4" t="s">
         <v>144</v>
       </c>
@@ -48507,7 +48510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1940" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1940" s="4" t="s">
         <v>144</v>
       </c>
@@ -48545,7 +48548,7 @@
         <v>0.12325</v>
       </c>
     </row>
-    <row r="1941" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1941" s="4" t="s">
         <v>144</v>
       </c>
@@ -48559,7 +48562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1942" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1942" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1942" s="4" t="s">
         <v>144</v>
       </c>
@@ -48600,7 +48603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1943" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1943" s="4" t="s">
         <v>144</v>
       </c>
@@ -48638,7 +48641,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="1944" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1944" s="4" t="s">
         <v>144</v>
       </c>
@@ -48652,7 +48655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1945" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1945" s="4" t="s">
         <v>144</v>
       </c>
@@ -48668,9 +48671,6 @@
       <c r="S1945">
         <v>947.294439637339</v>
       </c>
-      <c r="W1945">
-        <v>17324.2225803978</v>
-      </c>
       <c r="Y1945">
         <v>682.31069500000001</v>
       </c>
@@ -48683,14 +48683,20 @@
       <c r="AL1945" t="s">
         <v>787</v>
       </c>
+      <c r="AQ1945">
+        <v>0</v>
+      </c>
       <c r="AS1945">
         <v>264.98374463733899</v>
       </c>
       <c r="AV1945">
         <v>734.85205635114403</v>
       </c>
-    </row>
-    <row r="1946" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW1945">
+        <v>791.25</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1946" s="4" t="s">
         <v>144</v>
       </c>
@@ -48728,7 +48734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1947" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1947" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1947" s="4" t="s">
         <v>145</v>
       </c>
@@ -48748,7 +48754,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="1948" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1948" s="4" t="s">
         <v>145</v>
       </c>
@@ -48786,7 +48792,7 @@
         <v>0.18174999999999999</v>
       </c>
     </row>
-    <row r="1949" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1949" s="4" t="s">
         <v>145</v>
       </c>
@@ -48824,7 +48830,7 @@
         <v>0.18124999999999999</v>
       </c>
     </row>
-    <row r="1950" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1950" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1950" s="4" t="s">
         <v>145</v>
       </c>
@@ -48844,7 +48850,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="1951" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1951" s="4" t="s">
         <v>145</v>
       </c>
@@ -48858,7 +48864,7 @@
         <v>0.22411051883682101</v>
       </c>
     </row>
-    <row r="1952" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1952" s="4" t="s">
         <v>145</v>
       </c>
@@ -50333,7 +50339,7 @@
         <v>813.92857142857099</v>
       </c>
     </row>
-    <row r="2001" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2001" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2001" s="4" t="s">
         <v>145</v>
       </c>
@@ -50347,7 +50353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2002" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2002" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2002" s="4" t="s">
         <v>145</v>
       </c>
@@ -50361,7 +50367,7 @@
         <v>0.98882777807271205</v>
       </c>
     </row>
-    <row r="2003" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2003" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2003" s="4" t="s">
         <v>145</v>
       </c>
@@ -50399,7 +50405,7 @@
         <v>0.16550000000000001</v>
       </c>
     </row>
-    <row r="2004" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2004" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2004" s="4" t="s">
         <v>145</v>
       </c>
@@ -50413,7 +50419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2005" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2005" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2005" s="4" t="s">
         <v>145</v>
       </c>
@@ -50451,7 +50457,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="2006" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2006" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2006" s="4" t="s">
         <v>145</v>
       </c>
@@ -50468,7 +50474,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="2007" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2007" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2007" s="4" t="s">
         <v>145</v>
       </c>
@@ -50506,7 +50512,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="2008" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2008" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2008" s="4" t="s">
         <v>145</v>
       </c>
@@ -50520,7 +50526,7 @@
         <v>89.75</v>
       </c>
     </row>
-    <row r="2009" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2009" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2009" s="4" t="s">
         <v>145</v>
       </c>
@@ -50561,7 +50567,7 @@
         <v>0.30249058887758001</v>
       </c>
     </row>
-    <row r="2010" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2010" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2010" s="4" t="s">
         <v>145</v>
       </c>
@@ -50599,7 +50605,7 @@
         <v>0.15075</v>
       </c>
     </row>
-    <row r="2011" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2011" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2011" s="4" t="s">
         <v>145</v>
       </c>
@@ -50616,7 +50622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2012" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2012" s="4" t="s">
         <v>145</v>
       </c>
@@ -50632,9 +50638,6 @@
       <c r="S2012">
         <v>1221.2595441127801</v>
       </c>
-      <c r="W2012">
-        <v>21687.383565656499</v>
-      </c>
       <c r="Y2012">
         <v>939.17182000000003</v>
       </c>
@@ -50647,14 +50650,20 @@
       <c r="AL2012" t="s">
         <v>787</v>
       </c>
+      <c r="AQ2012">
+        <v>0</v>
+      </c>
       <c r="AS2012">
         <v>282.08772411277698</v>
       </c>
       <c r="AV2012">
         <v>780.86968134003996</v>
       </c>
-    </row>
-    <row r="2013" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW2012">
+        <v>838.6875</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2013" s="4" t="s">
         <v>145</v>
       </c>
@@ -50692,7 +50701,7 @@
         <v>0.14774999999999999</v>
       </c>
     </row>
-    <row r="2014" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2014" s="4" t="s">
         <v>82</v>
       </c>
@@ -50728,7 +50737,7 @@
         <v>0.20795</v>
       </c>
     </row>
-    <row r="2015" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2015" s="4" t="s">
         <v>82</v>
       </c>
@@ -50764,7 +50773,7 @@
         <v>0.20895</v>
       </c>
     </row>
-    <row r="2016" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2016" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2016" s="4" t="s">
         <v>82</v>
       </c>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -2826,7 +2826,7 @@
     <t>Kennedy</t>
   </si>
   <si>
-    <t>Wheat.Structure.HaunStage</t>
+    <t>Wheat.Structure.HaunStage.Value</t>
   </si>
 </sst>
 </file>
@@ -3255,7 +3255,7 @@
   <dimension ref="A1:BP3251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+      <selection activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14295" tabRatio="862"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14295" tabRatio="862" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
+    <sheet name="MaxLeafSize" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$B$2871</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5986" uniqueCount="937">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2827,6 +2828,12 @@
   </si>
   <si>
     <t>Wheat.Structure.HaunStage.Value</t>
+  </si>
+  <si>
+    <t>MaxLeafSize.Script.LeafPosition</t>
+  </si>
+  <si>
+    <t>MaxLeafSize.Script.MaxLeafSize</t>
   </si>
 </sst>
 </file>
@@ -3252,10 +3259,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP3251"/>
+  <dimension ref="A1:BP3255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AX4" sqref="AX4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AV3026" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3252" sqref="A3252:XFD3255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81905,7 +81915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3249" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3249" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3249" s="3" t="s">
         <v>761</v>
       </c>
@@ -81928,7 +81938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3250" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3250" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3250" s="3" t="s">
         <v>761</v>
       </c>
@@ -81951,7 +81961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3251" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3251" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3251" s="3" t="s">
         <v>761</v>
       </c>
@@ -81987,6 +81997,245 @@
       </c>
       <c r="AW3251">
         <v>597.76562030000002</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3252" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3252" t="s">
+        <v>855</v>
+      </c>
+      <c r="AL3252" t="s">
+        <v>784</v>
+      </c>
+      <c r="AY3252">
+        <v>192.14999999999998</v>
+      </c>
+      <c r="AZ3252">
+        <v>356.91100000000006</v>
+      </c>
+      <c r="BA3252">
+        <v>486.9020000000001</v>
+      </c>
+      <c r="BB3252">
+        <v>696.82333333333327</v>
+      </c>
+      <c r="BC3252">
+        <v>909.50999999999988</v>
+      </c>
+      <c r="BD3252">
+        <v>1225.124</v>
+      </c>
+      <c r="BE3252">
+        <v>1486.923157894737</v>
+      </c>
+      <c r="BF3252">
+        <v>1915.3036842105262</v>
+      </c>
+      <c r="BG3252">
+        <v>2068.6063157894737</v>
+      </c>
+      <c r="BH3252">
+        <v>2224.6378947368421</v>
+      </c>
+      <c r="BI3252">
+        <v>2283.4868421052638</v>
+      </c>
+      <c r="BJ3252">
+        <v>2214.1715789473687</v>
+      </c>
+      <c r="BK3252">
+        <v>1896.7468421052629</v>
+      </c>
+      <c r="BL3252">
+        <v>1715.7694736842104</v>
+      </c>
+      <c r="BM3252">
+        <v>1819.6621052631574</v>
+      </c>
+      <c r="BN3252">
+        <v>1890.0368421052628</v>
+      </c>
+      <c r="BO3252">
+        <v>1766.6242105263154</v>
+      </c>
+      <c r="BP3252">
+        <v>1549.2373333333335</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3253" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C3253" t="s">
+        <v>855</v>
+      </c>
+      <c r="AL3253" t="s">
+        <v>784</v>
+      </c>
+      <c r="AY3253">
+        <v>245.76899999999995</v>
+      </c>
+      <c r="AZ3253">
+        <v>458.20150000000001</v>
+      </c>
+      <c r="BA3253">
+        <v>687.43949999999984</v>
+      </c>
+      <c r="BB3253">
+        <v>872.94049999999982</v>
+      </c>
+      <c r="BC3253">
+        <v>1152.5949999999998</v>
+      </c>
+      <c r="BD3253">
+        <v>1489.4505555555554</v>
+      </c>
+      <c r="BE3253">
+        <v>1495.7538888888889</v>
+      </c>
+      <c r="BF3253">
+        <v>1520.7977777777778</v>
+      </c>
+      <c r="BG3253">
+        <v>1603.1138888888891</v>
+      </c>
+      <c r="BH3253">
+        <v>1600.4366666666665</v>
+      </c>
+      <c r="BI3253">
+        <v>1484.096111111111</v>
+      </c>
+      <c r="BJ3253">
+        <v>1662.3177777777773</v>
+      </c>
+      <c r="BK3253">
+        <v>1904.6233333333325</v>
+      </c>
+      <c r="BL3253">
+        <v>1930.5144444444441</v>
+      </c>
+      <c r="BM3253">
+        <v>1774.7949999999996</v>
+      </c>
+      <c r="BN3253">
+        <v>1517.141764705882</v>
+      </c>
+      <c r="BO3253">
+        <v>1260.4633333333331</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3254" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3254" t="s">
+        <v>855</v>
+      </c>
+      <c r="AL3254" t="s">
+        <v>784</v>
+      </c>
+      <c r="AY3254">
+        <v>238.571</v>
+      </c>
+      <c r="AZ3254">
+        <v>471.94736842105254</v>
+      </c>
+      <c r="BA3254">
+        <v>624.15842105263164</v>
+      </c>
+      <c r="BB3254">
+        <v>675.88</v>
+      </c>
+      <c r="BC3254">
+        <v>774.5474999999999</v>
+      </c>
+      <c r="BD3254">
+        <v>850.75736842105255</v>
+      </c>
+      <c r="BE3254">
+        <v>947.36388888888871</v>
+      </c>
+      <c r="BF3254">
+        <v>1032.2216666666666</v>
+      </c>
+      <c r="BG3254">
+        <v>1253.7194444444444</v>
+      </c>
+      <c r="BH3254">
+        <v>1760.5955555555554</v>
+      </c>
+      <c r="BI3254">
+        <v>2228.1944444444443</v>
+      </c>
+      <c r="BJ3254">
+        <v>2382.3888888888887</v>
+      </c>
+      <c r="BK3254">
+        <v>2202.0661111111112</v>
+      </c>
+      <c r="BL3254">
+        <v>1973.7905555555558</v>
+      </c>
+      <c r="BM3254">
+        <v>1693.1566666666668</v>
+      </c>
+      <c r="BN3254">
+        <v>1665.3</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3255" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3255" t="s">
+        <v>855</v>
+      </c>
+      <c r="AL3255" t="s">
+        <v>784</v>
+      </c>
+      <c r="AY3255">
+        <v>133.53454545454545</v>
+      </c>
+      <c r="AZ3255">
+        <v>231.02947368421044</v>
+      </c>
+      <c r="BA3255">
+        <v>312.68599999999998</v>
+      </c>
+      <c r="BB3255">
+        <v>351.3599999999999</v>
+      </c>
+      <c r="BC3255">
+        <v>425.16999999999996</v>
+      </c>
+      <c r="BD3255">
+        <v>586.24049999999988</v>
+      </c>
+      <c r="BE3255">
+        <v>902.76187500000003</v>
+      </c>
+      <c r="BF3255">
+        <v>1327.001176470588</v>
+      </c>
+      <c r="BG3255">
+        <v>1922.076111111111</v>
+      </c>
+      <c r="BH3255">
+        <v>2315.9259999999995</v>
+      </c>
+      <c r="BI3255">
+        <v>2395.0735</v>
+      </c>
+      <c r="BJ3255">
+        <v>2426.4579999999996</v>
+      </c>
+      <c r="BK3255">
+        <v>2130.7299999999996</v>
+      </c>
+      <c r="BL3255">
+        <v>1549.4</v>
       </c>
     </row>
   </sheetData>
@@ -81997,4 +82246,1940 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>192.14999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>245.76899999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>238.571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>133.53454545454545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>281.10833333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>237.96099999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>233.142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>239.24199999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>224.51049999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>226.61499999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>356.91100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>758</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>458.20150000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>760</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>471.94736842105254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>762</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>231.02947368421044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>489.15222222222224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>401.83750000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>411.94263157894738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>426.63400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>435.66199999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>413.06149999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>755</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>486.9020000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>758</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>687.43949999999984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>760</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>624.15842105263164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>762</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>312.68599999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>596.73250000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>479.97850000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>522.46499999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>515.0535000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>535.73250000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>490.745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>755</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>696.82333333333327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>758</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>872.94049999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>760</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>675.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>762</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>351.3599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>658.678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>594.25437499999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>631.77699999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>632.05149999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>622.32199999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>621.46800000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>755</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>909.50999999999988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>758</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1152.5949999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>760</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>774.5474999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>762</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>425.16999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>816.3325000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>755.02749999999992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>763.84199999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>821.09050000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>785.46649999999977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>762.01199999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>755</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1225.124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>758</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1489.4505555555554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>760</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>850.75736842105255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>762</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>586.24049999999988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>906.82599999999979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>821.76149999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>829.81349999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>863.88199999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>906.33799999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>807.51799999999992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>755</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1486.923157894737</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>758</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>1495.7538888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>760</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>947.36388888888871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>762</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>902.76187500000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>1050.9690000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>958.1880000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>1002.7179999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1037.3965000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>1017.7850000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>906.1244999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>755</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1915.3036842105262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>758</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1520.7977777777778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>760</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>1032.2216666666666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>762</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>1327.001176470588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>1139.663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>1133.8375000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1141.5539999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1154.3944999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>1152.1680000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>1029.1309999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>755</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>2068.6063157894737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>758</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>1603.1138888888891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>760</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>1253.7194444444444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>762</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>1922.076111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>1435.0554999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>1420.3544999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>1439.0509999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1483.0930000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>1334.009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>1306.5894999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>755</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>2224.6378947368421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>758</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>1600.4366666666665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>760</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>1760.5955555555554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>762</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>2315.9259999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>2067.6254999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>2067.0154999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>2059.7869999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>2107.5804999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1986.7394999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>2021.5399999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>755</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>2283.4868421052638</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>758</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>1484.096111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>760</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>2228.1944444444443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>762</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>2395.0735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>2258.3419999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>2317.5119999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>2336.8490000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>2302.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>2317.4205000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>2356.4605000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>755</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>2214.1715789473687</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>758</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>1662.3177777777773</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>760</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>2382.3888888888887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>762</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>2426.4579999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2191.7910000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2259.8364999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2197.0065000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2117.7979999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2219.1189999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>2301.1945000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>755</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>1896.7468421052629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>758</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>1904.6233333333325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>760</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>2202.0661111111112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>762</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>2130.7299999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>2572.0039999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>2548.0919999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>2446.893</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>2377.9629999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>2375.8584999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>2478.4910000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>755</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>1715.7694736842104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>758</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>1930.5144444444441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>760</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>1973.7905555555558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>762</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>1549.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>2710.0165000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>3005.3784999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>2840.2819999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>2700.148947368421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>2432.9544999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="C141">
+        <v>2406.0839999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>1819.6621052631574</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>758</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>1774.7949999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>760</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>1693.1566666666668</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>762</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>2198.2366666666662</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>2983.4228571428575</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>2841.1766666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>2503.5162500000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>2149.25875</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>2193.1025</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>755</v>
+      </c>
+      <c r="B152">
+        <v>16</v>
+      </c>
+      <c r="C152">
+        <v>1890.0368421052628</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>758</v>
+      </c>
+      <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153">
+        <v>1517.141764705882</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>760</v>
+      </c>
+      <c r="B154">
+        <v>16</v>
+      </c>
+      <c r="C154">
+        <v>1665.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>762</v>
+      </c>
+      <c r="B155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>146</v>
+      </c>
+      <c r="B159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>755</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162">
+        <v>1766.6242105263154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>758</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163">
+        <v>1260.4633333333331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>760</v>
+      </c>
+      <c r="B164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>762</v>
+      </c>
+      <c r="B165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>145</v>
+      </c>
+      <c r="B166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>755</v>
+      </c>
+      <c r="B172">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>1549.2373333333335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>758</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>760</v>
+      </c>
+      <c r="B174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>762</v>
+      </c>
+      <c r="B175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>145</v>
+      </c>
+      <c r="B176">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>146</v>
+      </c>
+      <c r="B179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>143</v>
+      </c>
+      <c r="B180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -3265,7 +3265,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AO70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW91" sqref="AW91:AW107"/>
+      <selection pane="bottomRight" activeCell="AW107" sqref="AW107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5652,8 +5652,8 @@
         <v>0</v>
       </c>
       <c r="AW91">
-        <f>100*P91</f>
-        <v>613.33333333333303</v>
+        <f>60*P91</f>
+        <v>367.99999999999983</v>
       </c>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.3">
@@ -5695,8 +5695,8 @@
         <v>6</v>
       </c>
       <c r="AW93">
-        <f t="shared" ref="AW92:AW108" si="0">100*P93</f>
-        <v>1126.6666666666699</v>
+        <f>60*P93</f>
+        <v>676.00000000000193</v>
       </c>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.3">
@@ -5738,8 +5738,8 @@
         <v>7.6315789473684204</v>
       </c>
       <c r="AW95">
-        <f t="shared" si="0"/>
-        <v>1070</v>
+        <f>60*P95</f>
+        <v>642</v>
       </c>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.3">
@@ -5772,8 +5772,8 @@
         <v>5.5488860835139704</v>
       </c>
       <c r="AW96">
-        <f t="shared" si="0"/>
-        <v>940</v>
+        <f>60*P96</f>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.3">
@@ -5797,8 +5797,8 @@
         <v>10.6666666666667</v>
       </c>
       <c r="AW97">
-        <f t="shared" si="0"/>
-        <v>673.33333333333303</v>
+        <f>60*P97</f>
+        <v>403.99999999999977</v>
       </c>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.3">
@@ -5831,8 +5831,8 @@
         <v>3.5856666666666701</v>
       </c>
       <c r="AW98">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>60*P98</f>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:49" x14ac:dyDescent="0.3">
@@ -5907,8 +5907,8 @@
         <v>4.21428571428571</v>
       </c>
       <c r="AW101">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>60*P101</f>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:49" x14ac:dyDescent="0.3">
@@ -5968,8 +5968,8 @@
         <v>9</v>
       </c>
       <c r="AW104">
-        <f t="shared" si="0"/>
-        <v>1116.6666666666699</v>
+        <f>60*P104</f>
+        <v>670.00000000000205</v>
       </c>
     </row>
     <row r="105" spans="1:49" x14ac:dyDescent="0.3">
@@ -5993,8 +5993,8 @@
         <v>9.5</v>
       </c>
       <c r="AW105">
-        <f t="shared" si="0"/>
-        <v>1120</v>
+        <f>60*P105</f>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.3">
@@ -6036,8 +6036,8 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AW107">
-        <f t="shared" si="0"/>
-        <v>588.88888888888903</v>
+        <f>60*P107</f>
+        <v>353.33333333333343</v>
       </c>
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.3">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -3262,10 +3262,10 @@
   <dimension ref="A1:BP3255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R1782" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB1388" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1807" sqref="U1807"/>
+      <selection pane="bottomRight" activeCell="AG1388" sqref="AG1388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37944,9 +37944,6 @@
       <c r="Y1467">
         <v>954.44929749999994</v>
       </c>
-      <c r="AG1467">
-        <v>0</v>
-      </c>
       <c r="AJ1467">
         <v>0</v>
       </c>
@@ -39986,9 +39983,6 @@
       <c r="Y1535">
         <v>885.45308499999999</v>
       </c>
-      <c r="AG1535">
-        <v>0</v>
-      </c>
       <c r="AJ1535">
         <v>0</v>
       </c>
@@ -42010,9 +42004,6 @@
       <c r="Y1603">
         <v>904.03921749999995</v>
       </c>
-      <c r="AG1603">
-        <v>0</v>
-      </c>
       <c r="AJ1603">
         <v>0</v>
       </c>
@@ -44034,9 +44025,6 @@
       <c r="Y1671">
         <v>861.81991500000004</v>
       </c>
-      <c r="AG1671">
-        <v>0</v>
-      </c>
       <c r="AJ1671">
         <v>0</v>
       </c>
@@ -46055,12 +46043,6 @@
       <c r="Y1739">
         <v>682.31069500000001</v>
       </c>
-      <c r="AG1739">
-        <v>0</v>
-      </c>
-      <c r="AJ1739">
-        <v>0</v>
-      </c>
       <c r="AL1739" t="s">
         <v>784</v>
       </c>
@@ -48080,9 +48062,6 @@
         <v>939.17182000000003</v>
       </c>
       <c r="AG1807">
-        <v>0</v>
-      </c>
-      <c r="AJ1807">
         <v>0</v>
       </c>
       <c r="AL1807" t="s">

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6004" uniqueCount="934">
   <si>
     <t>SimulationName</t>
   </si>
@@ -2822,6 +2822,9 @@
   </si>
   <si>
     <t>MaxLeafSize.Script.MaxLeafSize</t>
+  </si>
+  <si>
+    <t>Livingston</t>
   </si>
 </sst>
 </file>
@@ -3284,10 +3287,10 @@
   <dimension ref="A1:BP3252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AU2254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW2263" sqref="AW2263"/>
+      <selection pane="bottomRight" activeCell="C2296" sqref="C2296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -62871,8 +62874,12 @@
       <c r="A2291" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B2291" s="6"/>
-      <c r="C2291" s="11"/>
+      <c r="B2291" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C2291" s="11" t="s">
+        <v>917</v>
+      </c>
       <c r="R2291">
         <v>554</v>
       </c>
@@ -62899,8 +62906,12 @@
       <c r="A2292" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B2292" s="6"/>
-      <c r="C2292" s="11"/>
+      <c r="B2292" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C2292" s="11" t="s">
+        <v>917</v>
+      </c>
       <c r="R2292">
         <v>994</v>
       </c>
@@ -62927,8 +62938,12 @@
       <c r="A2293" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B2293" s="6"/>
-      <c r="C2293" s="11"/>
+      <c r="B2293" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C2293" s="11" t="s">
+        <v>933</v>
+      </c>
       <c r="R2293">
         <v>610</v>
       </c>
@@ -62955,8 +62970,12 @@
       <c r="A2294" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B2294" s="6"/>
-      <c r="C2294" s="11"/>
+      <c r="B2294" s="6">
+        <v>41639</v>
+      </c>
+      <c r="C2294" s="11" t="s">
+        <v>933</v>
+      </c>
       <c r="R2294">
         <v>787</v>
       </c>
@@ -62983,8 +63002,12 @@
       <c r="A2295" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B2295" s="6"/>
-      <c r="C2295" s="11"/>
+      <c r="B2295" s="6">
+        <v>42004</v>
+      </c>
+      <c r="C2295" s="11" t="s">
+        <v>917</v>
+      </c>
       <c r="R2295">
         <v>1437</v>
       </c>
@@ -63011,8 +63034,12 @@
       <c r="A2296" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B2296" s="6"/>
-      <c r="C2296" s="11"/>
+      <c r="B2296" s="6">
+        <v>42004</v>
+      </c>
+      <c r="C2296" s="11" t="s">
+        <v>917</v>
+      </c>
       <c r="R2296">
         <v>1784</v>
       </c>
@@ -63039,8 +63066,12 @@
       <c r="A2297" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B2297" s="6"/>
-      <c r="C2297" s="11"/>
+      <c r="B2297" s="6">
+        <v>42004</v>
+      </c>
+      <c r="C2297" s="11" t="s">
+        <v>933</v>
+      </c>
       <c r="R2297">
         <v>1392</v>
       </c>
@@ -63067,8 +63098,12 @@
       <c r="A2298" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B2298" s="6"/>
-      <c r="C2298" s="11"/>
+      <c r="B2298" s="6">
+        <v>42004</v>
+      </c>
+      <c r="C2298" s="11" t="s">
+        <v>933</v>
+      </c>
       <c r="R2298">
         <v>1408</v>
       </c>

--- a/Prototypes/Wheat/Observed.xlsx
+++ b/Prototypes/Wheat/Observed.xlsx
@@ -3341,10 +3341,10 @@
   <dimension ref="A1:BR3394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO3243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AO3237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3254" sqref="B3254"/>
+      <selection pane="bottomRight" activeCell="AR3254" sqref="AR3254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
